--- a/FAST_models/WindPACT/excel_proc/turbines/0.75A08V00_proc.xlsx
+++ b/FAST_models/WindPACT/excel_proc/turbines/0.75A08V00_proc.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="705" windowWidth="17565" windowHeight="12990" activeTab="1"/>
+    <workbookView xWindow="1560" yWindow="705" windowWidth="17565" windowHeight="12990"/>
   </bookViews>
   <sheets>
     <sheet name="Main Page" sheetId="5" r:id="rId1"/>
-    <sheet name="Blade_JR" sheetId="9" r:id="rId2"/>
-    <sheet name="Tower Data" sheetId="4" r:id="rId3"/>
-    <sheet name="Blade Data" sheetId="3" r:id="rId4"/>
-    <sheet name="GECbladedata" sheetId="6" r:id="rId5"/>
-    <sheet name="GECtwrdata" sheetId="7" r:id="rId6"/>
-    <sheet name="GECdrivetrain" sheetId="8" r:id="rId7"/>
+    <sheet name="Rotor_JR" sheetId="9" r:id="rId2"/>
+    <sheet name="Nacelle_JR" sheetId="10" r:id="rId3"/>
+    <sheet name="Tower Data" sheetId="4" r:id="rId4"/>
+    <sheet name="Blade Data" sheetId="3" r:id="rId5"/>
+    <sheet name="GECbladedata" sheetId="6" r:id="rId6"/>
+    <sheet name="GECtwrdata" sheetId="7" r:id="rId7"/>
+    <sheet name="GECdrivetrain" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Blade Data'!$A$6:$Q$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Blade Data'!$A$6:$Q$32</definedName>
   </definedNames>
   <calcPr calcId="145621" iterate="1" iterateDelta="1E-4"/>
 </workbook>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="410">
   <si>
     <t>number</t>
   </si>
@@ -1719,10 +1720,10 @@
     <t>&lt;--- AFName changed to match documentation/avaialble airfoils</t>
   </si>
   <si>
-    <t>EIEdge</t>
-  </si>
-  <si>
-    <t>EIFlap</t>
+    <t>blade modal damping ratios</t>
+  </si>
+  <si>
+    <t>Cylinder changed to produce correct AeroCent</t>
   </si>
 </sst>
 </file>
@@ -1736,7 +1737,7 @@
     <numFmt numFmtId="167" formatCode="0.0000"/>
     <numFmt numFmtId="168" formatCode="0.0E+00"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="36">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -1951,13 +1952,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2003,7 +1997,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -2562,12 +2556,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="375">
+  <cellXfs count="374">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3363,16 +3383,16 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="11" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3401,9 +3421,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3413,12 +3430,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3601,19 +3616,19 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.33741427482854974</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.33741427482854963</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4771354983247496E-2</c:v>
+                  <c:v>0.29594991734037218</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9390279955326658E-2</c:v>
+                  <c:v>0.22684265486007649</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.4009204927405833E-2</c:v>
+                  <c:v>0.15773539237978068</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8.8628129899484986E-2</c:v>
@@ -3764,19 +3779,19 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.33741427482854974</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.33741427482854963</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5.6555553178479854E-3</c:v>
+                  <c:v>0.27552300703927668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.5081480847594629E-2</c:v>
+                  <c:v>0.17237089405715517</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.4507406377341275E-2</c:v>
+                  <c:v>6.9218781075033597E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-3.3933331907087916E-2</c:v>
@@ -4002,11 +4017,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="81605376"/>
-        <c:axId val="81607296"/>
+        <c:axId val="82432768"/>
+        <c:axId val="82434688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81605376"/>
+        <c:axId val="82432768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4091,12 +4106,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81607296"/>
+        <c:crossAx val="82434688"/>
         <c:crossesAt val="-10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81607296"/>
+        <c:axId val="82434688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4180,7 +4195,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81605376"/>
+        <c:crossAx val="82432768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4730,6 +4745,18 @@
             </a:rPr>
             <a:t>                        report and available airfoils (JRinker)</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                          Changed AC for cylinders to yield correct AeroCent</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" sz="1000">
             <a:effectLst/>
           </a:endParaRPr>
@@ -5227,10 +5254,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U138"/>
+  <dimension ref="A1:U142"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D131" sqref="D131"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H123" sqref="H123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -5254,14 +5281,14 @@
       <c r="B1" s="337" t="s">
         <v>401</v>
       </c>
-      <c r="C1" s="363" t="s">
+      <c r="C1" s="365" t="s">
         <v>402</v>
       </c>
-      <c r="D1" s="364"/>
-      <c r="E1" s="364"/>
-      <c r="F1" s="364"/>
-      <c r="G1" s="364"/>
-      <c r="H1" s="365"/>
+      <c r="D1" s="366"/>
+      <c r="E1" s="366"/>
+      <c r="F1" s="366"/>
+      <c r="G1" s="366"/>
+      <c r="H1" s="367"/>
     </row>
     <row r="2" spans="1:8" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="A2" s="60" t="s">
@@ -5277,17 +5304,17 @@
       <c r="A3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="357" t="s">
+      <c r="B3" s="359" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="358"/>
-      <c r="D3" s="359"/>
+      <c r="C3" s="360"/>
+      <c r="D3" s="361"/>
       <c r="E3" s="35"/>
-      <c r="F3" s="360" t="s">
+      <c r="F3" s="362" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="361"/>
-      <c r="H3" s="362"/>
+      <c r="G3" s="363"/>
+      <c r="H3" s="364"/>
     </row>
     <row r="4" spans="1:8" ht="12" thickBot="1">
       <c r="A4" s="20" t="s">
@@ -5550,11 +5577,11 @@
       <c r="C18" s="330">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D18" s="366" t="s">
+      <c r="D18" s="368" t="s">
         <v>374</v>
       </c>
-      <c r="E18" s="365"/>
-      <c r="F18" s="365"/>
+      <c r="E18" s="367"/>
+      <c r="F18" s="367"/>
     </row>
     <row r="19" spans="1:21" ht="25.5" customHeight="1">
       <c r="A19" s="267" t="s">
@@ -5566,11 +5593,11 @@
       <c r="C19" s="330">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D19" s="366" t="s">
+      <c r="D19" s="368" t="s">
         <v>373</v>
       </c>
-      <c r="E19" s="365"/>
-      <c r="F19" s="365"/>
+      <c r="E19" s="367"/>
+      <c r="F19" s="367"/>
       <c r="I19" s="35" t="s">
         <v>69</v>
       </c>
@@ -6717,8 +6744,8 @@
       <c r="D115" s="304" t="s">
         <v>378</v>
       </c>
-      <c r="E115" s="305">
-        <v>0.5</v>
+      <c r="E115" s="373">
+        <v>0.25</v>
       </c>
       <c r="F115" s="303">
         <v>0.5</v>
@@ -6758,8 +6785,8 @@
       <c r="D116" s="310" t="s">
         <v>378</v>
       </c>
-      <c r="E116" s="305">
-        <v>0.5</v>
+      <c r="E116" s="373">
+        <v>0.25</v>
       </c>
       <c r="F116" s="309">
         <v>0.5</v>
@@ -6957,6 +6984,9 @@
       <c r="C122" s="200"/>
       <c r="D122" t="s">
         <v>351</v>
+      </c>
+      <c r="H122" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -7066,10 +7096,10 @@
       <c r="A134" s="344" t="s">
         <v>404</v>
       </c>
-      <c r="B134" s="367" t="s">
+      <c r="B134" s="354" t="s">
         <v>405</v>
       </c>
-      <c r="C134" s="367"/>
+      <c r="C134" s="355"/>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="345">
@@ -7110,9 +7140,39 @@
         <v>407</v>
       </c>
     </row>
+    <row r="139" spans="1:5" ht="12" thickBot="1"/>
+    <row r="140" spans="1:5" ht="12" thickBot="1">
+      <c r="A140" s="356" t="s">
+        <v>408</v>
+      </c>
+      <c r="B140" s="357"/>
+      <c r="C140" s="358"/>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="B141" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="C141" s="95" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="12" thickBot="1">
+      <c r="A142" s="264">
+        <v>0.03</v>
+      </c>
+      <c r="B142" s="265">
+        <v>0.03</v>
+      </c>
+      <c r="C142" s="266">
+        <v>0.03</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="A140:C140"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="C1:H1"/>
@@ -7130,303 +7190,358 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="12.75">
-      <c r="A1" s="353" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="353" t="s">
-        <v>154</v>
-      </c>
-      <c r="C1" s="353" t="s">
-        <v>364</v>
-      </c>
-      <c r="D1" s="353" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" s="353" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" s="353" t="s">
-        <v>408</v>
-      </c>
-      <c r="G1" s="353" t="s">
-        <v>409</v>
-      </c>
-      <c r="H1" s="353" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" s="354" t="s">
-        <v>324</v>
-      </c>
-      <c r="J1" s="353" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="355">
+    <row r="1" spans="1:10">
+      <c r="A1">
+        <f>'Main Page'!B13</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <f>'Main Page'!B47</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="str">
+        <f>'Main Page'!C135</f>
+        <v>cylinder</v>
+      </c>
+      <c r="B3" t="str">
+        <f>'Main Page'!C136</f>
+        <v>s818_2702.dat</v>
+      </c>
+      <c r="C3" t="str">
+        <f>'Main Page'!C137</f>
+        <v>s825_2102.dat</v>
+      </c>
+      <c r="D3" t="str">
+        <f>'Main Page'!C138</f>
+        <v>s826_1602.dat</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <f>'Main Page'!A142</f>
+        <v>0.03</v>
+      </c>
+      <c r="B4">
+        <f>'Main Page'!B142</f>
+        <v>0.03</v>
+      </c>
+      <c r="C4">
+        <f>'Main Page'!C142</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="12.75">
+      <c r="A5" s="353" t="str">
+        <f>'Main Page'!A114</f>
+        <v>Station</v>
+      </c>
+      <c r="B5" s="353" t="str">
+        <f>'Main Page'!H113</f>
+        <v>Unit Weight</v>
+      </c>
+      <c r="C5" s="353" t="str">
+        <f>'Main Page'!B125</f>
+        <v>Twist</v>
+      </c>
+      <c r="D5" s="353" t="str">
+        <f>'Main Page'!L113</f>
+        <v>GJ</v>
+      </c>
+      <c r="E5" s="353" t="str">
+        <f>'Main Page'!K113</f>
+        <v>EA</v>
+      </c>
+      <c r="F5" s="353" t="str">
+        <f>'Main Page'!J113</f>
+        <v>EIEdge</v>
+      </c>
+      <c r="G5" s="353" t="str">
+        <f>'Main Page'!I113</f>
+        <v>EIFlap</v>
+      </c>
+      <c r="H5" s="353" t="str">
+        <f>'Main Page'!B113</f>
+        <v>Chord</v>
+      </c>
+      <c r="I5" s="353" t="str">
+        <f>'Main Page'!E113</f>
+        <v>Gen. Axis Loc.</v>
+      </c>
+      <c r="J5" s="353" t="str">
+        <f>'Main Page'!A134</f>
+        <v>Airfoil ID</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="12.75">
+      <c r="A6" s="353">
         <f>'Main Page'!A115</f>
         <v>0.05</v>
       </c>
-      <c r="B2" s="355">
+      <c r="B6" s="353">
         <f>'Main Page'!H115</f>
         <v>1181.9474017501359</v>
       </c>
-      <c r="C2" s="355">
+      <c r="C6" s="353">
         <f>'Main Page'!B127 - 'Main Page'!B$132</f>
         <v>11.1</v>
       </c>
-      <c r="D2" s="356">
+      <c r="D6" s="353">
         <f>'Main Page'!L115</f>
         <v>815590611.695804</v>
       </c>
-      <c r="E2" s="356">
+      <c r="E6" s="353">
         <f>'Main Page'!K115</f>
         <v>10326627046.93685</v>
       </c>
-      <c r="F2" s="356">
+      <c r="F6" s="353">
         <f>'Main Page'!J115</f>
         <v>2362406058.2721553</v>
       </c>
-      <c r="G2" s="356">
+      <c r="G6" s="353">
         <f>'Main Page'!I115</f>
         <v>2362406058.2721553</v>
       </c>
-      <c r="H2" s="355">
+      <c r="H6" s="353">
         <f>'Main Page'!B115</f>
         <v>1.349657099314199</v>
       </c>
-      <c r="I2" s="355">
+      <c r="I6" s="353">
         <f>'Main Page'!E115</f>
-        <v>0.5</v>
-      </c>
-      <c r="J2" s="353">
+        <v>0.25</v>
+      </c>
+      <c r="J6" s="353">
         <f>'Main Page'!D127</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="355">
+    <row r="7" spans="1:10" ht="12.75">
+      <c r="A7" s="353">
         <f>'Main Page'!A116</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="B3" s="355">
+      <c r="B7" s="353">
         <f>'Main Page'!H116</f>
         <v>89.215305458599687</v>
       </c>
-      <c r="C3" s="355">
+      <c r="C7" s="353">
         <f>'Main Page'!B128 - 'Main Page'!B$132</f>
         <v>11.1</v>
       </c>
-      <c r="D3" s="356">
+      <c r="D7" s="353">
         <f>'Main Page'!L116</f>
         <v>102340392.98761402</v>
       </c>
-      <c r="E3" s="356">
+      <c r="E7" s="353">
         <f>'Main Page'!K116</f>
         <v>1295783621.589889</v>
       </c>
-      <c r="F3" s="356">
+      <c r="F7" s="353">
         <f>'Main Page'!J116</f>
         <v>292871613.66241747</v>
       </c>
-      <c r="G3" s="356">
+      <c r="G7" s="353">
         <f>'Main Page'!I116</f>
         <v>292871613.66241747</v>
       </c>
-      <c r="H3" s="355">
+      <c r="H7" s="353">
         <f>'Main Page'!B116</f>
         <v>1.3496570993141985</v>
       </c>
-      <c r="I3" s="355">
+      <c r="I7" s="353">
         <f>'Main Page'!E116</f>
-        <v>0.5</v>
-      </c>
-      <c r="J3" s="353">
+        <v>0.25</v>
+      </c>
+      <c r="J7" s="353">
         <f>'Main Page'!D128</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="12.75">
-      <c r="A4" s="355">
+    <row r="8" spans="1:10" ht="12.75">
+      <c r="A8" s="353">
         <f>'Main Page'!A117</f>
         <v>0.25</v>
       </c>
-      <c r="B4" s="355">
+      <c r="B8" s="353">
         <f>'Main Page'!H117</f>
         <v>117.20845675339662</v>
       </c>
-      <c r="C4" s="355">
+      <c r="C8" s="353">
         <f>'Main Page'!B129 - 'Main Page'!B$132</f>
         <v>11.1</v>
       </c>
-      <c r="D4" s="356">
+      <c r="D8" s="353">
         <f>'Main Page'!L117</f>
         <v>6059831.2604694702</v>
       </c>
-      <c r="E4" s="356">
+      <c r="E8" s="353">
         <f>'Main Page'!K117</f>
         <v>1535809947.6467729</v>
       </c>
-      <c r="F4" s="356">
+      <c r="F8" s="353">
         <f>'Main Page'!J117</f>
         <v>192688198.09657151</v>
       </c>
-      <c r="G4" s="356">
+      <c r="G8" s="353">
         <f>'Main Page'!I117</f>
         <v>71200412.886402056</v>
       </c>
-      <c r="H4" s="355">
+      <c r="H8" s="353">
         <f>'Main Page'!B117</f>
         <v>2</v>
       </c>
-      <c r="I4" s="355">
+      <c r="I8" s="353">
         <f>'Main Page'!E117</f>
         <v>0.34</v>
       </c>
-      <c r="J4" s="353">
+      <c r="J8" s="353">
         <f>'Main Page'!D129</f>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="12.75">
-      <c r="A5" s="355">
+    <row r="9" spans="1:10" ht="12.75">
+      <c r="A9" s="353">
         <f>'Main Page'!A118</f>
         <v>0.5</v>
       </c>
-      <c r="B5" s="355">
+      <c r="B9" s="353">
         <f>'Main Page'!H118</f>
         <v>82.955569360022096</v>
       </c>
-      <c r="C5" s="355">
+      <c r="C9" s="353">
         <f>'Main Page'!B130 - 'Main Page'!B$132</f>
         <v>3.1</v>
       </c>
-      <c r="D5" s="356">
+      <c r="D9" s="353">
         <f>'Main Page'!L118</f>
         <v>2885752.229026631</v>
       </c>
-      <c r="E5" s="356">
+      <c r="E9" s="353">
         <f>'Main Page'!K118</f>
         <v>1094705409.6217237</v>
       </c>
-      <c r="F5" s="356">
+      <c r="F9" s="353">
         <f>'Main Page'!J118</f>
         <v>79116868.754064709</v>
       </c>
-      <c r="G5" s="356">
+      <c r="G9" s="353">
         <f>'Main Page'!I118</f>
         <v>22286831.062062379</v>
       </c>
-      <c r="H5" s="355">
+      <c r="H9" s="353">
         <f>'Main Page'!B118</f>
         <v>1.5334010668021336</v>
       </c>
-      <c r="I5" s="355">
+      <c r="I9" s="353">
         <f>'Main Page'!E118</f>
         <v>0.31</v>
       </c>
-      <c r="J5" s="353">
+      <c r="J9" s="353">
         <f>'Main Page'!D130</f>
         <v>2.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="12.75">
-      <c r="A6" s="355">
+    <row r="10" spans="1:10" ht="12.75">
+      <c r="A10" s="353">
         <f>'Main Page'!A119</f>
         <v>0.75</v>
       </c>
-      <c r="B6" s="355">
+      <c r="B10" s="353">
         <f>'Main Page'!H119</f>
         <v>39.129612072462692</v>
       </c>
-      <c r="C6" s="355">
+      <c r="C10" s="353">
         <f>'Main Page'!B131 - 'Main Page'!B$132</f>
         <v>0.6</v>
       </c>
-      <c r="D6" s="356">
+      <c r="D10" s="353">
         <f>'Main Page'!L119</f>
         <v>574933.04560629011</v>
       </c>
-      <c r="E6" s="356">
+      <c r="E10" s="353">
         <f>'Main Page'!K119</f>
         <v>499093273.18287331</v>
       </c>
-      <c r="F6" s="356">
+      <c r="F10" s="353">
         <f>'Main Page'!J119</f>
         <v>21323059.849604025</v>
       </c>
-      <c r="G6" s="356">
+      <c r="G10" s="353">
         <f>'Main Page'!I119</f>
         <v>3549221.9475047868</v>
       </c>
-      <c r="H6" s="355">
+      <c r="H10" s="353">
         <f>'Main Page'!B119</f>
         <v>1.0670561341122682</v>
       </c>
-      <c r="I6" s="355">
+      <c r="I10" s="353">
         <f>'Main Page'!E119</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="J6" s="353">
+      <c r="J10" s="353">
         <f>'Main Page'!D131</f>
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="12.75">
-      <c r="A7" s="355">
+    <row r="11" spans="1:10" ht="12.75">
+      <c r="A11" s="353">
         <f>'Main Page'!A120</f>
         <v>1</v>
       </c>
-      <c r="B7" s="355">
+      <c r="B11" s="353">
         <f>'Main Page'!H120</f>
         <v>7.751396294306554</v>
       </c>
-      <c r="C7" s="355">
+      <c r="C11" s="353">
         <f>'Main Page'!B132 - 'Main Page'!B$132</f>
         <v>0</v>
       </c>
-      <c r="D7" s="356">
+      <c r="D11" s="353">
         <f>'Main Page'!L120</f>
         <v>61146.36439630347</v>
       </c>
-      <c r="E7" s="356">
+      <c r="E11" s="353">
         <f>'Main Page'!K120</f>
         <v>80734393.082686871</v>
       </c>
-      <c r="F7" s="356">
+      <c r="F11" s="353">
         <f>'Main Page'!J120</f>
         <v>2702250.8204062055</v>
       </c>
-      <c r="G7" s="356">
+      <c r="G11" s="353">
         <f>'Main Page'!I120</f>
         <v>79811.599091411103</v>
       </c>
-      <c r="H7" s="355">
+      <c r="H11" s="353">
         <f>'Main Page'!B120</f>
         <v>0.64719329438658879</v>
       </c>
-      <c r="I7" s="355">
+      <c r="I11" s="353">
         <f>'Main Page'!E120</f>
         <v>0.25</v>
       </c>
-      <c r="J7" s="353">
+      <c r="J11" s="353">
         <f>'Main Page'!D132</f>
         <v>4</v>
       </c>
@@ -7437,6 +7552,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <f>'Main Page'!B77</f>
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -7467,12 +7601,12 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="12" thickBot="1">
-      <c r="A2" s="368" t="s">
+      <c r="A2" s="369" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="369"/>
-      <c r="C2" s="369"/>
-      <c r="D2" s="370"/>
+      <c r="B2" s="370"/>
+      <c r="C2" s="370"/>
+      <c r="D2" s="371"/>
       <c r="F2" s="79" t="s">
         <v>54</v>
       </c>
@@ -8227,7 +8361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -8235,7 +8369,7 @@
   <dimension ref="A1:T85"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D2" sqref="D2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -8272,11 +8406,11 @@
         <f>GECbladedata!D12-B3</f>
         <v>23.75</v>
       </c>
-      <c r="D2" s="371" t="s">
+      <c r="D2" s="356" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="372"/>
-      <c r="F2" s="373"/>
+      <c r="E2" s="357"/>
+      <c r="F2" s="358"/>
     </row>
     <row r="3" spans="1:20" ht="23.25" thickBot="1">
       <c r="A3" s="98" t="s">
@@ -8460,7 +8594,7 @@
       </c>
       <c r="G10" s="106">
         <f>GECbladedata!H28</f>
-        <v>0</v>
+        <v>0.33741427482854974</v>
       </c>
       <c r="H10" s="65">
         <f>GECbladedata!I28</f>
@@ -8468,7 +8602,7 @@
       </c>
       <c r="I10" s="106">
         <f>GECbladedata!J28</f>
-        <v>0</v>
+        <v>0.33741427482854974</v>
       </c>
       <c r="J10" s="105">
         <f>GECbladedata!K28</f>
@@ -8535,7 +8669,7 @@
       </c>
       <c r="G11" s="106">
         <f>GECbladedata!H29</f>
-        <v>0</v>
+        <v>0.33741427482854963</v>
       </c>
       <c r="H11" s="65">
         <f>GECbladedata!I29</f>
@@ -8543,7 +8677,7 @@
       </c>
       <c r="I11" s="106">
         <f>GECbladedata!J29</f>
-        <v>0</v>
+        <v>0.33741427482854963</v>
       </c>
       <c r="J11" s="105">
         <f>GECbladedata!K29</f>
@@ -8610,7 +8744,7 @@
       </c>
       <c r="G12" s="106">
         <f>GECbladedata!H30</f>
-        <v>1.4771354983247496E-2</v>
+        <v>0.29594991734037218</v>
       </c>
       <c r="H12" s="65">
         <f>GECbladedata!I30</f>
@@ -8618,7 +8752,7 @@
       </c>
       <c r="I12" s="106">
         <f>GECbladedata!J30</f>
-        <v>-5.6555553178479854E-3</v>
+        <v>0.27552300703927668</v>
       </c>
       <c r="J12" s="105">
         <f>GECbladedata!K30</f>
@@ -8685,7 +8819,7 @@
       </c>
       <c r="G13" s="106">
         <f>GECbladedata!H31</f>
-        <v>3.9390279955326658E-2</v>
+        <v>0.22684265486007649</v>
       </c>
       <c r="H13" s="65">
         <f>GECbladedata!I31</f>
@@ -8693,7 +8827,7 @@
       </c>
       <c r="I13" s="106">
         <f>GECbladedata!J31</f>
-        <v>-1.5081480847594629E-2</v>
+        <v>0.17237089405715517</v>
       </c>
       <c r="J13" s="105">
         <f>GECbladedata!K31</f>
@@ -8760,7 +8894,7 @@
       </c>
       <c r="G14" s="106">
         <f>GECbladedata!H32</f>
-        <v>6.4009204927405833E-2</v>
+        <v>0.15773539237978068</v>
       </c>
       <c r="H14" s="65">
         <f>GECbladedata!I32</f>
@@ -8768,7 +8902,7 @@
       </c>
       <c r="I14" s="106">
         <f>GECbladedata!J32</f>
-        <v>-2.4507406377341275E-2</v>
+        <v>6.9218781075033597E-2</v>
       </c>
       <c r="J14" s="105">
         <f>GECbladedata!K32</f>
@@ -10441,7 +10575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -10449,7 +10583,7 @@
   <dimension ref="B2:U50"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="Q47" sqref="Q47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -10579,7 +10713,7 @@
       </c>
       <c r="F5" s="204">
         <f>'Main Page'!E115</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G5" s="202">
         <f>'Main Page'!F115</f>
@@ -10613,6 +10747,7 @@
         <f>'Main Page'!M115</f>
         <v>538.24909552528584</v>
       </c>
+      <c r="P5" s="104"/>
     </row>
     <row r="6" spans="2:21">
       <c r="B6" s="208">
@@ -10633,7 +10768,7 @@
       </c>
       <c r="F6" s="204">
         <f>'Main Page'!E116</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G6" s="209">
         <f>'Main Page'!F116</f>
@@ -10667,6 +10802,7 @@
         <f>'Main Page'!M116</f>
         <v>40.627914067071856</v>
       </c>
+      <c r="P6" s="104"/>
     </row>
     <row r="7" spans="2:21">
       <c r="B7" s="198">
@@ -10721,6 +10857,7 @@
         <f>'Main Page'!M117</f>
         <v>24.149591455091301</v>
       </c>
+      <c r="P7" s="104"/>
     </row>
     <row r="8" spans="2:21">
       <c r="B8" s="198">
@@ -10775,6 +10912,7 @@
         <f>'Main Page'!M118</f>
         <v>9.0573611452431102</v>
       </c>
+      <c r="P8" s="104"/>
     </row>
     <row r="9" spans="2:21">
       <c r="B9" s="198">
@@ -10829,6 +10967,7 @@
         <f>'Main Page'!M119</f>
         <v>2.2054187533799334</v>
       </c>
+      <c r="P9" s="104"/>
     </row>
     <row r="10" spans="2:21">
       <c r="B10" s="216">
@@ -10883,6 +11022,7 @@
         <f>'Main Page'!M120</f>
         <v>0.25688857997871806</v>
       </c>
+      <c r="P10" s="104"/>
     </row>
     <row r="11" spans="2:21">
       <c r="J11" s="102"/>
@@ -11102,14 +11242,14 @@
       </c>
       <c r="H18" s="228">
         <f t="shared" ref="H18:H23" si="4">C5*(G5-F5)</f>
-        <v>0</v>
+        <v>0.33741427482854974</v>
       </c>
       <c r="I18" s="186">
         <v>0</v>
       </c>
       <c r="J18" s="240">
         <f t="shared" ref="J18:J23" si="5">C5*(H5-F5)</f>
-        <v>0</v>
+        <v>0.33741427482854974</v>
       </c>
       <c r="K18" s="239">
         <f>'Main Page'!B127-'Main Page'!B$132</f>
@@ -11172,14 +11312,14 @@
       </c>
       <c r="H19" s="245">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.33741427482854963</v>
       </c>
       <c r="I19" s="8">
         <v>0</v>
       </c>
       <c r="J19" s="246">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.33741427482854963</v>
       </c>
       <c r="K19" s="244">
         <f>'Main Page'!B128-'Main Page'!B$132</f>
@@ -11637,7 +11777,7 @@
       </c>
       <c r="H28" s="228">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.33741427482854974</v>
       </c>
       <c r="I28" s="186">
         <f t="shared" si="11"/>
@@ -11645,7 +11785,7 @@
       </c>
       <c r="J28" s="240">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.33741427482854974</v>
       </c>
       <c r="K28" s="239">
         <f t="shared" si="11"/>
@@ -11711,7 +11851,7 @@
       </c>
       <c r="H29" s="245">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.33741427482854963</v>
       </c>
       <c r="I29" s="8">
         <f t="shared" si="12"/>
@@ -11719,7 +11859,7 @@
       </c>
       <c r="J29" s="246">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.33741427482854963</v>
       </c>
       <c r="K29" s="244">
         <f t="shared" si="12"/>
@@ -11784,7 +11924,7 @@
       </c>
       <c r="H30" s="245">
         <f>H$29+($B30-$B$29)*(H$33-H$29)/($B$33-$B$29)</f>
-        <v>1.4771354983247496E-2</v>
+        <v>0.29594991734037218</v>
       </c>
       <c r="I30" s="8">
         <f t="shared" ref="I30:Q32" si="13">I$29+($B30-$B$29)*(I$33-I$29)/($B$33-$B$29)</f>
@@ -11792,7 +11932,7 @@
       </c>
       <c r="J30" s="246">
         <f t="shared" si="13"/>
-        <v>-5.6555553178479854E-3</v>
+        <v>0.27552300703927668</v>
       </c>
       <c r="K30" s="244">
         <f t="shared" si="13"/>
@@ -11857,7 +11997,7 @@
       </c>
       <c r="H31" s="245">
         <f t="shared" si="16"/>
-        <v>3.9390279955326658E-2</v>
+        <v>0.22684265486007649</v>
       </c>
       <c r="I31" s="8">
         <f t="shared" si="13"/>
@@ -11865,7 +12005,7 @@
       </c>
       <c r="J31" s="246">
         <f t="shared" si="13"/>
-        <v>-1.5081480847594629E-2</v>
+        <v>0.17237089405715517</v>
       </c>
       <c r="K31" s="244">
         <f t="shared" si="13"/>
@@ -11930,7 +12070,7 @@
       </c>
       <c r="H32" s="245">
         <f t="shared" si="16"/>
-        <v>6.4009204927405833E-2</v>
+        <v>0.15773539237978068</v>
       </c>
       <c r="I32" s="8">
         <f t="shared" si="13"/>
@@ -11938,7 +12078,7 @@
       </c>
       <c r="J32" s="246">
         <f t="shared" si="13"/>
-        <v>-2.4507406377341275E-2</v>
+        <v>6.9218781075033597E-2</v>
       </c>
       <c r="K32" s="244">
         <f t="shared" si="13"/>
@@ -13160,7 +13300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O26"/>
   <sheetViews>
@@ -13986,14 +14126,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Y131"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="75" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -14942,12 +15082,12 @@
       <c r="A19" s="113"/>
       <c r="B19" s="166"/>
       <c r="C19" s="113"/>
-      <c r="D19" s="374" t="s">
+      <c r="D19" s="372" t="s">
         <v>240</v>
       </c>
-      <c r="E19" s="374"/>
-      <c r="F19" s="374"/>
-      <c r="G19" s="374"/>
+      <c r="E19" s="372"/>
+      <c r="F19" s="372"/>
+      <c r="G19" s="372"/>
       <c r="H19" s="113"/>
       <c r="I19" s="113"/>
       <c r="J19" s="122"/>

--- a/FAST_models/WindPACT/excel_proc/turbines/0.75A08V00_proc.xlsx
+++ b/FAST_models/WindPACT/excel_proc/turbines/0.75A08V00_proc.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="411">
   <si>
     <t>number</t>
   </si>
@@ -1724,6 +1724,9 @@
   </si>
   <si>
     <t>Cylinder changed to produce correct AeroCent</t>
+  </si>
+  <si>
+    <t>&lt;---- switched order to flap, flap, edge</t>
   </si>
 </sst>
 </file>
@@ -2587,7 +2590,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="374">
+  <cellXfs count="380">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3388,6 +3391,9 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="19" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3433,7 +3439,20 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4017,11 +4036,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="82432768"/>
-        <c:axId val="82434688"/>
+        <c:axId val="99322112"/>
+        <c:axId val="99341056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82432768"/>
+        <c:axId val="99322112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4106,12 +4125,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82434688"/>
+        <c:crossAx val="99341056"/>
         <c:crossesAt val="-10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82434688"/>
+        <c:axId val="99341056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4195,7 +4214,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82432768"/>
+        <c:crossAx val="99322112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4757,6 +4776,18 @@
             </a:rPr>
             <a:t>                          Changed AC for cylinders to yield correct AeroCent</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	Switched modal damping order</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" sz="1000">
             <a:effectLst/>
           </a:endParaRPr>
@@ -5254,10 +5285,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U142"/>
+  <dimension ref="A1:U149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H123" sqref="H123"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T62" sqref="T62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -5281,14 +5312,14 @@
       <c r="B1" s="337" t="s">
         <v>401</v>
       </c>
-      <c r="C1" s="365" t="s">
+      <c r="C1" s="366" t="s">
         <v>402</v>
       </c>
-      <c r="D1" s="366"/>
-      <c r="E1" s="366"/>
-      <c r="F1" s="366"/>
-      <c r="G1" s="366"/>
-      <c r="H1" s="367"/>
+      <c r="D1" s="367"/>
+      <c r="E1" s="367"/>
+      <c r="F1" s="367"/>
+      <c r="G1" s="367"/>
+      <c r="H1" s="368"/>
     </row>
     <row r="2" spans="1:8" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="A2" s="60" t="s">
@@ -5304,17 +5335,17 @@
       <c r="A3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="359" t="s">
+      <c r="B3" s="360" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="360"/>
-      <c r="D3" s="361"/>
+      <c r="C3" s="361"/>
+      <c r="D3" s="362"/>
       <c r="E3" s="35"/>
-      <c r="F3" s="362" t="s">
+      <c r="F3" s="363" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="363"/>
-      <c r="H3" s="364"/>
+      <c r="G3" s="364"/>
+      <c r="H3" s="365"/>
     </row>
     <row r="4" spans="1:8" ht="12" thickBot="1">
       <c r="A4" s="20" t="s">
@@ -5577,11 +5608,11 @@
       <c r="C18" s="330">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D18" s="368" t="s">
+      <c r="D18" s="369" t="s">
         <v>374</v>
       </c>
-      <c r="E18" s="367"/>
-      <c r="F18" s="367"/>
+      <c r="E18" s="368"/>
+      <c r="F18" s="368"/>
     </row>
     <row r="19" spans="1:21" ht="25.5" customHeight="1">
       <c r="A19" s="267" t="s">
@@ -5593,11 +5624,11 @@
       <c r="C19" s="330">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D19" s="368" t="s">
+      <c r="D19" s="369" t="s">
         <v>373</v>
       </c>
-      <c r="E19" s="367"/>
-      <c r="F19" s="367"/>
+      <c r="E19" s="368"/>
+      <c r="F19" s="368"/>
       <c r="I19" s="35" t="s">
         <v>69</v>
       </c>
@@ -6744,7 +6775,7 @@
       <c r="D115" s="304" t="s">
         <v>378</v>
       </c>
-      <c r="E115" s="373">
+      <c r="E115" s="356">
         <v>0.25</v>
       </c>
       <c r="F115" s="303">
@@ -6785,7 +6816,7 @@
       <c r="D116" s="310" t="s">
         <v>378</v>
       </c>
-      <c r="E116" s="373">
+      <c r="E116" s="356">
         <v>0.25</v>
       </c>
       <c r="F116" s="309">
@@ -7142,33 +7173,66 @@
     </row>
     <row r="139" spans="1:5" ht="12" thickBot="1"/>
     <row r="140" spans="1:5" ht="12" thickBot="1">
-      <c r="A140" s="356" t="s">
+      <c r="A140" s="357" t="s">
         <v>408</v>
       </c>
-      <c r="B140" s="357"/>
-      <c r="C140" s="358"/>
+      <c r="B140" s="358"/>
+      <c r="C140" s="359"/>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="B141" s="94" t="s">
+      <c r="B141" s="375" t="s">
+        <v>36</v>
+      </c>
+      <c r="C141" s="374" t="s">
         <v>37</v>
       </c>
-      <c r="C141" s="95" t="s">
-        <v>36</v>
+      <c r="E141" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="12" thickBot="1">
       <c r="A142" s="264">
         <v>0.03</v>
       </c>
-      <c r="B142" s="265">
+      <c r="B142" s="376">
         <v>0.03</v>
       </c>
-      <c r="C142" s="266">
+      <c r="C142" s="377">
         <v>0.03</v>
       </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="5"/>
+      <c r="B145" s="378"/>
+      <c r="C145" s="378"/>
+      <c r="D145" s="378"/>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="5"/>
+      <c r="B146" s="378"/>
+      <c r="C146" s="378"/>
+      <c r="D146" s="378"/>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="5"/>
+      <c r="B147" s="378"/>
+      <c r="C147" s="379"/>
+      <c r="D147" s="378"/>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="5"/>
+      <c r="B148" s="378"/>
+      <c r="C148" s="378"/>
+      <c r="D148" s="378"/>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="5"/>
+      <c r="B149" s="378"/>
+      <c r="C149" s="378"/>
+      <c r="D149" s="378"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7193,7 +7257,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -7601,12 +7665,12 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="12" thickBot="1">
-      <c r="A2" s="369" t="s">
+      <c r="A2" s="370" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="370"/>
-      <c r="C2" s="370"/>
-      <c r="D2" s="371"/>
+      <c r="B2" s="371"/>
+      <c r="C2" s="371"/>
+      <c r="D2" s="372"/>
       <c r="F2" s="79" t="s">
         <v>54</v>
       </c>
@@ -8406,11 +8470,11 @@
         <f>GECbladedata!D12-B3</f>
         <v>23.75</v>
       </c>
-      <c r="D2" s="356" t="s">
+      <c r="D2" s="357" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="357"/>
-      <c r="F2" s="358"/>
+      <c r="E2" s="358"/>
+      <c r="F2" s="359"/>
     </row>
     <row r="3" spans="1:20" ht="23.25" thickBot="1">
       <c r="A3" s="98" t="s">
@@ -15082,12 +15146,12 @@
       <c r="A19" s="113"/>
       <c r="B19" s="166"/>
       <c r="C19" s="113"/>
-      <c r="D19" s="372" t="s">
+      <c r="D19" s="373" t="s">
         <v>240</v>
       </c>
-      <c r="E19" s="372"/>
-      <c r="F19" s="372"/>
-      <c r="G19" s="372"/>
+      <c r="E19" s="373"/>
+      <c r="F19" s="373"/>
+      <c r="G19" s="373"/>
       <c r="H19" s="113"/>
       <c r="I19" s="113"/>
       <c r="J19" s="122"/>

--- a/FAST_models/WindPACT/excel_proc/turbines/0.75A08V00_proc.xlsx
+++ b/FAST_models/WindPACT/excel_proc/turbines/0.75A08V00_proc.xlsx
@@ -3394,6 +3394,22 @@
     <xf numFmtId="164" fontId="19" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3437,22 +3453,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4036,11 +4036,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="99322112"/>
-        <c:axId val="99341056"/>
+        <c:axId val="100789632"/>
+        <c:axId val="114582656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99322112"/>
+        <c:axId val="100789632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4125,12 +4125,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99341056"/>
+        <c:crossAx val="114582656"/>
         <c:crossesAt val="-10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99341056"/>
+        <c:axId val="114582656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4214,7 +4214,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99322112"/>
+        <c:crossAx val="100789632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5287,8 +5287,8 @@
   </sheetPr>
   <dimension ref="A1:U149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T62" sqref="T62"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -5312,14 +5312,14 @@
       <c r="B1" s="337" t="s">
         <v>401</v>
       </c>
-      <c r="C1" s="366" t="s">
+      <c r="C1" s="372" t="s">
         <v>402</v>
       </c>
-      <c r="D1" s="367"/>
-      <c r="E1" s="367"/>
-      <c r="F1" s="367"/>
-      <c r="G1" s="367"/>
-      <c r="H1" s="368"/>
+      <c r="D1" s="373"/>
+      <c r="E1" s="373"/>
+      <c r="F1" s="373"/>
+      <c r="G1" s="373"/>
+      <c r="H1" s="374"/>
     </row>
     <row r="2" spans="1:8" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="A2" s="60" t="s">
@@ -5335,17 +5335,17 @@
       <c r="A3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="360" t="s">
+      <c r="B3" s="366" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="361"/>
-      <c r="D3" s="362"/>
+      <c r="C3" s="367"/>
+      <c r="D3" s="368"/>
       <c r="E3" s="35"/>
-      <c r="F3" s="363" t="s">
+      <c r="F3" s="369" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="364"/>
-      <c r="H3" s="365"/>
+      <c r="G3" s="370"/>
+      <c r="H3" s="371"/>
     </row>
     <row r="4" spans="1:8" ht="12" thickBot="1">
       <c r="A4" s="20" t="s">
@@ -5553,8 +5553,8 @@
         <v>43</v>
       </c>
       <c r="B14" s="336">
-        <f>PI()*(B58^4-B59^4)/2/(GECdrivetrain!C7)*GECtwrdata!F7</f>
-        <v>2074343118.9103956</v>
+        <f>PI()*(B58^4-B59^4)/32/(GECdrivetrain!C7)*GECtwrdata!F7</f>
+        <v>129646444.93189973</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="22.5">
@@ -5608,11 +5608,11 @@
       <c r="C18" s="330">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D18" s="369" t="s">
+      <c r="D18" s="375" t="s">
         <v>374</v>
       </c>
-      <c r="E18" s="368"/>
-      <c r="F18" s="368"/>
+      <c r="E18" s="374"/>
+      <c r="F18" s="374"/>
     </row>
     <row r="19" spans="1:21" ht="25.5" customHeight="1">
       <c r="A19" s="267" t="s">
@@ -5624,11 +5624,11 @@
       <c r="C19" s="330">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D19" s="369" t="s">
+      <c r="D19" s="375" t="s">
         <v>373</v>
       </c>
-      <c r="E19" s="368"/>
-      <c r="F19" s="368"/>
+      <c r="E19" s="374"/>
+      <c r="F19" s="374"/>
       <c r="I19" s="35" t="s">
         <v>69</v>
       </c>
@@ -7173,20 +7173,20 @@
     </row>
     <row r="139" spans="1:5" ht="12" thickBot="1"/>
     <row r="140" spans="1:5" ht="12" thickBot="1">
-      <c r="A140" s="357" t="s">
+      <c r="A140" s="363" t="s">
         <v>408</v>
       </c>
-      <c r="B140" s="358"/>
-      <c r="C140" s="359"/>
+      <c r="B140" s="364"/>
+      <c r="C140" s="365"/>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="B141" s="375" t="s">
+      <c r="B141" s="358" t="s">
         <v>36</v>
       </c>
-      <c r="C141" s="374" t="s">
+      <c r="C141" s="357" t="s">
         <v>37</v>
       </c>
       <c r="E141" t="s">
@@ -7197,42 +7197,42 @@
       <c r="A142" s="264">
         <v>0.03</v>
       </c>
-      <c r="B142" s="376">
+      <c r="B142" s="359">
         <v>0.03</v>
       </c>
-      <c r="C142" s="377">
+      <c r="C142" s="360">
         <v>0.03</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="5"/>
-      <c r="B145" s="378"/>
-      <c r="C145" s="378"/>
-      <c r="D145" s="378"/>
+      <c r="B145" s="361"/>
+      <c r="C145" s="361"/>
+      <c r="D145" s="361"/>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="5"/>
-      <c r="B146" s="378"/>
-      <c r="C146" s="378"/>
-      <c r="D146" s="378"/>
+      <c r="B146" s="361"/>
+      <c r="C146" s="361"/>
+      <c r="D146" s="361"/>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="5"/>
-      <c r="B147" s="378"/>
-      <c r="C147" s="379"/>
-      <c r="D147" s="378"/>
+      <c r="B147" s="361"/>
+      <c r="C147" s="362"/>
+      <c r="D147" s="361"/>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="5"/>
-      <c r="B148" s="378"/>
-      <c r="C148" s="378"/>
-      <c r="D148" s="378"/>
+      <c r="B148" s="361"/>
+      <c r="C148" s="361"/>
+      <c r="D148" s="361"/>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="5"/>
-      <c r="B149" s="378"/>
-      <c r="C149" s="378"/>
-      <c r="D149" s="378"/>
+      <c r="B149" s="361"/>
+      <c r="C149" s="361"/>
+      <c r="D149" s="361"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7665,12 +7665,12 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="12" thickBot="1">
-      <c r="A2" s="370" t="s">
+      <c r="A2" s="376" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="371"/>
-      <c r="C2" s="371"/>
-      <c r="D2" s="372"/>
+      <c r="B2" s="377"/>
+      <c r="C2" s="377"/>
+      <c r="D2" s="378"/>
       <c r="F2" s="79" t="s">
         <v>54</v>
       </c>
@@ -8470,11 +8470,11 @@
         <f>GECbladedata!D12-B3</f>
         <v>23.75</v>
       </c>
-      <c r="D2" s="357" t="s">
+      <c r="D2" s="363" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="358"/>
-      <c r="F2" s="359"/>
+      <c r="E2" s="364"/>
+      <c r="F2" s="365"/>
     </row>
     <row r="3" spans="1:20" ht="23.25" thickBot="1">
       <c r="A3" s="98" t="s">
@@ -15146,12 +15146,12 @@
       <c r="A19" s="113"/>
       <c r="B19" s="166"/>
       <c r="C19" s="113"/>
-      <c r="D19" s="373" t="s">
+      <c r="D19" s="379" t="s">
         <v>240</v>
       </c>
-      <c r="E19" s="373"/>
-      <c r="F19" s="373"/>
-      <c r="G19" s="373"/>
+      <c r="E19" s="379"/>
+      <c r="F19" s="379"/>
+      <c r="G19" s="379"/>
       <c r="H19" s="113"/>
       <c r="I19" s="113"/>
       <c r="J19" s="122"/>

--- a/FAST_models/WindPACT/excel_proc/turbines/0.75A08V00_proc.xlsx
+++ b/FAST_models/WindPACT/excel_proc/turbines/0.75A08V00_proc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="705" windowWidth="17565" windowHeight="12990" activeTab="3"/>
+    <workbookView xWindow="1560" yWindow="705" windowWidth="17565" windowHeight="12990" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Main Page" sheetId="5" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="464">
   <si>
     <t>number</t>
   </si>
@@ -1706,9 +1706,6 @@
     <t>blade modal damping ratios</t>
   </si>
   <si>
-    <t>Drivetrain natural frequency (rad/s)</t>
-  </si>
-  <si>
     <t>&lt;-- added this (JR)</t>
   </si>
   <si>
@@ -1838,9 +1835,6 @@
     <t>Generator efficiency</t>
   </si>
   <si>
-    <t>Drivetrain natural frequency</t>
-  </si>
-  <si>
     <t>Rated Power (W)</t>
   </si>
   <si>
@@ -1878,6 +1872,21 @@
   </si>
   <si>
     <t>Tower damping (%)</t>
+  </si>
+  <si>
+    <t>&lt;-- fixed this (JR)</t>
+  </si>
+  <si>
+    <t>Rotor inertia (kg-m^2)</t>
+  </si>
+  <si>
+    <t>Rotor Inertia (kg-m^2)</t>
+  </si>
+  <si>
+    <t>Drivetrain damping (% critical)</t>
+  </si>
+  <si>
+    <t>Drivetrain damping</t>
   </si>
 </sst>
 </file>
@@ -3582,9 +3591,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3649,59 +3655,62 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="170" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4283,11 +4292,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="81777024"/>
-        <c:axId val="81778944"/>
+        <c:axId val="82863616"/>
+        <c:axId val="82865536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81777024"/>
+        <c:axId val="82863616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4372,12 +4381,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81778944"/>
+        <c:crossAx val="82865536"/>
         <c:crossesAt val="-10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81778944"/>
+        <c:axId val="82865536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4461,7 +4470,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81777024"/>
+        <c:crossAx val="82863616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4565,13 +4574,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4754,7 +4763,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>117613</xdr:rowOff>
+      <xdr:rowOff>274983</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4808,9 +4817,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>247651</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>89038</xdr:rowOff>
+      <xdr:rowOff>246408</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4859,13 +4868,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5059,13 +5068,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5532,15 +5541,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U154"/>
+  <dimension ref="A1:U155"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G85" sqref="G85"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="34.83203125" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" customWidth="1"/>
     <col min="5" max="5" width="14.1640625" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" customWidth="1"/>
@@ -5556,17 +5566,17 @@
       <c r="A1" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="359" t="s">
-        <v>407</v>
-      </c>
-      <c r="C1" s="391" t="s">
+      <c r="B1" s="358" t="s">
+        <v>406</v>
+      </c>
+      <c r="C1" s="396" t="s">
         <v>398</v>
       </c>
-      <c r="D1" s="392"/>
-      <c r="E1" s="392"/>
-      <c r="F1" s="392"/>
-      <c r="G1" s="392"/>
-      <c r="H1" s="393"/>
+      <c r="D1" s="397"/>
+      <c r="E1" s="397"/>
+      <c r="F1" s="397"/>
+      <c r="G1" s="397"/>
+      <c r="H1" s="398"/>
     </row>
     <row r="2" spans="1:8" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="A2" s="60" t="s">
@@ -5582,17 +5592,17 @@
       <c r="A3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="385" t="s">
+      <c r="B3" s="390" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="386"/>
-      <c r="D3" s="387"/>
+      <c r="C3" s="391"/>
+      <c r="D3" s="392"/>
       <c r="E3" s="35"/>
-      <c r="F3" s="388" t="s">
+      <c r="F3" s="393" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="389"/>
-      <c r="H3" s="390"/>
+      <c r="G3" s="394"/>
+      <c r="H3" s="395"/>
     </row>
     <row r="4" spans="1:8" ht="12" thickBot="1">
       <c r="A4" s="20" t="s">
@@ -5800,120 +5810,124 @@
         <v>43</v>
       </c>
       <c r="B14" s="335">
-        <f>PI()*(B63^4-B64^4)/32/(GECdrivetrain!C7)*GECtwrdata!F7</f>
+        <f>PI()*(B64^4-B65^4)/32/(GECdrivetrain!C7)*GECtwrdata!F7</f>
         <v>129646444.93189973</v>
       </c>
+      <c r="D14" s="354" t="s">
+        <v>459</v>
+      </c>
+      <c r="E14" s="355"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="61" t="s">
+        <v>462</v>
+      </c>
+      <c r="B15" s="385">
+        <v>5</v>
+      </c>
+      <c r="D15" s="354" t="s">
         <v>403</v>
       </c>
-      <c r="B15" s="354">
-        <v>56</v>
-      </c>
-      <c r="D15" s="355" t="s">
-        <v>404</v>
-      </c>
-      <c r="E15" s="356"/>
-    </row>
-    <row r="16" spans="1:8" ht="23.45" customHeight="1">
+      <c r="E15" s="355"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="61" t="s">
+        <v>460</v>
+      </c>
+      <c r="B16" s="385">
+        <v>665139</v>
+      </c>
+      <c r="D16" s="354" t="s">
+        <v>403</v>
+      </c>
+      <c r="E16" s="355"/>
+    </row>
+    <row r="17" spans="1:21" ht="23.45" customHeight="1">
+      <c r="A17" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="273">
+      <c r="B17" s="273">
         <v>1.2250000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="13.15" customHeight="1">
-      <c r="A17" s="61" t="s">
+    <row r="18" spans="1:21" ht="13.15" customHeight="1">
+      <c r="A18" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="273">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B18" s="273">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
         <v>70</v>
       </c>
-      <c r="I17" s="179" t="s">
+      <c r="I18" s="179" t="s">
         <v>315</v>
       </c>
-      <c r="J17" s="180"/>
-      <c r="K17" s="180"/>
-      <c r="L17" s="180"/>
-      <c r="M17" s="180"/>
-      <c r="N17" s="180"/>
-      <c r="P17" s="181" t="s">
+      <c r="J18" s="180"/>
+      <c r="K18" s="180"/>
+      <c r="L18" s="180"/>
+      <c r="M18" s="180"/>
+      <c r="N18" s="180"/>
+      <c r="P18" s="181" t="s">
         <v>316</v>
       </c>
-      <c r="Q17" s="182"/>
-      <c r="R17" s="182"/>
-      <c r="S17" s="182"/>
-      <c r="T17" s="182"/>
-      <c r="U17" s="182"/>
-    </row>
-    <row r="18" spans="1:21" ht="24" customHeight="1" thickBot="1">
-      <c r="A18" s="62" t="s">
+      <c r="Q18" s="182"/>
+      <c r="R18" s="182"/>
+      <c r="S18" s="182"/>
+      <c r="T18" s="182"/>
+      <c r="U18" s="182"/>
+    </row>
+    <row r="19" spans="1:21" ht="24" customHeight="1" thickBot="1">
+      <c r="A19" s="62" t="s">
         <v>374</v>
       </c>
-      <c r="B18" s="273">
+      <c r="B19" s="273">
         <v>0.95</v>
       </c>
-      <c r="C18" s="329">
+      <c r="C19" s="329">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D18" s="394" t="s">
+      <c r="D19" s="399" t="s">
         <v>373</v>
       </c>
-      <c r="E18" s="393"/>
-      <c r="F18" s="393"/>
-    </row>
-    <row r="19" spans="1:21" ht="25.5" customHeight="1">
-      <c r="A19" s="266" t="s">
+      <c r="E19" s="398"/>
+      <c r="F19" s="398"/>
+    </row>
+    <row r="20" spans="1:21" ht="25.5" customHeight="1">
+      <c r="A20" s="266" t="s">
         <v>371</v>
       </c>
-      <c r="B19" s="272">
+      <c r="B20" s="272">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C19" s="329">
+      <c r="C20" s="329">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D19" s="394" t="s">
+      <c r="D20" s="399" t="s">
         <v>372</v>
       </c>
-      <c r="E19" s="393"/>
-      <c r="F19" s="393"/>
-      <c r="I19" s="35" t="s">
+      <c r="E20" s="398"/>
+      <c r="F20" s="398"/>
+      <c r="I20" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="J19" s="170"/>
-      <c r="K19" s="170"/>
-      <c r="L19" s="170"/>
-      <c r="M19" s="170"/>
-      <c r="N19" s="170"/>
-      <c r="O19" s="170"/>
-      <c r="P19" s="171"/>
-    </row>
-    <row r="20" spans="1:21" ht="11.45" customHeight="1">
-      <c r="A20" s="61" t="s">
+      <c r="J20" s="170"/>
+      <c r="K20" s="170"/>
+      <c r="L20" s="170"/>
+      <c r="M20" s="170"/>
+      <c r="N20" s="170"/>
+      <c r="O20" s="170"/>
+      <c r="P20" s="171"/>
+    </row>
+    <row r="21" spans="1:21" ht="11.45" customHeight="1">
+      <c r="A21" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="273" t="s">
+      <c r="B21" s="273" t="s">
         <v>33</v>
       </c>
-      <c r="I20" s="172" t="s">
+      <c r="I21" s="172" t="s">
         <v>317</v>
-      </c>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="173"/>
-    </row>
-    <row r="21" spans="1:21">
-      <c r="I21" s="172" t="s">
-        <v>318</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
@@ -5924,12 +5938,8 @@
       <c r="P21" s="173"/>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="100" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="29"/>
       <c r="I22" s="172" t="s">
-        <v>65</v>
+        <v>318</v>
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
@@ -5939,18 +5949,13 @@
       <c r="O22" s="8"/>
       <c r="P22" s="173"/>
     </row>
-    <row r="23" spans="1:21" ht="12.6" customHeight="1">
+    <row r="23" spans="1:21">
       <c r="A23" s="100" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="268">
-        <f>B85</f>
-        <v>28.647889756541161</v>
-      </c>
-      <c r="G23" s="89"/>
-      <c r="H23" s="12"/>
+        <v>77</v>
+      </c>
+      <c r="B23" s="29"/>
       <c r="I23" s="172" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
@@ -5960,316 +5965,326 @@
       <c r="O23" s="8"/>
       <c r="P23" s="173"/>
     </row>
-    <row r="24" spans="1:21" ht="12" thickBot="1">
+    <row r="24" spans="1:21" ht="12.6" customHeight="1">
       <c r="A24" s="100" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="269">
-        <v>1</v>
+        <v>74</v>
+      </c>
+      <c r="B24" s="268">
+        <f>B86</f>
+        <v>28.647889756541161</v>
       </c>
       <c r="G24" s="89"/>
       <c r="H24" s="12"/>
-      <c r="I24" s="174" t="s">
-        <v>67</v>
-      </c>
-      <c r="J24" s="175"/>
-      <c r="K24" s="175"/>
-      <c r="L24" s="175"/>
-      <c r="M24" s="175"/>
-      <c r="N24" s="175"/>
-      <c r="O24" s="175"/>
-      <c r="P24" s="178"/>
-    </row>
-    <row r="25" spans="1:21" ht="9.75" customHeight="1">
+      <c r="I24" s="172" t="s">
+        <v>66</v>
+      </c>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="173"/>
+    </row>
+    <row r="25" spans="1:21" ht="12" thickBot="1">
       <c r="A25" s="100" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25" s="269">
-        <f>B88</f>
-        <v>750</v>
+        <v>1</v>
       </c>
       <c r="G25" s="89"/>
       <c r="H25" s="12"/>
-    </row>
-    <row r="27" spans="1:21" ht="12.6" customHeight="1">
-      <c r="A27" s="109" t="s">
+      <c r="I25" s="174" t="s">
+        <v>67</v>
+      </c>
+      <c r="J25" s="175"/>
+      <c r="K25" s="175"/>
+      <c r="L25" s="175"/>
+      <c r="M25" s="175"/>
+      <c r="N25" s="175"/>
+      <c r="O25" s="175"/>
+      <c r="P25" s="178"/>
+    </row>
+    <row r="26" spans="1:21" ht="9.75" customHeight="1">
+      <c r="A26" s="100" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="269">
+        <f>B89</f>
+        <v>750</v>
+      </c>
+      <c r="G26" s="89"/>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="28" spans="1:21" ht="12.6" customHeight="1">
+      <c r="A28" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="29"/>
-    </row>
-    <row r="28" spans="1:21" ht="21" customHeight="1">
-      <c r="A28" s="100" t="s">
+      <c r="B28" s="29"/>
+    </row>
+    <row r="29" spans="1:21" ht="21" customHeight="1">
+      <c r="A29" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="91">
-        <f>B85</f>
+      <c r="B29" s="91">
+        <f>B86</f>
         <v>28.647889756541161</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="9.75" customHeight="1">
-      <c r="A29" s="100" t="s">
+    <row r="30" spans="1:21" ht="9.75" customHeight="1">
+      <c r="A30" s="100" t="s">
         <v>375</v>
       </c>
-      <c r="B29" s="267">
-        <f>B88*1000/(B28*PI()/30)/(B18-C18-B19-C19)</f>
+      <c r="B30" s="267">
+        <f>B89*1000/(B29*PI()/30)/(B19-C19-B20-C20)</f>
         <v>270270.2702702703</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="9.75" customHeight="1">
-      <c r="A30" s="358" t="s">
+    <row r="31" spans="1:21" ht="9.75" customHeight="1">
+      <c r="A31" s="357" t="s">
+        <v>404</v>
+      </c>
+      <c r="B31" s="267">
+        <f>B89*1000/(B84*PI()/30)/(B19)</f>
+        <v>4188.2879761025097</v>
+      </c>
+      <c r="D31" s="354" t="s">
         <v>405</v>
       </c>
-      <c r="B30" s="267">
-        <f>B88*1000/(B83*PI()/30)/(B18)</f>
-        <v>4188.2879761025097</v>
-      </c>
-      <c r="D30" s="355" t="s">
-        <v>406</v>
-      </c>
-      <c r="E30" s="356"/>
-    </row>
-    <row r="31" spans="1:21">
-      <c r="B31" s="53"/>
+      <c r="E31" s="355"/>
     </row>
     <row r="32" spans="1:21">
-      <c r="A32" s="109" t="s">
+      <c r="B32" s="53"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="109" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="29"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="100" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" s="273">
-        <v>2.6</v>
-      </c>
+      <c r="B33" s="29"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="100" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="273">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="273">
+      <c r="B35" s="273">
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="12" customHeight="1">
-      <c r="A35" s="100" t="s">
+    <row r="36" spans="1:5" ht="12" customHeight="1">
+      <c r="A36" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="273">
+      <c r="B36" s="273">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="12" customHeight="1">
-      <c r="A36" s="357"/>
-      <c r="B36" s="360"/>
-    </row>
     <row r="37" spans="1:5" ht="12" customHeight="1">
-      <c r="A37" s="109" t="s">
-        <v>408</v>
-      </c>
-      <c r="B37" s="29"/>
-      <c r="D37" s="355" t="s">
-        <v>404</v>
-      </c>
-      <c r="E37" s="356"/>
+      <c r="A37" s="356"/>
+      <c r="B37" s="359"/>
     </row>
     <row r="38" spans="1:5" ht="12" customHeight="1">
-      <c r="A38" s="100" t="s">
-        <v>409</v>
-      </c>
-      <c r="B38" s="273">
-        <v>0.45</v>
-      </c>
-      <c r="D38" s="355" t="s">
-        <v>404</v>
-      </c>
-      <c r="E38" s="356"/>
+      <c r="A38" s="109" t="s">
+        <v>407</v>
+      </c>
+      <c r="B38" s="29"/>
+      <c r="D38" s="354" t="s">
+        <v>403</v>
+      </c>
+      <c r="E38" s="355"/>
     </row>
     <row r="39" spans="1:5" ht="12" customHeight="1">
       <c r="A39" s="100" t="s">
-        <v>410</v>
-      </c>
-      <c r="B39" s="361">
+        <v>408</v>
+      </c>
+      <c r="B39" s="273">
+        <v>0.45</v>
+      </c>
+      <c r="D39" s="354" t="s">
+        <v>403</v>
+      </c>
+      <c r="E39" s="355"/>
+    </row>
+    <row r="40" spans="1:5" ht="12" customHeight="1">
+      <c r="A40" s="100" t="s">
+        <v>409</v>
+      </c>
+      <c r="B40" s="360">
         <v>7</v>
       </c>
-      <c r="D39" s="355" t="s">
-        <v>404</v>
-      </c>
-      <c r="E39" s="356"/>
-    </row>
-    <row r="40" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="41" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A41" s="109" t="s">
+      <c r="D40" s="354" t="s">
+        <v>403</v>
+      </c>
+      <c r="E40" s="355"/>
+    </row>
+    <row r="41" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="42" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A42" s="109" t="s">
         <v>122</v>
       </c>
-      <c r="B41" s="54"/>
-    </row>
-    <row r="42" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A42" s="100" t="s">
+      <c r="B42" s="54"/>
+    </row>
+    <row r="43" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A43" s="100" t="s">
         <v>206</v>
       </c>
-      <c r="B42" s="274">
+      <c r="B43" s="274">
         <v>1.33</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="100" t="s">
+    <row r="44" spans="1:5">
+      <c r="A44" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="B43" s="275">
+      <c r="B44" s="275">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1">
-      <c r="A44" s="100" t="s">
+    <row r="45" spans="1:5" ht="15" customHeight="1">
+      <c r="A45" s="100" t="s">
         <v>124</v>
       </c>
-      <c r="B44" s="275">
+      <c r="B45" s="275">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="11.25" customHeight="1">
-      <c r="A45" s="100" t="s">
+    <row r="46" spans="1:5" ht="11.25" customHeight="1">
+      <c r="A46" s="100" t="s">
         <v>125</v>
       </c>
-      <c r="B45" s="275">
+      <c r="B46" s="275">
         <v>3.75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A46" s="100" t="s">
-        <v>126</v>
-      </c>
-      <c r="B46" s="275">
-        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="13.5" customHeight="1">
       <c r="A47" s="100" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" s="275">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A48" s="100" t="s">
         <v>384</v>
       </c>
-      <c r="B47" s="330">
+      <c r="B48" s="330">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="18" customHeight="1">
-      <c r="A48" s="109" t="s">
+    <row r="49" spans="1:4" ht="18" customHeight="1">
+      <c r="A49" s="109" t="s">
         <v>382</v>
       </c>
-      <c r="B48" s="63"/>
-    </row>
-    <row r="49" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A49" s="100" t="s">
+      <c r="B49" s="63"/>
+    </row>
+    <row r="50" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A50" s="100" t="s">
         <v>383</v>
       </c>
-      <c r="B49" s="105">
-        <f>ABS(B8)+B13/2*(B11+B17)/57.3-0.5*(B43+B13/2/B9*(B45-B43))</f>
+      <c r="B50" s="105">
+        <f>ABS(B8)+B13/2*(B11+B18)/57.3-0.5*(B44+B13/2/B9*(B46-B44))</f>
         <v>3.1469175392670157</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="2" t="s">
+    <row r="52" spans="1:4">
+      <c r="A52" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C51" s="5"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="110" t="s">
-        <v>127</v>
-      </c>
-      <c r="B52" s="276">
-        <v>2.5</v>
-      </c>
-      <c r="C52" t="s">
-        <v>85</v>
-      </c>
-      <c r="D52" t="s">
-        <v>128</v>
-      </c>
+      <c r="C52" s="5"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="110" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B53" s="276">
-        <v>1.35</v>
+        <v>2.5</v>
       </c>
       <c r="C53" t="s">
         <v>85</v>
       </c>
-      <c r="D53" s="270" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="10.9" customHeight="1">
+      <c r="D53" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="110" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B54" s="276">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="C54" t="s">
         <v>85</v>
       </c>
-      <c r="D54" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="D54" s="270" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="10.9" customHeight="1">
       <c r="A55" s="110" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B55" s="276">
-        <v>3.3000000000000002E-2</v>
+        <v>1.2</v>
       </c>
       <c r="C55" t="s">
         <v>85</v>
       </c>
-      <c r="D55" s="270" t="s">
+      <c r="D55" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="110" t="s">
+        <v>131</v>
+      </c>
+      <c r="B56" s="276">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>85</v>
+      </c>
+      <c r="D56" s="270" t="s">
         <v>376</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="B56" s="277">
-        <v>7850</v>
-      </c>
-      <c r="C56" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="B57" s="276">
-        <v>-2.33</v>
+        <v>132</v>
+      </c>
+      <c r="B57" s="277">
+        <v>7850</v>
       </c>
       <c r="C57" t="s">
-        <v>85</v>
-      </c>
-      <c r="D57" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B58" s="276">
-        <v>0</v>
+        <v>-2.33</v>
       </c>
       <c r="C58" t="s">
         <v>85</v>
       </c>
+      <c r="D58" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B59" s="276">
         <v>0</v>
@@ -6279,82 +6294,79 @@
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="18"/>
-      <c r="B60" s="124"/>
+      <c r="A60" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" s="276">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="111" t="s">
+      <c r="A61" s="18"/>
+      <c r="B61" s="124"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="111" t="s">
         <v>137</v>
       </c>
-      <c r="B61" s="125"/>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="B62" s="276">
-        <v>1.3979999999999999</v>
-      </c>
-      <c r="C62" t="s">
-        <v>85</v>
-      </c>
-      <c r="D62" t="s">
-        <v>379</v>
-      </c>
+      <c r="B62" s="125"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B63" s="276">
-        <v>0.4</v>
+        <v>1.3979999999999999</v>
       </c>
       <c r="C63" t="s">
         <v>85</v>
       </c>
+      <c r="D63" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B64" s="276">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="C64" t="s">
         <v>85</v>
       </c>
-      <c r="D64" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="B65" s="277">
-        <v>7850</v>
+        <v>140</v>
+      </c>
+      <c r="B65" s="276">
+        <v>0.2</v>
       </c>
       <c r="C65" t="s">
-        <v>102</v>
+        <v>85</v>
+      </c>
+      <c r="D65" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="B66" s="276">
-        <v>0</v>
+        <v>132</v>
+      </c>
+      <c r="B66" s="277">
+        <v>7850</v>
       </c>
       <c r="C66" t="s">
-        <v>85</v>
-      </c>
-      <c r="D66" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B67" s="276">
         <v>0</v>
@@ -6362,45 +6374,48 @@
       <c r="C67" t="s">
         <v>85</v>
       </c>
+      <c r="D67" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="18"/>
-      <c r="B68" s="124"/>
+      <c r="A68" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" s="276">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="111" t="s">
+      <c r="A69" s="18"/>
+      <c r="B69" s="124"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="111" t="s">
         <v>143</v>
       </c>
-      <c r="B69" s="125"/>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="B70" s="276">
-        <v>-1.631</v>
-      </c>
-      <c r="C70" t="s">
-        <v>85</v>
-      </c>
-      <c r="D70" t="s">
-        <v>145</v>
-      </c>
+      <c r="B70" s="125"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B71" s="276">
-        <v>0</v>
+        <v>-1.631</v>
       </c>
       <c r="C71" t="s">
         <v>85</v>
       </c>
+      <c r="D71" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B72" s="276">
         <v>0</v>
@@ -6411,32 +6426,32 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B73" s="276">
-        <v>-0.46600000000000003</v>
+        <v>0</v>
       </c>
       <c r="C73" t="s">
         <v>85</v>
       </c>
-      <c r="D73" t="s">
-        <v>149</v>
-      </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B74" s="276">
-        <v>0</v>
+        <v>-0.46600000000000003</v>
       </c>
       <c r="C74" t="s">
         <v>85</v>
       </c>
+      <c r="D74" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B75" s="276">
         <v>0</v>
@@ -6446,46 +6461,43 @@
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="18"/>
-      <c r="B76" s="125"/>
+      <c r="A76" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B76" s="276">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="111" t="s">
+      <c r="A77" s="18"/>
+      <c r="B77" s="125"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="111" t="s">
         <v>152</v>
       </c>
-      <c r="B77" s="125"/>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="B78" s="278">
-        <v>4723</v>
-      </c>
-      <c r="C78" t="s">
-        <v>117</v>
-      </c>
-      <c r="D78" t="s">
-        <v>154</v>
-      </c>
+      <c r="B78" s="125"/>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="B79" s="276">
-        <v>0</v>
+        <v>153</v>
+      </c>
+      <c r="B79" s="278">
+        <v>4723</v>
       </c>
       <c r="C79" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="D79" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B80" s="276">
         <v>0</v>
@@ -6493,10 +6505,13 @@
       <c r="C80" t="s">
         <v>85</v>
       </c>
+      <c r="D80" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B81" s="276">
         <v>0</v>
@@ -6507,93 +6522,93 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="18" t="s">
-        <v>392</v>
+        <v>136</v>
       </c>
       <c r="B82" s="276">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="C82" t="s">
-        <v>393</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="18" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B83" s="276">
-        <v>1800</v>
+        <v>75</v>
       </c>
       <c r="C83" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="B84" s="334">
-        <f>1800/B85</f>
-        <v>62.831853071795862</v>
+        <v>394</v>
+      </c>
+      <c r="B84" s="276">
+        <v>1800</v>
+      </c>
+      <c r="C84" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B85" s="334">
+        <f>1800/B86</f>
+        <v>62.831853071795862</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="B85" s="334">
-        <f>B82/B13*2*30/PI()</f>
+      <c r="B86" s="334">
+        <f>B83/B13*2*30/PI()</f>
         <v>28.647889756541161</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="18"/>
-      <c r="B86" s="123"/>
-    </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="111" t="s">
+      <c r="A87" s="18"/>
+      <c r="B87" s="123"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="111" t="s">
         <v>158</v>
       </c>
-      <c r="B87" s="125"/>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="B88" s="279">
-        <v>750</v>
-      </c>
-      <c r="C88" t="s">
-        <v>160</v>
-      </c>
+      <c r="B88" s="125"/>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="B89" s="276">
-        <v>0.58250000000000002</v>
+        <v>159</v>
+      </c>
+      <c r="B89" s="279">
+        <v>750</v>
       </c>
       <c r="C89" t="s">
-        <v>85</v>
-      </c>
-      <c r="D89" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="B90" s="280">
-        <v>0</v>
+        <v>133</v>
+      </c>
+      <c r="B90" s="276">
+        <v>0.58250000000000002</v>
       </c>
       <c r="C90" t="s">
         <v>85</v>
       </c>
+      <c r="D90" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B91" s="280">
         <v>0</v>
@@ -6603,60 +6618,60 @@
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="18"/>
-      <c r="B92" s="126"/>
+      <c r="A92" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B92" s="280">
+        <v>0</v>
+      </c>
+      <c r="C92" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="111" t="s">
+      <c r="A93" s="18"/>
+      <c r="B93" s="126"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="111" t="s">
         <v>162</v>
       </c>
-      <c r="B93" s="126"/>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="B94" s="280">
-        <v>1.631</v>
-      </c>
-      <c r="C94" t="s">
-        <v>85</v>
-      </c>
-      <c r="D94" t="s">
-        <v>163</v>
-      </c>
+      <c r="B94" s="126"/>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="B95" s="276">
-        <v>1.7475000000000001</v>
+        <v>138</v>
+      </c>
+      <c r="B95" s="280">
+        <v>1.631</v>
       </c>
       <c r="C95" t="s">
         <v>85</v>
       </c>
       <c r="D95" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B96" s="276">
-        <v>0.74560000000000004</v>
+        <v>1.7475000000000001</v>
       </c>
       <c r="C96" t="s">
         <v>85</v>
       </c>
+      <c r="D96" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B97" s="276">
-        <v>0.13</v>
+        <v>0.74560000000000004</v>
       </c>
       <c r="C97" t="s">
         <v>85</v>
@@ -6664,7 +6679,7 @@
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B98" s="276">
         <v>0.13</v>
@@ -6675,10 +6690,10 @@
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="B99" s="277">
-        <v>7850</v>
+        <v>168</v>
+      </c>
+      <c r="B99" s="276">
+        <v>0.13</v>
       </c>
       <c r="C99" t="s">
         <v>85</v>
@@ -6686,10 +6701,10 @@
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="B100" s="280">
-        <v>0</v>
+        <v>132</v>
+      </c>
+      <c r="B100" s="277">
+        <v>7850</v>
       </c>
       <c r="C100" t="s">
         <v>85</v>
@@ -6697,7 +6712,7 @@
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B101" s="280">
         <v>0</v>
@@ -6708,905 +6723,916 @@
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B102" s="280">
-        <v>-0.56850000000000001</v>
+        <v>0</v>
       </c>
       <c r="C102" t="s">
         <v>85</v>
       </c>
-      <c r="D102" t="s">
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B103" s="280">
+        <v>-0.56850000000000001</v>
+      </c>
+      <c r="C103" t="s">
+        <v>85</v>
+      </c>
+      <c r="D103" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
-      <c r="A104" s="111" t="s">
+    <row r="105" spans="1:11">
+      <c r="A105" s="111" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
-      <c r="A105" s="331" t="s">
+    <row r="106" spans="1:11">
+      <c r="A106" s="331" t="s">
         <v>388</v>
       </c>
-      <c r="B105" s="332">
+      <c r="B106" s="332">
         <f>'Blade Data'!R32*B10+E8</f>
         <v>12381.263055221558</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C106" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
-      <c r="A106" s="331" t="s">
+    <row r="107" spans="1:11">
+      <c r="A107" s="331" t="s">
         <v>389</v>
       </c>
-      <c r="B106" s="332">
+      <c r="B107" s="332">
         <f>E5+E6+E7</f>
         <v>20950.244259671897</v>
       </c>
-      <c r="C106" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
-      <c r="A107" s="331" t="s">
-        <v>390</v>
-      </c>
-      <c r="B107" s="332">
-        <f>B105+B106</f>
-        <v>33331.507314893453</v>
-      </c>
       <c r="C107" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="108" spans="1:11">
-      <c r="A108" s="18" t="s">
+      <c r="A108" s="331" t="s">
+        <v>390</v>
+      </c>
+      <c r="B108" s="332">
+        <f>B106+B107</f>
+        <v>33331.507314893453</v>
+      </c>
+      <c r="C108" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="18" t="s">
         <v>396</v>
       </c>
-      <c r="B108" s="332">
+      <c r="B109" s="332">
         <f>GECtwrdata!O26</f>
         <v>53775.756106386892</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C109" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
-      <c r="A109" t="s">
+    <row r="110" spans="1:11">
+      <c r="A110" t="s">
         <v>347</v>
       </c>
-      <c r="H109" t="s">
+      <c r="H110" t="s">
         <v>319</v>
       </c>
-      <c r="I109" s="183"/>
-      <c r="J109" s="183"/>
-    </row>
-    <row r="110" spans="1:11" ht="14.25">
-      <c r="A110" s="184"/>
-      <c r="B110" s="185"/>
-      <c r="C110" s="186" t="s">
+      <c r="I110" s="183"/>
+      <c r="J110" s="183"/>
+    </row>
+    <row r="111" spans="1:11" ht="14.25">
+      <c r="A111" s="184"/>
+      <c r="B111" s="185"/>
+      <c r="C111" s="186" t="s">
         <v>320</v>
       </c>
-      <c r="D110" s="187"/>
-      <c r="E110" s="185"/>
-      <c r="F110" s="188" t="s">
+      <c r="D111" s="187"/>
+      <c r="E111" s="185"/>
+      <c r="F111" s="188" t="s">
         <v>321</v>
       </c>
-      <c r="G110" s="189"/>
-      <c r="H110" s="184"/>
-      <c r="I110" s="190" t="s">
+      <c r="G111" s="189"/>
+      <c r="H111" s="184"/>
+      <c r="I111" s="190" t="s">
         <v>332</v>
       </c>
-      <c r="J110" s="190" t="s">
+      <c r="J111" s="190" t="s">
         <v>333</v>
       </c>
-      <c r="K110" s="191" t="s">
+      <c r="K111" s="191" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="13.5">
-      <c r="A111" s="192" t="s">
+    <row r="112" spans="1:11" ht="13.5">
+      <c r="A112" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B111" s="176" t="s">
+      <c r="B112" s="176" t="s">
         <v>335</v>
       </c>
-      <c r="C111" s="176" t="s">
+      <c r="C112" s="176" t="s">
         <v>336</v>
       </c>
-      <c r="D111" s="177" t="s">
+      <c r="D112" s="177" t="s">
         <v>337</v>
       </c>
-      <c r="E111" s="177" t="s">
+      <c r="E112" s="177" t="s">
         <v>338</v>
       </c>
-      <c r="F111" s="176" t="s">
+      <c r="F112" s="176" t="s">
         <v>339</v>
       </c>
-      <c r="G111" s="193" t="s">
+      <c r="G112" s="193" t="s">
         <v>340</v>
       </c>
-      <c r="H111" s="192" t="s">
+      <c r="H112" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="I111" s="176" t="s">
+      <c r="I112" s="176" t="s">
         <v>341</v>
       </c>
-      <c r="J111" s="176" t="s">
+      <c r="J112" s="176" t="s">
         <v>341</v>
       </c>
-      <c r="K111" s="194" t="s">
+      <c r="K112" s="194" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="12">
-      <c r="A112" s="281">
+    <row r="113" spans="1:13" ht="12">
+      <c r="A113" s="281">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="B112" s="282">
+      <c r="B113" s="282">
         <v>680.46852313432544</v>
       </c>
-      <c r="C112" s="283">
+      <c r="C113" s="283">
         <v>1557617.3955374449</v>
-      </c>
-      <c r="D112" s="284">
-        <v>3620</v>
-      </c>
-      <c r="E112" s="285">
-        <v>3620</v>
-      </c>
-      <c r="F112" s="283">
-        <v>1557617.3955374449</v>
-      </c>
-      <c r="G112" s="286">
-        <v>3620</v>
-      </c>
-      <c r="H112" s="287">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I112" s="288">
-        <v>2.3240623855198695E-3</v>
-      </c>
-      <c r="J112" s="288">
-        <v>2.3240623855198695E-3</v>
-      </c>
-      <c r="K112" s="289">
-        <v>2.3240623855198695E-3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" ht="12">
-      <c r="A113" s="290">
-        <v>0.25</v>
-      </c>
-      <c r="B113" s="282">
-        <v>260.90607125811937</v>
-      </c>
-      <c r="C113" s="283">
-        <v>987620</v>
       </c>
       <c r="D113" s="284">
         <v>3620</v>
       </c>
       <c r="E113" s="285">
-        <v>3872.3365369527278</v>
+        <v>3620</v>
       </c>
       <c r="F113" s="283">
-        <v>189109.6258164102</v>
+        <v>1557617.3955374449</v>
       </c>
       <c r="G113" s="286">
-        <v>1263.1593869403541</v>
-      </c>
-      <c r="H113" s="291">
-        <v>0.25</v>
-      </c>
-      <c r="I113" s="283">
-        <v>3.6653773718636723E-3</v>
-      </c>
-      <c r="J113" s="283">
-        <v>3.9208769941401836E-3</v>
-      </c>
-      <c r="K113" s="292">
-        <v>6.6795086790909508E-3</v>
+        <v>3620</v>
+      </c>
+      <c r="H113" s="287">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I113" s="288">
+        <v>2.3240623855198695E-3</v>
+      </c>
+      <c r="J113" s="288">
+        <v>2.3240623855198695E-3</v>
+      </c>
+      <c r="K113" s="289">
+        <v>2.3240623855198695E-3</v>
       </c>
     </row>
     <row r="114" spans="1:13" ht="12">
       <c r="A114" s="290">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B114" s="282">
-        <v>178.44378866600621</v>
+        <v>260.90607125811937</v>
       </c>
       <c r="C114" s="283">
-        <v>452000</v>
+        <v>987620</v>
       </c>
       <c r="D114" s="284">
         <v>3620</v>
       </c>
       <c r="E114" s="285">
-        <v>3845.7470139995348</v>
+        <v>3872.3365369527278</v>
       </c>
       <c r="F114" s="283">
-        <v>100924.76937294503</v>
+        <v>189109.6258164102</v>
       </c>
       <c r="G114" s="286">
         <v>1263.1593869403541</v>
       </c>
       <c r="H114" s="291">
+        <v>0.25</v>
+      </c>
+      <c r="I114" s="283">
+        <v>3.6653773718636723E-3</v>
+      </c>
+      <c r="J114" s="283">
+        <v>3.9208769941401836E-3</v>
+      </c>
+      <c r="K114" s="292">
+        <v>6.6795086790909508E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="12">
+      <c r="A115" s="290">
         <v>0.5</v>
       </c>
-      <c r="I114" s="283">
+      <c r="B115" s="282">
+        <v>178.44378866600621</v>
+      </c>
+      <c r="C115" s="283">
+        <v>452000</v>
+      </c>
+      <c r="D115" s="284">
+        <v>3620</v>
+      </c>
+      <c r="E115" s="285">
+        <v>3845.7470139995348</v>
+      </c>
+      <c r="F115" s="283">
+        <v>100924.76937294503</v>
+      </c>
+      <c r="G115" s="286">
+        <v>1263.1593869403541</v>
+      </c>
+      <c r="H115" s="291">
+        <v>0.5</v>
+      </c>
+      <c r="I115" s="283">
         <v>8.0088495575221241E-3</v>
       </c>
-      <c r="J114" s="283">
+      <c r="J115" s="283">
         <v>8.5082898539812716E-3</v>
       </c>
-      <c r="K114" s="292">
+      <c r="K115" s="292">
         <v>1.2515851111560431E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="12">
-      <c r="A115" s="293">
+    <row r="116" spans="1:13" ht="12">
+      <c r="A116" s="293">
         <v>0.75</v>
       </c>
-      <c r="B115" s="294">
+      <c r="B116" s="294">
         <v>109.19318519557659</v>
       </c>
-      <c r="C115" s="295">
+      <c r="C116" s="295">
         <v>117633</v>
       </c>
-      <c r="D115" s="296">
+      <c r="D116" s="296">
         <v>3620</v>
       </c>
-      <c r="E115" s="297">
+      <c r="E116" s="297">
         <v>3808.8010680071311</v>
       </c>
-      <c r="F115" s="295">
+      <c r="F116" s="295">
         <v>39845.648743448277</v>
       </c>
-      <c r="G115" s="298">
+      <c r="G116" s="298">
         <v>1263.1593869403541</v>
       </c>
-      <c r="H115" s="299">
+      <c r="H116" s="299">
         <v>0.75</v>
       </c>
-      <c r="I115" s="295">
+      <c r="I116" s="295">
         <v>3.0773677454455809E-2</v>
       </c>
-      <c r="J115" s="295">
+      <c r="J116" s="295">
         <v>3.2378678330121063E-2</v>
       </c>
-      <c r="K115" s="300">
+      <c r="K116" s="300">
         <v>3.1701313111335713E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
-      <c r="A117" t="s">
+    <row r="118" spans="1:13">
+      <c r="A118" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="13.5">
-      <c r="A118" s="184"/>
-      <c r="B118" s="188" t="s">
+    <row r="119" spans="1:13" ht="13.5">
+      <c r="A119" s="184"/>
+      <c r="B119" s="188" t="s">
         <v>88</v>
       </c>
-      <c r="C118" s="188" t="s">
+      <c r="C119" s="188" t="s">
         <v>322</v>
       </c>
-      <c r="D118" s="188" t="s">
+      <c r="D119" s="188" t="s">
         <v>89</v>
       </c>
-      <c r="E118" s="195" t="s">
+      <c r="E119" s="195" t="s">
         <v>323</v>
       </c>
-      <c r="F118" s="188" t="s">
+      <c r="F119" s="188" t="s">
         <v>324</v>
       </c>
-      <c r="G118" s="188" t="s">
+      <c r="G119" s="188" t="s">
         <v>325</v>
       </c>
-      <c r="H118" s="188" t="s">
+      <c r="H119" s="188" t="s">
         <v>326</v>
       </c>
-      <c r="I118" s="188" t="s">
+      <c r="I119" s="188" t="s">
         <v>342</v>
       </c>
-      <c r="J118" s="188" t="s">
+      <c r="J119" s="188" t="s">
         <v>343</v>
       </c>
-      <c r="K118" s="188" t="s">
+      <c r="K119" s="188" t="s">
         <v>113</v>
       </c>
-      <c r="L118" s="188" t="s">
+      <c r="L119" s="188" t="s">
         <v>112</v>
       </c>
-      <c r="M118" s="196" t="s">
+      <c r="M119" s="196" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="13.5">
-      <c r="A119" s="192" t="s">
+    <row r="120" spans="1:13" ht="13.5">
+      <c r="A120" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B119" s="176" t="s">
+      <c r="B120" s="176" t="s">
         <v>90</v>
       </c>
-      <c r="C119" s="176" t="s">
+      <c r="C120" s="176" t="s">
         <v>327</v>
       </c>
-      <c r="D119" s="176" t="s">
+      <c r="D120" s="176" t="s">
         <v>328</v>
       </c>
-      <c r="E119" s="176" t="s">
+      <c r="E120" s="176" t="s">
         <v>329</v>
       </c>
-      <c r="F119" s="176" t="s">
+      <c r="F120" s="176" t="s">
         <v>329</v>
       </c>
-      <c r="G119" s="176" t="s">
+      <c r="G120" s="176" t="s">
         <v>329</v>
       </c>
-      <c r="H119" s="176" t="s">
+      <c r="H120" s="176" t="s">
         <v>330</v>
       </c>
-      <c r="I119" s="176" t="s">
+      <c r="I120" s="176" t="s">
         <v>345</v>
       </c>
-      <c r="J119" s="176" t="s">
+      <c r="J120" s="176" t="s">
         <v>345</v>
       </c>
-      <c r="K119" s="176" t="s">
+      <c r="K120" s="176" t="s">
         <v>331</v>
       </c>
-      <c r="L119" s="176" t="s">
+      <c r="L120" s="176" t="s">
         <v>345</v>
       </c>
-      <c r="M119" s="194" t="s">
+      <c r="M120" s="194" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
-      <c r="A120" s="301">
+    <row r="121" spans="1:13">
+      <c r="A121" s="301">
         <v>0.05</v>
       </c>
-      <c r="B120" s="302">
+      <c r="B121" s="302">
         <v>1.349657099314199</v>
       </c>
-      <c r="C120" s="303">
+      <c r="C121" s="303">
         <v>1</v>
       </c>
-      <c r="D120" s="303" t="s">
-        <v>377</v>
-      </c>
-      <c r="E120" s="351">
-        <v>0.25</v>
-      </c>
-      <c r="F120" s="302">
-        <v>0.5</v>
-      </c>
-      <c r="G120" s="302">
-        <v>0.5</v>
-      </c>
-      <c r="H120" s="305">
-        <v>1181.9474017501359</v>
-      </c>
-      <c r="I120" s="306">
-        <v>2362406058.2721553</v>
-      </c>
-      <c r="J120" s="306">
-        <v>2362406058.2721553</v>
-      </c>
-      <c r="K120" s="306">
-        <v>10326627046.93685</v>
-      </c>
-      <c r="L120" s="306">
-        <v>815590611.695804</v>
-      </c>
-      <c r="M120" s="307">
-        <v>538.24909552528584</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13">
-      <c r="A121" s="281">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="B121" s="308">
-        <v>1.3496570993141985</v>
-      </c>
-      <c r="C121" s="309">
-        <v>1</v>
-      </c>
-      <c r="D121" s="309" t="s">
+      <c r="D121" s="303" t="s">
         <v>377</v>
       </c>
       <c r="E121" s="351">
         <v>0.25</v>
       </c>
-      <c r="F121" s="308">
+      <c r="F121" s="302">
         <v>0.5</v>
       </c>
-      <c r="G121" s="308">
+      <c r="G121" s="302">
         <v>0.5</v>
       </c>
-      <c r="H121" s="310">
+      <c r="H121" s="305">
+        <v>1181.9474017501359</v>
+      </c>
+      <c r="I121" s="306">
+        <v>2362406058.2721553</v>
+      </c>
+      <c r="J121" s="306">
+        <v>2362406058.2721553</v>
+      </c>
+      <c r="K121" s="306">
+        <v>10326627046.93685</v>
+      </c>
+      <c r="L121" s="306">
+        <v>815590611.695804</v>
+      </c>
+      <c r="M121" s="307">
+        <v>538.24909552528584</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="A122" s="281">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B122" s="308">
+        <v>1.3496570993141985</v>
+      </c>
+      <c r="C122" s="309">
+        <v>1</v>
+      </c>
+      <c r="D122" s="309" t="s">
+        <v>377</v>
+      </c>
+      <c r="E122" s="351">
+        <v>0.25</v>
+      </c>
+      <c r="F122" s="308">
+        <v>0.5</v>
+      </c>
+      <c r="G122" s="308">
+        <v>0.5</v>
+      </c>
+      <c r="H122" s="310">
         <v>89.215305458599687</v>
       </c>
-      <c r="I121" s="311">
+      <c r="I122" s="311">
         <v>292871613.66241747</v>
       </c>
-      <c r="J121" s="311">
+      <c r="J122" s="311">
         <v>292871613.66241747</v>
       </c>
-      <c r="K121" s="311">
+      <c r="K122" s="311">
         <v>1295783621.589889</v>
       </c>
-      <c r="L121" s="311">
+      <c r="L122" s="311">
         <v>102340392.98761402</v>
       </c>
-      <c r="M121" s="312">
+      <c r="M122" s="312">
         <v>40.627914067071856</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13">
-      <c r="A122" s="290">
-        <v>0.25</v>
-      </c>
-      <c r="B122" s="308">
-        <v>2</v>
-      </c>
-      <c r="C122" s="309">
-        <v>0.27</v>
-      </c>
-      <c r="D122" s="309">
-        <v>5.7408195699863462</v>
-      </c>
-      <c r="E122" s="304">
-        <v>0.34</v>
-      </c>
-      <c r="F122" s="308">
-        <v>0.38431406494974252</v>
-      </c>
-      <c r="G122" s="308">
-        <v>0.32303333404645607</v>
-      </c>
-      <c r="H122" s="310">
-        <v>117.20845675339662</v>
-      </c>
-      <c r="I122" s="311">
-        <v>71200412.886402056</v>
-      </c>
-      <c r="J122" s="311">
-        <v>192688198.09657151</v>
-      </c>
-      <c r="K122" s="313">
-        <v>1535809947.6467729</v>
-      </c>
-      <c r="L122" s="313">
-        <v>6059831.2604694702</v>
-      </c>
-      <c r="M122" s="314">
-        <v>24.149591455091301</v>
       </c>
     </row>
     <row r="123" spans="1:13">
       <c r="A123" s="290">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B123" s="308">
-        <v>1.5334010668021336</v>
+        <v>2</v>
       </c>
       <c r="C123" s="309">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="D123" s="309">
-        <v>7.8774986568807996</v>
+        <v>5.7408195699863462</v>
       </c>
       <c r="E123" s="304">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="F123" s="308">
-        <v>0.37966131849299201</v>
+        <v>0.38431406494974252</v>
       </c>
       <c r="G123" s="308">
-        <v>0.32331172392666518</v>
+        <v>0.32303333404645607</v>
       </c>
       <c r="H123" s="310">
-        <v>82.955569360022096</v>
+        <v>117.20845675339662</v>
       </c>
       <c r="I123" s="311">
-        <v>22286831.062062379</v>
+        <v>71200412.886402056</v>
       </c>
       <c r="J123" s="311">
-        <v>79116868.754064709</v>
+        <v>192688198.09657151</v>
       </c>
       <c r="K123" s="313">
-        <v>1094705409.6217237</v>
+        <v>1535809947.6467729</v>
       </c>
       <c r="L123" s="313">
-        <v>2885752.229026631</v>
+        <v>6059831.2604694702</v>
       </c>
       <c r="M123" s="314">
-        <v>9.0573611452431102</v>
+        <v>24.149591455091301</v>
       </c>
     </row>
     <row r="124" spans="1:13">
       <c r="A124" s="290">
+        <v>0.5</v>
+      </c>
+      <c r="B124" s="308">
+        <v>1.5334010668021336</v>
+      </c>
+      <c r="C124" s="309">
+        <v>0.24</v>
+      </c>
+      <c r="D124" s="309">
+        <v>7.8774986568807996</v>
+      </c>
+      <c r="E124" s="304">
+        <v>0.31</v>
+      </c>
+      <c r="F124" s="308">
+        <v>0.37966131849299201</v>
+      </c>
+      <c r="G124" s="308">
+        <v>0.32331172392666518</v>
+      </c>
+      <c r="H124" s="310">
+        <v>82.955569360022096</v>
+      </c>
+      <c r="I124" s="311">
+        <v>22286831.062062379</v>
+      </c>
+      <c r="J124" s="311">
+        <v>79116868.754064709</v>
+      </c>
+      <c r="K124" s="313">
+        <v>1094705409.6217237</v>
+      </c>
+      <c r="L124" s="313">
+        <v>2885752.229026631</v>
+      </c>
+      <c r="M124" s="314">
+        <v>9.0573611452431102</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="A125" s="290">
         <v>0.75</v>
       </c>
-      <c r="B124" s="308">
+      <c r="B125" s="308">
         <v>1.0670561341122682</v>
       </c>
-      <c r="C124" s="309">
+      <c r="C125" s="309">
         <v>0.21</v>
       </c>
-      <c r="D124" s="309">
+      <c r="D125" s="309">
         <v>7.6422364536705301</v>
       </c>
-      <c r="E124" s="304">
+      <c r="E125" s="304">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F124" s="308">
+      <c r="F125" s="308">
         <v>0.39262047257690491</v>
       </c>
-      <c r="G124" s="308">
+      <c r="G125" s="308">
         <v>0.32643878406891619</v>
       </c>
-      <c r="H124" s="310">
+      <c r="H125" s="310">
         <v>39.129612072462692</v>
       </c>
-      <c r="I124" s="311">
+      <c r="I125" s="311">
         <v>3549221.9475047868</v>
       </c>
-      <c r="J124" s="311">
+      <c r="J125" s="311">
         <v>21323059.849604025</v>
       </c>
-      <c r="K124" s="313">
+      <c r="K125" s="313">
         <v>499093273.18287331</v>
       </c>
-      <c r="L124" s="313">
+      <c r="L125" s="313">
         <v>574933.04560629011</v>
       </c>
-      <c r="M124" s="314">
+      <c r="M125" s="314">
         <v>2.2054187533799334</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
-      <c r="A125" s="315">
+    <row r="126" spans="1:13">
+      <c r="A126" s="315">
         <v>1</v>
       </c>
-      <c r="B125" s="316">
+      <c r="B126" s="316">
         <v>0.64719329438658879</v>
       </c>
-      <c r="C125" s="317">
+      <c r="C126" s="317">
         <v>0.16</v>
       </c>
-      <c r="D125" s="317">
-        <v>0</v>
-      </c>
-      <c r="E125" s="316">
+      <c r="D126" s="317">
+        <v>0</v>
+      </c>
+      <c r="E126" s="316">
         <v>0.25</v>
       </c>
-      <c r="F125" s="316">
+      <c r="F126" s="316">
         <v>0.49249999999999999</v>
       </c>
-      <c r="G125" s="316">
+      <c r="G126" s="316">
         <v>0.35780000000000001</v>
       </c>
-      <c r="H125" s="318">
+      <c r="H126" s="318">
         <v>7.751396294306554</v>
       </c>
-      <c r="I125" s="319">
+      <c r="I126" s="319">
         <v>79811.599091411103</v>
       </c>
-      <c r="J125" s="319">
+      <c r="J126" s="319">
         <v>2702250.8204062055</v>
       </c>
-      <c r="K125" s="320">
+      <c r="K126" s="320">
         <v>80734393.082686871</v>
       </c>
-      <c r="L125" s="320">
+      <c r="L126" s="320">
         <v>61146.36439630347</v>
       </c>
-      <c r="M125" s="321">
+      <c r="M126" s="321">
         <v>0.25688857997871806</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
-      <c r="B127" s="18" t="s">
+    <row r="128" spans="1:13">
+      <c r="B128" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="C127" s="199"/>
-      <c r="D127" t="s">
+      <c r="C128" s="199"/>
+      <c r="D128" t="s">
         <v>350</v>
       </c>
-      <c r="H127" s="362" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="A129" t="s">
+      <c r="H128" s="361" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
-      <c r="A130" s="184"/>
-      <c r="B130" s="230" t="s">
+    <row r="131" spans="1:7">
+      <c r="A131" s="184"/>
+      <c r="B131" s="230" t="s">
         <v>363</v>
       </c>
-      <c r="C130" s="336" t="s">
+      <c r="C131" s="336" t="s">
         <v>399</v>
       </c>
-      <c r="D130" s="337"/>
-    </row>
-    <row r="131" spans="1:7" ht="12">
-      <c r="A131" s="192" t="s">
+      <c r="D131" s="337"/>
+    </row>
+    <row r="132" spans="1:7" ht="12">
+      <c r="A132" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B131" s="233" t="s">
+      <c r="B132" s="233" t="s">
         <v>366</v>
       </c>
-      <c r="C131" s="225"/>
-      <c r="D131" s="226"/>
-    </row>
-    <row r="132" spans="1:7">
-      <c r="A132" s="236">
-        <f t="shared" ref="A132:A137" si="0">A120</f>
+      <c r="C132" s="225"/>
+      <c r="D132" s="226"/>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="236">
+        <f t="shared" ref="A133:A138" si="0">A121</f>
         <v>0.05</v>
       </c>
-      <c r="B132" s="338">
+      <c r="B133" s="338">
         <v>10.5</v>
       </c>
-      <c r="C132" s="322"/>
-      <c r="D132" s="323">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="A133" s="241">
-        <f t="shared" si="0"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="B133" s="339">
-        <v>10.5</v>
-      </c>
-      <c r="C133" s="324"/>
-      <c r="D133" s="325">
+      <c r="C133" s="322"/>
+      <c r="D133" s="323">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="241">
         <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="B134" s="327">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B134" s="339">
         <v>10.5</v>
       </c>
       <c r="C134" s="324"/>
       <c r="D134" s="325">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="241">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B135" s="327">
-        <v>2.5</v>
+        <v>10.5</v>
       </c>
       <c r="C135" s="324"/>
       <c r="D135" s="325">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="241">
         <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="B136" s="340">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="B136" s="327">
+        <v>2.5</v>
       </c>
       <c r="C136" s="324"/>
       <c r="D136" s="325">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="241">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="B137" s="340">
+        <v>0</v>
+      </c>
+      <c r="C137" s="324"/>
+      <c r="D137" s="325">
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
-      <c r="A137" s="247">
+    <row r="138" spans="1:7">
+      <c r="A138" s="247">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B137" s="328">
+      <c r="B138" s="328">
         <v>-0.6</v>
       </c>
-      <c r="C137" s="341"/>
-      <c r="D137" s="326">
+      <c r="C138" s="341"/>
+      <c r="D138" s="326">
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="12">
-      <c r="A139" s="342" t="s">
+    <row r="140" spans="1:7" ht="12">
+      <c r="A140" s="342" t="s">
         <v>400</v>
       </c>
-      <c r="B139" s="349" t="s">
+      <c r="B140" s="349" t="s">
         <v>401</v>
       </c>
-      <c r="C139" s="350"/>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="A140" s="343">
-        <v>1</v>
-      </c>
-      <c r="B140" s="344"/>
-      <c r="C140" s="345" t="s">
-        <v>378</v>
-      </c>
-      <c r="E140" s="363"/>
+      <c r="C140" s="350"/>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="343">
-        <v>2</v>
-      </c>
-      <c r="B141" s="346"/>
-      <c r="C141" s="347" t="s">
-        <v>411</v>
-      </c>
-      <c r="E141" s="355" t="s">
-        <v>412</v>
-      </c>
-      <c r="F141" s="356"/>
-      <c r="G141" s="356"/>
+        <v>1</v>
+      </c>
+      <c r="B141" s="344"/>
+      <c r="C141" s="345" t="s">
+        <v>378</v>
+      </c>
+      <c r="E141" s="362"/>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="343">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B142" s="346"/>
       <c r="C142" s="347" t="s">
+        <v>410</v>
+      </c>
+      <c r="E142" s="354" t="s">
+        <v>411</v>
+      </c>
+      <c r="F142" s="355"/>
+      <c r="G142" s="355"/>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="343">
+        <v>3</v>
+      </c>
+      <c r="B143" s="346"/>
+      <c r="C143" s="347" t="s">
+        <v>412</v>
+      </c>
+      <c r="E143" s="354" t="s">
+        <v>411</v>
+      </c>
+      <c r="F143" s="355"/>
+      <c r="G143" s="355"/>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="348">
+        <v>4</v>
+      </c>
+      <c r="B144" s="363"/>
+      <c r="C144" s="364" t="s">
         <v>413</v>
       </c>
-      <c r="E142" s="355" t="s">
-        <v>412</v>
-      </c>
-      <c r="F142" s="356"/>
-      <c r="G142" s="356"/>
-    </row>
-    <row r="143" spans="1:7">
-      <c r="A143" s="348">
-        <v>4</v>
-      </c>
-      <c r="B143" s="364"/>
-      <c r="C143" s="365" t="s">
+      <c r="E144" s="354" t="s">
+        <v>411</v>
+      </c>
+      <c r="F144" s="355"/>
+      <c r="G144" s="355"/>
+    </row>
+    <row r="145" spans="1:6" ht="12" thickBot="1"/>
+    <row r="146" spans="1:6" ht="12" thickBot="1">
+      <c r="A146" s="386" t="s">
+        <v>402</v>
+      </c>
+      <c r="B146" s="388"/>
+      <c r="C146" s="389"/>
+      <c r="E146" s="354" t="s">
+        <v>403</v>
+      </c>
+      <c r="F146" s="355"/>
+    </row>
+    <row r="147" spans="1:6" ht="12" thickBot="1">
+      <c r="A147" s="365" t="s">
+        <v>35</v>
+      </c>
+      <c r="B147" s="366" t="s">
+        <v>36</v>
+      </c>
+      <c r="C147" s="366" t="s">
+        <v>37</v>
+      </c>
+      <c r="E147" s="354" t="s">
+        <v>403</v>
+      </c>
+      <c r="F147" s="355"/>
+    </row>
+    <row r="148" spans="1:6" ht="12" thickBot="1">
+      <c r="A148" s="367">
+        <v>3.882E-2</v>
+      </c>
+      <c r="B148" s="368">
+        <v>3.882E-2</v>
+      </c>
+      <c r="C148" s="378">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="E148" s="354" t="s">
+        <v>403</v>
+      </c>
+      <c r="F148" s="355"/>
+    </row>
+    <row r="149" spans="1:6" ht="12" thickBot="1"/>
+    <row r="150" spans="1:6" ht="12" thickBot="1">
+      <c r="A150" s="386" t="s">
         <v>414</v>
       </c>
-      <c r="E143" s="355" t="s">
-        <v>412</v>
-      </c>
-      <c r="F143" s="356"/>
-      <c r="G143" s="356"/>
-    </row>
-    <row r="144" spans="1:7" ht="12" thickBot="1"/>
-    <row r="145" spans="1:6" ht="12" thickBot="1">
-      <c r="A145" s="381" t="s">
-        <v>402</v>
-      </c>
-      <c r="B145" s="383"/>
-      <c r="C145" s="384"/>
-      <c r="E145" s="355" t="s">
-        <v>404</v>
-      </c>
-      <c r="F145" s="356"/>
-    </row>
-    <row r="146" spans="1:6" ht="12" thickBot="1">
-      <c r="A146" s="366" t="s">
-        <v>35</v>
-      </c>
-      <c r="B146" s="367" t="s">
-        <v>36</v>
-      </c>
-      <c r="C146" s="367" t="s">
-        <v>37</v>
-      </c>
-      <c r="E146" s="355" t="s">
-        <v>404</v>
-      </c>
-      <c r="F146" s="356"/>
-    </row>
-    <row r="147" spans="1:6" ht="12" thickBot="1">
-      <c r="A147" s="368">
-        <v>3.882E-2</v>
-      </c>
-      <c r="B147" s="369">
-        <v>3.882E-2</v>
-      </c>
-      <c r="C147" s="379">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="E147" s="355" t="s">
-        <v>404</v>
-      </c>
-      <c r="F147" s="356"/>
-    </row>
-    <row r="148" spans="1:6" ht="12" thickBot="1"/>
-    <row r="149" spans="1:6" ht="12" thickBot="1">
-      <c r="A149" s="381" t="s">
-        <v>415</v>
-      </c>
-      <c r="B149" s="382"/>
-      <c r="C149" s="370"/>
-      <c r="E149" s="355" t="s">
-        <v>404</v>
-      </c>
-      <c r="F149" s="356"/>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150" s="371" t="s">
+      <c r="B150" s="387"/>
+      <c r="C150" s="369"/>
+      <c r="E150" s="354" t="s">
+        <v>403</v>
+      </c>
+      <c r="F150" s="355"/>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="370" t="s">
         <v>50</v>
       </c>
-      <c r="B150" s="372">
+      <c r="B151" s="371">
         <v>3.4349999999999999E-2</v>
       </c>
-      <c r="C150" s="353"/>
-      <c r="E150" s="355" t="s">
-        <v>404</v>
-      </c>
-      <c r="F150" s="356"/>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151" s="373" t="s">
+      <c r="C151" s="353"/>
+      <c r="E151" s="354" t="s">
+        <v>403</v>
+      </c>
+      <c r="F151" s="355"/>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="372" t="s">
         <v>51</v>
       </c>
-      <c r="B151" s="374">
+      <c r="B152" s="373">
         <v>3.4349999999999999E-2</v>
       </c>
-      <c r="C151" s="375"/>
-      <c r="E151" s="355" t="s">
-        <v>404</v>
-      </c>
-      <c r="F151" s="356"/>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152" s="376" t="s">
+      <c r="C152" s="374"/>
+      <c r="E152" s="354" t="s">
+        <v>403</v>
+      </c>
+      <c r="F152" s="355"/>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="375" t="s">
         <v>52</v>
       </c>
-      <c r="B152" s="374">
+      <c r="B153" s="373">
         <v>3.4349999999999999E-2</v>
       </c>
-      <c r="E152" s="355" t="s">
-        <v>404</v>
-      </c>
-      <c r="F152" s="356"/>
-    </row>
-    <row r="153" spans="1:6" ht="12" thickBot="1">
-      <c r="A153" s="377" t="s">
+      <c r="E153" s="354" t="s">
+        <v>403</v>
+      </c>
+      <c r="F153" s="355"/>
+    </row>
+    <row r="154" spans="1:6" ht="12" thickBot="1">
+      <c r="A154" s="376" t="s">
         <v>53</v>
       </c>
-      <c r="B153" s="378">
+      <c r="B154" s="377">
         <v>3.4349999999999999E-2</v>
       </c>
-      <c r="E153" s="355" t="s">
-        <v>404</v>
-      </c>
-      <c r="F153" s="356"/>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154" s="5"/>
-      <c r="B154" s="352"/>
-      <c r="C154" s="352"/>
-      <c r="D154" s="352"/>
+      <c r="E154" s="354" t="s">
+        <v>403</v>
+      </c>
+      <c r="F154" s="355"/>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="5"/>
+      <c r="B155" s="352"/>
+      <c r="C155" s="352"/>
+      <c r="D155" s="352"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="A145:C145"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="A146:C146"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="C1:H1"/>
+    <mergeCell ref="D20:F20"/>
     <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D18:F18"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7619,10 +7645,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -7643,422 +7669,405 @@
         <v>50</v>
       </c>
       <c r="W1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2">
-        <f>'Main Page'!B52</f>
+        <f>'Main Page'!B53</f>
         <v>2.5</v>
       </c>
       <c r="W2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="str">
-        <f>'Main Page'!C140</f>
+        <f>'Main Page'!C141</f>
         <v>cylinder</v>
       </c>
       <c r="B3" t="str">
-        <f>'Main Page'!C141</f>
+        <f>'Main Page'!C142</f>
         <v>s818_2703.dat</v>
       </c>
       <c r="C3" t="str">
-        <f>'Main Page'!C142</f>
+        <f>'Main Page'!C143</f>
         <v>s825_2103.dat</v>
       </c>
       <c r="D3" t="str">
-        <f>'Main Page'!C143</f>
+        <f>'Main Page'!C144</f>
         <v>s826_1603.dat</v>
       </c>
       <c r="W3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4">
-        <f>'Main Page'!A147*100</f>
+        <f>'Main Page'!A148*100</f>
         <v>3.8820000000000001</v>
       </c>
       <c r="B4">
-        <f>'Main Page'!B147*100</f>
+        <f>'Main Page'!B148*100</f>
         <v>3.8820000000000001</v>
       </c>
       <c r="C4" s="103">
-        <f>'Main Page'!C147*100</f>
+        <f>'Main Page'!C148*100</f>
         <v>5.8999999999999995</v>
       </c>
-      <c r="W4" s="362" t="s">
+      <c r="W4" s="361" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="380">
+        <v>0.05</v>
+      </c>
+      <c r="B5" s="380">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C5" s="380">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="380">
+        <v>0.15</v>
+      </c>
+      <c r="E5" s="380">
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="380">
+        <v>0.25</v>
+      </c>
+      <c r="G5" s="380">
+        <v>0.3</v>
+      </c>
+      <c r="H5" s="380">
+        <v>0.35</v>
+      </c>
+      <c r="I5" s="380">
+        <v>0.4</v>
+      </c>
+      <c r="J5" s="380">
+        <v>0.45</v>
+      </c>
+      <c r="K5" s="380">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="380">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M5" s="380">
+        <v>0.6</v>
+      </c>
+      <c r="N5" s="380">
+        <v>0.65</v>
+      </c>
+      <c r="O5" s="380">
+        <v>0.7</v>
+      </c>
+      <c r="P5" s="380">
+        <v>0.75</v>
+      </c>
+      <c r="Q5" s="380">
+        <v>0.8</v>
+      </c>
+      <c r="R5" s="380">
+        <v>0.85</v>
+      </c>
+      <c r="S5" s="380">
+        <v>0.9</v>
+      </c>
+      <c r="T5" s="380">
+        <v>0.95</v>
+      </c>
+      <c r="U5" s="380">
+        <v>1</v>
+      </c>
+      <c r="W5" s="361" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="399">
+    <row r="6" spans="1:23">
+      <c r="A6" s="381">
         <v>0.05</v>
       </c>
-      <c r="B5" s="399">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C5" s="399">
-        <v>0.1</v>
-      </c>
-      <c r="D5" s="399">
-        <v>0.15</v>
-      </c>
-      <c r="E5" s="399">
-        <v>0.2</v>
-      </c>
-      <c r="F5" s="399">
-        <v>0.25</v>
-      </c>
-      <c r="G5" s="399">
-        <v>0.3</v>
-      </c>
-      <c r="H5" s="399">
-        <v>0.35</v>
-      </c>
-      <c r="I5" s="399">
-        <v>0.4</v>
-      </c>
-      <c r="J5" s="399">
-        <v>0.45</v>
-      </c>
-      <c r="K5" s="399">
-        <v>0.5</v>
-      </c>
-      <c r="L5" s="399">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="M5" s="399">
-        <v>0.6</v>
-      </c>
-      <c r="N5" s="399">
-        <v>0.65</v>
-      </c>
-      <c r="O5" s="399">
-        <v>0.7</v>
-      </c>
-      <c r="P5" s="399">
-        <v>0.75</v>
-      </c>
-      <c r="Q5" s="399">
-        <v>0.8</v>
-      </c>
-      <c r="R5" s="399">
-        <v>0.85</v>
-      </c>
-      <c r="S5" s="399">
-        <v>0.9</v>
-      </c>
-      <c r="T5" s="399">
-        <v>0.95</v>
-      </c>
-      <c r="U5" s="399">
+      <c r="B6" s="381">
+        <v>0.11333333333333333</v>
+      </c>
+      <c r="C6" s="381">
+        <v>0.17666666666666664</v>
+      </c>
+      <c r="D6" s="381">
+        <v>0.24</v>
+      </c>
+      <c r="E6" s="381">
+        <v>0.30333333333333329</v>
+      </c>
+      <c r="F6" s="381">
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="G6" s="381">
+        <v>0.43</v>
+      </c>
+      <c r="H6" s="381">
+        <v>0.49333333333333329</v>
+      </c>
+      <c r="I6" s="381">
+        <v>0.55666666666666664</v>
+      </c>
+      <c r="J6" s="381">
+        <v>0.62</v>
+      </c>
+      <c r="K6" s="381">
+        <v>0.68333333333333335</v>
+      </c>
+      <c r="L6" s="381">
+        <v>0.74666666666666659</v>
+      </c>
+      <c r="M6" s="381">
+        <v>0.81</v>
+      </c>
+      <c r="N6" s="381">
+        <v>0.87333333333333341</v>
+      </c>
+      <c r="O6" s="381">
+        <v>0.93666666666666665</v>
+      </c>
+      <c r="P6" s="381">
         <v>1</v>
       </c>
-      <c r="W5" s="362" t="s">
+      <c r="Q6" s="101"/>
+      <c r="W6" s="361" t="s">
         <v>421</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="400">
-        <v>0.05</v>
-      </c>
-      <c r="B6" s="400">
-        <v>0.11333333333333333</v>
-      </c>
-      <c r="C6" s="400">
-        <v>0.17666666666666664</v>
-      </c>
-      <c r="D6" s="400">
-        <v>0.24</v>
-      </c>
-      <c r="E6" s="400">
-        <v>0.30333333333333329</v>
-      </c>
-      <c r="F6" s="400">
-        <v>0.36666666666666664</v>
-      </c>
-      <c r="G6" s="400">
-        <v>0.43</v>
-      </c>
-      <c r="H6" s="400">
-        <v>0.49333333333333329</v>
-      </c>
-      <c r="I6" s="400">
-        <v>0.55666666666666664</v>
-      </c>
-      <c r="J6" s="400">
-        <v>0.62</v>
-      </c>
-      <c r="K6" s="400">
-        <v>0.68333333333333335</v>
-      </c>
-      <c r="L6" s="400">
-        <v>0.74666666666666659</v>
-      </c>
-      <c r="M6" s="400">
-        <v>0.81</v>
-      </c>
-      <c r="N6" s="400">
-        <v>0.87333333333333341</v>
-      </c>
-      <c r="O6" s="400">
-        <v>0.93666666666666665</v>
-      </c>
-      <c r="P6" s="400">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="101"/>
-      <c r="W6" s="362" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7">
-        <f>'Main Page'!B33</f>
+        <f>'Main Page'!B34</f>
         <v>2.6</v>
       </c>
-      <c r="B7" s="401"/>
-      <c r="C7" s="401"/>
-      <c r="D7" s="401"/>
-      <c r="E7" s="401"/>
-      <c r="F7" s="401"/>
-      <c r="G7" s="401"/>
-      <c r="H7" s="401"/>
-      <c r="I7" s="401"/>
-      <c r="J7" s="401"/>
-      <c r="K7" s="401"/>
-      <c r="L7" s="401"/>
-      <c r="M7" s="401"/>
-      <c r="N7" s="401"/>
-      <c r="O7" s="401"/>
-      <c r="P7" s="401"/>
+      <c r="B7" s="382"/>
+      <c r="C7" s="382"/>
+      <c r="D7" s="382"/>
+      <c r="E7" s="382"/>
+      <c r="F7" s="382"/>
+      <c r="G7" s="382"/>
+      <c r="H7" s="382"/>
+      <c r="I7" s="382"/>
+      <c r="J7" s="382"/>
+      <c r="K7" s="382"/>
+      <c r="L7" s="382"/>
+      <c r="M7" s="382"/>
+      <c r="N7" s="382"/>
+      <c r="O7" s="382"/>
+      <c r="P7" s="382"/>
       <c r="Q7" s="101"/>
-      <c r="W7" s="362" t="s">
-        <v>423</v>
+      <c r="W7" s="361" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8">
-        <f>'Main Page'!B34</f>
+        <f>'Main Page'!B35</f>
         <v>90</v>
       </c>
-      <c r="B8" s="401"/>
-      <c r="C8" s="401"/>
-      <c r="D8" s="401"/>
-      <c r="E8" s="401"/>
-      <c r="F8" s="401"/>
-      <c r="G8" s="401"/>
-      <c r="H8" s="401"/>
-      <c r="I8" s="401"/>
-      <c r="J8" s="401"/>
-      <c r="K8" s="401"/>
-      <c r="L8" s="401"/>
-      <c r="M8" s="401"/>
-      <c r="N8" s="401"/>
-      <c r="O8" s="401"/>
-      <c r="P8" s="401"/>
+      <c r="B8" s="382"/>
+      <c r="C8" s="382"/>
+      <c r="D8" s="382"/>
+      <c r="E8" s="382"/>
+      <c r="F8" s="382"/>
+      <c r="G8" s="382"/>
+      <c r="H8" s="382"/>
+      <c r="I8" s="382"/>
+      <c r="J8" s="382"/>
+      <c r="K8" s="382"/>
+      <c r="L8" s="382"/>
+      <c r="M8" s="382"/>
+      <c r="N8" s="382"/>
+      <c r="O8" s="382"/>
+      <c r="P8" s="382"/>
       <c r="Q8" s="101"/>
-      <c r="W8" s="362" t="s">
-        <v>424</v>
+      <c r="W8" s="361" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9">
-        <f>'Main Page'!B16</f>
+        <f>'Main Page'!B17</f>
         <v>1.2250000000000001</v>
       </c>
-      <c r="B9" s="401"/>
-      <c r="C9" s="401"/>
-      <c r="D9" s="401"/>
-      <c r="E9" s="401"/>
-      <c r="F9" s="401"/>
-      <c r="G9" s="401"/>
-      <c r="H9" s="401"/>
-      <c r="I9" s="401"/>
-      <c r="J9" s="401"/>
-      <c r="K9" s="401"/>
-      <c r="L9" s="401"/>
-      <c r="M9" s="401"/>
-      <c r="N9" s="401"/>
-      <c r="O9" s="401"/>
-      <c r="P9" s="401"/>
+      <c r="B9" s="382"/>
+      <c r="C9" s="382"/>
+      <c r="D9" s="382"/>
+      <c r="E9" s="382"/>
+      <c r="F9" s="382"/>
+      <c r="G9" s="382"/>
+      <c r="H9" s="382"/>
+      <c r="I9" s="382"/>
+      <c r="J9" s="382"/>
+      <c r="K9" s="382"/>
+      <c r="L9" s="382"/>
+      <c r="M9" s="382"/>
+      <c r="N9" s="382"/>
+      <c r="O9" s="382"/>
+      <c r="P9" s="382"/>
       <c r="Q9" s="101"/>
-      <c r="W9" s="362" t="s">
-        <v>425</v>
+      <c r="W9" s="361" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10">
-        <f>'Main Page'!B38</f>
+        <f>'Main Page'!B39</f>
         <v>0.45</v>
       </c>
-      <c r="B10" s="401"/>
-      <c r="C10" s="401"/>
-      <c r="D10" s="401"/>
-      <c r="E10" s="401"/>
-      <c r="F10" s="401"/>
-      <c r="G10" s="401"/>
-      <c r="H10" s="401"/>
-      <c r="I10" s="401"/>
-      <c r="J10" s="401"/>
-      <c r="K10" s="401"/>
-      <c r="L10" s="401"/>
-      <c r="M10" s="401"/>
-      <c r="N10" s="401"/>
-      <c r="O10" s="401"/>
-      <c r="P10" s="401"/>
+      <c r="B10" s="382"/>
+      <c r="C10" s="382"/>
+      <c r="D10" s="382"/>
+      <c r="E10" s="382"/>
+      <c r="F10" s="382"/>
+      <c r="G10" s="382"/>
+      <c r="H10" s="382"/>
+      <c r="I10" s="382"/>
+      <c r="J10" s="382"/>
+      <c r="K10" s="382"/>
+      <c r="L10" s="382"/>
+      <c r="M10" s="382"/>
+      <c r="N10" s="382"/>
+      <c r="O10" s="382"/>
+      <c r="P10" s="382"/>
       <c r="Q10" s="101"/>
-      <c r="W10" s="362" t="s">
+      <c r="W10" s="361" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="383">
+        <f>'Main Page'!B40</f>
+        <v>7</v>
+      </c>
+      <c r="B11" s="382"/>
+      <c r="C11" s="382"/>
+      <c r="D11" s="382"/>
+      <c r="E11" s="382"/>
+      <c r="F11" s="382"/>
+      <c r="G11" s="382"/>
+      <c r="H11" s="382"/>
+      <c r="I11" s="382"/>
+      <c r="J11" s="382"/>
+      <c r="K11" s="382"/>
+      <c r="L11" s="382"/>
+      <c r="M11" s="382"/>
+      <c r="N11" s="382"/>
+      <c r="O11" s="382"/>
+      <c r="P11" s="382"/>
+      <c r="Q11" s="101"/>
+      <c r="W11" s="361" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
-      <c r="A11" s="402">
-        <f>'Main Page'!B39</f>
-        <v>7</v>
-      </c>
-      <c r="B11" s="401"/>
-      <c r="C11" s="401"/>
-      <c r="D11" s="401"/>
-      <c r="E11" s="401"/>
-      <c r="F11" s="401"/>
-      <c r="G11" s="401"/>
-      <c r="H11" s="401"/>
-      <c r="I11" s="401"/>
-      <c r="J11" s="401"/>
-      <c r="K11" s="401"/>
-      <c r="L11" s="401"/>
-      <c r="M11" s="401"/>
-      <c r="N11" s="401"/>
-      <c r="O11" s="401"/>
-      <c r="P11" s="401"/>
-      <c r="Q11" s="101"/>
-      <c r="W11" s="362" t="s">
+    <row r="12" spans="1:23">
+      <c r="A12" s="103">
+        <f>'Main Page'!B16</f>
+        <v>665139</v>
+      </c>
+      <c r="B12" s="382"/>
+      <c r="C12" s="382"/>
+      <c r="D12" s="382"/>
+      <c r="E12" s="382"/>
+      <c r="F12" s="382"/>
+      <c r="G12" s="382"/>
+      <c r="H12" s="382"/>
+      <c r="I12" s="382"/>
+      <c r="J12" s="382"/>
+      <c r="K12" s="382"/>
+      <c r="L12" s="382"/>
+      <c r="M12" s="382"/>
+      <c r="N12" s="382"/>
+      <c r="O12" s="382"/>
+      <c r="P12" s="382"/>
+      <c r="Q12" s="101"/>
+      <c r="W12" s="361" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="102" t="str">
+        <f>'Main Page'!A120</f>
+        <v>Station</v>
+      </c>
+      <c r="B13" s="102" t="str">
+        <f>'Main Page'!H119</f>
+        <v>Unit Weight</v>
+      </c>
+      <c r="C13" s="102" t="str">
+        <f>'Main Page'!B131</f>
+        <v>Twist</v>
+      </c>
+      <c r="D13" s="102" t="str">
+        <f>'Main Page'!L119</f>
+        <v>GJ</v>
+      </c>
+      <c r="E13" s="102" t="str">
+        <f>'Main Page'!K119</f>
+        <v>EA</v>
+      </c>
+      <c r="F13" s="102" t="str">
+        <f>'Main Page'!J119</f>
+        <v>EIEdge</v>
+      </c>
+      <c r="G13" s="102" t="str">
+        <f>'Main Page'!I119</f>
+        <v>EIFlap</v>
+      </c>
+      <c r="H13" s="102" t="str">
+        <f>'Main Page'!B119</f>
+        <v>Chord</v>
+      </c>
+      <c r="I13" s="102" t="str">
+        <f>'Main Page'!E119</f>
+        <v>Gen. Axis Loc.</v>
+      </c>
+      <c r="J13" s="102" t="str">
+        <f>'Main Page'!A140</f>
+        <v>Airfoil ID</v>
+      </c>
+      <c r="W13" s="361" t="s">
         <v>427</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="A12" s="102" t="str">
-        <f>'Main Page'!A119</f>
-        <v>Station</v>
-      </c>
-      <c r="B12" s="102" t="str">
-        <f>'Main Page'!H118</f>
-        <v>Unit Weight</v>
-      </c>
-      <c r="C12" s="102" t="str">
-        <f>'Main Page'!B130</f>
-        <v>Twist</v>
-      </c>
-      <c r="D12" s="102" t="str">
-        <f>'Main Page'!L118</f>
-        <v>GJ</v>
-      </c>
-      <c r="E12" s="102" t="str">
-        <f>'Main Page'!K118</f>
-        <v>EA</v>
-      </c>
-      <c r="F12" s="102" t="str">
-        <f>'Main Page'!J118</f>
-        <v>EIEdge</v>
-      </c>
-      <c r="G12" s="102" t="str">
-        <f>'Main Page'!I118</f>
-        <v>EIFlap</v>
-      </c>
-      <c r="H12" s="102" t="str">
-        <f>'Main Page'!B118</f>
-        <v>Chord</v>
-      </c>
-      <c r="I12" s="102" t="str">
-        <f>'Main Page'!E118</f>
-        <v>Gen. Axis Loc.</v>
-      </c>
-      <c r="J12" s="102" t="str">
-        <f>'Main Page'!A139</f>
-        <v>Airfoil ID</v>
-      </c>
-      <c r="W12" s="362" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" s="102">
-        <f>'Main Page'!A120</f>
-        <v>0.05</v>
-      </c>
-      <c r="B13" s="102">
-        <f>'Main Page'!H120</f>
-        <v>1181.9474017501359</v>
-      </c>
-      <c r="C13" s="102">
-        <f>'Main Page'!B132 - 'Main Page'!B$137</f>
-        <v>11.1</v>
-      </c>
-      <c r="D13" s="102">
-        <f>'Main Page'!L120</f>
-        <v>815590611.695804</v>
-      </c>
-      <c r="E13" s="102">
-        <f>'Main Page'!K120</f>
-        <v>10326627046.93685</v>
-      </c>
-      <c r="F13" s="102">
-        <f>'Main Page'!J120</f>
-        <v>2362406058.2721553</v>
-      </c>
-      <c r="G13" s="102">
-        <f>'Main Page'!I120</f>
-        <v>2362406058.2721553</v>
-      </c>
-      <c r="H13" s="102">
-        <f>'Main Page'!B120</f>
-        <v>1.349657099314199</v>
-      </c>
-      <c r="I13" s="102">
-        <f>'Main Page'!E120</f>
-        <v>0.25</v>
-      </c>
-      <c r="J13" s="102">
-        <f>'Main Page'!D132</f>
-        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="102">
         <f>'Main Page'!A121</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="B14" s="102">
         <f>'Main Page'!H121</f>
-        <v>89.215305458599687</v>
+        <v>1181.9474017501359</v>
       </c>
       <c r="C14" s="102">
-        <f>'Main Page'!B133 - 'Main Page'!B$137</f>
+        <f>'Main Page'!B133 - 'Main Page'!B$138</f>
         <v>11.1</v>
       </c>
       <c r="D14" s="102">
         <f>'Main Page'!L121</f>
-        <v>102340392.98761402</v>
+        <v>815590611.695804</v>
       </c>
       <c r="E14" s="102">
         <f>'Main Page'!K121</f>
-        <v>1295783621.589889</v>
+        <v>10326627046.93685</v>
       </c>
       <c r="F14" s="102">
         <f>'Main Page'!J121</f>
-        <v>292871613.66241747</v>
+        <v>2362406058.2721553</v>
       </c>
       <c r="G14" s="102">
         <f>'Main Page'!I121</f>
-        <v>292871613.66241747</v>
+        <v>2362406058.2721553</v>
       </c>
       <c r="H14" s="102">
         <f>'Main Page'!B121</f>
-        <v>1.3496570993141985</v>
+        <v>1.349657099314199</v>
       </c>
       <c r="I14" s="102">
         <f>'Main Page'!E121</f>
@@ -8072,298 +8081,340 @@
     <row r="15" spans="1:23">
       <c r="A15" s="102">
         <f>'Main Page'!A122</f>
-        <v>0.25</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="B15" s="102">
         <f>'Main Page'!H122</f>
-        <v>117.20845675339662</v>
+        <v>89.215305458599687</v>
       </c>
       <c r="C15" s="102">
-        <f>'Main Page'!B134 - 'Main Page'!B$137</f>
+        <f>'Main Page'!B134 - 'Main Page'!B$138</f>
         <v>11.1</v>
       </c>
       <c r="D15" s="102">
         <f>'Main Page'!L122</f>
-        <v>6059831.2604694702</v>
+        <v>102340392.98761402</v>
       </c>
       <c r="E15" s="102">
         <f>'Main Page'!K122</f>
-        <v>1535809947.6467729</v>
+        <v>1295783621.589889</v>
       </c>
       <c r="F15" s="102">
         <f>'Main Page'!J122</f>
-        <v>192688198.09657151</v>
+        <v>292871613.66241747</v>
       </c>
       <c r="G15" s="102">
         <f>'Main Page'!I122</f>
-        <v>71200412.886402056</v>
+        <v>292871613.66241747</v>
       </c>
       <c r="H15" s="102">
         <f>'Main Page'!B122</f>
-        <v>2</v>
+        <v>1.3496570993141985</v>
       </c>
       <c r="I15" s="102">
         <f>'Main Page'!E122</f>
-        <v>0.34</v>
+        <v>0.25</v>
       </c>
       <c r="J15" s="102">
         <f>'Main Page'!D134</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="102">
         <f>'Main Page'!A123</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B16" s="102">
         <f>'Main Page'!H123</f>
-        <v>82.955569360022096</v>
+        <v>117.20845675339662</v>
       </c>
       <c r="C16" s="102">
-        <f>'Main Page'!B135 - 'Main Page'!B$137</f>
-        <v>3.1</v>
+        <f>'Main Page'!B135 - 'Main Page'!B$138</f>
+        <v>11.1</v>
       </c>
       <c r="D16" s="102">
         <f>'Main Page'!L123</f>
-        <v>2885752.229026631</v>
+        <v>6059831.2604694702</v>
       </c>
       <c r="E16" s="102">
         <f>'Main Page'!K123</f>
-        <v>1094705409.6217237</v>
+        <v>1535809947.6467729</v>
       </c>
       <c r="F16" s="102">
         <f>'Main Page'!J123</f>
-        <v>79116868.754064709</v>
+        <v>192688198.09657151</v>
       </c>
       <c r="G16" s="102">
         <f>'Main Page'!I123</f>
-        <v>22286831.062062379</v>
+        <v>71200412.886402056</v>
       </c>
       <c r="H16" s="102">
         <f>'Main Page'!B123</f>
-        <v>1.5334010668021336</v>
+        <v>2</v>
       </c>
       <c r="I16" s="102">
         <f>'Main Page'!E123</f>
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="J16" s="102">
         <f>'Main Page'!D135</f>
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="102">
         <f>'Main Page'!A124</f>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="B17" s="102">
         <f>'Main Page'!H124</f>
-        <v>39.129612072462692</v>
+        <v>82.955569360022096</v>
       </c>
       <c r="C17" s="102">
-        <f>'Main Page'!B136 - 'Main Page'!B$137</f>
-        <v>0.6</v>
+        <f>'Main Page'!B136 - 'Main Page'!B$138</f>
+        <v>3.1</v>
       </c>
       <c r="D17" s="102">
         <f>'Main Page'!L124</f>
-        <v>574933.04560629011</v>
+        <v>2885752.229026631</v>
       </c>
       <c r="E17" s="102">
         <f>'Main Page'!K124</f>
-        <v>499093273.18287331</v>
+        <v>1094705409.6217237</v>
       </c>
       <c r="F17" s="102">
         <f>'Main Page'!J124</f>
-        <v>21323059.849604025</v>
+        <v>79116868.754064709</v>
       </c>
       <c r="G17" s="102">
         <f>'Main Page'!I124</f>
-        <v>3549221.9475047868</v>
+        <v>22286831.062062379</v>
       </c>
       <c r="H17" s="102">
         <f>'Main Page'!B124</f>
-        <v>1.0670561341122682</v>
+        <v>1.5334010668021336</v>
       </c>
       <c r="I17" s="102">
         <f>'Main Page'!E124</f>
-        <v>0.28000000000000003</v>
+        <v>0.31</v>
       </c>
       <c r="J17" s="102">
         <f>'Main Page'!D136</f>
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="102">
         <f>'Main Page'!A125</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="B18" s="102">
         <f>'Main Page'!H125</f>
-        <v>7.751396294306554</v>
+        <v>39.129612072462692</v>
       </c>
       <c r="C18" s="102">
-        <f>'Main Page'!B137 - 'Main Page'!B$137</f>
-        <v>0</v>
+        <f>'Main Page'!B137 - 'Main Page'!B$138</f>
+        <v>0.6</v>
       </c>
       <c r="D18" s="102">
         <f>'Main Page'!L125</f>
-        <v>61146.36439630347</v>
+        <v>574933.04560629011</v>
       </c>
       <c r="E18" s="102">
         <f>'Main Page'!K125</f>
-        <v>80734393.082686871</v>
+        <v>499093273.18287331</v>
       </c>
       <c r="F18" s="102">
         <f>'Main Page'!J125</f>
-        <v>2702250.8204062055</v>
+        <v>21323059.849604025</v>
       </c>
       <c r="G18" s="102">
         <f>'Main Page'!I125</f>
-        <v>79811.599091411103</v>
+        <v>3549221.9475047868</v>
       </c>
       <c r="H18" s="102">
         <f>'Main Page'!B125</f>
-        <v>0.64719329438658879</v>
+        <v>1.0670561341122682</v>
       </c>
       <c r="I18" s="102">
         <f>'Main Page'!E125</f>
-        <v>0.25</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="J18" s="102">
         <f>'Main Page'!D137</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="102">
+        <f>'Main Page'!A126</f>
+        <v>1</v>
+      </c>
+      <c r="B19" s="102">
+        <f>'Main Page'!H126</f>
+        <v>7.751396294306554</v>
+      </c>
+      <c r="C19" s="102">
+        <f>'Main Page'!B138 - 'Main Page'!B$138</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="102">
+        <f>'Main Page'!L126</f>
+        <v>61146.36439630347</v>
+      </c>
+      <c r="E19" s="102">
+        <f>'Main Page'!K126</f>
+        <v>80734393.082686871</v>
+      </c>
+      <c r="F19" s="102">
+        <f>'Main Page'!J126</f>
+        <v>2702250.8204062055</v>
+      </c>
+      <c r="G19" s="102">
+        <f>'Main Page'!I126</f>
+        <v>79811.599091411103</v>
+      </c>
+      <c r="H19" s="102">
+        <f>'Main Page'!B126</f>
+        <v>0.64719329438658879</v>
+      </c>
+      <c r="I19" s="102">
+        <f>'Main Page'!E126</f>
+        <v>0.25</v>
+      </c>
+      <c r="J19" s="102">
+        <f>'Main Page'!D138</f>
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="362" t="s">
-        <v>429</v>
-      </c>
-      <c r="B26">
-        <v>15</v>
-      </c>
-    </row>
     <row r="27" spans="1:16">
-      <c r="A27">
-        <v>0</v>
+      <c r="A27" s="361" t="s">
+        <v>428</v>
       </c>
       <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>3</v>
-      </c>
-      <c r="E27">
-        <v>4</v>
-      </c>
-      <c r="F27">
-        <v>5</v>
-      </c>
-      <c r="G27">
-        <v>6</v>
-      </c>
-      <c r="H27">
-        <v>7</v>
-      </c>
-      <c r="I27">
-        <v>8</v>
-      </c>
-      <c r="J27">
-        <v>9</v>
-      </c>
-      <c r="K27">
-        <v>10</v>
-      </c>
-      <c r="L27">
-        <v>11</v>
-      </c>
-      <c r="M27">
-        <v>12</v>
-      </c>
-      <c r="N27">
-        <v>13</v>
-      </c>
-      <c r="O27">
-        <v>14</v>
-      </c>
-      <c r="P27">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28">
-        <f>A27/$B$26*0.95+0.05</f>
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <v>6</v>
+      </c>
+      <c r="H28">
+        <v>7</v>
+      </c>
+      <c r="I28">
+        <v>8</v>
+      </c>
+      <c r="J28">
+        <v>9</v>
+      </c>
+      <c r="K28">
+        <v>10</v>
+      </c>
+      <c r="L28">
+        <v>11</v>
+      </c>
+      <c r="M28">
+        <v>12</v>
+      </c>
+      <c r="N28">
+        <v>13</v>
+      </c>
+      <c r="O28">
+        <v>14</v>
+      </c>
+      <c r="P28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
+        <f>A28/$B$27*0.95+0.05</f>
         <v>0.05</v>
       </c>
-      <c r="B28">
-        <f t="shared" ref="B28:P28" si="0">B27/$B$26*0.95+0.05</f>
+      <c r="B29">
+        <f t="shared" ref="B29:P29" si="0">B28/$B$27*0.95+0.05</f>
         <v>0.11333333333333333</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <f t="shared" si="0"/>
         <v>0.17666666666666664</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
-      <c r="E28">
+      <c r="E29">
         <f t="shared" si="0"/>
         <v>0.30333333333333329</v>
       </c>
-      <c r="F28">
+      <c r="F29">
         <f t="shared" si="0"/>
         <v>0.36666666666666664</v>
       </c>
-      <c r="G28">
+      <c r="G29">
         <f t="shared" si="0"/>
         <v>0.43</v>
       </c>
-      <c r="H28">
+      <c r="H29">
         <f t="shared" si="0"/>
         <v>0.49333333333333329</v>
       </c>
-      <c r="I28">
+      <c r="I29">
         <f t="shared" si="0"/>
         <v>0.55666666666666664</v>
       </c>
-      <c r="J28">
+      <c r="J29">
         <f t="shared" si="0"/>
         <v>0.62</v>
       </c>
-      <c r="K28">
+      <c r="K29">
         <f t="shared" si="0"/>
         <v>0.68333333333333335</v>
       </c>
-      <c r="L28">
+      <c r="L29">
         <f t="shared" si="0"/>
         <v>0.74666666666666659</v>
       </c>
-      <c r="M28">
+      <c r="M29">
         <f t="shared" si="0"/>
         <v>0.81</v>
       </c>
-      <c r="N28">
+      <c r="N29">
         <f t="shared" si="0"/>
         <v>0.87333333333333341</v>
       </c>
-      <c r="O28">
+      <c r="O29">
         <f t="shared" si="0"/>
         <v>0.93666666666666665</v>
       </c>
-      <c r="P28">
+      <c r="P29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
-      <c r="A29">
-        <f>A27/$B26</f>
+    <row r="30" spans="1:16">
+      <c r="A30">
+        <f>A28/$B27</f>
         <v>0</v>
       </c>
     </row>
@@ -8376,8 +8427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -8387,11 +8438,11 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <f>'Main Page'!B82</f>
+        <f>'Main Page'!B83</f>
         <v>75</v>
       </c>
       <c r="E1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -8400,16 +8451,16 @@
         <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="102">
-        <f>'Main Page'!B57</f>
+        <f>'Main Page'!B58</f>
         <v>-2.33</v>
       </c>
       <c r="E3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -8426,7 +8477,7 @@
         <v>-0.16898817734177707</v>
       </c>
       <c r="E4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8443,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -8460,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -8469,7 +8520,7 @@
         <v>-5</v>
       </c>
       <c r="E7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -8477,8 +8528,8 @@
         <f>'Main Page'!E5</f>
         <v>15580.140251640041</v>
       </c>
-      <c r="E8" s="362" t="s">
-        <v>437</v>
+      <c r="E8" s="361" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -8486,8 +8537,8 @@
         <f>'Main Page'!E6</f>
         <v>1131.2074102368219</v>
       </c>
-      <c r="E9" s="362" t="s">
-        <v>438</v>
+      <c r="E9" s="361" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -8495,17 +8546,17 @@
         <f>'Main Page'!E7</f>
         <v>4238.8965977950375</v>
       </c>
-      <c r="E10" s="362" t="s">
-        <v>439</v>
+      <c r="E10" s="361" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="103">
-        <f>-'Main Page'!B17</f>
+        <f>-'Main Page'!B18</f>
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -8514,7 +8565,7 @@
         <v>6573.9348557027251</v>
       </c>
       <c r="E12" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -8523,7 +8574,7 @@
         <v>8623.1244137844569</v>
       </c>
       <c r="E13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -8532,16 +8583,16 @@
         <v>5160.9544585651756</v>
       </c>
       <c r="E14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="103">
-        <f>'Main Page'!B83</f>
+        <f>'Main Page'!B84</f>
         <v>1800</v>
       </c>
       <c r="E15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -8550,43 +8601,43 @@
         <v>129646444.93189973</v>
       </c>
       <c r="E16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="103">
-        <f>'Main Page'!B18</f>
+        <f>'Main Page'!B19</f>
         <v>0.95</v>
       </c>
       <c r="E17" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="333">
+        <f>'Main Page'!B89*1000</f>
+        <v>750000</v>
+      </c>
+      <c r="E18" s="361" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="103">
-        <f>'Main Page'!B15</f>
-        <v>56</v>
-      </c>
-      <c r="E18" s="362" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" s="103">
+        <f>SUM(GECdrivetrain!M11:'GECdrivetrain'!M12)</f>
+        <v>65735.985618380335</v>
+      </c>
+      <c r="E19" s="361" t="s">
         <v>447</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="333">
-        <f>'Main Page'!B88*1000</f>
-        <v>750000</v>
-      </c>
-      <c r="E19" s="362" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="103">
-        <f>SUM(GECdrivetrain!M11:'GECdrivetrain'!M12)</f>
-        <v>65735.985618380335</v>
-      </c>
-      <c r="E20" s="362" t="s">
-        <v>449</v>
+        <f>'Main Page'!B15/100</f>
+        <v>0.05</v>
+      </c>
+      <c r="E20" s="361" t="s">
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -8598,7 +8649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -8608,57 +8659,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="403">
-        <f>'Main Page'!B42</f>
+      <c r="A1" s="384">
+        <f>'Main Page'!B43</f>
         <v>1.33</v>
       </c>
-      <c r="L1" s="362" t="s">
+      <c r="L1" s="361" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="384">
+        <f>'Main Page'!B44</f>
+        <v>2</v>
+      </c>
+      <c r="L2" s="361" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="384">
+        <f>'Main Page'!B45/1000</f>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="L3" s="361" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="403">
-        <f>'Main Page'!B43</f>
-        <v>2</v>
-      </c>
-      <c r="L2" s="362" t="s">
+    <row r="4" spans="1:12">
+      <c r="A4" s="384">
+        <f>'Main Page'!B46</f>
+        <v>3.75</v>
+      </c>
+      <c r="L4" s="361" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="403">
-        <f>'Main Page'!B44/1000</f>
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="L3" s="362" t="s">
+    <row r="5" spans="1:12">
+      <c r="A5" s="384">
+        <f>'Main Page'!B47/1000</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L5" s="361" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="403">
-        <f>'Main Page'!B45</f>
-        <v>3.75</v>
-      </c>
-      <c r="L4" s="362" t="s">
+    <row r="6" spans="1:12">
+      <c r="A6" s="384">
+        <f>'Main Page'!B48/100</f>
+        <v>0.05</v>
+      </c>
+      <c r="L6" s="361" t="s">
         <v>453</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="403">
-        <f>'Main Page'!B46/1000</f>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="L5" s="362" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="403">
-        <f>'Main Page'!B47/100</f>
-        <v>0.05</v>
-      </c>
-      <c r="L6" s="362" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -8666,8 +8717,8 @@
         <f>GECtwrdata!F5</f>
         <v>7850</v>
       </c>
-      <c r="L7" s="362" t="s">
-        <v>456</v>
+      <c r="L7" s="361" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -8675,8 +8726,8 @@
         <f>GECtwrdata!F6</f>
         <v>200000000000</v>
       </c>
-      <c r="L8" s="362" t="s">
-        <v>457</v>
+      <c r="L8" s="361" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -8684,74 +8735,74 @@
         <f>GECtwrdata!F7</f>
         <v>76923076923.07692</v>
       </c>
-      <c r="L9" s="362" t="s">
-        <v>458</v>
+      <c r="L9" s="361" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="399">
+      <c r="A10" s="380">
         <f>0/9</f>
         <v>0</v>
       </c>
-      <c r="B10" s="399">
+      <c r="B10" s="380">
         <f>1/9</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="C10" s="399">
+      <c r="C10" s="380">
         <f>2/9</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="D10" s="399">
+      <c r="D10" s="380">
         <f>3/9</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E10" s="399">
+      <c r="E10" s="380">
         <f>4/9</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="F10" s="399">
+      <c r="F10" s="380">
         <f>5/9</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="G10" s="399">
+      <c r="G10" s="380">
         <f>6/9</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="H10" s="399">
+      <c r="H10" s="380">
         <f>7/9</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="I10" s="399">
+      <c r="I10" s="380">
         <f>8/9</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="J10" s="399">
+      <c r="J10" s="380">
         <f>9/9</f>
         <v>1</v>
       </c>
-      <c r="L10" s="362" t="s">
-        <v>459</v>
+      <c r="L10" s="361" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="103">
-        <f>'Main Page'!B150*100</f>
-        <v>3.4350000000000001</v>
-      </c>
-      <c r="B11" s="103">
         <f>'Main Page'!B151*100</f>
         <v>3.4350000000000001</v>
       </c>
-      <c r="C11" s="103">
+      <c r="B11" s="103">
         <f>'Main Page'!B152*100</f>
         <v>3.4350000000000001</v>
       </c>
-      <c r="D11" s="103">
+      <c r="C11" s="103">
         <f>'Main Page'!B153*100</f>
         <v>3.4350000000000001</v>
       </c>
-      <c r="L11" s="362" t="s">
-        <v>460</v>
+      <c r="D11" s="103">
+        <f>'Main Page'!B154*100</f>
+        <v>3.4350000000000001</v>
+      </c>
+      <c r="L11" s="361" t="s">
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -8790,12 +8841,12 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="12" thickBot="1">
-      <c r="A2" s="395" t="s">
+      <c r="A2" s="400" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="396"/>
-      <c r="C2" s="396"/>
-      <c r="D2" s="397"/>
+      <c r="B2" s="401"/>
+      <c r="C2" s="401"/>
+      <c r="D2" s="402"/>
       <c r="F2" s="79" t="s">
         <v>54</v>
       </c>
@@ -9595,11 +9646,11 @@
         <f>GECbladedata!D12-B3</f>
         <v>23.75</v>
       </c>
-      <c r="D2" s="381" t="s">
+      <c r="D2" s="386" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="383"/>
-      <c r="F2" s="384"/>
+      <c r="E2" s="388"/>
+      <c r="F2" s="389"/>
     </row>
     <row r="3" spans="1:20" ht="23.25" thickBot="1">
       <c r="A3" s="98" t="s">
@@ -11885,330 +11936,330 @@
     </row>
     <row r="5" spans="2:21">
       <c r="B5" s="200">
-        <f>'Main Page'!A120</f>
+        <f>'Main Page'!A121</f>
         <v>0.05</v>
       </c>
       <c r="C5" s="201">
-        <f>'Main Page'!B120</f>
+        <f>'Main Page'!B121</f>
         <v>1.349657099314199</v>
       </c>
       <c r="D5" s="202">
-        <f>'Main Page'!C120</f>
+        <f>'Main Page'!C121</f>
         <v>1</v>
       </c>
       <c r="E5" s="202" t="str">
-        <f>'Main Page'!D120</f>
+        <f>'Main Page'!D121</f>
         <v>NA</v>
       </c>
       <c r="F5" s="203">
-        <f>'Main Page'!E120</f>
+        <f>'Main Page'!E121</f>
         <v>0.25</v>
       </c>
       <c r="G5" s="201">
-        <f>'Main Page'!F120</f>
+        <f>'Main Page'!F121</f>
         <v>0.5</v>
       </c>
       <c r="H5" s="201">
-        <f>'Main Page'!G120</f>
+        <f>'Main Page'!G121</f>
         <v>0.5</v>
       </c>
       <c r="I5" s="204">
-        <f>'Main Page'!H120</f>
+        <f>'Main Page'!H121</f>
         <v>1181.9474017501359</v>
       </c>
       <c r="J5" s="205">
-        <f>'Main Page'!I120</f>
+        <f>'Main Page'!I121</f>
         <v>2362406058.2721553</v>
       </c>
       <c r="K5" s="205">
-        <f>'Main Page'!J120</f>
+        <f>'Main Page'!J121</f>
         <v>2362406058.2721553</v>
       </c>
       <c r="L5" s="205">
-        <f>'Main Page'!K120</f>
+        <f>'Main Page'!K121</f>
         <v>10326627046.93685</v>
       </c>
       <c r="M5" s="205">
-        <f>'Main Page'!L120</f>
+        <f>'Main Page'!L121</f>
         <v>815590611.695804</v>
       </c>
       <c r="N5" s="206">
-        <f>'Main Page'!M120</f>
+        <f>'Main Page'!M121</f>
         <v>538.24909552528584</v>
       </c>
       <c r="P5" s="103"/>
     </row>
     <row r="6" spans="2:21">
       <c r="B6" s="207">
-        <f>'Main Page'!A121</f>
+        <f>'Main Page'!A122</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C6" s="208">
-        <f>'Main Page'!B121</f>
+        <f>'Main Page'!B122</f>
         <v>1.3496570993141985</v>
       </c>
       <c r="D6" s="209">
-        <f>'Main Page'!C121</f>
+        <f>'Main Page'!C122</f>
         <v>1</v>
       </c>
       <c r="E6" s="209" t="str">
-        <f>'Main Page'!D121</f>
+        <f>'Main Page'!D122</f>
         <v>NA</v>
       </c>
       <c r="F6" s="203">
-        <f>'Main Page'!E121</f>
+        <f>'Main Page'!E122</f>
         <v>0.25</v>
       </c>
       <c r="G6" s="208">
-        <f>'Main Page'!F121</f>
+        <f>'Main Page'!F122</f>
         <v>0.5</v>
       </c>
       <c r="H6" s="208">
-        <f>'Main Page'!G121</f>
+        <f>'Main Page'!G122</f>
         <v>0.5</v>
       </c>
       <c r="I6" s="210">
-        <f>'Main Page'!H121</f>
+        <f>'Main Page'!H122</f>
         <v>89.215305458599687</v>
       </c>
       <c r="J6" s="211">
-        <f>'Main Page'!I121</f>
+        <f>'Main Page'!I122</f>
         <v>292871613.66241747</v>
       </c>
       <c r="K6" s="211">
-        <f>'Main Page'!J121</f>
+        <f>'Main Page'!J122</f>
         <v>292871613.66241747</v>
       </c>
       <c r="L6" s="211">
-        <f>'Main Page'!K121</f>
+        <f>'Main Page'!K122</f>
         <v>1295783621.589889</v>
       </c>
       <c r="M6" s="211">
-        <f>'Main Page'!L121</f>
+        <f>'Main Page'!L122</f>
         <v>102340392.98761402</v>
       </c>
       <c r="N6" s="212">
-        <f>'Main Page'!M121</f>
+        <f>'Main Page'!M122</f>
         <v>40.627914067071856</v>
       </c>
       <c r="P6" s="103"/>
     </row>
     <row r="7" spans="2:21">
       <c r="B7" s="197">
-        <f>'Main Page'!A122</f>
+        <f>'Main Page'!A123</f>
         <v>0.25</v>
       </c>
       <c r="C7" s="208">
-        <f>'Main Page'!B122</f>
+        <f>'Main Page'!B123</f>
         <v>2</v>
       </c>
       <c r="D7" s="209">
-        <f>'Main Page'!C122</f>
+        <f>'Main Page'!C123</f>
         <v>0.27</v>
       </c>
       <c r="E7" s="209">
-        <f>'Main Page'!D122</f>
+        <f>'Main Page'!D123</f>
         <v>5.7408195699863462</v>
       </c>
       <c r="F7" s="203">
-        <f>'Main Page'!E122</f>
+        <f>'Main Page'!E123</f>
         <v>0.34</v>
       </c>
       <c r="G7" s="208">
-        <f>'Main Page'!F122</f>
+        <f>'Main Page'!F123</f>
         <v>0.38431406494974252</v>
       </c>
       <c r="H7" s="208">
-        <f>'Main Page'!G122</f>
+        <f>'Main Page'!G123</f>
         <v>0.32303333404645607</v>
       </c>
       <c r="I7" s="210">
-        <f>'Main Page'!H122</f>
+        <f>'Main Page'!H123</f>
         <v>117.20845675339662</v>
       </c>
       <c r="J7" s="211">
-        <f>'Main Page'!I122</f>
+        <f>'Main Page'!I123</f>
         <v>71200412.886402056</v>
       </c>
       <c r="K7" s="211">
-        <f>'Main Page'!J122</f>
+        <f>'Main Page'!J123</f>
         <v>192688198.09657151</v>
       </c>
       <c r="L7" s="198">
-        <f>'Main Page'!K122</f>
+        <f>'Main Page'!K123</f>
         <v>1535809947.6467729</v>
       </c>
       <c r="M7" s="198">
-        <f>'Main Page'!L122</f>
+        <f>'Main Page'!L123</f>
         <v>6059831.2604694702</v>
       </c>
       <c r="N7" s="213">
-        <f>'Main Page'!M122</f>
+        <f>'Main Page'!M123</f>
         <v>24.149591455091301</v>
       </c>
       <c r="P7" s="103"/>
     </row>
     <row r="8" spans="2:21">
       <c r="B8" s="197">
-        <f>'Main Page'!A123</f>
+        <f>'Main Page'!A124</f>
         <v>0.5</v>
       </c>
       <c r="C8" s="208">
-        <f>'Main Page'!B123</f>
+        <f>'Main Page'!B124</f>
         <v>1.5334010668021336</v>
       </c>
       <c r="D8" s="214">
-        <f>'Main Page'!C123</f>
+        <f>'Main Page'!C124</f>
         <v>0.24</v>
       </c>
       <c r="E8" s="209">
-        <f>'Main Page'!D123</f>
+        <f>'Main Page'!D124</f>
         <v>7.8774986568807996</v>
       </c>
       <c r="F8" s="203">
-        <f>'Main Page'!E123</f>
+        <f>'Main Page'!E124</f>
         <v>0.31</v>
       </c>
       <c r="G8" s="208">
-        <f>'Main Page'!F123</f>
+        <f>'Main Page'!F124</f>
         <v>0.37966131849299201</v>
       </c>
       <c r="H8" s="208">
-        <f>'Main Page'!G123</f>
+        <f>'Main Page'!G124</f>
         <v>0.32331172392666518</v>
       </c>
       <c r="I8" s="210">
-        <f>'Main Page'!H123</f>
+        <f>'Main Page'!H124</f>
         <v>82.955569360022096</v>
       </c>
       <c r="J8" s="211">
-        <f>'Main Page'!I123</f>
+        <f>'Main Page'!I124</f>
         <v>22286831.062062379</v>
       </c>
       <c r="K8" s="211">
-        <f>'Main Page'!J123</f>
+        <f>'Main Page'!J124</f>
         <v>79116868.754064709</v>
       </c>
       <c r="L8" s="198">
-        <f>'Main Page'!K123</f>
+        <f>'Main Page'!K124</f>
         <v>1094705409.6217237</v>
       </c>
       <c r="M8" s="198">
-        <f>'Main Page'!L123</f>
+        <f>'Main Page'!L124</f>
         <v>2885752.229026631</v>
       </c>
       <c r="N8" s="213">
-        <f>'Main Page'!M123</f>
+        <f>'Main Page'!M124</f>
         <v>9.0573611452431102</v>
       </c>
       <c r="P8" s="103"/>
     </row>
     <row r="9" spans="2:21">
       <c r="B9" s="197">
-        <f>'Main Page'!A124</f>
+        <f>'Main Page'!A125</f>
         <v>0.75</v>
       </c>
       <c r="C9" s="208">
-        <f>'Main Page'!B124</f>
+        <f>'Main Page'!B125</f>
         <v>1.0670561341122682</v>
       </c>
       <c r="D9" s="214">
-        <f>'Main Page'!C124</f>
+        <f>'Main Page'!C125</f>
         <v>0.21</v>
       </c>
       <c r="E9" s="209">
-        <f>'Main Page'!D124</f>
+        <f>'Main Page'!D125</f>
         <v>7.6422364536705301</v>
       </c>
       <c r="F9" s="203">
-        <f>'Main Page'!E124</f>
+        <f>'Main Page'!E125</f>
         <v>0.28000000000000003</v>
       </c>
       <c r="G9" s="208">
-        <f>'Main Page'!F124</f>
+        <f>'Main Page'!F125</f>
         <v>0.39262047257690491</v>
       </c>
       <c r="H9" s="208">
-        <f>'Main Page'!G124</f>
+        <f>'Main Page'!G125</f>
         <v>0.32643878406891619</v>
       </c>
       <c r="I9" s="210">
-        <f>'Main Page'!H124</f>
+        <f>'Main Page'!H125</f>
         <v>39.129612072462692</v>
       </c>
       <c r="J9" s="211">
-        <f>'Main Page'!I124</f>
+        <f>'Main Page'!I125</f>
         <v>3549221.9475047868</v>
       </c>
       <c r="K9" s="211">
-        <f>'Main Page'!J124</f>
+        <f>'Main Page'!J125</f>
         <v>21323059.849604025</v>
       </c>
       <c r="L9" s="198">
-        <f>'Main Page'!K124</f>
+        <f>'Main Page'!K125</f>
         <v>499093273.18287331</v>
       </c>
       <c r="M9" s="198">
-        <f>'Main Page'!L124</f>
+        <f>'Main Page'!L125</f>
         <v>574933.04560629011</v>
       </c>
       <c r="N9" s="213">
-        <f>'Main Page'!M124</f>
+        <f>'Main Page'!M125</f>
         <v>2.2054187533799334</v>
       </c>
       <c r="P9" s="103"/>
     </row>
     <row r="10" spans="2:21">
       <c r="B10" s="215">
-        <f>'Main Page'!A125</f>
+        <f>'Main Page'!A126</f>
         <v>1</v>
       </c>
       <c r="C10" s="216">
-        <f>'Main Page'!B125</f>
+        <f>'Main Page'!B126</f>
         <v>0.64719329438658879</v>
       </c>
       <c r="D10" s="217">
-        <f>'Main Page'!C125</f>
+        <f>'Main Page'!C126</f>
         <v>0.16</v>
       </c>
       <c r="E10" s="217">
-        <f>'Main Page'!D125</f>
+        <f>'Main Page'!D126</f>
         <v>0</v>
       </c>
       <c r="F10" s="216">
-        <f>'Main Page'!E125</f>
+        <f>'Main Page'!E126</f>
         <v>0.25</v>
       </c>
       <c r="G10" s="216">
-        <f>'Main Page'!F125</f>
+        <f>'Main Page'!F126</f>
         <v>0.49249999999999999</v>
       </c>
       <c r="H10" s="216">
-        <f>'Main Page'!G125</f>
+        <f>'Main Page'!G126</f>
         <v>0.35780000000000001</v>
       </c>
       <c r="I10" s="218">
-        <f>'Main Page'!H125</f>
+        <f>'Main Page'!H126</f>
         <v>7.751396294306554</v>
       </c>
       <c r="J10" s="219">
-        <f>'Main Page'!I125</f>
+        <f>'Main Page'!I126</f>
         <v>79811.599091411103</v>
       </c>
       <c r="K10" s="219">
-        <f>'Main Page'!J125</f>
+        <f>'Main Page'!J126</f>
         <v>2702250.8204062055</v>
       </c>
       <c r="L10" s="220">
-        <f>'Main Page'!K125</f>
+        <f>'Main Page'!K126</f>
         <v>80734393.082686871</v>
       </c>
       <c r="M10" s="220">
-        <f>'Main Page'!L125</f>
+        <f>'Main Page'!L126</f>
         <v>61146.36439630347</v>
       </c>
       <c r="N10" s="221">
-        <f>'Main Page'!M125</f>
+        <f>'Main Page'!M126</f>
         <v>0.25688857997871806</v>
       </c>
       <c r="P10" s="103"/>
@@ -12252,7 +12303,7 @@
         <v>353</v>
       </c>
       <c r="D13" s="228">
-        <f>'Main Page'!B52/2</f>
+        <f>'Main Page'!B53/2</f>
         <v>1.25</v>
       </c>
       <c r="E13" s="226" t="s">
@@ -12419,7 +12470,7 @@
         <v>1181.9474017501359</v>
       </c>
       <c r="E18" s="238">
-        <f>N5*'Main Page'!C$127/('Main Page'!C$127+1)</f>
+        <f>N5*'Main Page'!C$128/('Main Page'!C$128+1)</f>
         <v>0</v>
       </c>
       <c r="F18" s="238">
@@ -12441,7 +12492,7 @@
         <v>0.33741427482854974</v>
       </c>
       <c r="K18" s="238">
-        <f>'Main Page'!B132-'Main Page'!B$137</f>
+        <f>'Main Page'!B133-'Main Page'!B$138</f>
         <v>11.1</v>
       </c>
       <c r="L18" s="240">
@@ -12468,7 +12519,7 @@
         <v>0</v>
       </c>
       <c r="R18" s="262">
-        <f>'Main Page'!D132</f>
+        <f>'Main Page'!D133</f>
         <v>1</v>
       </c>
       <c r="S18" s="108"/>
@@ -12489,7 +12540,7 @@
         <v>89.215305458599687</v>
       </c>
       <c r="E19" s="243">
-        <f>N6*'Main Page'!C$127/('Main Page'!C$127+1)</f>
+        <f>N6*'Main Page'!C$128/('Main Page'!C$128+1)</f>
         <v>0</v>
       </c>
       <c r="F19" s="243">
@@ -12511,7 +12562,7 @@
         <v>0.33741427482854963</v>
       </c>
       <c r="K19" s="243">
-        <f>'Main Page'!B133-'Main Page'!B$137</f>
+        <f>'Main Page'!B134-'Main Page'!B$138</f>
         <v>11.1</v>
       </c>
       <c r="L19" s="246">
@@ -12538,7 +12589,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="260">
-        <f>'Main Page'!D133</f>
+        <f>'Main Page'!D134</f>
         <v>1</v>
       </c>
       <c r="S19" s="108"/>
@@ -12559,7 +12610,7 @@
         <v>117.20845675339662</v>
       </c>
       <c r="E20" s="243">
-        <f>N7*'Main Page'!C$127/('Main Page'!C$127+1)</f>
+        <f>N7*'Main Page'!C$128/('Main Page'!C$128+1)</f>
         <v>0</v>
       </c>
       <c r="F20" s="243">
@@ -12581,7 +12632,7 @@
         <v>-3.3933331907087916E-2</v>
       </c>
       <c r="K20" s="243">
-        <f>'Main Page'!B134-'Main Page'!B$137</f>
+        <f>'Main Page'!B135-'Main Page'!B$138</f>
         <v>11.1</v>
       </c>
       <c r="L20" s="246">
@@ -12609,7 +12660,7 @@
         <v>-0.18000000000000005</v>
       </c>
       <c r="R20" s="260">
-        <f>'Main Page'!D134</f>
+        <f>'Main Page'!D135</f>
         <v>2</v>
       </c>
       <c r="S20" s="108"/>
@@ -12630,7 +12681,7 @@
         <v>82.955569360022096</v>
       </c>
       <c r="E21" s="243">
-        <f>N8*'Main Page'!C$127/('Main Page'!C$127+1)</f>
+        <f>N8*'Main Page'!C$128/('Main Page'!C$128+1)</f>
         <v>0</v>
       </c>
       <c r="F21" s="243">
@@ -12652,7 +12703,7 @@
         <v>2.0412211670123883E-2</v>
       </c>
       <c r="K21" s="243">
-        <f>'Main Page'!B135-'Main Page'!B$137</f>
+        <f>'Main Page'!B136-'Main Page'!B$138</f>
         <v>3.1</v>
       </c>
       <c r="L21" s="246">
@@ -12698,7 +12749,7 @@
         <v>39.129612072462692</v>
       </c>
       <c r="E22" s="243">
-        <f>N9*'Main Page'!C$127/('Main Page'!C$127+1)</f>
+        <f>N9*'Main Page'!C$128/('Main Page'!C$128+1)</f>
         <v>0</v>
       </c>
       <c r="F22" s="243">
@@ -12720,7 +12771,7 @@
         <v>4.9552789401452066E-2</v>
       </c>
       <c r="K22" s="243">
-        <f>'Main Page'!B136-'Main Page'!B$137</f>
+        <f>'Main Page'!B137-'Main Page'!B$138</f>
         <v>0.6</v>
       </c>
       <c r="L22" s="246">
@@ -12748,7 +12799,7 @@
         <v>-3.2011684023368077E-2</v>
       </c>
       <c r="R22" s="260">
-        <f>'Main Page'!D136</f>
+        <f>'Main Page'!D137</f>
         <v>3</v>
       </c>
       <c r="S22" s="108"/>
@@ -12769,7 +12820,7 @@
         <v>7.751396294306554</v>
       </c>
       <c r="E23" s="249">
-        <f>N10*'Main Page'!C$127/('Main Page'!C$127+1)</f>
+        <f>N10*'Main Page'!C$128/('Main Page'!C$128+1)</f>
         <v>0</v>
       </c>
       <c r="F23" s="249">
@@ -12791,7 +12842,7 @@
         <v>6.976743713487428E-2</v>
       </c>
       <c r="K23" s="249">
-        <f>'Main Page'!B137-'Main Page'!B$137</f>
+        <f>'Main Page'!B138-'Main Page'!B$138</f>
         <v>0</v>
       </c>
       <c r="L23" s="251">
@@ -12819,7 +12870,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="261">
-        <f>'Main Page'!D137</f>
+        <f>'Main Page'!D138</f>
         <v>4</v>
       </c>
       <c r="S23" s="108"/>
@@ -14549,7 +14600,7 @@
         <v>95</v>
       </c>
       <c r="C6" s="153">
-        <f>C5-'Main Page'!B42</f>
+        <f>C5-'Main Page'!B43</f>
         <v>58.67</v>
       </c>
       <c r="D6" t="s">
@@ -14570,7 +14621,7 @@
         <v>96</v>
       </c>
       <c r="C7" s="153">
-        <f>'Main Page'!B45</f>
+        <f>'Main Page'!B46</f>
         <v>3.75</v>
       </c>
       <c r="D7" t="s">
@@ -14592,7 +14643,7 @@
         <v>98</v>
       </c>
       <c r="C8" s="153">
-        <f>'Main Page'!B43</f>
+        <f>'Main Page'!B44</f>
         <v>2</v>
       </c>
       <c r="D8" t="s">
@@ -14604,7 +14655,7 @@
         <v>99</v>
       </c>
       <c r="C9" s="153">
-        <f>'Main Page'!B46</f>
+        <f>'Main Page'!B47</f>
         <v>15</v>
       </c>
       <c r="D9" t="s">
@@ -14616,7 +14667,7 @@
         <v>100</v>
       </c>
       <c r="C10" s="153">
-        <f>'Main Page'!B44</f>
+        <f>'Main Page'!B45</f>
         <v>9</v>
       </c>
       <c r="D10" t="s">
@@ -14628,7 +14679,7 @@
         <v>385</v>
       </c>
       <c r="C11" s="153">
-        <f>'Main Page'!B47</f>
+        <f>'Main Page'!B48</f>
         <v>5</v>
       </c>
       <c r="D11" t="s">
@@ -15380,7 +15431,7 @@
         <v>171</v>
       </c>
       <c r="C2" s="127">
-        <f>'Main Page'!B84*'Main Page'!B85</f>
+        <f>'Main Page'!B85*'Main Page'!B86</f>
         <v>1800</v>
       </c>
       <c r="D2" s="114"/>
@@ -15500,16 +15551,16 @@
       <c r="C5" s="131"/>
       <c r="D5" s="131"/>
       <c r="E5" s="132">
-        <f>'Main Page'!B52</f>
+        <f>'Main Page'!B53</f>
         <v>2.5</v>
       </c>
       <c r="F5" s="132">
-        <f>'Main Page'!B55</f>
+        <f>'Main Page'!B56</f>
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G5" s="131"/>
       <c r="H5" s="135">
-        <f>'Main Page'!B56</f>
+        <f>'Main Page'!B57</f>
         <v>7850</v>
       </c>
       <c r="I5" s="136">
@@ -15517,15 +15568,15 @@
         <v>5086.4348557027251</v>
       </c>
       <c r="J5" s="132">
-        <f>'Main Page'!B57</f>
+        <f>'Main Page'!B58</f>
         <v>-2.33</v>
       </c>
       <c r="K5" s="132">
-        <f>'Main Page'!B58</f>
+        <f>'Main Page'!B59</f>
         <v>0</v>
       </c>
       <c r="L5" s="132">
-        <f>'Main Page'!B59</f>
+        <f>'Main Page'!B60</f>
         <v>0</v>
       </c>
       <c r="M5" s="160">
@@ -15578,15 +15629,15 @@
         <v>1487.5</v>
       </c>
       <c r="J6" s="132">
-        <f>'Main Page'!B57</f>
+        <f>'Main Page'!B58</f>
         <v>-2.33</v>
       </c>
       <c r="K6" s="132">
-        <f>'Main Page'!B58</f>
+        <f>'Main Page'!B59</f>
         <v>0</v>
       </c>
       <c r="L6" s="132">
-        <f>'Main Page'!B59</f>
+        <f>'Main Page'!B60</f>
         <v>0</v>
       </c>
       <c r="M6" s="160">
@@ -15629,21 +15680,21 @@
         <v>137</v>
       </c>
       <c r="C7" s="132">
-        <f>'Main Page'!B62</f>
+        <f>'Main Page'!B63</f>
         <v>1.3979999999999999</v>
       </c>
       <c r="D7" s="132">
+        <f>'Main Page'!B65</f>
+        <v>0.2</v>
+      </c>
+      <c r="E7" s="132">
         <f>'Main Page'!B64</f>
-        <v>0.2</v>
-      </c>
-      <c r="E7" s="132">
-        <f>'Main Page'!B63</f>
         <v>0.4</v>
       </c>
       <c r="F7" s="131"/>
       <c r="G7" s="136"/>
       <c r="H7" s="135">
-        <f>'Main Page'!B65</f>
+        <f>'Main Page'!B66</f>
         <v>7850</v>
       </c>
       <c r="I7" s="136">
@@ -15651,15 +15702,15 @@
         <v>1034.3034077487141</v>
       </c>
       <c r="J7" s="132">
-        <f>0.5*('Main Page'!B70+'Main Page'!B73)</f>
+        <f>0.5*('Main Page'!B71+'Main Page'!B74)</f>
         <v>-1.0485</v>
       </c>
       <c r="K7" s="132">
-        <f>'Main Page'!B66</f>
+        <f>'Main Page'!B67</f>
         <v>0</v>
       </c>
       <c r="L7" s="132">
-        <f>'Main Page'!B67</f>
+        <f>'Main Page'!B68</f>
         <v>0</v>
       </c>
       <c r="M7" s="160">
@@ -15714,15 +15765,15 @@
         <v>421.54659502316184</v>
       </c>
       <c r="J8" s="132">
-        <f>'Main Page'!B70</f>
+        <f>'Main Page'!B71</f>
         <v>-1.631</v>
       </c>
       <c r="K8" s="132">
-        <f>'Main Page'!B71</f>
+        <f>'Main Page'!B72</f>
         <v>0</v>
       </c>
       <c r="L8" s="132">
-        <f>'Main Page'!B72</f>
+        <f>'Main Page'!B73</f>
         <v>0</v>
       </c>
       <c r="M8" s="160">
@@ -15777,15 +15828,15 @@
         <v>421.54659502316184</v>
       </c>
       <c r="J9" s="132">
-        <f>'Main Page'!B73</f>
+        <f>'Main Page'!B74</f>
         <v>-0.46600000000000003</v>
       </c>
       <c r="K9" s="132">
-        <f>'Main Page'!B74</f>
+        <f>'Main Page'!B75</f>
         <v>0</v>
       </c>
       <c r="L9" s="132">
-        <f>'Main Page'!B75</f>
+        <f>'Main Page'!B76</f>
         <v>0</v>
       </c>
       <c r="M9" s="160">
@@ -15840,19 +15891,19 @@
       <c r="G10" s="128"/>
       <c r="H10" s="137"/>
       <c r="I10" s="136">
-        <f>'Main Page'!B78/2</f>
+        <f>'Main Page'!B79/2</f>
         <v>2361.5</v>
       </c>
       <c r="J10" s="132">
-        <f>'Main Page'!B79</f>
+        <f>'Main Page'!B80</f>
         <v>0</v>
       </c>
       <c r="K10" s="132">
-        <f>'Main Page'!B80</f>
+        <f>'Main Page'!B81</f>
         <v>0</v>
       </c>
       <c r="L10" s="132">
-        <f>'Main Page'!B81</f>
+        <f>'Main Page'!B82</f>
         <v>0</v>
       </c>
       <c r="M10" s="160">
@@ -15904,19 +15955,19 @@
       <c r="G11" s="128"/>
       <c r="H11" s="137"/>
       <c r="I11" s="139">
-        <f>(3.3*'Main Page'!B88+471)/3</f>
+        <f>(3.3*'Main Page'!B89+471)/3</f>
         <v>982</v>
       </c>
       <c r="J11" s="132">
-        <f>'Main Page'!B89</f>
+        <f>'Main Page'!B90</f>
         <v>0.58250000000000002</v>
       </c>
       <c r="K11" s="132">
-        <f>'Main Page'!B90</f>
+        <f>'Main Page'!B91</f>
         <v>0</v>
       </c>
       <c r="L11" s="132">
-        <f>'Main Page'!B91</f>
+        <f>'Main Page'!B92</f>
         <v>0</v>
       </c>
       <c r="M11" s="160">
@@ -15924,7 +15975,7 @@
         <v>55878.315104796013</v>
       </c>
       <c r="N11" s="160">
-        <f>M11/2/('Main Page'!B84^2)+I11*C11^2/12</f>
+        <f>M11/2/('Main Page'!B85^2)+I11*C11^2/12</f>
         <v>124.91707128294681</v>
       </c>
       <c r="O11" s="160">
@@ -15947,7 +15998,7 @@
         <v>210</v>
       </c>
       <c r="T11" s="113"/>
-      <c r="U11" s="380"/>
+      <c r="U11" s="379"/>
       <c r="V11" s="119"/>
       <c r="W11" s="115"/>
       <c r="X11" s="112"/>
@@ -15972,7 +16023,7 @@
         <v>7850</v>
       </c>
       <c r="I12" s="139">
-        <f>1.5*0.025*1000*'Main Page'!B88/0.10472/C2</f>
+        <f>1.5*0.025*1000*'Main Page'!B89/0.10472/C2</f>
         <v>149.20741023682203</v>
       </c>
       <c r="J12" s="132">
@@ -15988,7 +16039,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="160">
-        <f>0.25*C12*PI()*H12*E12^2*'Main Page'!B84^2*E12^2/8</f>
+        <f>0.25*C12*PI()*H12*E12^2*'Main Page'!B85^2*E12^2/8</f>
         <v>9857.6705135843258</v>
       </c>
       <c r="N12" s="160">
@@ -16272,12 +16323,12 @@
       <c r="A19" s="112"/>
       <c r="B19" s="165"/>
       <c r="C19" s="112"/>
-      <c r="D19" s="398" t="s">
+      <c r="D19" s="403" t="s">
         <v>239</v>
       </c>
-      <c r="E19" s="398"/>
-      <c r="F19" s="398"/>
-      <c r="G19" s="398"/>
+      <c r="E19" s="403"/>
+      <c r="F19" s="403"/>
+      <c r="G19" s="403"/>
       <c r="H19" s="112"/>
       <c r="I19" s="112"/>
       <c r="J19" s="121"/>
@@ -16342,27 +16393,27 @@
         <v>162</v>
       </c>
       <c r="C21" s="132">
-        <f>'Main Page'!B94</f>
+        <f>'Main Page'!B95</f>
         <v>1.631</v>
       </c>
       <c r="D21" s="132">
-        <f>'Main Page'!B95</f>
+        <f>'Main Page'!B96</f>
         <v>1.7475000000000001</v>
       </c>
       <c r="E21" s="132">
-        <f>'Main Page'!B96</f>
+        <f>'Main Page'!B97</f>
         <v>0.74560000000000004</v>
       </c>
       <c r="F21" s="132">
-        <f>'Main Page'!B97</f>
-        <v>0.13</v>
-      </c>
-      <c r="G21" s="132">
         <f>'Main Page'!B98</f>
         <v>0.13</v>
       </c>
+      <c r="G21" s="132">
+        <f>'Main Page'!B99</f>
+        <v>0.13</v>
+      </c>
       <c r="H21" s="136">
-        <f>'Main Page'!B99</f>
+        <f>'Main Page'!B100</f>
         <v>7850</v>
       </c>
       <c r="I21" s="139">
@@ -16370,15 +16421,15 @@
         <v>4631.2392328125006</v>
       </c>
       <c r="J21" s="132">
-        <f>'Main Page'!B100</f>
+        <f>'Main Page'!B101</f>
         <v>0</v>
       </c>
       <c r="K21" s="132">
-        <f>'Main Page'!B101</f>
+        <f>'Main Page'!B102</f>
         <v>0</v>
       </c>
       <c r="L21" s="132">
-        <f>'Main Page'!B102</f>
+        <f>'Main Page'!B103</f>
         <v>-0.56850000000000001</v>
       </c>
       <c r="M21" s="160">
@@ -16554,7 +16605,7 @@
       <c r="G24" s="130"/>
       <c r="H24" s="129"/>
       <c r="I24" s="140">
-        <f>'Main Page'!B78/2</f>
+        <f>'Main Page'!B79/2</f>
         <v>2361.5</v>
       </c>
       <c r="J24" s="132">
@@ -16622,7 +16673,7 @@
       <c r="G25" s="130"/>
       <c r="H25" s="129"/>
       <c r="I25" s="139">
-        <f>2*(3.3*'Main Page'!B88+471)/3</f>
+        <f>2*(3.3*'Main Page'!B89+471)/3</f>
         <v>1964</v>
       </c>
       <c r="J25" s="132">
@@ -16747,7 +16798,7 @@
       <c r="G27" s="129"/>
       <c r="H27" s="129"/>
       <c r="I27" s="139">
-        <f>2.6*'Main Page'!B88+0.002168*C1^3.4</f>
+        <f>2.6*'Main Page'!B89+0.002168*C1^3.4</f>
         <v>3245.8576372154985</v>
       </c>
       <c r="J27" s="132">

--- a/FAST_models/WindPACT/excel_proc/turbines/0.75A08V00_proc.xlsx
+++ b/FAST_models/WindPACT/excel_proc/turbines/0.75A08V00_proc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="705" windowWidth="17565" windowHeight="12990" activeTab="2"/>
+    <workbookView xWindow="1560" yWindow="705" windowWidth="17565" windowHeight="12990"/>
   </bookViews>
   <sheets>
     <sheet name="Main Page" sheetId="5" r:id="rId1"/>
@@ -4292,11 +4292,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="82863616"/>
-        <c:axId val="82865536"/>
+        <c:axId val="75985664"/>
+        <c:axId val="75987584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82863616"/>
+        <c:axId val="75985664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4381,12 +4381,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82865536"/>
+        <c:crossAx val="75987584"/>
         <c:crossesAt val="-10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82865536"/>
+        <c:axId val="75987584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4470,7 +4470,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82863616"/>
+        <c:crossAx val="75985664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5543,8 +5543,8 @@
   </sheetPr>
   <dimension ref="A1:U155"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -8427,7 +8427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>

--- a/FAST_models/WindPACT/excel_proc/turbines/0.75A08V00_proc.xlsx
+++ b/FAST_models/WindPACT/excel_proc/turbines/0.75A08V00_proc.xlsx
@@ -11,14 +11,15 @@
     <sheet name="Rotor_JR" sheetId="9" r:id="rId2"/>
     <sheet name="Nacelle_JR" sheetId="10" r:id="rId3"/>
     <sheet name="Tower_JR" sheetId="11" r:id="rId4"/>
-    <sheet name="Tower Data" sheetId="4" r:id="rId5"/>
-    <sheet name="Blade Data" sheetId="3" r:id="rId6"/>
-    <sheet name="GECbladedata" sheetId="6" r:id="rId7"/>
-    <sheet name="GECtwrdata" sheetId="7" r:id="rId8"/>
-    <sheet name="GECdrivetrain" sheetId="8" r:id="rId9"/>
+    <sheet name="Control_JR" sheetId="12" r:id="rId5"/>
+    <sheet name="Tower Data" sheetId="4" r:id="rId6"/>
+    <sheet name="Blade Data" sheetId="3" r:id="rId7"/>
+    <sheet name="GECbladedata" sheetId="6" r:id="rId8"/>
+    <sheet name="GECtwrdata" sheetId="7" r:id="rId9"/>
+    <sheet name="GECdrivetrain" sheetId="8" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Blade Data'!$A$6:$Q$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Blade Data'!$A$6:$Q$32</definedName>
   </definedNames>
   <calcPr calcId="145621" iterate="1" iterateDelta="1E-4"/>
 </workbook>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="502">
   <si>
     <t>number</t>
   </si>
@@ -1712,21 +1713,12 @@
     <t>Rated (high speed shaft) torque (N-m)</t>
   </si>
   <si>
-    <t>&lt;-- changed this (JR)</t>
-  </si>
-  <si>
     <t>0.75 A08</t>
   </si>
   <si>
     <t>Torque control data:</t>
   </si>
   <si>
-    <t>Max. Cp</t>
-  </si>
-  <si>
-    <t>Optimal tip-speed ratio</t>
-  </si>
-  <si>
     <t>s818_2703.dat</t>
   </si>
   <si>
@@ -1763,21 +1755,9 @@
     <t>ADBladNodes (x/L)</t>
   </si>
   <si>
-    <t>MinPitchAng (deg)</t>
-  </si>
-  <si>
-    <t>MaxPitchAng (deg)</t>
-  </si>
-  <si>
     <t>AirDensity</t>
   </si>
   <si>
-    <t>CpMax</t>
-  </si>
-  <si>
-    <t>TSROpt</t>
-  </si>
-  <si>
     <t>BladeSchedule</t>
   </si>
   <si>
@@ -1887,13 +1867,148 @@
   </si>
   <si>
     <t>Drivetrain damping</t>
+  </si>
+  <si>
+    <t>Integral gain (rotor speed [rpm] to blade pitch [deg])</t>
+  </si>
+  <si>
+    <t>Proportional gain (rotor speed [rpm] to blade pitch [deg])</t>
+  </si>
+  <si>
+    <t>Derivatie gain (rotor speed [rpm] to blade pitch [deg])</t>
+  </si>
+  <si>
+    <t>&lt;-- changed GenEff defn (JR)</t>
+  </si>
+  <si>
+    <t>PC_KP (rad/rad/s)</t>
+  </si>
+  <si>
+    <t>PC_KI (rad/rad/s)</t>
+  </si>
+  <si>
+    <t>PC_KD (rad/rad/s)</t>
+  </si>
+  <si>
+    <t>Corner frequency (Hz)</t>
+  </si>
+  <si>
+    <t>Corner frequency (rad/s)</t>
+  </si>
+  <si>
+    <t>MinPitchAng (rad)</t>
+  </si>
+  <si>
+    <t>MaxPitchAng (rad)</t>
+  </si>
+  <si>
+    <t>Max pit rate (rad/s)</t>
+  </si>
+  <si>
+    <t>Gain scheduling exponent</t>
+  </si>
+  <si>
+    <t>Gain scheduling start pitch angle (deg)</t>
+  </si>
+  <si>
+    <t>Gain scheduling end pitch angle (deg)</t>
+  </si>
+  <si>
+    <t>GS start angle (rad)</t>
+  </si>
+  <si>
+    <t>GS end angle (rad)</t>
+  </si>
+  <si>
+    <t>GS exponent</t>
+  </si>
+  <si>
+    <t>Time step (sec)</t>
+  </si>
+  <si>
+    <t>Pitch control time step</t>
+  </si>
+  <si>
+    <t>from NREL 5MW discon controller</t>
+  </si>
+  <si>
+    <t>simple quadratic (not optimal)</t>
+  </si>
+  <si>
+    <t>10% above rated (from NREL 5 mw)</t>
+  </si>
+  <si>
+    <t>Max. HSS torque rate (N-m/sec)</t>
+  </si>
+  <si>
+    <t>Cut-in HSS speed (rad/sec)</t>
+  </si>
+  <si>
+    <t>Generator torque constant (HSS N-m/rpm^2)</t>
+  </si>
+  <si>
+    <t>Max HSS torque</t>
+  </si>
+  <si>
+    <t>Between regions 1.5 and 2</t>
+  </si>
+  <si>
+    <t>Min. pitch for computing R3 torque (deg)</t>
+  </si>
+  <si>
+    <t>1 deg above PC min</t>
+  </si>
+  <si>
+    <t>Region 2.5 slip percentage (%)</t>
+  </si>
+  <si>
+    <t>No region 2.5</t>
+  </si>
+  <si>
+    <t>calculated from CertTest 1.5 WindPACT</t>
+  </si>
+  <si>
+    <t>recommended 1/4 of first blade edgewise freq in NREL 5MW</t>
+  </si>
+  <si>
+    <t>from CertTest 1.5 WindPACT</t>
+  </si>
+  <si>
+    <t>No region 1 (simulating above 4 m/s wind speeds)</t>
+  </si>
+  <si>
+    <t>Cut-in HSS speed (rad/s)</t>
+  </si>
+  <si>
+    <t>Max. HSS torque rate (N-m/s)</t>
+  </si>
+  <si>
+    <t>GenTrqAlpha (N-m/HSSrpm^2)</t>
+  </si>
+  <si>
+    <t>Max HSS torque (N-m)</t>
+  </si>
+  <si>
+    <t>Region 1.5/2 HSS transition (rad/sec)</t>
+  </si>
+  <si>
+    <t>Region 1.5/2 HSS transition (rad/s)</t>
+  </si>
+  <si>
+    <t>Min pitch for computing R3 torque (deg)</t>
+  </si>
+  <si>
+    <t>Region 2 slip percentage (%)</t>
+  </si>
+  <si>
+    <t>Torque control time step (sec)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="7">
+  <numFmts count="10">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000E+00"/>
@@ -1901,6 +2016,9 @@
     <numFmt numFmtId="168" formatCode="0.0E+00"/>
     <numFmt numFmtId="169" formatCode="0.00000"/>
     <numFmt numFmtId="170" formatCode="0.000000000"/>
+    <numFmt numFmtId="172" formatCode="0.0000000"/>
+    <numFmt numFmtId="173" formatCode="0.000000"/>
+    <numFmt numFmtId="174" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -2794,7 +2912,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="404">
+  <cellXfs count="407">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3605,9 +3723,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3658,9 +3773,12 @@
     <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="170" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3711,6 +3829,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3718,6 +3839,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4292,11 +4418,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="75985664"/>
-        <c:axId val="75987584"/>
+        <c:axId val="83985536"/>
+        <c:axId val="83987456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75985664"/>
+        <c:axId val="83985536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4381,12 +4507,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75987584"/>
+        <c:crossAx val="83987456"/>
         <c:crossesAt val="-10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75987584"/>
+        <c:axId val="83987456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4470,7 +4596,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75985664"/>
+        <c:crossAx val="83985536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4868,13 +4994,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5068,13 +5194,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5541,10 +5667,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U155"/>
+  <dimension ref="A1:U169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -5567,7 +5693,7 @@
         <v>40</v>
       </c>
       <c r="B1" s="358" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C1" s="396" t="s">
         <v>398</v>
@@ -5810,19 +5936,19 @@
         <v>43</v>
       </c>
       <c r="B14" s="335">
-        <f>PI()*(B64^4-B65^4)/32/(GECdrivetrain!C7)*GECtwrdata!F7</f>
+        <f>PI()*(B78^4-B79^4)/32/(GECdrivetrain!C7)*GECtwrdata!F7</f>
         <v>129646444.93189973</v>
       </c>
       <c r="D14" s="354" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="E14" s="355"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="61" t="s">
-        <v>462</v>
-      </c>
-      <c r="B15" s="385">
+        <v>455</v>
+      </c>
+      <c r="B15" s="383">
         <v>5</v>
       </c>
       <c r="D15" s="354" t="s">
@@ -5832,9 +5958,9 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="61" t="s">
-        <v>460</v>
-      </c>
-      <c r="B16" s="385">
+        <v>453</v>
+      </c>
+      <c r="B16" s="383">
         <v>665139</v>
       </c>
       <c r="D16" s="354" t="s">
@@ -5970,7 +6096,7 @@
         <v>74</v>
       </c>
       <c r="B24" s="268">
-        <f>B86</f>
+        <f>B100</f>
         <v>28.647889756541161</v>
       </c>
       <c r="G24" s="89"/>
@@ -6011,7 +6137,7 @@
         <v>76</v>
       </c>
       <c r="B26" s="269">
-        <f>B89</f>
+        <f>B103</f>
         <v>750</v>
       </c>
       <c r="G26" s="89"/>
@@ -6028,7 +6154,7 @@
         <v>79</v>
       </c>
       <c r="B29" s="91">
-        <f>B86</f>
+        <f>B100</f>
         <v>28.647889756541161</v>
       </c>
     </row>
@@ -6037,7 +6163,7 @@
         <v>375</v>
       </c>
       <c r="B30" s="267">
-        <f>B89*1000/(B29*PI()/30)/(B19-C19-B20-C20)</f>
+        <f>B103*1000/(B29*PI()/30)/(B19-C19-B20-C20)</f>
         <v>270270.2702702703</v>
       </c>
     </row>
@@ -6046,24 +6172,24 @@
         <v>404</v>
       </c>
       <c r="B31" s="267">
-        <f>B89*1000/(B84*PI()/30)/(B19)</f>
+        <f>B103*1000/(B98*PI()/30)/(B19)</f>
         <v>4188.2879761025097</v>
       </c>
       <c r="D31" s="354" t="s">
-        <v>405</v>
+        <v>460</v>
       </c>
       <c r="E31" s="355"/>
     </row>
     <row r="32" spans="1:21">
       <c r="B32" s="53"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:7">
       <c r="A33" s="109" t="s">
         <v>80</v>
       </c>
       <c r="B33" s="29"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:7">
       <c r="A34" s="100" t="s">
         <v>81</v>
       </c>
@@ -6071,7 +6197,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:7">
       <c r="A35" s="100" t="s">
         <v>82</v>
       </c>
@@ -6079,7 +6205,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="12" customHeight="1">
+    <row r="36" spans="1:7" ht="12" customHeight="1">
       <c r="A36" s="100" t="s">
         <v>83</v>
       </c>
@@ -6087,346 +6213,386 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="12" customHeight="1">
-      <c r="A37" s="356"/>
-      <c r="B37" s="359"/>
-    </row>
-    <row r="38" spans="1:5" ht="12" customHeight="1">
-      <c r="A38" s="109" t="s">
-        <v>407</v>
-      </c>
-      <c r="B38" s="29"/>
+    <row r="37" spans="1:7" ht="12" customHeight="1">
+      <c r="A37" s="384" t="s">
+        <v>458</v>
+      </c>
+      <c r="B37" s="273">
+        <f>5.14</f>
+        <v>5.14</v>
+      </c>
+      <c r="D37" s="354" t="s">
+        <v>489</v>
+      </c>
+      <c r="E37" s="355"/>
+      <c r="F37" s="355"/>
+    </row>
+    <row r="38" spans="1:7" ht="12" customHeight="1">
+      <c r="A38" s="384" t="s">
+        <v>457</v>
+      </c>
+      <c r="B38" s="385">
+        <f>2.22</f>
+        <v>2.2200000000000002</v>
+      </c>
       <c r="D38" s="354" t="s">
-        <v>403</v>
+        <v>489</v>
       </c>
       <c r="E38" s="355"/>
-    </row>
-    <row r="39" spans="1:5" ht="12" customHeight="1">
-      <c r="A39" s="100" t="s">
-        <v>408</v>
+      <c r="F38" s="355"/>
+    </row>
+    <row r="39" spans="1:7" ht="12" customHeight="1">
+      <c r="A39" s="384" t="s">
+        <v>459</v>
       </c>
       <c r="B39" s="273">
-        <v>0.45</v>
+        <f>0.0286</f>
+        <v>2.86E-2</v>
       </c>
       <c r="D39" s="354" t="s">
-        <v>403</v>
+        <v>489</v>
       </c>
       <c r="E39" s="355"/>
-    </row>
-    <row r="40" spans="1:5" ht="12" customHeight="1">
-      <c r="A40" s="100" t="s">
-        <v>409</v>
-      </c>
-      <c r="B40" s="360">
-        <v>7</v>
+      <c r="F39" s="355"/>
+    </row>
+    <row r="40" spans="1:7" ht="12" customHeight="1">
+      <c r="A40" s="384" t="s">
+        <v>464</v>
+      </c>
+      <c r="B40" s="273">
+        <f>2.5/4</f>
+        <v>0.625</v>
       </c>
       <c r="D40" s="354" t="s">
-        <v>403</v>
+        <v>490</v>
       </c>
       <c r="E40" s="355"/>
-    </row>
-    <row r="41" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="42" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A42" s="109" t="s">
+      <c r="F40" s="355"/>
+      <c r="G40" s="355"/>
+    </row>
+    <row r="41" spans="1:7" ht="12" customHeight="1">
+      <c r="A41" s="384" t="s">
+        <v>470</v>
+      </c>
+      <c r="B41" s="273">
+        <v>2.6</v>
+      </c>
+      <c r="D41" s="354" t="s">
+        <v>491</v>
+      </c>
+      <c r="E41" s="355"/>
+    </row>
+    <row r="42" spans="1:7" ht="12" customHeight="1">
+      <c r="A42" s="384" t="s">
+        <v>471</v>
+      </c>
+      <c r="B42" s="273">
+        <v>30</v>
+      </c>
+      <c r="D42" s="354" t="s">
+        <v>491</v>
+      </c>
+      <c r="E42" s="355"/>
+    </row>
+    <row r="43" spans="1:7" ht="12" customHeight="1">
+      <c r="A43" s="384" t="s">
+        <v>469</v>
+      </c>
+      <c r="B43" s="273">
+        <v>-0.5</v>
+      </c>
+      <c r="D43" s="354" t="s">
+        <v>491</v>
+      </c>
+      <c r="E43" s="355"/>
+    </row>
+    <row r="44" spans="1:7" ht="12" customHeight="1">
+      <c r="A44" s="384" t="s">
+        <v>475</v>
+      </c>
+      <c r="B44" s="273">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D44" s="354" t="s">
+        <v>491</v>
+      </c>
+      <c r="E44" s="355"/>
+    </row>
+    <row r="45" spans="1:7" ht="12" customHeight="1">
+      <c r="A45" s="356"/>
+      <c r="B45" s="359"/>
+    </row>
+    <row r="46" spans="1:7" ht="12" customHeight="1">
+      <c r="A46" s="109" t="s">
+        <v>406</v>
+      </c>
+      <c r="B46" s="29"/>
+      <c r="D46" s="361"/>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="1:7" ht="12" customHeight="1">
+      <c r="A47" s="384" t="s">
+        <v>475</v>
+      </c>
+      <c r="B47" s="273">
+        <v>1.25E-3</v>
+      </c>
+      <c r="D47" s="354" t="s">
+        <v>477</v>
+      </c>
+      <c r="E47" s="355"/>
+      <c r="F47" s="355"/>
+    </row>
+    <row r="48" spans="1:7" ht="12" customHeight="1">
+      <c r="A48" s="384" t="s">
+        <v>481</v>
+      </c>
+      <c r="B48" s="273">
+        <v>0</v>
+      </c>
+      <c r="D48" s="354" t="s">
+        <v>492</v>
+      </c>
+      <c r="E48" s="355"/>
+      <c r="F48" s="355"/>
+    </row>
+    <row r="49" spans="1:6" ht="12" customHeight="1">
+      <c r="A49" s="384" t="s">
+        <v>480</v>
+      </c>
+      <c r="B49" s="273">
+        <v>15000</v>
+      </c>
+      <c r="D49" s="354" t="s">
+        <v>477</v>
+      </c>
+      <c r="E49" s="355"/>
+      <c r="F49" s="355"/>
+    </row>
+    <row r="50" spans="1:6" ht="12" customHeight="1">
+      <c r="A50" s="384" t="s">
+        <v>482</v>
+      </c>
+      <c r="B50" s="273">
+        <f>B31/B98^2</f>
+        <v>1.2926814741057128E-3</v>
+      </c>
+      <c r="D50" s="354" t="s">
+        <v>478</v>
+      </c>
+      <c r="E50" s="355"/>
+    </row>
+    <row r="51" spans="1:6" ht="12" customHeight="1">
+      <c r="A51" s="384" t="s">
+        <v>483</v>
+      </c>
+      <c r="B51" s="273">
+        <f>B31*1.1</f>
+        <v>4607.1167737127607</v>
+      </c>
+      <c r="D51" s="354" t="s">
+        <v>479</v>
+      </c>
+      <c r="E51" s="355"/>
+      <c r="F51" s="355"/>
+    </row>
+    <row r="52" spans="1:6" ht="12" customHeight="1">
+      <c r="A52" s="384" t="s">
+        <v>497</v>
+      </c>
+      <c r="B52" s="273">
+        <v>0</v>
+      </c>
+      <c r="D52" s="354" t="s">
+        <v>484</v>
+      </c>
+      <c r="E52" s="355"/>
+    </row>
+    <row r="53" spans="1:6" ht="12" customHeight="1">
+      <c r="A53" s="384" t="s">
+        <v>485</v>
+      </c>
+      <c r="B53" s="273">
+        <f>B34+1</f>
+        <v>3.6</v>
+      </c>
+      <c r="D53" s="354" t="s">
+        <v>486</v>
+      </c>
+      <c r="E53" s="355"/>
+    </row>
+    <row r="54" spans="1:6" ht="12" customHeight="1">
+      <c r="A54" s="384" t="s">
+        <v>487</v>
+      </c>
+      <c r="B54" s="273">
+        <v>0</v>
+      </c>
+      <c r="D54" s="354" t="s">
+        <v>488</v>
+      </c>
+      <c r="E54" s="355"/>
+    </row>
+    <row r="55" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="56" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A56" s="109" t="s">
         <v>122</v>
       </c>
-      <c r="B42" s="54"/>
-    </row>
-    <row r="43" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A43" s="100" t="s">
+      <c r="B56" s="54"/>
+    </row>
+    <row r="57" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A57" s="384" t="s">
         <v>206</v>
       </c>
-      <c r="B43" s="274">
+      <c r="B57" s="274">
         <v>1.33</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="100" t="s">
+    <row r="58" spans="1:6">
+      <c r="A58" s="384" t="s">
         <v>123</v>
       </c>
-      <c r="B44" s="275">
+      <c r="B58" s="275">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15" customHeight="1">
-      <c r="A45" s="100" t="s">
+    <row r="59" spans="1:6" ht="15" customHeight="1">
+      <c r="A59" s="384" t="s">
         <v>124</v>
       </c>
-      <c r="B45" s="275">
+      <c r="B59" s="275">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="11.25" customHeight="1">
-      <c r="A46" s="100" t="s">
+    <row r="60" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A60" s="384" t="s">
         <v>125</v>
       </c>
-      <c r="B46" s="275">
+      <c r="B60" s="275">
         <v>3.75</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A47" s="100" t="s">
+    <row r="61" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A61" s="384" t="s">
         <v>126</v>
       </c>
-      <c r="B47" s="275">
+      <c r="B61" s="275">
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A48" s="100" t="s">
+    <row r="62" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A62" s="384" t="s">
         <v>384</v>
       </c>
-      <c r="B48" s="330">
+      <c r="B62" s="330">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="18" customHeight="1">
-      <c r="A49" s="109" t="s">
+    <row r="63" spans="1:6" ht="18" customHeight="1">
+      <c r="A63" s="109" t="s">
         <v>382</v>
       </c>
-      <c r="B49" s="63"/>
-    </row>
-    <row r="50" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A50" s="100" t="s">
+      <c r="B63" s="63"/>
+    </row>
+    <row r="64" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A64" s="100" t="s">
         <v>383</v>
       </c>
-      <c r="B50" s="105">
-        <f>ABS(B8)+B13/2*(B11+B18)/57.3-0.5*(B44+B13/2/B9*(B46-B44))</f>
+      <c r="B64" s="105">
+        <f>ABS(B8)+B13/2*(B11+B18)/57.3-0.5*(B58+B13/2/B9*(B60-B58))</f>
         <v>3.1469175392670157</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="2" t="s">
+    <row r="66" spans="1:4">
+      <c r="A66" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C52" s="5"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="110" t="s">
+      <c r="C66" s="5"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="110" t="s">
         <v>127</v>
       </c>
-      <c r="B53" s="276">
+      <c r="B67" s="276">
         <v>2.5</v>
-      </c>
-      <c r="C53" t="s">
-        <v>85</v>
-      </c>
-      <c r="D53" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="110" t="s">
-        <v>129</v>
-      </c>
-      <c r="B54" s="276">
-        <v>1.35</v>
-      </c>
-      <c r="C54" t="s">
-        <v>85</v>
-      </c>
-      <c r="D54" s="270" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="10.9" customHeight="1">
-      <c r="A55" s="110" t="s">
-        <v>130</v>
-      </c>
-      <c r="B55" s="276">
-        <v>1.2</v>
-      </c>
-      <c r="C55" t="s">
-        <v>85</v>
-      </c>
-      <c r="D55" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="110" t="s">
-        <v>131</v>
-      </c>
-      <c r="B56" s="276">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="C56" t="s">
-        <v>85</v>
-      </c>
-      <c r="D56" s="270" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="B57" s="277">
-        <v>7850</v>
-      </c>
-      <c r="C57" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="B58" s="276">
-        <v>-2.33</v>
-      </c>
-      <c r="C58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D58" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="B59" s="276">
-        <v>0</v>
-      </c>
-      <c r="C59" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="B60" s="276">
-        <v>0</v>
-      </c>
-      <c r="C60" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="18"/>
-      <c r="B61" s="124"/>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="111" t="s">
-        <v>137</v>
-      </c>
-      <c r="B62" s="125"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="B63" s="276">
-        <v>1.3979999999999999</v>
-      </c>
-      <c r="C63" t="s">
-        <v>85</v>
-      </c>
-      <c r="D63" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="B64" s="276">
-        <v>0.4</v>
-      </c>
-      <c r="C64" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="B65" s="276">
-        <v>0.2</v>
-      </c>
-      <c r="C65" t="s">
-        <v>85</v>
-      </c>
-      <c r="D65" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="B66" s="277">
-        <v>7850</v>
-      </c>
-      <c r="C66" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="B67" s="276">
-        <v>0</v>
       </c>
       <c r="C67" t="s">
         <v>85</v>
       </c>
       <c r="D67" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="18" t="s">
-        <v>136</v>
+      <c r="A68" s="110" t="s">
+        <v>129</v>
       </c>
       <c r="B68" s="276">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="C68" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="18"/>
-      <c r="B69" s="124"/>
+      <c r="D68" s="270" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="10.9" customHeight="1">
+      <c r="A69" s="110" t="s">
+        <v>130</v>
+      </c>
+      <c r="B69" s="276">
+        <v>1.2</v>
+      </c>
+      <c r="C69" t="s">
+        <v>85</v>
+      </c>
+      <c r="D69" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="111" t="s">
-        <v>143</v>
-      </c>
-      <c r="B70" s="125"/>
+      <c r="A70" s="110" t="s">
+        <v>131</v>
+      </c>
+      <c r="B70" s="276">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>85</v>
+      </c>
+      <c r="D70" s="270" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="B71" s="276">
-        <v>-1.631</v>
+        <v>132</v>
+      </c>
+      <c r="B71" s="277">
+        <v>7850</v>
       </c>
       <c r="C71" t="s">
-        <v>85</v>
-      </c>
-      <c r="D71" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="18" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B72" s="276">
-        <v>0</v>
+        <v>-2.33</v>
       </c>
       <c r="C72" t="s">
         <v>85</v>
       </c>
+      <c r="D72" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="18" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B73" s="276">
         <v>0</v>
@@ -6437,76 +6603,73 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="18" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B74" s="276">
-        <v>-0.46600000000000003</v>
+        <v>0</v>
       </c>
       <c r="C74" t="s">
         <v>85</v>
       </c>
-      <c r="D74" t="s">
-        <v>149</v>
-      </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="B75" s="276">
-        <v>0</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="A75" s="18"/>
+      <c r="B75" s="124"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="111" t="s">
+        <v>137</v>
+      </c>
+      <c r="B76" s="125"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B77" s="276">
+        <v>1.3979999999999999</v>
+      </c>
+      <c r="C77" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="B76" s="276">
-        <v>0</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="D77" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B78" s="276">
+        <v>0.4</v>
+      </c>
+      <c r="C78" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="18"/>
-      <c r="B77" s="125"/>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="111" t="s">
-        <v>152</v>
-      </c>
-      <c r="B78" s="125"/>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="B79" s="278">
-        <v>4723</v>
+        <v>140</v>
+      </c>
+      <c r="B79" s="276">
+        <v>0.2</v>
       </c>
       <c r="C79" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="D79" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="B80" s="276">
-        <v>0</v>
+        <v>132</v>
+      </c>
+      <c r="B80" s="277">
+        <v>7850</v>
       </c>
       <c r="C80" t="s">
-        <v>85</v>
-      </c>
-      <c r="D80" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -6519,6 +6682,9 @@
       <c r="C81" t="s">
         <v>85</v>
       </c>
+      <c r="D81" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="18" t="s">
@@ -6532,1102 +6698,1244 @@
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="18" t="s">
-        <v>392</v>
-      </c>
-      <c r="B83" s="276">
-        <v>75</v>
-      </c>
-      <c r="C83" t="s">
-        <v>393</v>
-      </c>
+      <c r="A83" s="18"/>
+      <c r="B83" s="124"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="18" t="s">
-        <v>394</v>
-      </c>
-      <c r="B84" s="276">
-        <v>1800</v>
-      </c>
-      <c r="C84" t="s">
-        <v>395</v>
-      </c>
+      <c r="A84" s="111" t="s">
+        <v>143</v>
+      </c>
+      <c r="B84" s="125"/>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="B85" s="334">
-        <f>1800/B86</f>
-        <v>62.831853071795862</v>
+        <v>144</v>
+      </c>
+      <c r="B85" s="276">
+        <v>-1.631</v>
+      </c>
+      <c r="C85" t="s">
+        <v>85</v>
+      </c>
+      <c r="D85" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="B86" s="334">
-        <f>B83/B13*2*30/PI()</f>
-        <v>28.647889756541161</v>
+        <v>146</v>
+      </c>
+      <c r="B86" s="276">
+        <v>0</v>
+      </c>
+      <c r="C86" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="18"/>
-      <c r="B87" s="123"/>
+      <c r="A87" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B87" s="276">
+        <v>0</v>
+      </c>
+      <c r="C87" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="111" t="s">
-        <v>158</v>
-      </c>
-      <c r="B88" s="125"/>
+      <c r="A88" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B88" s="276">
+        <v>-0.46600000000000003</v>
+      </c>
+      <c r="C88" t="s">
+        <v>85</v>
+      </c>
+      <c r="D88" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="B89" s="279">
-        <v>750</v>
+        <v>150</v>
+      </c>
+      <c r="B89" s="276">
+        <v>0</v>
       </c>
       <c r="C89" t="s">
-        <v>160</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="18" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="B90" s="276">
-        <v>0.58250000000000002</v>
+        <v>0</v>
       </c>
       <c r="C90" t="s">
         <v>85</v>
       </c>
-      <c r="D90" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="B91" s="280">
-        <v>0</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="A91" s="18"/>
+      <c r="B91" s="125"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="111" t="s">
+        <v>152</v>
+      </c>
+      <c r="B92" s="125"/>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B93" s="278">
+        <v>4723</v>
+      </c>
+      <c r="C93" t="s">
+        <v>117</v>
+      </c>
+      <c r="D93" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B94" s="276">
+        <v>0</v>
+      </c>
+      <c r="C94" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="B92" s="280">
-        <v>0</v>
-      </c>
-      <c r="C92" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="18"/>
-      <c r="B93" s="126"/>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="111" t="s">
-        <v>162</v>
-      </c>
-      <c r="B94" s="126"/>
+      <c r="D94" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="B95" s="280">
-        <v>1.631</v>
+        <v>135</v>
+      </c>
+      <c r="B95" s="276">
+        <v>0</v>
       </c>
       <c r="C95" t="s">
         <v>85</v>
       </c>
-      <c r="D95" t="s">
-        <v>163</v>
-      </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="18" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="B96" s="276">
-        <v>1.7475000000000001</v>
+        <v>0</v>
       </c>
       <c r="C96" t="s">
         <v>85</v>
       </c>
-      <c r="D96" t="s">
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="B97" s="276">
+        <v>75</v>
+      </c>
+      <c r="C97" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="B98" s="276">
+        <v>1800</v>
+      </c>
+      <c r="C98" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B99" s="334">
+        <f>B98/B100</f>
+        <v>62.831853071795862</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B100" s="334">
+        <f>B97/B13*2*30/PI()</f>
+        <v>28.647889756541161</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="18"/>
+      <c r="B101" s="123"/>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="111" t="s">
+        <v>158</v>
+      </c>
+      <c r="B102" s="125"/>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="B103" s="279">
+        <v>750</v>
+      </c>
+      <c r="C103" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B104" s="276">
+        <v>0.58250000000000002</v>
+      </c>
+      <c r="C104" t="s">
+        <v>85</v>
+      </c>
+      <c r="D104" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B105" s="280">
+        <v>0</v>
+      </c>
+      <c r="C105" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B106" s="280">
+        <v>0</v>
+      </c>
+      <c r="C106" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="18"/>
+      <c r="B107" s="126"/>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="111" t="s">
+        <v>162</v>
+      </c>
+      <c r="B108" s="126"/>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B109" s="280">
+        <v>1.631</v>
+      </c>
+      <c r="C109" t="s">
+        <v>85</v>
+      </c>
+      <c r="D109" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B110" s="276">
+        <v>1.7475000000000001</v>
+      </c>
+      <c r="C110" t="s">
+        <v>85</v>
+      </c>
+      <c r="D110" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="18" t="s">
+    <row r="111" spans="1:4">
+      <c r="A111" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="B97" s="276">
+      <c r="B111" s="276">
         <v>0.74560000000000004</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C111" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
-      <c r="A98" s="18" t="s">
+    <row r="112" spans="1:4">
+      <c r="A112" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="B98" s="276">
+      <c r="B112" s="276">
         <v>0.13</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C112" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
-      <c r="A99" s="18" t="s">
+    <row r="113" spans="1:11">
+      <c r="A113" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="B99" s="276">
+      <c r="B113" s="276">
         <v>0.13</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C113" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
-      <c r="A100" s="18" t="s">
+    <row r="114" spans="1:11">
+      <c r="A114" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="B100" s="277">
+      <c r="B114" s="277">
         <v>7850</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C114" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
-      <c r="A101" s="18" t="s">
+    <row r="115" spans="1:11">
+      <c r="A115" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="B101" s="280">
-        <v>0</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="B115" s="280">
+        <v>0</v>
+      </c>
+      <c r="C115" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
-      <c r="A102" s="18" t="s">
+    <row r="116" spans="1:11">
+      <c r="A116" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="B102" s="280">
-        <v>0</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="B116" s="280">
+        <v>0</v>
+      </c>
+      <c r="C116" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
-      <c r="A103" s="18" t="s">
+    <row r="117" spans="1:11">
+      <c r="A117" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="B103" s="280">
+      <c r="B117" s="280">
         <v>-0.56850000000000001</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C117" t="s">
         <v>85</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D117" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
-      <c r="A105" s="111" t="s">
+    <row r="119" spans="1:11">
+      <c r="A119" s="111" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
-      <c r="A106" s="331" t="s">
+    <row r="120" spans="1:11">
+      <c r="A120" s="331" t="s">
         <v>388</v>
       </c>
-      <c r="B106" s="332">
+      <c r="B120" s="332">
         <f>'Blade Data'!R32*B10+E8</f>
         <v>12381.263055221558</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C120" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
-      <c r="A107" s="331" t="s">
+    <row r="121" spans="1:11">
+      <c r="A121" s="331" t="s">
         <v>389</v>
       </c>
-      <c r="B107" s="332">
+      <c r="B121" s="332">
         <f>E5+E6+E7</f>
         <v>20950.244259671897</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C121" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
-      <c r="A108" s="331" t="s">
+    <row r="122" spans="1:11">
+      <c r="A122" s="331" t="s">
         <v>390</v>
       </c>
-      <c r="B108" s="332">
-        <f>B106+B107</f>
+      <c r="B122" s="332">
+        <f>B120+B121</f>
         <v>33331.507314893453</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C122" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
-      <c r="A109" s="18" t="s">
+    <row r="123" spans="1:11">
+      <c r="A123" s="18" t="s">
         <v>396</v>
       </c>
-      <c r="B109" s="332">
+      <c r="B123" s="332">
         <f>GECtwrdata!O26</f>
         <v>53775.756106386892</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C123" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
-      <c r="A110" t="s">
+    <row r="124" spans="1:11">
+      <c r="A124" t="s">
         <v>347</v>
       </c>
-      <c r="H110" t="s">
+      <c r="H124" t="s">
         <v>319</v>
       </c>
-      <c r="I110" s="183"/>
-      <c r="J110" s="183"/>
-    </row>
-    <row r="111" spans="1:11" ht="14.25">
-      <c r="A111" s="184"/>
-      <c r="B111" s="185"/>
-      <c r="C111" s="186" t="s">
+      <c r="I124" s="183"/>
+      <c r="J124" s="183"/>
+    </row>
+    <row r="125" spans="1:11" ht="14.25">
+      <c r="A125" s="184"/>
+      <c r="B125" s="185"/>
+      <c r="C125" s="186" t="s">
         <v>320</v>
       </c>
-      <c r="D111" s="187"/>
-      <c r="E111" s="185"/>
-      <c r="F111" s="188" t="s">
+      <c r="D125" s="187"/>
+      <c r="E125" s="185"/>
+      <c r="F125" s="188" t="s">
         <v>321</v>
       </c>
-      <c r="G111" s="189"/>
-      <c r="H111" s="184"/>
-      <c r="I111" s="190" t="s">
+      <c r="G125" s="189"/>
+      <c r="H125" s="184"/>
+      <c r="I125" s="190" t="s">
         <v>332</v>
       </c>
-      <c r="J111" s="190" t="s">
+      <c r="J125" s="190" t="s">
         <v>333</v>
       </c>
-      <c r="K111" s="191" t="s">
+      <c r="K125" s="191" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="13.5">
-      <c r="A112" s="192" t="s">
+    <row r="126" spans="1:11" ht="13.5">
+      <c r="A126" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B112" s="176" t="s">
+      <c r="B126" s="176" t="s">
         <v>335</v>
       </c>
-      <c r="C112" s="176" t="s">
+      <c r="C126" s="176" t="s">
         <v>336</v>
       </c>
-      <c r="D112" s="177" t="s">
+      <c r="D126" s="177" t="s">
         <v>337</v>
       </c>
-      <c r="E112" s="177" t="s">
+      <c r="E126" s="177" t="s">
         <v>338</v>
       </c>
-      <c r="F112" s="176" t="s">
+      <c r="F126" s="176" t="s">
         <v>339</v>
       </c>
-      <c r="G112" s="193" t="s">
+      <c r="G126" s="193" t="s">
         <v>340</v>
       </c>
-      <c r="H112" s="192" t="s">
+      <c r="H126" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="I112" s="176" t="s">
+      <c r="I126" s="176" t="s">
         <v>341</v>
       </c>
-      <c r="J112" s="176" t="s">
+      <c r="J126" s="176" t="s">
         <v>341</v>
       </c>
-      <c r="K112" s="194" t="s">
+      <c r="K126" s="194" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="12">
-      <c r="A113" s="281">
+    <row r="127" spans="1:11" ht="12">
+      <c r="A127" s="281">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="B113" s="282">
+      <c r="B127" s="282">
         <v>680.46852313432544</v>
       </c>
-      <c r="C113" s="283">
+      <c r="C127" s="283">
         <v>1557617.3955374449</v>
       </c>
-      <c r="D113" s="284">
+      <c r="D127" s="284">
         <v>3620</v>
       </c>
-      <c r="E113" s="285">
+      <c r="E127" s="285">
         <v>3620</v>
       </c>
-      <c r="F113" s="283">
+      <c r="F127" s="283">
         <v>1557617.3955374449</v>
       </c>
-      <c r="G113" s="286">
+      <c r="G127" s="286">
         <v>3620</v>
       </c>
-      <c r="H113" s="287">
+      <c r="H127" s="287">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I113" s="288">
+      <c r="I127" s="288">
         <v>2.3240623855198695E-3</v>
       </c>
-      <c r="J113" s="288">
+      <c r="J127" s="288">
         <v>2.3240623855198695E-3</v>
       </c>
-      <c r="K113" s="289">
+      <c r="K127" s="289">
         <v>2.3240623855198695E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="12">
-      <c r="A114" s="290">
+    <row r="128" spans="1:11" ht="12">
+      <c r="A128" s="290">
         <v>0.25</v>
       </c>
-      <c r="B114" s="282">
+      <c r="B128" s="282">
         <v>260.90607125811937</v>
       </c>
-      <c r="C114" s="283">
+      <c r="C128" s="283">
         <v>987620</v>
       </c>
-      <c r="D114" s="284">
+      <c r="D128" s="284">
         <v>3620</v>
       </c>
-      <c r="E114" s="285">
+      <c r="E128" s="285">
         <v>3872.3365369527278</v>
       </c>
-      <c r="F114" s="283">
+      <c r="F128" s="283">
         <v>189109.6258164102</v>
       </c>
-      <c r="G114" s="286">
+      <c r="G128" s="286">
         <v>1263.1593869403541</v>
       </c>
-      <c r="H114" s="291">
+      <c r="H128" s="291">
         <v>0.25</v>
       </c>
-      <c r="I114" s="283">
+      <c r="I128" s="283">
         <v>3.6653773718636723E-3</v>
       </c>
-      <c r="J114" s="283">
+      <c r="J128" s="283">
         <v>3.9208769941401836E-3</v>
       </c>
-      <c r="K114" s="292">
+      <c r="K128" s="292">
         <v>6.6795086790909508E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="12">
-      <c r="A115" s="290">
+    <row r="129" spans="1:13" ht="12">
+      <c r="A129" s="290">
         <v>0.5</v>
       </c>
-      <c r="B115" s="282">
+      <c r="B129" s="282">
         <v>178.44378866600621</v>
       </c>
-      <c r="C115" s="283">
+      <c r="C129" s="283">
         <v>452000</v>
       </c>
-      <c r="D115" s="284">
+      <c r="D129" s="284">
         <v>3620</v>
       </c>
-      <c r="E115" s="285">
+      <c r="E129" s="285">
         <v>3845.7470139995348</v>
       </c>
-      <c r="F115" s="283">
+      <c r="F129" s="283">
         <v>100924.76937294503</v>
       </c>
-      <c r="G115" s="286">
+      <c r="G129" s="286">
         <v>1263.1593869403541</v>
       </c>
-      <c r="H115" s="291">
+      <c r="H129" s="291">
         <v>0.5</v>
       </c>
-      <c r="I115" s="283">
+      <c r="I129" s="283">
         <v>8.0088495575221241E-3</v>
       </c>
-      <c r="J115" s="283">
+      <c r="J129" s="283">
         <v>8.5082898539812716E-3</v>
       </c>
-      <c r="K115" s="292">
+      <c r="K129" s="292">
         <v>1.2515851111560431E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="12">
-      <c r="A116" s="293">
+    <row r="130" spans="1:13" ht="12">
+      <c r="A130" s="293">
         <v>0.75</v>
       </c>
-      <c r="B116" s="294">
+      <c r="B130" s="294">
         <v>109.19318519557659</v>
       </c>
-      <c r="C116" s="295">
+      <c r="C130" s="295">
         <v>117633</v>
       </c>
-      <c r="D116" s="296">
+      <c r="D130" s="296">
         <v>3620</v>
       </c>
-      <c r="E116" s="297">
+      <c r="E130" s="297">
         <v>3808.8010680071311</v>
       </c>
-      <c r="F116" s="295">
+      <c r="F130" s="295">
         <v>39845.648743448277</v>
       </c>
-      <c r="G116" s="298">
+      <c r="G130" s="298">
         <v>1263.1593869403541</v>
       </c>
-      <c r="H116" s="299">
+      <c r="H130" s="299">
         <v>0.75</v>
       </c>
-      <c r="I116" s="295">
+      <c r="I130" s="295">
         <v>3.0773677454455809E-2</v>
       </c>
-      <c r="J116" s="295">
+      <c r="J130" s="295">
         <v>3.2378678330121063E-2</v>
       </c>
-      <c r="K116" s="300">
+      <c r="K130" s="300">
         <v>3.1701313111335713E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
-      <c r="A118" t="s">
+    <row r="132" spans="1:13">
+      <c r="A132" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="13.5">
-      <c r="A119" s="184"/>
-      <c r="B119" s="188" t="s">
+    <row r="133" spans="1:13" ht="13.5">
+      <c r="A133" s="184"/>
+      <c r="B133" s="188" t="s">
         <v>88</v>
       </c>
-      <c r="C119" s="188" t="s">
+      <c r="C133" s="188" t="s">
         <v>322</v>
       </c>
-      <c r="D119" s="188" t="s">
+      <c r="D133" s="188" t="s">
         <v>89</v>
       </c>
-      <c r="E119" s="195" t="s">
+      <c r="E133" s="195" t="s">
         <v>323</v>
       </c>
-      <c r="F119" s="188" t="s">
+      <c r="F133" s="188" t="s">
         <v>324</v>
       </c>
-      <c r="G119" s="188" t="s">
+      <c r="G133" s="188" t="s">
         <v>325</v>
       </c>
-      <c r="H119" s="188" t="s">
+      <c r="H133" s="188" t="s">
         <v>326</v>
       </c>
-      <c r="I119" s="188" t="s">
+      <c r="I133" s="188" t="s">
         <v>342</v>
       </c>
-      <c r="J119" s="188" t="s">
+      <c r="J133" s="188" t="s">
         <v>343</v>
       </c>
-      <c r="K119" s="188" t="s">
+      <c r="K133" s="188" t="s">
         <v>113</v>
       </c>
-      <c r="L119" s="188" t="s">
+      <c r="L133" s="188" t="s">
         <v>112</v>
       </c>
-      <c r="M119" s="196" t="s">
+      <c r="M133" s="196" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="13.5">
-      <c r="A120" s="192" t="s">
+    <row r="134" spans="1:13" ht="13.5">
+      <c r="A134" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B120" s="176" t="s">
+      <c r="B134" s="176" t="s">
         <v>90</v>
       </c>
-      <c r="C120" s="176" t="s">
+      <c r="C134" s="176" t="s">
         <v>327</v>
       </c>
-      <c r="D120" s="176" t="s">
+      <c r="D134" s="176" t="s">
         <v>328</v>
       </c>
-      <c r="E120" s="176" t="s">
+      <c r="E134" s="176" t="s">
         <v>329</v>
       </c>
-      <c r="F120" s="176" t="s">
+      <c r="F134" s="176" t="s">
         <v>329</v>
       </c>
-      <c r="G120" s="176" t="s">
+      <c r="G134" s="176" t="s">
         <v>329</v>
       </c>
-      <c r="H120" s="176" t="s">
+      <c r="H134" s="176" t="s">
         <v>330</v>
       </c>
-      <c r="I120" s="176" t="s">
+      <c r="I134" s="176" t="s">
         <v>345</v>
       </c>
-      <c r="J120" s="176" t="s">
+      <c r="J134" s="176" t="s">
         <v>345</v>
       </c>
-      <c r="K120" s="176" t="s">
+      <c r="K134" s="176" t="s">
         <v>331</v>
       </c>
-      <c r="L120" s="176" t="s">
+      <c r="L134" s="176" t="s">
         <v>345</v>
       </c>
-      <c r="M120" s="194" t="s">
+      <c r="M134" s="194" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
-      <c r="A121" s="301">
+    <row r="135" spans="1:13">
+      <c r="A135" s="301">
         <v>0.05</v>
       </c>
-      <c r="B121" s="302">
+      <c r="B135" s="302">
         <v>1.349657099314199</v>
       </c>
-      <c r="C121" s="303">
+      <c r="C135" s="303">
         <v>1</v>
       </c>
-      <c r="D121" s="303" t="s">
+      <c r="D135" s="303" t="s">
         <v>377</v>
       </c>
-      <c r="E121" s="351">
+      <c r="E135" s="351">
         <v>0.25</v>
       </c>
-      <c r="F121" s="302">
+      <c r="F135" s="302">
         <v>0.5</v>
       </c>
-      <c r="G121" s="302">
+      <c r="G135" s="302">
         <v>0.5</v>
       </c>
-      <c r="H121" s="305">
+      <c r="H135" s="305">
         <v>1181.9474017501359</v>
       </c>
-      <c r="I121" s="306">
+      <c r="I135" s="306">
         <v>2362406058.2721553</v>
       </c>
-      <c r="J121" s="306">
+      <c r="J135" s="306">
         <v>2362406058.2721553</v>
       </c>
-      <c r="K121" s="306">
+      <c r="K135" s="306">
         <v>10326627046.93685</v>
       </c>
-      <c r="L121" s="306">
+      <c r="L135" s="306">
         <v>815590611.695804</v>
       </c>
-      <c r="M121" s="307">
+      <c r="M135" s="307">
         <v>538.24909552528584</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
-      <c r="A122" s="281">
+    <row r="136" spans="1:13">
+      <c r="A136" s="281">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="B122" s="308">
+      <c r="B136" s="308">
         <v>1.3496570993141985</v>
       </c>
-      <c r="C122" s="309">
+      <c r="C136" s="309">
         <v>1</v>
       </c>
-      <c r="D122" s="309" t="s">
+      <c r="D136" s="309" t="s">
         <v>377</v>
       </c>
-      <c r="E122" s="351">
+      <c r="E136" s="351">
         <v>0.25</v>
       </c>
-      <c r="F122" s="308">
+      <c r="F136" s="308">
         <v>0.5</v>
       </c>
-      <c r="G122" s="308">
+      <c r="G136" s="308">
         <v>0.5</v>
       </c>
-      <c r="H122" s="310">
+      <c r="H136" s="310">
         <v>89.215305458599687</v>
       </c>
-      <c r="I122" s="311">
+      <c r="I136" s="311">
         <v>292871613.66241747</v>
       </c>
-      <c r="J122" s="311">
+      <c r="J136" s="311">
         <v>292871613.66241747</v>
       </c>
-      <c r="K122" s="311">
+      <c r="K136" s="311">
         <v>1295783621.589889</v>
       </c>
-      <c r="L122" s="311">
+      <c r="L136" s="311">
         <v>102340392.98761402</v>
       </c>
-      <c r="M122" s="312">
+      <c r="M136" s="312">
         <v>40.627914067071856</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
-      <c r="A123" s="290">
+    <row r="137" spans="1:13">
+      <c r="A137" s="290">
         <v>0.25</v>
       </c>
-      <c r="B123" s="308">
+      <c r="B137" s="308">
         <v>2</v>
       </c>
-      <c r="C123" s="309">
+      <c r="C137" s="309">
         <v>0.27</v>
       </c>
-      <c r="D123" s="309">
+      <c r="D137" s="309">
         <v>5.7408195699863462</v>
       </c>
-      <c r="E123" s="304">
+      <c r="E137" s="304">
         <v>0.34</v>
       </c>
-      <c r="F123" s="308">
+      <c r="F137" s="308">
         <v>0.38431406494974252</v>
       </c>
-      <c r="G123" s="308">
+      <c r="G137" s="308">
         <v>0.32303333404645607</v>
       </c>
-      <c r="H123" s="310">
+      <c r="H137" s="310">
         <v>117.20845675339662</v>
       </c>
-      <c r="I123" s="311">
+      <c r="I137" s="311">
         <v>71200412.886402056</v>
       </c>
-      <c r="J123" s="311">
+      <c r="J137" s="311">
         <v>192688198.09657151</v>
       </c>
-      <c r="K123" s="313">
+      <c r="K137" s="313">
         <v>1535809947.6467729</v>
       </c>
-      <c r="L123" s="313">
+      <c r="L137" s="313">
         <v>6059831.2604694702</v>
       </c>
-      <c r="M123" s="314">
+      <c r="M137" s="314">
         <v>24.149591455091301</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
-      <c r="A124" s="290">
+    <row r="138" spans="1:13">
+      <c r="A138" s="290">
         <v>0.5</v>
       </c>
-      <c r="B124" s="308">
+      <c r="B138" s="308">
         <v>1.5334010668021336</v>
       </c>
-      <c r="C124" s="309">
+      <c r="C138" s="309">
         <v>0.24</v>
       </c>
-      <c r="D124" s="309">
+      <c r="D138" s="309">
         <v>7.8774986568807996</v>
       </c>
-      <c r="E124" s="304">
+      <c r="E138" s="304">
         <v>0.31</v>
       </c>
-      <c r="F124" s="308">
+      <c r="F138" s="308">
         <v>0.37966131849299201</v>
       </c>
-      <c r="G124" s="308">
+      <c r="G138" s="308">
         <v>0.32331172392666518</v>
       </c>
-      <c r="H124" s="310">
+      <c r="H138" s="310">
         <v>82.955569360022096</v>
       </c>
-      <c r="I124" s="311">
+      <c r="I138" s="311">
         <v>22286831.062062379</v>
       </c>
-      <c r="J124" s="311">
+      <c r="J138" s="311">
         <v>79116868.754064709</v>
       </c>
-      <c r="K124" s="313">
+      <c r="K138" s="313">
         <v>1094705409.6217237</v>
       </c>
-      <c r="L124" s="313">
+      <c r="L138" s="313">
         <v>2885752.229026631</v>
       </c>
-      <c r="M124" s="314">
+      <c r="M138" s="314">
         <v>9.0573611452431102</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
-      <c r="A125" s="290">
+    <row r="139" spans="1:13">
+      <c r="A139" s="290">
         <v>0.75</v>
       </c>
-      <c r="B125" s="308">
+      <c r="B139" s="308">
         <v>1.0670561341122682</v>
       </c>
-      <c r="C125" s="309">
+      <c r="C139" s="309">
         <v>0.21</v>
       </c>
-      <c r="D125" s="309">
+      <c r="D139" s="309">
         <v>7.6422364536705301</v>
       </c>
-      <c r="E125" s="304">
+      <c r="E139" s="304">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F125" s="308">
+      <c r="F139" s="308">
         <v>0.39262047257690491</v>
       </c>
-      <c r="G125" s="308">
+      <c r="G139" s="308">
         <v>0.32643878406891619</v>
       </c>
-      <c r="H125" s="310">
+      <c r="H139" s="310">
         <v>39.129612072462692</v>
       </c>
-      <c r="I125" s="311">
+      <c r="I139" s="311">
         <v>3549221.9475047868</v>
       </c>
-      <c r="J125" s="311">
+      <c r="J139" s="311">
         <v>21323059.849604025</v>
       </c>
-      <c r="K125" s="313">
+      <c r="K139" s="313">
         <v>499093273.18287331</v>
       </c>
-      <c r="L125" s="313">
+      <c r="L139" s="313">
         <v>574933.04560629011</v>
       </c>
-      <c r="M125" s="314">
+      <c r="M139" s="314">
         <v>2.2054187533799334</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
-      <c r="A126" s="315">
+    <row r="140" spans="1:13">
+      <c r="A140" s="315">
         <v>1</v>
       </c>
-      <c r="B126" s="316">
+      <c r="B140" s="316">
         <v>0.64719329438658879</v>
       </c>
-      <c r="C126" s="317">
+      <c r="C140" s="317">
         <v>0.16</v>
       </c>
-      <c r="D126" s="317">
-        <v>0</v>
-      </c>
-      <c r="E126" s="316">
+      <c r="D140" s="317">
+        <v>0</v>
+      </c>
+      <c r="E140" s="316">
         <v>0.25</v>
       </c>
-      <c r="F126" s="316">
+      <c r="F140" s="316">
         <v>0.49249999999999999</v>
       </c>
-      <c r="G126" s="316">
+      <c r="G140" s="316">
         <v>0.35780000000000001</v>
       </c>
-      <c r="H126" s="318">
+      <c r="H140" s="318">
         <v>7.751396294306554</v>
       </c>
-      <c r="I126" s="319">
+      <c r="I140" s="319">
         <v>79811.599091411103</v>
       </c>
-      <c r="J126" s="319">
+      <c r="J140" s="319">
         <v>2702250.8204062055</v>
       </c>
-      <c r="K126" s="320">
+      <c r="K140" s="320">
         <v>80734393.082686871</v>
       </c>
-      <c r="L126" s="320">
+      <c r="L140" s="320">
         <v>61146.36439630347</v>
       </c>
-      <c r="M126" s="321">
+      <c r="M140" s="321">
         <v>0.25688857997871806</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
-      <c r="B128" s="18" t="s">
+    <row r="142" spans="1:13">
+      <c r="B142" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="C128" s="199"/>
-      <c r="D128" t="s">
+      <c r="C142" s="199"/>
+      <c r="D142" t="s">
         <v>350</v>
       </c>
-      <c r="H128" s="361" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="A130" t="s">
+      <c r="H142" s="360" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
+      <c r="A144" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
-      <c r="A131" s="184"/>
-      <c r="B131" s="230" t="s">
+    <row r="145" spans="1:7">
+      <c r="A145" s="184"/>
+      <c r="B145" s="230" t="s">
         <v>363</v>
       </c>
-      <c r="C131" s="336" t="s">
+      <c r="C145" s="336" t="s">
         <v>399</v>
       </c>
-      <c r="D131" s="337"/>
-    </row>
-    <row r="132" spans="1:7" ht="12">
-      <c r="A132" s="192" t="s">
+      <c r="D145" s="337"/>
+    </row>
+    <row r="146" spans="1:7" ht="12">
+      <c r="A146" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B132" s="233" t="s">
+      <c r="B146" s="233" t="s">
         <v>366</v>
       </c>
-      <c r="C132" s="225"/>
-      <c r="D132" s="226"/>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="A133" s="236">
-        <f t="shared" ref="A133:A138" si="0">A121</f>
+      <c r="C146" s="225"/>
+      <c r="D146" s="226"/>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="236">
+        <f t="shared" ref="A147:A152" si="0">A135</f>
         <v>0.05</v>
       </c>
-      <c r="B133" s="338">
+      <c r="B147" s="338">
         <v>10.5</v>
       </c>
-      <c r="C133" s="322"/>
-      <c r="D133" s="323">
+      <c r="C147" s="322"/>
+      <c r="D147" s="323">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
-      <c r="A134" s="241">
+    <row r="148" spans="1:7">
+      <c r="A148" s="241">
         <f t="shared" si="0"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="B134" s="339">
+      <c r="B148" s="339">
         <v>10.5</v>
       </c>
-      <c r="C134" s="324"/>
-      <c r="D134" s="325">
+      <c r="C148" s="324"/>
+      <c r="D148" s="325">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
-      <c r="A135" s="241">
+    <row r="149" spans="1:7">
+      <c r="A149" s="241">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="B135" s="327">
+      <c r="B149" s="327">
         <v>10.5</v>
       </c>
-      <c r="C135" s="324"/>
-      <c r="D135" s="325">
+      <c r="C149" s="324"/>
+      <c r="D149" s="325">
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
-      <c r="A136" s="241">
+    <row r="150" spans="1:7">
+      <c r="A150" s="241">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="B136" s="327">
+      <c r="B150" s="327">
         <v>2.5</v>
       </c>
-      <c r="C136" s="324"/>
-      <c r="D136" s="325">
+      <c r="C150" s="324"/>
+      <c r="D150" s="325">
         <v>2.5</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
-      <c r="A137" s="241">
+    <row r="151" spans="1:7">
+      <c r="A151" s="241">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="B137" s="340">
-        <v>0</v>
-      </c>
-      <c r="C137" s="324"/>
-      <c r="D137" s="325">
+      <c r="B151" s="340">
+        <v>0</v>
+      </c>
+      <c r="C151" s="324"/>
+      <c r="D151" s="325">
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
-      <c r="A138" s="247">
+    <row r="152" spans="1:7">
+      <c r="A152" s="247">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B138" s="328">
+      <c r="B152" s="328">
         <v>-0.6</v>
       </c>
-      <c r="C138" s="341"/>
-      <c r="D138" s="326">
+      <c r="C152" s="341"/>
+      <c r="D152" s="326">
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="12">
-      <c r="A140" s="342" t="s">
+    <row r="154" spans="1:7" ht="12">
+      <c r="A154" s="342" t="s">
         <v>400</v>
       </c>
-      <c r="B140" s="349" t="s">
+      <c r="B154" s="349" t="s">
         <v>401</v>
       </c>
-      <c r="C140" s="350"/>
-    </row>
-    <row r="141" spans="1:7">
-      <c r="A141" s="343">
+      <c r="C154" s="350"/>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="343">
         <v>1</v>
       </c>
-      <c r="B141" s="344"/>
-      <c r="C141" s="345" t="s">
+      <c r="B155" s="344"/>
+      <c r="C155" s="345" t="s">
         <v>378</v>
       </c>
-      <c r="E141" s="362"/>
-    </row>
-    <row r="142" spans="1:7">
-      <c r="A142" s="343">
+      <c r="E155" s="361"/>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="343">
         <v>2</v>
       </c>
-      <c r="B142" s="346"/>
-      <c r="C142" s="347" t="s">
+      <c r="B156" s="346"/>
+      <c r="C156" s="347" t="s">
+        <v>407</v>
+      </c>
+      <c r="E156" s="354" t="s">
+        <v>408</v>
+      </c>
+      <c r="F156" s="355"/>
+      <c r="G156" s="355"/>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="343">
+        <v>3</v>
+      </c>
+      <c r="B157" s="346"/>
+      <c r="C157" s="347" t="s">
+        <v>409</v>
+      </c>
+      <c r="E157" s="354" t="s">
+        <v>408</v>
+      </c>
+      <c r="F157" s="355"/>
+      <c r="G157" s="355"/>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="348">
+        <v>4</v>
+      </c>
+      <c r="B158" s="362"/>
+      <c r="C158" s="363" t="s">
         <v>410</v>
       </c>
-      <c r="E142" s="354" t="s">
+      <c r="E158" s="354" t="s">
+        <v>408</v>
+      </c>
+      <c r="F158" s="355"/>
+      <c r="G158" s="355"/>
+    </row>
+    <row r="159" spans="1:7" ht="12" thickBot="1"/>
+    <row r="160" spans="1:7" ht="12" thickBot="1">
+      <c r="A160" s="386" t="s">
+        <v>402</v>
+      </c>
+      <c r="B160" s="388"/>
+      <c r="C160" s="389"/>
+      <c r="E160" s="354" t="s">
+        <v>403</v>
+      </c>
+      <c r="F160" s="355"/>
+    </row>
+    <row r="161" spans="1:6" ht="12" thickBot="1">
+      <c r="A161" s="364" t="s">
+        <v>35</v>
+      </c>
+      <c r="B161" s="365" t="s">
+        <v>36</v>
+      </c>
+      <c r="C161" s="365" t="s">
+        <v>37</v>
+      </c>
+      <c r="E161" s="354" t="s">
+        <v>403</v>
+      </c>
+      <c r="F161" s="355"/>
+    </row>
+    <row r="162" spans="1:6" ht="12" thickBot="1">
+      <c r="A162" s="366">
+        <v>3.882E-2</v>
+      </c>
+      <c r="B162" s="367">
+        <v>3.882E-2</v>
+      </c>
+      <c r="C162" s="377">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="E162" s="354" t="s">
+        <v>403</v>
+      </c>
+      <c r="F162" s="355"/>
+    </row>
+    <row r="163" spans="1:6" ht="12" thickBot="1"/>
+    <row r="164" spans="1:6" ht="12" thickBot="1">
+      <c r="A164" s="386" t="s">
         <v>411</v>
       </c>
-      <c r="F142" s="355"/>
-      <c r="G142" s="355"/>
-    </row>
-    <row r="143" spans="1:7">
-      <c r="A143" s="343">
-        <v>3</v>
-      </c>
-      <c r="B143" s="346"/>
-      <c r="C143" s="347" t="s">
-        <v>412</v>
-      </c>
-      <c r="E143" s="354" t="s">
-        <v>411</v>
-      </c>
-      <c r="F143" s="355"/>
-      <c r="G143" s="355"/>
-    </row>
-    <row r="144" spans="1:7">
-      <c r="A144" s="348">
-        <v>4</v>
-      </c>
-      <c r="B144" s="363"/>
-      <c r="C144" s="364" t="s">
-        <v>413</v>
-      </c>
-      <c r="E144" s="354" t="s">
-        <v>411</v>
-      </c>
-      <c r="F144" s="355"/>
-      <c r="G144" s="355"/>
-    </row>
-    <row r="145" spans="1:6" ht="12" thickBot="1"/>
-    <row r="146" spans="1:6" ht="12" thickBot="1">
-      <c r="A146" s="386" t="s">
-        <v>402</v>
-      </c>
-      <c r="B146" s="388"/>
-      <c r="C146" s="389"/>
-      <c r="E146" s="354" t="s">
+      <c r="B164" s="387"/>
+      <c r="C164" s="368"/>
+      <c r="E164" s="354" t="s">
         <v>403</v>
       </c>
-      <c r="F146" s="355"/>
-    </row>
-    <row r="147" spans="1:6" ht="12" thickBot="1">
-      <c r="A147" s="365" t="s">
-        <v>35</v>
-      </c>
-      <c r="B147" s="366" t="s">
-        <v>36</v>
-      </c>
-      <c r="C147" s="366" t="s">
-        <v>37</v>
-      </c>
-      <c r="E147" s="354" t="s">
+      <c r="F164" s="355"/>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="369" t="s">
+        <v>50</v>
+      </c>
+      <c r="B165" s="370">
+        <v>3.4349999999999999E-2</v>
+      </c>
+      <c r="C165" s="353"/>
+      <c r="E165" s="354" t="s">
         <v>403</v>
       </c>
-      <c r="F147" s="355"/>
-    </row>
-    <row r="148" spans="1:6" ht="12" thickBot="1">
-      <c r="A148" s="367">
-        <v>3.882E-2</v>
-      </c>
-      <c r="B148" s="368">
-        <v>3.882E-2</v>
-      </c>
-      <c r="C148" s="378">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="E148" s="354" t="s">
+      <c r="F165" s="355"/>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="371" t="s">
+        <v>51</v>
+      </c>
+      <c r="B166" s="372">
+        <v>3.4349999999999999E-2</v>
+      </c>
+      <c r="C166" s="373"/>
+      <c r="E166" s="354" t="s">
         <v>403</v>
       </c>
-      <c r="F148" s="355"/>
-    </row>
-    <row r="149" spans="1:6" ht="12" thickBot="1"/>
-    <row r="150" spans="1:6" ht="12" thickBot="1">
-      <c r="A150" s="386" t="s">
-        <v>414</v>
-      </c>
-      <c r="B150" s="387"/>
-      <c r="C150" s="369"/>
-      <c r="E150" s="354" t="s">
+      <c r="F166" s="355"/>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="374" t="s">
+        <v>52</v>
+      </c>
+      <c r="B167" s="372">
+        <v>3.4349999999999999E-2</v>
+      </c>
+      <c r="E167" s="354" t="s">
         <v>403</v>
       </c>
-      <c r="F150" s="355"/>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151" s="370" t="s">
-        <v>50</v>
-      </c>
-      <c r="B151" s="371">
+      <c r="F167" s="355"/>
+    </row>
+    <row r="168" spans="1:6" ht="12" thickBot="1">
+      <c r="A168" s="375" t="s">
+        <v>53</v>
+      </c>
+      <c r="B168" s="376">
         <v>3.4349999999999999E-2</v>
       </c>
-      <c r="C151" s="353"/>
-      <c r="E151" s="354" t="s">
+      <c r="E168" s="354" t="s">
         <v>403</v>
       </c>
-      <c r="F151" s="355"/>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152" s="372" t="s">
-        <v>51</v>
-      </c>
-      <c r="B152" s="373">
-        <v>3.4349999999999999E-2</v>
-      </c>
-      <c r="C152" s="374"/>
-      <c r="E152" s="354" t="s">
-        <v>403</v>
-      </c>
-      <c r="F152" s="355"/>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153" s="375" t="s">
-        <v>52</v>
-      </c>
-      <c r="B153" s="373">
-        <v>3.4349999999999999E-2</v>
-      </c>
-      <c r="E153" s="354" t="s">
-        <v>403</v>
-      </c>
-      <c r="F153" s="355"/>
-    </row>
-    <row r="154" spans="1:6" ht="12" thickBot="1">
-      <c r="A154" s="376" t="s">
-        <v>53</v>
-      </c>
-      <c r="B154" s="377">
-        <v>3.4349999999999999E-2</v>
-      </c>
-      <c r="E154" s="354" t="s">
-        <v>403</v>
-      </c>
-      <c r="F154" s="355"/>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155" s="5"/>
-      <c r="B155" s="352"/>
-      <c r="C155" s="352"/>
-      <c r="D155" s="352"/>
+      <c r="F168" s="355"/>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="5"/>
+      <c r="B169" s="352"/>
+      <c r="C169" s="352"/>
+      <c r="D169" s="352"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="A146:C146"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="A160:C160"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="C1:H1"/>
@@ -7643,12 +7951,2254 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Y131"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V21" sqref="V21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="10" max="11" width="9.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.5" customWidth="1"/>
+    <col min="13" max="14" width="11.33203125" customWidth="1"/>
+    <col min="15" max="15" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="12.75">
+      <c r="A1" s="112"/>
+      <c r="B1" s="112" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="127">
+        <f>'Main Page'!B13</f>
+        <v>50</v>
+      </c>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
+      <c r="Y1" s="112"/>
+    </row>
+    <row r="2" spans="1:25" ht="12.75">
+      <c r="A2" s="112"/>
+      <c r="B2" s="113" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="127">
+        <f>'Main Page'!B99*'Main Page'!B100</f>
+        <v>1800</v>
+      </c>
+      <c r="D2" s="114"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="112"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="112"/>
+    </row>
+    <row r="3" spans="1:25" ht="12.75">
+      <c r="A3" s="112"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="112"/>
+      <c r="P3" s="112"/>
+      <c r="Q3" s="112"/>
+      <c r="R3" s="112"/>
+      <c r="S3" s="112"/>
+      <c r="T3" s="112"/>
+      <c r="U3" s="112"/>
+      <c r="V3" s="112"/>
+      <c r="W3" s="112"/>
+      <c r="X3" s="112"/>
+      <c r="Y3" s="112"/>
+    </row>
+    <row r="4" spans="1:25" ht="38.25">
+      <c r="A4" s="115"/>
+      <c r="B4" s="163" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="115" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="115" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="115" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" s="115" t="s">
+        <v>215</v>
+      </c>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115" t="s">
+        <v>176</v>
+      </c>
+      <c r="I4" s="115" t="s">
+        <v>177</v>
+      </c>
+      <c r="J4" s="115" t="s">
+        <v>178</v>
+      </c>
+      <c r="K4" s="115" t="s">
+        <v>179</v>
+      </c>
+      <c r="L4" s="115" t="s">
+        <v>180</v>
+      </c>
+      <c r="M4" s="115" t="s">
+        <v>181</v>
+      </c>
+      <c r="N4" s="115" t="s">
+        <v>182</v>
+      </c>
+      <c r="O4" s="115" t="s">
+        <v>183</v>
+      </c>
+      <c r="P4" s="115" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q4" s="115" t="s">
+        <v>213</v>
+      </c>
+      <c r="R4" s="115" t="s">
+        <v>214</v>
+      </c>
+      <c r="S4" s="115"/>
+      <c r="T4" s="115"/>
+      <c r="U4" s="116"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="115"/>
+      <c r="X4" s="115"/>
+      <c r="Y4" s="116"/>
+    </row>
+    <row r="5" spans="1:25" ht="12.75">
+      <c r="A5" s="112"/>
+      <c r="B5" s="164" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="132">
+        <f>'Main Page'!B67</f>
+        <v>2.5</v>
+      </c>
+      <c r="F5" s="132">
+        <f>'Main Page'!B70</f>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G5" s="131"/>
+      <c r="H5" s="135">
+        <f>'Main Page'!B71</f>
+        <v>7850</v>
+      </c>
+      <c r="I5" s="136">
+        <f>H5*F5*PI()*E5^2</f>
+        <v>5086.4348557027251</v>
+      </c>
+      <c r="J5" s="132">
+        <f>'Main Page'!B72</f>
+        <v>-2.33</v>
+      </c>
+      <c r="K5" s="132">
+        <f>'Main Page'!B73</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="132">
+        <f>'Main Page'!B74</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="160">
+        <f>0.4*I5*((E5/2)^5-(E5/2-F5)^5)/((E5/2)^3-(E5/2-F5)^3)</f>
+        <v>5160.9544585651756</v>
+      </c>
+      <c r="N5" s="160">
+        <f>M5</f>
+        <v>5160.9544585651756</v>
+      </c>
+      <c r="O5" s="160">
+        <f>M5</f>
+        <v>5160.9544585651756</v>
+      </c>
+      <c r="P5" s="160">
+        <f>$I5*((K5-K$14)^2+(L5-L$14)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="160">
+        <f>$I5*((L5-L$14)^2+(J5-J$14)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="160">
+        <f>$I5*((J5-J$14)^2+(K5-K$14)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="112" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" s="113"/>
+      <c r="U5" s="112"/>
+      <c r="V5" s="112"/>
+      <c r="W5" s="112"/>
+      <c r="X5" s="112"/>
+      <c r="Y5" s="112"/>
+    </row>
+    <row r="6" spans="1:25" ht="12.75">
+      <c r="A6" s="112"/>
+      <c r="B6" s="164" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="131"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="136">
+        <f>0.0119*'Main Page'!B13^3</f>
+        <v>1487.5</v>
+      </c>
+      <c r="J6" s="132">
+        <f>'Main Page'!B72</f>
+        <v>-2.33</v>
+      </c>
+      <c r="K6" s="132">
+        <f>'Main Page'!B73</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="132">
+        <f>'Main Page'!B74</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="160">
+        <f>I6*E5^2/4</f>
+        <v>2324.21875</v>
+      </c>
+      <c r="N6" s="160">
+        <f>M6</f>
+        <v>2324.21875</v>
+      </c>
+      <c r="O6" s="160">
+        <f>N6</f>
+        <v>2324.21875</v>
+      </c>
+      <c r="P6" s="160">
+        <f>$I6*((K6-K$14)^2+(L6-L$14)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="160">
+        <f>$I6*((L6-L$14)^2+(J6-J$14)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="160">
+        <f>$I6*((J6-J$14)^2+(K6-K$14)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="112" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="113"/>
+      <c r="U6" s="117"/>
+      <c r="V6" s="117"/>
+      <c r="W6" s="112"/>
+      <c r="X6" s="112"/>
+      <c r="Y6" s="112"/>
+    </row>
+    <row r="7" spans="1:25" ht="12.75">
+      <c r="A7" s="112"/>
+      <c r="B7" s="164" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="132">
+        <f>'Main Page'!B77</f>
+        <v>1.3979999999999999</v>
+      </c>
+      <c r="D7" s="132">
+        <f>'Main Page'!B79</f>
+        <v>0.2</v>
+      </c>
+      <c r="E7" s="132">
+        <f>'Main Page'!B78</f>
+        <v>0.4</v>
+      </c>
+      <c r="F7" s="131"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="135">
+        <f>'Main Page'!B80</f>
+        <v>7850</v>
+      </c>
+      <c r="I7" s="136">
+        <f>0.25*PI()*(E7^2-D7^2)*H7*C7</f>
+        <v>1034.3034077487141</v>
+      </c>
+      <c r="J7" s="132">
+        <f>0.5*('Main Page'!B85+'Main Page'!B88)</f>
+        <v>-1.0485</v>
+      </c>
+      <c r="K7" s="132">
+        <f>'Main Page'!B81</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="132">
+        <f>'Main Page'!B82</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="160">
+        <f>I7*(E7^2+D7^2)/8</f>
+        <v>25.857585193717856</v>
+      </c>
+      <c r="N7" s="160">
+        <f>I7*(E7^2+D7^2+4*C7^2/3)/16</f>
+        <v>181.38268570666875</v>
+      </c>
+      <c r="O7" s="160">
+        <f>I7*(E7^2+D7^2+4*C7^2/3)/16</f>
+        <v>181.38268570666875</v>
+      </c>
+      <c r="P7" s="160">
+        <f>$I7*((K7-K$15)^2+(L7-L$15)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="160">
+        <f>$I7*((L7-L$15)^2+(J7-J$15)^2)</f>
+        <v>352.90278010392893</v>
+      </c>
+      <c r="R7" s="160">
+        <f>$I7*((J7-J$15)^2+(K7-K$15)^2)</f>
+        <v>352.90278010392893</v>
+      </c>
+      <c r="S7" s="112" t="s">
+        <v>209</v>
+      </c>
+      <c r="T7" s="112"/>
+      <c r="U7" s="112"/>
+      <c r="V7" s="112"/>
+      <c r="W7" s="112"/>
+      <c r="X7" s="112"/>
+      <c r="Y7" s="112"/>
+    </row>
+    <row r="8" spans="1:25" ht="12.75">
+      <c r="A8" s="112"/>
+      <c r="B8" s="164" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="131"/>
+      <c r="D8" s="159">
+        <f>E7</f>
+        <v>0.4</v>
+      </c>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="136">
+        <f>0.00002613*(1000*E7)^2.77</f>
+        <v>421.54659502316184</v>
+      </c>
+      <c r="J8" s="132">
+        <f>'Main Page'!B85</f>
+        <v>-1.631</v>
+      </c>
+      <c r="K8" s="132">
+        <f>'Main Page'!B86</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="132">
+        <f>'Main Page'!B87</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="160">
+        <f>I8*D8^2/4</f>
+        <v>16.861863800926479</v>
+      </c>
+      <c r="N8" s="160">
+        <f>M8/2</f>
+        <v>8.4309319004632393</v>
+      </c>
+      <c r="O8" s="160">
+        <f>M8/2</f>
+        <v>8.4309319004632393</v>
+      </c>
+      <c r="P8" s="160">
+        <f>$I8*((K8-K$15)^2+(L8-L$15)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="160">
+        <f>$I8*((L8-L$15)^2+(J8-J$15)^2)</f>
+        <v>573.7278186835573</v>
+      </c>
+      <c r="R8" s="160">
+        <f>$I8*((J8-J$15)^2+(K8-K$15)^2)</f>
+        <v>573.7278186835573</v>
+      </c>
+      <c r="S8" s="112" t="s">
+        <v>209</v>
+      </c>
+      <c r="T8" s="113"/>
+      <c r="U8" s="117"/>
+      <c r="V8" s="117"/>
+      <c r="W8" s="112"/>
+      <c r="X8" s="112"/>
+      <c r="Y8" s="118"/>
+    </row>
+    <row r="9" spans="1:25" ht="12.75">
+      <c r="A9" s="112"/>
+      <c r="B9" s="164" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="131"/>
+      <c r="D9" s="159">
+        <f>E7</f>
+        <v>0.4</v>
+      </c>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="136">
+        <f>0.00002613*(1000*E7)^2.77</f>
+        <v>421.54659502316184</v>
+      </c>
+      <c r="J9" s="132">
+        <f>'Main Page'!B88</f>
+        <v>-0.46600000000000003</v>
+      </c>
+      <c r="K9" s="132">
+        <f>'Main Page'!B89</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="132">
+        <f>'Main Page'!B90</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="160">
+        <f>I9*D9^2/4</f>
+        <v>16.861863800926479</v>
+      </c>
+      <c r="N9" s="160">
+        <f>M9/2</f>
+        <v>8.4309319004632393</v>
+      </c>
+      <c r="O9" s="160">
+        <f>M9/2</f>
+        <v>8.4309319004632393</v>
+      </c>
+      <c r="P9" s="160">
+        <f>$I9*((K9-K$15)^2+(L9-L$15)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="160">
+        <f>$I9*((L9-L$15)^2+(J9-J$15)^2)</f>
+        <v>1.1090374508368286E-3</v>
+      </c>
+      <c r="R9" s="160">
+        <f>$I9*((J9-J$15)^2+(K9-K$15)^2)</f>
+        <v>1.1090374508368286E-3</v>
+      </c>
+      <c r="S9" s="112" t="s">
+        <v>209</v>
+      </c>
+      <c r="T9" s="113"/>
+      <c r="U9" s="119"/>
+      <c r="V9" s="119"/>
+      <c r="W9" s="112"/>
+      <c r="X9" s="112"/>
+      <c r="Y9" s="112"/>
+    </row>
+    <row r="10" spans="1:25" ht="12.75">
+      <c r="A10" s="112"/>
+      <c r="B10" s="164" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="131">
+        <f>C24</f>
+        <v>0.6</v>
+      </c>
+      <c r="D10" s="131"/>
+      <c r="E10" s="131">
+        <f>D24</f>
+        <v>0.5625</v>
+      </c>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="136">
+        <f>'Main Page'!B93/2</f>
+        <v>2361.5</v>
+      </c>
+      <c r="J10" s="132">
+        <f>'Main Page'!B94</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="132">
+        <f>'Main Page'!B95</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="132">
+        <f>'Main Page'!B96</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="160">
+        <f>I10*E10^2/8</f>
+        <v>93.399169921875</v>
+      </c>
+      <c r="N10" s="160">
+        <f>I10*(3*E10^2/4+C10^2)/12</f>
+        <v>117.54458496093748</v>
+      </c>
+      <c r="O10" s="160">
+        <f>I10*(3*E10^2/4+C10^2)/12</f>
+        <v>117.54458496093748</v>
+      </c>
+      <c r="P10" s="160">
+        <f>$I10*((K10-K$15)^2+(L10-L$15)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="160">
+        <f>$I10*((L10-L$15)^2+(J10-J$15)^2)</f>
+        <v>509.2502222331392</v>
+      </c>
+      <c r="R10" s="160">
+        <f>$I10*((J10-J$15)^2+(K10-K$15)^2)</f>
+        <v>509.2502222331392</v>
+      </c>
+      <c r="S10" s="112" t="s">
+        <v>209</v>
+      </c>
+      <c r="T10" s="113"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="112"/>
+      <c r="W10" s="112"/>
+      <c r="X10" s="112"/>
+      <c r="Y10" s="112"/>
+    </row>
+    <row r="11" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A11" s="112"/>
+      <c r="B11" s="164" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="131">
+        <f>1.6*0.015*C1</f>
+        <v>1.2</v>
+      </c>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="139">
+        <f>(3.3*'Main Page'!B103+471)/3</f>
+        <v>982</v>
+      </c>
+      <c r="J11" s="132">
+        <f>'Main Page'!B104</f>
+        <v>0.58250000000000002</v>
+      </c>
+      <c r="K11" s="132">
+        <f>'Main Page'!B105</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="132">
+        <f>'Main Page'!B106</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="160">
+        <f>0.0000486*C1^5.333</f>
+        <v>55878.315104796013</v>
+      </c>
+      <c r="N11" s="160">
+        <f>M11/2/('Main Page'!B99^2)+I11*C11^2/12</f>
+        <v>124.91707128294681</v>
+      </c>
+      <c r="O11" s="160">
+        <f>N11</f>
+        <v>124.91707128294681</v>
+      </c>
+      <c r="P11" s="160">
+        <f>$I11*((K11-K$16)^2+(L11-L$16)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="160">
+        <f>$I11*((L11-L$16)^2+(J11-J$16)^2)</f>
+        <v>1.4492378163894524</v>
+      </c>
+      <c r="R11" s="160">
+        <f>$I11*((J11-J$16)^2+(K11-K$16)^2)</f>
+        <v>1.4492378163894524</v>
+      </c>
+      <c r="S11" s="112" t="s">
+        <v>210</v>
+      </c>
+      <c r="T11" s="113"/>
+      <c r="U11" s="378"/>
+      <c r="V11" s="119"/>
+      <c r="W11" s="115"/>
+      <c r="X11" s="112"/>
+      <c r="Y11" s="118"/>
+    </row>
+    <row r="12" spans="1:25" ht="12.75">
+      <c r="A12" s="112"/>
+      <c r="B12" s="164" t="s">
+        <v>255</v>
+      </c>
+      <c r="C12" s="131">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131">
+        <f>1.5*E7</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="169">
+        <v>7850</v>
+      </c>
+      <c r="I12" s="139">
+        <f>1.5*0.025*1000*'Main Page'!B103/0.10472/C2</f>
+        <v>149.20741023682203</v>
+      </c>
+      <c r="J12" s="132">
+        <f>0.5*(J10+J11)</f>
+        <v>0.29125000000000001</v>
+      </c>
+      <c r="K12" s="132">
+        <f>0.5*(K10+K11)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="132">
+        <f>0.5*(L10+L11)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="160">
+        <f>0.25*C12*PI()*H12*E12^2*'Main Page'!B99^2*E12^2/8</f>
+        <v>9857.6705135843258</v>
+      </c>
+      <c r="N12" s="160">
+        <f>I12*(3*E12^2/4+C12^2)/12</f>
+        <v>3.3649379496116638</v>
+      </c>
+      <c r="O12" s="160">
+        <f>I12*(3*E12^2/4+C12^2)/12</f>
+        <v>3.3649379496116638</v>
+      </c>
+      <c r="P12" s="160">
+        <f>$I12*((K12-K$16)^2+(L12-L$16)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="160">
+        <f>$I12*((L12-L$16)^2+(J12-J$16)^2)</f>
+        <v>9.5380754443470401</v>
+      </c>
+      <c r="R12" s="160">
+        <f>$I12*((J12-J$16)^2+(K12-K$16)^2)</f>
+        <v>9.5380754443470401</v>
+      </c>
+      <c r="S12" s="112" t="s">
+        <v>210</v>
+      </c>
+      <c r="T12" s="113"/>
+      <c r="V12" s="119"/>
+      <c r="W12" s="112"/>
+      <c r="X12" s="112"/>
+      <c r="Y12" s="118"/>
+    </row>
+    <row r="13" spans="1:25" ht="12.75">
+      <c r="A13" s="112"/>
+      <c r="B13" s="164"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="138"/>
+      <c r="I13" s="139"/>
+      <c r="J13" s="132"/>
+      <c r="K13" s="132"/>
+      <c r="L13" s="132"/>
+      <c r="M13" s="158" t="s">
+        <v>207</v>
+      </c>
+      <c r="N13" s="158" t="s">
+        <v>208</v>
+      </c>
+      <c r="O13" s="158" t="s">
+        <v>211</v>
+      </c>
+      <c r="P13" s="158"/>
+      <c r="Q13" s="158"/>
+      <c r="R13" s="158"/>
+      <c r="S13" s="112"/>
+      <c r="T13" s="113"/>
+      <c r="V13" s="119"/>
+      <c r="W13" s="112"/>
+      <c r="X13" s="112"/>
+      <c r="Y13" s="118"/>
+    </row>
+    <row r="14" spans="1:25" ht="12.75">
+      <c r="A14" s="112"/>
+      <c r="B14" s="164"/>
+      <c r="C14" s="131"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="131"/>
+      <c r="G14" s="131"/>
+      <c r="H14" s="141" t="s">
+        <v>204</v>
+      </c>
+      <c r="I14" s="136">
+        <f>I5+I6</f>
+        <v>6573.9348557027251</v>
+      </c>
+      <c r="J14" s="132">
+        <f>SUMPRODUCT($I5:$I6,J5:J6)/SUM($I5:$I6)</f>
+        <v>-2.33</v>
+      </c>
+      <c r="K14" s="132">
+        <f>SUMPRODUCT($I5:$I6,K5:K6)/SUM($I5:$I6)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="132">
+        <f>SUMPRODUCT($I5:$I6,L5:L6)/SUM($I5:$I6)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="161">
+        <f>M5+M6+P5+P6</f>
+        <v>7485.1732085651756</v>
+      </c>
+      <c r="N14" s="161">
+        <f>N5+N6+Q5+Q6</f>
+        <v>7485.1732085651756</v>
+      </c>
+      <c r="O14" s="161">
+        <f>O5+O6+R5+R6</f>
+        <v>7485.1732085651756</v>
+      </c>
+      <c r="P14" s="112"/>
+      <c r="Q14" s="112"/>
+      <c r="R14" s="112"/>
+      <c r="S14" s="112"/>
+      <c r="T14" s="113"/>
+      <c r="V14" s="119"/>
+      <c r="W14" s="112"/>
+      <c r="X14" s="112"/>
+      <c r="Y14" s="118"/>
+    </row>
+    <row r="15" spans="1:25" ht="12.75">
+      <c r="A15" s="112"/>
+      <c r="B15" s="164"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="113" t="s">
+        <v>202</v>
+      </c>
+      <c r="I15" s="142">
+        <f>SUM(I7:I10)</f>
+        <v>4238.8965977950375</v>
+      </c>
+      <c r="J15" s="132">
+        <f>SUMPRODUCT($I7:$I10,J7:J10)/SUM($I7:$I10)</f>
+        <v>-0.46437800200458612</v>
+      </c>
+      <c r="K15" s="132">
+        <f>SUMPRODUCT($I7:$I10,K7:K10)/SUM($I7:$I10)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="132">
+        <f>SUMPRODUCT($I7:$I10,L7:L10)/SUM($I7:$I10)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="160">
+        <f>SUM(M7:M10,P7:P10)</f>
+        <v>152.98048271744582</v>
+      </c>
+      <c r="N15" s="160">
+        <f>SUM(N7:N10,Q7:Q10)</f>
+        <v>1751.6710645266089</v>
+      </c>
+      <c r="O15" s="160">
+        <f>SUM(O7:O10,R7:R10)</f>
+        <v>1751.6710645266089</v>
+      </c>
+      <c r="P15" s="112"/>
+      <c r="Q15" s="112"/>
+      <c r="R15" s="112"/>
+      <c r="S15" s="112"/>
+      <c r="T15" s="113"/>
+      <c r="V15" s="119"/>
+      <c r="W15" s="112"/>
+      <c r="X15" s="112"/>
+      <c r="Y15" s="118"/>
+    </row>
+    <row r="16" spans="1:25" ht="12.75">
+      <c r="A16" s="112"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="113" t="s">
+        <v>203</v>
+      </c>
+      <c r="I16" s="136">
+        <f>SUM(I11:I12)</f>
+        <v>1131.2074102368219</v>
+      </c>
+      <c r="J16" s="132">
+        <f>SUMPRODUCT($I11:$I12,J11:J12)/SUM($I11:$I12)</f>
+        <v>0.54408382818374879</v>
+      </c>
+      <c r="K16" s="132">
+        <f>SUMPRODUCT($I11:$I12,K11:K12)/SUM($I11:$I12)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="132">
+        <f>SUMPRODUCT($I11:$I12,L11:L12)/SUM($I11:$I12)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="160">
+        <f>SUM(M11:M12,P11:P12)</f>
+        <v>65735.985618380335</v>
+      </c>
+      <c r="N16" s="160">
+        <f>SUM(N11:N12,Q11:Q12)</f>
+        <v>139.26932249329496</v>
+      </c>
+      <c r="O16" s="160">
+        <f>SUM(O11:O12,R11:R12)</f>
+        <v>139.26932249329496</v>
+      </c>
+      <c r="P16" s="112"/>
+      <c r="Q16" s="112"/>
+      <c r="R16" s="112"/>
+      <c r="S16" s="112"/>
+      <c r="T16" s="113"/>
+      <c r="U16" s="119"/>
+      <c r="V16" s="119"/>
+      <c r="W16" s="112"/>
+      <c r="X16" s="112"/>
+      <c r="Y16" s="112"/>
+    </row>
+    <row r="17" spans="1:25" ht="12.75">
+      <c r="A17" s="112"/>
+      <c r="B17" s="165"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="113" t="s">
+        <v>201</v>
+      </c>
+      <c r="I17" s="136">
+        <f>SUM(I14:I16)</f>
+        <v>11944.038863734584</v>
+      </c>
+      <c r="J17" s="132">
+        <f>SUMPRODUCT($I14:$I16,J14:J16)/SUM($I14:$I16)</f>
+        <v>-1.395695968384653</v>
+      </c>
+      <c r="K17" s="132">
+        <f>SUMPRODUCT($I14:$I16,K14:K16)/SUM($I14:$I16)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="132">
+        <f>SUMPRODUCT($I14:$I16,L14:L16)/SUM($I14:$I16)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="112"/>
+      <c r="N17" s="112"/>
+      <c r="O17" s="112"/>
+      <c r="P17" s="112"/>
+      <c r="Q17" s="112"/>
+      <c r="R17" s="112"/>
+      <c r="S17" s="112"/>
+      <c r="T17" s="113"/>
+      <c r="U17" s="119"/>
+      <c r="V17" s="119"/>
+      <c r="W17" s="112"/>
+      <c r="X17" s="112"/>
+      <c r="Y17" s="112"/>
+    </row>
+    <row r="18" spans="1:25" ht="12.75">
+      <c r="A18" s="112"/>
+      <c r="B18" s="165"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="136"/>
+      <c r="J18" s="132"/>
+      <c r="K18" s="132"/>
+      <c r="L18" s="132"/>
+      <c r="M18" s="112"/>
+      <c r="N18" s="112"/>
+      <c r="O18" s="112"/>
+      <c r="P18" s="112"/>
+      <c r="Q18" s="112"/>
+      <c r="R18" s="112"/>
+      <c r="S18" s="112"/>
+      <c r="T18" s="113"/>
+      <c r="U18" s="119"/>
+      <c r="V18" s="119"/>
+      <c r="W18" s="112"/>
+      <c r="X18" s="112"/>
+      <c r="Y18" s="112"/>
+    </row>
+    <row r="19" spans="1:25" ht="12.75">
+      <c r="A19" s="112"/>
+      <c r="B19" s="165"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="403" t="s">
+        <v>239</v>
+      </c>
+      <c r="E19" s="403"/>
+      <c r="F19" s="403"/>
+      <c r="G19" s="403"/>
+      <c r="H19" s="112"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="121"/>
+      <c r="K19" s="121"/>
+      <c r="L19" s="121"/>
+      <c r="M19" s="112"/>
+      <c r="N19" s="112"/>
+      <c r="O19" s="112"/>
+      <c r="P19" s="112"/>
+      <c r="Q19" s="112"/>
+      <c r="R19" s="112"/>
+      <c r="S19" s="112"/>
+      <c r="T19" s="113"/>
+      <c r="U19" s="112"/>
+      <c r="V19" s="112"/>
+      <c r="W19" s="112"/>
+      <c r="X19" s="112"/>
+      <c r="Y19" s="112"/>
+    </row>
+    <row r="20" spans="1:25" ht="38.25">
+      <c r="A20" s="115"/>
+      <c r="B20" s="163" t="s">
+        <v>189</v>
+      </c>
+      <c r="C20" s="115" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" s="115" t="s">
+        <v>190</v>
+      </c>
+      <c r="E20" s="115" t="s">
+        <v>191</v>
+      </c>
+      <c r="F20" s="115" t="s">
+        <v>193</v>
+      </c>
+      <c r="G20" s="115" t="s">
+        <v>192</v>
+      </c>
+      <c r="H20" s="115"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="122"/>
+      <c r="K20" s="122"/>
+      <c r="L20" s="122"/>
+      <c r="M20" s="115"/>
+      <c r="N20" s="115"/>
+      <c r="O20" s="115"/>
+      <c r="P20" s="115"/>
+      <c r="Q20" s="115"/>
+      <c r="R20" s="115"/>
+      <c r="S20" s="115"/>
+      <c r="T20" s="115"/>
+      <c r="U20" s="115"/>
+      <c r="V20" s="115"/>
+      <c r="W20" s="115"/>
+      <c r="X20" s="115"/>
+      <c r="Y20" s="115"/>
+    </row>
+    <row r="21" spans="1:25" ht="12.75">
+      <c r="A21" s="112"/>
+      <c r="B21" s="164" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" s="132">
+        <f>'Main Page'!B109</f>
+        <v>1.631</v>
+      </c>
+      <c r="D21" s="132">
+        <f>'Main Page'!B110</f>
+        <v>1.7475000000000001</v>
+      </c>
+      <c r="E21" s="132">
+        <f>'Main Page'!B111</f>
+        <v>0.74560000000000004</v>
+      </c>
+      <c r="F21" s="132">
+        <f>'Main Page'!B112</f>
+        <v>0.13</v>
+      </c>
+      <c r="G21" s="132">
+        <f>'Main Page'!B113</f>
+        <v>0.13</v>
+      </c>
+      <c r="H21" s="136">
+        <f>'Main Page'!B114</f>
+        <v>7850</v>
+      </c>
+      <c r="I21" s="139">
+        <f>1.5*H21*(0.00000042875*C1^3-(0.00030625*F21+0.00003675*D21+0.0000735*E21)*C1^2+(0.035*F21*D21+0.07*E21*F21)*C1)</f>
+        <v>4631.2392328125006</v>
+      </c>
+      <c r="J21" s="132">
+        <f>'Main Page'!B115</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="132">
+        <f>'Main Page'!B116</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="132">
+        <f>'Main Page'!B117</f>
+        <v>-0.56850000000000001</v>
+      </c>
+      <c r="M21" s="160">
+        <f>I21*(E21^2+D21^2)/8</f>
+        <v>2089.6589128447995</v>
+      </c>
+      <c r="N21" s="160">
+        <f>I21*(E21^2+D21^2+4*C21^2/3)/16</f>
+        <v>2071.4829554888775</v>
+      </c>
+      <c r="O21" s="160">
+        <f>I21*(E21^2+D21^2+4*C21^2/3)/16</f>
+        <v>2071.4829554888775</v>
+      </c>
+      <c r="P21" s="160">
+        <f>$I21*((K21-K$30)^2+(L21-L$30)^2)</f>
+        <v>739.19068810733586</v>
+      </c>
+      <c r="Q21" s="160">
+        <f>$I21*((L21-L$30)^2+(J21-J$30)^2)</f>
+        <v>739.37024440071957</v>
+      </c>
+      <c r="R21" s="160">
+        <f>$I21*((J21-J$30)^2+(K21-K$30)^2)</f>
+        <v>0.17955629338370821</v>
+      </c>
+      <c r="S21" s="112"/>
+      <c r="T21" s="113"/>
+      <c r="V21" s="117"/>
+      <c r="W21" s="112"/>
+      <c r="X21" s="112"/>
+      <c r="Y21" s="112"/>
+    </row>
+    <row r="22" spans="1:25" ht="12.75">
+      <c r="A22" s="112"/>
+      <c r="B22" s="164" t="s">
+        <v>194</v>
+      </c>
+      <c r="C22" s="132"/>
+      <c r="E22" s="133">
+        <f>1.5*D8</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F22" s="133"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="140">
+        <f>0.00006744*(1000*E7)^2.64</f>
+        <v>499.29353040602069</v>
+      </c>
+      <c r="J22" s="132">
+        <f t="shared" ref="J22:L25" si="0">J8</f>
+        <v>-1.631</v>
+      </c>
+      <c r="K22" s="132">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="132">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="160">
+        <f>I22*E22^2/4</f>
+        <v>44.936417736541877</v>
+      </c>
+      <c r="N22" s="160">
+        <f>M22/2</f>
+        <v>22.468208868270938</v>
+      </c>
+      <c r="O22" s="160">
+        <f>M22/2</f>
+        <v>22.468208868270938</v>
+      </c>
+      <c r="P22" s="160">
+        <f t="shared" ref="P22:P28" si="1">$I22*((K22-K$30)^2+(L22-L$30)^2)</f>
+        <v>14.25832738556937</v>
+      </c>
+      <c r="Q22" s="160">
+        <f t="shared" ref="Q22:Q28" si="2">$I22*((L22-L$30)^2+(J22-J$30)^2)</f>
+        <v>1352.6201151454645</v>
+      </c>
+      <c r="R22" s="160">
+        <f t="shared" ref="R22:R28" si="3">$I22*((J22-J$30)^2+(K22-K$30)^2)</f>
+        <v>1338.3617877598952</v>
+      </c>
+      <c r="S22" s="112"/>
+      <c r="T22" s="113"/>
+      <c r="V22" s="117"/>
+      <c r="W22" s="112"/>
+      <c r="X22" s="112"/>
+      <c r="Y22" s="118"/>
+    </row>
+    <row r="23" spans="1:25" ht="12.75">
+      <c r="A23" s="112"/>
+      <c r="B23" s="164" t="s">
+        <v>195</v>
+      </c>
+      <c r="C23" s="132"/>
+      <c r="E23" s="133">
+        <f>1.5*D9</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F23" s="133"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="133"/>
+      <c r="I23" s="140">
+        <f>0.00006744*(1000*E7)^2.64</f>
+        <v>499.29353040602069</v>
+      </c>
+      <c r="J23" s="132">
+        <f t="shared" si="0"/>
+        <v>-0.46600000000000003</v>
+      </c>
+      <c r="K23" s="132">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="132">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="160">
+        <f>I23*E23^2/4</f>
+        <v>44.936417736541877</v>
+      </c>
+      <c r="N23" s="160">
+        <f>M23/2</f>
+        <v>22.468208868270938</v>
+      </c>
+      <c r="O23" s="160">
+        <f>M23/2</f>
+        <v>22.468208868270938</v>
+      </c>
+      <c r="P23" s="160">
+        <f t="shared" si="1"/>
+        <v>14.25832738556937</v>
+      </c>
+      <c r="Q23" s="160">
+        <f t="shared" si="2"/>
+        <v>125.59977198741109</v>
+      </c>
+      <c r="R23" s="160">
+        <f t="shared" si="3"/>
+        <v>111.34144460184173</v>
+      </c>
+      <c r="S23" s="112"/>
+      <c r="T23" s="112"/>
+      <c r="U23" s="112"/>
+      <c r="V23" s="112"/>
+      <c r="W23" s="112"/>
+      <c r="X23" s="112"/>
+      <c r="Y23" s="112"/>
+    </row>
+    <row r="24" spans="1:25" ht="12.75">
+      <c r="A24" s="112"/>
+      <c r="B24" s="164" t="s">
+        <v>196</v>
+      </c>
+      <c r="C24" s="132">
+        <f>0.012*C1</f>
+        <v>0.6</v>
+      </c>
+      <c r="D24" s="132">
+        <f>0.75*E24</f>
+        <v>0.5625</v>
+      </c>
+      <c r="E24" s="132">
+        <f>0.015*C1</f>
+        <v>0.75</v>
+      </c>
+      <c r="F24" s="129"/>
+      <c r="G24" s="130"/>
+      <c r="H24" s="129"/>
+      <c r="I24" s="140">
+        <f>'Main Page'!B93/2</f>
+        <v>2361.5</v>
+      </c>
+      <c r="J24" s="132">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="132">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="132">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="160">
+        <f>I24*(D24^2+E24^2)/8</f>
+        <v>259.442138671875</v>
+      </c>
+      <c r="N24" s="160">
+        <f>I24*(D24^2+E24^2+4*C24^2/3)/16</f>
+        <v>200.5660693359375</v>
+      </c>
+      <c r="O24" s="160">
+        <f>I24*(E24^2+D24^2+4*C24^2/3)/16</f>
+        <v>200.5660693359375</v>
+      </c>
+      <c r="P24" s="160">
+        <f t="shared" si="1"/>
+        <v>67.437365137980265</v>
+      </c>
+      <c r="Q24" s="160">
+        <f t="shared" si="2"/>
+        <v>67.528922098333638</v>
+      </c>
+      <c r="R24" s="160">
+        <f t="shared" si="3"/>
+        <v>9.1556960353378875E-2</v>
+      </c>
+      <c r="S24" s="112"/>
+      <c r="T24" s="112"/>
+      <c r="U24" s="112"/>
+      <c r="V24" s="112"/>
+      <c r="W24" s="112"/>
+      <c r="X24" s="112"/>
+      <c r="Y24" s="112"/>
+    </row>
+    <row r="25" spans="1:25" ht="12.75">
+      <c r="A25" s="112"/>
+      <c r="B25" s="164" t="s">
+        <v>197</v>
+      </c>
+      <c r="C25" s="132">
+        <f>C11</f>
+        <v>1.2</v>
+      </c>
+      <c r="D25" s="132">
+        <f>0.5*E25</f>
+        <v>0.375</v>
+      </c>
+      <c r="E25" s="132">
+        <f>0.015*C1</f>
+        <v>0.75</v>
+      </c>
+      <c r="F25" s="129"/>
+      <c r="G25" s="130"/>
+      <c r="H25" s="129"/>
+      <c r="I25" s="139">
+        <f>2*(3.3*'Main Page'!B103+471)/3</f>
+        <v>1964</v>
+      </c>
+      <c r="J25" s="132">
+        <f t="shared" si="0"/>
+        <v>0.58250000000000002</v>
+      </c>
+      <c r="K25" s="132">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="132">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="160">
+        <f>I25*(D25^2+E25^2)/8</f>
+        <v>172.6171875</v>
+      </c>
+      <c r="N25" s="160">
+        <f>I25*(D25^2+E25^2+4*C25^2/3)/16</f>
+        <v>321.98859375000001</v>
+      </c>
+      <c r="O25" s="160">
+        <f>I25*(E25^2+D25^2+4*C25^2/3)/16</f>
+        <v>321.98859375000001</v>
+      </c>
+      <c r="P25" s="160">
+        <f t="shared" si="1"/>
+        <v>56.08595601566514</v>
+      </c>
+      <c r="Q25" s="160">
+        <f t="shared" si="2"/>
+        <v>708.31271793756434</v>
+      </c>
+      <c r="R25" s="160">
+        <f t="shared" si="3"/>
+        <v>652.2267619218992</v>
+      </c>
+      <c r="S25" s="112"/>
+      <c r="T25" s="112"/>
+      <c r="U25" s="112"/>
+      <c r="V25" s="112"/>
+      <c r="W25" s="112"/>
+      <c r="X25" s="112"/>
+      <c r="Y25" s="112"/>
+    </row>
+    <row r="26" spans="1:25" ht="12.75">
+      <c r="A26" s="112"/>
+      <c r="B26" s="164" t="s">
+        <v>198</v>
+      </c>
+      <c r="C26" s="132">
+        <f>2*C21</f>
+        <v>3.262</v>
+      </c>
+      <c r="D26" s="132">
+        <f>E21</f>
+        <v>0.74560000000000004</v>
+      </c>
+      <c r="E26" s="132">
+        <f>D21</f>
+        <v>1.7475000000000001</v>
+      </c>
+      <c r="F26" s="133"/>
+      <c r="G26" s="136"/>
+      <c r="H26" s="133"/>
+      <c r="I26" s="140">
+        <f>84.1*2*C26^2</f>
+        <v>1789.7563207999999</v>
+      </c>
+      <c r="J26" s="132">
+        <f>J21</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="132">
+        <f>K21</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="132">
+        <v>0</v>
+      </c>
+      <c r="M26" s="160">
+        <f>I26*(E26^2+D26^2)/8</f>
+        <v>807.55496737938688</v>
+      </c>
+      <c r="N26" s="160">
+        <f>I26*(E26^2+D26^2+4*C26^2/3)/16</f>
+        <v>1990.7908050549097</v>
+      </c>
+      <c r="O26" s="160">
+        <f>I26*(E26^2+D26^2+4*C26^2/3)/16</f>
+        <v>1990.7908050549097</v>
+      </c>
+      <c r="P26" s="160">
+        <f t="shared" si="1"/>
+        <v>51.110078557610727</v>
+      </c>
+      <c r="Q26" s="160">
+        <f t="shared" si="2"/>
+        <v>51.179468626848795</v>
+      </c>
+      <c r="R26" s="160">
+        <f t="shared" si="3"/>
+        <v>6.9390069238066843E-2</v>
+      </c>
+      <c r="S26" s="112"/>
+      <c r="T26" s="113"/>
+      <c r="V26" s="117"/>
+      <c r="W26" s="112"/>
+      <c r="X26" s="112"/>
+      <c r="Y26" s="112"/>
+    </row>
+    <row r="27" spans="1:25" ht="12.75">
+      <c r="A27" s="112"/>
+      <c r="B27" s="164" t="s">
+        <v>199</v>
+      </c>
+      <c r="C27" s="129"/>
+      <c r="D27" s="129"/>
+      <c r="E27" s="129"/>
+      <c r="F27" s="129"/>
+      <c r="G27" s="129"/>
+      <c r="H27" s="129"/>
+      <c r="I27" s="139">
+        <f>2.6*'Main Page'!B103+0.002168*C1^3.4</f>
+        <v>3245.8576372154985</v>
+      </c>
+      <c r="J27" s="132">
+        <v>0</v>
+      </c>
+      <c r="K27" s="132">
+        <v>0</v>
+      </c>
+      <c r="L27" s="132">
+        <v>0</v>
+      </c>
+      <c r="M27" s="160">
+        <v>0</v>
+      </c>
+      <c r="N27" s="160">
+        <v>0</v>
+      </c>
+      <c r="O27" s="160">
+        <v>0</v>
+      </c>
+      <c r="P27" s="160">
+        <f t="shared" si="1"/>
+        <v>92.691969793268441</v>
+      </c>
+      <c r="Q27" s="160">
+        <f t="shared" si="2"/>
+        <v>92.817813900405127</v>
+      </c>
+      <c r="R27" s="160">
+        <f t="shared" si="3"/>
+        <v>0.12584410713667221</v>
+      </c>
+      <c r="S27" s="112"/>
+      <c r="T27" s="113"/>
+      <c r="V27" s="117"/>
+      <c r="W27" s="112"/>
+      <c r="X27" s="112"/>
+      <c r="Y27" s="112"/>
+    </row>
+    <row r="28" spans="1:25" ht="12.75">
+      <c r="A28" s="112"/>
+      <c r="B28" s="164" t="s">
+        <v>200</v>
+      </c>
+      <c r="C28" s="129"/>
+      <c r="D28" s="129"/>
+      <c r="E28" s="129"/>
+      <c r="F28" s="129"/>
+      <c r="G28" s="129"/>
+      <c r="H28" s="129"/>
+      <c r="I28" s="139">
+        <f>0.2*(I11+I25)</f>
+        <v>589.20000000000005</v>
+      </c>
+      <c r="J28" s="132">
+        <v>0</v>
+      </c>
+      <c r="K28" s="132">
+        <v>0</v>
+      </c>
+      <c r="L28" s="132">
+        <v>0</v>
+      </c>
+      <c r="M28" s="160">
+        <v>0</v>
+      </c>
+      <c r="N28" s="160">
+        <v>0</v>
+      </c>
+      <c r="O28" s="160">
+        <v>0</v>
+      </c>
+      <c r="P28" s="160">
+        <f t="shared" si="1"/>
+        <v>16.825786804699543</v>
+      </c>
+      <c r="Q28" s="160">
+        <f t="shared" si="2"/>
+        <v>16.84863048923912</v>
+      </c>
+      <c r="R28" s="160">
+        <f t="shared" si="3"/>
+        <v>2.2843684539576893E-2</v>
+      </c>
+      <c r="S28" s="112"/>
+      <c r="T28" s="113"/>
+      <c r="V28" s="117"/>
+      <c r="W28" s="112"/>
+      <c r="X28" s="112"/>
+      <c r="Y28" s="112"/>
+    </row>
+    <row r="29" spans="1:25" ht="12.75">
+      <c r="A29" s="112"/>
+      <c r="B29" s="165"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="112"/>
+      <c r="H29" s="112"/>
+      <c r="I29" s="112"/>
+      <c r="J29" s="121"/>
+      <c r="K29" s="121"/>
+      <c r="L29" s="121"/>
+      <c r="M29" s="158" t="s">
+        <v>207</v>
+      </c>
+      <c r="N29" s="158" t="s">
+        <v>208</v>
+      </c>
+      <c r="O29" s="158" t="s">
+        <v>211</v>
+      </c>
+      <c r="P29" s="112"/>
+      <c r="Q29" s="112"/>
+      <c r="R29" s="112"/>
+      <c r="S29" s="112"/>
+      <c r="T29" s="112"/>
+      <c r="U29" s="112"/>
+      <c r="V29" s="112"/>
+      <c r="W29" s="112"/>
+      <c r="X29" s="112"/>
+      <c r="Y29" s="112"/>
+    </row>
+    <row r="30" spans="1:25" ht="12.75">
+      <c r="A30" s="112"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="112"/>
+      <c r="G30" s="112"/>
+      <c r="H30" s="113" t="s">
+        <v>205</v>
+      </c>
+      <c r="I30" s="136">
+        <f>SUM(I21:I28)</f>
+        <v>15580.140251640041</v>
+      </c>
+      <c r="J30" s="132">
+        <f>SUMPRODUCT($I21:$I28,J21:J28)/SUM($I21:$I28)</f>
+        <v>6.2266106191414261E-3</v>
+      </c>
+      <c r="K30" s="132">
+        <f>SUMPRODUCT($I21:$I28,K21:K28)/SUM($I21:$I28)</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="132">
+        <f>SUMPRODUCT($I21:$I28,L21:L28)/SUM($I21:$I28)</f>
+        <v>-0.16898817734177707</v>
+      </c>
+      <c r="M30" s="160">
+        <f>SUM(M21:M28,P21:P28)</f>
+        <v>4471.0045410568418</v>
+      </c>
+      <c r="N30" s="160">
+        <f>SUM(N21:N28,Q21:Q28)</f>
+        <v>7784.0425259522517</v>
+      </c>
+      <c r="O30" s="160">
+        <f>SUM(O21:O28,R21:R28)</f>
+        <v>6732.184026764553</v>
+      </c>
+      <c r="P30" s="112"/>
+      <c r="Q30" s="112"/>
+      <c r="R30" s="112"/>
+      <c r="S30" s="112"/>
+      <c r="T30" s="112"/>
+      <c r="U30" s="112"/>
+      <c r="V30" s="112"/>
+      <c r="W30" s="112"/>
+      <c r="X30" s="112"/>
+      <c r="Y30" s="112"/>
+    </row>
+    <row r="31" spans="1:25" ht="12.75">
+      <c r="A31" s="112"/>
+      <c r="B31" s="164"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="112"/>
+      <c r="H31" s="113" t="s">
+        <v>305</v>
+      </c>
+      <c r="I31" s="136">
+        <f>SUM(I17,I30)</f>
+        <v>27524.179115374624</v>
+      </c>
+      <c r="J31" s="132">
+        <f>($I17*J17+$I30*J30)/($I17+$I30)</f>
+        <v>-0.60213368588158256</v>
+      </c>
+      <c r="K31" s="132">
+        <f>($I17*K17+$I30*K30)/($I17+$I30)</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="132">
+        <f>($I17*L17+$I30*L30)/($I17+$I30)</f>
+        <v>-9.5656240748092938E-2</v>
+      </c>
+      <c r="M31" s="112"/>
+      <c r="N31" s="112"/>
+      <c r="O31" s="112"/>
+      <c r="P31" s="112"/>
+      <c r="Q31" s="112"/>
+      <c r="R31" s="112"/>
+      <c r="S31" s="112"/>
+      <c r="T31" s="112"/>
+      <c r="U31" s="112"/>
+      <c r="V31" s="112"/>
+      <c r="W31" s="112"/>
+      <c r="X31" s="112"/>
+      <c r="Y31" s="112"/>
+    </row>
+    <row r="32" spans="1:25" ht="12.75">
+      <c r="A32" s="112"/>
+      <c r="B32" s="164"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="112"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="136"/>
+      <c r="J32" s="132"/>
+      <c r="K32" s="132"/>
+      <c r="L32" s="132"/>
+      <c r="M32" s="112"/>
+      <c r="N32" s="112"/>
+      <c r="O32" s="112"/>
+      <c r="P32" s="112"/>
+      <c r="Q32" s="112"/>
+      <c r="R32" s="112"/>
+      <c r="S32" s="112"/>
+      <c r="T32" s="112"/>
+      <c r="U32" s="112"/>
+      <c r="V32" s="112"/>
+      <c r="W32" s="112"/>
+      <c r="X32" s="112"/>
+      <c r="Y32" s="112"/>
+    </row>
+    <row r="33" spans="1:25" ht="12.75">
+      <c r="A33" s="112"/>
+      <c r="B33" s="164"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="112"/>
+      <c r="G33" s="112"/>
+      <c r="H33" s="112"/>
+      <c r="I33" s="112"/>
+      <c r="J33" s="112"/>
+      <c r="K33" s="112"/>
+      <c r="L33" s="112"/>
+      <c r="M33" s="112"/>
+      <c r="N33" s="112"/>
+      <c r="O33" s="112"/>
+      <c r="P33" s="112"/>
+      <c r="Q33" s="112"/>
+      <c r="R33" s="112"/>
+      <c r="S33" s="112"/>
+      <c r="T33" s="112"/>
+      <c r="U33" s="112"/>
+      <c r="V33" s="112"/>
+      <c r="W33" s="112"/>
+      <c r="X33" s="112"/>
+      <c r="Y33" s="112"/>
+    </row>
+    <row r="34" spans="1:25" s="112" customFormat="1" ht="12.75">
+      <c r="B34" s="165"/>
+    </row>
+    <row r="35" spans="1:25" s="112" customFormat="1" ht="12.75">
+      <c r="B35" s="164" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" s="112" customFormat="1" ht="12.75">
+      <c r="B36" s="164" t="s">
+        <v>217</v>
+      </c>
+      <c r="C36" s="151" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" s="112" customFormat="1" ht="12.75">
+      <c r="B37" s="164" t="s">
+        <v>219</v>
+      </c>
+      <c r="C37" s="112" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" s="112" customFormat="1" ht="12.75">
+      <c r="B38" s="165"/>
+    </row>
+    <row r="39" spans="1:25" s="112" customFormat="1" ht="12.75">
+      <c r="B39" s="164" t="s">
+        <v>226</v>
+      </c>
+      <c r="C39" s="112" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" s="112" customFormat="1" ht="12.75">
+      <c r="B40" s="164" t="s">
+        <v>223</v>
+      </c>
+      <c r="C40" s="112" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" s="112" customFormat="1" ht="12.75">
+      <c r="B41" s="164" t="s">
+        <v>225</v>
+      </c>
+      <c r="C41" s="112" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" s="112" customFormat="1" ht="12.75">
+      <c r="B42" s="166"/>
+    </row>
+    <row r="43" spans="1:25" s="112" customFormat="1" ht="12.75">
+      <c r="B43" s="164" t="s">
+        <v>229</v>
+      </c>
+      <c r="C43" s="112" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" s="112" customFormat="1" ht="12.75">
+      <c r="B44" s="164" t="s">
+        <v>231</v>
+      </c>
+      <c r="C44" s="112" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" s="112" customFormat="1" ht="12.75">
+      <c r="B45" s="164" t="s">
+        <v>275</v>
+      </c>
+      <c r="C45" s="112" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" s="112" customFormat="1" ht="12.75">
+      <c r="B46" s="166"/>
+    </row>
+    <row r="47" spans="1:25" s="112" customFormat="1" ht="12.75">
+      <c r="B47" s="164" t="s">
+        <v>234</v>
+      </c>
+      <c r="C47" s="114" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" s="112" customFormat="1" ht="12.75">
+      <c r="B48" s="164" t="s">
+        <v>233</v>
+      </c>
+      <c r="C48" s="112" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" s="112" customFormat="1" ht="12.75">
+      <c r="B49" s="164" t="s">
+        <v>277</v>
+      </c>
+      <c r="C49" s="112" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" s="112" customFormat="1" ht="12.75">
+      <c r="B50" s="164"/>
+    </row>
+    <row r="51" spans="2:3" s="112" customFormat="1" ht="12.75">
+      <c r="B51" s="164"/>
+    </row>
+    <row r="52" spans="2:3" s="112" customFormat="1" ht="12.75">
+      <c r="B52" s="164" t="s">
+        <v>237</v>
+      </c>
+      <c r="C52" s="112" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" s="112" customFormat="1" ht="12.75">
+      <c r="B53" s="164" t="s">
+        <v>238</v>
+      </c>
+      <c r="C53" s="112" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" s="112" customFormat="1" ht="12.75">
+      <c r="B54" s="164" t="s">
+        <v>243</v>
+      </c>
+      <c r="C54" s="112" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" s="112" customFormat="1" ht="12.75">
+      <c r="B55" s="164" t="s">
+        <v>245</v>
+      </c>
+      <c r="C55" s="112" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" s="112" customFormat="1" ht="12.75">
+      <c r="B56" s="164"/>
+    </row>
+    <row r="57" spans="2:3" s="112" customFormat="1" ht="12.75">
+      <c r="B57" s="164" t="s">
+        <v>252</v>
+      </c>
+      <c r="C57" s="112" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" s="112" customFormat="1" ht="12.75">
+      <c r="B58" s="164" t="s">
+        <v>247</v>
+      </c>
+      <c r="C58" s="112" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" s="112" customFormat="1" ht="12.75">
+      <c r="B59" s="164" t="s">
+        <v>249</v>
+      </c>
+      <c r="C59" s="112" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" s="112" customFormat="1" ht="12.75">
+      <c r="B60" s="164" t="s">
+        <v>250</v>
+      </c>
+      <c r="C60" s="112" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" s="112" customFormat="1" ht="12.75">
+      <c r="B61" s="164"/>
+    </row>
+    <row r="62" spans="2:3" s="112" customFormat="1" ht="12.75">
+      <c r="B62" s="164" t="s">
+        <v>256</v>
+      </c>
+      <c r="C62" s="112" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" s="112" customFormat="1" ht="12.75">
+      <c r="B63" s="164" t="s">
+        <v>257</v>
+      </c>
+      <c r="C63" s="112" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" s="112" customFormat="1" ht="12.75">
+      <c r="B64" s="164" t="s">
+        <v>258</v>
+      </c>
+      <c r="C64" s="112" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" s="112" customFormat="1" ht="12.75">
+      <c r="B65" s="164" t="s">
+        <v>259</v>
+      </c>
+      <c r="C65" s="112" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" s="112" customFormat="1" ht="12.75">
+      <c r="B66" s="164" t="s">
+        <v>260</v>
+      </c>
+      <c r="C66" s="112" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" s="112" customFormat="1" ht="12.75">
+      <c r="B67" s="164"/>
+    </row>
+    <row r="68" spans="2:3" s="112" customFormat="1" ht="12.75">
+      <c r="B68" s="164" t="s">
+        <v>266</v>
+      </c>
+      <c r="C68" s="112" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" s="112" customFormat="1" ht="12.75">
+      <c r="B69" s="164" t="s">
+        <v>268</v>
+      </c>
+      <c r="C69" s="112" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" s="112" customFormat="1" ht="12.75">
+      <c r="B70" s="164"/>
+    </row>
+    <row r="71" spans="2:3" s="112" customFormat="1" ht="12.75">
+      <c r="B71" s="164" t="s">
+        <v>272</v>
+      </c>
+      <c r="C71" s="112" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" s="112" customFormat="1" ht="12.75">
+      <c r="B72" s="164" t="s">
+        <v>270</v>
+      </c>
+      <c r="C72" s="112" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" s="112" customFormat="1" ht="12.75">
+      <c r="B73" s="164" t="s">
+        <v>274</v>
+      </c>
+      <c r="C73" s="112" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" s="112" customFormat="1" ht="12.75">
+      <c r="B74" s="164"/>
+    </row>
+    <row r="75" spans="2:3" s="112" customFormat="1" ht="12.75">
+      <c r="B75" s="164" t="s">
+        <v>281</v>
+      </c>
+      <c r="C75" s="112" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" s="112" customFormat="1" ht="12.75">
+      <c r="B76" s="164" t="s">
+        <v>280</v>
+      </c>
+      <c r="C76" s="112" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" s="112" customFormat="1" ht="12.75">
+      <c r="B77" s="164" t="s">
+        <v>282</v>
+      </c>
+      <c r="C77" s="112" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" s="112" customFormat="1" ht="12.75">
+      <c r="B78" s="164" t="s">
+        <v>284</v>
+      </c>
+      <c r="C78" s="112" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" s="112" customFormat="1" ht="12.75">
+      <c r="B79" s="164" t="s">
+        <v>285</v>
+      </c>
+      <c r="C79" s="112" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" s="112" customFormat="1" ht="12.75">
+      <c r="B80" s="164"/>
+    </row>
+    <row r="81" spans="2:3" s="112" customFormat="1" ht="12.75">
+      <c r="B81" s="164" t="s">
+        <v>287</v>
+      </c>
+      <c r="C81" s="112" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" s="112" customFormat="1" ht="12.75">
+      <c r="B82" s="164" t="s">
+        <v>288</v>
+      </c>
+      <c r="C82" s="112" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" s="112" customFormat="1" ht="12.75">
+      <c r="B83" s="164" t="s">
+        <v>289</v>
+      </c>
+      <c r="C83" s="112" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" s="112" customFormat="1" ht="12.75">
+      <c r="B84" s="164" t="s">
+        <v>290</v>
+      </c>
+      <c r="C84" s="112" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" s="112" customFormat="1" ht="12.75">
+      <c r="B85" s="164" t="s">
+        <v>291</v>
+      </c>
+      <c r="C85" s="112" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" s="112" customFormat="1" ht="12.75">
+      <c r="B86" s="164"/>
+    </row>
+    <row r="87" spans="2:3" s="112" customFormat="1" ht="12.75">
+      <c r="B87" s="164" t="s">
+        <v>294</v>
+      </c>
+      <c r="C87" s="112" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" s="112" customFormat="1" ht="12.75">
+      <c r="B88" s="164" t="s">
+        <v>296</v>
+      </c>
+      <c r="C88" s="112" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" s="112" customFormat="1" ht="12.75">
+      <c r="B89" s="164" t="s">
+        <v>297</v>
+      </c>
+      <c r="C89" s="112" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" s="112" customFormat="1" ht="12.75">
+      <c r="B90" s="164" t="s">
+        <v>300</v>
+      </c>
+      <c r="C90" s="112" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" s="112" customFormat="1" ht="12.75">
+      <c r="B91" s="164" t="s">
+        <v>302</v>
+      </c>
+      <c r="C91" s="112" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" s="112" customFormat="1" ht="12.75"/>
+    <row r="93" spans="2:3" s="112" customFormat="1" ht="12.75">
+      <c r="B93" s="164" t="s">
+        <v>199</v>
+      </c>
+      <c r="C93" s="112" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" s="112" customFormat="1" ht="12.75">
+      <c r="B94" s="164" t="s">
+        <v>200</v>
+      </c>
+      <c r="C94" s="112" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" s="112" customFormat="1" ht="12.75">
+      <c r="B95" s="165"/>
+    </row>
+    <row r="96" spans="2:3" ht="12.75">
+      <c r="B96" s="164" t="s">
+        <v>221</v>
+      </c>
+      <c r="C96" s="112" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="168"/>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="168"/>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="168"/>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="168"/>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="168"/>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="168"/>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="168"/>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="168"/>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="168"/>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="168"/>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="168"/>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="168"/>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="167"/>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="167"/>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="162"/>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="162"/>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="162"/>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="162"/>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="162"/>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="162"/>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="162"/>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="162"/>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="162"/>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="162"/>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="162"/>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="162"/>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="162"/>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="162"/>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="162"/>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="162"/>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="162"/>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="162"/>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="162"/>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="162"/>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="162"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D19:G19"/>
+  </mergeCells>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="48" orientation="portrait" horizontalDpi="0" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W30"/>
+  <dimension ref="A1:W26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection sqref="A1:U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -7669,752 +10219,652 @@
         <v>50</v>
       </c>
       <c r="W1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2">
-        <f>'Main Page'!B53</f>
+        <f>'Main Page'!B67</f>
         <v>2.5</v>
       </c>
       <c r="W2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="str">
-        <f>'Main Page'!C141</f>
+        <f>'Main Page'!C155</f>
         <v>cylinder</v>
       </c>
       <c r="B3" t="str">
-        <f>'Main Page'!C142</f>
+        <f>'Main Page'!C156</f>
         <v>s818_2703.dat</v>
       </c>
       <c r="C3" t="str">
-        <f>'Main Page'!C143</f>
+        <f>'Main Page'!C157</f>
         <v>s825_2103.dat</v>
       </c>
       <c r="D3" t="str">
-        <f>'Main Page'!C144</f>
+        <f>'Main Page'!C158</f>
         <v>s826_1603.dat</v>
       </c>
       <c r="W3" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4">
-        <f>'Main Page'!A148*100</f>
+        <f>'Main Page'!A162*100</f>
         <v>3.8820000000000001</v>
       </c>
       <c r="B4">
-        <f>'Main Page'!B148*100</f>
+        <f>'Main Page'!B162*100</f>
         <v>3.8820000000000001</v>
       </c>
       <c r="C4" s="103">
-        <f>'Main Page'!C148*100</f>
+        <f>'Main Page'!C162*100</f>
         <v>5.8999999999999995</v>
       </c>
-      <c r="W4" s="361" t="s">
-        <v>419</v>
+      <c r="W4" s="360" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="380">
+      <c r="A5" s="379">
         <v>0.05</v>
       </c>
-      <c r="B5" s="380">
+      <c r="B5" s="379">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C5" s="380">
+      <c r="C5" s="379">
         <v>0.1</v>
       </c>
-      <c r="D5" s="380">
+      <c r="D5" s="379">
         <v>0.15</v>
       </c>
-      <c r="E5" s="380">
+      <c r="E5" s="379">
         <v>0.2</v>
       </c>
-      <c r="F5" s="380">
+      <c r="F5" s="379">
         <v>0.25</v>
       </c>
-      <c r="G5" s="380">
+      <c r="G5" s="379">
         <v>0.3</v>
       </c>
-      <c r="H5" s="380">
+      <c r="H5" s="379">
         <v>0.35</v>
       </c>
-      <c r="I5" s="380">
+      <c r="I5" s="379">
         <v>0.4</v>
       </c>
-      <c r="J5" s="380">
+      <c r="J5" s="379">
         <v>0.45</v>
       </c>
-      <c r="K5" s="380">
+      <c r="K5" s="379">
         <v>0.5</v>
       </c>
-      <c r="L5" s="380">
+      <c r="L5" s="379">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M5" s="380">
+      <c r="M5" s="379">
         <v>0.6</v>
       </c>
-      <c r="N5" s="380">
+      <c r="N5" s="379">
         <v>0.65</v>
       </c>
-      <c r="O5" s="380">
+      <c r="O5" s="379">
         <v>0.7</v>
       </c>
-      <c r="P5" s="380">
+      <c r="P5" s="379">
         <v>0.75</v>
       </c>
-      <c r="Q5" s="380">
+      <c r="Q5" s="379">
         <v>0.8</v>
       </c>
-      <c r="R5" s="380">
+      <c r="R5" s="379">
         <v>0.85</v>
       </c>
-      <c r="S5" s="380">
+      <c r="S5" s="379">
         <v>0.9</v>
       </c>
-      <c r="T5" s="380">
+      <c r="T5" s="379">
         <v>0.95</v>
       </c>
-      <c r="U5" s="380">
+      <c r="U5" s="379">
         <v>1</v>
       </c>
-      <c r="W5" s="361" t="s">
-        <v>420</v>
+      <c r="W5" s="360" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="381">
+      <c r="A6" s="380">
         <v>0.05</v>
       </c>
-      <c r="B6" s="381">
+      <c r="B6" s="380">
         <v>0.11333333333333333</v>
       </c>
-      <c r="C6" s="381">
+      <c r="C6" s="380">
         <v>0.17666666666666664</v>
       </c>
-      <c r="D6" s="381">
+      <c r="D6" s="380">
         <v>0.24</v>
       </c>
-      <c r="E6" s="381">
+      <c r="E6" s="380">
         <v>0.30333333333333329</v>
       </c>
-      <c r="F6" s="381">
+      <c r="F6" s="380">
         <v>0.36666666666666664</v>
       </c>
-      <c r="G6" s="381">
+      <c r="G6" s="380">
         <v>0.43</v>
       </c>
-      <c r="H6" s="381">
+      <c r="H6" s="380">
         <v>0.49333333333333329</v>
       </c>
-      <c r="I6" s="381">
+      <c r="I6" s="380">
         <v>0.55666666666666664</v>
       </c>
-      <c r="J6" s="381">
+      <c r="J6" s="380">
         <v>0.62</v>
       </c>
-      <c r="K6" s="381">
+      <c r="K6" s="380">
         <v>0.68333333333333335</v>
       </c>
-      <c r="L6" s="381">
+      <c r="L6" s="380">
         <v>0.74666666666666659</v>
       </c>
-      <c r="M6" s="381">
+      <c r="M6" s="380">
         <v>0.81</v>
       </c>
-      <c r="N6" s="381">
+      <c r="N6" s="380">
         <v>0.87333333333333341</v>
       </c>
-      <c r="O6" s="381">
+      <c r="O6" s="380">
         <v>0.93666666666666665</v>
       </c>
-      <c r="P6" s="381">
+      <c r="P6" s="380">
         <v>1</v>
       </c>
       <c r="Q6" s="101"/>
-      <c r="W6" s="361" t="s">
-        <v>421</v>
+      <c r="W6" s="360" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7">
-        <f>'Main Page'!B34</f>
-        <v>2.6</v>
-      </c>
-      <c r="B7" s="382"/>
-      <c r="C7" s="382"/>
-      <c r="D7" s="382"/>
-      <c r="E7" s="382"/>
-      <c r="F7" s="382"/>
-      <c r="G7" s="382"/>
-      <c r="H7" s="382"/>
-      <c r="I7" s="382"/>
-      <c r="J7" s="382"/>
-      <c r="K7" s="382"/>
-      <c r="L7" s="382"/>
-      <c r="M7" s="382"/>
-      <c r="N7" s="382"/>
-      <c r="O7" s="382"/>
-      <c r="P7" s="382"/>
-      <c r="Q7" s="101"/>
-      <c r="W7" s="361" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="A8">
-        <f>'Main Page'!B35</f>
-        <v>90</v>
-      </c>
-      <c r="B8" s="382"/>
-      <c r="C8" s="382"/>
-      <c r="D8" s="382"/>
-      <c r="E8" s="382"/>
-      <c r="F8" s="382"/>
-      <c r="G8" s="382"/>
-      <c r="H8" s="382"/>
-      <c r="I8" s="382"/>
-      <c r="J8" s="382"/>
-      <c r="K8" s="382"/>
-      <c r="L8" s="382"/>
-      <c r="M8" s="382"/>
-      <c r="N8" s="382"/>
-      <c r="O8" s="382"/>
-      <c r="P8" s="382"/>
-      <c r="Q8" s="101"/>
-      <c r="W8" s="361" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="A9">
         <f>'Main Page'!B17</f>
         <v>1.2250000000000001</v>
       </c>
-      <c r="B9" s="382"/>
-      <c r="C9" s="382"/>
-      <c r="D9" s="382"/>
-      <c r="E9" s="382"/>
-      <c r="F9" s="382"/>
-      <c r="G9" s="382"/>
-      <c r="H9" s="382"/>
-      <c r="I9" s="382"/>
-      <c r="J9" s="382"/>
-      <c r="K9" s="382"/>
-      <c r="L9" s="382"/>
-      <c r="M9" s="382"/>
-      <c r="N9" s="382"/>
-      <c r="O9" s="382"/>
-      <c r="P9" s="382"/>
-      <c r="Q9" s="101"/>
-      <c r="W9" s="361" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10">
-        <f>'Main Page'!B39</f>
-        <v>0.45</v>
-      </c>
-      <c r="B10" s="382"/>
-      <c r="C10" s="382"/>
-      <c r="D10" s="382"/>
-      <c r="E10" s="382"/>
-      <c r="F10" s="382"/>
-      <c r="G10" s="382"/>
-      <c r="H10" s="382"/>
-      <c r="I10" s="382"/>
-      <c r="J10" s="382"/>
-      <c r="K10" s="382"/>
-      <c r="L10" s="382"/>
-      <c r="M10" s="382"/>
-      <c r="N10" s="382"/>
-      <c r="O10" s="382"/>
-      <c r="P10" s="382"/>
-      <c r="Q10" s="101"/>
-      <c r="W10" s="361" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="A11" s="383">
-        <f>'Main Page'!B40</f>
-        <v>7</v>
-      </c>
-      <c r="B11" s="382"/>
-      <c r="C11" s="382"/>
-      <c r="D11" s="382"/>
-      <c r="E11" s="382"/>
-      <c r="F11" s="382"/>
-      <c r="G11" s="382"/>
-      <c r="H11" s="382"/>
-      <c r="I11" s="382"/>
-      <c r="J11" s="382"/>
-      <c r="K11" s="382"/>
-      <c r="L11" s="382"/>
-      <c r="M11" s="382"/>
-      <c r="N11" s="382"/>
-      <c r="O11" s="382"/>
-      <c r="P11" s="382"/>
-      <c r="Q11" s="101"/>
-      <c r="W11" s="361" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="A12" s="103">
+      <c r="B7" s="381"/>
+      <c r="C7" s="381"/>
+      <c r="D7" s="381"/>
+      <c r="E7" s="381"/>
+      <c r="F7" s="381"/>
+      <c r="G7" s="381"/>
+      <c r="H7" s="381"/>
+      <c r="I7" s="381"/>
+      <c r="J7" s="381"/>
+      <c r="K7" s="381"/>
+      <c r="L7" s="381"/>
+      <c r="M7" s="381"/>
+      <c r="N7" s="381"/>
+      <c r="O7" s="381"/>
+      <c r="P7" s="381"/>
+      <c r="Q7" s="101"/>
+      <c r="W7" s="360" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="103">
         <f>'Main Page'!B16</f>
         <v>665139</v>
       </c>
-      <c r="B12" s="382"/>
-      <c r="C12" s="382"/>
-      <c r="D12" s="382"/>
-      <c r="E12" s="382"/>
-      <c r="F12" s="382"/>
-      <c r="G12" s="382"/>
-      <c r="H12" s="382"/>
-      <c r="I12" s="382"/>
-      <c r="J12" s="382"/>
-      <c r="K12" s="382"/>
-      <c r="L12" s="382"/>
-      <c r="M12" s="382"/>
-      <c r="N12" s="382"/>
-      <c r="O12" s="382"/>
-      <c r="P12" s="382"/>
-      <c r="Q12" s="101"/>
-      <c r="W12" s="361" t="s">
-        <v>461</v>
+      <c r="B8" s="381"/>
+      <c r="C8" s="381"/>
+      <c r="D8" s="381"/>
+      <c r="E8" s="381"/>
+      <c r="F8" s="381"/>
+      <c r="G8" s="381"/>
+      <c r="H8" s="381"/>
+      <c r="I8" s="381"/>
+      <c r="J8" s="381"/>
+      <c r="K8" s="381"/>
+      <c r="L8" s="381"/>
+      <c r="M8" s="381"/>
+      <c r="N8" s="381"/>
+      <c r="O8" s="381"/>
+      <c r="P8" s="381"/>
+      <c r="Q8" s="101"/>
+      <c r="W8" s="360" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="102" t="str">
+        <f>'Main Page'!A134</f>
+        <v>Station</v>
+      </c>
+      <c r="B9" s="102" t="str">
+        <f>'Main Page'!H133</f>
+        <v>Unit Weight</v>
+      </c>
+      <c r="C9" s="102" t="str">
+        <f>'Main Page'!B145</f>
+        <v>Twist</v>
+      </c>
+      <c r="D9" s="102" t="str">
+        <f>'Main Page'!L133</f>
+        <v>GJ</v>
+      </c>
+      <c r="E9" s="102" t="str">
+        <f>'Main Page'!K133</f>
+        <v>EA</v>
+      </c>
+      <c r="F9" s="102" t="str">
+        <f>'Main Page'!J133</f>
+        <v>EIEdge</v>
+      </c>
+      <c r="G9" s="102" t="str">
+        <f>'Main Page'!I133</f>
+        <v>EIFlap</v>
+      </c>
+      <c r="H9" s="102" t="str">
+        <f>'Main Page'!B133</f>
+        <v>Chord</v>
+      </c>
+      <c r="I9" s="102" t="str">
+        <f>'Main Page'!E133</f>
+        <v>Gen. Axis Loc.</v>
+      </c>
+      <c r="J9" s="102" t="str">
+        <f>'Main Page'!A154</f>
+        <v>Airfoil ID</v>
+      </c>
+      <c r="W9" s="360" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="102">
+        <f>'Main Page'!A135</f>
+        <v>0.05</v>
+      </c>
+      <c r="B10" s="102">
+        <f>'Main Page'!H135</f>
+        <v>1181.9474017501359</v>
+      </c>
+      <c r="C10" s="102">
+        <f>'Main Page'!B147 - 'Main Page'!B$152</f>
+        <v>11.1</v>
+      </c>
+      <c r="D10" s="102">
+        <f>'Main Page'!L135</f>
+        <v>815590611.695804</v>
+      </c>
+      <c r="E10" s="102">
+        <f>'Main Page'!K135</f>
+        <v>10326627046.93685</v>
+      </c>
+      <c r="F10" s="102">
+        <f>'Main Page'!J135</f>
+        <v>2362406058.2721553</v>
+      </c>
+      <c r="G10" s="102">
+        <f>'Main Page'!I135</f>
+        <v>2362406058.2721553</v>
+      </c>
+      <c r="H10" s="102">
+        <f>'Main Page'!B135</f>
+        <v>1.349657099314199</v>
+      </c>
+      <c r="I10" s="102">
+        <f>'Main Page'!E135</f>
+        <v>0.25</v>
+      </c>
+      <c r="J10" s="102">
+        <f>'Main Page'!D147</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="102">
+        <f>'Main Page'!A136</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B11" s="102">
+        <f>'Main Page'!H136</f>
+        <v>89.215305458599687</v>
+      </c>
+      <c r="C11" s="102">
+        <f>'Main Page'!B148 - 'Main Page'!B$152</f>
+        <v>11.1</v>
+      </c>
+      <c r="D11" s="102">
+        <f>'Main Page'!L136</f>
+        <v>102340392.98761402</v>
+      </c>
+      <c r="E11" s="102">
+        <f>'Main Page'!K136</f>
+        <v>1295783621.589889</v>
+      </c>
+      <c r="F11" s="102">
+        <f>'Main Page'!J136</f>
+        <v>292871613.66241747</v>
+      </c>
+      <c r="G11" s="102">
+        <f>'Main Page'!I136</f>
+        <v>292871613.66241747</v>
+      </c>
+      <c r="H11" s="102">
+        <f>'Main Page'!B136</f>
+        <v>1.3496570993141985</v>
+      </c>
+      <c r="I11" s="102">
+        <f>'Main Page'!E136</f>
+        <v>0.25</v>
+      </c>
+      <c r="J11" s="102">
+        <f>'Main Page'!D148</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="102">
+        <f>'Main Page'!A137</f>
+        <v>0.25</v>
+      </c>
+      <c r="B12" s="102">
+        <f>'Main Page'!H137</f>
+        <v>117.20845675339662</v>
+      </c>
+      <c r="C12" s="102">
+        <f>'Main Page'!B149 - 'Main Page'!B$152</f>
+        <v>11.1</v>
+      </c>
+      <c r="D12" s="102">
+        <f>'Main Page'!L137</f>
+        <v>6059831.2604694702</v>
+      </c>
+      <c r="E12" s="102">
+        <f>'Main Page'!K137</f>
+        <v>1535809947.6467729</v>
+      </c>
+      <c r="F12" s="102">
+        <f>'Main Page'!J137</f>
+        <v>192688198.09657151</v>
+      </c>
+      <c r="G12" s="102">
+        <f>'Main Page'!I137</f>
+        <v>71200412.886402056</v>
+      </c>
+      <c r="H12" s="102">
+        <f>'Main Page'!B137</f>
+        <v>2</v>
+      </c>
+      <c r="I12" s="102">
+        <f>'Main Page'!E137</f>
+        <v>0.34</v>
+      </c>
+      <c r="J12" s="102">
+        <f>'Main Page'!D149</f>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="102" t="str">
-        <f>'Main Page'!A120</f>
-        <v>Station</v>
-      </c>
-      <c r="B13" s="102" t="str">
-        <f>'Main Page'!H119</f>
-        <v>Unit Weight</v>
-      </c>
-      <c r="C13" s="102" t="str">
-        <f>'Main Page'!B131</f>
-        <v>Twist</v>
-      </c>
-      <c r="D13" s="102" t="str">
-        <f>'Main Page'!L119</f>
-        <v>GJ</v>
-      </c>
-      <c r="E13" s="102" t="str">
-        <f>'Main Page'!K119</f>
-        <v>EA</v>
-      </c>
-      <c r="F13" s="102" t="str">
-        <f>'Main Page'!J119</f>
-        <v>EIEdge</v>
-      </c>
-      <c r="G13" s="102" t="str">
-        <f>'Main Page'!I119</f>
-        <v>EIFlap</v>
-      </c>
-      <c r="H13" s="102" t="str">
-        <f>'Main Page'!B119</f>
-        <v>Chord</v>
-      </c>
-      <c r="I13" s="102" t="str">
-        <f>'Main Page'!E119</f>
-        <v>Gen. Axis Loc.</v>
-      </c>
-      <c r="J13" s="102" t="str">
-        <f>'Main Page'!A140</f>
-        <v>Airfoil ID</v>
-      </c>
-      <c r="W13" s="361" t="s">
-        <v>427</v>
+      <c r="A13" s="102">
+        <f>'Main Page'!A138</f>
+        <v>0.5</v>
+      </c>
+      <c r="B13" s="102">
+        <f>'Main Page'!H138</f>
+        <v>82.955569360022096</v>
+      </c>
+      <c r="C13" s="102">
+        <f>'Main Page'!B150 - 'Main Page'!B$152</f>
+        <v>3.1</v>
+      </c>
+      <c r="D13" s="102">
+        <f>'Main Page'!L138</f>
+        <v>2885752.229026631</v>
+      </c>
+      <c r="E13" s="102">
+        <f>'Main Page'!K138</f>
+        <v>1094705409.6217237</v>
+      </c>
+      <c r="F13" s="102">
+        <f>'Main Page'!J138</f>
+        <v>79116868.754064709</v>
+      </c>
+      <c r="G13" s="102">
+        <f>'Main Page'!I138</f>
+        <v>22286831.062062379</v>
+      </c>
+      <c r="H13" s="102">
+        <f>'Main Page'!B138</f>
+        <v>1.5334010668021336</v>
+      </c>
+      <c r="I13" s="102">
+        <f>'Main Page'!E138</f>
+        <v>0.31</v>
+      </c>
+      <c r="J13" s="102">
+        <f>'Main Page'!D150</f>
+        <v>2.5</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="102">
-        <f>'Main Page'!A121</f>
-        <v>0.05</v>
+        <f>'Main Page'!A139</f>
+        <v>0.75</v>
       </c>
       <c r="B14" s="102">
-        <f>'Main Page'!H121</f>
-        <v>1181.9474017501359</v>
+        <f>'Main Page'!H139</f>
+        <v>39.129612072462692</v>
       </c>
       <c r="C14" s="102">
-        <f>'Main Page'!B133 - 'Main Page'!B$138</f>
-        <v>11.1</v>
+        <f>'Main Page'!B151 - 'Main Page'!B$152</f>
+        <v>0.6</v>
       </c>
       <c r="D14" s="102">
-        <f>'Main Page'!L121</f>
-        <v>815590611.695804</v>
+        <f>'Main Page'!L139</f>
+        <v>574933.04560629011</v>
       </c>
       <c r="E14" s="102">
-        <f>'Main Page'!K121</f>
-        <v>10326627046.93685</v>
+        <f>'Main Page'!K139</f>
+        <v>499093273.18287331</v>
       </c>
       <c r="F14" s="102">
-        <f>'Main Page'!J121</f>
-        <v>2362406058.2721553</v>
+        <f>'Main Page'!J139</f>
+        <v>21323059.849604025</v>
       </c>
       <c r="G14" s="102">
-        <f>'Main Page'!I121</f>
-        <v>2362406058.2721553</v>
+        <f>'Main Page'!I139</f>
+        <v>3549221.9475047868</v>
       </c>
       <c r="H14" s="102">
-        <f>'Main Page'!B121</f>
-        <v>1.349657099314199</v>
+        <f>'Main Page'!B139</f>
+        <v>1.0670561341122682</v>
       </c>
       <c r="I14" s="102">
-        <f>'Main Page'!E121</f>
-        <v>0.25</v>
+        <f>'Main Page'!E139</f>
+        <v>0.28000000000000003</v>
       </c>
       <c r="J14" s="102">
-        <f>'Main Page'!D133</f>
-        <v>1</v>
+        <f>'Main Page'!D151</f>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="102">
-        <f>'Main Page'!A122</f>
-        <v>7.0000000000000007E-2</v>
+        <f>'Main Page'!A140</f>
+        <v>1</v>
       </c>
       <c r="B15" s="102">
-        <f>'Main Page'!H122</f>
-        <v>89.215305458599687</v>
+        <f>'Main Page'!H140</f>
+        <v>7.751396294306554</v>
       </c>
       <c r="C15" s="102">
-        <f>'Main Page'!B134 - 'Main Page'!B$138</f>
-        <v>11.1</v>
+        <f>'Main Page'!B152 - 'Main Page'!B$152</f>
+        <v>0</v>
       </c>
       <c r="D15" s="102">
-        <f>'Main Page'!L122</f>
-        <v>102340392.98761402</v>
+        <f>'Main Page'!L140</f>
+        <v>61146.36439630347</v>
       </c>
       <c r="E15" s="102">
-        <f>'Main Page'!K122</f>
-        <v>1295783621.589889</v>
+        <f>'Main Page'!K140</f>
+        <v>80734393.082686871</v>
       </c>
       <c r="F15" s="102">
-        <f>'Main Page'!J122</f>
-        <v>292871613.66241747</v>
+        <f>'Main Page'!J140</f>
+        <v>2702250.8204062055</v>
       </c>
       <c r="G15" s="102">
-        <f>'Main Page'!I122</f>
-        <v>292871613.66241747</v>
+        <f>'Main Page'!I140</f>
+        <v>79811.599091411103</v>
       </c>
       <c r="H15" s="102">
-        <f>'Main Page'!B122</f>
-        <v>1.3496570993141985</v>
+        <f>'Main Page'!B140</f>
+        <v>0.64719329438658879</v>
       </c>
       <c r="I15" s="102">
-        <f>'Main Page'!E122</f>
+        <f>'Main Page'!E140</f>
         <v>0.25</v>
       </c>
       <c r="J15" s="102">
-        <f>'Main Page'!D134</f>
+        <f>'Main Page'!D152</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="360" t="s">
+        <v>421</v>
+      </c>
+      <c r="B23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="A16" s="102">
-        <f>'Main Page'!A123</f>
-        <v>0.25</v>
-      </c>
-      <c r="B16" s="102">
-        <f>'Main Page'!H123</f>
-        <v>117.20845675339662</v>
-      </c>
-      <c r="C16" s="102">
-        <f>'Main Page'!B135 - 'Main Page'!B$138</f>
-        <v>11.1</v>
-      </c>
-      <c r="D16" s="102">
-        <f>'Main Page'!L123</f>
-        <v>6059831.2604694702</v>
-      </c>
-      <c r="E16" s="102">
-        <f>'Main Page'!K123</f>
-        <v>1535809947.6467729</v>
-      </c>
-      <c r="F16" s="102">
-        <f>'Main Page'!J123</f>
-        <v>192688198.09657151</v>
-      </c>
-      <c r="G16" s="102">
-        <f>'Main Page'!I123</f>
-        <v>71200412.886402056</v>
-      </c>
-      <c r="H16" s="102">
-        <f>'Main Page'!B123</f>
+      <c r="C24">
         <v>2</v>
       </c>
-      <c r="I16" s="102">
-        <f>'Main Page'!E123</f>
-        <v>0.34</v>
-      </c>
-      <c r="J16" s="102">
-        <f>'Main Page'!D135</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="102">
-        <f>'Main Page'!A124</f>
-        <v>0.5</v>
-      </c>
-      <c r="B17" s="102">
-        <f>'Main Page'!H124</f>
-        <v>82.955569360022096</v>
-      </c>
-      <c r="C17" s="102">
-        <f>'Main Page'!B136 - 'Main Page'!B$138</f>
-        <v>3.1</v>
-      </c>
-      <c r="D17" s="102">
-        <f>'Main Page'!L124</f>
-        <v>2885752.229026631</v>
-      </c>
-      <c r="E17" s="102">
-        <f>'Main Page'!K124</f>
-        <v>1094705409.6217237</v>
-      </c>
-      <c r="F17" s="102">
-        <f>'Main Page'!J124</f>
-        <v>79116868.754064709</v>
-      </c>
-      <c r="G17" s="102">
-        <f>'Main Page'!I124</f>
-        <v>22286831.062062379</v>
-      </c>
-      <c r="H17" s="102">
-        <f>'Main Page'!B124</f>
-        <v>1.5334010668021336</v>
-      </c>
-      <c r="I17" s="102">
-        <f>'Main Page'!E124</f>
-        <v>0.31</v>
-      </c>
-      <c r="J17" s="102">
-        <f>'Main Page'!D136</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="102">
-        <f>'Main Page'!A125</f>
-        <v>0.75</v>
-      </c>
-      <c r="B18" s="102">
-        <f>'Main Page'!H125</f>
-        <v>39.129612072462692</v>
-      </c>
-      <c r="C18" s="102">
-        <f>'Main Page'!B137 - 'Main Page'!B$138</f>
-        <v>0.6</v>
-      </c>
-      <c r="D18" s="102">
-        <f>'Main Page'!L125</f>
-        <v>574933.04560629011</v>
-      </c>
-      <c r="E18" s="102">
-        <f>'Main Page'!K125</f>
-        <v>499093273.18287331</v>
-      </c>
-      <c r="F18" s="102">
-        <f>'Main Page'!J125</f>
-        <v>21323059.849604025</v>
-      </c>
-      <c r="G18" s="102">
-        <f>'Main Page'!I125</f>
-        <v>3549221.9475047868</v>
-      </c>
-      <c r="H18" s="102">
-        <f>'Main Page'!B125</f>
-        <v>1.0670561341122682</v>
-      </c>
-      <c r="I18" s="102">
-        <f>'Main Page'!E125</f>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="J18" s="102">
-        <f>'Main Page'!D137</f>
+      <c r="D24">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="102">
-        <f>'Main Page'!A126</f>
-        <v>1</v>
-      </c>
-      <c r="B19" s="102">
-        <f>'Main Page'!H126</f>
-        <v>7.751396294306554</v>
-      </c>
-      <c r="C19" s="102">
-        <f>'Main Page'!B138 - 'Main Page'!B$138</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="102">
-        <f>'Main Page'!L126</f>
-        <v>61146.36439630347</v>
-      </c>
-      <c r="E19" s="102">
-        <f>'Main Page'!K126</f>
-        <v>80734393.082686871</v>
-      </c>
-      <c r="F19" s="102">
-        <f>'Main Page'!J126</f>
-        <v>2702250.8204062055</v>
-      </c>
-      <c r="G19" s="102">
-        <f>'Main Page'!I126</f>
-        <v>79811.599091411103</v>
-      </c>
-      <c r="H19" s="102">
-        <f>'Main Page'!B126</f>
-        <v>0.64719329438658879</v>
-      </c>
-      <c r="I19" s="102">
-        <f>'Main Page'!E126</f>
-        <v>0.25</v>
-      </c>
-      <c r="J19" s="102">
-        <f>'Main Page'!D138</f>
+      <c r="E24">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="361" t="s">
-        <v>428</v>
-      </c>
-      <c r="B27">
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <v>7</v>
+      </c>
+      <c r="I24">
+        <v>8</v>
+      </c>
+      <c r="J24">
+        <v>9</v>
+      </c>
+      <c r="K24">
+        <v>10</v>
+      </c>
+      <c r="L24">
+        <v>11</v>
+      </c>
+      <c r="M24">
+        <v>12</v>
+      </c>
+      <c r="N24">
+        <v>13</v>
+      </c>
+      <c r="O24">
+        <v>14</v>
+      </c>
+      <c r="P24">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
-      <c r="A28">
-        <v>0</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-      <c r="E28">
-        <v>4</v>
-      </c>
-      <c r="F28">
-        <v>5</v>
-      </c>
-      <c r="G28">
-        <v>6</v>
-      </c>
-      <c r="H28">
-        <v>7</v>
-      </c>
-      <c r="I28">
-        <v>8</v>
-      </c>
-      <c r="J28">
-        <v>9</v>
-      </c>
-      <c r="K28">
-        <v>10</v>
-      </c>
-      <c r="L28">
-        <v>11</v>
-      </c>
-      <c r="M28">
-        <v>12</v>
-      </c>
-      <c r="N28">
-        <v>13</v>
-      </c>
-      <c r="O28">
-        <v>14</v>
-      </c>
-      <c r="P28">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29">
-        <f>A28/$B$27*0.95+0.05</f>
+    <row r="25" spans="1:16">
+      <c r="A25">
+        <f>A24/$B$23*0.95+0.05</f>
         <v>0.05</v>
       </c>
-      <c r="B29">
-        <f t="shared" ref="B29:P29" si="0">B28/$B$27*0.95+0.05</f>
+      <c r="B25">
+        <f t="shared" ref="B25:P25" si="0">B24/$B$23*0.95+0.05</f>
         <v>0.11333333333333333</v>
       </c>
-      <c r="C29">
+      <c r="C25">
         <f t="shared" si="0"/>
         <v>0.17666666666666664</v>
       </c>
-      <c r="D29">
+      <c r="D25">
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
-      <c r="E29">
+      <c r="E25">
         <f t="shared" si="0"/>
         <v>0.30333333333333329</v>
       </c>
-      <c r="F29">
+      <c r="F25">
         <f t="shared" si="0"/>
         <v>0.36666666666666664</v>
       </c>
-      <c r="G29">
+      <c r="G25">
         <f t="shared" si="0"/>
         <v>0.43</v>
       </c>
-      <c r="H29">
+      <c r="H25">
         <f t="shared" si="0"/>
         <v>0.49333333333333329</v>
       </c>
-      <c r="I29">
+      <c r="I25">
         <f t="shared" si="0"/>
         <v>0.55666666666666664</v>
       </c>
-      <c r="J29">
+      <c r="J25">
         <f t="shared" si="0"/>
         <v>0.62</v>
       </c>
-      <c r="K29">
+      <c r="K25">
         <f t="shared" si="0"/>
         <v>0.68333333333333335</v>
       </c>
-      <c r="L29">
+      <c r="L25">
         <f t="shared" si="0"/>
         <v>0.74666666666666659</v>
       </c>
-      <c r="M29">
+      <c r="M25">
         <f t="shared" si="0"/>
         <v>0.81</v>
       </c>
-      <c r="N29">
+      <c r="N25">
         <f t="shared" si="0"/>
         <v>0.87333333333333341</v>
       </c>
-      <c r="O29">
+      <c r="O25">
         <f t="shared" si="0"/>
         <v>0.93666666666666665</v>
       </c>
-      <c r="P29">
+      <c r="P25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
-      <c r="A30">
-        <f>A28/$B27</f>
+    <row r="26" spans="1:16">
+      <c r="A26">
+        <f>A24/$B23</f>
         <v>0</v>
       </c>
     </row>
@@ -8428,7 +10878,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -8438,11 +10888,11 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <f>'Main Page'!B83</f>
+        <f>'Main Page'!B97</f>
         <v>75</v>
       </c>
       <c r="E1" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -8451,16 +10901,16 @@
         <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="102">
-        <f>'Main Page'!B58</f>
+        <f>'Main Page'!B72</f>
         <v>-2.33</v>
       </c>
       <c r="E3" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -8477,7 +10927,7 @@
         <v>-0.16898817734177707</v>
       </c>
       <c r="E4" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8494,7 +10944,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -8511,7 +10961,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -8520,7 +10970,7 @@
         <v>-5</v>
       </c>
       <c r="E7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -8528,8 +10978,8 @@
         <f>'Main Page'!E5</f>
         <v>15580.140251640041</v>
       </c>
-      <c r="E8" s="361" t="s">
-        <v>436</v>
+      <c r="E8" s="360" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -8537,8 +10987,8 @@
         <f>'Main Page'!E6</f>
         <v>1131.2074102368219</v>
       </c>
-      <c r="E9" s="361" t="s">
-        <v>437</v>
+      <c r="E9" s="360" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -8546,8 +10996,8 @@
         <f>'Main Page'!E7</f>
         <v>4238.8965977950375</v>
       </c>
-      <c r="E10" s="361" t="s">
-        <v>438</v>
+      <c r="E10" s="360" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -8556,7 +11006,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -8565,7 +11015,7 @@
         <v>6573.9348557027251</v>
       </c>
       <c r="E12" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -8574,7 +11024,7 @@
         <v>8623.1244137844569</v>
       </c>
       <c r="E13" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -8583,16 +11033,16 @@
         <v>5160.9544585651756</v>
       </c>
       <c r="E14" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="103">
-        <f>'Main Page'!B84</f>
+        <f>'Main Page'!B98</f>
         <v>1800</v>
       </c>
       <c r="E15" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -8601,7 +11051,7 @@
         <v>129646444.93189973</v>
       </c>
       <c r="E16" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -8610,16 +11060,16 @@
         <v>0.95</v>
       </c>
       <c r="E17" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="333">
-        <f>'Main Page'!B89*1000</f>
+        <f>'Main Page'!B103*1000</f>
         <v>750000</v>
       </c>
-      <c r="E18" s="361" t="s">
-        <v>446</v>
+      <c r="E18" s="360" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -8627,8 +11077,8 @@
         <f>SUM(GECdrivetrain!M11:'GECdrivetrain'!M12)</f>
         <v>65735.985618380335</v>
       </c>
-      <c r="E19" s="361" t="s">
-        <v>447</v>
+      <c r="E19" s="360" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -8636,8 +11086,8 @@
         <f>'Main Page'!B15/100</f>
         <v>0.05</v>
       </c>
-      <c r="E20" s="361" t="s">
-        <v>463</v>
+      <c r="E20" s="360" t="s">
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -8650,7 +11100,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection sqref="A1:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -8659,57 +11109,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="384">
-        <f>'Main Page'!B43</f>
+      <c r="A1" s="382">
+        <f>'Main Page'!B57</f>
         <v>1.33</v>
       </c>
-      <c r="L1" s="361" t="s">
-        <v>448</v>
+      <c r="L1" s="360" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="384">
-        <f>'Main Page'!B44</f>
+      <c r="A2" s="382">
+        <f>'Main Page'!B58</f>
         <v>2</v>
       </c>
-      <c r="L2" s="361" t="s">
-        <v>449</v>
+      <c r="L2" s="360" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="384">
-        <f>'Main Page'!B45/1000</f>
+      <c r="A3" s="382">
+        <f>'Main Page'!B59/1000</f>
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="L3" s="361" t="s">
-        <v>450</v>
+      <c r="L3" s="360" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="384">
-        <f>'Main Page'!B46</f>
+      <c r="A4" s="382">
+        <f>'Main Page'!B60</f>
         <v>3.75</v>
       </c>
-      <c r="L4" s="361" t="s">
-        <v>451</v>
+      <c r="L4" s="360" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="384">
-        <f>'Main Page'!B47/1000</f>
+      <c r="A5" s="382">
+        <f>'Main Page'!B61/1000</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="L5" s="361" t="s">
-        <v>452</v>
+      <c r="L5" s="360" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="384">
-        <f>'Main Page'!B48/100</f>
+      <c r="A6" s="382">
+        <f>'Main Page'!B62/100</f>
         <v>0.05</v>
       </c>
-      <c r="L6" s="361" t="s">
-        <v>453</v>
+      <c r="L6" s="360" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -8717,8 +11167,8 @@
         <f>GECtwrdata!F5</f>
         <v>7850</v>
       </c>
-      <c r="L7" s="361" t="s">
-        <v>454</v>
+      <c r="L7" s="360" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -8726,8 +11176,8 @@
         <f>GECtwrdata!F6</f>
         <v>200000000000</v>
       </c>
-      <c r="L8" s="361" t="s">
-        <v>455</v>
+      <c r="L8" s="360" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -8735,74 +11185,74 @@
         <f>GECtwrdata!F7</f>
         <v>76923076923.07692</v>
       </c>
-      <c r="L9" s="361" t="s">
-        <v>456</v>
+      <c r="L9" s="360" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="380">
+      <c r="A10" s="379">
         <f>0/9</f>
         <v>0</v>
       </c>
-      <c r="B10" s="380">
+      <c r="B10" s="379">
         <f>1/9</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="C10" s="380">
+      <c r="C10" s="379">
         <f>2/9</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="D10" s="380">
+      <c r="D10" s="379">
         <f>3/9</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E10" s="380">
+      <c r="E10" s="379">
         <f>4/9</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="F10" s="380">
+      <c r="F10" s="379">
         <f>5/9</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="G10" s="380">
+      <c r="G10" s="379">
         <f>6/9</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="H10" s="380">
+      <c r="H10" s="379">
         <f>7/9</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="I10" s="380">
+      <c r="I10" s="379">
         <f>8/9</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="J10" s="380">
+      <c r="J10" s="379">
         <f>9/9</f>
         <v>1</v>
       </c>
-      <c r="L10" s="361" t="s">
-        <v>457</v>
+      <c r="L10" s="360" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="103">
-        <f>'Main Page'!B151*100</f>
+        <f>'Main Page'!B165*100</f>
         <v>3.4350000000000001</v>
       </c>
       <c r="B11" s="103">
-        <f>'Main Page'!B152*100</f>
+        <f>'Main Page'!B166*100</f>
         <v>3.4350000000000001</v>
       </c>
       <c r="C11" s="103">
-        <f>'Main Page'!B153*100</f>
+        <f>'Main Page'!B167*100</f>
         <v>3.4350000000000001</v>
       </c>
       <c r="D11" s="103">
-        <f>'Main Page'!B154*100</f>
+        <f>'Main Page'!B168*100</f>
         <v>3.4350000000000001</v>
       </c>
-      <c r="L11" s="361" t="s">
-        <v>458</v>
+      <c r="L11" s="360" t="s">
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -8811,6 +11261,199 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="404">
+        <f>'Main Page'!B34*2*PI()/360</f>
+        <v>4.5378560551852569E-2</v>
+      </c>
+      <c r="B1" s="381"/>
+      <c r="C1" s="381"/>
+      <c r="D1" s="360" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="404">
+        <f>'Main Page'!B35*2*PI()/360</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="B2" s="381"/>
+      <c r="C2" s="381"/>
+      <c r="D2" s="360" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="404">
+        <f>'Main Page'!B36*2*PI()/360</f>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="D3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="404">
+        <f>'Main Page'!B37/6/'Main Page'!B$99</f>
+        <v>1.36342734582057E-2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="404">
+        <f>'Main Page'!B38/6/'Main Page'!B$99</f>
+        <v>5.8887328944001284E-3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="404">
+        <f>'Main Page'!B39/6/'Main Page'!B$99</f>
+        <v>7.5863856207136781E-5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="404">
+        <f>'Main Page'!B40*2*PI()</f>
+        <v>3.9269908169872414</v>
+      </c>
+      <c r="D7" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="404">
+        <f>'Main Page'!B41*2*PI()/360</f>
+        <v>4.5378560551852569E-2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="404">
+        <f>'Main Page'!B42*2*PI()/360</f>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="D9" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="404">
+        <f>'Main Page'!B43</f>
+        <v>-0.5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="404">
+        <f>'Main Page'!B44</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="404">
+        <f>'Main Page'!B47</f>
+        <v>1.25E-3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="404">
+        <f>'Main Page'!B48</f>
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="102">
+        <f>'Main Page'!B49</f>
+        <v>15000</v>
+      </c>
+      <c r="D14" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="406">
+        <f>'Main Page'!B50</f>
+        <v>1.2926814741057128E-3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="405">
+        <f>'Main Page'!B51</f>
+        <v>4607.1167737127607</v>
+      </c>
+      <c r="D16" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="102">
+        <f>'Main Page'!B52</f>
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="102">
+        <f>'Main Page'!B53</f>
+        <v>3.6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="102">
+        <f>'Main Page'!B54</f>
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -9601,7 +12244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -11815,7 +14458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -11936,330 +14579,330 @@
     </row>
     <row r="5" spans="2:21">
       <c r="B5" s="200">
-        <f>'Main Page'!A121</f>
+        <f>'Main Page'!A135</f>
         <v>0.05</v>
       </c>
       <c r="C5" s="201">
-        <f>'Main Page'!B121</f>
+        <f>'Main Page'!B135</f>
         <v>1.349657099314199</v>
       </c>
       <c r="D5" s="202">
-        <f>'Main Page'!C121</f>
+        <f>'Main Page'!C135</f>
         <v>1</v>
       </c>
       <c r="E5" s="202" t="str">
-        <f>'Main Page'!D121</f>
+        <f>'Main Page'!D135</f>
         <v>NA</v>
       </c>
       <c r="F5" s="203">
-        <f>'Main Page'!E121</f>
+        <f>'Main Page'!E135</f>
         <v>0.25</v>
       </c>
       <c r="G5" s="201">
-        <f>'Main Page'!F121</f>
+        <f>'Main Page'!F135</f>
         <v>0.5</v>
       </c>
       <c r="H5" s="201">
-        <f>'Main Page'!G121</f>
+        <f>'Main Page'!G135</f>
         <v>0.5</v>
       </c>
       <c r="I5" s="204">
-        <f>'Main Page'!H121</f>
+        <f>'Main Page'!H135</f>
         <v>1181.9474017501359</v>
       </c>
       <c r="J5" s="205">
-        <f>'Main Page'!I121</f>
+        <f>'Main Page'!I135</f>
         <v>2362406058.2721553</v>
       </c>
       <c r="K5" s="205">
-        <f>'Main Page'!J121</f>
+        <f>'Main Page'!J135</f>
         <v>2362406058.2721553</v>
       </c>
       <c r="L5" s="205">
-        <f>'Main Page'!K121</f>
+        <f>'Main Page'!K135</f>
         <v>10326627046.93685</v>
       </c>
       <c r="M5" s="205">
-        <f>'Main Page'!L121</f>
+        <f>'Main Page'!L135</f>
         <v>815590611.695804</v>
       </c>
       <c r="N5" s="206">
-        <f>'Main Page'!M121</f>
+        <f>'Main Page'!M135</f>
         <v>538.24909552528584</v>
       </c>
       <c r="P5" s="103"/>
     </row>
     <row r="6" spans="2:21">
       <c r="B6" s="207">
-        <f>'Main Page'!A122</f>
+        <f>'Main Page'!A136</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C6" s="208">
-        <f>'Main Page'!B122</f>
+        <f>'Main Page'!B136</f>
         <v>1.3496570993141985</v>
       </c>
       <c r="D6" s="209">
-        <f>'Main Page'!C122</f>
+        <f>'Main Page'!C136</f>
         <v>1</v>
       </c>
       <c r="E6" s="209" t="str">
-        <f>'Main Page'!D122</f>
+        <f>'Main Page'!D136</f>
         <v>NA</v>
       </c>
       <c r="F6" s="203">
-        <f>'Main Page'!E122</f>
+        <f>'Main Page'!E136</f>
         <v>0.25</v>
       </c>
       <c r="G6" s="208">
-        <f>'Main Page'!F122</f>
+        <f>'Main Page'!F136</f>
         <v>0.5</v>
       </c>
       <c r="H6" s="208">
-        <f>'Main Page'!G122</f>
+        <f>'Main Page'!G136</f>
         <v>0.5</v>
       </c>
       <c r="I6" s="210">
-        <f>'Main Page'!H122</f>
+        <f>'Main Page'!H136</f>
         <v>89.215305458599687</v>
       </c>
       <c r="J6" s="211">
-        <f>'Main Page'!I122</f>
+        <f>'Main Page'!I136</f>
         <v>292871613.66241747</v>
       </c>
       <c r="K6" s="211">
-        <f>'Main Page'!J122</f>
+        <f>'Main Page'!J136</f>
         <v>292871613.66241747</v>
       </c>
       <c r="L6" s="211">
-        <f>'Main Page'!K122</f>
+        <f>'Main Page'!K136</f>
         <v>1295783621.589889</v>
       </c>
       <c r="M6" s="211">
-        <f>'Main Page'!L122</f>
+        <f>'Main Page'!L136</f>
         <v>102340392.98761402</v>
       </c>
       <c r="N6" s="212">
-        <f>'Main Page'!M122</f>
+        <f>'Main Page'!M136</f>
         <v>40.627914067071856</v>
       </c>
       <c r="P6" s="103"/>
     </row>
     <row r="7" spans="2:21">
       <c r="B7" s="197">
-        <f>'Main Page'!A123</f>
+        <f>'Main Page'!A137</f>
         <v>0.25</v>
       </c>
       <c r="C7" s="208">
-        <f>'Main Page'!B123</f>
+        <f>'Main Page'!B137</f>
         <v>2</v>
       </c>
       <c r="D7" s="209">
-        <f>'Main Page'!C123</f>
+        <f>'Main Page'!C137</f>
         <v>0.27</v>
       </c>
       <c r="E7" s="209">
-        <f>'Main Page'!D123</f>
+        <f>'Main Page'!D137</f>
         <v>5.7408195699863462</v>
       </c>
       <c r="F7" s="203">
-        <f>'Main Page'!E123</f>
+        <f>'Main Page'!E137</f>
         <v>0.34</v>
       </c>
       <c r="G7" s="208">
-        <f>'Main Page'!F123</f>
+        <f>'Main Page'!F137</f>
         <v>0.38431406494974252</v>
       </c>
       <c r="H7" s="208">
-        <f>'Main Page'!G123</f>
+        <f>'Main Page'!G137</f>
         <v>0.32303333404645607</v>
       </c>
       <c r="I7" s="210">
-        <f>'Main Page'!H123</f>
+        <f>'Main Page'!H137</f>
         <v>117.20845675339662</v>
       </c>
       <c r="J7" s="211">
-        <f>'Main Page'!I123</f>
+        <f>'Main Page'!I137</f>
         <v>71200412.886402056</v>
       </c>
       <c r="K7" s="211">
-        <f>'Main Page'!J123</f>
+        <f>'Main Page'!J137</f>
         <v>192688198.09657151</v>
       </c>
       <c r="L7" s="198">
-        <f>'Main Page'!K123</f>
+        <f>'Main Page'!K137</f>
         <v>1535809947.6467729</v>
       </c>
       <c r="M7" s="198">
-        <f>'Main Page'!L123</f>
+        <f>'Main Page'!L137</f>
         <v>6059831.2604694702</v>
       </c>
       <c r="N7" s="213">
-        <f>'Main Page'!M123</f>
+        <f>'Main Page'!M137</f>
         <v>24.149591455091301</v>
       </c>
       <c r="P7" s="103"/>
     </row>
     <row r="8" spans="2:21">
       <c r="B8" s="197">
-        <f>'Main Page'!A124</f>
+        <f>'Main Page'!A138</f>
         <v>0.5</v>
       </c>
       <c r="C8" s="208">
-        <f>'Main Page'!B124</f>
+        <f>'Main Page'!B138</f>
         <v>1.5334010668021336</v>
       </c>
       <c r="D8" s="214">
-        <f>'Main Page'!C124</f>
+        <f>'Main Page'!C138</f>
         <v>0.24</v>
       </c>
       <c r="E8" s="209">
-        <f>'Main Page'!D124</f>
+        <f>'Main Page'!D138</f>
         <v>7.8774986568807996</v>
       </c>
       <c r="F8" s="203">
-        <f>'Main Page'!E124</f>
+        <f>'Main Page'!E138</f>
         <v>0.31</v>
       </c>
       <c r="G8" s="208">
-        <f>'Main Page'!F124</f>
+        <f>'Main Page'!F138</f>
         <v>0.37966131849299201</v>
       </c>
       <c r="H8" s="208">
-        <f>'Main Page'!G124</f>
+        <f>'Main Page'!G138</f>
         <v>0.32331172392666518</v>
       </c>
       <c r="I8" s="210">
-        <f>'Main Page'!H124</f>
+        <f>'Main Page'!H138</f>
         <v>82.955569360022096</v>
       </c>
       <c r="J8" s="211">
-        <f>'Main Page'!I124</f>
+        <f>'Main Page'!I138</f>
         <v>22286831.062062379</v>
       </c>
       <c r="K8" s="211">
-        <f>'Main Page'!J124</f>
+        <f>'Main Page'!J138</f>
         <v>79116868.754064709</v>
       </c>
       <c r="L8" s="198">
-        <f>'Main Page'!K124</f>
+        <f>'Main Page'!K138</f>
         <v>1094705409.6217237</v>
       </c>
       <c r="M8" s="198">
-        <f>'Main Page'!L124</f>
+        <f>'Main Page'!L138</f>
         <v>2885752.229026631</v>
       </c>
       <c r="N8" s="213">
-        <f>'Main Page'!M124</f>
+        <f>'Main Page'!M138</f>
         <v>9.0573611452431102</v>
       </c>
       <c r="P8" s="103"/>
     </row>
     <row r="9" spans="2:21">
       <c r="B9" s="197">
-        <f>'Main Page'!A125</f>
+        <f>'Main Page'!A139</f>
         <v>0.75</v>
       </c>
       <c r="C9" s="208">
-        <f>'Main Page'!B125</f>
+        <f>'Main Page'!B139</f>
         <v>1.0670561341122682</v>
       </c>
       <c r="D9" s="214">
-        <f>'Main Page'!C125</f>
+        <f>'Main Page'!C139</f>
         <v>0.21</v>
       </c>
       <c r="E9" s="209">
-        <f>'Main Page'!D125</f>
+        <f>'Main Page'!D139</f>
         <v>7.6422364536705301</v>
       </c>
       <c r="F9" s="203">
-        <f>'Main Page'!E125</f>
+        <f>'Main Page'!E139</f>
         <v>0.28000000000000003</v>
       </c>
       <c r="G9" s="208">
-        <f>'Main Page'!F125</f>
+        <f>'Main Page'!F139</f>
         <v>0.39262047257690491</v>
       </c>
       <c r="H9" s="208">
-        <f>'Main Page'!G125</f>
+        <f>'Main Page'!G139</f>
         <v>0.32643878406891619</v>
       </c>
       <c r="I9" s="210">
-        <f>'Main Page'!H125</f>
+        <f>'Main Page'!H139</f>
         <v>39.129612072462692</v>
       </c>
       <c r="J9" s="211">
-        <f>'Main Page'!I125</f>
+        <f>'Main Page'!I139</f>
         <v>3549221.9475047868</v>
       </c>
       <c r="K9" s="211">
-        <f>'Main Page'!J125</f>
+        <f>'Main Page'!J139</f>
         <v>21323059.849604025</v>
       </c>
       <c r="L9" s="198">
-        <f>'Main Page'!K125</f>
+        <f>'Main Page'!K139</f>
         <v>499093273.18287331</v>
       </c>
       <c r="M9" s="198">
-        <f>'Main Page'!L125</f>
+        <f>'Main Page'!L139</f>
         <v>574933.04560629011</v>
       </c>
       <c r="N9" s="213">
-        <f>'Main Page'!M125</f>
+        <f>'Main Page'!M139</f>
         <v>2.2054187533799334</v>
       </c>
       <c r="P9" s="103"/>
     </row>
     <row r="10" spans="2:21">
       <c r="B10" s="215">
-        <f>'Main Page'!A126</f>
+        <f>'Main Page'!A140</f>
         <v>1</v>
       </c>
       <c r="C10" s="216">
-        <f>'Main Page'!B126</f>
+        <f>'Main Page'!B140</f>
         <v>0.64719329438658879</v>
       </c>
       <c r="D10" s="217">
-        <f>'Main Page'!C126</f>
+        <f>'Main Page'!C140</f>
         <v>0.16</v>
       </c>
       <c r="E10" s="217">
-        <f>'Main Page'!D126</f>
+        <f>'Main Page'!D140</f>
         <v>0</v>
       </c>
       <c r="F10" s="216">
-        <f>'Main Page'!E126</f>
+        <f>'Main Page'!E140</f>
         <v>0.25</v>
       </c>
       <c r="G10" s="216">
-        <f>'Main Page'!F126</f>
+        <f>'Main Page'!F140</f>
         <v>0.49249999999999999</v>
       </c>
       <c r="H10" s="216">
-        <f>'Main Page'!G126</f>
+        <f>'Main Page'!G140</f>
         <v>0.35780000000000001</v>
       </c>
       <c r="I10" s="218">
-        <f>'Main Page'!H126</f>
+        <f>'Main Page'!H140</f>
         <v>7.751396294306554</v>
       </c>
       <c r="J10" s="219">
-        <f>'Main Page'!I126</f>
+        <f>'Main Page'!I140</f>
         <v>79811.599091411103</v>
       </c>
       <c r="K10" s="219">
-        <f>'Main Page'!J126</f>
+        <f>'Main Page'!J140</f>
         <v>2702250.8204062055</v>
       </c>
       <c r="L10" s="220">
-        <f>'Main Page'!K126</f>
+        <f>'Main Page'!K140</f>
         <v>80734393.082686871</v>
       </c>
       <c r="M10" s="220">
-        <f>'Main Page'!L126</f>
+        <f>'Main Page'!L140</f>
         <v>61146.36439630347</v>
       </c>
       <c r="N10" s="221">
-        <f>'Main Page'!M126</f>
+        <f>'Main Page'!M140</f>
         <v>0.25688857997871806</v>
       </c>
       <c r="P10" s="103"/>
@@ -12303,7 +14946,7 @@
         <v>353</v>
       </c>
       <c r="D13" s="228">
-        <f>'Main Page'!B53/2</f>
+        <f>'Main Page'!B67/2</f>
         <v>1.25</v>
       </c>
       <c r="E13" s="226" t="s">
@@ -12470,7 +15113,7 @@
         <v>1181.9474017501359</v>
       </c>
       <c r="E18" s="238">
-        <f>N5*'Main Page'!C$128/('Main Page'!C$128+1)</f>
+        <f>N5*'Main Page'!C$142/('Main Page'!C$142+1)</f>
         <v>0</v>
       </c>
       <c r="F18" s="238">
@@ -12492,7 +15135,7 @@
         <v>0.33741427482854974</v>
       </c>
       <c r="K18" s="238">
-        <f>'Main Page'!B133-'Main Page'!B$138</f>
+        <f>'Main Page'!B147-'Main Page'!B$152</f>
         <v>11.1</v>
       </c>
       <c r="L18" s="240">
@@ -12519,7 +15162,7 @@
         <v>0</v>
       </c>
       <c r="R18" s="262">
-        <f>'Main Page'!D133</f>
+        <f>'Main Page'!D147</f>
         <v>1</v>
       </c>
       <c r="S18" s="108"/>
@@ -12540,7 +15183,7 @@
         <v>89.215305458599687</v>
       </c>
       <c r="E19" s="243">
-        <f>N6*'Main Page'!C$128/('Main Page'!C$128+1)</f>
+        <f>N6*'Main Page'!C$142/('Main Page'!C$142+1)</f>
         <v>0</v>
       </c>
       <c r="F19" s="243">
@@ -12562,7 +15205,7 @@
         <v>0.33741427482854963</v>
       </c>
       <c r="K19" s="243">
-        <f>'Main Page'!B134-'Main Page'!B$138</f>
+        <f>'Main Page'!B148-'Main Page'!B$152</f>
         <v>11.1</v>
       </c>
       <c r="L19" s="246">
@@ -12589,7 +15232,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="260">
-        <f>'Main Page'!D134</f>
+        <f>'Main Page'!D148</f>
         <v>1</v>
       </c>
       <c r="S19" s="108"/>
@@ -12610,7 +15253,7 @@
         <v>117.20845675339662</v>
       </c>
       <c r="E20" s="243">
-        <f>N7*'Main Page'!C$128/('Main Page'!C$128+1)</f>
+        <f>N7*'Main Page'!C$142/('Main Page'!C$142+1)</f>
         <v>0</v>
       </c>
       <c r="F20" s="243">
@@ -12632,7 +15275,7 @@
         <v>-3.3933331907087916E-2</v>
       </c>
       <c r="K20" s="243">
-        <f>'Main Page'!B135-'Main Page'!B$138</f>
+        <f>'Main Page'!B149-'Main Page'!B$152</f>
         <v>11.1</v>
       </c>
       <c r="L20" s="246">
@@ -12660,7 +15303,7 @@
         <v>-0.18000000000000005</v>
       </c>
       <c r="R20" s="260">
-        <f>'Main Page'!D135</f>
+        <f>'Main Page'!D149</f>
         <v>2</v>
       </c>
       <c r="S20" s="108"/>
@@ -12681,7 +15324,7 @@
         <v>82.955569360022096</v>
       </c>
       <c r="E21" s="243">
-        <f>N8*'Main Page'!C$128/('Main Page'!C$128+1)</f>
+        <f>N8*'Main Page'!C$142/('Main Page'!C$142+1)</f>
         <v>0</v>
       </c>
       <c r="F21" s="243">
@@ -12703,7 +15346,7 @@
         <v>2.0412211670123883E-2</v>
       </c>
       <c r="K21" s="243">
-        <f>'Main Page'!B136-'Main Page'!B$138</f>
+        <f>'Main Page'!B150-'Main Page'!B$152</f>
         <v>3.1</v>
       </c>
       <c r="L21" s="246">
@@ -12749,7 +15392,7 @@
         <v>39.129612072462692</v>
       </c>
       <c r="E22" s="243">
-        <f>N9*'Main Page'!C$128/('Main Page'!C$128+1)</f>
+        <f>N9*'Main Page'!C$142/('Main Page'!C$142+1)</f>
         <v>0</v>
       </c>
       <c r="F22" s="243">
@@ -12771,7 +15414,7 @@
         <v>4.9552789401452066E-2</v>
       </c>
       <c r="K22" s="243">
-        <f>'Main Page'!B137-'Main Page'!B$138</f>
+        <f>'Main Page'!B151-'Main Page'!B$152</f>
         <v>0.6</v>
       </c>
       <c r="L22" s="246">
@@ -12799,7 +15442,7 @@
         <v>-3.2011684023368077E-2</v>
       </c>
       <c r="R22" s="260">
-        <f>'Main Page'!D137</f>
+        <f>'Main Page'!D151</f>
         <v>3</v>
       </c>
       <c r="S22" s="108"/>
@@ -12820,7 +15463,7 @@
         <v>7.751396294306554</v>
       </c>
       <c r="E23" s="249">
-        <f>N10*'Main Page'!C$128/('Main Page'!C$128+1)</f>
+        <f>N10*'Main Page'!C$142/('Main Page'!C$142+1)</f>
         <v>0</v>
       </c>
       <c r="F23" s="249">
@@ -12842,7 +15485,7 @@
         <v>6.976743713487428E-2</v>
       </c>
       <c r="K23" s="249">
-        <f>'Main Page'!B138-'Main Page'!B$138</f>
+        <f>'Main Page'!B152-'Main Page'!B$152</f>
         <v>0</v>
       </c>
       <c r="L23" s="251">
@@ -12870,7 +15513,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="261">
-        <f>'Main Page'!D138</f>
+        <f>'Main Page'!D152</f>
         <v>4</v>
       </c>
       <c r="S23" s="108"/>
@@ -14540,7 +17183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O26"/>
   <sheetViews>
@@ -14600,7 +17243,7 @@
         <v>95</v>
       </c>
       <c r="C6" s="153">
-        <f>C5-'Main Page'!B43</f>
+        <f>C5-'Main Page'!B57</f>
         <v>58.67</v>
       </c>
       <c r="D6" t="s">
@@ -14621,7 +17264,7 @@
         <v>96</v>
       </c>
       <c r="C7" s="153">
-        <f>'Main Page'!B46</f>
+        <f>'Main Page'!B60</f>
         <v>3.75</v>
       </c>
       <c r="D7" t="s">
@@ -14643,7 +17286,7 @@
         <v>98</v>
       </c>
       <c r="C8" s="153">
-        <f>'Main Page'!B44</f>
+        <f>'Main Page'!B58</f>
         <v>2</v>
       </c>
       <c r="D8" t="s">
@@ -14655,7 +17298,7 @@
         <v>99</v>
       </c>
       <c r="C9" s="153">
-        <f>'Main Page'!B47</f>
+        <f>'Main Page'!B61</f>
         <v>15</v>
       </c>
       <c r="D9" t="s">
@@ -14667,7 +17310,7 @@
         <v>100</v>
       </c>
       <c r="C10" s="153">
-        <f>'Main Page'!B45</f>
+        <f>'Main Page'!B59</f>
         <v>9</v>
       </c>
       <c r="D10" t="s">
@@ -14679,7 +17322,7 @@
         <v>385</v>
       </c>
       <c r="C11" s="153">
-        <f>'Main Page'!B48</f>
+        <f>'Main Page'!B62</f>
         <v>5</v>
       </c>
       <c r="D11" t="s">
@@ -15364,2246 +18007,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:Y131"/>
-  <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
-  <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="10" max="11" width="9.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.5" customWidth="1"/>
-    <col min="13" max="14" width="11.33203125" customWidth="1"/>
-    <col min="15" max="15" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:25" ht="12.75">
-      <c r="A1" s="112"/>
-      <c r="B1" s="112" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1" s="127">
-        <f>'Main Page'!B13</f>
-        <v>50</v>
-      </c>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
-      <c r="Y1" s="112"/>
-    </row>
-    <row r="2" spans="1:25" ht="12.75">
-      <c r="A2" s="112"/>
-      <c r="B2" s="113" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" s="127">
-        <f>'Main Page'!B85*'Main Page'!B86</f>
-        <v>1800</v>
-      </c>
-      <c r="D2" s="114"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-    </row>
-    <row r="3" spans="1:25" ht="12.75">
-      <c r="A3" s="112"/>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="112"/>
-      <c r="P3" s="112"/>
-      <c r="Q3" s="112"/>
-      <c r="R3" s="112"/>
-      <c r="S3" s="112"/>
-      <c r="T3" s="112"/>
-      <c r="U3" s="112"/>
-      <c r="V3" s="112"/>
-      <c r="W3" s="112"/>
-      <c r="X3" s="112"/>
-      <c r="Y3" s="112"/>
-    </row>
-    <row r="4" spans="1:25" ht="38.25">
-      <c r="A4" s="115"/>
-      <c r="B4" s="163" t="s">
-        <v>172</v>
-      </c>
-      <c r="C4" s="115" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4" s="115" t="s">
-        <v>174</v>
-      </c>
-      <c r="E4" s="115" t="s">
-        <v>175</v>
-      </c>
-      <c r="F4" s="115" t="s">
-        <v>215</v>
-      </c>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115" t="s">
-        <v>176</v>
-      </c>
-      <c r="I4" s="115" t="s">
-        <v>177</v>
-      </c>
-      <c r="J4" s="115" t="s">
-        <v>178</v>
-      </c>
-      <c r="K4" s="115" t="s">
-        <v>179</v>
-      </c>
-      <c r="L4" s="115" t="s">
-        <v>180</v>
-      </c>
-      <c r="M4" s="115" t="s">
-        <v>181</v>
-      </c>
-      <c r="N4" s="115" t="s">
-        <v>182</v>
-      </c>
-      <c r="O4" s="115" t="s">
-        <v>183</v>
-      </c>
-      <c r="P4" s="115" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q4" s="115" t="s">
-        <v>213</v>
-      </c>
-      <c r="R4" s="115" t="s">
-        <v>214</v>
-      </c>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
-      <c r="U4" s="116"/>
-      <c r="V4" s="116"/>
-      <c r="W4" s="115"/>
-      <c r="X4" s="115"/>
-      <c r="Y4" s="116"/>
-    </row>
-    <row r="5" spans="1:25" ht="12.75">
-      <c r="A5" s="112"/>
-      <c r="B5" s="164" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="132">
-        <f>'Main Page'!B53</f>
-        <v>2.5</v>
-      </c>
-      <c r="F5" s="132">
-        <f>'Main Page'!B56</f>
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="G5" s="131"/>
-      <c r="H5" s="135">
-        <f>'Main Page'!B57</f>
-        <v>7850</v>
-      </c>
-      <c r="I5" s="136">
-        <f>H5*F5*PI()*E5^2</f>
-        <v>5086.4348557027251</v>
-      </c>
-      <c r="J5" s="132">
-        <f>'Main Page'!B58</f>
-        <v>-2.33</v>
-      </c>
-      <c r="K5" s="132">
-        <f>'Main Page'!B59</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="132">
-        <f>'Main Page'!B60</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="160">
-        <f>0.4*I5*((E5/2)^5-(E5/2-F5)^5)/((E5/2)^3-(E5/2-F5)^3)</f>
-        <v>5160.9544585651756</v>
-      </c>
-      <c r="N5" s="160">
-        <f>M5</f>
-        <v>5160.9544585651756</v>
-      </c>
-      <c r="O5" s="160">
-        <f>M5</f>
-        <v>5160.9544585651756</v>
-      </c>
-      <c r="P5" s="160">
-        <f>$I5*((K5-K$14)^2+(L5-L$14)^2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="160">
-        <f>$I5*((L5-L$14)^2+(J5-J$14)^2)</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="160">
-        <f>$I5*((J5-J$14)^2+(K5-K$14)^2)</f>
-        <v>0</v>
-      </c>
-      <c r="S5" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="T5" s="113"/>
-      <c r="U5" s="112"/>
-      <c r="V5" s="112"/>
-      <c r="W5" s="112"/>
-      <c r="X5" s="112"/>
-      <c r="Y5" s="112"/>
-    </row>
-    <row r="6" spans="1:25" ht="12.75">
-      <c r="A6" s="112"/>
-      <c r="B6" s="164" t="s">
-        <v>184</v>
-      </c>
-      <c r="C6" s="131"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="131"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="136">
-        <f>0.0119*'Main Page'!B13^3</f>
-        <v>1487.5</v>
-      </c>
-      <c r="J6" s="132">
-        <f>'Main Page'!B58</f>
-        <v>-2.33</v>
-      </c>
-      <c r="K6" s="132">
-        <f>'Main Page'!B59</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="132">
-        <f>'Main Page'!B60</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="160">
-        <f>I6*E5^2/4</f>
-        <v>2324.21875</v>
-      </c>
-      <c r="N6" s="160">
-        <f>M6</f>
-        <v>2324.21875</v>
-      </c>
-      <c r="O6" s="160">
-        <f>N6</f>
-        <v>2324.21875</v>
-      </c>
-      <c r="P6" s="160">
-        <f>$I6*((K6-K$14)^2+(L6-L$14)^2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="160">
-        <f>$I6*((L6-L$14)^2+(J6-J$14)^2)</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="160">
-        <f>$I6*((J6-J$14)^2+(K6-K$14)^2)</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="T6" s="113"/>
-      <c r="U6" s="117"/>
-      <c r="V6" s="117"/>
-      <c r="W6" s="112"/>
-      <c r="X6" s="112"/>
-      <c r="Y6" s="112"/>
-    </row>
-    <row r="7" spans="1:25" ht="12.75">
-      <c r="A7" s="112"/>
-      <c r="B7" s="164" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" s="132">
-        <f>'Main Page'!B63</f>
-        <v>1.3979999999999999</v>
-      </c>
-      <c r="D7" s="132">
-        <f>'Main Page'!B65</f>
-        <v>0.2</v>
-      </c>
-      <c r="E7" s="132">
-        <f>'Main Page'!B64</f>
-        <v>0.4</v>
-      </c>
-      <c r="F7" s="131"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="135">
-        <f>'Main Page'!B66</f>
-        <v>7850</v>
-      </c>
-      <c r="I7" s="136">
-        <f>0.25*PI()*(E7^2-D7^2)*H7*C7</f>
-        <v>1034.3034077487141</v>
-      </c>
-      <c r="J7" s="132">
-        <f>0.5*('Main Page'!B71+'Main Page'!B74)</f>
-        <v>-1.0485</v>
-      </c>
-      <c r="K7" s="132">
-        <f>'Main Page'!B67</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="132">
-        <f>'Main Page'!B68</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="160">
-        <f>I7*(E7^2+D7^2)/8</f>
-        <v>25.857585193717856</v>
-      </c>
-      <c r="N7" s="160">
-        <f>I7*(E7^2+D7^2+4*C7^2/3)/16</f>
-        <v>181.38268570666875</v>
-      </c>
-      <c r="O7" s="160">
-        <f>I7*(E7^2+D7^2+4*C7^2/3)/16</f>
-        <v>181.38268570666875</v>
-      </c>
-      <c r="P7" s="160">
-        <f>$I7*((K7-K$15)^2+(L7-L$15)^2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="160">
-        <f>$I7*((L7-L$15)^2+(J7-J$15)^2)</f>
-        <v>352.90278010392893</v>
-      </c>
-      <c r="R7" s="160">
-        <f>$I7*((J7-J$15)^2+(K7-K$15)^2)</f>
-        <v>352.90278010392893</v>
-      </c>
-      <c r="S7" s="112" t="s">
-        <v>209</v>
-      </c>
-      <c r="T7" s="112"/>
-      <c r="U7" s="112"/>
-      <c r="V7" s="112"/>
-      <c r="W7" s="112"/>
-      <c r="X7" s="112"/>
-      <c r="Y7" s="112"/>
-    </row>
-    <row r="8" spans="1:25" ht="12.75">
-      <c r="A8" s="112"/>
-      <c r="B8" s="164" t="s">
-        <v>185</v>
-      </c>
-      <c r="C8" s="131"/>
-      <c r="D8" s="159">
-        <f>E7</f>
-        <v>0.4</v>
-      </c>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="138"/>
-      <c r="I8" s="136">
-        <f>0.00002613*(1000*E7)^2.77</f>
-        <v>421.54659502316184</v>
-      </c>
-      <c r="J8" s="132">
-        <f>'Main Page'!B71</f>
-        <v>-1.631</v>
-      </c>
-      <c r="K8" s="132">
-        <f>'Main Page'!B72</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="132">
-        <f>'Main Page'!B73</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="160">
-        <f>I8*D8^2/4</f>
-        <v>16.861863800926479</v>
-      </c>
-      <c r="N8" s="160">
-        <f>M8/2</f>
-        <v>8.4309319004632393</v>
-      </c>
-      <c r="O8" s="160">
-        <f>M8/2</f>
-        <v>8.4309319004632393</v>
-      </c>
-      <c r="P8" s="160">
-        <f>$I8*((K8-K$15)^2+(L8-L$15)^2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="160">
-        <f>$I8*((L8-L$15)^2+(J8-J$15)^2)</f>
-        <v>573.7278186835573</v>
-      </c>
-      <c r="R8" s="160">
-        <f>$I8*((J8-J$15)^2+(K8-K$15)^2)</f>
-        <v>573.7278186835573</v>
-      </c>
-      <c r="S8" s="112" t="s">
-        <v>209</v>
-      </c>
-      <c r="T8" s="113"/>
-      <c r="U8" s="117"/>
-      <c r="V8" s="117"/>
-      <c r="W8" s="112"/>
-      <c r="X8" s="112"/>
-      <c r="Y8" s="118"/>
-    </row>
-    <row r="9" spans="1:25" ht="12.75">
-      <c r="A9" s="112"/>
-      <c r="B9" s="164" t="s">
-        <v>186</v>
-      </c>
-      <c r="C9" s="131"/>
-      <c r="D9" s="159">
-        <f>E7</f>
-        <v>0.4</v>
-      </c>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="138"/>
-      <c r="I9" s="136">
-        <f>0.00002613*(1000*E7)^2.77</f>
-        <v>421.54659502316184</v>
-      </c>
-      <c r="J9" s="132">
-        <f>'Main Page'!B74</f>
-        <v>-0.46600000000000003</v>
-      </c>
-      <c r="K9" s="132">
-        <f>'Main Page'!B75</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="132">
-        <f>'Main Page'!B76</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="160">
-        <f>I9*D9^2/4</f>
-        <v>16.861863800926479</v>
-      </c>
-      <c r="N9" s="160">
-        <f>M9/2</f>
-        <v>8.4309319004632393</v>
-      </c>
-      <c r="O9" s="160">
-        <f>M9/2</f>
-        <v>8.4309319004632393</v>
-      </c>
-      <c r="P9" s="160">
-        <f>$I9*((K9-K$15)^2+(L9-L$15)^2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="160">
-        <f>$I9*((L9-L$15)^2+(J9-J$15)^2)</f>
-        <v>1.1090374508368286E-3</v>
-      </c>
-      <c r="R9" s="160">
-        <f>$I9*((J9-J$15)^2+(K9-K$15)^2)</f>
-        <v>1.1090374508368286E-3</v>
-      </c>
-      <c r="S9" s="112" t="s">
-        <v>209</v>
-      </c>
-      <c r="T9" s="113"/>
-      <c r="U9" s="119"/>
-      <c r="V9" s="119"/>
-      <c r="W9" s="112"/>
-      <c r="X9" s="112"/>
-      <c r="Y9" s="112"/>
-    </row>
-    <row r="10" spans="1:25" ht="12.75">
-      <c r="A10" s="112"/>
-      <c r="B10" s="164" t="s">
-        <v>187</v>
-      </c>
-      <c r="C10" s="131">
-        <f>C24</f>
-        <v>0.6</v>
-      </c>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131">
-        <f>D24</f>
-        <v>0.5625</v>
-      </c>
-      <c r="F10" s="128"/>
-      <c r="G10" s="128"/>
-      <c r="H10" s="137"/>
-      <c r="I10" s="136">
-        <f>'Main Page'!B79/2</f>
-        <v>2361.5</v>
-      </c>
-      <c r="J10" s="132">
-        <f>'Main Page'!B80</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="132">
-        <f>'Main Page'!B81</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="132">
-        <f>'Main Page'!B82</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="160">
-        <f>I10*E10^2/8</f>
-        <v>93.399169921875</v>
-      </c>
-      <c r="N10" s="160">
-        <f>I10*(3*E10^2/4+C10^2)/12</f>
-        <v>117.54458496093748</v>
-      </c>
-      <c r="O10" s="160">
-        <f>I10*(3*E10^2/4+C10^2)/12</f>
-        <v>117.54458496093748</v>
-      </c>
-      <c r="P10" s="160">
-        <f>$I10*((K10-K$15)^2+(L10-L$15)^2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="160">
-        <f>$I10*((L10-L$15)^2+(J10-J$15)^2)</f>
-        <v>509.2502222331392</v>
-      </c>
-      <c r="R10" s="160">
-        <f>$I10*((J10-J$15)^2+(K10-K$15)^2)</f>
-        <v>509.2502222331392</v>
-      </c>
-      <c r="S10" s="112" t="s">
-        <v>209</v>
-      </c>
-      <c r="T10" s="113"/>
-      <c r="U10" s="112"/>
-      <c r="V10" s="112"/>
-      <c r="W10" s="112"/>
-      <c r="X10" s="112"/>
-      <c r="Y10" s="112"/>
-    </row>
-    <row r="11" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A11" s="112"/>
-      <c r="B11" s="164" t="s">
-        <v>188</v>
-      </c>
-      <c r="C11" s="131">
-        <f>1.6*0.015*C1</f>
-        <v>1.2</v>
-      </c>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="128"/>
-      <c r="G11" s="128"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="139">
-        <f>(3.3*'Main Page'!B89+471)/3</f>
-        <v>982</v>
-      </c>
-      <c r="J11" s="132">
-        <f>'Main Page'!B90</f>
-        <v>0.58250000000000002</v>
-      </c>
-      <c r="K11" s="132">
-        <f>'Main Page'!B91</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="132">
-        <f>'Main Page'!B92</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="160">
-        <f>0.0000486*C1^5.333</f>
-        <v>55878.315104796013</v>
-      </c>
-      <c r="N11" s="160">
-        <f>M11/2/('Main Page'!B85^2)+I11*C11^2/12</f>
-        <v>124.91707128294681</v>
-      </c>
-      <c r="O11" s="160">
-        <f>N11</f>
-        <v>124.91707128294681</v>
-      </c>
-      <c r="P11" s="160">
-        <f>$I11*((K11-K$16)^2+(L11-L$16)^2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="160">
-        <f>$I11*((L11-L$16)^2+(J11-J$16)^2)</f>
-        <v>1.4492378163894524</v>
-      </c>
-      <c r="R11" s="160">
-        <f>$I11*((J11-J$16)^2+(K11-K$16)^2)</f>
-        <v>1.4492378163894524</v>
-      </c>
-      <c r="S11" s="112" t="s">
-        <v>210</v>
-      </c>
-      <c r="T11" s="113"/>
-      <c r="U11" s="379"/>
-      <c r="V11" s="119"/>
-      <c r="W11" s="115"/>
-      <c r="X11" s="112"/>
-      <c r="Y11" s="118"/>
-    </row>
-    <row r="12" spans="1:25" ht="12.75">
-      <c r="A12" s="112"/>
-      <c r="B12" s="164" t="s">
-        <v>255</v>
-      </c>
-      <c r="C12" s="131">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131">
-        <f>1.5*E7</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="169">
-        <v>7850</v>
-      </c>
-      <c r="I12" s="139">
-        <f>1.5*0.025*1000*'Main Page'!B89/0.10472/C2</f>
-        <v>149.20741023682203</v>
-      </c>
-      <c r="J12" s="132">
-        <f>0.5*(J10+J11)</f>
-        <v>0.29125000000000001</v>
-      </c>
-      <c r="K12" s="132">
-        <f>0.5*(K10+K11)</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="132">
-        <f>0.5*(L10+L11)</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="160">
-        <f>0.25*C12*PI()*H12*E12^2*'Main Page'!B85^2*E12^2/8</f>
-        <v>9857.6705135843258</v>
-      </c>
-      <c r="N12" s="160">
-        <f>I12*(3*E12^2/4+C12^2)/12</f>
-        <v>3.3649379496116638</v>
-      </c>
-      <c r="O12" s="160">
-        <f>I12*(3*E12^2/4+C12^2)/12</f>
-        <v>3.3649379496116638</v>
-      </c>
-      <c r="P12" s="160">
-        <f>$I12*((K12-K$16)^2+(L12-L$16)^2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="160">
-        <f>$I12*((L12-L$16)^2+(J12-J$16)^2)</f>
-        <v>9.5380754443470401</v>
-      </c>
-      <c r="R12" s="160">
-        <f>$I12*((J12-J$16)^2+(K12-K$16)^2)</f>
-        <v>9.5380754443470401</v>
-      </c>
-      <c r="S12" s="112" t="s">
-        <v>210</v>
-      </c>
-      <c r="T12" s="113"/>
-      <c r="V12" s="119"/>
-      <c r="W12" s="112"/>
-      <c r="X12" s="112"/>
-      <c r="Y12" s="118"/>
-    </row>
-    <row r="13" spans="1:25" ht="12.75">
-      <c r="A13" s="112"/>
-      <c r="B13" s="164"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="138"/>
-      <c r="I13" s="139"/>
-      <c r="J13" s="132"/>
-      <c r="K13" s="132"/>
-      <c r="L13" s="132"/>
-      <c r="M13" s="158" t="s">
-        <v>207</v>
-      </c>
-      <c r="N13" s="158" t="s">
-        <v>208</v>
-      </c>
-      <c r="O13" s="158" t="s">
-        <v>211</v>
-      </c>
-      <c r="P13" s="158"/>
-      <c r="Q13" s="158"/>
-      <c r="R13" s="158"/>
-      <c r="S13" s="112"/>
-      <c r="T13" s="113"/>
-      <c r="V13" s="119"/>
-      <c r="W13" s="112"/>
-      <c r="X13" s="112"/>
-      <c r="Y13" s="118"/>
-    </row>
-    <row r="14" spans="1:25" ht="12.75">
-      <c r="A14" s="112"/>
-      <c r="B14" s="164"/>
-      <c r="C14" s="131"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="141" t="s">
-        <v>204</v>
-      </c>
-      <c r="I14" s="136">
-        <f>I5+I6</f>
-        <v>6573.9348557027251</v>
-      </c>
-      <c r="J14" s="132">
-        <f>SUMPRODUCT($I5:$I6,J5:J6)/SUM($I5:$I6)</f>
-        <v>-2.33</v>
-      </c>
-      <c r="K14" s="132">
-        <f>SUMPRODUCT($I5:$I6,K5:K6)/SUM($I5:$I6)</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="132">
-        <f>SUMPRODUCT($I5:$I6,L5:L6)/SUM($I5:$I6)</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="161">
-        <f>M5+M6+P5+P6</f>
-        <v>7485.1732085651756</v>
-      </c>
-      <c r="N14" s="161">
-        <f>N5+N6+Q5+Q6</f>
-        <v>7485.1732085651756</v>
-      </c>
-      <c r="O14" s="161">
-        <f>O5+O6+R5+R6</f>
-        <v>7485.1732085651756</v>
-      </c>
-      <c r="P14" s="112"/>
-      <c r="Q14" s="112"/>
-      <c r="R14" s="112"/>
-      <c r="S14" s="112"/>
-      <c r="T14" s="113"/>
-      <c r="V14" s="119"/>
-      <c r="W14" s="112"/>
-      <c r="X14" s="112"/>
-      <c r="Y14" s="118"/>
-    </row>
-    <row r="15" spans="1:25" ht="12.75">
-      <c r="A15" s="112"/>
-      <c r="B15" s="164"/>
-      <c r="C15" s="131"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="131"/>
-      <c r="G15" s="131"/>
-      <c r="H15" s="113" t="s">
-        <v>202</v>
-      </c>
-      <c r="I15" s="142">
-        <f>SUM(I7:I10)</f>
-        <v>4238.8965977950375</v>
-      </c>
-      <c r="J15" s="132">
-        <f>SUMPRODUCT($I7:$I10,J7:J10)/SUM($I7:$I10)</f>
-        <v>-0.46437800200458612</v>
-      </c>
-      <c r="K15" s="132">
-        <f>SUMPRODUCT($I7:$I10,K7:K10)/SUM($I7:$I10)</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="132">
-        <f>SUMPRODUCT($I7:$I10,L7:L10)/SUM($I7:$I10)</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="160">
-        <f>SUM(M7:M10,P7:P10)</f>
-        <v>152.98048271744582</v>
-      </c>
-      <c r="N15" s="160">
-        <f>SUM(N7:N10,Q7:Q10)</f>
-        <v>1751.6710645266089</v>
-      </c>
-      <c r="O15" s="160">
-        <f>SUM(O7:O10,R7:R10)</f>
-        <v>1751.6710645266089</v>
-      </c>
-      <c r="P15" s="112"/>
-      <c r="Q15" s="112"/>
-      <c r="R15" s="112"/>
-      <c r="S15" s="112"/>
-      <c r="T15" s="113"/>
-      <c r="V15" s="119"/>
-      <c r="W15" s="112"/>
-      <c r="X15" s="112"/>
-      <c r="Y15" s="118"/>
-    </row>
-    <row r="16" spans="1:25" ht="12.75">
-      <c r="A16" s="112"/>
-      <c r="B16" s="165"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="113" t="s">
-        <v>203</v>
-      </c>
-      <c r="I16" s="136">
-        <f>SUM(I11:I12)</f>
-        <v>1131.2074102368219</v>
-      </c>
-      <c r="J16" s="132">
-        <f>SUMPRODUCT($I11:$I12,J11:J12)/SUM($I11:$I12)</f>
-        <v>0.54408382818374879</v>
-      </c>
-      <c r="K16" s="132">
-        <f>SUMPRODUCT($I11:$I12,K11:K12)/SUM($I11:$I12)</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="132">
-        <f>SUMPRODUCT($I11:$I12,L11:L12)/SUM($I11:$I12)</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="160">
-        <f>SUM(M11:M12,P11:P12)</f>
-        <v>65735.985618380335</v>
-      </c>
-      <c r="N16" s="160">
-        <f>SUM(N11:N12,Q11:Q12)</f>
-        <v>139.26932249329496</v>
-      </c>
-      <c r="O16" s="160">
-        <f>SUM(O11:O12,R11:R12)</f>
-        <v>139.26932249329496</v>
-      </c>
-      <c r="P16" s="112"/>
-      <c r="Q16" s="112"/>
-      <c r="R16" s="112"/>
-      <c r="S16" s="112"/>
-      <c r="T16" s="113"/>
-      <c r="U16" s="119"/>
-      <c r="V16" s="119"/>
-      <c r="W16" s="112"/>
-      <c r="X16" s="112"/>
-      <c r="Y16" s="112"/>
-    </row>
-    <row r="17" spans="1:25" ht="12.75">
-      <c r="A17" s="112"/>
-      <c r="B17" s="165"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="113" t="s">
-        <v>201</v>
-      </c>
-      <c r="I17" s="136">
-        <f>SUM(I14:I16)</f>
-        <v>11944.038863734584</v>
-      </c>
-      <c r="J17" s="132">
-        <f>SUMPRODUCT($I14:$I16,J14:J16)/SUM($I14:$I16)</f>
-        <v>-1.395695968384653</v>
-      </c>
-      <c r="K17" s="132">
-        <f>SUMPRODUCT($I14:$I16,K14:K16)/SUM($I14:$I16)</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="132">
-        <f>SUMPRODUCT($I14:$I16,L14:L16)/SUM($I14:$I16)</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="112"/>
-      <c r="N17" s="112"/>
-      <c r="O17" s="112"/>
-      <c r="P17" s="112"/>
-      <c r="Q17" s="112"/>
-      <c r="R17" s="112"/>
-      <c r="S17" s="112"/>
-      <c r="T17" s="113"/>
-      <c r="U17" s="119"/>
-      <c r="V17" s="119"/>
-      <c r="W17" s="112"/>
-      <c r="X17" s="112"/>
-      <c r="Y17" s="112"/>
-    </row>
-    <row r="18" spans="1:25" ht="12.75">
-      <c r="A18" s="112"/>
-      <c r="B18" s="165"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="136"/>
-      <c r="J18" s="132"/>
-      <c r="K18" s="132"/>
-      <c r="L18" s="132"/>
-      <c r="M18" s="112"/>
-      <c r="N18" s="112"/>
-      <c r="O18" s="112"/>
-      <c r="P18" s="112"/>
-      <c r="Q18" s="112"/>
-      <c r="R18" s="112"/>
-      <c r="S18" s="112"/>
-      <c r="T18" s="113"/>
-      <c r="U18" s="119"/>
-      <c r="V18" s="119"/>
-      <c r="W18" s="112"/>
-      <c r="X18" s="112"/>
-      <c r="Y18" s="112"/>
-    </row>
-    <row r="19" spans="1:25" ht="12.75">
-      <c r="A19" s="112"/>
-      <c r="B19" s="165"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="403" t="s">
-        <v>239</v>
-      </c>
-      <c r="E19" s="403"/>
-      <c r="F19" s="403"/>
-      <c r="G19" s="403"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="121"/>
-      <c r="K19" s="121"/>
-      <c r="L19" s="121"/>
-      <c r="M19" s="112"/>
-      <c r="N19" s="112"/>
-      <c r="O19" s="112"/>
-      <c r="P19" s="112"/>
-      <c r="Q19" s="112"/>
-      <c r="R19" s="112"/>
-      <c r="S19" s="112"/>
-      <c r="T19" s="113"/>
-      <c r="U19" s="112"/>
-      <c r="V19" s="112"/>
-      <c r="W19" s="112"/>
-      <c r="X19" s="112"/>
-      <c r="Y19" s="112"/>
-    </row>
-    <row r="20" spans="1:25" ht="38.25">
-      <c r="A20" s="115"/>
-      <c r="B20" s="163" t="s">
-        <v>189</v>
-      </c>
-      <c r="C20" s="115" t="s">
-        <v>173</v>
-      </c>
-      <c r="D20" s="115" t="s">
-        <v>190</v>
-      </c>
-      <c r="E20" s="115" t="s">
-        <v>191</v>
-      </c>
-      <c r="F20" s="115" t="s">
-        <v>193</v>
-      </c>
-      <c r="G20" s="115" t="s">
-        <v>192</v>
-      </c>
-      <c r="H20" s="115"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="122"/>
-      <c r="K20" s="122"/>
-      <c r="L20" s="122"/>
-      <c r="M20" s="115"/>
-      <c r="N20" s="115"/>
-      <c r="O20" s="115"/>
-      <c r="P20" s="115"/>
-      <c r="Q20" s="115"/>
-      <c r="R20" s="115"/>
-      <c r="S20" s="115"/>
-      <c r="T20" s="115"/>
-      <c r="U20" s="115"/>
-      <c r="V20" s="115"/>
-      <c r="W20" s="115"/>
-      <c r="X20" s="115"/>
-      <c r="Y20" s="115"/>
-    </row>
-    <row r="21" spans="1:25" ht="12.75">
-      <c r="A21" s="112"/>
-      <c r="B21" s="164" t="s">
-        <v>162</v>
-      </c>
-      <c r="C21" s="132">
-        <f>'Main Page'!B95</f>
-        <v>1.631</v>
-      </c>
-      <c r="D21" s="132">
-        <f>'Main Page'!B96</f>
-        <v>1.7475000000000001</v>
-      </c>
-      <c r="E21" s="132">
-        <f>'Main Page'!B97</f>
-        <v>0.74560000000000004</v>
-      </c>
-      <c r="F21" s="132">
-        <f>'Main Page'!B98</f>
-        <v>0.13</v>
-      </c>
-      <c r="G21" s="132">
-        <f>'Main Page'!B99</f>
-        <v>0.13</v>
-      </c>
-      <c r="H21" s="136">
-        <f>'Main Page'!B100</f>
-        <v>7850</v>
-      </c>
-      <c r="I21" s="139">
-        <f>1.5*H21*(0.00000042875*C1^3-(0.00030625*F21+0.00003675*D21+0.0000735*E21)*C1^2+(0.035*F21*D21+0.07*E21*F21)*C1)</f>
-        <v>4631.2392328125006</v>
-      </c>
-      <c r="J21" s="132">
-        <f>'Main Page'!B101</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="132">
-        <f>'Main Page'!B102</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="132">
-        <f>'Main Page'!B103</f>
-        <v>-0.56850000000000001</v>
-      </c>
-      <c r="M21" s="160">
-        <f>I21*(E21^2+D21^2)/8</f>
-        <v>2089.6589128447995</v>
-      </c>
-      <c r="N21" s="160">
-        <f>I21*(E21^2+D21^2+4*C21^2/3)/16</f>
-        <v>2071.4829554888775</v>
-      </c>
-      <c r="O21" s="160">
-        <f>I21*(E21^2+D21^2+4*C21^2/3)/16</f>
-        <v>2071.4829554888775</v>
-      </c>
-      <c r="P21" s="160">
-        <f>$I21*((K21-K$30)^2+(L21-L$30)^2)</f>
-        <v>739.19068810733586</v>
-      </c>
-      <c r="Q21" s="160">
-        <f>$I21*((L21-L$30)^2+(J21-J$30)^2)</f>
-        <v>739.37024440071957</v>
-      </c>
-      <c r="R21" s="160">
-        <f>$I21*((J21-J$30)^2+(K21-K$30)^2)</f>
-        <v>0.17955629338370821</v>
-      </c>
-      <c r="S21" s="112"/>
-      <c r="T21" s="113"/>
-      <c r="V21" s="117"/>
-      <c r="W21" s="112"/>
-      <c r="X21" s="112"/>
-      <c r="Y21" s="112"/>
-    </row>
-    <row r="22" spans="1:25" ht="12.75">
-      <c r="A22" s="112"/>
-      <c r="B22" s="164" t="s">
-        <v>194</v>
-      </c>
-      <c r="C22" s="132"/>
-      <c r="E22" s="133">
-        <f>1.5*D8</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="F22" s="133"/>
-      <c r="G22" s="136"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="140">
-        <f>0.00006744*(1000*E7)^2.64</f>
-        <v>499.29353040602069</v>
-      </c>
-      <c r="J22" s="132">
-        <f t="shared" ref="J22:L25" si="0">J8</f>
-        <v>-1.631</v>
-      </c>
-      <c r="K22" s="132">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="132">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="160">
-        <f>I22*E22^2/4</f>
-        <v>44.936417736541877</v>
-      </c>
-      <c r="N22" s="160">
-        <f>M22/2</f>
-        <v>22.468208868270938</v>
-      </c>
-      <c r="O22" s="160">
-        <f>M22/2</f>
-        <v>22.468208868270938</v>
-      </c>
-      <c r="P22" s="160">
-        <f t="shared" ref="P22:P28" si="1">$I22*((K22-K$30)^2+(L22-L$30)^2)</f>
-        <v>14.25832738556937</v>
-      </c>
-      <c r="Q22" s="160">
-        <f t="shared" ref="Q22:Q28" si="2">$I22*((L22-L$30)^2+(J22-J$30)^2)</f>
-        <v>1352.6201151454645</v>
-      </c>
-      <c r="R22" s="160">
-        <f t="shared" ref="R22:R28" si="3">$I22*((J22-J$30)^2+(K22-K$30)^2)</f>
-        <v>1338.3617877598952</v>
-      </c>
-      <c r="S22" s="112"/>
-      <c r="T22" s="113"/>
-      <c r="V22" s="117"/>
-      <c r="W22" s="112"/>
-      <c r="X22" s="112"/>
-      <c r="Y22" s="118"/>
-    </row>
-    <row r="23" spans="1:25" ht="12.75">
-      <c r="A23" s="112"/>
-      <c r="B23" s="164" t="s">
-        <v>195</v>
-      </c>
-      <c r="C23" s="132"/>
-      <c r="E23" s="133">
-        <f>1.5*D9</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="F23" s="133"/>
-      <c r="G23" s="136"/>
-      <c r="H23" s="133"/>
-      <c r="I23" s="140">
-        <f>0.00006744*(1000*E7)^2.64</f>
-        <v>499.29353040602069</v>
-      </c>
-      <c r="J23" s="132">
-        <f t="shared" si="0"/>
-        <v>-0.46600000000000003</v>
-      </c>
-      <c r="K23" s="132">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="132">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="160">
-        <f>I23*E23^2/4</f>
-        <v>44.936417736541877</v>
-      </c>
-      <c r="N23" s="160">
-        <f>M23/2</f>
-        <v>22.468208868270938</v>
-      </c>
-      <c r="O23" s="160">
-        <f>M23/2</f>
-        <v>22.468208868270938</v>
-      </c>
-      <c r="P23" s="160">
-        <f t="shared" si="1"/>
-        <v>14.25832738556937</v>
-      </c>
-      <c r="Q23" s="160">
-        <f t="shared" si="2"/>
-        <v>125.59977198741109</v>
-      </c>
-      <c r="R23" s="160">
-        <f t="shared" si="3"/>
-        <v>111.34144460184173</v>
-      </c>
-      <c r="S23" s="112"/>
-      <c r="T23" s="112"/>
-      <c r="U23" s="112"/>
-      <c r="V23" s="112"/>
-      <c r="W23" s="112"/>
-      <c r="X23" s="112"/>
-      <c r="Y23" s="112"/>
-    </row>
-    <row r="24" spans="1:25" ht="12.75">
-      <c r="A24" s="112"/>
-      <c r="B24" s="164" t="s">
-        <v>196</v>
-      </c>
-      <c r="C24" s="132">
-        <f>0.012*C1</f>
-        <v>0.6</v>
-      </c>
-      <c r="D24" s="132">
-        <f>0.75*E24</f>
-        <v>0.5625</v>
-      </c>
-      <c r="E24" s="132">
-        <f>0.015*C1</f>
-        <v>0.75</v>
-      </c>
-      <c r="F24" s="129"/>
-      <c r="G24" s="130"/>
-      <c r="H24" s="129"/>
-      <c r="I24" s="140">
-        <f>'Main Page'!B79/2</f>
-        <v>2361.5</v>
-      </c>
-      <c r="J24" s="132">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="132">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="132">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="160">
-        <f>I24*(D24^2+E24^2)/8</f>
-        <v>259.442138671875</v>
-      </c>
-      <c r="N24" s="160">
-        <f>I24*(D24^2+E24^2+4*C24^2/3)/16</f>
-        <v>200.5660693359375</v>
-      </c>
-      <c r="O24" s="160">
-        <f>I24*(E24^2+D24^2+4*C24^2/3)/16</f>
-        <v>200.5660693359375</v>
-      </c>
-      <c r="P24" s="160">
-        <f t="shared" si="1"/>
-        <v>67.437365137980265</v>
-      </c>
-      <c r="Q24" s="160">
-        <f t="shared" si="2"/>
-        <v>67.528922098333638</v>
-      </c>
-      <c r="R24" s="160">
-        <f t="shared" si="3"/>
-        <v>9.1556960353378875E-2</v>
-      </c>
-      <c r="S24" s="112"/>
-      <c r="T24" s="112"/>
-      <c r="U24" s="112"/>
-      <c r="V24" s="112"/>
-      <c r="W24" s="112"/>
-      <c r="X24" s="112"/>
-      <c r="Y24" s="112"/>
-    </row>
-    <row r="25" spans="1:25" ht="12.75">
-      <c r="A25" s="112"/>
-      <c r="B25" s="164" t="s">
-        <v>197</v>
-      </c>
-      <c r="C25" s="132">
-        <f>C11</f>
-        <v>1.2</v>
-      </c>
-      <c r="D25" s="132">
-        <f>0.5*E25</f>
-        <v>0.375</v>
-      </c>
-      <c r="E25" s="132">
-        <f>0.015*C1</f>
-        <v>0.75</v>
-      </c>
-      <c r="F25" s="129"/>
-      <c r="G25" s="130"/>
-      <c r="H25" s="129"/>
-      <c r="I25" s="139">
-        <f>2*(3.3*'Main Page'!B89+471)/3</f>
-        <v>1964</v>
-      </c>
-      <c r="J25" s="132">
-        <f t="shared" si="0"/>
-        <v>0.58250000000000002</v>
-      </c>
-      <c r="K25" s="132">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="132">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="160">
-        <f>I25*(D25^2+E25^2)/8</f>
-        <v>172.6171875</v>
-      </c>
-      <c r="N25" s="160">
-        <f>I25*(D25^2+E25^2+4*C25^2/3)/16</f>
-        <v>321.98859375000001</v>
-      </c>
-      <c r="O25" s="160">
-        <f>I25*(E25^2+D25^2+4*C25^2/3)/16</f>
-        <v>321.98859375000001</v>
-      </c>
-      <c r="P25" s="160">
-        <f t="shared" si="1"/>
-        <v>56.08595601566514</v>
-      </c>
-      <c r="Q25" s="160">
-        <f t="shared" si="2"/>
-        <v>708.31271793756434</v>
-      </c>
-      <c r="R25" s="160">
-        <f t="shared" si="3"/>
-        <v>652.2267619218992</v>
-      </c>
-      <c r="S25" s="112"/>
-      <c r="T25" s="112"/>
-      <c r="U25" s="112"/>
-      <c r="V25" s="112"/>
-      <c r="W25" s="112"/>
-      <c r="X25" s="112"/>
-      <c r="Y25" s="112"/>
-    </row>
-    <row r="26" spans="1:25" ht="12.75">
-      <c r="A26" s="112"/>
-      <c r="B26" s="164" t="s">
-        <v>198</v>
-      </c>
-      <c r="C26" s="132">
-        <f>2*C21</f>
-        <v>3.262</v>
-      </c>
-      <c r="D26" s="132">
-        <f>E21</f>
-        <v>0.74560000000000004</v>
-      </c>
-      <c r="E26" s="132">
-        <f>D21</f>
-        <v>1.7475000000000001</v>
-      </c>
-      <c r="F26" s="133"/>
-      <c r="G26" s="136"/>
-      <c r="H26" s="133"/>
-      <c r="I26" s="140">
-        <f>84.1*2*C26^2</f>
-        <v>1789.7563207999999</v>
-      </c>
-      <c r="J26" s="132">
-        <f>J21</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="132">
-        <f>K21</f>
-        <v>0</v>
-      </c>
-      <c r="L26" s="132">
-        <v>0</v>
-      </c>
-      <c r="M26" s="160">
-        <f>I26*(E26^2+D26^2)/8</f>
-        <v>807.55496737938688</v>
-      </c>
-      <c r="N26" s="160">
-        <f>I26*(E26^2+D26^2+4*C26^2/3)/16</f>
-        <v>1990.7908050549097</v>
-      </c>
-      <c r="O26" s="160">
-        <f>I26*(E26^2+D26^2+4*C26^2/3)/16</f>
-        <v>1990.7908050549097</v>
-      </c>
-      <c r="P26" s="160">
-        <f t="shared" si="1"/>
-        <v>51.110078557610727</v>
-      </c>
-      <c r="Q26" s="160">
-        <f t="shared" si="2"/>
-        <v>51.179468626848795</v>
-      </c>
-      <c r="R26" s="160">
-        <f t="shared" si="3"/>
-        <v>6.9390069238066843E-2</v>
-      </c>
-      <c r="S26" s="112"/>
-      <c r="T26" s="113"/>
-      <c r="V26" s="117"/>
-      <c r="W26" s="112"/>
-      <c r="X26" s="112"/>
-      <c r="Y26" s="112"/>
-    </row>
-    <row r="27" spans="1:25" ht="12.75">
-      <c r="A27" s="112"/>
-      <c r="B27" s="164" t="s">
-        <v>199</v>
-      </c>
-      <c r="C27" s="129"/>
-      <c r="D27" s="129"/>
-      <c r="E27" s="129"/>
-      <c r="F27" s="129"/>
-      <c r="G27" s="129"/>
-      <c r="H27" s="129"/>
-      <c r="I27" s="139">
-        <f>2.6*'Main Page'!B89+0.002168*C1^3.4</f>
-        <v>3245.8576372154985</v>
-      </c>
-      <c r="J27" s="132">
-        <v>0</v>
-      </c>
-      <c r="K27" s="132">
-        <v>0</v>
-      </c>
-      <c r="L27" s="132">
-        <v>0</v>
-      </c>
-      <c r="M27" s="160">
-        <v>0</v>
-      </c>
-      <c r="N27" s="160">
-        <v>0</v>
-      </c>
-      <c r="O27" s="160">
-        <v>0</v>
-      </c>
-      <c r="P27" s="160">
-        <f t="shared" si="1"/>
-        <v>92.691969793268441</v>
-      </c>
-      <c r="Q27" s="160">
-        <f t="shared" si="2"/>
-        <v>92.817813900405127</v>
-      </c>
-      <c r="R27" s="160">
-        <f t="shared" si="3"/>
-        <v>0.12584410713667221</v>
-      </c>
-      <c r="S27" s="112"/>
-      <c r="T27" s="113"/>
-      <c r="V27" s="117"/>
-      <c r="W27" s="112"/>
-      <c r="X27" s="112"/>
-      <c r="Y27" s="112"/>
-    </row>
-    <row r="28" spans="1:25" ht="12.75">
-      <c r="A28" s="112"/>
-      <c r="B28" s="164" t="s">
-        <v>200</v>
-      </c>
-      <c r="C28" s="129"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="129"/>
-      <c r="F28" s="129"/>
-      <c r="G28" s="129"/>
-      <c r="H28" s="129"/>
-      <c r="I28" s="139">
-        <f>0.2*(I11+I25)</f>
-        <v>589.20000000000005</v>
-      </c>
-      <c r="J28" s="132">
-        <v>0</v>
-      </c>
-      <c r="K28" s="132">
-        <v>0</v>
-      </c>
-      <c r="L28" s="132">
-        <v>0</v>
-      </c>
-      <c r="M28" s="160">
-        <v>0</v>
-      </c>
-      <c r="N28" s="160">
-        <v>0</v>
-      </c>
-      <c r="O28" s="160">
-        <v>0</v>
-      </c>
-      <c r="P28" s="160">
-        <f t="shared" si="1"/>
-        <v>16.825786804699543</v>
-      </c>
-      <c r="Q28" s="160">
-        <f t="shared" si="2"/>
-        <v>16.84863048923912</v>
-      </c>
-      <c r="R28" s="160">
-        <f t="shared" si="3"/>
-        <v>2.2843684539576893E-2</v>
-      </c>
-      <c r="S28" s="112"/>
-      <c r="T28" s="113"/>
-      <c r="V28" s="117"/>
-      <c r="W28" s="112"/>
-      <c r="X28" s="112"/>
-      <c r="Y28" s="112"/>
-    </row>
-    <row r="29" spans="1:25" ht="12.75">
-      <c r="A29" s="112"/>
-      <c r="B29" s="165"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="112"/>
-      <c r="H29" s="112"/>
-      <c r="I29" s="112"/>
-      <c r="J29" s="121"/>
-      <c r="K29" s="121"/>
-      <c r="L29" s="121"/>
-      <c r="M29" s="158" t="s">
-        <v>207</v>
-      </c>
-      <c r="N29" s="158" t="s">
-        <v>208</v>
-      </c>
-      <c r="O29" s="158" t="s">
-        <v>211</v>
-      </c>
-      <c r="P29" s="112"/>
-      <c r="Q29" s="112"/>
-      <c r="R29" s="112"/>
-      <c r="S29" s="112"/>
-      <c r="T29" s="112"/>
-      <c r="U29" s="112"/>
-      <c r="V29" s="112"/>
-      <c r="W29" s="112"/>
-      <c r="X29" s="112"/>
-      <c r="Y29" s="112"/>
-    </row>
-    <row r="30" spans="1:25" ht="12.75">
-      <c r="A30" s="112"/>
-      <c r="B30" s="164"/>
-      <c r="C30" s="112"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="112"/>
-      <c r="H30" s="113" t="s">
-        <v>205</v>
-      </c>
-      <c r="I30" s="136">
-        <f>SUM(I21:I28)</f>
-        <v>15580.140251640041</v>
-      </c>
-      <c r="J30" s="132">
-        <f>SUMPRODUCT($I21:$I28,J21:J28)/SUM($I21:$I28)</f>
-        <v>6.2266106191414261E-3</v>
-      </c>
-      <c r="K30" s="132">
-        <f>SUMPRODUCT($I21:$I28,K21:K28)/SUM($I21:$I28)</f>
-        <v>0</v>
-      </c>
-      <c r="L30" s="132">
-        <f>SUMPRODUCT($I21:$I28,L21:L28)/SUM($I21:$I28)</f>
-        <v>-0.16898817734177707</v>
-      </c>
-      <c r="M30" s="160">
-        <f>SUM(M21:M28,P21:P28)</f>
-        <v>4471.0045410568418</v>
-      </c>
-      <c r="N30" s="160">
-        <f>SUM(N21:N28,Q21:Q28)</f>
-        <v>7784.0425259522517</v>
-      </c>
-      <c r="O30" s="160">
-        <f>SUM(O21:O28,R21:R28)</f>
-        <v>6732.184026764553</v>
-      </c>
-      <c r="P30" s="112"/>
-      <c r="Q30" s="112"/>
-      <c r="R30" s="112"/>
-      <c r="S30" s="112"/>
-      <c r="T30" s="112"/>
-      <c r="U30" s="112"/>
-      <c r="V30" s="112"/>
-      <c r="W30" s="112"/>
-      <c r="X30" s="112"/>
-      <c r="Y30" s="112"/>
-    </row>
-    <row r="31" spans="1:25" ht="12.75">
-      <c r="A31" s="112"/>
-      <c r="B31" s="164"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="112"/>
-      <c r="H31" s="113" t="s">
-        <v>305</v>
-      </c>
-      <c r="I31" s="136">
-        <f>SUM(I17,I30)</f>
-        <v>27524.179115374624</v>
-      </c>
-      <c r="J31" s="132">
-        <f>($I17*J17+$I30*J30)/($I17+$I30)</f>
-        <v>-0.60213368588158256</v>
-      </c>
-      <c r="K31" s="132">
-        <f>($I17*K17+$I30*K30)/($I17+$I30)</f>
-        <v>0</v>
-      </c>
-      <c r="L31" s="132">
-        <f>($I17*L17+$I30*L30)/($I17+$I30)</f>
-        <v>-9.5656240748092938E-2</v>
-      </c>
-      <c r="M31" s="112"/>
-      <c r="N31" s="112"/>
-      <c r="O31" s="112"/>
-      <c r="P31" s="112"/>
-      <c r="Q31" s="112"/>
-      <c r="R31" s="112"/>
-      <c r="S31" s="112"/>
-      <c r="T31" s="112"/>
-      <c r="U31" s="112"/>
-      <c r="V31" s="112"/>
-      <c r="W31" s="112"/>
-      <c r="X31" s="112"/>
-      <c r="Y31" s="112"/>
-    </row>
-    <row r="32" spans="1:25" ht="12.75">
-      <c r="A32" s="112"/>
-      <c r="B32" s="164"/>
-      <c r="C32" s="112"/>
-      <c r="D32" s="112"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="112"/>
-      <c r="H32" s="113"/>
-      <c r="I32" s="136"/>
-      <c r="J32" s="132"/>
-      <c r="K32" s="132"/>
-      <c r="L32" s="132"/>
-      <c r="M32" s="112"/>
-      <c r="N32" s="112"/>
-      <c r="O32" s="112"/>
-      <c r="P32" s="112"/>
-      <c r="Q32" s="112"/>
-      <c r="R32" s="112"/>
-      <c r="S32" s="112"/>
-      <c r="T32" s="112"/>
-      <c r="U32" s="112"/>
-      <c r="V32" s="112"/>
-      <c r="W32" s="112"/>
-      <c r="X32" s="112"/>
-      <c r="Y32" s="112"/>
-    </row>
-    <row r="33" spans="1:25" ht="12.75">
-      <c r="A33" s="112"/>
-      <c r="B33" s="164"/>
-      <c r="C33" s="112"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="112"/>
-      <c r="F33" s="112"/>
-      <c r="G33" s="112"/>
-      <c r="H33" s="112"/>
-      <c r="I33" s="112"/>
-      <c r="J33" s="112"/>
-      <c r="K33" s="112"/>
-      <c r="L33" s="112"/>
-      <c r="M33" s="112"/>
-      <c r="N33" s="112"/>
-      <c r="O33" s="112"/>
-      <c r="P33" s="112"/>
-      <c r="Q33" s="112"/>
-      <c r="R33" s="112"/>
-      <c r="S33" s="112"/>
-      <c r="T33" s="112"/>
-      <c r="U33" s="112"/>
-      <c r="V33" s="112"/>
-      <c r="W33" s="112"/>
-      <c r="X33" s="112"/>
-      <c r="Y33" s="112"/>
-    </row>
-    <row r="34" spans="1:25" s="112" customFormat="1" ht="12.75">
-      <c r="B34" s="165"/>
-    </row>
-    <row r="35" spans="1:25" s="112" customFormat="1" ht="12.75">
-      <c r="B35" s="164" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" s="112" customFormat="1" ht="12.75">
-      <c r="B36" s="164" t="s">
-        <v>217</v>
-      </c>
-      <c r="C36" s="151" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" s="112" customFormat="1" ht="12.75">
-      <c r="B37" s="164" t="s">
-        <v>219</v>
-      </c>
-      <c r="C37" s="112" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" s="112" customFormat="1" ht="12.75">
-      <c r="B38" s="165"/>
-    </row>
-    <row r="39" spans="1:25" s="112" customFormat="1" ht="12.75">
-      <c r="B39" s="164" t="s">
-        <v>226</v>
-      </c>
-      <c r="C39" s="112" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" s="112" customFormat="1" ht="12.75">
-      <c r="B40" s="164" t="s">
-        <v>223</v>
-      </c>
-      <c r="C40" s="112" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" s="112" customFormat="1" ht="12.75">
-      <c r="B41" s="164" t="s">
-        <v>225</v>
-      </c>
-      <c r="C41" s="112" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" s="112" customFormat="1" ht="12.75">
-      <c r="B42" s="166"/>
-    </row>
-    <row r="43" spans="1:25" s="112" customFormat="1" ht="12.75">
-      <c r="B43" s="164" t="s">
-        <v>229</v>
-      </c>
-      <c r="C43" s="112" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" s="112" customFormat="1" ht="12.75">
-      <c r="B44" s="164" t="s">
-        <v>231</v>
-      </c>
-      <c r="C44" s="112" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" s="112" customFormat="1" ht="12.75">
-      <c r="B45" s="164" t="s">
-        <v>275</v>
-      </c>
-      <c r="C45" s="112" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" s="112" customFormat="1" ht="12.75">
-      <c r="B46" s="166"/>
-    </row>
-    <row r="47" spans="1:25" s="112" customFormat="1" ht="12.75">
-      <c r="B47" s="164" t="s">
-        <v>234</v>
-      </c>
-      <c r="C47" s="114" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" s="112" customFormat="1" ht="12.75">
-      <c r="B48" s="164" t="s">
-        <v>233</v>
-      </c>
-      <c r="C48" s="112" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" s="112" customFormat="1" ht="12.75">
-      <c r="B49" s="164" t="s">
-        <v>277</v>
-      </c>
-      <c r="C49" s="112" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" s="112" customFormat="1" ht="12.75">
-      <c r="B50" s="164"/>
-    </row>
-    <row r="51" spans="2:3" s="112" customFormat="1" ht="12.75">
-      <c r="B51" s="164"/>
-    </row>
-    <row r="52" spans="2:3" s="112" customFormat="1" ht="12.75">
-      <c r="B52" s="164" t="s">
-        <v>237</v>
-      </c>
-      <c r="C52" s="112" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" s="112" customFormat="1" ht="12.75">
-      <c r="B53" s="164" t="s">
-        <v>238</v>
-      </c>
-      <c r="C53" s="112" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" s="112" customFormat="1" ht="12.75">
-      <c r="B54" s="164" t="s">
-        <v>243</v>
-      </c>
-      <c r="C54" s="112" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" s="112" customFormat="1" ht="12.75">
-      <c r="B55" s="164" t="s">
-        <v>245</v>
-      </c>
-      <c r="C55" s="112" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" s="112" customFormat="1" ht="12.75">
-      <c r="B56" s="164"/>
-    </row>
-    <row r="57" spans="2:3" s="112" customFormat="1" ht="12.75">
-      <c r="B57" s="164" t="s">
-        <v>252</v>
-      </c>
-      <c r="C57" s="112" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" s="112" customFormat="1" ht="12.75">
-      <c r="B58" s="164" t="s">
-        <v>247</v>
-      </c>
-      <c r="C58" s="112" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" s="112" customFormat="1" ht="12.75">
-      <c r="B59" s="164" t="s">
-        <v>249</v>
-      </c>
-      <c r="C59" s="112" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" s="112" customFormat="1" ht="12.75">
-      <c r="B60" s="164" t="s">
-        <v>250</v>
-      </c>
-      <c r="C60" s="112" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" s="112" customFormat="1" ht="12.75">
-      <c r="B61" s="164"/>
-    </row>
-    <row r="62" spans="2:3" s="112" customFormat="1" ht="12.75">
-      <c r="B62" s="164" t="s">
-        <v>256</v>
-      </c>
-      <c r="C62" s="112" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" s="112" customFormat="1" ht="12.75">
-      <c r="B63" s="164" t="s">
-        <v>257</v>
-      </c>
-      <c r="C63" s="112" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" s="112" customFormat="1" ht="12.75">
-      <c r="B64" s="164" t="s">
-        <v>258</v>
-      </c>
-      <c r="C64" s="112" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" s="112" customFormat="1" ht="12.75">
-      <c r="B65" s="164" t="s">
-        <v>259</v>
-      </c>
-      <c r="C65" s="112" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" s="112" customFormat="1" ht="12.75">
-      <c r="B66" s="164" t="s">
-        <v>260</v>
-      </c>
-      <c r="C66" s="112" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" s="112" customFormat="1" ht="12.75">
-      <c r="B67" s="164"/>
-    </row>
-    <row r="68" spans="2:3" s="112" customFormat="1" ht="12.75">
-      <c r="B68" s="164" t="s">
-        <v>266</v>
-      </c>
-      <c r="C68" s="112" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" s="112" customFormat="1" ht="12.75">
-      <c r="B69" s="164" t="s">
-        <v>268</v>
-      </c>
-      <c r="C69" s="112" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" s="112" customFormat="1" ht="12.75">
-      <c r="B70" s="164"/>
-    </row>
-    <row r="71" spans="2:3" s="112" customFormat="1" ht="12.75">
-      <c r="B71" s="164" t="s">
-        <v>272</v>
-      </c>
-      <c r="C71" s="112" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" s="112" customFormat="1" ht="12.75">
-      <c r="B72" s="164" t="s">
-        <v>270</v>
-      </c>
-      <c r="C72" s="112" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" s="112" customFormat="1" ht="12.75">
-      <c r="B73" s="164" t="s">
-        <v>274</v>
-      </c>
-      <c r="C73" s="112" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" s="112" customFormat="1" ht="12.75">
-      <c r="B74" s="164"/>
-    </row>
-    <row r="75" spans="2:3" s="112" customFormat="1" ht="12.75">
-      <c r="B75" s="164" t="s">
-        <v>281</v>
-      </c>
-      <c r="C75" s="112" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" s="112" customFormat="1" ht="12.75">
-      <c r="B76" s="164" t="s">
-        <v>280</v>
-      </c>
-      <c r="C76" s="112" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" s="112" customFormat="1" ht="12.75">
-      <c r="B77" s="164" t="s">
-        <v>282</v>
-      </c>
-      <c r="C77" s="112" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" s="112" customFormat="1" ht="12.75">
-      <c r="B78" s="164" t="s">
-        <v>284</v>
-      </c>
-      <c r="C78" s="112" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" s="112" customFormat="1" ht="12.75">
-      <c r="B79" s="164" t="s">
-        <v>285</v>
-      </c>
-      <c r="C79" s="112" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3" s="112" customFormat="1" ht="12.75">
-      <c r="B80" s="164"/>
-    </row>
-    <row r="81" spans="2:3" s="112" customFormat="1" ht="12.75">
-      <c r="B81" s="164" t="s">
-        <v>287</v>
-      </c>
-      <c r="C81" s="112" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" s="112" customFormat="1" ht="12.75">
-      <c r="B82" s="164" t="s">
-        <v>288</v>
-      </c>
-      <c r="C82" s="112" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" s="112" customFormat="1" ht="12.75">
-      <c r="B83" s="164" t="s">
-        <v>289</v>
-      </c>
-      <c r="C83" s="112" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" s="112" customFormat="1" ht="12.75">
-      <c r="B84" s="164" t="s">
-        <v>290</v>
-      </c>
-      <c r="C84" s="112" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" s="112" customFormat="1" ht="12.75">
-      <c r="B85" s="164" t="s">
-        <v>291</v>
-      </c>
-      <c r="C85" s="112" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" s="112" customFormat="1" ht="12.75">
-      <c r="B86" s="164"/>
-    </row>
-    <row r="87" spans="2:3" s="112" customFormat="1" ht="12.75">
-      <c r="B87" s="164" t="s">
-        <v>294</v>
-      </c>
-      <c r="C87" s="112" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" s="112" customFormat="1" ht="12.75">
-      <c r="B88" s="164" t="s">
-        <v>296</v>
-      </c>
-      <c r="C88" s="112" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" s="112" customFormat="1" ht="12.75">
-      <c r="B89" s="164" t="s">
-        <v>297</v>
-      </c>
-      <c r="C89" s="112" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" s="112" customFormat="1" ht="12.75">
-      <c r="B90" s="164" t="s">
-        <v>300</v>
-      </c>
-      <c r="C90" s="112" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" s="112" customFormat="1" ht="12.75">
-      <c r="B91" s="164" t="s">
-        <v>302</v>
-      </c>
-      <c r="C91" s="112" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" s="112" customFormat="1" ht="12.75"/>
-    <row r="93" spans="2:3" s="112" customFormat="1" ht="12.75">
-      <c r="B93" s="164" t="s">
-        <v>199</v>
-      </c>
-      <c r="C93" s="112" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3" s="112" customFormat="1" ht="12.75">
-      <c r="B94" s="164" t="s">
-        <v>200</v>
-      </c>
-      <c r="C94" s="112" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" s="112" customFormat="1" ht="12.75">
-      <c r="B95" s="165"/>
-    </row>
-    <row r="96" spans="2:3" ht="12.75">
-      <c r="B96" s="164" t="s">
-        <v>221</v>
-      </c>
-      <c r="C96" s="112" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2">
-      <c r="B97" s="168"/>
-    </row>
-    <row r="98" spans="2:2">
-      <c r="B98" s="168"/>
-    </row>
-    <row r="99" spans="2:2">
-      <c r="B99" s="168"/>
-    </row>
-    <row r="100" spans="2:2">
-      <c r="B100" s="168"/>
-    </row>
-    <row r="101" spans="2:2">
-      <c r="B101" s="168"/>
-    </row>
-    <row r="102" spans="2:2">
-      <c r="B102" s="168"/>
-    </row>
-    <row r="103" spans="2:2">
-      <c r="B103" s="168"/>
-    </row>
-    <row r="104" spans="2:2">
-      <c r="B104" s="168"/>
-    </row>
-    <row r="105" spans="2:2">
-      <c r="B105" s="168"/>
-    </row>
-    <row r="106" spans="2:2">
-      <c r="B106" s="168"/>
-    </row>
-    <row r="107" spans="2:2">
-      <c r="B107" s="168"/>
-    </row>
-    <row r="108" spans="2:2">
-      <c r="B108" s="168"/>
-    </row>
-    <row r="109" spans="2:2">
-      <c r="B109" s="167"/>
-    </row>
-    <row r="110" spans="2:2">
-      <c r="B110" s="167"/>
-    </row>
-    <row r="111" spans="2:2">
-      <c r="B111" s="162"/>
-    </row>
-    <row r="112" spans="2:2">
-      <c r="B112" s="162"/>
-    </row>
-    <row r="113" spans="2:2">
-      <c r="B113" s="162"/>
-    </row>
-    <row r="114" spans="2:2">
-      <c r="B114" s="162"/>
-    </row>
-    <row r="115" spans="2:2">
-      <c r="B115" s="162"/>
-    </row>
-    <row r="116" spans="2:2">
-      <c r="B116" s="162"/>
-    </row>
-    <row r="117" spans="2:2">
-      <c r="B117" s="162"/>
-    </row>
-    <row r="118" spans="2:2">
-      <c r="B118" s="162"/>
-    </row>
-    <row r="119" spans="2:2">
-      <c r="B119" s="162"/>
-    </row>
-    <row r="120" spans="2:2">
-      <c r="B120" s="162"/>
-    </row>
-    <row r="121" spans="2:2">
-      <c r="B121" s="162"/>
-    </row>
-    <row r="122" spans="2:2">
-      <c r="B122" s="162"/>
-    </row>
-    <row r="123" spans="2:2">
-      <c r="B123" s="162"/>
-    </row>
-    <row r="124" spans="2:2">
-      <c r="B124" s="162"/>
-    </row>
-    <row r="125" spans="2:2">
-      <c r="B125" s="162"/>
-    </row>
-    <row r="126" spans="2:2">
-      <c r="B126" s="162"/>
-    </row>
-    <row r="127" spans="2:2">
-      <c r="B127" s="162"/>
-    </row>
-    <row r="128" spans="2:2">
-      <c r="B128" s="162"/>
-    </row>
-    <row r="129" spans="2:2">
-      <c r="B129" s="162"/>
-    </row>
-    <row r="130" spans="2:2">
-      <c r="B130" s="162"/>
-    </row>
-    <row r="131" spans="2:2">
-      <c r="B131" s="162"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D19:G19"/>
-  </mergeCells>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="48" orientation="portrait" horizontalDpi="0" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>
--- a/FAST_models/WindPACT/excel_proc/turbines/0.75A08V00_proc.xlsx
+++ b/FAST_models/WindPACT/excel_proc/turbines/0.75A08V00_proc.xlsx
@@ -4,24 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="705" windowWidth="17565" windowHeight="12990"/>
+    <workbookView xWindow="1560" yWindow="705" windowWidth="17565" windowHeight="12990" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Main Page" sheetId="5" r:id="rId1"/>
-    <sheet name="Rotor_JR" sheetId="9" r:id="rId2"/>
-    <sheet name="Nacelle_JR" sheetId="10" r:id="rId3"/>
-    <sheet name="Tower_JR" sheetId="11" r:id="rId4"/>
-    <sheet name="Control_JR" sheetId="12" r:id="rId5"/>
-    <sheet name="Tower Data" sheetId="4" r:id="rId6"/>
-    <sheet name="Blade Data" sheetId="3" r:id="rId7"/>
-    <sheet name="GECbladedata" sheetId="6" r:id="rId8"/>
-    <sheet name="GECtwrdata" sheetId="7" r:id="rId9"/>
-    <sheet name="GECdrivetrain" sheetId="8" r:id="rId10"/>
+    <sheet name="Blades_JR" sheetId="9" r:id="rId2"/>
+    <sheet name="AD_JR" sheetId="13" r:id="rId3"/>
+    <sheet name="Nacelle_JR" sheetId="10" r:id="rId4"/>
+    <sheet name="Tower_JR" sheetId="11" r:id="rId5"/>
+    <sheet name="Control_JR" sheetId="12" r:id="rId6"/>
+    <sheet name="Tower Data" sheetId="4" r:id="rId7"/>
+    <sheet name="Blade Data" sheetId="3" r:id="rId8"/>
+    <sheet name="GECbladedata" sheetId="6" r:id="rId9"/>
+    <sheet name="GECtwrdata" sheetId="7" r:id="rId10"/>
+    <sheet name="GECdrivetrain" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Blade Data'!$A$6:$Q$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'Blade Data'!$A$6:$Q$32</definedName>
   </definedNames>
-  <calcPr calcId="145621" iterate="1" iterateDelta="1E-4"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="528">
   <si>
     <t>number</t>
   </si>
@@ -1695,9 +1696,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">      Airfoil ID</t>
-  </si>
-  <si>
     <t>Airfoil ID</t>
   </si>
   <si>
@@ -1743,132 +1741,21 @@
     <t>HubDiameter</t>
   </si>
   <si>
-    <t>Airfoils</t>
-  </si>
-  <si>
     <t>BladeDamping (%)</t>
   </si>
   <si>
-    <t>StrctBldNodes (%R)</t>
-  </si>
-  <si>
-    <t>ADBladNodes (x/L)</t>
-  </si>
-  <si>
-    <t>AirDensity</t>
-  </si>
-  <si>
     <t>BladeSchedule</t>
   </si>
   <si>
-    <t>NADBldNodes</t>
-  </si>
-  <si>
-    <t>TipSpeed</t>
-  </si>
-  <si>
-    <t>HubHeight</t>
-  </si>
-  <si>
-    <t>Overhang</t>
-  </si>
-  <si>
-    <t>MainframeCG (nacelle coordinates)</t>
-  </si>
-  <si>
-    <t>GenShaftCG (nacelle coordinates)</t>
-  </si>
-  <si>
-    <t>RotShaftCG (nacelle coordinates)</t>
-  </si>
-  <si>
-    <t>RotShaftTilt (deg, neg raises hub)</t>
-  </si>
-  <si>
-    <t>Mainframe mass</t>
-  </si>
-  <si>
-    <t>GenShaft mass</t>
-  </si>
-  <si>
-    <t>Rotshaft mass</t>
-  </si>
-  <si>
-    <t>Coning angle (deg)</t>
-  </si>
-  <si>
-    <t>Hub mass (kg)</t>
-  </si>
-  <si>
-    <t>Nacelle YInteria (kg m^2)</t>
-  </si>
-  <si>
-    <t>Hub intertia (kg m^2)</t>
-  </si>
-  <si>
-    <t>GenRatedRPM</t>
-  </si>
-  <si>
-    <t>Drivetrain torsoinal spring</t>
-  </si>
-  <si>
-    <t>Generator efficiency</t>
-  </si>
-  <si>
-    <t>Rated Power (W)</t>
-  </si>
-  <si>
-    <t>GenIner (LSS reference frame)</t>
-  </si>
-  <si>
-    <t>DistanceHHtoTowerTop</t>
-  </si>
-  <si>
-    <t>TopDiameter (m)</t>
-  </si>
-  <si>
-    <t>TopThickness (m)</t>
-  </si>
-  <si>
-    <t>BottomDiameter (m)</t>
-  </si>
-  <si>
-    <t>BottomThickness (m)</t>
-  </si>
-  <si>
-    <t>Parasitic weight increase</t>
-  </si>
-  <si>
-    <t>Steel density (kg/m^3)</t>
-  </si>
-  <si>
-    <t>Young's modulus</t>
-  </si>
-  <si>
-    <t>Steel G</t>
-  </si>
-  <si>
-    <t>Tower stations</t>
-  </si>
-  <si>
-    <t>Tower damping (%)</t>
-  </si>
-  <si>
     <t>&lt;-- fixed this (JR)</t>
   </si>
   <si>
     <t>Rotor inertia (kg-m^2)</t>
   </si>
   <si>
-    <t>Rotor Inertia (kg-m^2)</t>
-  </si>
-  <si>
     <t>Drivetrain damping (% critical)</t>
   </si>
   <si>
-    <t>Drivetrain damping</t>
-  </si>
-  <si>
     <t>Integral gain (rotor speed [rpm] to blade pitch [deg])</t>
   </si>
   <si>
@@ -1881,30 +1768,9 @@
     <t>&lt;-- changed GenEff defn (JR)</t>
   </si>
   <si>
-    <t>PC_KP (rad/rad/s)</t>
-  </si>
-  <si>
-    <t>PC_KI (rad/rad/s)</t>
-  </si>
-  <si>
-    <t>PC_KD (rad/rad/s)</t>
-  </si>
-  <si>
     <t>Corner frequency (Hz)</t>
   </si>
   <si>
-    <t>Corner frequency (rad/s)</t>
-  </si>
-  <si>
-    <t>MinPitchAng (rad)</t>
-  </si>
-  <si>
-    <t>MaxPitchAng (rad)</t>
-  </si>
-  <si>
-    <t>Max pit rate (rad/s)</t>
-  </si>
-  <si>
     <t>Gain scheduling exponent</t>
   </si>
   <si>
@@ -1914,21 +1780,9 @@
     <t>Gain scheduling end pitch angle (deg)</t>
   </si>
   <si>
-    <t>GS start angle (rad)</t>
-  </si>
-  <si>
-    <t>GS end angle (rad)</t>
-  </si>
-  <si>
-    <t>GS exponent</t>
-  </si>
-  <si>
     <t>Time step (sec)</t>
   </si>
   <si>
-    <t>Pitch control time step</t>
-  </si>
-  <si>
     <t>from NREL 5MW discon controller</t>
   </si>
   <si>
@@ -1977,38 +1831,263 @@
     <t>No region 1 (simulating above 4 m/s wind speeds)</t>
   </si>
   <si>
-    <t>Cut-in HSS speed (rad/s)</t>
-  </si>
-  <si>
-    <t>Max. HSS torque rate (N-m/s)</t>
-  </si>
-  <si>
-    <t>GenTrqAlpha (N-m/HSSrpm^2)</t>
-  </si>
-  <si>
-    <t>Max HSS torque (N-m)</t>
-  </si>
-  <si>
     <t>Region 1.5/2 HSS transition (rad/sec)</t>
   </si>
   <si>
-    <t>Region 1.5/2 HSS transition (rad/s)</t>
-  </si>
-  <si>
-    <t>Min pitch for computing R3 torque (deg)</t>
-  </si>
-  <si>
-    <t>Region 2 slip percentage (%)</t>
-  </si>
-  <si>
-    <t>Torque control time step (sec)</t>
+    <t>AirDens</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>kg-m^2</t>
+  </si>
+  <si>
+    <t>TipRad</t>
+  </si>
+  <si>
+    <t>HubRad</t>
+  </si>
+  <si>
+    <t>FoilNm</t>
+  </si>
+  <si>
+    <t>BldDmp</t>
+  </si>
+  <si>
+    <t>BlFract</t>
+  </si>
+  <si>
+    <t>GenAxisLoc</t>
+  </si>
+  <si>
+    <t>UnitWeight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AirfoilID</t>
+  </si>
+  <si>
+    <t>TowerHt</t>
+  </si>
+  <si>
+    <t>Twr2Shft</t>
+  </si>
+  <si>
+    <t>OverHang</t>
+  </si>
+  <si>
+    <t>deg</t>
+  </si>
+  <si>
+    <t>PreCone</t>
+  </si>
+  <si>
+    <t>ShftTilt</t>
+  </si>
+  <si>
+    <t>HubMass</t>
+  </si>
+  <si>
+    <t>NacYIner</t>
+  </si>
+  <si>
+    <t>HubIner</t>
+  </si>
+  <si>
+    <t>VS_RtGnSp</t>
+  </si>
+  <si>
+    <t>VS_RtTq</t>
+  </si>
+  <si>
+    <t>VS_Rgn2K</t>
+  </si>
+  <si>
+    <t>N-m/HSSrpm^2</t>
+  </si>
+  <si>
+    <t>CNST(2)</t>
+  </si>
+  <si>
+    <t>CNST(4)</t>
+  </si>
+  <si>
+    <t>CNST(5)</t>
+  </si>
+  <si>
+    <t>CNST(6)</t>
+  </si>
+  <si>
+    <t>CNST(7)</t>
+  </si>
+  <si>
+    <t>CNST(8)</t>
+  </si>
+  <si>
+    <t>CNST(9)</t>
+  </si>
+  <si>
+    <t>CNST(10)</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>rad</t>
+  </si>
+  <si>
+    <t>rotor speed set point</t>
+  </si>
+  <si>
+    <t>min pitch angle</t>
+  </si>
+  <si>
+    <t>max pitch angle</t>
+  </si>
+  <si>
+    <t>pitch time step</t>
+  </si>
+  <si>
+    <t>gain scheduling start angle</t>
+  </si>
+  <si>
+    <t>gain scheduling end angle</t>
+  </si>
+  <si>
+    <t>gain scheduling coefficient</t>
+  </si>
+  <si>
+    <t>gain scheduling exponent</t>
+  </si>
+  <si>
+    <t>NacCMxn</t>
+  </si>
+  <si>
+    <t>NacCMzn</t>
+  </si>
+  <si>
+    <t>NacCMyn</t>
+  </si>
+  <si>
+    <t>NacMass</t>
+  </si>
+  <si>
+    <t>GenIner</t>
+  </si>
+  <si>
+    <t>GenEff</t>
+  </si>
+  <si>
+    <t>GBRatio</t>
+  </si>
+  <si>
+    <t>DTTorSpr</t>
+  </si>
+  <si>
+    <t>N-m/rad</t>
+  </si>
+  <si>
+    <t>N-m/(rad/s)</t>
+  </si>
+  <si>
+    <t>DTTorDmp</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>RatedPwr</t>
+  </si>
+  <si>
+    <t>TwrDmp</t>
+  </si>
+  <si>
+    <t>TwrSchedFields</t>
+  </si>
+  <si>
+    <t>TMassDen</t>
+  </si>
+  <si>
+    <t>TwFAStif</t>
+  </si>
+  <si>
+    <t>TwSSStif</t>
+  </si>
+  <si>
+    <t>TwGJStif</t>
+  </si>
+  <si>
+    <t>TwEAStif</t>
+  </si>
+  <si>
+    <t>HtFract</t>
+  </si>
+  <si>
+    <t>DistBldProps</t>
+  </si>
+  <si>
+    <t>AeroCent</t>
+  </si>
+  <si>
+    <t>StrcTwst</t>
+  </si>
+  <si>
+    <t>BMassDen</t>
+  </si>
+  <si>
+    <t>FlpStff</t>
+  </si>
+  <si>
+    <t>EdgStff</t>
+  </si>
+  <si>
+    <t>GJStff</t>
+  </si>
+  <si>
+    <t>EAStff</t>
+  </si>
+  <si>
+    <t>RNodes</t>
+  </si>
+  <si>
+    <t>DTAero</t>
+  </si>
+  <si>
+    <t>ADSchedFields</t>
+  </si>
+  <si>
+    <t>AeroTwst</t>
+  </si>
+  <si>
+    <t>DRNodes</t>
+  </si>
+  <si>
+    <t>NFoil</t>
+  </si>
+  <si>
+    <t>BldNodes</t>
+  </si>
+  <si>
+    <t>ADSched Calculations</t>
+  </si>
+  <si>
+    <t>BlPitchF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="10">
+  <numFmts count="12">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000E+00"/>
@@ -2016,9 +2095,11 @@
     <numFmt numFmtId="168" formatCode="0.0E+00"/>
     <numFmt numFmtId="169" formatCode="0.00000"/>
     <numFmt numFmtId="170" formatCode="0.000000000"/>
-    <numFmt numFmtId="172" formatCode="0.0000000"/>
-    <numFmt numFmtId="173" formatCode="0.000000"/>
-    <numFmt numFmtId="174" formatCode="0.0000000000"/>
+    <numFmt numFmtId="171" formatCode="0.0000000"/>
+    <numFmt numFmtId="172" formatCode="0.000000"/>
+    <numFmt numFmtId="173" formatCode="0.0000000000"/>
+    <numFmt numFmtId="181" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="184" formatCode="0.00000000E+00"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -2912,7 +2993,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="407">
+  <cellXfs count="413">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3669,7 +3750,6 @@
     <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3770,8 +3850,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3781,6 +3859,9 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3829,9 +3910,25 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4418,11 +4515,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="83985536"/>
-        <c:axId val="83987456"/>
+        <c:axId val="97795456"/>
+        <c:axId val="97801728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="83985536"/>
+        <c:axId val="97795456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4507,12 +4604,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83987456"/>
+        <c:crossAx val="97801728"/>
         <c:crossesAt val="-10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83987456"/>
+        <c:axId val="97801728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4596,7 +4693,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83985536"/>
+        <c:crossAx val="97795456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5178,13 +5275,16 @@
           <a:pPr algn="l" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t>Dec 8, 2015    Changed "GenAxisLoc","UnitWeight","AirfoilID" names to have no spaces</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5669,8 +5769,8 @@
   </sheetPr>
   <dimension ref="A1:U169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50"/>
+    <sheetView topLeftCell="A115" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D147" sqref="D147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -5692,8 +5792,8 @@
       <c r="A1" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="358" t="s">
-        <v>405</v>
+      <c r="B1" s="357" t="s">
+        <v>404</v>
       </c>
       <c r="C1" s="396" t="s">
         <v>398</v>
@@ -5939,34 +6039,34 @@
         <f>PI()*(B78^4-B79^4)/32/(GECdrivetrain!C7)*GECtwrdata!F7</f>
         <v>129646444.93189973</v>
       </c>
-      <c r="D14" s="354" t="s">
-        <v>452</v>
-      </c>
-      <c r="E14" s="355"/>
+      <c r="D14" s="353" t="s">
+        <v>416</v>
+      </c>
+      <c r="E14" s="354"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="61" t="s">
-        <v>455</v>
-      </c>
-      <c r="B15" s="383">
+        <v>418</v>
+      </c>
+      <c r="B15" s="380">
         <v>5</v>
       </c>
-      <c r="D15" s="354" t="s">
-        <v>403</v>
-      </c>
-      <c r="E15" s="355"/>
+      <c r="D15" s="353" t="s">
+        <v>402</v>
+      </c>
+      <c r="E15" s="354"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="61" t="s">
-        <v>453</v>
-      </c>
-      <c r="B16" s="383">
+        <v>417</v>
+      </c>
+      <c r="B16" s="380">
         <v>665139</v>
       </c>
-      <c r="D16" s="354" t="s">
-        <v>403</v>
-      </c>
-      <c r="E16" s="355"/>
+      <c r="D16" s="353" t="s">
+        <v>402</v>
+      </c>
+      <c r="E16" s="354"/>
     </row>
     <row r="17" spans="1:21" ht="23.45" customHeight="1">
       <c r="A17" s="61" t="s">
@@ -6168,17 +6268,17 @@
       </c>
     </row>
     <row r="31" spans="1:21" ht="9.75" customHeight="1">
-      <c r="A31" s="357" t="s">
-        <v>404</v>
+      <c r="A31" s="356" t="s">
+        <v>403</v>
       </c>
       <c r="B31" s="267">
         <f>B103*1000/(B98*PI()/30)/(B19)</f>
         <v>4188.2879761025097</v>
       </c>
-      <c r="D31" s="354" t="s">
-        <v>460</v>
-      </c>
-      <c r="E31" s="355"/>
+      <c r="D31" s="353" t="s">
+        <v>422</v>
+      </c>
+      <c r="E31" s="354"/>
     </row>
     <row r="32" spans="1:21">
       <c r="B32" s="53"/>
@@ -6214,224 +6314,224 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="12" customHeight="1">
-      <c r="A37" s="384" t="s">
-        <v>458</v>
+      <c r="A37" s="381" t="s">
+        <v>420</v>
       </c>
       <c r="B37" s="273">
         <f>5.14</f>
         <v>5.14</v>
       </c>
-      <c r="D37" s="354" t="s">
-        <v>489</v>
-      </c>
-      <c r="E37" s="355"/>
-      <c r="F37" s="355"/>
+      <c r="D37" s="353" t="s">
+        <v>440</v>
+      </c>
+      <c r="E37" s="354"/>
+      <c r="F37" s="354"/>
     </row>
     <row r="38" spans="1:7" ht="12" customHeight="1">
-      <c r="A38" s="384" t="s">
-        <v>457</v>
-      </c>
-      <c r="B38" s="385">
+      <c r="A38" s="381" t="s">
+        <v>419</v>
+      </c>
+      <c r="B38" s="382">
         <f>2.22</f>
         <v>2.2200000000000002</v>
       </c>
-      <c r="D38" s="354" t="s">
-        <v>489</v>
-      </c>
-      <c r="E38" s="355"/>
-      <c r="F38" s="355"/>
+      <c r="D38" s="353" t="s">
+        <v>440</v>
+      </c>
+      <c r="E38" s="354"/>
+      <c r="F38" s="354"/>
     </row>
     <row r="39" spans="1:7" ht="12" customHeight="1">
-      <c r="A39" s="384" t="s">
-        <v>459</v>
+      <c r="A39" s="381" t="s">
+        <v>421</v>
       </c>
       <c r="B39" s="273">
         <f>0.0286</f>
         <v>2.86E-2</v>
       </c>
-      <c r="D39" s="354" t="s">
-        <v>489</v>
-      </c>
-      <c r="E39" s="355"/>
-      <c r="F39" s="355"/>
+      <c r="D39" s="353" t="s">
+        <v>440</v>
+      </c>
+      <c r="E39" s="354"/>
+      <c r="F39" s="354"/>
     </row>
     <row r="40" spans="1:7" ht="12" customHeight="1">
-      <c r="A40" s="384" t="s">
-        <v>464</v>
+      <c r="A40" s="381" t="s">
+        <v>423</v>
       </c>
       <c r="B40" s="273">
         <f>2.5/4</f>
         <v>0.625</v>
       </c>
-      <c r="D40" s="354" t="s">
-        <v>490</v>
-      </c>
-      <c r="E40" s="355"/>
-      <c r="F40" s="355"/>
-      <c r="G40" s="355"/>
+      <c r="D40" s="353" t="s">
+        <v>441</v>
+      </c>
+      <c r="E40" s="354"/>
+      <c r="F40" s="354"/>
+      <c r="G40" s="354"/>
     </row>
     <row r="41" spans="1:7" ht="12" customHeight="1">
-      <c r="A41" s="384" t="s">
-        <v>470</v>
+      <c r="A41" s="381" t="s">
+        <v>425</v>
       </c>
       <c r="B41" s="273">
         <v>2.6</v>
       </c>
-      <c r="D41" s="354" t="s">
-        <v>491</v>
-      </c>
-      <c r="E41" s="355"/>
+      <c r="D41" s="353" t="s">
+        <v>442</v>
+      </c>
+      <c r="E41" s="354"/>
     </row>
     <row r="42" spans="1:7" ht="12" customHeight="1">
-      <c r="A42" s="384" t="s">
-        <v>471</v>
+      <c r="A42" s="381" t="s">
+        <v>426</v>
       </c>
       <c r="B42" s="273">
         <v>30</v>
       </c>
-      <c r="D42" s="354" t="s">
-        <v>491</v>
-      </c>
-      <c r="E42" s="355"/>
+      <c r="D42" s="353" t="s">
+        <v>442</v>
+      </c>
+      <c r="E42" s="354"/>
     </row>
     <row r="43" spans="1:7" ht="12" customHeight="1">
-      <c r="A43" s="384" t="s">
-        <v>469</v>
+      <c r="A43" s="381" t="s">
+        <v>424</v>
       </c>
       <c r="B43" s="273">
         <v>-0.5</v>
       </c>
-      <c r="D43" s="354" t="s">
-        <v>491</v>
-      </c>
-      <c r="E43" s="355"/>
+      <c r="D43" s="353" t="s">
+        <v>442</v>
+      </c>
+      <c r="E43" s="354"/>
     </row>
     <row r="44" spans="1:7" ht="12" customHeight="1">
-      <c r="A44" s="384" t="s">
-        <v>475</v>
+      <c r="A44" s="381" t="s">
+        <v>427</v>
       </c>
       <c r="B44" s="273">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D44" s="354" t="s">
-        <v>491</v>
-      </c>
-      <c r="E44" s="355"/>
+      <c r="D44" s="353" t="s">
+        <v>442</v>
+      </c>
+      <c r="E44" s="354"/>
     </row>
     <row r="45" spans="1:7" ht="12" customHeight="1">
-      <c r="A45" s="356"/>
-      <c r="B45" s="359"/>
+      <c r="A45" s="355"/>
+      <c r="B45" s="358"/>
     </row>
     <row r="46" spans="1:7" ht="12" customHeight="1">
       <c r="A46" s="109" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B46" s="29"/>
-      <c r="D46" s="361"/>
+      <c r="D46" s="360"/>
       <c r="E46" s="5"/>
     </row>
     <row r="47" spans="1:7" ht="12" customHeight="1">
-      <c r="A47" s="384" t="s">
-        <v>475</v>
+      <c r="A47" s="381" t="s">
+        <v>427</v>
       </c>
       <c r="B47" s="273">
         <v>1.25E-3</v>
       </c>
-      <c r="D47" s="354" t="s">
-        <v>477</v>
-      </c>
-      <c r="E47" s="355"/>
-      <c r="F47" s="355"/>
+      <c r="D47" s="353" t="s">
+        <v>428</v>
+      </c>
+      <c r="E47" s="354"/>
+      <c r="F47" s="354"/>
     </row>
     <row r="48" spans="1:7" ht="12" customHeight="1">
-      <c r="A48" s="384" t="s">
-        <v>481</v>
+      <c r="A48" s="381" t="s">
+        <v>432</v>
       </c>
       <c r="B48" s="273">
         <v>0</v>
       </c>
-      <c r="D48" s="354" t="s">
-        <v>492</v>
-      </c>
-      <c r="E48" s="355"/>
-      <c r="F48" s="355"/>
+      <c r="D48" s="353" t="s">
+        <v>443</v>
+      </c>
+      <c r="E48" s="354"/>
+      <c r="F48" s="354"/>
     </row>
     <row r="49" spans="1:6" ht="12" customHeight="1">
-      <c r="A49" s="384" t="s">
-        <v>480</v>
+      <c r="A49" s="381" t="s">
+        <v>431</v>
       </c>
       <c r="B49" s="273">
         <v>15000</v>
       </c>
-      <c r="D49" s="354" t="s">
-        <v>477</v>
-      </c>
-      <c r="E49" s="355"/>
-      <c r="F49" s="355"/>
+      <c r="D49" s="353" t="s">
+        <v>428</v>
+      </c>
+      <c r="E49" s="354"/>
+      <c r="F49" s="354"/>
     </row>
     <row r="50" spans="1:6" ht="12" customHeight="1">
-      <c r="A50" s="384" t="s">
-        <v>482</v>
+      <c r="A50" s="381" t="s">
+        <v>433</v>
       </c>
       <c r="B50" s="273">
         <f>B31/B98^2</f>
         <v>1.2926814741057128E-3</v>
       </c>
-      <c r="D50" s="354" t="s">
-        <v>478</v>
-      </c>
-      <c r="E50" s="355"/>
+      <c r="D50" s="353" t="s">
+        <v>429</v>
+      </c>
+      <c r="E50" s="354"/>
     </row>
     <row r="51" spans="1:6" ht="12" customHeight="1">
-      <c r="A51" s="384" t="s">
-        <v>483</v>
+      <c r="A51" s="381" t="s">
+        <v>434</v>
       </c>
       <c r="B51" s="273">
         <f>B31*1.1</f>
         <v>4607.1167737127607</v>
       </c>
-      <c r="D51" s="354" t="s">
-        <v>479</v>
-      </c>
-      <c r="E51" s="355"/>
-      <c r="F51" s="355"/>
+      <c r="D51" s="353" t="s">
+        <v>430</v>
+      </c>
+      <c r="E51" s="354"/>
+      <c r="F51" s="354"/>
     </row>
     <row r="52" spans="1:6" ht="12" customHeight="1">
-      <c r="A52" s="384" t="s">
-        <v>497</v>
+      <c r="A52" s="381" t="s">
+        <v>444</v>
       </c>
       <c r="B52" s="273">
         <v>0</v>
       </c>
-      <c r="D52" s="354" t="s">
-        <v>484</v>
-      </c>
-      <c r="E52" s="355"/>
+      <c r="D52" s="353" t="s">
+        <v>435</v>
+      </c>
+      <c r="E52" s="354"/>
     </row>
     <row r="53" spans="1:6" ht="12" customHeight="1">
-      <c r="A53" s="384" t="s">
-        <v>485</v>
+      <c r="A53" s="381" t="s">
+        <v>436</v>
       </c>
       <c r="B53" s="273">
         <f>B34+1</f>
         <v>3.6</v>
       </c>
-      <c r="D53" s="354" t="s">
-        <v>486</v>
-      </c>
-      <c r="E53" s="355"/>
+      <c r="D53" s="353" t="s">
+        <v>437</v>
+      </c>
+      <c r="E53" s="354"/>
     </row>
     <row r="54" spans="1:6" ht="12" customHeight="1">
-      <c r="A54" s="384" t="s">
-        <v>487</v>
+      <c r="A54" s="381" t="s">
+        <v>438</v>
       </c>
       <c r="B54" s="273">
         <v>0</v>
       </c>
-      <c r="D54" s="354" t="s">
-        <v>488</v>
-      </c>
-      <c r="E54" s="355"/>
+      <c r="D54" s="353" t="s">
+        <v>439</v>
+      </c>
+      <c r="E54" s="354"/>
     </row>
     <row r="55" spans="1:6" ht="12.75" customHeight="1"/>
     <row r="56" spans="1:6" ht="18.75" customHeight="1">
@@ -6441,7 +6541,7 @@
       <c r="B56" s="54"/>
     </row>
     <row r="57" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A57" s="384" t="s">
+      <c r="A57" s="381" t="s">
         <v>206</v>
       </c>
       <c r="B57" s="274">
@@ -6449,7 +6549,7 @@
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="384" t="s">
+      <c r="A58" s="381" t="s">
         <v>123</v>
       </c>
       <c r="B58" s="275">
@@ -6457,7 +6557,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="15" customHeight="1">
-      <c r="A59" s="384" t="s">
+      <c r="A59" s="381" t="s">
         <v>124</v>
       </c>
       <c r="B59" s="275">
@@ -6465,7 +6565,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A60" s="384" t="s">
+      <c r="A60" s="381" t="s">
         <v>125</v>
       </c>
       <c r="B60" s="275">
@@ -6473,7 +6573,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A61" s="384" t="s">
+      <c r="A61" s="381" t="s">
         <v>126</v>
       </c>
       <c r="B61" s="275">
@@ -6481,7 +6581,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A62" s="384" t="s">
+      <c r="A62" s="381" t="s">
         <v>384</v>
       </c>
       <c r="B62" s="330">
@@ -7331,8 +7431,8 @@
       <c r="D133" s="188" t="s">
         <v>89</v>
       </c>
-      <c r="E133" s="195" t="s">
-        <v>323</v>
+      <c r="E133" s="405" t="s">
+        <v>456</v>
       </c>
       <c r="F133" s="188" t="s">
         <v>324</v>
@@ -7340,8 +7440,8 @@
       <c r="G133" s="188" t="s">
         <v>325</v>
       </c>
-      <c r="H133" s="188" t="s">
-        <v>326</v>
+      <c r="H133" s="405" t="s">
+        <v>457</v>
       </c>
       <c r="I133" s="188" t="s">
         <v>342</v>
@@ -7413,7 +7513,7 @@
       <c r="D135" s="303" t="s">
         <v>377</v>
       </c>
-      <c r="E135" s="351">
+      <c r="E135" s="350">
         <v>0.25</v>
       </c>
       <c r="F135" s="302">
@@ -7454,7 +7554,7 @@
       <c r="D136" s="309" t="s">
         <v>377</v>
       </c>
-      <c r="E136" s="351">
+      <c r="E136" s="350">
         <v>0.25</v>
       </c>
       <c r="F136" s="308">
@@ -7654,8 +7754,8 @@
       <c r="D142" t="s">
         <v>350</v>
       </c>
-      <c r="H142" s="360" t="s">
-        <v>412</v>
+      <c r="H142" s="359" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -7668,10 +7768,10 @@
       <c r="B145" s="230" t="s">
         <v>363</v>
       </c>
-      <c r="C145" s="336" t="s">
-        <v>399</v>
-      </c>
-      <c r="D145" s="337"/>
+      <c r="C145" s="406" t="s">
+        <v>458</v>
+      </c>
+      <c r="D145" s="336"/>
     </row>
     <row r="146" spans="1:7" ht="12">
       <c r="A146" s="192" t="s">
@@ -7688,7 +7788,7 @@
         <f t="shared" ref="A147:A152" si="0">A135</f>
         <v>0.05</v>
       </c>
-      <c r="B147" s="338">
+      <c r="B147" s="337">
         <v>10.5</v>
       </c>
       <c r="C147" s="322"/>
@@ -7701,7 +7801,7 @@
         <f t="shared" si="0"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="B148" s="339">
+      <c r="B148" s="338">
         <v>10.5</v>
       </c>
       <c r="C148" s="324"/>
@@ -7740,7 +7840,7 @@
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="B151" s="340">
+      <c r="B151" s="339">
         <v>0</v>
       </c>
       <c r="C151" s="324"/>
@@ -7756,181 +7856,181 @@
       <c r="B152" s="328">
         <v>-0.6</v>
       </c>
-      <c r="C152" s="341"/>
+      <c r="C152" s="340"/>
       <c r="D152" s="326">
         <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="12">
-      <c r="A154" s="342" t="s">
+      <c r="A154" s="341" t="s">
+        <v>399</v>
+      </c>
+      <c r="B154" s="348" t="s">
         <v>400</v>
       </c>
-      <c r="B154" s="349" t="s">
-        <v>401</v>
-      </c>
-      <c r="C154" s="350"/>
+      <c r="C154" s="349"/>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="343">
+      <c r="A155" s="342">
         <v>1</v>
       </c>
-      <c r="B155" s="344"/>
-      <c r="C155" s="345" t="s">
+      <c r="B155" s="343"/>
+      <c r="C155" s="344" t="s">
         <v>378</v>
       </c>
-      <c r="E155" s="361"/>
+      <c r="E155" s="360"/>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="343">
+      <c r="A156" s="342">
         <v>2</v>
       </c>
-      <c r="B156" s="346"/>
-      <c r="C156" s="347" t="s">
+      <c r="B156" s="345"/>
+      <c r="C156" s="346" t="s">
+        <v>406</v>
+      </c>
+      <c r="E156" s="353" t="s">
         <v>407</v>
       </c>
-      <c r="E156" s="354" t="s">
+      <c r="F156" s="354"/>
+      <c r="G156" s="354"/>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="342">
+        <v>3</v>
+      </c>
+      <c r="B157" s="345"/>
+      <c r="C157" s="346" t="s">
         <v>408</v>
       </c>
-      <c r="F156" s="355"/>
-      <c r="G156" s="355"/>
-    </row>
-    <row r="157" spans="1:7">
-      <c r="A157" s="343">
-        <v>3</v>
-      </c>
-      <c r="B157" s="346"/>
-      <c r="C157" s="347" t="s">
+      <c r="E157" s="353" t="s">
+        <v>407</v>
+      </c>
+      <c r="F157" s="354"/>
+      <c r="G157" s="354"/>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="347">
+        <v>4</v>
+      </c>
+      <c r="B158" s="361"/>
+      <c r="C158" s="362" t="s">
         <v>409</v>
       </c>
-      <c r="E157" s="354" t="s">
-        <v>408</v>
-      </c>
-      <c r="F157" s="355"/>
-      <c r="G157" s="355"/>
-    </row>
-    <row r="158" spans="1:7">
-      <c r="A158" s="348">
-        <v>4</v>
-      </c>
-      <c r="B158" s="362"/>
-      <c r="C158" s="363" t="s">
-        <v>410</v>
-      </c>
-      <c r="E158" s="354" t="s">
-        <v>408</v>
-      </c>
-      <c r="F158" s="355"/>
-      <c r="G158" s="355"/>
+      <c r="E158" s="353" t="s">
+        <v>407</v>
+      </c>
+      <c r="F158" s="354"/>
+      <c r="G158" s="354"/>
     </row>
     <row r="159" spans="1:7" ht="12" thickBot="1"/>
     <row r="160" spans="1:7" ht="12" thickBot="1">
       <c r="A160" s="386" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B160" s="388"/>
       <c r="C160" s="389"/>
-      <c r="E160" s="354" t="s">
-        <v>403</v>
-      </c>
-      <c r="F160" s="355"/>
+      <c r="E160" s="353" t="s">
+        <v>402</v>
+      </c>
+      <c r="F160" s="354"/>
     </row>
     <row r="161" spans="1:6" ht="12" thickBot="1">
-      <c r="A161" s="364" t="s">
+      <c r="A161" s="363" t="s">
         <v>35</v>
       </c>
-      <c r="B161" s="365" t="s">
+      <c r="B161" s="364" t="s">
         <v>36</v>
       </c>
-      <c r="C161" s="365" t="s">
+      <c r="C161" s="364" t="s">
         <v>37</v>
       </c>
-      <c r="E161" s="354" t="s">
-        <v>403</v>
-      </c>
-      <c r="F161" s="355"/>
+      <c r="E161" s="353" t="s">
+        <v>402</v>
+      </c>
+      <c r="F161" s="354"/>
     </row>
     <row r="162" spans="1:6" ht="12" thickBot="1">
-      <c r="A162" s="366">
+      <c r="A162" s="365">
         <v>3.882E-2</v>
       </c>
-      <c r="B162" s="367">
+      <c r="B162" s="366">
         <v>3.882E-2</v>
       </c>
-      <c r="C162" s="377">
+      <c r="C162" s="376">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="E162" s="354" t="s">
-        <v>403</v>
-      </c>
-      <c r="F162" s="355"/>
+      <c r="E162" s="353" t="s">
+        <v>402</v>
+      </c>
+      <c r="F162" s="354"/>
     </row>
     <row r="163" spans="1:6" ht="12" thickBot="1"/>
     <row r="164" spans="1:6" ht="12" thickBot="1">
       <c r="A164" s="386" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B164" s="387"/>
-      <c r="C164" s="368"/>
-      <c r="E164" s="354" t="s">
-        <v>403</v>
-      </c>
-      <c r="F164" s="355"/>
+      <c r="C164" s="367"/>
+      <c r="E164" s="353" t="s">
+        <v>402</v>
+      </c>
+      <c r="F164" s="354"/>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="369" t="s">
+      <c r="A165" s="368" t="s">
         <v>50</v>
       </c>
-      <c r="B165" s="370">
+      <c r="B165" s="369">
         <v>3.4349999999999999E-2</v>
       </c>
-      <c r="C165" s="353"/>
-      <c r="E165" s="354" t="s">
-        <v>403</v>
-      </c>
-      <c r="F165" s="355"/>
+      <c r="C165" s="352"/>
+      <c r="E165" s="353" t="s">
+        <v>402</v>
+      </c>
+      <c r="F165" s="354"/>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="371" t="s">
+      <c r="A166" s="370" t="s">
         <v>51</v>
       </c>
-      <c r="B166" s="372">
+      <c r="B166" s="371">
         <v>3.4349999999999999E-2</v>
       </c>
-      <c r="C166" s="373"/>
-      <c r="E166" s="354" t="s">
-        <v>403</v>
-      </c>
-      <c r="F166" s="355"/>
+      <c r="C166" s="372"/>
+      <c r="E166" s="353" t="s">
+        <v>402</v>
+      </c>
+      <c r="F166" s="354"/>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" s="374" t="s">
+      <c r="A167" s="373" t="s">
         <v>52</v>
       </c>
-      <c r="B167" s="372">
+      <c r="B167" s="371">
         <v>3.4349999999999999E-2</v>
       </c>
-      <c r="E167" s="354" t="s">
-        <v>403</v>
-      </c>
-      <c r="F167" s="355"/>
+      <c r="E167" s="353" t="s">
+        <v>402</v>
+      </c>
+      <c r="F167" s="354"/>
     </row>
     <row r="168" spans="1:6" ht="12" thickBot="1">
-      <c r="A168" s="375" t="s">
+      <c r="A168" s="374" t="s">
         <v>53</v>
       </c>
-      <c r="B168" s="376">
+      <c r="B168" s="375">
         <v>3.4349999999999999E-2</v>
       </c>
-      <c r="E168" s="354" t="s">
-        <v>403</v>
-      </c>
-      <c r="F168" s="355"/>
+      <c r="E168" s="353" t="s">
+        <v>402</v>
+      </c>
+      <c r="F168" s="354"/>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="5"/>
-      <c r="B169" s="352"/>
-      <c r="C169" s="352"/>
-      <c r="D169" s="352"/>
+      <c r="B169" s="351"/>
+      <c r="C169" s="351"/>
+      <c r="D169" s="351"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7952,6 +8052,872 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="H1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="H2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="H3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="H4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="153">
+        <f>'Main Page'!B9</f>
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="125">
+        <v>7850</v>
+      </c>
+      <c r="G5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="153">
+        <f>C5-'Main Page'!B57</f>
+        <v>58.67</v>
+      </c>
+      <c r="D6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="152">
+        <v>200000000000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="153">
+        <f>'Main Page'!B60</f>
+        <v>3.75</v>
+      </c>
+      <c r="D7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="152">
+        <f>F6/2.6</f>
+        <v>76923076923.07692</v>
+      </c>
+      <c r="G7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="153">
+        <f>'Main Page'!B58</f>
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="153">
+        <f>'Main Page'!B61</f>
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="B10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="153">
+        <f>'Main Page'!B59</f>
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="B11" t="s">
+        <v>385</v>
+      </c>
+      <c r="C11" s="153">
+        <f>'Main Page'!B62</f>
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="B13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" t="s">
+        <v>113</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>306</v>
+      </c>
+      <c r="K13" t="s">
+        <v>112</v>
+      </c>
+      <c r="L13" t="s">
+        <v>307</v>
+      </c>
+      <c r="M13" t="s">
+        <v>308</v>
+      </c>
+      <c r="N13" t="s">
+        <v>309</v>
+      </c>
+      <c r="O13" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" t="s">
+        <v>114</v>
+      </c>
+      <c r="I14" t="s">
+        <v>111</v>
+      </c>
+      <c r="J14" t="s">
+        <v>110</v>
+      </c>
+      <c r="K14" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" t="s">
+        <v>111</v>
+      </c>
+      <c r="M14" t="s">
+        <v>110</v>
+      </c>
+      <c r="N14" t="s">
+        <v>91</v>
+      </c>
+      <c r="O14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15">
+        <f>B15/9</f>
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" s="154">
+        <f>C$6/B$24*B15</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="155">
+        <f>C$7-(C$7-C$8)*C15/C$6</f>
+        <v>3.75</v>
+      </c>
+      <c r="E15" s="156">
+        <f>C$9-(C$9-C$10)*C15/C$6</f>
+        <v>15</v>
+      </c>
+      <c r="F15" s="154">
+        <f>PI()*D15*E15/1000</f>
+        <v>0.17671458676442586</v>
+      </c>
+      <c r="G15" s="156">
+        <f>F15*F$5*(C$11/100+1)</f>
+        <v>1456.5699814057803</v>
+      </c>
+      <c r="H15" s="157">
+        <f t="shared" ref="H15:H24" si="0">F15*F$6</f>
+        <v>35342917352.88517</v>
+      </c>
+      <c r="I15" s="154">
+        <f t="shared" ref="I15:I24" si="1">F15*D15^2/4</f>
+        <v>0.62126221909368462</v>
+      </c>
+      <c r="J15" s="156">
+        <f t="shared" ref="J15:J24" si="2">I15*F$5</f>
+        <v>4876.9084198854243</v>
+      </c>
+      <c r="K15" s="157">
+        <f t="shared" ref="K15:K24" si="3">I15*F$7</f>
+        <v>47789401468.744972</v>
+      </c>
+      <c r="L15" s="154">
+        <f>I15/2</f>
+        <v>0.31063110954684231</v>
+      </c>
+      <c r="M15" s="156">
+        <f>J15/2</f>
+        <v>2438.4542099427122</v>
+      </c>
+      <c r="N15" s="157">
+        <f t="shared" ref="N15:N24" si="4">L15*F$6</f>
+        <v>62126221909.368462</v>
+      </c>
+      <c r="O15" s="332">
+        <f>G15*(C16-C15)/2</f>
+        <v>4747.6089338376187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16">
+        <f t="shared" ref="A16:A24" si="5">B16/9</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="B16">
+        <f>B15+1</f>
+        <v>1</v>
+      </c>
+      <c r="C16" s="154">
+        <f t="shared" ref="C16:C24" si="6">C$6/B$24*B16</f>
+        <v>6.5188888888888892</v>
+      </c>
+      <c r="D16" s="155">
+        <f t="shared" ref="D16:D24" si="7">C$7-(C$7-C$8)*C16/C$6</f>
+        <v>3.5555555555555554</v>
+      </c>
+      <c r="E16" s="156">
+        <f t="shared" ref="E16:E24" si="8">C$9-(C$9-C$10)*C16/C$6</f>
+        <v>14.333333333333334</v>
+      </c>
+      <c r="F16" s="154">
+        <f t="shared" ref="F16:F24" si="9">PI()*D16*E16/1000</f>
+        <v>0.16010487004961316</v>
+      </c>
+      <c r="G16" s="156">
+        <f t="shared" ref="G16:G24" si="10">F16*F$5*(C$11/100+1)</f>
+        <v>1319.6643913839366</v>
+      </c>
+      <c r="H16" s="157">
+        <f t="shared" si="0"/>
+        <v>32020974009.92263</v>
+      </c>
+      <c r="I16" s="154">
+        <f t="shared" si="1"/>
+        <v>0.5060104534901354</v>
+      </c>
+      <c r="J16" s="156">
+        <f t="shared" si="2"/>
+        <v>3972.1820598975628</v>
+      </c>
+      <c r="K16" s="157">
+        <f t="shared" si="3"/>
+        <v>38923881037.702721</v>
+      </c>
+      <c r="L16" s="154">
+        <f t="shared" ref="L16:L24" si="11">I16/2</f>
+        <v>0.2530052267450677</v>
+      </c>
+      <c r="M16" s="156">
+        <f t="shared" ref="M16:M24" si="12">J16/2</f>
+        <v>1986.0910299487814</v>
+      </c>
+      <c r="N16" s="157">
+        <f t="shared" si="4"/>
+        <v>50601045349.013542</v>
+      </c>
+      <c r="O16" s="332">
+        <f>G16*(C17-C15)/2</f>
+        <v>8602.7455380550637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17">
+        <f t="shared" si="5"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ref="B17:B24" si="13">B16+1</f>
+        <v>2</v>
+      </c>
+      <c r="C17" s="154">
+        <f t="shared" si="6"/>
+        <v>13.037777777777778</v>
+      </c>
+      <c r="D17" s="155">
+        <f t="shared" si="7"/>
+        <v>3.3611111111111112</v>
+      </c>
+      <c r="E17" s="156">
+        <f t="shared" si="8"/>
+        <v>13.666666666666666</v>
+      </c>
+      <c r="F17" s="154">
+        <f t="shared" si="9"/>
+        <v>0.14430964031906446</v>
+      </c>
+      <c r="G17" s="156">
+        <f t="shared" si="10"/>
+        <v>1189.4722103298889</v>
+      </c>
+      <c r="H17" s="157">
+        <f t="shared" si="0"/>
+        <v>28861928063.812893</v>
+      </c>
+      <c r="I17" s="154">
+        <f t="shared" si="1"/>
+        <v>0.40756895137180221</v>
+      </c>
+      <c r="J17" s="156">
+        <f t="shared" si="2"/>
+        <v>3199.4162682686474</v>
+      </c>
+      <c r="K17" s="157">
+        <f t="shared" si="3"/>
+        <v>31351457797.830936</v>
+      </c>
+      <c r="L17" s="154">
+        <f t="shared" si="11"/>
+        <v>0.20378447568590111</v>
+      </c>
+      <c r="M17" s="156">
+        <f t="shared" si="12"/>
+        <v>1599.7081341343237</v>
+      </c>
+      <c r="N17" s="157">
+        <f t="shared" si="4"/>
+        <v>40756895137.180222</v>
+      </c>
+      <c r="O17" s="332">
+        <f t="shared" ref="O17:O23" si="14">G17*(C18-C16)/2</f>
+        <v>7754.0371755616216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="C18" s="154">
+        <f t="shared" si="6"/>
+        <v>19.556666666666668</v>
+      </c>
+      <c r="D18" s="155">
+        <f t="shared" si="7"/>
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="E18" s="156">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="F18" s="154">
+        <f t="shared" si="9"/>
+        <v>0.12932889757277979</v>
+      </c>
+      <c r="G18" s="156">
+        <f t="shared" si="10"/>
+        <v>1065.9934382436375</v>
+      </c>
+      <c r="H18" s="157">
+        <f t="shared" si="0"/>
+        <v>25865779514.555958</v>
+      </c>
+      <c r="I18" s="154">
+        <f t="shared" si="1"/>
+        <v>0.32422036127620485</v>
+      </c>
+      <c r="J18" s="156">
+        <f t="shared" si="2"/>
+        <v>2545.1298360182082</v>
+      </c>
+      <c r="K18" s="157">
+        <f t="shared" si="3"/>
+        <v>24940027790.477295</v>
+      </c>
+      <c r="L18" s="154">
+        <f t="shared" si="11"/>
+        <v>0.16211018063810242</v>
+      </c>
+      <c r="M18" s="156">
+        <f t="shared" si="12"/>
+        <v>1272.5649180091041</v>
+      </c>
+      <c r="N18" s="157">
+        <f t="shared" si="4"/>
+        <v>32422036127.620483</v>
+      </c>
+      <c r="O18" s="332">
+        <f t="shared" si="14"/>
+        <v>6949.0927801949128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19">
+        <f t="shared" si="5"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="C19" s="154">
+        <f t="shared" si="6"/>
+        <v>26.075555555555557</v>
+      </c>
+      <c r="D19" s="155">
+        <f t="shared" si="7"/>
+        <v>2.9722222222222223</v>
+      </c>
+      <c r="E19" s="156">
+        <f t="shared" si="8"/>
+        <v>12.333333333333332</v>
+      </c>
+      <c r="F19" s="154">
+        <f t="shared" si="9"/>
+        <v>0.11516264181075916</v>
+      </c>
+      <c r="G19" s="156">
+        <f t="shared" si="10"/>
+        <v>949.2280751251825</v>
+      </c>
+      <c r="H19" s="157">
+        <f t="shared" si="0"/>
+        <v>23032528362.151833</v>
+      </c>
+      <c r="I19" s="154">
+        <f t="shared" si="1"/>
+        <v>0.25433971568120795</v>
+      </c>
+      <c r="J19" s="156">
+        <f t="shared" si="2"/>
+        <v>1996.5667680974823</v>
+      </c>
+      <c r="K19" s="157">
+        <f t="shared" si="3"/>
+        <v>19564593513.939072</v>
+      </c>
+      <c r="L19" s="154">
+        <f t="shared" si="11"/>
+        <v>0.12716985784060397</v>
+      </c>
+      <c r="M19" s="156">
+        <f t="shared" si="12"/>
+        <v>998.28338404874114</v>
+      </c>
+      <c r="N19" s="157">
+        <f t="shared" si="4"/>
+        <v>25433971568.120796</v>
+      </c>
+      <c r="O19" s="332">
+        <f t="shared" si="14"/>
+        <v>6187.9123519549412</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20">
+        <f t="shared" si="5"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="C20" s="154">
+        <f t="shared" si="6"/>
+        <v>32.594444444444449</v>
+      </c>
+      <c r="D20" s="155">
+        <f t="shared" si="7"/>
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="E20" s="156">
+        <f t="shared" si="8"/>
+        <v>11.666666666666666</v>
+      </c>
+      <c r="F20" s="154">
+        <f t="shared" si="9"/>
+        <v>0.10181087303300254</v>
+      </c>
+      <c r="G20" s="156">
+        <f t="shared" si="10"/>
+        <v>839.17612097452354</v>
+      </c>
+      <c r="H20" s="157">
+        <f t="shared" si="0"/>
+        <v>20362174606.60051</v>
+      </c>
+      <c r="I20" s="154">
+        <f t="shared" si="1"/>
+        <v>0.19639443100502033</v>
+      </c>
+      <c r="J20" s="156">
+        <f t="shared" si="2"/>
+        <v>1541.6962833894095</v>
+      </c>
+      <c r="K20" s="157">
+        <f t="shared" si="3"/>
+        <v>15107263923.4631</v>
+      </c>
+      <c r="L20" s="154">
+        <f t="shared" si="11"/>
+        <v>9.8197215502510163E-2</v>
+      </c>
+      <c r="M20" s="156">
+        <f t="shared" si="12"/>
+        <v>770.84814169470474</v>
+      </c>
+      <c r="N20" s="157">
+        <f t="shared" si="4"/>
+        <v>19639443100.502033</v>
+      </c>
+      <c r="O20" s="332">
+        <f t="shared" si="14"/>
+        <v>5470.4958908417002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21">
+        <f t="shared" si="5"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="C21" s="154">
+        <f t="shared" si="6"/>
+        <v>39.113333333333337</v>
+      </c>
+      <c r="D21" s="155">
+        <f t="shared" si="7"/>
+        <v>2.583333333333333</v>
+      </c>
+      <c r="E21" s="156">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="F21" s="154">
+        <f t="shared" si="9"/>
+        <v>8.9273591239509953E-2</v>
+      </c>
+      <c r="G21" s="156">
+        <f t="shared" si="10"/>
+        <v>735.83757579166081</v>
+      </c>
+      <c r="H21" s="157">
+        <f t="shared" si="0"/>
+        <v>17854718247.901989</v>
+      </c>
+      <c r="I21" s="154">
+        <f t="shared" si="1"/>
+        <v>0.14894430760619626</v>
+      </c>
+      <c r="J21" s="156">
+        <f t="shared" si="2"/>
+        <v>1169.2128147086407</v>
+      </c>
+      <c r="K21" s="157">
+        <f t="shared" si="3"/>
+        <v>11457254431.245865</v>
+      </c>
+      <c r="L21" s="154">
+        <f t="shared" si="11"/>
+        <v>7.4472153803098129E-2</v>
+      </c>
+      <c r="M21" s="156">
+        <f t="shared" si="12"/>
+        <v>584.60640735432037</v>
+      </c>
+      <c r="N21" s="157">
+        <f t="shared" si="4"/>
+        <v>14894430760.619625</v>
+      </c>
+      <c r="O21" s="332">
+        <f t="shared" si="14"/>
+        <v>4796.8433968551926</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22">
+        <f t="shared" si="5"/>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="C22" s="154">
+        <f t="shared" si="6"/>
+        <v>45.632222222222225</v>
+      </c>
+      <c r="D22" s="155">
+        <f t="shared" si="7"/>
+        <v>2.3888888888888893</v>
+      </c>
+      <c r="E22" s="156">
+        <f t="shared" si="8"/>
+        <v>10.333333333333332</v>
+      </c>
+      <c r="F22" s="154">
+        <f t="shared" si="9"/>
+        <v>7.7550796430281385E-2</v>
+      </c>
+      <c r="G22" s="156">
+        <f t="shared" si="10"/>
+        <v>639.21243957659442</v>
+      </c>
+      <c r="H22" s="157">
+        <f t="shared" si="0"/>
+        <v>15510159286.056276</v>
+      </c>
+      <c r="I22" s="154">
+        <f t="shared" si="1"/>
+        <v>0.11064152978363452</v>
+      </c>
+      <c r="J22" s="156">
+        <f t="shared" si="2"/>
+        <v>868.53600880153101</v>
+      </c>
+      <c r="K22" s="157">
+        <f t="shared" si="3"/>
+        <v>8510886906.433424</v>
+      </c>
+      <c r="L22" s="154">
+        <f t="shared" si="11"/>
+        <v>5.532076489181726E-2</v>
+      </c>
+      <c r="M22" s="156">
+        <f t="shared" si="12"/>
+        <v>434.26800440076551</v>
+      </c>
+      <c r="N22" s="157">
+        <f t="shared" si="4"/>
+        <v>11064152978.363453</v>
+      </c>
+      <c r="O22" s="332">
+        <f t="shared" si="14"/>
+        <v>4166.9548699954212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23">
+        <f t="shared" si="5"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="C23" s="154">
+        <f t="shared" si="6"/>
+        <v>52.151111111111113</v>
+      </c>
+      <c r="D23" s="155">
+        <f t="shared" si="7"/>
+        <v>2.1944444444444446</v>
+      </c>
+      <c r="E23" s="156">
+        <f t="shared" si="8"/>
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="F23" s="154">
+        <f t="shared" si="9"/>
+        <v>6.664248860531681E-2</v>
+      </c>
+      <c r="G23" s="156">
+        <f t="shared" si="10"/>
+        <v>549.3007123293238</v>
+      </c>
+      <c r="H23" s="157">
+        <f t="shared" si="0"/>
+        <v>13328497721.063362</v>
+      </c>
+      <c r="I23" s="154">
+        <f t="shared" si="1"/>
+        <v>8.0230665776578364E-2</v>
+      </c>
+      <c r="J23" s="156">
+        <f t="shared" si="2"/>
+        <v>629.8107263461402</v>
+      </c>
+      <c r="K23" s="157">
+        <f t="shared" si="3"/>
+        <v>6171589675.1214123</v>
+      </c>
+      <c r="L23" s="154">
+        <f t="shared" si="11"/>
+        <v>4.0115332888289182E-2</v>
+      </c>
+      <c r="M23" s="156">
+        <f t="shared" si="12"/>
+        <v>314.9053631730701</v>
+      </c>
+      <c r="N23" s="157">
+        <f t="shared" si="4"/>
+        <v>8023066577.657836</v>
+      </c>
+      <c r="O23" s="332">
+        <f t="shared" si="14"/>
+        <v>3580.8303102623804</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="C24" s="154">
+        <f t="shared" si="6"/>
+        <v>58.67</v>
+      </c>
+      <c r="D24" s="155">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E24" s="156">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="F24" s="154">
+        <f t="shared" si="9"/>
+        <v>5.6548667764616277E-2</v>
+      </c>
+      <c r="G24" s="156">
+        <f t="shared" si="10"/>
+        <v>466.10239404984969</v>
+      </c>
+      <c r="H24" s="157">
+        <f t="shared" si="0"/>
+        <v>11309733552.923256</v>
+      </c>
+      <c r="I24" s="154">
+        <f t="shared" si="1"/>
+        <v>5.6548667764616277E-2</v>
+      </c>
+      <c r="J24" s="156">
+        <f t="shared" si="2"/>
+        <v>443.90704195223776</v>
+      </c>
+      <c r="K24" s="157">
+        <f t="shared" si="3"/>
+        <v>4349897520.3550978</v>
+      </c>
+      <c r="L24" s="154">
+        <f t="shared" si="11"/>
+        <v>2.8274333882308138E-2</v>
+      </c>
+      <c r="M24" s="156">
+        <f t="shared" si="12"/>
+        <v>221.95352097611888</v>
+      </c>
+      <c r="N24" s="157">
+        <f t="shared" si="4"/>
+        <v>5654866776.461628</v>
+      </c>
+      <c r="O24" s="332">
+        <f>G24*(C24-C23)/2</f>
+        <v>1519.2348588280377</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="O25" s="332"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="O26" s="332">
+        <f>SUM(O15:O25)</f>
+        <v>53775.756106386892</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -8583,7 +9549,7 @@
         <v>210</v>
       </c>
       <c r="T11" s="113"/>
-      <c r="U11" s="378"/>
+      <c r="U11" s="377"/>
       <c r="V11" s="119"/>
       <c r="W11" s="115"/>
       <c r="X11" s="112"/>
@@ -10195,678 +11161,1003 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W26"/>
+  <dimension ref="A1:Y29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:U15"/>
+      <selection activeCell="B3" sqref="B3:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" customWidth="1"/>
-    <col min="2" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="18" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
-      <c r="A1">
-        <f>'Main Page'!B13</f>
-        <v>50</v>
-      </c>
-      <c r="W1" t="s">
+    <row r="1" spans="1:25">
+      <c r="A1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C3" s="18">
+        <f>'Main Page'!B13/2</f>
+        <v>25</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="Y3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>452</v>
+      </c>
+      <c r="C4" s="18">
+        <f>'Main Page'!B67/2</f>
+        <v>1.25</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="Y4" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
-      <c r="A2">
-        <f>'Main Page'!B67</f>
-        <v>2.5</v>
-      </c>
-      <c r="W2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" t="str">
-        <f>'Main Page'!C155</f>
-        <v>cylinder</v>
-      </c>
-      <c r="B3" t="str">
-        <f>'Main Page'!C156</f>
-        <v>s818_2703.dat</v>
-      </c>
-      <c r="C3" t="str">
-        <f>'Main Page'!C157</f>
-        <v>s825_2103.dat</v>
-      </c>
-      <c r="D3" t="str">
-        <f>'Main Page'!C158</f>
-        <v>s826_1603.dat</v>
-      </c>
-      <c r="W3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4">
+    <row r="5" spans="1:25">
+      <c r="A5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B5" t="s">
+        <v>454</v>
+      </c>
+      <c r="C5" s="18">
         <f>'Main Page'!A162*100</f>
         <v>3.8820000000000001</v>
       </c>
-      <c r="B4">
+      <c r="D5" s="18">
         <f>'Main Page'!B162*100</f>
         <v>3.8820000000000001</v>
       </c>
-      <c r="C4" s="103">
+      <c r="E5" s="407">
         <f>'Main Page'!C162*100</f>
         <v>5.8999999999999995</v>
       </c>
-      <c r="W4" s="360" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="379">
-        <v>0.05</v>
-      </c>
-      <c r="B5" s="379">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C5" s="379">
-        <v>0.1</v>
-      </c>
-      <c r="D5" s="379">
-        <v>0.15</v>
-      </c>
-      <c r="E5" s="379">
-        <v>0.2</v>
-      </c>
-      <c r="F5" s="379">
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="Y5" s="359" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="B6" t="s">
+        <v>511</v>
+      </c>
+      <c r="C6" s="408" t="s">
+        <v>455</v>
+      </c>
+      <c r="D6" s="408" t="s">
+        <v>512</v>
+      </c>
+      <c r="E6" s="408" t="s">
+        <v>513</v>
+      </c>
+      <c r="F6" s="408" t="s">
+        <v>514</v>
+      </c>
+      <c r="G6" s="408" t="s">
+        <v>515</v>
+      </c>
+      <c r="H6" s="408" t="s">
+        <v>516</v>
+      </c>
+      <c r="I6" s="408" t="s">
+        <v>517</v>
+      </c>
+      <c r="J6" s="408" t="s">
+        <v>518</v>
+      </c>
+      <c r="K6" s="408"/>
+      <c r="L6" s="408"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="Y6" s="359" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="C7" s="408">
+        <f>GECbladedata!$C28</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="410">
+        <f>0.25+GECbladedata!$Q28/GECbladedata!$P28</f>
         <v>0.25</v>
       </c>
-      <c r="G5" s="379">
-        <v>0.3</v>
-      </c>
-      <c r="H5" s="379">
-        <v>0.35</v>
-      </c>
-      <c r="I5" s="379">
-        <v>0.4</v>
-      </c>
-      <c r="J5" s="379">
-        <v>0.45</v>
-      </c>
-      <c r="K5" s="379">
-        <v>0.5</v>
-      </c>
-      <c r="L5" s="379">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="M5" s="379">
+      <c r="E7" s="410">
+        <f>GECbladedata!$K28</f>
+        <v>11.1</v>
+      </c>
+      <c r="F7" s="410">
+        <f>GECbladedata!$D28</f>
+        <v>1181.9474017501359</v>
+      </c>
+      <c r="G7" s="411">
+        <f>GECbladedata!$O28</f>
+        <v>2362406058.2721553</v>
+      </c>
+      <c r="H7" s="412">
+        <f>GECbladedata!$N28</f>
+        <v>2362406058.2721553</v>
+      </c>
+      <c r="I7" s="412">
+        <f>GECbladedata!$L28</f>
+        <v>815590611.695804</v>
+      </c>
+      <c r="J7" s="412">
+        <f>GECbladedata!$M28</f>
+        <v>10326627046.93685</v>
+      </c>
+      <c r="K7" s="408"/>
+      <c r="L7" s="408"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="C8" s="408">
+        <f>GECbladedata!$C29</f>
+        <v>2.1052631578947371E-2</v>
+      </c>
+      <c r="D8" s="410">
+        <f>0.25+GECbladedata!$Q29/GECbladedata!$P29</f>
+        <v>0.25</v>
+      </c>
+      <c r="E8" s="410">
+        <f>GECbladedata!$K29</f>
+        <v>11.1</v>
+      </c>
+      <c r="F8" s="410">
+        <f>GECbladedata!$D29</f>
+        <v>89.215305458599687</v>
+      </c>
+      <c r="G8" s="411">
+        <f>GECbladedata!$O29</f>
+        <v>292871613.66241747</v>
+      </c>
+      <c r="H8" s="412">
+        <f>GECbladedata!$N29</f>
+        <v>292871613.66241747</v>
+      </c>
+      <c r="I8" s="412">
+        <f>GECbladedata!$L29</f>
+        <v>102340392.98761402</v>
+      </c>
+      <c r="J8" s="412">
+        <f>GECbladedata!$M29</f>
+        <v>1295783621.589889</v>
+      </c>
+      <c r="K8" s="408"/>
+      <c r="L8" s="408"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="C9" s="408">
+        <f>GECbladedata!$C30</f>
+        <v>5.2631578947368411E-2</v>
+      </c>
+      <c r="D9" s="410">
+        <f>0.25+GECbladedata!$Q30/GECbladedata!$P30</f>
+        <v>0.22942453980605074</v>
+      </c>
+      <c r="E9" s="410">
+        <f>GECbladedata!$K30</f>
+        <v>11.1</v>
+      </c>
+      <c r="F9" s="410">
+        <f>GECbladedata!$D30</f>
+        <v>93.880830674399178</v>
+      </c>
+      <c r="G9" s="411">
+        <f>GECbladedata!$O30</f>
+        <v>255926413.53308159</v>
+      </c>
+      <c r="H9" s="412">
+        <f>GECbladedata!$N30</f>
+        <v>276174377.7347765</v>
+      </c>
+      <c r="I9" s="412">
+        <f>GECbladedata!$L30</f>
+        <v>86293632.699756593</v>
+      </c>
+      <c r="J9" s="412">
+        <f>GECbladedata!$M30</f>
+        <v>1335788009.2660363</v>
+      </c>
+      <c r="K9" s="408"/>
+      <c r="L9" s="408"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="C10" s="408">
+        <f>GECbladedata!$C31</f>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="D10" s="410">
+        <f>0.25+GECbladedata!$Q31/GECbladedata!$P31</f>
+        <v>0.20118076605125379</v>
+      </c>
+      <c r="E10" s="410">
+        <f>GECbladedata!$K31</f>
+        <v>11.1</v>
+      </c>
+      <c r="F10" s="410">
+        <f>GECbladedata!$D31</f>
+        <v>101.65670603406498</v>
+      </c>
+      <c r="G10" s="411">
+        <f>GECbladedata!$O31</f>
+        <v>194351079.98418844</v>
+      </c>
+      <c r="H10" s="412">
+        <f>GECbladedata!$N31</f>
+        <v>248345651.18870816</v>
+      </c>
+      <c r="I10" s="412">
+        <f>GECbladedata!$L31</f>
+        <v>59549032.219994225</v>
+      </c>
+      <c r="J10" s="412">
+        <f>GECbladedata!$M31</f>
+        <v>1402461988.7262819</v>
+      </c>
+      <c r="K10" s="408"/>
+      <c r="L10" s="408"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="C11" s="408">
+        <f>GECbladedata!$C32</f>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="D11" s="410">
+        <f>0.25+GECbladedata!$Q32/GECbladedata!$P32</f>
+        <v>0.17854587760800433</v>
+      </c>
+      <c r="E11" s="410">
+        <f>GECbladedata!$K32</f>
+        <v>11.1</v>
+      </c>
+      <c r="F11" s="410">
+        <f>GECbladedata!$D32</f>
+        <v>109.4325813937308</v>
+      </c>
+      <c r="G11" s="411">
+        <f>GECbladedata!$O32</f>
+        <v>132775746.43529522</v>
+      </c>
+      <c r="H11" s="412">
+        <f>GECbladedata!$N32</f>
+        <v>220516924.64263982</v>
+      </c>
+      <c r="I11" s="412">
+        <f>GECbladedata!$L32</f>
+        <v>32804431.740231842</v>
+      </c>
+      <c r="J11" s="412">
+        <f>GECbladedata!$M32</f>
+        <v>1469135968.1865273</v>
+      </c>
+      <c r="K11" s="408"/>
+      <c r="L11" s="408"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="C12" s="408">
+        <f>GECbladedata!$C33</f>
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="D12" s="410">
+        <f>0.25+GECbladedata!$Q33/GECbladedata!$P33</f>
+        <v>0.15999999999999998</v>
+      </c>
+      <c r="E12" s="410">
+        <f>GECbladedata!$K33</f>
+        <v>11.1</v>
+      </c>
+      <c r="F12" s="410">
+        <f>GECbladedata!$D33</f>
+        <v>117.20845675339662</v>
+      </c>
+      <c r="G12" s="411">
+        <f>GECbladedata!$O33</f>
+        <v>71200412.886402056</v>
+      </c>
+      <c r="H12" s="412">
+        <f>GECbladedata!$N33</f>
+        <v>192688198.09657151</v>
+      </c>
+      <c r="I12" s="412">
+        <f>GECbladedata!$L33</f>
+        <v>6059831.2604694702</v>
+      </c>
+      <c r="J12" s="412">
+        <f>GECbladedata!$M33</f>
+        <v>1535809947.6467729</v>
+      </c>
+      <c r="K12" s="408"/>
+      <c r="L12" s="408"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="C13" s="408">
+        <f>GECbladedata!$C34</f>
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="D13" s="410">
+        <f>0.25+GECbladedata!$Q34/GECbladedata!$P34</f>
+        <v>0.16482535368875387</v>
+      </c>
+      <c r="E13" s="410">
+        <f>GECbladedata!$K34</f>
+        <v>9.5</v>
+      </c>
+      <c r="F13" s="410">
+        <f>GECbladedata!$D34</f>
+        <v>110.35787927472171</v>
+      </c>
+      <c r="G13" s="411">
+        <f>GECbladedata!$O34</f>
+        <v>61417696.521534123</v>
+      </c>
+      <c r="H13" s="412">
+        <f>GECbladedata!$N34</f>
+        <v>169973932.22807014</v>
+      </c>
+      <c r="I13" s="412">
+        <f>GECbladedata!$L34</f>
+        <v>5425015.4541809028</v>
+      </c>
+      <c r="J13" s="412">
+        <f>GECbladedata!$M34</f>
+        <v>1447589040.0417631</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="C14" s="408">
+        <f>GECbladedata!$C35</f>
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="D14" s="410">
+        <f>0.25+GECbladedata!$Q35/GECbladedata!$P35</f>
+        <v>0.17014735544598833</v>
+      </c>
+      <c r="E14" s="410">
+        <f>GECbladedata!$K35</f>
+        <v>7.9</v>
+      </c>
+      <c r="F14" s="410">
+        <f>GECbladedata!$D35</f>
+        <v>103.50730179604682</v>
+      </c>
+      <c r="G14" s="411">
+        <f>GECbladedata!$O35</f>
+        <v>51634980.156666189</v>
+      </c>
+      <c r="H14" s="412">
+        <f>GECbladedata!$N35</f>
+        <v>147259666.3595688</v>
+      </c>
+      <c r="I14" s="412">
+        <f>GECbladedata!$L35</f>
+        <v>4790199.6478923345</v>
+      </c>
+      <c r="J14" s="412">
+        <f>GECbladedata!$M35</f>
+        <v>1359368132.4367533</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="C15" s="408">
+        <f>GECbladedata!$C36</f>
+        <v>0.36842105263157893</v>
+      </c>
+      <c r="D15" s="410">
+        <f>0.25+GECbladedata!$Q36/GECbladedata!$P36</f>
+        <v>0.17604684131250181</v>
+      </c>
+      <c r="E15" s="410">
+        <f>GECbladedata!$K36</f>
+        <v>6.2999999999999989</v>
+      </c>
+      <c r="F15" s="410">
+        <f>GECbladedata!$D36</f>
+        <v>96.656724317371896</v>
+      </c>
+      <c r="G15" s="411">
+        <f>GECbladedata!$O36</f>
+        <v>41852263.791798249</v>
+      </c>
+      <c r="H15" s="412">
+        <f>GECbladedata!$N36</f>
+        <v>124545400.49106742</v>
+      </c>
+      <c r="I15" s="412">
+        <f>GECbladedata!$L36</f>
+        <v>4155383.8416037662</v>
+      </c>
+      <c r="J15" s="412">
+        <f>GECbladedata!$M36</f>
+        <v>1271147224.8317432</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="C16" s="408">
+        <f>GECbladedata!$C37</f>
+        <v>0.42105263157894735</v>
+      </c>
+      <c r="D16" s="410">
+        <f>0.25+GECbladedata!$Q37/GECbladedata!$P37</f>
+        <v>0.18262319655237025</v>
+      </c>
+      <c r="E16" s="410">
+        <f>GECbladedata!$K37</f>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="F16" s="410">
+        <f>GECbladedata!$D37</f>
+        <v>89.806146838697003</v>
+      </c>
+      <c r="G16" s="411">
+        <f>GECbladedata!$O37</f>
+        <v>32069547.426930316</v>
+      </c>
+      <c r="H16" s="412">
+        <f>GECbladedata!$N37</f>
+        <v>101831134.62256606</v>
+      </c>
+      <c r="I16" s="412">
+        <f>GECbladedata!$L37</f>
+        <v>3520568.0353151988</v>
+      </c>
+      <c r="J16" s="412">
+        <f>GECbladedata!$M37</f>
+        <v>1182926317.2267334</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23">
+      <c r="C17" s="408">
+        <f>GECbladedata!$C38</f>
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="D17" s="410">
+        <f>0.25+GECbladedata!$Q38/GECbladedata!$P38</f>
+        <v>0.19</v>
+      </c>
+      <c r="E17" s="410">
+        <f>GECbladedata!$K38</f>
+        <v>3.1</v>
+      </c>
+      <c r="F17" s="410">
+        <f>GECbladedata!$D38</f>
+        <v>82.955569360022096</v>
+      </c>
+      <c r="G17" s="411">
+        <f>GECbladedata!$O38</f>
+        <v>22286831.062062379</v>
+      </c>
+      <c r="H17" s="412">
+        <f>GECbladedata!$N38</f>
+        <v>79116868.754064709</v>
+      </c>
+      <c r="I17" s="412">
+        <f>GECbladedata!$L38</f>
+        <v>2885752.229026631</v>
+      </c>
+      <c r="J17" s="412">
+        <f>GECbladedata!$M38</f>
+        <v>1094705409.6217237</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23">
+      <c r="C18" s="408">
+        <f>GECbladedata!$C39</f>
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="D18" s="410">
+        <f>0.25+GECbladedata!$Q39/GECbladedata!$P39</f>
+        <v>0.19444565945888745</v>
+      </c>
+      <c r="E18" s="410">
+        <f>GECbladedata!$K39</f>
+        <v>2.5999999999999996</v>
+      </c>
+      <c r="F18" s="410">
+        <f>GECbladedata!$D39</f>
+        <v>74.190377902510207</v>
+      </c>
+      <c r="G18" s="411">
+        <f>GECbladedata!$O39</f>
+        <v>18539309.239150856</v>
+      </c>
+      <c r="H18" s="412">
+        <f>GECbladedata!$N39</f>
+        <v>67558106.97317256</v>
+      </c>
+      <c r="I18" s="412">
+        <f>GECbladedata!$L39</f>
+        <v>2423588.3923425623</v>
+      </c>
+      <c r="J18" s="412">
+        <f>GECbladedata!$M39</f>
+        <v>975582982.3339535</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23">
+      <c r="C19" s="408">
+        <f>GECbladedata!$C40</f>
+        <v>0.57894736842105254</v>
+      </c>
+      <c r="D19" s="410">
+        <f>0.25+GECbladedata!$Q40/GECbladedata!$P40</f>
+        <v>0.19950703428506769</v>
+      </c>
+      <c r="E19" s="410">
+        <f>GECbladedata!$K40</f>
+        <v>2.1000000000000005</v>
+      </c>
+      <c r="F19" s="410">
+        <f>GECbladedata!$D40</f>
+        <v>65.425186444998332</v>
+      </c>
+      <c r="G19" s="411">
+        <f>GECbladedata!$O40</f>
+        <v>14791787.416239344</v>
+      </c>
+      <c r="H19" s="412">
+        <f>GECbladedata!$N40</f>
+        <v>55999345.192280442</v>
+      </c>
+      <c r="I19" s="412">
+        <f>GECbladedata!$L40</f>
+        <v>1961424.5556584948</v>
+      </c>
+      <c r="J19" s="412">
+        <f>GECbladedata!$M40</f>
+        <v>856460555.04618359</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23">
+      <c r="B20" s="359"/>
+      <c r="C20" s="408">
+        <f>GECbladedata!$C41</f>
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="D20" s="410">
+        <f>0.25+GECbladedata!$Q41/GECbladedata!$P41</f>
+        <v>0.20532155448393241</v>
+      </c>
+      <c r="E20" s="410">
+        <f>GECbladedata!$K41</f>
+        <v>1.5999999999999999</v>
+      </c>
+      <c r="F20" s="410">
+        <f>GECbladedata!$D41</f>
+        <v>56.659994987486449</v>
+      </c>
+      <c r="G20" s="411">
+        <f>GECbladedata!$O41</f>
+        <v>11044265.59332782</v>
+      </c>
+      <c r="H20" s="412">
+        <f>GECbladedata!$N41</f>
+        <v>44440583.411388293</v>
+      </c>
+      <c r="I20" s="412">
+        <f>GECbladedata!$L41</f>
+        <v>1499260.7189744262</v>
+      </c>
+      <c r="J20" s="412">
+        <f>GECbladedata!$M41</f>
+        <v>737338127.75841331</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23">
+      <c r="B21" s="359"/>
+      <c r="C21" s="408">
+        <f>GECbladedata!$C42</f>
+        <v>0.68421052631578938</v>
+      </c>
+      <c r="D21" s="410">
+        <f>0.25+GECbladedata!$Q42/GECbladedata!$P42</f>
+        <v>0.21207083752900485</v>
+      </c>
+      <c r="E21" s="410">
+        <f>GECbladedata!$K42</f>
+        <v>1.1000000000000005</v>
+      </c>
+      <c r="F21" s="410">
+        <f>GECbladedata!$D42</f>
+        <v>47.894803529974581</v>
+      </c>
+      <c r="G21" s="411">
+        <f>GECbladedata!$O42</f>
+        <v>7296743.7704163063</v>
+      </c>
+      <c r="H21" s="412">
+        <f>GECbladedata!$N42</f>
+        <v>32881821.630496174</v>
+      </c>
+      <c r="I21" s="412">
+        <f>GECbladedata!$L42</f>
+        <v>1037096.8822903587</v>
+      </c>
+      <c r="J21" s="412">
+        <f>GECbladedata!$M42</f>
+        <v>618215700.47064352</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23">
+      <c r="C22" s="408">
+        <f>GECbladedata!$C43</f>
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="D22" s="410">
+        <f>0.25+GECbladedata!$Q43/GECbladedata!$P43</f>
+        <v>0.21999999999999997</v>
+      </c>
+      <c r="E22" s="410">
+        <f>GECbladedata!$K43</f>
         <v>0.6</v>
       </c>
-      <c r="N5" s="379">
-        <v>0.65</v>
-      </c>
-      <c r="O5" s="379">
-        <v>0.7</v>
-      </c>
-      <c r="P5" s="379">
-        <v>0.75</v>
-      </c>
-      <c r="Q5" s="379">
-        <v>0.8</v>
-      </c>
-      <c r="R5" s="379">
-        <v>0.85</v>
-      </c>
-      <c r="S5" s="379">
-        <v>0.9</v>
-      </c>
-      <c r="T5" s="379">
-        <v>0.95</v>
-      </c>
-      <c r="U5" s="379">
-        <v>1</v>
-      </c>
-      <c r="W5" s="360" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="380">
-        <v>0.05</v>
-      </c>
-      <c r="B6" s="380">
-        <v>0.11333333333333333</v>
-      </c>
-      <c r="C6" s="380">
-        <v>0.17666666666666664</v>
-      </c>
-      <c r="D6" s="380">
-        <v>0.24</v>
-      </c>
-      <c r="E6" s="380">
-        <v>0.30333333333333329</v>
-      </c>
-      <c r="F6" s="380">
-        <v>0.36666666666666664</v>
-      </c>
-      <c r="G6" s="380">
-        <v>0.43</v>
-      </c>
-      <c r="H6" s="380">
-        <v>0.49333333333333329</v>
-      </c>
-      <c r="I6" s="380">
-        <v>0.55666666666666664</v>
-      </c>
-      <c r="J6" s="380">
-        <v>0.62</v>
-      </c>
-      <c r="K6" s="380">
-        <v>0.68333333333333335</v>
-      </c>
-      <c r="L6" s="380">
-        <v>0.74666666666666659</v>
-      </c>
-      <c r="M6" s="380">
-        <v>0.81</v>
-      </c>
-      <c r="N6" s="380">
-        <v>0.87333333333333341</v>
-      </c>
-      <c r="O6" s="380">
-        <v>0.93666666666666665</v>
-      </c>
-      <c r="P6" s="380">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="101"/>
-      <c r="W6" s="360" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
-      <c r="A7">
-        <f>'Main Page'!B17</f>
-        <v>1.2250000000000001</v>
-      </c>
-      <c r="B7" s="381"/>
-      <c r="C7" s="381"/>
-      <c r="D7" s="381"/>
-      <c r="E7" s="381"/>
-      <c r="F7" s="381"/>
-      <c r="G7" s="381"/>
-      <c r="H7" s="381"/>
-      <c r="I7" s="381"/>
-      <c r="J7" s="381"/>
-      <c r="K7" s="381"/>
-      <c r="L7" s="381"/>
-      <c r="M7" s="381"/>
-      <c r="N7" s="381"/>
-      <c r="O7" s="381"/>
-      <c r="P7" s="381"/>
-      <c r="Q7" s="101"/>
-      <c r="W7" s="360" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="A8" s="103">
-        <f>'Main Page'!B16</f>
-        <v>665139</v>
-      </c>
-      <c r="B8" s="381"/>
-      <c r="C8" s="381"/>
-      <c r="D8" s="381"/>
-      <c r="E8" s="381"/>
-      <c r="F8" s="381"/>
-      <c r="G8" s="381"/>
-      <c r="H8" s="381"/>
-      <c r="I8" s="381"/>
-      <c r="J8" s="381"/>
-      <c r="K8" s="381"/>
-      <c r="L8" s="381"/>
-      <c r="M8" s="381"/>
-      <c r="N8" s="381"/>
-      <c r="O8" s="381"/>
-      <c r="P8" s="381"/>
-      <c r="Q8" s="101"/>
-      <c r="W8" s="360" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="A9" s="102" t="str">
-        <f>'Main Page'!A134</f>
-        <v>Station</v>
-      </c>
-      <c r="B9" s="102" t="str">
-        <f>'Main Page'!H133</f>
-        <v>Unit Weight</v>
-      </c>
-      <c r="C9" s="102" t="str">
-        <f>'Main Page'!B145</f>
-        <v>Twist</v>
-      </c>
-      <c r="D9" s="102" t="str">
-        <f>'Main Page'!L133</f>
-        <v>GJ</v>
-      </c>
-      <c r="E9" s="102" t="str">
-        <f>'Main Page'!K133</f>
-        <v>EA</v>
-      </c>
-      <c r="F9" s="102" t="str">
-        <f>'Main Page'!J133</f>
-        <v>EIEdge</v>
-      </c>
-      <c r="G9" s="102" t="str">
-        <f>'Main Page'!I133</f>
-        <v>EIFlap</v>
-      </c>
-      <c r="H9" s="102" t="str">
-        <f>'Main Page'!B133</f>
-        <v>Chord</v>
-      </c>
-      <c r="I9" s="102" t="str">
-        <f>'Main Page'!E133</f>
-        <v>Gen. Axis Loc.</v>
-      </c>
-      <c r="J9" s="102" t="str">
-        <f>'Main Page'!A154</f>
-        <v>Airfoil ID</v>
-      </c>
-      <c r="W9" s="360" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10" s="102">
-        <f>'Main Page'!A135</f>
-        <v>0.05</v>
-      </c>
-      <c r="B10" s="102">
-        <f>'Main Page'!H135</f>
-        <v>1181.9474017501359</v>
-      </c>
-      <c r="C10" s="102">
-        <f>'Main Page'!B147 - 'Main Page'!B$152</f>
-        <v>11.1</v>
-      </c>
-      <c r="D10" s="102">
-        <f>'Main Page'!L135</f>
-        <v>815590611.695804</v>
-      </c>
-      <c r="E10" s="102">
-        <f>'Main Page'!K135</f>
-        <v>10326627046.93685</v>
-      </c>
-      <c r="F10" s="102">
-        <f>'Main Page'!J135</f>
-        <v>2362406058.2721553</v>
-      </c>
-      <c r="G10" s="102">
-        <f>'Main Page'!I135</f>
-        <v>2362406058.2721553</v>
-      </c>
-      <c r="H10" s="102">
-        <f>'Main Page'!B135</f>
-        <v>1.349657099314199</v>
-      </c>
-      <c r="I10" s="102">
-        <f>'Main Page'!E135</f>
+      <c r="F22" s="410">
+        <f>GECbladedata!$D43</f>
+        <v>39.129612072462692</v>
+      </c>
+      <c r="G22" s="411">
+        <f>GECbladedata!$O43</f>
+        <v>3549221.9475047868</v>
+      </c>
+      <c r="H22" s="412">
+        <f>GECbladedata!$N43</f>
+        <v>21323059.849604025</v>
+      </c>
+      <c r="I22" s="412">
+        <f>GECbladedata!$L43</f>
+        <v>574933.04560629011</v>
+      </c>
+      <c r="J22" s="412">
+        <f>GECbladedata!$M43</f>
+        <v>499093273.18287331</v>
+      </c>
+      <c r="K22" s="102"/>
+      <c r="L22" s="102"/>
+      <c r="M22" s="102"/>
+      <c r="N22" s="102"/>
+      <c r="O22" s="102"/>
+      <c r="P22" s="102"/>
+      <c r="Q22" s="102"/>
+      <c r="R22" s="102"/>
+      <c r="S22" s="102"/>
+      <c r="T22" s="102"/>
+      <c r="U22" s="102"/>
+      <c r="V22" s="102"/>
+      <c r="W22" s="102"/>
+    </row>
+    <row r="23" spans="2:23">
+      <c r="C23" s="408">
+        <f>GECbladedata!$C44</f>
+        <v>0.78947368421052622</v>
+      </c>
+      <c r="D23" s="410">
+        <f>0.25+GECbladedata!$Q44/GECbladedata!$P44</f>
+        <v>0.22394997933030175</v>
+      </c>
+      <c r="E23" s="410">
+        <f>GECbladedata!$K44</f>
+        <v>0.47999999999999987</v>
+      </c>
+      <c r="F23" s="410">
+        <f>GECbladedata!$D44</f>
+        <v>32.853968916831455</v>
+      </c>
+      <c r="G23" s="411">
+        <f>GECbladedata!$O44</f>
+        <v>2855339.8778221109</v>
+      </c>
+      <c r="H23" s="412">
+        <f>GECbladedata!$N44</f>
+        <v>17598898.043764457</v>
+      </c>
+      <c r="I23" s="412">
+        <f>GECbladedata!$L44</f>
+        <v>472175.70936429268</v>
+      </c>
+      <c r="J23" s="412">
+        <f>GECbladedata!$M44</f>
+        <v>415421497.16283596</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23">
+      <c r="C24" s="408">
+        <f>GECbladedata!$C45</f>
+        <v>0.84210526315789458</v>
+      </c>
+      <c r="D24" s="410">
+        <f>0.25+GECbladedata!$Q45/GECbladedata!$P45</f>
+        <v>0.22863777614554492</v>
+      </c>
+      <c r="E24" s="410">
+        <f>GECbladedata!$K45</f>
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="F24" s="410">
+        <f>GECbladedata!$D45</f>
+        <v>26.57832576120024</v>
+      </c>
+      <c r="G24" s="411">
+        <f>GECbladedata!$O45</f>
+        <v>2161457.8081394369</v>
+      </c>
+      <c r="H24" s="412">
+        <f>GECbladedata!$N45</f>
+        <v>13874736.2379249</v>
+      </c>
+      <c r="I24" s="412">
+        <f>GECbladedata!$L45</f>
+        <v>369418.37312229548</v>
+      </c>
+      <c r="J24" s="412">
+        <f>GECbladedata!$M45</f>
+        <v>331749721.14279878</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23">
+      <c r="C25" s="408">
+        <f>GECbladedata!$C46</f>
+        <v>0.89473684210526305</v>
+      </c>
+      <c r="D25" s="410">
+        <f>0.25+GECbladedata!$Q46/GECbladedata!$P46</f>
+        <v>0.23429141218995386</v>
+      </c>
+      <c r="E25" s="410">
+        <f>GECbladedata!$K46</f>
+        <v>0.23999999999999994</v>
+      </c>
+      <c r="F25" s="410">
+        <f>GECbladedata!$D46</f>
+        <v>20.302682605569004</v>
+      </c>
+      <c r="G25" s="411">
+        <f>GECbladedata!$O46</f>
+        <v>1467575.738456761</v>
+      </c>
+      <c r="H25" s="412">
+        <f>GECbladedata!$N46</f>
+        <v>10150574.432085332</v>
+      </c>
+      <c r="I25" s="412">
+        <f>GECbladedata!$L46</f>
+        <v>266661.03688029811</v>
+      </c>
+      <c r="J25" s="412">
+        <f>GECbladedata!$M46</f>
+        <v>248077945.1227614</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23">
+      <c r="C26" s="408">
+        <f>GECbladedata!$C47</f>
+        <v>0.94736842105263142</v>
+      </c>
+      <c r="D26" s="410">
+        <f>0.25+GECbladedata!$Q47/GECbladedata!$P47</f>
+        <v>0.24124366011255469</v>
+      </c>
+      <c r="E26" s="410">
+        <f>GECbladedata!$K47</f>
+        <v>0.12000000000000011</v>
+      </c>
+      <c r="F26" s="410">
+        <f>GECbladedata!$D47</f>
+        <v>14.027039449937785</v>
+      </c>
+      <c r="G26" s="411">
+        <f>GECbladedata!$O47</f>
+        <v>773693.66877408698</v>
+      </c>
+      <c r="H26" s="412">
+        <f>GECbladedata!$N47</f>
+        <v>6426412.6262457725</v>
+      </c>
+      <c r="I26" s="412">
+        <f>GECbladedata!$L47</f>
+        <v>163903.70063830091</v>
+      </c>
+      <c r="J26" s="412">
+        <f>GECbladedata!$M47</f>
+        <v>164406169.10272419</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23">
+      <c r="C27" s="408">
+        <f>GECbladedata!$C48</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="D27" s="410">
+        <f>0.25+GECbladedata!$Q48/GECbladedata!$P48</f>
         <v>0.25</v>
       </c>
-      <c r="J10" s="102">
-        <f>'Main Page'!D147</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="A11" s="102">
-        <f>'Main Page'!A136</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="B11" s="102">
-        <f>'Main Page'!H136</f>
-        <v>89.215305458599687</v>
-      </c>
-      <c r="C11" s="102">
-        <f>'Main Page'!B148 - 'Main Page'!B$152</f>
-        <v>11.1</v>
-      </c>
-      <c r="D11" s="102">
-        <f>'Main Page'!L136</f>
-        <v>102340392.98761402</v>
-      </c>
-      <c r="E11" s="102">
-        <f>'Main Page'!K136</f>
-        <v>1295783621.589889</v>
-      </c>
-      <c r="F11" s="102">
-        <f>'Main Page'!J136</f>
-        <v>292871613.66241747</v>
-      </c>
-      <c r="G11" s="102">
-        <f>'Main Page'!I136</f>
-        <v>292871613.66241747</v>
-      </c>
-      <c r="H11" s="102">
-        <f>'Main Page'!B136</f>
-        <v>1.3496570993141985</v>
-      </c>
-      <c r="I11" s="102">
-        <f>'Main Page'!E136</f>
-        <v>0.25</v>
-      </c>
-      <c r="J11" s="102">
-        <f>'Main Page'!D148</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="A12" s="102">
-        <f>'Main Page'!A137</f>
-        <v>0.25</v>
-      </c>
-      <c r="B12" s="102">
-        <f>'Main Page'!H137</f>
-        <v>117.20845675339662</v>
-      </c>
-      <c r="C12" s="102">
-        <f>'Main Page'!B149 - 'Main Page'!B$152</f>
-        <v>11.1</v>
-      </c>
-      <c r="D12" s="102">
-        <f>'Main Page'!L137</f>
-        <v>6059831.2604694702</v>
-      </c>
-      <c r="E12" s="102">
-        <f>'Main Page'!K137</f>
-        <v>1535809947.6467729</v>
-      </c>
-      <c r="F12" s="102">
-        <f>'Main Page'!J137</f>
-        <v>192688198.09657151</v>
-      </c>
-      <c r="G12" s="102">
-        <f>'Main Page'!I137</f>
-        <v>71200412.886402056</v>
-      </c>
-      <c r="H12" s="102">
-        <f>'Main Page'!B137</f>
-        <v>2</v>
-      </c>
-      <c r="I12" s="102">
-        <f>'Main Page'!E137</f>
-        <v>0.34</v>
-      </c>
-      <c r="J12" s="102">
-        <f>'Main Page'!D149</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" s="102">
-        <f>'Main Page'!A138</f>
-        <v>0.5</v>
-      </c>
-      <c r="B13" s="102">
-        <f>'Main Page'!H138</f>
-        <v>82.955569360022096</v>
-      </c>
-      <c r="C13" s="102">
-        <f>'Main Page'!B150 - 'Main Page'!B$152</f>
-        <v>3.1</v>
-      </c>
-      <c r="D13" s="102">
-        <f>'Main Page'!L138</f>
-        <v>2885752.229026631</v>
-      </c>
-      <c r="E13" s="102">
-        <f>'Main Page'!K138</f>
-        <v>1094705409.6217237</v>
-      </c>
-      <c r="F13" s="102">
-        <f>'Main Page'!J138</f>
-        <v>79116868.754064709</v>
-      </c>
-      <c r="G13" s="102">
-        <f>'Main Page'!I138</f>
-        <v>22286831.062062379</v>
-      </c>
-      <c r="H13" s="102">
-        <f>'Main Page'!B138</f>
-        <v>1.5334010668021336</v>
-      </c>
-      <c r="I13" s="102">
-        <f>'Main Page'!E138</f>
-        <v>0.31</v>
-      </c>
-      <c r="J13" s="102">
-        <f>'Main Page'!D150</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="A14" s="102">
-        <f>'Main Page'!A139</f>
-        <v>0.75</v>
-      </c>
-      <c r="B14" s="102">
-        <f>'Main Page'!H139</f>
-        <v>39.129612072462692</v>
-      </c>
-      <c r="C14" s="102">
-        <f>'Main Page'!B151 - 'Main Page'!B$152</f>
-        <v>0.6</v>
-      </c>
-      <c r="D14" s="102">
-        <f>'Main Page'!L139</f>
-        <v>574933.04560629011</v>
-      </c>
-      <c r="E14" s="102">
-        <f>'Main Page'!K139</f>
-        <v>499093273.18287331</v>
-      </c>
-      <c r="F14" s="102">
-        <f>'Main Page'!J139</f>
-        <v>21323059.849604025</v>
-      </c>
-      <c r="G14" s="102">
-        <f>'Main Page'!I139</f>
-        <v>3549221.9475047868</v>
-      </c>
-      <c r="H14" s="102">
-        <f>'Main Page'!B139</f>
-        <v>1.0670561341122682</v>
-      </c>
-      <c r="I14" s="102">
-        <f>'Main Page'!E139</f>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="J14" s="102">
-        <f>'Main Page'!D151</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="A15" s="102">
-        <f>'Main Page'!A140</f>
-        <v>1</v>
-      </c>
-      <c r="B15" s="102">
-        <f>'Main Page'!H140</f>
+      <c r="E27" s="410">
+        <f>GECbladedata!$K48</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="410">
+        <f>GECbladedata!$D48</f>
         <v>7.751396294306554</v>
       </c>
-      <c r="C15" s="102">
-        <f>'Main Page'!B152 - 'Main Page'!B$152</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="102">
-        <f>'Main Page'!L140</f>
+      <c r="G27" s="411">
+        <f>GECbladedata!$O48</f>
+        <v>79811.599091411103</v>
+      </c>
+      <c r="H27" s="412">
+        <f>GECbladedata!$N48</f>
+        <v>2702250.8204062055</v>
+      </c>
+      <c r="I27" s="412">
+        <f>GECbladedata!$L48</f>
         <v>61146.36439630347</v>
       </c>
-      <c r="E15" s="102">
-        <f>'Main Page'!K140</f>
+      <c r="J27" s="412">
+        <f>GECbladedata!$M48</f>
         <v>80734393.082686871</v>
       </c>
-      <c r="F15" s="102">
-        <f>'Main Page'!J140</f>
-        <v>2702250.8204062055</v>
-      </c>
-      <c r="G15" s="102">
-        <f>'Main Page'!I140</f>
-        <v>79811.599091411103</v>
-      </c>
-      <c r="H15" s="102">
-        <f>'Main Page'!B140</f>
-        <v>0.64719329438658879</v>
-      </c>
-      <c r="I15" s="102">
-        <f>'Main Page'!E140</f>
-        <v>0.25</v>
-      </c>
-      <c r="J15" s="102">
-        <f>'Main Page'!D152</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="360" t="s">
-        <v>421</v>
-      </c>
-      <c r="B23">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24">
-        <v>0</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="E24">
-        <v>4</v>
-      </c>
-      <c r="F24">
-        <v>5</v>
-      </c>
-      <c r="G24">
-        <v>6</v>
-      </c>
-      <c r="H24">
-        <v>7</v>
-      </c>
-      <c r="I24">
-        <v>8</v>
-      </c>
-      <c r="J24">
-        <v>9</v>
-      </c>
-      <c r="K24">
-        <v>10</v>
-      </c>
-      <c r="L24">
-        <v>11</v>
-      </c>
-      <c r="M24">
-        <v>12</v>
-      </c>
-      <c r="N24">
-        <v>13</v>
-      </c>
-      <c r="O24">
-        <v>14</v>
-      </c>
-      <c r="P24">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25">
-        <f>A24/$B$23*0.95+0.05</f>
-        <v>0.05</v>
-      </c>
-      <c r="B25">
-        <f t="shared" ref="B25:P25" si="0">B24/$B$23*0.95+0.05</f>
-        <v>0.11333333333333333</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>0.17666666666666664</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>0.24</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
-        <v>0.30333333333333329</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="0"/>
-        <v>0.36666666666666664</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="0"/>
-        <v>0.43</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="0"/>
-        <v>0.49333333333333329</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="0"/>
-        <v>0.55666666666666664</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="0"/>
-        <v>0.62</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="0"/>
-        <v>0.68333333333333335</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="0"/>
-        <v>0.74666666666666659</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="0"/>
-        <v>0.81</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="0"/>
-        <v>0.87333333333333341</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="0"/>
-        <v>0.93666666666666665</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26">
-        <f>A24/$B23</f>
-        <v>0</v>
-      </c>
+    </row>
+    <row r="29" spans="2:23">
+      <c r="D29" s="404"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10875,219 +12166,682 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1">
-        <f>'Main Page'!B97</f>
-        <v>75</v>
-      </c>
-      <c r="E1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="102">
-        <f>'Main Page'!B9</f>
-        <v>60</v>
-      </c>
-      <c r="E2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="102">
-        <f>'Main Page'!B72</f>
-        <v>-2.33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="103">
-        <f>'Main Page'!B5</f>
-        <v>6.2266106191414261E-3</v>
-      </c>
-      <c r="B4" s="103">
-        <f>'Main Page'!C5</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="103">
-        <f>'Main Page'!D5</f>
-        <v>-0.16898817734177707</v>
-      </c>
-      <c r="E4" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="103">
-        <f>'Main Page'!B6</f>
-        <v>0.54408382818374879</v>
-      </c>
-      <c r="B5" s="103">
-        <f>'Main Page'!C6</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="103">
-        <f>'Main Page'!D6</f>
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="103">
-        <f>'Main Page'!B7</f>
-        <v>-0.46437800200458612</v>
-      </c>
-      <c r="B6" s="103">
-        <f>'Main Page'!C7</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="103">
-        <f>'Main Page'!D7</f>
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="103">
-        <f>-'Main Page'!B11</f>
-        <v>-5</v>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C3" s="18">
+        <f>'Main Page'!B17</f>
+        <v>1.2250000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>480</v>
+      </c>
+      <c r="B4" t="s">
+        <v>520</v>
+      </c>
+      <c r="C4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B5" t="s">
+        <v>453</v>
+      </c>
+      <c r="C5" s="18" t="str">
+        <f>'Main Page'!C155</f>
+        <v>cylinder</v>
+      </c>
+      <c r="D5" s="18" t="str">
+        <f>'Main Page'!C156</f>
+        <v>s818_2703.dat</v>
+      </c>
+      <c r="E5" s="18" t="str">
+        <f>'Main Page'!C157</f>
+        <v>s825_2103.dat</v>
+      </c>
+      <c r="F5" s="18" t="str">
+        <f>'Main Page'!C158</f>
+        <v>s826_1603.dat</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>449</v>
+      </c>
+      <c r="B6" t="s">
+        <v>525</v>
+      </c>
+      <c r="C6" s="18">
+        <v>15</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" t="s">
+        <v>521</v>
+      </c>
+      <c r="C7" t="s">
+        <v>519</v>
+      </c>
+      <c r="D7" t="s">
+        <v>522</v>
       </c>
       <c r="E7" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="103">
-        <f>'Main Page'!E5</f>
-        <v>15580.140251640041</v>
-      </c>
-      <c r="E8" s="360" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="103">
-        <f>'Main Page'!E6</f>
-        <v>1131.2074102368219</v>
-      </c>
-      <c r="E9" s="360" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="103">
-        <f>'Main Page'!E7</f>
-        <v>4238.8965977950375</v>
-      </c>
-      <c r="E10" s="360" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="103">
-        <f>-'Main Page'!B18</f>
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="103">
-        <f>'Main Page'!E8</f>
-        <v>6573.9348557027251</v>
-      </c>
-      <c r="E12" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="333">
-        <f>SUM('Main Page'!H5:H7)</f>
-        <v>8623.1244137844569</v>
-      </c>
-      <c r="E13" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="103">
-        <f>GECdrivetrain!M5</f>
-        <v>5160.9544585651756</v>
-      </c>
-      <c r="E14" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="103">
-        <f>'Main Page'!B98</f>
-        <v>1800</v>
-      </c>
-      <c r="E15" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="103">
-        <f>'Main Page'!B14</f>
-        <v>129646444.93189973</v>
-      </c>
-      <c r="E16" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="103">
-        <f>'Main Page'!B19</f>
-        <v>0.95</v>
-      </c>
-      <c r="E17" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="333">
-        <f>'Main Page'!B103*1000</f>
-        <v>750000</v>
-      </c>
-      <c r="E18" s="360" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="103">
-        <f>SUM(GECdrivetrain!M11:'GECdrivetrain'!M12)</f>
-        <v>65735.985618380335</v>
-      </c>
-      <c r="E19" s="360" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="103">
-        <f>'Main Page'!B15/100</f>
-        <v>0.05</v>
-      </c>
-      <c r="E20" s="360" t="s">
-        <v>456</v>
+        <v>523</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="C8" s="385">
+        <f>C37*('Main Page'!B$13/2-'Main Page'!B$67/2) + 'Main Page'!B$67/2</f>
+        <v>2.0416666666666665</v>
+      </c>
+      <c r="D8" s="383">
+        <f>(F39-F38)/($D39-$D38)*($C8-$D39)+F38</f>
+        <v>11.1</v>
+      </c>
+      <c r="E8">
+        <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$67/2)</f>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="F8" s="383">
+        <f>(E$39-E$38)/(D$39-D$38)*(C8-D$38)+E$38</f>
+        <v>1.3918089539882783</v>
+      </c>
+      <c r="G8">
+        <f>ROUND((G$39-G$38)/(D$39-D$38)*(C8-D$38)+G$38,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="C9" s="385">
+        <f>C38*('Main Page'!B$13/2-'Main Page'!B$67/2) + 'Main Page'!B$67/2</f>
+        <v>3.625</v>
+      </c>
+      <c r="D9" s="383">
+        <f>(F39-F38)/($D39-$D38)*($C9-$D39)+F38</f>
+        <v>11.1</v>
+      </c>
+      <c r="E9">
+        <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$67/2)</f>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="F9" s="383">
+        <f t="shared" ref="F9:F10" si="0">(E$39-E$38)/(D$39-D$38)*(C9-D$38)+E$38</f>
+        <v>1.6206333079332824</v>
+      </c>
+      <c r="G9">
+        <f>ROUNDUP((G$39-G$38)/(D$39-D$38)*(C9-D$38)+G$38,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="C10" s="385">
+        <f>C39*('Main Page'!B$13/2-'Main Page'!B$67/2) + 'Main Page'!B$67/2</f>
+        <v>5.208333333333333</v>
+      </c>
+      <c r="D10" s="383">
+        <f>(F39-F38)/($D39-$D38)*($C10-$D39)+F38</f>
+        <v>11.1</v>
+      </c>
+      <c r="E10">
+        <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$67/2)</f>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="F10" s="383">
+        <f>(E$39-E$38)/(D$39-D$38)*(C10-D$38)+E$38</f>
+        <v>1.8494576618782865</v>
+      </c>
+      <c r="G10">
+        <f>ROUND((G$39-G$38)/(D$39-D$38)*(C10-D$38)+G$38,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="C11" s="385">
+        <f>C40*('Main Page'!B$13/2-'Main Page'!B$67/2) + 'Main Page'!B$67/2</f>
+        <v>6.791666666666667</v>
+      </c>
+      <c r="D11" s="383">
+        <f>(F40-F39)/($D40-$D39)*($C11-$D39)+F39</f>
+        <v>10.406666666666666</v>
+      </c>
+      <c r="E11">
+        <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$67/2)</f>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="F11" s="383">
+        <f>(E$40-E$39)/(D$40-D$39)*(C11-D$39)+E$39</f>
+        <v>1.9595614257895182</v>
+      </c>
+      <c r="G11">
+        <f>ROUND((G$40-G$39)/(D$40-D$39)*(C11-D$39)+G$39,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="C12" s="385">
+        <f>C41*('Main Page'!B$13/2-'Main Page'!B$67/2) + 'Main Page'!B$67/2</f>
+        <v>8.375</v>
+      </c>
+      <c r="D12" s="383">
+        <f>(F40-F39)/($D40-$D39)*($C12-$D39)+F39</f>
+        <v>8.379999999999999</v>
+      </c>
+      <c r="E12">
+        <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$67/2)</f>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="F12" s="383">
+        <f t="shared" ref="F12:F14" si="1">(E$40-E$39)/(D$40-D$39)*(C12-D$39)+E$39</f>
+        <v>1.8413563627127254</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ref="G12:G15" si="2">ROUND((G$40-G$39)/(D$40-D$39)*(C12-D$39)+G$39,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="C13" s="385">
+        <f>C42*('Main Page'!B$13/2-'Main Page'!B$67/2) + 'Main Page'!B$67/2</f>
+        <v>9.9583333333333321</v>
+      </c>
+      <c r="D13" s="383">
+        <f>(F40-F39)/($D40-$D39)*($C13-$D39)+F39</f>
+        <v>6.3533333333333344</v>
+      </c>
+      <c r="E13">
+        <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$67/2)</f>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="F13" s="383">
+        <f t="shared" si="1"/>
+        <v>1.7231512996359326</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="C14" s="385">
+        <f>C43*('Main Page'!B$13/2-'Main Page'!B$67/2) + 'Main Page'!B$67/2</f>
+        <v>11.541666666666668</v>
+      </c>
+      <c r="D14" s="383">
+        <f>(F40-F39)/($D40-$D39)*($C14-$D39)+F39</f>
+        <v>4.3266666666666644</v>
+      </c>
+      <c r="E14">
+        <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$67/2)</f>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="F14" s="383">
+        <f>(E$40-E$39)/(D$40-D$39)*(C14-D$39)+E$39</f>
+        <v>1.6049462365591398</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="C15" s="385">
+        <f>C44*('Main Page'!B$13/2-'Main Page'!B$67/2) + 'Main Page'!B$67/2</f>
+        <v>13.125</v>
+      </c>
+      <c r="D15" s="383">
+        <f>(F41-F40)/($D41-$D40)*($C15-$D40)+F40</f>
+        <v>2.85</v>
+      </c>
+      <c r="E15">
+        <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$67/2)</f>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="F15" s="383">
+        <f>(E$41-E$40)/(D$41-D$40)*(C15-D$40)+E$40</f>
+        <v>1.486766573533147</v>
+      </c>
+      <c r="G15">
+        <f>ROUND((G$41-G$40)/(D$41-D$40)*(C15-D$40)+G$40,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="C16" s="385">
+        <f>C45*('Main Page'!B$13/2-'Main Page'!B$67/2) + 'Main Page'!B$67/2</f>
+        <v>14.708333333333332</v>
+      </c>
+      <c r="D16" s="383">
+        <f>(F41-F40)/($D41-$D40)*($C16-$D40)+F40</f>
+        <v>2.2166666666666672</v>
+      </c>
+      <c r="E16">
+        <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$67/2)</f>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="F16" s="383">
+        <f t="shared" ref="F16:F18" si="3">(E$41-E$40)/(D$41-D$40)*(C16-D$40)+E$40</f>
+        <v>1.3686258572517147</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16:G19" si="4">ROUND((G$41-G$40)/(D$41-D$40)*(C16-D$40)+G$40,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" s="385">
+        <f>C46*('Main Page'!B$13/2-'Main Page'!B$67/2) + 'Main Page'!B$67/2</f>
+        <v>16.291666666666664</v>
+      </c>
+      <c r="D17" s="383">
+        <f>(F41-F40)/($D41-$D40)*($C17-$D40)+F40</f>
+        <v>1.5833333333333344</v>
+      </c>
+      <c r="E17">
+        <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$67/2)</f>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="F17" s="383">
+        <f t="shared" si="3"/>
+        <v>1.2504851409702822</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" s="385">
+        <f>C47*('Main Page'!B$13/2-'Main Page'!B$67/2) + 'Main Page'!B$67/2</f>
+        <v>17.875</v>
+      </c>
+      <c r="D18" s="383">
+        <f>(F41-F40)/($D41-$D40)*($C18-$D40)+F40</f>
+        <v>0.95000000000000018</v>
+      </c>
+      <c r="E18">
+        <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$67/2)</f>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="F18" s="383">
+        <f t="shared" si="3"/>
+        <v>1.1323444246888494</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" s="385">
+        <f>C48*('Main Page'!B$13/2-'Main Page'!B$67/2) + 'Main Page'!B$67/2</f>
+        <v>19.458333333333336</v>
+      </c>
+      <c r="D19" s="383">
+        <f>(F42-F41)/($D42-$D41)*($C19-$D41)+F41</f>
+        <v>0.53199999999999981</v>
+      </c>
+      <c r="E19">
+        <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$67/2)</f>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="F19" s="383">
+        <f>(E$42-E$41)/(D$42-D$41)*(C19-D$41)+E$41</f>
+        <v>1.0194716789433578</v>
+      </c>
+      <c r="G19">
+        <f>ROUND((G$42-G$41)/(D$42-D$41)*(C19-D$41)+G$41,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" s="385">
+        <f>C49*('Main Page'!B$13/2-'Main Page'!B$67/2) + 'Main Page'!B$67/2</f>
+        <v>21.041666666666668</v>
+      </c>
+      <c r="D20" s="383">
+        <f>(F42-F41)/($D42-$D41)*($C20-$D41)+F41</f>
+        <v>0.37999999999999989</v>
+      </c>
+      <c r="E20">
+        <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$67/2)</f>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="F20" s="383">
+        <f t="shared" ref="F20:F22" si="5">(E$42-E$41)/(D$42-D$41)*(C20-D$41)+E$41</f>
+        <v>0.91310642621285232</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20:G22" si="6">ROUND((G$42-G$41)/(D$42-D$41)*(C20-D$41)+G$41,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21" s="385">
+        <f>C50*('Main Page'!B$13/2-'Main Page'!B$67/2) + 'Main Page'!B$67/2</f>
+        <v>22.625</v>
+      </c>
+      <c r="D21" s="383">
+        <f>(F42-F41)/($D42-$D41)*($C21-$D41)+F41</f>
+        <v>0.22799999999999998</v>
+      </c>
+      <c r="E21">
+        <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$67/2)</f>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="F21" s="383">
+        <f t="shared" si="5"/>
+        <v>0.80674117348234697</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" s="385">
+        <f>C51*('Main Page'!B$13/2-'Main Page'!B$67/2) + 'Main Page'!B$67/2</f>
+        <v>24.208333333333332</v>
+      </c>
+      <c r="D22" s="383">
+        <f>(F42-F41)/($D42-$D41)*($C22-$D41)+F41</f>
+        <v>7.6000000000000068E-2</v>
+      </c>
+      <c r="E22">
+        <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$67/2)</f>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="F22" s="383">
+        <f t="shared" si="5"/>
+        <v>0.70037592075184163</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" t="s">
+        <v>526</v>
+      </c>
+      <c r="E36" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" t="s">
+        <v>363</v>
+      </c>
+      <c r="G36" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37">
+        <v>0.5</v>
+      </c>
+      <c r="C37" s="384">
+        <f>B37/C$6</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="D37" s="102">
+        <f>GECbladedata!$B5*('Main Page'!B$13/2)</f>
+        <v>1.25</v>
+      </c>
+      <c r="E37">
+        <f>GECbladedata!$C5</f>
+        <v>1.349657099314199</v>
+      </c>
+      <c r="F37">
+        <f>'Main Page'!B147-'Main Page'!B$152</f>
+        <v>11.1</v>
+      </c>
+      <c r="G37">
+        <f>'Main Page'!$D147</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38">
+        <v>1.5</v>
+      </c>
+      <c r="C38" s="384">
+        <f t="shared" ref="C38:C51" si="7">B38/C$6</f>
+        <v>0.1</v>
+      </c>
+      <c r="D38" s="102">
+        <f>GECbladedata!$B6*('Main Page'!B$13/2)</f>
+        <v>1.7500000000000002</v>
+      </c>
+      <c r="E38">
+        <f>GECbladedata!$C6</f>
+        <v>1.3496570993141985</v>
+      </c>
+      <c r="F38">
+        <f>'Main Page'!B148-'Main Page'!B$152</f>
+        <v>11.1</v>
+      </c>
+      <c r="G38">
+        <f>'Main Page'!$D148</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39">
+        <v>2.5</v>
+      </c>
+      <c r="C39" s="384">
+        <f t="shared" si="7"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D39" s="102">
+        <f>GECbladedata!$B7*('Main Page'!B$13/2)</f>
+        <v>6.25</v>
+      </c>
+      <c r="E39">
+        <f>GECbladedata!$C7</f>
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <f>'Main Page'!B149-'Main Page'!B$152</f>
+        <v>11.1</v>
+      </c>
+      <c r="G39">
+        <f>'Main Page'!$D149</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40">
+        <v>3.5</v>
+      </c>
+      <c r="C40" s="384">
+        <f t="shared" si="7"/>
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="D40" s="102">
+        <f>GECbladedata!$B8*('Main Page'!B$13/2)</f>
+        <v>12.5</v>
+      </c>
+      <c r="E40">
+        <f>GECbladedata!$C8</f>
+        <v>1.5334010668021336</v>
+      </c>
+      <c r="F40">
+        <f>'Main Page'!B150-'Main Page'!B$152</f>
+        <v>3.1</v>
+      </c>
+      <c r="G40">
+        <f>'Main Page'!$D150</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41">
+        <v>4.5</v>
+      </c>
+      <c r="C41" s="384">
+        <f t="shared" si="7"/>
+        <v>0.3</v>
+      </c>
+      <c r="D41" s="102">
+        <f>GECbladedata!$B9*('Main Page'!B$13/2)</f>
+        <v>18.75</v>
+      </c>
+      <c r="E41">
+        <f>GECbladedata!$C9</f>
+        <v>1.0670561341122682</v>
+      </c>
+      <c r="F41">
+        <f>'Main Page'!B151-'Main Page'!B$152</f>
+        <v>0.6</v>
+      </c>
+      <c r="G41">
+        <f>'Main Page'!$D151</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42">
+        <v>5.5</v>
+      </c>
+      <c r="C42" s="384">
+        <f t="shared" si="7"/>
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="D42" s="102">
+        <f>GECbladedata!$B10*('Main Page'!B$13/2)</f>
+        <v>25</v>
+      </c>
+      <c r="E42">
+        <f>GECbladedata!$C10</f>
+        <v>0.64719329438658879</v>
+      </c>
+      <c r="F42">
+        <f>'Main Page'!B152-'Main Page'!B$152</f>
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f>'Main Page'!$D152</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43">
+        <v>6.5</v>
+      </c>
+      <c r="C43" s="384">
+        <f t="shared" si="7"/>
+        <v>0.43333333333333335</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44">
+        <v>7.5</v>
+      </c>
+      <c r="C44" s="384">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45">
+        <v>8.5</v>
+      </c>
+      <c r="C45" s="384">
+        <f t="shared" si="7"/>
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46">
+        <v>9.5</v>
+      </c>
+      <c r="C46" s="384">
+        <f t="shared" si="7"/>
+        <v>0.6333333333333333</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47">
+        <v>10.5</v>
+      </c>
+      <c r="C47" s="384">
+        <f t="shared" si="7"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48">
+        <v>11.5</v>
+      </c>
+      <c r="C48" s="384">
+        <f t="shared" si="7"/>
+        <v>0.76666666666666672</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49">
+        <v>12.5</v>
+      </c>
+      <c r="C49" s="384">
+        <f t="shared" si="7"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50">
+        <v>13.5</v>
+      </c>
+      <c r="C50" s="384">
+        <f t="shared" si="7"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51">
+        <v>14.5</v>
+      </c>
+      <c r="C51" s="384">
+        <f t="shared" si="7"/>
+        <v>0.96666666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -11097,163 +12851,276 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J11"/>
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="382">
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C3" s="384">
+        <f>'Main Page'!B72</f>
+        <v>-2.33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C4" s="384">
+        <f>('Main Page'!B5*'Main Page'!E5+'Main Page'!B6*'Main Page'!E6+'Main Page'!B7*'Main Page'!E7)/C11</f>
+        <v>-5.9950003076370724E-2</v>
+      </c>
+      <c r="I4" s="102"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C5" s="384">
+        <f>('Main Page'!C5*'Main Page'!E5+'Main Page'!C6*'Main Page'!E6+'Main Page'!C7*'Main Page'!E7)/C11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
+        <v>491</v>
+      </c>
+      <c r="C6" s="384">
+        <f>('Main Page'!D5*'Main Page'!E5+'Main Page'!D6*'Main Page'!E6+'Main Page'!D7*'Main Page'!E7)/C11+'Main Page'!B57</f>
+        <v>1.2043279805609703</v>
+      </c>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" t="s">
+        <v>459</v>
+      </c>
+      <c r="C7" s="384">
+        <f>'Main Page'!B9-'Main Page'!B57</f>
+        <v>58.67</v>
+      </c>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" t="s">
+        <v>460</v>
+      </c>
+      <c r="C8" s="384">
         <f>'Main Page'!B57</f>
         <v>1.33</v>
       </c>
-      <c r="L1" s="360" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="382">
-        <f>'Main Page'!B58</f>
-        <v>2</v>
-      </c>
-      <c r="L2" s="360" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="382">
-        <f>'Main Page'!B59/1000</f>
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="L3" s="360" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="382">
-        <f>'Main Page'!B60</f>
-        <v>3.75</v>
-      </c>
-      <c r="L4" s="360" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="382">
-        <f>'Main Page'!B61/1000</f>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="L5" s="360" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="382">
-        <f>'Main Page'!B62/100</f>
-        <v>0.05</v>
-      </c>
-      <c r="L6" s="360" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7">
-        <f>GECtwrdata!F5</f>
-        <v>7850</v>
-      </c>
-      <c r="L7" s="360" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="102">
-        <f>GECtwrdata!F6</f>
-        <v>200000000000</v>
-      </c>
-      <c r="L8" s="360" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="102">
-        <f>GECtwrdata!F7</f>
-        <v>76923076923.07692</v>
-      </c>
-      <c r="L9" s="360" t="s">
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>462</v>
+      </c>
+      <c r="B9" t="s">
+        <v>464</v>
+      </c>
+      <c r="C9" s="384">
+        <f>-'Main Page'!B11</f>
+        <v>-5</v>
+      </c>
+      <c r="I9" s="103"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>462</v>
+      </c>
+      <c r="B10" t="s">
+        <v>463</v>
+      </c>
+      <c r="C10" s="384">
+        <f>-'Main Page'!B18</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="103"/>
+      <c r="M10" s="359"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" t="s">
+        <v>493</v>
+      </c>
+      <c r="C11" s="384">
+        <f>SUM('Main Page'!E5+'Main Page'!E6+'Main Page'!E7)</f>
+        <v>20950.244259671897</v>
+      </c>
+      <c r="I11" s="103"/>
+      <c r="M11" s="359"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" t="s">
+        <v>465</v>
+      </c>
+      <c r="C12" s="384">
+        <f>'Main Page'!E8</f>
+        <v>6573.9348557027251</v>
+      </c>
+      <c r="I12" s="103"/>
+      <c r="M12" s="359"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>450</v>
+      </c>
+      <c r="B13" t="s">
+        <v>466</v>
+      </c>
+      <c r="C13" s="384">
+        <f>SUM('Main Page'!H5:H7)</f>
+        <v>8623.1244137844569</v>
+      </c>
+      <c r="I13" s="103"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>450</v>
+      </c>
+      <c r="B14" t="s">
+        <v>494</v>
+      </c>
+      <c r="C14" s="384">
+        <f>SUM(GECdrivetrain!M11:'GECdrivetrain'!M12)/('Main Page'!$B$99)^2</f>
+        <v>16.651119676874973</v>
+      </c>
+      <c r="I14" s="103"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>450</v>
+      </c>
+      <c r="B15" t="s">
+        <v>467</v>
+      </c>
+      <c r="C15" s="384">
+        <f>GECdrivetrain!M5</f>
+        <v>5160.9544585651756</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="379">
-        <f>0/9</f>
-        <v>0</v>
-      </c>
-      <c r="B10" s="379">
-        <f>1/9</f>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="C10" s="379">
-        <f>2/9</f>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="D10" s="379">
-        <f>3/9</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E10" s="379">
-        <f>4/9</f>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="F10" s="379">
-        <f>5/9</f>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="G10" s="379">
-        <f>6/9</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H10" s="379">
-        <f>7/9</f>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="I10" s="379">
-        <f>8/9</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="J10" s="379">
-        <f>9/9</f>
-        <v>1</v>
-      </c>
-      <c r="L10" s="360" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="103">
-        <f>'Main Page'!B165*100</f>
-        <v>3.4350000000000001</v>
-      </c>
-      <c r="B11" s="103">
-        <f>'Main Page'!B166*100</f>
-        <v>3.4350000000000001</v>
-      </c>
-      <c r="C11" s="103">
-        <f>'Main Page'!B167*100</f>
-        <v>3.4350000000000001</v>
-      </c>
-      <c r="D11" s="103">
-        <f>'Main Page'!B168*100</f>
-        <v>3.4350000000000001</v>
-      </c>
-      <c r="L11" s="360" t="s">
-        <v>451</v>
-      </c>
+      <c r="B16" t="s">
+        <v>495</v>
+      </c>
+      <c r="C16">
+        <f>'Main Page'!B19</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>449</v>
+      </c>
+      <c r="B17" t="s">
+        <v>496</v>
+      </c>
+      <c r="C17">
+        <f>'Main Page'!$B$99</f>
+        <v>62.831853071795862</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>498</v>
+      </c>
+      <c r="B18" t="s">
+        <v>497</v>
+      </c>
+      <c r="C18">
+        <f>'Main Page'!B14</f>
+        <v>129646444.93189973</v>
+      </c>
+      <c r="I18" s="103"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>499</v>
+      </c>
+      <c r="B19" t="s">
+        <v>500</v>
+      </c>
+      <c r="C19">
+        <f>2*'Main Page'!B15/100*SQRT(C18*'Main Page'!B16*C14*C17^2/('Main Page'!B16+C14*C17^2))</f>
+        <v>278494.4553663737</v>
+      </c>
+      <c r="I19" s="103"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>501</v>
+      </c>
+      <c r="B20" t="s">
+        <v>502</v>
+      </c>
+      <c r="C20" s="333">
+        <f>'Main Page'!B103*1000</f>
+        <v>750000</v>
+      </c>
+      <c r="M20" s="359"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="I21" s="103"/>
+      <c r="M21" s="359"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="I22" s="103"/>
+      <c r="M22" s="359"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11262,191 +13129,352 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="404">
-        <f>'Main Page'!B34*2*PI()/360</f>
-        <v>4.5378560551852569E-2</v>
-      </c>
-      <c r="B1" s="381"/>
-      <c r="C1" s="381"/>
-      <c r="D1" s="360" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="404">
-        <f>'Main Page'!B35*2*PI()/360</f>
-        <v>1.5707963267948966</v>
-      </c>
-      <c r="B2" s="381"/>
-      <c r="C2" s="381"/>
-      <c r="D2" s="360" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="404">
-        <f>'Main Page'!B36*2*PI()/360</f>
-        <v>0.17453292519943295</v>
-      </c>
-      <c r="D3" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="404">
-        <f>'Main Page'!B37/6/'Main Page'!B$99</f>
-        <v>1.36342734582057E-2</v>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C3" s="103">
+        <f>'Main Page'!B165*100</f>
+        <v>3.4350000000000001</v>
+      </c>
+      <c r="D3" s="103">
+        <f>'Main Page'!B166*100</f>
+        <v>3.4350000000000001</v>
+      </c>
+      <c r="E3" s="103">
+        <f>'Main Page'!B167*100</f>
+        <v>3.4350000000000001</v>
+      </c>
+      <c r="F3" s="103">
+        <f>'Main Page'!B168*100</f>
+        <v>3.4350000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4" t="s">
+        <v>504</v>
+      </c>
+      <c r="C4" t="s">
+        <v>510</v>
       </c>
       <c r="D4" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="404">
-        <f>'Main Page'!B38/6/'Main Page'!B$99</f>
-        <v>5.8887328944001284E-3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="404">
-        <f>'Main Page'!B39/6/'Main Page'!B$99</f>
-        <v>7.5863856207136781E-5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="404">
-        <f>'Main Page'!B40*2*PI()</f>
-        <v>3.9269908169872414</v>
-      </c>
-      <c r="D7" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="404">
-        <f>'Main Page'!B41*2*PI()/360</f>
-        <v>4.5378560551852569E-2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="404">
-        <f>'Main Page'!B42*2*PI()/360</f>
-        <v>0.52359877559829882</v>
-      </c>
-      <c r="D9" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="404">
-        <f>'Main Page'!B43</f>
-        <v>-0.5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="404">
-        <f>'Main Page'!B44</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="404">
-        <f>'Main Page'!B47</f>
-        <v>1.25E-3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="404">
-        <f>'Main Page'!B48</f>
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="102">
-        <f>'Main Page'!B49</f>
-        <v>15000</v>
-      </c>
-      <c r="D14" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="406">
-        <f>'Main Page'!B50</f>
-        <v>1.2926814741057128E-3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="405">
-        <f>'Main Page'!B51</f>
-        <v>4607.1167737127607</v>
-      </c>
-      <c r="D16" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="102">
-        <f>'Main Page'!B52</f>
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="102">
-        <f>'Main Page'!B53</f>
-        <v>3.6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="102">
-        <f>'Main Page'!B54</f>
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>500</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="E4" t="s">
+        <v>506</v>
+      </c>
+      <c r="F4" t="s">
+        <v>507</v>
+      </c>
+      <c r="G4" t="s">
+        <v>508</v>
+      </c>
+      <c r="H4" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="C5" s="379">
+        <f>GECtwrdata!$A15</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>GECtwrdata!$G15</f>
+        <v>1456.5699814057803</v>
+      </c>
+      <c r="E5" s="409">
+        <f>GECtwrdata!$N15</f>
+        <v>62126221909.368462</v>
+      </c>
+      <c r="F5" s="409">
+        <f>GECtwrdata!$N15</f>
+        <v>62126221909.368462</v>
+      </c>
+      <c r="G5" s="409">
+        <f>GECtwrdata!$K15</f>
+        <v>47789401468.744972</v>
+      </c>
+      <c r="H5" s="409">
+        <f>GECtwrdata!$H15</f>
+        <v>35342917352.88517</v>
+      </c>
+      <c r="N5" s="359"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="C6" s="379">
+        <f>GECtwrdata!$A16</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D6">
+        <f>GECtwrdata!$G16</f>
+        <v>1319.6643913839366</v>
+      </c>
+      <c r="E6" s="409">
+        <f>GECtwrdata!$N16</f>
+        <v>50601045349.013542</v>
+      </c>
+      <c r="F6" s="409">
+        <f>GECtwrdata!$N16</f>
+        <v>50601045349.013542</v>
+      </c>
+      <c r="G6" s="409">
+        <f>GECtwrdata!$K16</f>
+        <v>38923881037.702721</v>
+      </c>
+      <c r="H6" s="409">
+        <f>GECtwrdata!$H16</f>
+        <v>32020974009.92263</v>
+      </c>
+      <c r="N6" s="359"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="C7" s="379">
+        <f>GECtwrdata!$A17</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D7">
+        <f>GECtwrdata!$G17</f>
+        <v>1189.4722103298889</v>
+      </c>
+      <c r="E7" s="409">
+        <f>GECtwrdata!$N17</f>
+        <v>40756895137.180222</v>
+      </c>
+      <c r="F7" s="409">
+        <f>GECtwrdata!$N17</f>
+        <v>40756895137.180222</v>
+      </c>
+      <c r="G7" s="409">
+        <f>GECtwrdata!$K17</f>
+        <v>31351457797.830936</v>
+      </c>
+      <c r="H7" s="409">
+        <f>GECtwrdata!$H17</f>
+        <v>28861928063.812893</v>
+      </c>
+      <c r="N7" s="359"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="C8" s="379">
+        <f>GECtwrdata!$A18</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D8">
+        <f>GECtwrdata!$G18</f>
+        <v>1065.9934382436375</v>
+      </c>
+      <c r="E8" s="409">
+        <f>GECtwrdata!$N18</f>
+        <v>32422036127.620483</v>
+      </c>
+      <c r="F8" s="409">
+        <f>GECtwrdata!$N18</f>
+        <v>32422036127.620483</v>
+      </c>
+      <c r="G8" s="409">
+        <f>GECtwrdata!$K18</f>
+        <v>24940027790.477295</v>
+      </c>
+      <c r="H8" s="409">
+        <f>GECtwrdata!$H18</f>
+        <v>25865779514.555958</v>
+      </c>
+      <c r="N8" s="359"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="C9" s="379">
+        <f>GECtwrdata!$A19</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D9">
+        <f>GECtwrdata!$G19</f>
+        <v>949.2280751251825</v>
+      </c>
+      <c r="E9" s="409">
+        <f>GECtwrdata!$N19</f>
+        <v>25433971568.120796</v>
+      </c>
+      <c r="F9" s="409">
+        <f>GECtwrdata!$N19</f>
+        <v>25433971568.120796</v>
+      </c>
+      <c r="G9" s="409">
+        <f>GECtwrdata!$K19</f>
+        <v>19564593513.939072</v>
+      </c>
+      <c r="H9" s="409">
+        <f>GECtwrdata!$H19</f>
+        <v>23032528362.151833</v>
+      </c>
+      <c r="N9" s="359"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="C10" s="379">
+        <f>GECtwrdata!$A20</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="D10">
+        <f>GECtwrdata!$G20</f>
+        <v>839.17612097452354</v>
+      </c>
+      <c r="E10" s="409">
+        <f>GECtwrdata!$N20</f>
+        <v>19639443100.502033</v>
+      </c>
+      <c r="F10" s="409">
+        <f>GECtwrdata!$N20</f>
+        <v>19639443100.502033</v>
+      </c>
+      <c r="G10" s="409">
+        <f>GECtwrdata!$K20</f>
+        <v>15107263923.4631</v>
+      </c>
+      <c r="H10" s="409">
+        <f>GECtwrdata!$H20</f>
+        <v>20362174606.60051</v>
+      </c>
+      <c r="N10" s="359"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="C11" s="379">
+        <f>GECtwrdata!$A21</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D11">
+        <f>GECtwrdata!$G21</f>
+        <v>735.83757579166081</v>
+      </c>
+      <c r="E11" s="409">
+        <f>GECtwrdata!$N21</f>
+        <v>14894430760.619625</v>
+      </c>
+      <c r="F11" s="409">
+        <f>GECtwrdata!$N21</f>
+        <v>14894430760.619625</v>
+      </c>
+      <c r="G11" s="409">
+        <f>GECtwrdata!$K21</f>
+        <v>11457254431.245865</v>
+      </c>
+      <c r="H11" s="409">
+        <f>GECtwrdata!$H21</f>
+        <v>17854718247.901989</v>
+      </c>
+      <c r="N11" s="359"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="C12" s="379">
+        <f>GECtwrdata!$A22</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="D12">
+        <f>GECtwrdata!$G22</f>
+        <v>639.21243957659442</v>
+      </c>
+      <c r="E12" s="409">
+        <f>GECtwrdata!$N22</f>
+        <v>11064152978.363453</v>
+      </c>
+      <c r="F12" s="409">
+        <f>GECtwrdata!$N22</f>
+        <v>11064152978.363453</v>
+      </c>
+      <c r="G12" s="409">
+        <f>GECtwrdata!$K22</f>
+        <v>8510886906.433424</v>
+      </c>
+      <c r="H12" s="409">
+        <f>GECtwrdata!$H22</f>
+        <v>15510159286.056276</v>
+      </c>
+      <c r="N12" s="359"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="C13" s="379">
+        <f>GECtwrdata!$A23</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="D13">
+        <f>GECtwrdata!$G23</f>
+        <v>549.3007123293238</v>
+      </c>
+      <c r="E13" s="409">
+        <f>GECtwrdata!$N23</f>
+        <v>8023066577.657836</v>
+      </c>
+      <c r="F13" s="409">
+        <f>GECtwrdata!$N23</f>
+        <v>8023066577.657836</v>
+      </c>
+      <c r="G13" s="409">
+        <f>GECtwrdata!$K23</f>
+        <v>6171589675.1214123</v>
+      </c>
+      <c r="H13" s="409">
+        <f>GECtwrdata!$H23</f>
+        <v>13328497721.063362</v>
+      </c>
+      <c r="N13" s="359"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="C14" s="379">
+        <f>GECtwrdata!$A24</f>
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <f>GECtwrdata!$G24</f>
+        <v>466.10239404984969</v>
+      </c>
+      <c r="E14" s="409">
+        <f>GECtwrdata!$N24</f>
+        <v>5654866776.461628</v>
+      </c>
+      <c r="F14" s="409">
+        <f>GECtwrdata!$N24</f>
+        <v>5654866776.461628</v>
+      </c>
+      <c r="G14" s="409">
+        <f>GECtwrdata!$K24</f>
+        <v>4349897520.3550978</v>
+      </c>
+      <c r="H14" s="409">
+        <f>GECtwrdata!$H24</f>
+        <v>11309733552.923256</v>
+      </c>
+      <c r="I14" s="378"/>
+      <c r="J14" s="378"/>
+      <c r="K14" s="378"/>
+      <c r="L14" s="378"/>
+      <c r="N14" s="359"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="N15" s="359"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11455,13 +13483,247 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:N22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="K3" s="383"/>
+      <c r="L3" s="378"/>
+      <c r="M3" s="378"/>
+      <c r="N3" s="359"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B4" t="s">
+        <v>468</v>
+      </c>
+      <c r="C4" s="101">
+        <f>'Main Page'!B98</f>
+        <v>1800</v>
+      </c>
+      <c r="K4" s="383"/>
+      <c r="L4" s="378"/>
+      <c r="M4" s="378"/>
+      <c r="N4" s="359"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C5" s="384">
+        <f>'Main Page'!$B$31</f>
+        <v>4188.2879761025097</v>
+      </c>
+      <c r="K5" s="383"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>471</v>
+      </c>
+      <c r="B6" t="s">
+        <v>470</v>
+      </c>
+      <c r="C6" s="385">
+        <f>'Main Page'!B50</f>
+        <v>1.2926814741057128E-3</v>
+      </c>
+      <c r="K6" s="383"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>462</v>
+      </c>
+      <c r="B7" t="s">
+        <v>527</v>
+      </c>
+      <c r="C7" s="385">
+        <v>2.6</v>
+      </c>
+      <c r="K7" s="383"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B8" t="s">
+        <v>472</v>
+      </c>
+      <c r="C8">
+        <f>'Main Page'!$B$29</f>
+        <v>28.647889756541161</v>
+      </c>
+      <c r="E8" t="s">
+        <v>482</v>
+      </c>
+      <c r="K8" s="383"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>462</v>
+      </c>
+      <c r="B9" t="s">
+        <v>473</v>
+      </c>
+      <c r="C9" s="102">
+        <f>'Main Page'!$B$34</f>
+        <v>2.6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>483</v>
+      </c>
+      <c r="K9" s="383"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>462</v>
+      </c>
+      <c r="B10" t="s">
+        <v>474</v>
+      </c>
+      <c r="C10" s="102">
+        <f>'Main Page'!$B$35</f>
+        <v>90</v>
+      </c>
+      <c r="E10" t="s">
+        <v>484</v>
+      </c>
+      <c r="K10" s="383"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>480</v>
+      </c>
+      <c r="B11" t="s">
+        <v>475</v>
+      </c>
+      <c r="C11">
+        <f>'Main Page'!$B$44</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>485</v>
+      </c>
+      <c r="K11" s="383"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>481</v>
+      </c>
+      <c r="B12" t="s">
+        <v>476</v>
+      </c>
+      <c r="C12">
+        <f>'Main Page'!$B$41*PI()/180</f>
+        <v>4.5378560551852569E-2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>486</v>
+      </c>
+      <c r="K12" s="383"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>481</v>
+      </c>
+      <c r="B13" t="s">
+        <v>477</v>
+      </c>
+      <c r="C13">
+        <f>'Main Page'!$B$42*PI()/180</f>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="E13" t="s">
+        <v>487</v>
+      </c>
+      <c r="K13" s="383"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>449</v>
+      </c>
+      <c r="B14" t="s">
+        <v>478</v>
+      </c>
+      <c r="C14">
+        <f>1/C12^C15</f>
+        <v>0.21302244142778143</v>
+      </c>
+      <c r="E14" t="s">
+        <v>488</v>
+      </c>
+      <c r="K14" s="383"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>449</v>
+      </c>
+      <c r="B15" t="s">
+        <v>479</v>
+      </c>
+      <c r="C15">
+        <f>'Main Page'!$B$43</f>
+        <v>-0.5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>489</v>
+      </c>
+      <c r="K15" s="383"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="K16" s="383"/>
+    </row>
+    <row r="17" spans="11:11">
+      <c r="K17" s="102"/>
+    </row>
+    <row r="19" spans="11:11">
+      <c r="K19" s="384"/>
+    </row>
+    <row r="20" spans="11:11">
+      <c r="K20" s="102"/>
+    </row>
+    <row r="21" spans="11:11">
+      <c r="K21" s="102"/>
+    </row>
+    <row r="22" spans="11:11">
+      <c r="K22" s="102"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -12244,7 +14506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -14458,15 +16720,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:U50"/>
+  <dimension ref="B2:V50"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q47" sqref="Q47"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -15043,7 +17305,7 @@
       <c r="T16" s="108"/>
       <c r="U16" s="108"/>
     </row>
-    <row r="17" spans="2:21" ht="13.5">
+    <row r="17" spans="2:22" ht="13.5">
       <c r="B17" s="192" t="s">
         <v>354</v>
       </c>
@@ -15099,7 +17361,7 @@
       <c r="T17" s="108"/>
       <c r="U17" s="108"/>
     </row>
-    <row r="18" spans="2:21">
+    <row r="18" spans="2:22">
       <c r="B18" s="236">
         <f t="shared" ref="B18:B23" si="0">B5</f>
         <v>0.05</v>
@@ -15169,7 +17431,7 @@
       <c r="T18" s="108"/>
       <c r="U18" s="108"/>
     </row>
-    <row r="19" spans="2:21">
+    <row r="19" spans="2:22">
       <c r="B19" s="241">
         <f t="shared" si="0"/>
         <v>7.0000000000000007E-2</v>
@@ -15239,7 +17501,7 @@
       <c r="T19" s="108"/>
       <c r="U19" s="108"/>
     </row>
-    <row r="20" spans="2:21">
+    <row r="20" spans="2:22">
       <c r="B20" s="241">
         <f t="shared" si="0"/>
         <v>0.25</v>
@@ -15310,7 +17572,7 @@
       <c r="T20" s="108"/>
       <c r="U20" s="108"/>
     </row>
-    <row r="21" spans="2:21">
+    <row r="21" spans="2:22">
       <c r="B21" s="241">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -15378,7 +17640,7 @@
       <c r="T21" s="108"/>
       <c r="U21" s="108"/>
     </row>
-    <row r="22" spans="2:21">
+    <row r="22" spans="2:22">
       <c r="B22" s="241">
         <f t="shared" si="0"/>
         <v>0.75</v>
@@ -15449,7 +17711,7 @@
       <c r="T22" s="108"/>
       <c r="U22" s="108"/>
     </row>
-    <row r="23" spans="2:21">
+    <row r="23" spans="2:22">
       <c r="B23" s="247">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -15520,12 +17782,12 @@
       <c r="T23" s="108"/>
       <c r="U23" s="108"/>
     </row>
-    <row r="25" spans="2:21">
+    <row r="25" spans="2:22">
       <c r="B25" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="26" spans="2:21" ht="13.5">
+    <row r="26" spans="2:22" ht="13.5">
       <c r="B26" s="229" t="s">
         <v>87</v>
       </c>
@@ -15581,7 +17843,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="27" spans="2:21" ht="13.5">
+    <row r="27" spans="2:22" ht="13.5">
       <c r="B27" s="192" t="s">
         <v>354</v>
       </c>
@@ -15634,7 +17896,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="28" spans="2:21">
+    <row r="28" spans="2:22">
       <c r="B28" s="236">
         <v>0.05</v>
       </c>
@@ -15695,7 +17957,7 @@
         <v>1.349657099314199</v>
       </c>
       <c r="Q28" s="227">
-        <f t="shared" si="11"/>
+        <f>Q18</f>
         <v>0</v>
       </c>
       <c r="R28" s="262">
@@ -15706,8 +17968,12 @@
         <f>D28*(C29-C28)/2*(D$12-D$13)</f>
         <v>295.48685043753403</v>
       </c>
-    </row>
-    <row r="29" spans="2:21">
+      <c r="V28" s="103">
+        <f>Q28/P28+0.25</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22">
       <c r="B29" s="241">
         <f>B19</f>
         <v>7.0000000000000007E-2</v>
@@ -15780,8 +18046,12 @@
         <f>D29*(C30-C28)/2*(D$12-D$13)</f>
         <v>55.759565911624797</v>
       </c>
-    </row>
-    <row r="30" spans="2:21">
+      <c r="V29" s="103">
+        <f t="shared" ref="V29:V48" si="13">Q29/P29+0.25</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22">
       <c r="B30" s="241">
         <v>0.1</v>
       </c>
@@ -15810,39 +18080,39 @@
         <v>0.29594991734037218</v>
       </c>
       <c r="I30" s="8">
-        <f t="shared" ref="I30:Q32" si="13">I$29+($B30-$B$29)*(I$33-I$29)/($B$33-$B$29)</f>
+        <f t="shared" ref="I30:Q32" si="14">I$29+($B30-$B$29)*(I$33-I$29)/($B$33-$B$29)</f>
         <v>0</v>
       </c>
       <c r="J30" s="245">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.27552300703927668</v>
       </c>
       <c r="K30" s="243">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>11.1</v>
       </c>
       <c r="L30" s="246">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>86293632.699756593</v>
       </c>
       <c r="M30" s="246">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1335788009.2660363</v>
       </c>
       <c r="N30" s="246">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>276174377.7347765</v>
       </c>
       <c r="O30" s="246">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>255926413.53308159</v>
       </c>
       <c r="P30" s="244">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.4580475827618322</v>
       </c>
       <c r="Q30" s="244">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-3.0000000000000006E-2</v>
       </c>
       <c r="R30" s="260">
@@ -15850,162 +18120,174 @@
         <v>1</v>
       </c>
       <c r="T30">
-        <f t="shared" ref="T30:T47" si="14">D30*(C31-C29)/2*(D$12-D$13)</f>
+        <f t="shared" ref="T30:T47" si="15">D30*(C31-C29)/2*(D$12-D$13)</f>
         <v>93.880830674399164</v>
       </c>
-    </row>
-    <row r="31" spans="2:21">
+      <c r="V30" s="103">
+        <f t="shared" si="13"/>
+        <v>0.22942453980605074</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22">
       <c r="B31" s="241">
         <v>0.15</v>
       </c>
       <c r="C31" s="242">
-        <f t="shared" ref="C31:C48" si="15">(1/(B$23-B$18))*B31-(B$18/(B$23-B$18))</f>
+        <f t="shared" ref="C31:C48" si="16">(1/(B$23-B$18))*B31-(B$18/(B$23-B$18))</f>
         <v>0.10526315789473684</v>
       </c>
       <c r="D31" s="243">
-        <f t="shared" ref="D31:H32" si="16">D$29+($B31-$B$29)*(D$33-D$29)/($B$33-$B$29)</f>
+        <f t="shared" ref="D31:H32" si="17">D$29+($B31-$B$29)*(D$33-D$29)/($B$33-$B$29)</f>
         <v>101.65670603406498</v>
       </c>
       <c r="E31" s="243">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F31" s="243">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>33.30421512841383</v>
       </c>
       <c r="G31" s="252">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H31" s="244">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.22684265486007649</v>
       </c>
       <c r="I31" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="245">
+        <f t="shared" si="14"/>
+        <v>0.17237089405715517</v>
+      </c>
+      <c r="K31" s="243">
+        <f t="shared" si="14"/>
+        <v>11.1</v>
+      </c>
+      <c r="L31" s="246">
+        <f t="shared" si="14"/>
+        <v>59549032.219994225</v>
+      </c>
+      <c r="M31" s="246">
+        <f t="shared" si="14"/>
+        <v>1402461988.7262819</v>
+      </c>
+      <c r="N31" s="246">
+        <f t="shared" si="14"/>
+        <v>248345651.18870816</v>
+      </c>
+      <c r="O31" s="246">
+        <f t="shared" si="14"/>
+        <v>194351079.98418844</v>
+      </c>
+      <c r="P31" s="244">
+        <f t="shared" si="14"/>
+        <v>1.6386983885078881</v>
+      </c>
+      <c r="Q31" s="244">
+        <f t="shared" si="14"/>
+        <v>-8.0000000000000016E-2</v>
+      </c>
+      <c r="R31" s="260">
+        <f t="shared" ref="R31:R38" si="18">$R$20</f>
+        <v>2</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="15"/>
+        <v>127.07088254258123</v>
+      </c>
+      <c r="V31" s="103">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="245">
-        <f t="shared" si="13"/>
-        <v>0.17237089405715517</v>
-      </c>
-      <c r="K31" s="243">
-        <f t="shared" si="13"/>
-        <v>11.1</v>
-      </c>
-      <c r="L31" s="246">
-        <f t="shared" si="13"/>
-        <v>59549032.219994225</v>
-      </c>
-      <c r="M31" s="246">
-        <f t="shared" si="13"/>
-        <v>1402461988.7262819</v>
-      </c>
-      <c r="N31" s="246">
-        <f t="shared" si="13"/>
-        <v>248345651.18870816</v>
-      </c>
-      <c r="O31" s="246">
-        <f t="shared" si="13"/>
-        <v>194351079.98418844</v>
-      </c>
-      <c r="P31" s="244">
-        <f t="shared" si="13"/>
-        <v>1.6386983885078881</v>
-      </c>
-      <c r="Q31" s="244">
-        <f t="shared" si="13"/>
-        <v>-8.0000000000000016E-2</v>
-      </c>
-      <c r="R31" s="260">
-        <f t="shared" ref="R31:R38" si="17">$R$20</f>
-        <v>2</v>
-      </c>
-      <c r="T31">
-        <f t="shared" si="14"/>
-        <v>127.07088254258123</v>
-      </c>
-    </row>
-    <row r="32" spans="2:21">
+        <v>0.20118076605125379</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22">
       <c r="B32" s="241">
         <v>0.2</v>
       </c>
       <c r="C32" s="242">
+        <f t="shared" si="16"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="D32" s="243">
+        <f t="shared" si="17"/>
+        <v>109.4325813937308</v>
+      </c>
+      <c r="E32" s="243">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="243">
+        <f t="shared" si="17"/>
+        <v>28.726903291752564</v>
+      </c>
+      <c r="G32" s="252">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="244">
+        <f t="shared" si="17"/>
+        <v>0.15773539237978068</v>
+      </c>
+      <c r="I32" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="245">
+        <f t="shared" si="14"/>
+        <v>6.9218781075033597E-2</v>
+      </c>
+      <c r="K32" s="243">
+        <f t="shared" si="14"/>
+        <v>11.1</v>
+      </c>
+      <c r="L32" s="246">
+        <f t="shared" si="14"/>
+        <v>32804431.740231842</v>
+      </c>
+      <c r="M32" s="246">
+        <f t="shared" si="14"/>
+        <v>1469135968.1865273</v>
+      </c>
+      <c r="N32" s="246">
+        <f t="shared" si="14"/>
+        <v>220516924.64263982</v>
+      </c>
+      <c r="O32" s="246">
+        <f t="shared" si="14"/>
+        <v>132775746.43529522</v>
+      </c>
+      <c r="P32" s="244">
+        <f t="shared" si="14"/>
+        <v>1.8193491942539441</v>
+      </c>
+      <c r="Q32" s="244">
+        <f t="shared" si="14"/>
+        <v>-0.13000000000000006</v>
+      </c>
+      <c r="R32" s="260">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="T32">
         <f t="shared" si="15"/>
-        <v>0.15789473684210525</v>
-      </c>
-      <c r="D32" s="243">
-        <f t="shared" si="16"/>
-        <v>109.4325813937308</v>
-      </c>
-      <c r="E32" s="243">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="243">
-        <f t="shared" si="16"/>
-        <v>28.726903291752564</v>
-      </c>
-      <c r="G32" s="252">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="244">
-        <f t="shared" si="16"/>
-        <v>0.15773539237978068</v>
-      </c>
-      <c r="I32" s="8">
+        <v>136.79072674216349</v>
+      </c>
+      <c r="V32" s="103">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="245">
-        <f t="shared" si="13"/>
-        <v>6.9218781075033597E-2</v>
-      </c>
-      <c r="K32" s="243">
-        <f t="shared" si="13"/>
-        <v>11.1</v>
-      </c>
-      <c r="L32" s="246">
-        <f t="shared" si="13"/>
-        <v>32804431.740231842</v>
-      </c>
-      <c r="M32" s="246">
-        <f t="shared" si="13"/>
-        <v>1469135968.1865273</v>
-      </c>
-      <c r="N32" s="246">
-        <f t="shared" si="13"/>
-        <v>220516924.64263982</v>
-      </c>
-      <c r="O32" s="246">
-        <f t="shared" si="13"/>
-        <v>132775746.43529522</v>
-      </c>
-      <c r="P32" s="244">
-        <f t="shared" si="13"/>
-        <v>1.8193491942539441</v>
-      </c>
-      <c r="Q32" s="244">
-        <f t="shared" si="13"/>
-        <v>-0.13000000000000006</v>
-      </c>
-      <c r="R32" s="260">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="T32">
-        <f t="shared" si="14"/>
-        <v>136.79072674216349</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20">
+        <v>0.17854587760800433</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22">
       <c r="B33" s="241">
         <v>0.25</v>
       </c>
       <c r="C33" s="242">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.21052631578947367</v>
       </c>
       <c r="D33" s="243">
@@ -16013,72 +18295,76 @@
         <v>117.20845675339662</v>
       </c>
       <c r="E33" s="243">
-        <f t="shared" ref="E33:Q33" si="18">E20</f>
+        <f t="shared" ref="E33:Q33" si="19">E20</f>
         <v>0</v>
       </c>
       <c r="F33" s="243">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>24.149591455091301</v>
       </c>
       <c r="G33" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H33" s="244">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>8.8628129899484986E-2</v>
       </c>
       <c r="I33" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J33" s="245">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-3.3933331907087916E-2</v>
       </c>
       <c r="K33" s="243">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>11.1</v>
       </c>
       <c r="L33" s="246">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6059831.2604694702</v>
       </c>
       <c r="M33" s="246">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1535809947.6467729</v>
       </c>
       <c r="N33" s="246">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>192688198.09657151</v>
       </c>
       <c r="O33" s="246">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>71200412.886402056</v>
       </c>
       <c r="P33" s="244">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="Q33" s="244">
+        <f t="shared" si="19"/>
+        <v>-0.18000000000000005</v>
+      </c>
+      <c r="R33" s="260">
         <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="Q33" s="244">
-        <f t="shared" si="18"/>
-        <v>-0.18000000000000005</v>
-      </c>
-      <c r="R33" s="260">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
       <c r="T33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>146.51057094174578</v>
       </c>
-    </row>
-    <row r="34" spans="2:20">
+      <c r="V33" s="103">
+        <f t="shared" si="13"/>
+        <v>0.15999999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22">
       <c r="B34" s="241">
         <v>0.3</v>
       </c>
       <c r="C34" s="242">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.26315789473684209</v>
       </c>
       <c r="D34" s="243">
@@ -16086,72 +18372,76 @@
         <v>110.35787927472171</v>
       </c>
       <c r="E34" s="243">
-        <f t="shared" ref="E34:Q37" si="19">E$33+($B34-$B$33)*(E$38-E$33)/($B$38-$B$33)</f>
+        <f t="shared" ref="E34:Q37" si="20">E$33+($B34-$B$33)*(E$38-E$33)/($B$38-$B$33)</f>
         <v>0</v>
       </c>
       <c r="F34" s="243">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>21.131145393121663</v>
       </c>
       <c r="G34" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H34" s="244">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.2266251937987417E-2</v>
       </c>
       <c r="I34" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J34" s="245">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-2.3064223191645555E-2</v>
       </c>
       <c r="K34" s="243">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.5</v>
       </c>
       <c r="L34" s="246">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5425015.4541809028</v>
       </c>
       <c r="M34" s="246">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1447589040.0417631</v>
       </c>
       <c r="N34" s="246">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>169973932.22807014</v>
       </c>
       <c r="O34" s="246">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>61417696.521534123</v>
       </c>
       <c r="P34" s="244">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.9066802133604268</v>
       </c>
       <c r="Q34" s="244">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.16240081280162566</v>
       </c>
       <c r="R34" s="260">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="T34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>137.94734909340212</v>
       </c>
-    </row>
-    <row r="35" spans="2:20">
+      <c r="V34" s="103">
+        <f t="shared" si="13"/>
+        <v>0.16482535368875387</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22">
       <c r="B35" s="241">
         <v>0.35</v>
       </c>
       <c r="C35" s="242">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.31578947368421051</v>
       </c>
       <c r="D35" s="243">
@@ -16159,72 +18449,76 @@
         <v>103.50730179604682</v>
       </c>
       <c r="E35" s="243">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F35" s="243">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>18.112699331152026</v>
       </c>
       <c r="G35" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H35" s="244">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.5904373976489848E-2</v>
       </c>
       <c r="I35" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J35" s="245">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-1.2195114476203198E-2</v>
       </c>
       <c r="K35" s="243">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7.9</v>
       </c>
       <c r="L35" s="246">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4790199.6478923345</v>
       </c>
       <c r="M35" s="246">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1359368132.4367533</v>
       </c>
       <c r="N35" s="246">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>147259666.3595688</v>
       </c>
       <c r="O35" s="246">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>51634980.156666189</v>
       </c>
       <c r="P35" s="244">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.8133604267208534</v>
       </c>
       <c r="Q35" s="244">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.14480162560325124</v>
       </c>
       <c r="R35" s="260">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="T35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>129.38412724505852</v>
       </c>
-    </row>
-    <row r="36" spans="2:20">
+      <c r="V35" s="103">
+        <f t="shared" si="13"/>
+        <v>0.17014735544598833</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22">
       <c r="B36" s="241">
         <v>0.4</v>
       </c>
       <c r="C36" s="242">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.36842105263157893</v>
       </c>
       <c r="D36" s="243">
@@ -16232,72 +18526,76 @@
         <v>96.656724317371896</v>
       </c>
       <c r="E36" s="243">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F36" s="243">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>15.094253269182385</v>
       </c>
       <c r="G36" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H36" s="244">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.9542496014992279E-2</v>
       </c>
       <c r="I36" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J36" s="245">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-1.3260057607608275E-3</v>
       </c>
       <c r="K36" s="243">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6.2999999999999989</v>
       </c>
       <c r="L36" s="246">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4155383.8416037662</v>
       </c>
       <c r="M36" s="246">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1271147224.8317432</v>
       </c>
       <c r="N36" s="246">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>124545400.49106742</v>
       </c>
       <c r="O36" s="246">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>41852263.791798249</v>
       </c>
       <c r="P36" s="244">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.72004064008128</v>
       </c>
       <c r="Q36" s="244">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.12720243840487683</v>
       </c>
       <c r="R36" s="260">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="T36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>120.82090539671486</v>
       </c>
-    </row>
-    <row r="37" spans="2:20">
+      <c r="V36" s="103">
+        <f t="shared" si="13"/>
+        <v>0.17604684131250181</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22">
       <c r="B37" s="241">
         <v>0.45</v>
       </c>
       <c r="C37" s="242">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.42105263157894735</v>
       </c>
       <c r="D37" s="243">
@@ -16305,72 +18603,76 @@
         <v>89.806146838697003</v>
       </c>
       <c r="E37" s="243">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F37" s="243">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>12.075807207212748</v>
       </c>
       <c r="G37" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H37" s="244">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.10318061805349471</v>
       </c>
       <c r="I37" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J37" s="245">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.543102954681526E-3</v>
       </c>
       <c r="K37" s="243">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.6999999999999993</v>
       </c>
       <c r="L37" s="246">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3520568.0353151988</v>
       </c>
       <c r="M37" s="246">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1182926317.2267334</v>
       </c>
       <c r="N37" s="246">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>101831134.62256606</v>
       </c>
       <c r="O37" s="246">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>32069547.426930316</v>
       </c>
       <c r="P37" s="244">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.6267208534417068</v>
       </c>
       <c r="Q37" s="244">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.10960325120650241</v>
       </c>
       <c r="R37" s="260">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="T37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>112.25768354837125</v>
       </c>
-    </row>
-    <row r="38" spans="2:20">
+      <c r="V37" s="103">
+        <f t="shared" si="13"/>
+        <v>0.18262319655237025</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22">
       <c r="B38" s="241">
         <v>0.5</v>
       </c>
       <c r="C38" s="242">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.47368421052631576</v>
       </c>
       <c r="D38" s="243">
@@ -16378,72 +18680,76 @@
         <v>82.955569360022096</v>
       </c>
       <c r="E38" s="243">
-        <f t="shared" ref="E38:Q38" si="20">E21</f>
+        <f t="shared" ref="E38:Q38" si="21">E21</f>
         <v>0</v>
       </c>
       <c r="F38" s="243">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>9.0573611452431102</v>
       </c>
       <c r="G38" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H38" s="244">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.10681874009199714</v>
       </c>
       <c r="I38" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J38" s="245">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.0412211670123883E-2</v>
       </c>
       <c r="K38" s="243">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3.1</v>
       </c>
       <c r="L38" s="246">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2885752.229026631</v>
       </c>
       <c r="M38" s="246">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1094705409.6217237</v>
       </c>
       <c r="N38" s="246">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>79116868.754064709</v>
       </c>
       <c r="O38" s="246">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>22286831.062062379</v>
       </c>
       <c r="P38" s="244">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.5334010668021336</v>
       </c>
       <c r="Q38" s="244">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-9.2004064008128009E-2</v>
       </c>
       <c r="R38" s="260">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="T38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>103.69446170002762</v>
       </c>
-    </row>
-    <row r="39" spans="2:20">
+      <c r="V38" s="103">
+        <f t="shared" si="13"/>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22">
       <c r="B39" s="241">
         <v>0.55000000000000004</v>
       </c>
       <c r="C39" s="242">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.52631578947368418</v>
       </c>
       <c r="D39" s="243">
@@ -16451,72 +18757,76 @@
         <v>74.190377902510207</v>
       </c>
       <c r="E39" s="243">
-        <f t="shared" ref="E39:Q42" si="21">E$38+($B39-$B$38)*(E$43-E$38)/($B$43-$B$38)</f>
+        <f t="shared" ref="E39:Q42" si="22">E$38+($B39-$B$38)*(E$43-E$38)/($B$43-$B$38)</f>
         <v>0</v>
       </c>
       <c r="F39" s="243">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>7.6869726668704734</v>
       </c>
       <c r="G39" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H39" s="244">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.10948946529155948</v>
       </c>
       <c r="I39" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J39" s="245">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2.6240327216389525E-2</v>
       </c>
       <c r="K39" s="243">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2.5999999999999996</v>
       </c>
       <c r="L39" s="246">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2423588.3923425623</v>
       </c>
       <c r="M39" s="246">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>975582982.3339535</v>
       </c>
       <c r="N39" s="246">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>67558106.97317256</v>
       </c>
       <c r="O39" s="246">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>18539309.239150856</v>
       </c>
       <c r="P39" s="244">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.4401320802641604</v>
       </c>
       <c r="Q39" s="244">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-8.0005588011176007E-2</v>
       </c>
       <c r="R39" s="260">
-        <f t="shared" ref="R39:R45" si="22">$R$22</f>
+        <f t="shared" ref="R39:R45" si="23">$R$22</f>
         <v>3</v>
       </c>
       <c r="T39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>92.737972378137712</v>
       </c>
-    </row>
-    <row r="40" spans="2:20">
+      <c r="V39" s="103">
+        <f t="shared" si="13"/>
+        <v>0.19444565945888745</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22">
       <c r="B40" s="241">
         <v>0.6</v>
       </c>
       <c r="C40" s="242">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.57894736842105254</v>
       </c>
       <c r="D40" s="243">
@@ -16524,72 +18834,76 @@
         <v>65.425186444998332</v>
       </c>
       <c r="E40" s="243">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="F40" s="243">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>6.3165841884978402</v>
       </c>
       <c r="G40" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H40" s="244">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.11216019049112182</v>
       </c>
       <c r="I40" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J40" s="245">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>3.206844276265515E-2</v>
       </c>
       <c r="K40" s="243">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2.1000000000000005</v>
       </c>
       <c r="L40" s="246">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1961424.5556584948</v>
       </c>
       <c r="M40" s="246">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>856460555.04618359</v>
       </c>
       <c r="N40" s="246">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>55999345.192280442</v>
       </c>
       <c r="O40" s="246">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>14791787.416239344</v>
       </c>
       <c r="P40" s="244">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.3468630937261874</v>
       </c>
       <c r="Q40" s="244">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-6.8007112014224047E-2</v>
       </c>
       <c r="R40" s="260">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="T40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>81.781483056247907</v>
       </c>
-    </row>
-    <row r="41" spans="2:20">
+      <c r="V40" s="103">
+        <f t="shared" si="13"/>
+        <v>0.19950703428506769</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22">
       <c r="B41" s="241">
         <v>0.65</v>
       </c>
       <c r="C41" s="242">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.63157894736842102</v>
       </c>
       <c r="D41" s="243">
@@ -16597,72 +18911,76 @@
         <v>56.659994987486449</v>
       </c>
       <c r="E41" s="243">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="F41" s="243">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4.9461957101252034</v>
       </c>
       <c r="G41" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H41" s="244">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.11483091569068417</v>
       </c>
       <c r="I41" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J41" s="245">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>3.7896558308920796E-2</v>
       </c>
       <c r="K41" s="243">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.5999999999999999</v>
       </c>
       <c r="L41" s="246">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1499260.7189744262</v>
       </c>
       <c r="M41" s="246">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>737338127.75841331</v>
       </c>
       <c r="N41" s="246">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>44440583.411388293</v>
       </c>
       <c r="O41" s="246">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>11044265.59332782</v>
       </c>
       <c r="P41" s="244">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.2535941071882144</v>
       </c>
       <c r="Q41" s="244">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-5.6008636017272045E-2</v>
       </c>
       <c r="R41" s="260">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="T41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>70.82499373435806</v>
       </c>
-    </row>
-    <row r="42" spans="2:20">
+      <c r="V41" s="103">
+        <f t="shared" si="13"/>
+        <v>0.20532155448393241</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22">
       <c r="B42" s="241">
         <v>0.7</v>
       </c>
       <c r="C42" s="242">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.68421052631578938</v>
       </c>
       <c r="D42" s="243">
@@ -16670,72 +18988,76 @@
         <v>47.894803529974581</v>
       </c>
       <c r="E42" s="243">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="F42" s="243">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>3.5758072317525702</v>
       </c>
       <c r="G42" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H42" s="244">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.11750164089024651</v>
       </c>
       <c r="I42" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J42" s="245">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4.3724673855186427E-2</v>
       </c>
       <c r="K42" s="243">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.1000000000000005</v>
       </c>
       <c r="L42" s="246">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1037096.8822903587</v>
       </c>
       <c r="M42" s="246">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>618215700.47064352</v>
       </c>
       <c r="N42" s="246">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>32881821.630496174</v>
       </c>
       <c r="O42" s="246">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>7296743.7704163063</v>
       </c>
       <c r="P42" s="244">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.1603251206502414</v>
       </c>
       <c r="Q42" s="244">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-4.4010160020320072E-2</v>
       </c>
       <c r="R42" s="260">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="T42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>59.868504412468219</v>
       </c>
-    </row>
-    <row r="43" spans="2:20">
+      <c r="V42" s="103">
+        <f t="shared" si="13"/>
+        <v>0.21207083752900485</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22">
       <c r="B43" s="241">
         <v>0.75</v>
       </c>
       <c r="C43" s="242">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.73684210526315785</v>
       </c>
       <c r="D43" s="243">
@@ -16743,72 +19065,76 @@
         <v>39.129612072462692</v>
       </c>
       <c r="E43" s="243">
-        <f t="shared" ref="E43:Q43" si="23">E22</f>
+        <f t="shared" ref="E43:Q43" si="24">E22</f>
         <v>0</v>
       </c>
       <c r="F43" s="243">
+        <f t="shared" si="24"/>
+        <v>2.2054187533799334</v>
+      </c>
+      <c r="G43" s="8">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="244">
+        <f t="shared" si="24"/>
+        <v>0.12017236608980884</v>
+      </c>
+      <c r="I43" s="8">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="245">
+        <f t="shared" si="24"/>
+        <v>4.9552789401452066E-2</v>
+      </c>
+      <c r="K43" s="243">
+        <f t="shared" si="24"/>
+        <v>0.6</v>
+      </c>
+      <c r="L43" s="246">
+        <f t="shared" si="24"/>
+        <v>574933.04560629011</v>
+      </c>
+      <c r="M43" s="246">
+        <f t="shared" si="24"/>
+        <v>499093273.18287331</v>
+      </c>
+      <c r="N43" s="246">
+        <f t="shared" si="24"/>
+        <v>21323059.849604025</v>
+      </c>
+      <c r="O43" s="246">
+        <f t="shared" si="24"/>
+        <v>3549221.9475047868</v>
+      </c>
+      <c r="P43" s="244">
+        <f t="shared" si="24"/>
+        <v>1.0670561341122682</v>
+      </c>
+      <c r="Q43" s="244">
+        <f t="shared" si="24"/>
+        <v>-3.2011684023368077E-2</v>
+      </c>
+      <c r="R43" s="260">
         <f t="shared" si="23"/>
-        <v>2.2054187533799334</v>
-      </c>
-      <c r="G43" s="8">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="244">
-        <f t="shared" si="23"/>
-        <v>0.12017236608980884</v>
-      </c>
-      <c r="I43" s="8">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="245">
-        <f t="shared" si="23"/>
-        <v>4.9552789401452066E-2</v>
-      </c>
-      <c r="K43" s="243">
-        <f t="shared" si="23"/>
-        <v>0.6</v>
-      </c>
-      <c r="L43" s="246">
-        <f t="shared" si="23"/>
-        <v>574933.04560629011</v>
-      </c>
-      <c r="M43" s="246">
-        <f t="shared" si="23"/>
-        <v>499093273.18287331</v>
-      </c>
-      <c r="N43" s="246">
-        <f t="shared" si="23"/>
-        <v>21323059.849604025</v>
-      </c>
-      <c r="O43" s="246">
-        <f t="shared" si="23"/>
-        <v>3549221.9475047868</v>
-      </c>
-      <c r="P43" s="244">
-        <f t="shared" si="23"/>
-        <v>1.0670561341122682</v>
-      </c>
-      <c r="Q43" s="244">
-        <f t="shared" si="23"/>
-        <v>-3.2011684023368077E-2</v>
-      </c>
-      <c r="R43" s="260">
-        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="T43">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>48.912015090578365</v>
       </c>
-    </row>
-    <row r="44" spans="2:20">
+      <c r="V43" s="103">
+        <f t="shared" si="13"/>
+        <v>0.21999999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22">
       <c r="B44" s="241">
         <v>0.8</v>
       </c>
       <c r="C44" s="242">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.78947368421052622</v>
       </c>
       <c r="D44" s="243">
@@ -16816,72 +19142,76 @@
         <v>32.853968916831455</v>
       </c>
       <c r="E44" s="243">
-        <f t="shared" ref="E44:Q47" si="24">E$43+($B44-$B$43)*(E$48-E$43)/($B$48-$B$43)</f>
+        <f t="shared" ref="E44:Q47" si="25">E$43+($B44-$B$43)*(E$48-E$43)/($B$48-$B$43)</f>
         <v>0</v>
       </c>
       <c r="F44" s="243">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.81571271869969</v>
       </c>
       <c r="G44" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H44" s="244">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.12752676764959664</v>
       </c>
       <c r="I44" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="J44" s="245">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.3595718948136514E-2</v>
       </c>
       <c r="K44" s="243">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.47999999999999987</v>
       </c>
       <c r="L44" s="246">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>472175.70936429268</v>
       </c>
       <c r="M44" s="246">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>415421497.16283596</v>
       </c>
       <c r="N44" s="246">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>17598898.043764457</v>
       </c>
       <c r="O44" s="246">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2855339.8778221109</v>
       </c>
       <c r="P44" s="244">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.98308356616713222</v>
       </c>
       <c r="Q44" s="244">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-2.5609347218694456E-2</v>
       </c>
       <c r="R44" s="260">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="T44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>41.067461146039278</v>
       </c>
-    </row>
-    <row r="45" spans="2:20">
+      <c r="V44" s="103">
+        <f t="shared" si="13"/>
+        <v>0.22394997933030175</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22">
       <c r="B45" s="241">
         <v>0.85</v>
       </c>
       <c r="C45" s="242">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.84210526315789458</v>
       </c>
       <c r="D45" s="243">
@@ -16889,72 +19219,76 @@
         <v>26.57832576120024</v>
       </c>
       <c r="E45" s="243">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="F45" s="243">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.4260066840194474</v>
       </c>
       <c r="G45" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H45" s="244">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.13488116920938442</v>
       </c>
       <c r="I45" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="J45" s="245">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.7638648494820949E-2</v>
       </c>
       <c r="K45" s="243">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.36000000000000004</v>
       </c>
       <c r="L45" s="246">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>369418.37312229548</v>
       </c>
       <c r="M45" s="246">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>331749721.14279878</v>
       </c>
       <c r="N45" s="246">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>13874736.2379249</v>
       </c>
       <c r="O45" s="246">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2161457.8081394369</v>
       </c>
       <c r="P45" s="244">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.89911099822199647</v>
       </c>
       <c r="Q45" s="244">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-1.9207010414020849E-2</v>
       </c>
       <c r="R45" s="260">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="T45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>33.222907201500298</v>
       </c>
-    </row>
-    <row r="46" spans="2:20">
+      <c r="V45" s="103">
+        <f t="shared" si="13"/>
+        <v>0.22863777614554492</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22">
       <c r="B46" s="241">
         <v>0.9</v>
       </c>
       <c r="C46" s="242">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.89473684210526305</v>
       </c>
       <c r="D46" s="243">
@@ -16962,55 +19296,55 @@
         <v>20.302682605569004</v>
       </c>
       <c r="E46" s="243">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="F46" s="243">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.036300649339204</v>
       </c>
       <c r="G46" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H46" s="244">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.1422355707691722</v>
       </c>
       <c r="I46" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="J46" s="245">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>6.1681578041505397E-2</v>
       </c>
       <c r="K46" s="243">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.23999999999999994</v>
       </c>
       <c r="L46" s="246">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>266661.03688029811</v>
       </c>
       <c r="M46" s="246">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>248077945.1227614</v>
       </c>
       <c r="N46" s="246">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>10150574.432085332</v>
       </c>
       <c r="O46" s="246">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1467575.738456761</v>
       </c>
       <c r="P46" s="244">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.8151384302768605</v>
       </c>
       <c r="Q46" s="244">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-1.2804673609347228E-2</v>
       </c>
       <c r="R46" s="260">
@@ -17018,16 +19352,20 @@
         <v>4</v>
       </c>
       <c r="T46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>25.378353256961251</v>
       </c>
-    </row>
-    <row r="47" spans="2:20">
+      <c r="V46" s="103">
+        <f t="shared" si="13"/>
+        <v>0.23429141218995386</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22">
       <c r="B47" s="241">
         <v>0.95</v>
       </c>
       <c r="C47" s="242">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.94736842105263142</v>
       </c>
       <c r="D47" s="243">
@@ -17035,55 +19373,55 @@
         <v>14.027039449937785</v>
       </c>
       <c r="E47" s="243">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="F47" s="243">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.6465946146589614</v>
       </c>
       <c r="G47" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H47" s="244">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.14958997232895999</v>
       </c>
       <c r="I47" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="J47" s="245">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>6.5724507588189832E-2</v>
       </c>
       <c r="K47" s="243">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.12000000000000011</v>
       </c>
       <c r="L47" s="246">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>163903.70063830091</v>
       </c>
       <c r="M47" s="246">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>164406169.10272419</v>
       </c>
       <c r="N47" s="246">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>6426412.6262457725</v>
       </c>
       <c r="O47" s="246">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>773693.66877408698</v>
       </c>
       <c r="P47" s="244">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.73116586233172476</v>
       </c>
       <c r="Q47" s="244">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-6.4023368046736209E-3</v>
       </c>
       <c r="R47" s="260">
@@ -17091,16 +19429,20 @@
         <v>4</v>
       </c>
       <c r="T47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>17.533799312422229</v>
       </c>
-    </row>
-    <row r="48" spans="2:20">
+      <c r="V47" s="103">
+        <f t="shared" si="13"/>
+        <v>0.24124366011255469</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22">
       <c r="B48" s="247">
         <v>1</v>
       </c>
       <c r="C48" s="248">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="D48" s="249">
@@ -17108,55 +19450,55 @@
         <v>7.751396294306554</v>
       </c>
       <c r="E48" s="249">
-        <f t="shared" ref="E48:Q48" si="25">E23</f>
+        <f t="shared" ref="E48:Q48" si="26">E23</f>
         <v>0</v>
       </c>
       <c r="F48" s="249">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.25688857997871806</v>
       </c>
       <c r="G48" s="225">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H48" s="228">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.15694437388874777</v>
       </c>
       <c r="I48" s="225">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J48" s="250">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>6.976743713487428E-2</v>
       </c>
       <c r="K48" s="249">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L48" s="251">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>61146.36439630347</v>
       </c>
       <c r="M48" s="251">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>80734393.082686871</v>
       </c>
       <c r="N48" s="251">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2702250.8204062055</v>
       </c>
       <c r="O48" s="251">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>79811.599091411103</v>
       </c>
       <c r="P48" s="228">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.64719329438658879</v>
       </c>
       <c r="Q48" s="228">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R48" s="261">
@@ -17166,6 +19508,10 @@
       <c r="T48">
         <f>D48*(C48-C47)/2*(D$12-D$13)</f>
         <v>4.8446226839416004</v>
+      </c>
+      <c r="V48" s="103">
+        <f t="shared" si="13"/>
+        <v>0.25</v>
       </c>
     </row>
     <row r="50" spans="20:20">
@@ -17181,830 +19527,4 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O26"/>
-  <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
-  <cols>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:15">
-      <c r="H1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2" spans="2:15">
-      <c r="H2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="H3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="H4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="B5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="153">
-        <f>'Main Page'!B9</f>
-        <v>60</v>
-      </c>
-      <c r="D5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5" s="125">
-        <v>7850</v>
-      </c>
-      <c r="G5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="153">
-        <f>C5-'Main Page'!B57</f>
-        <v>58.67</v>
-      </c>
-      <c r="D6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F6" s="152">
-        <v>200000000000</v>
-      </c>
-      <c r="G6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="153">
-        <f>'Main Page'!B60</f>
-        <v>3.75</v>
-      </c>
-      <c r="D7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="152">
-        <f>F6/2.6</f>
-        <v>76923076923.07692</v>
-      </c>
-      <c r="G7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="153">
-        <f>'Main Page'!B58</f>
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="153">
-        <f>'Main Page'!B61</f>
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15">
-      <c r="B10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="153">
-        <f>'Main Page'!B59</f>
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15">
-      <c r="B11" t="s">
-        <v>385</v>
-      </c>
-      <c r="C11" s="153">
-        <f>'Main Page'!B62</f>
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15">
-      <c r="B13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" t="s">
-        <v>92</v>
-      </c>
-      <c r="G13" t="s">
-        <v>115</v>
-      </c>
-      <c r="H13" t="s">
-        <v>113</v>
-      </c>
-      <c r="I13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" t="s">
-        <v>306</v>
-      </c>
-      <c r="K13" t="s">
-        <v>112</v>
-      </c>
-      <c r="L13" t="s">
-        <v>307</v>
-      </c>
-      <c r="M13" t="s">
-        <v>308</v>
-      </c>
-      <c r="N13" t="s">
-        <v>309</v>
-      </c>
-      <c r="O13" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15">
-      <c r="C14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H14" t="s">
-        <v>114</v>
-      </c>
-      <c r="I14" t="s">
-        <v>111</v>
-      </c>
-      <c r="J14" t="s">
-        <v>110</v>
-      </c>
-      <c r="K14" t="s">
-        <v>91</v>
-      </c>
-      <c r="L14" t="s">
-        <v>111</v>
-      </c>
-      <c r="M14" t="s">
-        <v>110</v>
-      </c>
-      <c r="N14" t="s">
-        <v>91</v>
-      </c>
-      <c r="O14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15">
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15" s="154">
-        <f>C$6/B$24*B15</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="155">
-        <f>C$7-(C$7-C$8)*C15/C$6</f>
-        <v>3.75</v>
-      </c>
-      <c r="E15" s="156">
-        <f>C$9-(C$9-C$10)*C15/C$6</f>
-        <v>15</v>
-      </c>
-      <c r="F15" s="154">
-        <f>PI()*D15*E15/1000</f>
-        <v>0.17671458676442586</v>
-      </c>
-      <c r="G15" s="156">
-        <f>F15*F$5*(C$11/100+1)</f>
-        <v>1456.5699814057803</v>
-      </c>
-      <c r="H15" s="157">
-        <f t="shared" ref="H15:H24" si="0">F15*F$6</f>
-        <v>35342917352.88517</v>
-      </c>
-      <c r="I15" s="154">
-        <f t="shared" ref="I15:I24" si="1">F15*D15^2/4</f>
-        <v>0.62126221909368462</v>
-      </c>
-      <c r="J15" s="156">
-        <f t="shared" ref="J15:J24" si="2">I15*F$5</f>
-        <v>4876.9084198854243</v>
-      </c>
-      <c r="K15" s="157">
-        <f t="shared" ref="K15:K24" si="3">I15*F$7</f>
-        <v>47789401468.744972</v>
-      </c>
-      <c r="L15" s="154">
-        <f>I15/2</f>
-        <v>0.31063110954684231</v>
-      </c>
-      <c r="M15" s="156">
-        <f>J15/2</f>
-        <v>2438.4542099427122</v>
-      </c>
-      <c r="N15" s="157">
-        <f t="shared" ref="N15:N24" si="4">L15*F$6</f>
-        <v>62126221909.368462</v>
-      </c>
-      <c r="O15" s="332">
-        <f>G15*(C16-C15)/2</f>
-        <v>4747.6089338376187</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15">
-      <c r="B16">
-        <f>B15+1</f>
-        <v>1</v>
-      </c>
-      <c r="C16" s="154">
-        <f t="shared" ref="C16:C24" si="5">C$6/B$24*B16</f>
-        <v>6.5188888888888892</v>
-      </c>
-      <c r="D16" s="155">
-        <f t="shared" ref="D16:D24" si="6">C$7-(C$7-C$8)*C16/C$6</f>
-        <v>3.5555555555555554</v>
-      </c>
-      <c r="E16" s="156">
-        <f t="shared" ref="E16:E24" si="7">C$9-(C$9-C$10)*C16/C$6</f>
-        <v>14.333333333333334</v>
-      </c>
-      <c r="F16" s="154">
-        <f t="shared" ref="F16:F24" si="8">PI()*D16*E16/1000</f>
-        <v>0.16010487004961316</v>
-      </c>
-      <c r="G16" s="156">
-        <f t="shared" ref="G16:G24" si="9">F16*F$5*(C$11/100+1)</f>
-        <v>1319.6643913839366</v>
-      </c>
-      <c r="H16" s="157">
-        <f t="shared" si="0"/>
-        <v>32020974009.92263</v>
-      </c>
-      <c r="I16" s="154">
-        <f t="shared" si="1"/>
-        <v>0.5060104534901354</v>
-      </c>
-      <c r="J16" s="156">
-        <f t="shared" si="2"/>
-        <v>3972.1820598975628</v>
-      </c>
-      <c r="K16" s="157">
-        <f t="shared" si="3"/>
-        <v>38923881037.702721</v>
-      </c>
-      <c r="L16" s="154">
-        <f t="shared" ref="L16:L24" si="10">I16/2</f>
-        <v>0.2530052267450677</v>
-      </c>
-      <c r="M16" s="156">
-        <f t="shared" ref="M16:M24" si="11">J16/2</f>
-        <v>1986.0910299487814</v>
-      </c>
-      <c r="N16" s="157">
-        <f t="shared" si="4"/>
-        <v>50601045349.013542</v>
-      </c>
-      <c r="O16" s="332">
-        <f>G16*(C17-C15)/2</f>
-        <v>8602.7455380550637</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15">
-      <c r="B17">
-        <f t="shared" ref="B17:B24" si="12">B16+1</f>
-        <v>2</v>
-      </c>
-      <c r="C17" s="154">
-        <f t="shared" si="5"/>
-        <v>13.037777777777778</v>
-      </c>
-      <c r="D17" s="155">
-        <f t="shared" si="6"/>
-        <v>3.3611111111111112</v>
-      </c>
-      <c r="E17" s="156">
-        <f t="shared" si="7"/>
-        <v>13.666666666666666</v>
-      </c>
-      <c r="F17" s="154">
-        <f t="shared" si="8"/>
-        <v>0.14430964031906446</v>
-      </c>
-      <c r="G17" s="156">
-        <f t="shared" si="9"/>
-        <v>1189.4722103298889</v>
-      </c>
-      <c r="H17" s="157">
-        <f t="shared" si="0"/>
-        <v>28861928063.812893</v>
-      </c>
-      <c r="I17" s="154">
-        <f t="shared" si="1"/>
-        <v>0.40756895137180221</v>
-      </c>
-      <c r="J17" s="156">
-        <f t="shared" si="2"/>
-        <v>3199.4162682686474</v>
-      </c>
-      <c r="K17" s="157">
-        <f t="shared" si="3"/>
-        <v>31351457797.830936</v>
-      </c>
-      <c r="L17" s="154">
-        <f t="shared" si="10"/>
-        <v>0.20378447568590111</v>
-      </c>
-      <c r="M17" s="156">
-        <f t="shared" si="11"/>
-        <v>1599.7081341343237</v>
-      </c>
-      <c r="N17" s="157">
-        <f t="shared" si="4"/>
-        <v>40756895137.180222</v>
-      </c>
-      <c r="O17" s="332">
-        <f t="shared" ref="O17:O23" si="13">G17*(C18-C16)/2</f>
-        <v>7754.0371755616216</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15">
-      <c r="B18">
-        <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="C18" s="154">
-        <f t="shared" si="5"/>
-        <v>19.556666666666668</v>
-      </c>
-      <c r="D18" s="155">
-        <f t="shared" si="6"/>
-        <v>3.1666666666666665</v>
-      </c>
-      <c r="E18" s="156">
-        <f t="shared" si="7"/>
-        <v>13</v>
-      </c>
-      <c r="F18" s="154">
-        <f t="shared" si="8"/>
-        <v>0.12932889757277979</v>
-      </c>
-      <c r="G18" s="156">
-        <f t="shared" si="9"/>
-        <v>1065.9934382436375</v>
-      </c>
-      <c r="H18" s="157">
-        <f t="shared" si="0"/>
-        <v>25865779514.555958</v>
-      </c>
-      <c r="I18" s="154">
-        <f t="shared" si="1"/>
-        <v>0.32422036127620485</v>
-      </c>
-      <c r="J18" s="156">
-        <f t="shared" si="2"/>
-        <v>2545.1298360182082</v>
-      </c>
-      <c r="K18" s="157">
-        <f t="shared" si="3"/>
-        <v>24940027790.477295</v>
-      </c>
-      <c r="L18" s="154">
-        <f t="shared" si="10"/>
-        <v>0.16211018063810242</v>
-      </c>
-      <c r="M18" s="156">
-        <f t="shared" si="11"/>
-        <v>1272.5649180091041</v>
-      </c>
-      <c r="N18" s="157">
-        <f t="shared" si="4"/>
-        <v>32422036127.620483</v>
-      </c>
-      <c r="O18" s="332">
-        <f t="shared" si="13"/>
-        <v>6949.0927801949128</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15">
-      <c r="B19">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="C19" s="154">
-        <f t="shared" si="5"/>
-        <v>26.075555555555557</v>
-      </c>
-      <c r="D19" s="155">
-        <f t="shared" si="6"/>
-        <v>2.9722222222222223</v>
-      </c>
-      <c r="E19" s="156">
-        <f t="shared" si="7"/>
-        <v>12.333333333333332</v>
-      </c>
-      <c r="F19" s="154">
-        <f t="shared" si="8"/>
-        <v>0.11516264181075916</v>
-      </c>
-      <c r="G19" s="156">
-        <f t="shared" si="9"/>
-        <v>949.2280751251825</v>
-      </c>
-      <c r="H19" s="157">
-        <f t="shared" si="0"/>
-        <v>23032528362.151833</v>
-      </c>
-      <c r="I19" s="154">
-        <f t="shared" si="1"/>
-        <v>0.25433971568120795</v>
-      </c>
-      <c r="J19" s="156">
-        <f t="shared" si="2"/>
-        <v>1996.5667680974823</v>
-      </c>
-      <c r="K19" s="157">
-        <f t="shared" si="3"/>
-        <v>19564593513.939072</v>
-      </c>
-      <c r="L19" s="154">
-        <f t="shared" si="10"/>
-        <v>0.12716985784060397</v>
-      </c>
-      <c r="M19" s="156">
-        <f t="shared" si="11"/>
-        <v>998.28338404874114</v>
-      </c>
-      <c r="N19" s="157">
-        <f t="shared" si="4"/>
-        <v>25433971568.120796</v>
-      </c>
-      <c r="O19" s="332">
-        <f t="shared" si="13"/>
-        <v>6187.9123519549412</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15">
-      <c r="B20">
-        <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="C20" s="154">
-        <f t="shared" si="5"/>
-        <v>32.594444444444449</v>
-      </c>
-      <c r="D20" s="155">
-        <f t="shared" si="6"/>
-        <v>2.7777777777777777</v>
-      </c>
-      <c r="E20" s="156">
-        <f t="shared" si="7"/>
-        <v>11.666666666666666</v>
-      </c>
-      <c r="F20" s="154">
-        <f t="shared" si="8"/>
-        <v>0.10181087303300254</v>
-      </c>
-      <c r="G20" s="156">
-        <f t="shared" si="9"/>
-        <v>839.17612097452354</v>
-      </c>
-      <c r="H20" s="157">
-        <f t="shared" si="0"/>
-        <v>20362174606.60051</v>
-      </c>
-      <c r="I20" s="154">
-        <f t="shared" si="1"/>
-        <v>0.19639443100502033</v>
-      </c>
-      <c r="J20" s="156">
-        <f t="shared" si="2"/>
-        <v>1541.6962833894095</v>
-      </c>
-      <c r="K20" s="157">
-        <f t="shared" si="3"/>
-        <v>15107263923.4631</v>
-      </c>
-      <c r="L20" s="154">
-        <f t="shared" si="10"/>
-        <v>9.8197215502510163E-2</v>
-      </c>
-      <c r="M20" s="156">
-        <f t="shared" si="11"/>
-        <v>770.84814169470474</v>
-      </c>
-      <c r="N20" s="157">
-        <f t="shared" si="4"/>
-        <v>19639443100.502033</v>
-      </c>
-      <c r="O20" s="332">
-        <f t="shared" si="13"/>
-        <v>5470.4958908417002</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15">
-      <c r="B21">
-        <f t="shared" si="12"/>
-        <v>6</v>
-      </c>
-      <c r="C21" s="154">
-        <f t="shared" si="5"/>
-        <v>39.113333333333337</v>
-      </c>
-      <c r="D21" s="155">
-        <f t="shared" si="6"/>
-        <v>2.583333333333333</v>
-      </c>
-      <c r="E21" s="156">
-        <f t="shared" si="7"/>
-        <v>11</v>
-      </c>
-      <c r="F21" s="154">
-        <f t="shared" si="8"/>
-        <v>8.9273591239509953E-2</v>
-      </c>
-      <c r="G21" s="156">
-        <f t="shared" si="9"/>
-        <v>735.83757579166081</v>
-      </c>
-      <c r="H21" s="157">
-        <f t="shared" si="0"/>
-        <v>17854718247.901989</v>
-      </c>
-      <c r="I21" s="154">
-        <f t="shared" si="1"/>
-        <v>0.14894430760619626</v>
-      </c>
-      <c r="J21" s="156">
-        <f t="shared" si="2"/>
-        <v>1169.2128147086407</v>
-      </c>
-      <c r="K21" s="157">
-        <f t="shared" si="3"/>
-        <v>11457254431.245865</v>
-      </c>
-      <c r="L21" s="154">
-        <f t="shared" si="10"/>
-        <v>7.4472153803098129E-2</v>
-      </c>
-      <c r="M21" s="156">
-        <f t="shared" si="11"/>
-        <v>584.60640735432037</v>
-      </c>
-      <c r="N21" s="157">
-        <f t="shared" si="4"/>
-        <v>14894430760.619625</v>
-      </c>
-      <c r="O21" s="332">
-        <f t="shared" si="13"/>
-        <v>4796.8433968551926</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15">
-      <c r="B22">
-        <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="C22" s="154">
-        <f t="shared" si="5"/>
-        <v>45.632222222222225</v>
-      </c>
-      <c r="D22" s="155">
-        <f t="shared" si="6"/>
-        <v>2.3888888888888893</v>
-      </c>
-      <c r="E22" s="156">
-        <f t="shared" si="7"/>
-        <v>10.333333333333332</v>
-      </c>
-      <c r="F22" s="154">
-        <f t="shared" si="8"/>
-        <v>7.7550796430281385E-2</v>
-      </c>
-      <c r="G22" s="156">
-        <f t="shared" si="9"/>
-        <v>639.21243957659442</v>
-      </c>
-      <c r="H22" s="157">
-        <f t="shared" si="0"/>
-        <v>15510159286.056276</v>
-      </c>
-      <c r="I22" s="154">
-        <f t="shared" si="1"/>
-        <v>0.11064152978363452</v>
-      </c>
-      <c r="J22" s="156">
-        <f t="shared" si="2"/>
-        <v>868.53600880153101</v>
-      </c>
-      <c r="K22" s="157">
-        <f t="shared" si="3"/>
-        <v>8510886906.433424</v>
-      </c>
-      <c r="L22" s="154">
-        <f t="shared" si="10"/>
-        <v>5.532076489181726E-2</v>
-      </c>
-      <c r="M22" s="156">
-        <f t="shared" si="11"/>
-        <v>434.26800440076551</v>
-      </c>
-      <c r="N22" s="157">
-        <f t="shared" si="4"/>
-        <v>11064152978.363453</v>
-      </c>
-      <c r="O22" s="332">
-        <f t="shared" si="13"/>
-        <v>4166.9548699954212</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15">
-      <c r="B23">
-        <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="C23" s="154">
-        <f t="shared" si="5"/>
-        <v>52.151111111111113</v>
-      </c>
-      <c r="D23" s="155">
-        <f t="shared" si="6"/>
-        <v>2.1944444444444446</v>
-      </c>
-      <c r="E23" s="156">
-        <f t="shared" si="7"/>
-        <v>9.6666666666666661</v>
-      </c>
-      <c r="F23" s="154">
-        <f t="shared" si="8"/>
-        <v>6.664248860531681E-2</v>
-      </c>
-      <c r="G23" s="156">
-        <f t="shared" si="9"/>
-        <v>549.3007123293238</v>
-      </c>
-      <c r="H23" s="157">
-        <f t="shared" si="0"/>
-        <v>13328497721.063362</v>
-      </c>
-      <c r="I23" s="154">
-        <f t="shared" si="1"/>
-        <v>8.0230665776578364E-2</v>
-      </c>
-      <c r="J23" s="156">
-        <f t="shared" si="2"/>
-        <v>629.8107263461402</v>
-      </c>
-      <c r="K23" s="157">
-        <f t="shared" si="3"/>
-        <v>6171589675.1214123</v>
-      </c>
-      <c r="L23" s="154">
-        <f t="shared" si="10"/>
-        <v>4.0115332888289182E-2</v>
-      </c>
-      <c r="M23" s="156">
-        <f t="shared" si="11"/>
-        <v>314.9053631730701</v>
-      </c>
-      <c r="N23" s="157">
-        <f t="shared" si="4"/>
-        <v>8023066577.657836</v>
-      </c>
-      <c r="O23" s="332">
-        <f t="shared" si="13"/>
-        <v>3580.8303102623804</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15">
-      <c r="B24">
-        <f t="shared" si="12"/>
-        <v>9</v>
-      </c>
-      <c r="C24" s="154">
-        <f t="shared" si="5"/>
-        <v>58.67</v>
-      </c>
-      <c r="D24" s="155">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="E24" s="156">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="F24" s="154">
-        <f t="shared" si="8"/>
-        <v>5.6548667764616277E-2</v>
-      </c>
-      <c r="G24" s="156">
-        <f t="shared" si="9"/>
-        <v>466.10239404984969</v>
-      </c>
-      <c r="H24" s="157">
-        <f t="shared" si="0"/>
-        <v>11309733552.923256</v>
-      </c>
-      <c r="I24" s="154">
-        <f t="shared" si="1"/>
-        <v>5.6548667764616277E-2</v>
-      </c>
-      <c r="J24" s="156">
-        <f t="shared" si="2"/>
-        <v>443.90704195223776</v>
-      </c>
-      <c r="K24" s="157">
-        <f t="shared" si="3"/>
-        <v>4349897520.3550978</v>
-      </c>
-      <c r="L24" s="154">
-        <f t="shared" si="10"/>
-        <v>2.8274333882308138E-2</v>
-      </c>
-      <c r="M24" s="156">
-        <f t="shared" si="11"/>
-        <v>221.95352097611888</v>
-      </c>
-      <c r="N24" s="157">
-        <f t="shared" si="4"/>
-        <v>5654866776.461628</v>
-      </c>
-      <c r="O24" s="332">
-        <f>G24*(C24-C23)/2</f>
-        <v>1519.2348588280377</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15">
-      <c r="O25" s="332"/>
-    </row>
-    <row r="26" spans="2:15">
-      <c r="O26" s="332">
-        <f>SUM(O15:O25)</f>
-        <v>53775.756106386892</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>
--- a/FAST_models/WindPACT/excel_proc/turbines/0.75A08V00_proc.xlsx
+++ b/FAST_models/WindPACT/excel_proc/turbines/0.75A08V00_proc.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrinker\Documents\GitHub\dissertation\FAST_models\WindPACT\excel_proc\turbines\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="705" windowWidth="17565" windowHeight="12990" activeTab="2"/>
+    <workbookView xWindow="1560" yWindow="710" windowWidth="17570" windowHeight="12990" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Main Page" sheetId="5" r:id="rId1"/>
-    <sheet name="Blades_JR" sheetId="9" r:id="rId2"/>
-    <sheet name="AD_JR" sheetId="13" r:id="rId3"/>
-    <sheet name="Nacelle_JR" sheetId="10" r:id="rId4"/>
-    <sheet name="Tower_JR" sheetId="11" r:id="rId5"/>
-    <sheet name="Control_JR" sheetId="12" r:id="rId6"/>
+    <sheet name="AD_JR" sheetId="13" r:id="rId2"/>
+    <sheet name="Blades_JR" sheetId="9" r:id="rId3"/>
+    <sheet name="Control_JR" sheetId="12" r:id="rId4"/>
+    <sheet name="Nacelle_JR" sheetId="10" r:id="rId5"/>
+    <sheet name="Tower_JR" sheetId="11" r:id="rId6"/>
     <sheet name="Tower Data" sheetId="4" r:id="rId7"/>
     <sheet name="Blade Data" sheetId="3" r:id="rId8"/>
     <sheet name="GECbladedata" sheetId="6" r:id="rId9"/>
@@ -22,7 +27,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Blade Data'!$A$6:$Q$32</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -32,7 +37,7 @@
     <author>Jeff Minnema</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="511">
   <si>
     <t>number</t>
   </si>
@@ -1756,21 +1761,9 @@
     <t>Drivetrain damping (% critical)</t>
   </si>
   <si>
-    <t>Integral gain (rotor speed [rpm] to blade pitch [deg])</t>
-  </si>
-  <si>
-    <t>Proportional gain (rotor speed [rpm] to blade pitch [deg])</t>
-  </si>
-  <si>
-    <t>Derivatie gain (rotor speed [rpm] to blade pitch [deg])</t>
-  </si>
-  <si>
     <t>&lt;-- changed GenEff defn (JR)</t>
   </si>
   <si>
-    <t>Corner frequency (Hz)</t>
-  </si>
-  <si>
     <t>Gain scheduling exponent</t>
   </si>
   <si>
@@ -1783,57 +1776,15 @@
     <t>Time step (sec)</t>
   </si>
   <si>
-    <t>from NREL 5MW discon controller</t>
-  </si>
-  <si>
     <t>simple quadratic (not optimal)</t>
   </si>
   <si>
-    <t>10% above rated (from NREL 5 mw)</t>
-  </si>
-  <si>
-    <t>Max. HSS torque rate (N-m/sec)</t>
-  </si>
-  <si>
-    <t>Cut-in HSS speed (rad/sec)</t>
-  </si>
-  <si>
     <t>Generator torque constant (HSS N-m/rpm^2)</t>
   </si>
   <si>
-    <t>Max HSS torque</t>
-  </si>
-  <si>
-    <t>Between regions 1.5 and 2</t>
-  </si>
-  <si>
-    <t>Min. pitch for computing R3 torque (deg)</t>
-  </si>
-  <si>
-    <t>1 deg above PC min</t>
-  </si>
-  <si>
-    <t>Region 2.5 slip percentage (%)</t>
-  </si>
-  <si>
-    <t>No region 2.5</t>
-  </si>
-  <si>
-    <t>calculated from CertTest 1.5 WindPACT</t>
-  </si>
-  <si>
-    <t>recommended 1/4 of first blade edgewise freq in NREL 5MW</t>
-  </si>
-  <si>
     <t>from CertTest 1.5 WindPACT</t>
   </si>
   <si>
-    <t>No region 1 (simulating above 4 m/s wind speeds)</t>
-  </si>
-  <si>
-    <t>Region 1.5/2 HSS transition (rad/sec)</t>
-  </si>
-  <si>
     <t>AirDens</t>
   </si>
   <si>
@@ -2081,6 +2032,9 @@
   </si>
   <si>
     <t>BlPitchF</t>
+  </si>
+  <si>
+    <t>N-m</t>
   </si>
 </sst>
 </file>
@@ -2098,8 +2052,8 @@
     <numFmt numFmtId="171" formatCode="0.0000000"/>
     <numFmt numFmtId="172" formatCode="0.000000"/>
     <numFmt numFmtId="173" formatCode="0.0000000000"/>
-    <numFmt numFmtId="181" formatCode="0.00000E+00"/>
-    <numFmt numFmtId="184" formatCode="0.00000000E+00"/>
+    <numFmt numFmtId="174" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="175" formatCode="0.00000000E+00"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -3750,7 +3704,6 @@
     <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3851,17 +3804,37 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3909,25 +3882,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3944,6 +3898,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4515,11 +4472,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="97795456"/>
-        <c:axId val="97801728"/>
+        <c:axId val="319611736"/>
+        <c:axId val="319616048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="97795456"/>
+        <c:axId val="319611736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4604,12 +4561,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97801728"/>
+        <c:crossAx val="319616048"/>
         <c:crossesAt val="-10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97801728"/>
+        <c:axId val="319616048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4693,7 +4650,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97795456"/>
+        <c:crossAx val="319611736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5091,13 +5048,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5294,13 +5251,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5767,42 +5724,42 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U169"/>
+  <dimension ref="A1:U158"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D147" sqref="D147"/>
+    <sheetView topLeftCell="A20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="10"/>
   <cols>
-    <col min="1" max="1" width="34.83203125" customWidth="1"/>
+    <col min="1" max="1" width="34.77734375" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="8" width="12.1640625" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" customWidth="1"/>
-    <col min="10" max="10" width="9.83203125" customWidth="1"/>
+    <col min="7" max="8" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="10.1640625" customWidth="1"/>
-    <col min="13" max="13" width="12.5" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41.25" customHeight="1" thickBot="1">
       <c r="A1" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="357" t="s">
+      <c r="B1" s="356" t="s">
         <v>404</v>
       </c>
-      <c r="C1" s="396" t="s">
+      <c r="C1" s="405" t="s">
         <v>398</v>
       </c>
-      <c r="D1" s="397"/>
-      <c r="E1" s="397"/>
-      <c r="F1" s="397"/>
-      <c r="G1" s="397"/>
-      <c r="H1" s="398"/>
+      <c r="D1" s="406"/>
+      <c r="E1" s="406"/>
+      <c r="F1" s="406"/>
+      <c r="G1" s="406"/>
+      <c r="H1" s="407"/>
     </row>
     <row r="2" spans="1:8" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="A2" s="60" t="s">
@@ -5818,19 +5775,19 @@
       <c r="A3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="390" t="s">
+      <c r="B3" s="399" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="391"/>
-      <c r="D3" s="392"/>
+      <c r="C3" s="400"/>
+      <c r="D3" s="401"/>
       <c r="E3" s="35"/>
-      <c r="F3" s="393" t="s">
+      <c r="F3" s="402" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="394"/>
-      <c r="H3" s="395"/>
-    </row>
-    <row r="4" spans="1:8" ht="12" thickBot="1">
+      <c r="G3" s="403"/>
+      <c r="H3" s="404"/>
+    </row>
+    <row r="4" spans="1:8" ht="11" thickBot="1">
       <c r="A4" s="20" t="s">
         <v>5</v>
       </c>
@@ -5955,7 +5912,7 @@
         <v>1751.6710645266089</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12" thickBot="1">
+    <row r="8" spans="1:8" ht="10.5" thickBot="1">
       <c r="A8" s="23" t="s">
         <v>12</v>
       </c>
@@ -5988,7 +5945,7 @@
         <v>7485.1732085651756</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12" thickBot="1">
+    <row r="9" spans="1:8" ht="10.5" thickBot="1">
       <c r="A9" s="106" t="s">
         <v>120</v>
       </c>
@@ -6031,44 +5988,44 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="22.5">
+    <row r="14" spans="1:8" ht="20">
       <c r="A14" s="61" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="335">
-        <f>PI()*(B78^4-B79^4)/32/(GECdrivetrain!C7)*GECtwrdata!F7</f>
+        <f>PI()*(B67^4-B68^4)/32/(GECdrivetrain!C7)*GECtwrdata!F7</f>
         <v>129646444.93189973</v>
       </c>
-      <c r="D14" s="353" t="s">
+      <c r="D14" s="352" t="s">
         <v>416</v>
       </c>
-      <c r="E14" s="354"/>
+      <c r="E14" s="353"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="61" t="s">
         <v>418</v>
       </c>
-      <c r="B15" s="380">
+      <c r="B15" s="378">
         <v>5</v>
       </c>
-      <c r="D15" s="353" t="s">
+      <c r="D15" s="352" t="s">
         <v>402</v>
       </c>
-      <c r="E15" s="354"/>
+      <c r="E15" s="353"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="61" t="s">
         <v>417</v>
       </c>
-      <c r="B16" s="380">
+      <c r="B16" s="378">
         <v>665139</v>
       </c>
-      <c r="D16" s="353" t="s">
+      <c r="D16" s="352" t="s">
         <v>402</v>
       </c>
-      <c r="E16" s="354"/>
-    </row>
-    <row r="17" spans="1:21" ht="23.45" customHeight="1">
+      <c r="E16" s="353"/>
+    </row>
+    <row r="17" spans="1:21" ht="23.5" customHeight="1">
       <c r="A17" s="61" t="s">
         <v>42</v>
       </c>
@@ -6113,11 +6070,11 @@
       <c r="C19" s="329">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D19" s="399" t="s">
+      <c r="D19" s="408" t="s">
         <v>373</v>
       </c>
-      <c r="E19" s="398"/>
-      <c r="F19" s="398"/>
+      <c r="E19" s="407"/>
+      <c r="F19" s="407"/>
     </row>
     <row r="20" spans="1:21" ht="25.5" customHeight="1">
       <c r="A20" s="266" t="s">
@@ -6129,11 +6086,11 @@
       <c r="C20" s="329">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D20" s="399" t="s">
+      <c r="D20" s="408" t="s">
         <v>372</v>
       </c>
-      <c r="E20" s="398"/>
-      <c r="F20" s="398"/>
+      <c r="E20" s="407"/>
+      <c r="F20" s="407"/>
       <c r="I20" s="35" t="s">
         <v>68</v>
       </c>
@@ -6145,7 +6102,7 @@
       <c r="O20" s="170"/>
       <c r="P20" s="171"/>
     </row>
-    <row r="21" spans="1:21" ht="11.45" customHeight="1">
+    <row r="21" spans="1:21" ht="11.5" customHeight="1">
       <c r="A21" s="61" t="s">
         <v>31</v>
       </c>
@@ -6191,12 +6148,12 @@
       <c r="O23" s="8"/>
       <c r="P23" s="173"/>
     </row>
-    <row r="24" spans="1:21" ht="12.6" customHeight="1">
+    <row r="24" spans="1:21" ht="12.65" customHeight="1">
       <c r="A24" s="100" t="s">
         <v>74</v>
       </c>
       <c r="B24" s="268">
-        <f>B100</f>
+        <f>B89</f>
         <v>28.647889756541161</v>
       </c>
       <c r="G24" s="89"/>
@@ -6212,7 +6169,7 @@
       <c r="O24" s="8"/>
       <c r="P24" s="173"/>
     </row>
-    <row r="25" spans="1:21" ht="12" thickBot="1">
+    <row r="25" spans="1:21" ht="10.5" thickBot="1">
       <c r="A25" s="100" t="s">
         <v>75</v>
       </c>
@@ -6237,13 +6194,13 @@
         <v>76</v>
       </c>
       <c r="B26" s="269">
-        <f>B103</f>
+        <f>B92</f>
         <v>750</v>
       </c>
       <c r="G26" s="89"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="28" spans="1:21" ht="12.6" customHeight="1">
+    <row r="28" spans="1:21" ht="12.65" customHeight="1">
       <c r="A28" s="109" t="s">
         <v>78</v>
       </c>
@@ -6254,7 +6211,7 @@
         <v>79</v>
       </c>
       <c r="B29" s="91">
-        <f>B100</f>
+        <f>B89</f>
         <v>28.647889756541161</v>
       </c>
     </row>
@@ -6263,33 +6220,33 @@
         <v>375</v>
       </c>
       <c r="B30" s="267">
-        <f>B103*1000/(B29*PI()/30)/(B19-C19-B20-C20)</f>
+        <f>B92*1000/(B29*PI()/30)/(B19-C19-B20-C20)</f>
         <v>270270.2702702703</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="9.75" customHeight="1">
-      <c r="A31" s="356" t="s">
+      <c r="A31" s="355" t="s">
         <v>403</v>
       </c>
       <c r="B31" s="267">
-        <f>B103*1000/(B98*PI()/30)/(B19)</f>
+        <f>B92*1000/(B87*PI()/30)/(B19)</f>
         <v>4188.2879761025097</v>
       </c>
-      <c r="D31" s="353" t="s">
-        <v>422</v>
-      </c>
-      <c r="E31" s="354"/>
+      <c r="D31" s="352" t="s">
+        <v>419</v>
+      </c>
+      <c r="E31" s="353"/>
     </row>
     <row r="32" spans="1:21">
       <c r="B32" s="53"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:5" ht="10.5">
       <c r="A33" s="109" t="s">
         <v>80</v>
       </c>
       <c r="B33" s="29"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:5">
       <c r="A34" s="100" t="s">
         <v>81</v>
       </c>
@@ -6297,7 +6254,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:5">
       <c r="A35" s="100" t="s">
         <v>82</v>
       </c>
@@ -6305,7 +6262,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="12" customHeight="1">
+    <row r="36" spans="1:5" ht="12" customHeight="1">
       <c r="A36" s="100" t="s">
         <v>83</v>
       </c>
@@ -6313,435 +6270,409 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="12" customHeight="1">
-      <c r="A37" s="381" t="s">
+    <row r="37" spans="1:5" ht="12" customHeight="1">
+      <c r="A37" s="379" t="s">
+        <v>421</v>
+      </c>
+      <c r="B37" s="273">
+        <v>2.6</v>
+      </c>
+      <c r="D37" s="352" t="s">
+        <v>426</v>
+      </c>
+      <c r="E37" s="353"/>
+    </row>
+    <row r="38" spans="1:5" ht="12" customHeight="1">
+      <c r="A38" s="379" t="s">
+        <v>422</v>
+      </c>
+      <c r="B38" s="273">
+        <v>30</v>
+      </c>
+      <c r="D38" s="352" t="s">
+        <v>426</v>
+      </c>
+      <c r="E38" s="353"/>
+    </row>
+    <row r="39" spans="1:5" ht="12" customHeight="1">
+      <c r="A39" s="379" t="s">
         <v>420</v>
       </c>
-      <c r="B37" s="273">
-        <f>5.14</f>
-        <v>5.14</v>
-      </c>
-      <c r="D37" s="353" t="s">
-        <v>440</v>
-      </c>
-      <c r="E37" s="354"/>
-      <c r="F37" s="354"/>
-    </row>
-    <row r="38" spans="1:7" ht="12" customHeight="1">
-      <c r="A38" s="381" t="s">
-        <v>419</v>
-      </c>
-      <c r="B38" s="382">
-        <f>2.22</f>
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="D38" s="353" t="s">
-        <v>440</v>
-      </c>
-      <c r="E38" s="354"/>
-      <c r="F38" s="354"/>
-    </row>
-    <row r="39" spans="1:7" ht="12" customHeight="1">
-      <c r="A39" s="381" t="s">
-        <v>421</v>
-      </c>
       <c r="B39" s="273">
-        <f>0.0286</f>
-        <v>2.86E-2</v>
-      </c>
-      <c r="D39" s="353" t="s">
-        <v>440</v>
-      </c>
-      <c r="E39" s="354"/>
-      <c r="F39" s="354"/>
-    </row>
-    <row r="40" spans="1:7" ht="12" customHeight="1">
-      <c r="A40" s="381" t="s">
+        <v>-0.5</v>
+      </c>
+      <c r="D39" s="352" t="s">
+        <v>426</v>
+      </c>
+      <c r="E39" s="353"/>
+    </row>
+    <row r="40" spans="1:5" ht="12" customHeight="1">
+      <c r="A40" s="379" t="s">
         <v>423</v>
       </c>
       <c r="B40" s="273">
-        <f>2.5/4</f>
-        <v>0.625</v>
-      </c>
-      <c r="D40" s="353" t="s">
-        <v>441</v>
-      </c>
-      <c r="E40" s="354"/>
-      <c r="F40" s="354"/>
-      <c r="G40" s="354"/>
-    </row>
-    <row r="41" spans="1:7" ht="12" customHeight="1">
-      <c r="A41" s="381" t="s">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D40" s="352" t="s">
+        <v>426</v>
+      </c>
+      <c r="E40" s="353"/>
+    </row>
+    <row r="41" spans="1:5" ht="12" customHeight="1">
+      <c r="A41" s="354"/>
+      <c r="B41" s="357"/>
+    </row>
+    <row r="42" spans="1:5" ht="12" customHeight="1">
+      <c r="A42" s="109" t="s">
+        <v>405</v>
+      </c>
+      <c r="B42" s="29"/>
+      <c r="D42" s="359"/>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="1:5" ht="12" customHeight="1">
+      <c r="A43" s="379" t="s">
         <v>425</v>
       </c>
-      <c r="B41" s="273">
-        <v>2.6</v>
-      </c>
-      <c r="D41" s="353" t="s">
-        <v>442</v>
-      </c>
-      <c r="E41" s="354"/>
-    </row>
-    <row r="42" spans="1:7" ht="12" customHeight="1">
-      <c r="A42" s="381" t="s">
-        <v>426</v>
-      </c>
-      <c r="B42" s="273">
-        <v>30</v>
-      </c>
-      <c r="D42" s="353" t="s">
-        <v>442</v>
-      </c>
-      <c r="E42" s="354"/>
-    </row>
-    <row r="43" spans="1:7" ht="12" customHeight="1">
-      <c r="A43" s="381" t="s">
+      <c r="B43" s="273">
+        <f>B31/B87^2</f>
+        <v>1.2926814741057128E-3</v>
+      </c>
+      <c r="D43" s="352" t="s">
         <v>424</v>
       </c>
-      <c r="B43" s="273">
-        <v>-0.5</v>
-      </c>
-      <c r="D43" s="353" t="s">
-        <v>442</v>
-      </c>
-      <c r="E43" s="354"/>
-    </row>
-    <row r="44" spans="1:7" ht="12" customHeight="1">
-      <c r="A44" s="381" t="s">
-        <v>427</v>
-      </c>
-      <c r="B44" s="273">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D44" s="353" t="s">
-        <v>442</v>
-      </c>
-      <c r="E44" s="354"/>
-    </row>
-    <row r="45" spans="1:7" ht="12" customHeight="1">
-      <c r="A45" s="355"/>
-      <c r="B45" s="358"/>
-    </row>
-    <row r="46" spans="1:7" ht="12" customHeight="1">
-      <c r="A46" s="109" t="s">
-        <v>405</v>
-      </c>
-      <c r="B46" s="29"/>
-      <c r="D46" s="360"/>
-      <c r="E46" s="5"/>
-    </row>
-    <row r="47" spans="1:7" ht="12" customHeight="1">
-      <c r="A47" s="381" t="s">
-        <v>427</v>
-      </c>
-      <c r="B47" s="273">
-        <v>1.25E-3</v>
-      </c>
-      <c r="D47" s="353" t="s">
-        <v>428</v>
-      </c>
-      <c r="E47" s="354"/>
-      <c r="F47" s="354"/>
-    </row>
-    <row r="48" spans="1:7" ht="12" customHeight="1">
-      <c r="A48" s="381" t="s">
-        <v>432</v>
-      </c>
-      <c r="B48" s="273">
-        <v>0</v>
-      </c>
-      <c r="D48" s="353" t="s">
-        <v>443</v>
-      </c>
-      <c r="E48" s="354"/>
-      <c r="F48" s="354"/>
-    </row>
-    <row r="49" spans="1:6" ht="12" customHeight="1">
-      <c r="A49" s="381" t="s">
-        <v>431</v>
-      </c>
-      <c r="B49" s="273">
-        <v>15000</v>
-      </c>
-      <c r="D49" s="353" t="s">
-        <v>428</v>
-      </c>
-      <c r="E49" s="354"/>
-      <c r="F49" s="354"/>
-    </row>
-    <row r="50" spans="1:6" ht="12" customHeight="1">
-      <c r="A50" s="381" t="s">
-        <v>433</v>
-      </c>
-      <c r="B50" s="273">
-        <f>B31/B98^2</f>
-        <v>1.2926814741057128E-3</v>
-      </c>
-      <c r="D50" s="353" t="s">
-        <v>429</v>
-      </c>
-      <c r="E50" s="354"/>
-    </row>
-    <row r="51" spans="1:6" ht="12" customHeight="1">
-      <c r="A51" s="381" t="s">
-        <v>434</v>
-      </c>
-      <c r="B51" s="273">
-        <f>B31*1.1</f>
-        <v>4607.1167737127607</v>
-      </c>
-      <c r="D51" s="353" t="s">
-        <v>430</v>
-      </c>
-      <c r="E51" s="354"/>
-      <c r="F51" s="354"/>
-    </row>
-    <row r="52" spans="1:6" ht="12" customHeight="1">
-      <c r="A52" s="381" t="s">
-        <v>444</v>
-      </c>
-      <c r="B52" s="273">
-        <v>0</v>
-      </c>
-      <c r="D52" s="353" t="s">
-        <v>435</v>
-      </c>
-      <c r="E52" s="354"/>
-    </row>
-    <row r="53" spans="1:6" ht="12" customHeight="1">
-      <c r="A53" s="381" t="s">
-        <v>436</v>
-      </c>
-      <c r="B53" s="273">
-        <f>B34+1</f>
-        <v>3.6</v>
-      </c>
-      <c r="D53" s="353" t="s">
-        <v>437</v>
-      </c>
-      <c r="E53" s="354"/>
-    </row>
-    <row r="54" spans="1:6" ht="12" customHeight="1">
-      <c r="A54" s="381" t="s">
-        <v>438</v>
-      </c>
-      <c r="B54" s="273">
-        <v>0</v>
-      </c>
-      <c r="D54" s="353" t="s">
-        <v>439</v>
-      </c>
-      <c r="E54" s="354"/>
-    </row>
-    <row r="55" spans="1:6" ht="12.75" customHeight="1"/>
-    <row r="56" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A56" s="109" t="s">
+      <c r="E43" s="353"/>
+    </row>
+    <row r="44" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="45" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A45" s="109" t="s">
         <v>122</v>
       </c>
-      <c r="B56" s="54"/>
-    </row>
-    <row r="57" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A57" s="381" t="s">
+      <c r="B45" s="54"/>
+    </row>
+    <row r="46" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A46" s="379" t="s">
         <v>206</v>
       </c>
-      <c r="B57" s="274">
+      <c r="B46" s="274">
         <v>1.33</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="381" t="s">
+    <row r="47" spans="1:5">
+      <c r="A47" s="379" t="s">
         <v>123</v>
       </c>
-      <c r="B58" s="275">
+      <c r="B47" s="275">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1">
-      <c r="A59" s="381" t="s">
+    <row r="48" spans="1:5" ht="15" customHeight="1">
+      <c r="A48" s="379" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="275">
+      <c r="B48" s="275">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A60" s="381" t="s">
+    <row r="49" spans="1:4" ht="11.25" customHeight="1">
+      <c r="A49" s="379" t="s">
         <v>125</v>
       </c>
-      <c r="B60" s="275">
+      <c r="B49" s="275">
         <v>3.75</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A61" s="381" t="s">
+    <row r="50" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A50" s="379" t="s">
         <v>126</v>
       </c>
-      <c r="B61" s="275">
+      <c r="B50" s="275">
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A62" s="381" t="s">
+    <row r="51" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A51" s="379" t="s">
         <v>384</v>
       </c>
-      <c r="B62" s="330">
+      <c r="B51" s="330">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="18" customHeight="1">
-      <c r="A63" s="109" t="s">
+    <row r="52" spans="1:4" ht="18" customHeight="1">
+      <c r="A52" s="109" t="s">
         <v>382</v>
       </c>
-      <c r="B63" s="63"/>
-    </row>
-    <row r="64" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A64" s="100" t="s">
+      <c r="B52" s="63"/>
+    </row>
+    <row r="53" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A53" s="100" t="s">
         <v>383</v>
       </c>
-      <c r="B64" s="105">
-        <f>ABS(B8)+B13/2*(B11+B18)/57.3-0.5*(B58+B13/2/B9*(B60-B58))</f>
+      <c r="B53" s="105">
+        <f>ABS(B8)+B13/2*(B11+B18)/57.3-0.5*(B47+B13/2/B9*(B49-B47))</f>
         <v>3.1469175392670157</v>
       </c>
     </row>
+    <row r="55" spans="1:4" ht="10.5">
+      <c r="A55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="5"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="110" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" s="276">
+        <v>2.5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>85</v>
+      </c>
+      <c r="D56" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="110" t="s">
+        <v>129</v>
+      </c>
+      <c r="B57" s="276">
+        <v>1.35</v>
+      </c>
+      <c r="C57" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" s="270" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="10.9" customHeight="1">
+      <c r="A58" s="110" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58" s="276">
+        <v>1.2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D58" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="110" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" s="276">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59" s="270" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" s="277">
+        <v>7850</v>
+      </c>
+      <c r="C60" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B61" s="276">
+        <v>-2.33</v>
+      </c>
+      <c r="C61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D61" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B62" s="276">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B63" s="276">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="18"/>
+      <c r="B64" s="124"/>
+    </row>
+    <row r="65" spans="1:4" ht="10.5">
+      <c r="A65" s="111" t="s">
+        <v>137</v>
+      </c>
+      <c r="B65" s="125"/>
+    </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="5"/>
+      <c r="A66" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B66" s="276">
+        <v>1.3979999999999999</v>
+      </c>
+      <c r="C66" t="s">
+        <v>85</v>
+      </c>
+      <c r="D66" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="110" t="s">
-        <v>127</v>
+      <c r="A67" s="18" t="s">
+        <v>139</v>
       </c>
       <c r="B67" s="276">
-        <v>2.5</v>
+        <v>0.4</v>
       </c>
       <c r="C67" t="s">
         <v>85</v>
       </c>
-      <c r="D67" t="s">
-        <v>128</v>
-      </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="110" t="s">
-        <v>129</v>
+      <c r="A68" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="B68" s="276">
-        <v>1.35</v>
+        <v>0.2</v>
       </c>
       <c r="C68" t="s">
         <v>85</v>
       </c>
-      <c r="D68" s="270" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="10.9" customHeight="1">
-      <c r="A69" s="110" t="s">
-        <v>130</v>
-      </c>
-      <c r="B69" s="276">
-        <v>1.2</v>
+      <c r="D68" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" s="277">
+        <v>7850</v>
       </c>
       <c r="C69" t="s">
-        <v>85</v>
-      </c>
-      <c r="D69" t="s">
-        <v>397</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="110" t="s">
-        <v>131</v>
+      <c r="A70" s="18" t="s">
+        <v>135</v>
       </c>
       <c r="B70" s="276">
-        <v>3.3000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="C70" t="s">
         <v>85</v>
       </c>
-      <c r="D70" s="270" t="s">
-        <v>376</v>
+      <c r="D70" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="B71" s="277">
-        <v>7850</v>
+        <v>136</v>
+      </c>
+      <c r="B71" s="276">
+        <v>0</v>
       </c>
       <c r="C71" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="B72" s="276">
-        <v>-2.33</v>
-      </c>
-      <c r="C72" t="s">
-        <v>85</v>
-      </c>
-      <c r="D72" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="B73" s="276">
-        <v>0</v>
-      </c>
-      <c r="C73" t="s">
-        <v>85</v>
-      </c>
+      <c r="A72" s="18"/>
+      <c r="B72" s="124"/>
+    </row>
+    <row r="73" spans="1:4" ht="10.5">
+      <c r="A73" s="111" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" s="125"/>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="18" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B74" s="276">
-        <v>0</v>
+        <v>-1.631</v>
       </c>
       <c r="C74" t="s">
         <v>85</v>
       </c>
+      <c r="D74" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="18"/>
-      <c r="B75" s="124"/>
+      <c r="A75" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75" s="276">
+        <v>0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="111" t="s">
-        <v>137</v>
-      </c>
-      <c r="B76" s="125"/>
+      <c r="A76" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B76" s="276">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="18" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B77" s="276">
-        <v>1.3979999999999999</v>
+        <v>-0.46600000000000003</v>
       </c>
       <c r="C77" t="s">
         <v>85</v>
       </c>
       <c r="D77" t="s">
-        <v>379</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="18" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="B78" s="276">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -6749,179 +6680,166 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="18" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="B79" s="276">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C79" t="s">
         <v>85</v>
       </c>
-      <c r="D79" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="B80" s="277">
-        <v>7850</v>
-      </c>
-      <c r="C80" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="B81" s="276">
-        <v>0</v>
-      </c>
-      <c r="C81" t="s">
-        <v>85</v>
-      </c>
-      <c r="D81" t="s">
-        <v>142</v>
-      </c>
+      <c r="A80" s="18"/>
+      <c r="B80" s="125"/>
+    </row>
+    <row r="81" spans="1:4" ht="10.5">
+      <c r="A81" s="111" t="s">
+        <v>152</v>
+      </c>
+      <c r="B81" s="125"/>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="B82" s="276">
-        <v>0</v>
+        <v>153</v>
+      </c>
+      <c r="B82" s="278">
+        <v>4723</v>
       </c>
       <c r="C82" t="s">
+        <v>117</v>
+      </c>
+      <c r="D82" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B83" s="276">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="18"/>
-      <c r="B83" s="124"/>
+      <c r="D83" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="111" t="s">
-        <v>143</v>
-      </c>
-      <c r="B84" s="125"/>
+      <c r="A84" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B84" s="276">
+        <v>0</v>
+      </c>
+      <c r="C84" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="18" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B85" s="276">
-        <v>-1.631</v>
+        <v>0</v>
       </c>
       <c r="C85" t="s">
         <v>85</v>
       </c>
-      <c r="D85" t="s">
-        <v>145</v>
-      </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="18" t="s">
-        <v>146</v>
+        <v>392</v>
       </c>
       <c r="B86" s="276">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C86" t="s">
-        <v>85</v>
+        <v>393</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="18" t="s">
-        <v>147</v>
+        <v>394</v>
       </c>
       <c r="B87" s="276">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="C87" t="s">
-        <v>85</v>
+        <v>395</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="B88" s="276">
-        <v>-0.46600000000000003</v>
-      </c>
-      <c r="C88" t="s">
-        <v>85</v>
-      </c>
-      <c r="D88" t="s">
-        <v>149</v>
+        <v>156</v>
+      </c>
+      <c r="B88" s="334">
+        <f>B87/B89</f>
+        <v>62.831853071795862</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="B89" s="276">
-        <v>0</v>
-      </c>
-      <c r="C89" t="s">
-        <v>85</v>
+        <v>157</v>
+      </c>
+      <c r="B89" s="334">
+        <f>B86/B13*2*30/PI()</f>
+        <v>28.647889756541161</v>
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="B90" s="276">
-        <v>0</v>
-      </c>
-      <c r="C90" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="18"/>
+      <c r="A90" s="18"/>
+      <c r="B90" s="123"/>
+    </row>
+    <row r="91" spans="1:4" ht="10.5">
+      <c r="A91" s="111" t="s">
+        <v>158</v>
+      </c>
       <c r="B91" s="125"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="111" t="s">
-        <v>152</v>
-      </c>
-      <c r="B92" s="125"/>
+      <c r="A92" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="B92" s="279">
+        <v>750</v>
+      </c>
+      <c r="C92" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="B93" s="278">
-        <v>4723</v>
+        <v>133</v>
+      </c>
+      <c r="B93" s="276">
+        <v>0.58250000000000002</v>
       </c>
       <c r="C93" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="D93" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="B94" s="276">
+        <v>135</v>
+      </c>
+      <c r="B94" s="280">
         <v>0</v>
       </c>
       <c r="C94" t="s">
         <v>85</v>
       </c>
-      <c r="D94" t="s">
-        <v>155</v>
-      </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="B95" s="276">
+        <v>136</v>
+      </c>
+      <c r="B95" s="280">
         <v>0</v>
       </c>
       <c r="C95" t="s">
@@ -6929,89 +6847,96 @@
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="B96" s="276">
-        <v>0</v>
-      </c>
-      <c r="C96" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="18" t="s">
-        <v>392</v>
-      </c>
-      <c r="B97" s="276">
-        <v>75</v>
-      </c>
-      <c r="C97" t="s">
-        <v>393</v>
-      </c>
+      <c r="A96" s="18"/>
+      <c r="B96" s="126"/>
+    </row>
+    <row r="97" spans="1:4" ht="10.5">
+      <c r="A97" s="111" t="s">
+        <v>162</v>
+      </c>
+      <c r="B97" s="126"/>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="18" t="s">
-        <v>394</v>
-      </c>
-      <c r="B98" s="276">
-        <v>1800</v>
+        <v>138</v>
+      </c>
+      <c r="B98" s="280">
+        <v>1.631</v>
       </c>
       <c r="C98" t="s">
-        <v>395</v>
+        <v>85</v>
+      </c>
+      <c r="D98" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="B99" s="334">
-        <f>B98/B100</f>
-        <v>62.831853071795862</v>
+        <v>164</v>
+      </c>
+      <c r="B99" s="276">
+        <v>1.7475000000000001</v>
+      </c>
+      <c r="C99" t="s">
+        <v>85</v>
+      </c>
+      <c r="D99" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="B100" s="334">
-        <f>B97/B13*2*30/PI()</f>
-        <v>28.647889756541161</v>
+        <v>166</v>
+      </c>
+      <c r="B100" s="276">
+        <v>0.74560000000000004</v>
+      </c>
+      <c r="C100" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="18"/>
-      <c r="B101" s="123"/>
+      <c r="A101" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B101" s="276">
+        <v>0.13</v>
+      </c>
+      <c r="C101" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="111" t="s">
-        <v>158</v>
-      </c>
-      <c r="B102" s="125"/>
+      <c r="A102" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="B102" s="276">
+        <v>0.13</v>
+      </c>
+      <c r="C102" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="B103" s="279">
-        <v>750</v>
+        <v>132</v>
+      </c>
+      <c r="B103" s="277">
+        <v>7850</v>
       </c>
       <c r="C103" t="s">
-        <v>160</v>
+        <v>85</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="B104" s="276">
-        <v>0.58250000000000002</v>
+      <c r="B104" s="280">
+        <v>0</v>
       </c>
       <c r="C104" t="s">
         <v>85</v>
-      </c>
-      <c r="D104" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -7030,1012 +6955,897 @@
         <v>136</v>
       </c>
       <c r="B106" s="280">
-        <v>0</v>
+        <v>-0.56850000000000001</v>
       </c>
       <c r="C106" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="18"/>
-      <c r="B107" s="126"/>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="D106" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="10.5">
       <c r="A108" s="111" t="s">
-        <v>162</v>
-      </c>
-      <c r="B108" s="126"/>
+        <v>387</v>
+      </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="B109" s="280">
-        <v>1.631</v>
+      <c r="A109" s="331" t="s">
+        <v>388</v>
+      </c>
+      <c r="B109" s="332">
+        <f>'Blade Data'!R32*B10+E8</f>
+        <v>12381.263055221558</v>
       </c>
       <c r="C109" t="s">
-        <v>85</v>
-      </c>
-      <c r="D109" t="s">
-        <v>163</v>
+        <v>117</v>
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="B110" s="276">
-        <v>1.7475000000000001</v>
+      <c r="A110" s="331" t="s">
+        <v>389</v>
+      </c>
+      <c r="B110" s="332">
+        <f>E5+E6+E7</f>
+        <v>20950.244259671897</v>
       </c>
       <c r="C110" t="s">
-        <v>85</v>
-      </c>
-      <c r="D110" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="B111" s="276">
-        <v>0.74560000000000004</v>
+      <c r="A111" s="331" t="s">
+        <v>390</v>
+      </c>
+      <c r="B111" s="332">
+        <f>B109+B110</f>
+        <v>33331.507314893453</v>
       </c>
       <c r="C111" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="B112" s="276">
-        <v>0.13</v>
-      </c>
-      <c r="C112" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
-      <c r="A113" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="B113" s="276">
-        <v>0.13</v>
-      </c>
-      <c r="C113" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
-      <c r="A114" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="B114" s="277">
-        <v>7850</v>
-      </c>
-      <c r="C114" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
-      <c r="A115" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="B115" s="280">
-        <v>0</v>
-      </c>
-      <c r="C115" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
-      <c r="A116" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="B116" s="280">
-        <v>0</v>
-      </c>
-      <c r="C116" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
-      <c r="A117" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="B117" s="280">
-        <v>-0.56850000000000001</v>
-      </c>
-      <c r="C117" t="s">
-        <v>85</v>
-      </c>
-      <c r="D117" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
-      <c r="A119" s="111" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
-      <c r="A120" s="331" t="s">
-        <v>388</v>
-      </c>
-      <c r="B120" s="332">
-        <f>'Blade Data'!R32*B10+E8</f>
-        <v>12381.263055221558</v>
-      </c>
-      <c r="C120" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
-      <c r="A121" s="331" t="s">
-        <v>389</v>
-      </c>
-      <c r="B121" s="332">
-        <f>E5+E6+E7</f>
-        <v>20950.244259671897</v>
-      </c>
-      <c r="C121" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
-      <c r="A122" s="331" t="s">
-        <v>390</v>
-      </c>
-      <c r="B122" s="332">
-        <f>B120+B121</f>
-        <v>33331.507314893453</v>
-      </c>
-      <c r="C122" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
-      <c r="A123" s="18" t="s">
         <v>396</v>
       </c>
-      <c r="B123" s="332">
+      <c r="B112" s="332">
         <f>GECtwrdata!O26</f>
         <v>53775.756106386892</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C112" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
-      <c r="A124" t="s">
+    <row r="113" spans="1:13">
+      <c r="A113" t="s">
         <v>347</v>
       </c>
-      <c r="H124" t="s">
+      <c r="H113" t="s">
         <v>319</v>
       </c>
-      <c r="I124" s="183"/>
-      <c r="J124" s="183"/>
-    </row>
-    <row r="125" spans="1:11" ht="14.25">
-      <c r="A125" s="184"/>
-      <c r="B125" s="185"/>
-      <c r="C125" s="186" t="s">
+      <c r="I113" s="183"/>
+      <c r="J113" s="183"/>
+    </row>
+    <row r="114" spans="1:13" ht="15">
+      <c r="A114" s="184"/>
+      <c r="B114" s="185"/>
+      <c r="C114" s="186" t="s">
         <v>320</v>
       </c>
-      <c r="D125" s="187"/>
-      <c r="E125" s="185"/>
-      <c r="F125" s="188" t="s">
+      <c r="D114" s="187"/>
+      <c r="E114" s="185"/>
+      <c r="F114" s="188" t="s">
         <v>321</v>
       </c>
-      <c r="G125" s="189"/>
-      <c r="H125" s="184"/>
-      <c r="I125" s="190" t="s">
+      <c r="G114" s="189"/>
+      <c r="H114" s="184"/>
+      <c r="I114" s="190" t="s">
         <v>332</v>
       </c>
-      <c r="J125" s="190" t="s">
+      <c r="J114" s="190" t="s">
         <v>333</v>
       </c>
-      <c r="K125" s="191" t="s">
+      <c r="K114" s="191" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="13.5">
-      <c r="A126" s="192" t="s">
+    <row r="115" spans="1:13" ht="13.5">
+      <c r="A115" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B126" s="176" t="s">
+      <c r="B115" s="176" t="s">
         <v>335</v>
       </c>
-      <c r="C126" s="176" t="s">
+      <c r="C115" s="176" t="s">
         <v>336</v>
       </c>
-      <c r="D126" s="177" t="s">
+      <c r="D115" s="177" t="s">
         <v>337</v>
       </c>
-      <c r="E126" s="177" t="s">
+      <c r="E115" s="177" t="s">
         <v>338</v>
       </c>
-      <c r="F126" s="176" t="s">
+      <c r="F115" s="176" t="s">
         <v>339</v>
       </c>
-      <c r="G126" s="193" t="s">
+      <c r="G115" s="193" t="s">
         <v>340</v>
       </c>
-      <c r="H126" s="192" t="s">
+      <c r="H115" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="I126" s="176" t="s">
+      <c r="I115" s="176" t="s">
         <v>341</v>
       </c>
-      <c r="J126" s="176" t="s">
+      <c r="J115" s="176" t="s">
         <v>341</v>
       </c>
-      <c r="K126" s="194" t="s">
+      <c r="K115" s="194" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="12">
-      <c r="A127" s="281">
+    <row r="116" spans="1:13" ht="11.5">
+      <c r="A116" s="281">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="B127" s="282">
+      <c r="B116" s="282">
         <v>680.46852313432544</v>
       </c>
-      <c r="C127" s="283">
+      <c r="C116" s="283">
         <v>1557617.3955374449</v>
       </c>
-      <c r="D127" s="284">
+      <c r="D116" s="284">
         <v>3620</v>
       </c>
-      <c r="E127" s="285">
+      <c r="E116" s="285">
         <v>3620</v>
       </c>
-      <c r="F127" s="283">
+      <c r="F116" s="283">
         <v>1557617.3955374449</v>
       </c>
-      <c r="G127" s="286">
+      <c r="G116" s="286">
         <v>3620</v>
       </c>
-      <c r="H127" s="287">
+      <c r="H116" s="287">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I127" s="288">
+      <c r="I116" s="288">
         <v>2.3240623855198695E-3</v>
       </c>
-      <c r="J127" s="288">
+      <c r="J116" s="288">
         <v>2.3240623855198695E-3</v>
       </c>
-      <c r="K127" s="289">
+      <c r="K116" s="289">
         <v>2.3240623855198695E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="12">
+    <row r="117" spans="1:13" ht="11.5">
+      <c r="A117" s="290">
+        <v>0.25</v>
+      </c>
+      <c r="B117" s="282">
+        <v>260.90607125811937</v>
+      </c>
+      <c r="C117" s="283">
+        <v>987620</v>
+      </c>
+      <c r="D117" s="284">
+        <v>3620</v>
+      </c>
+      <c r="E117" s="285">
+        <v>3872.3365369527278</v>
+      </c>
+      <c r="F117" s="283">
+        <v>189109.6258164102</v>
+      </c>
+      <c r="G117" s="286">
+        <v>1263.1593869403541</v>
+      </c>
+      <c r="H117" s="291">
+        <v>0.25</v>
+      </c>
+      <c r="I117" s="283">
+        <v>3.6653773718636723E-3</v>
+      </c>
+      <c r="J117" s="283">
+        <v>3.9208769941401836E-3</v>
+      </c>
+      <c r="K117" s="292">
+        <v>6.6795086790909508E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="11.5">
+      <c r="A118" s="290">
+        <v>0.5</v>
+      </c>
+      <c r="B118" s="282">
+        <v>178.44378866600621</v>
+      </c>
+      <c r="C118" s="283">
+        <v>452000</v>
+      </c>
+      <c r="D118" s="284">
+        <v>3620</v>
+      </c>
+      <c r="E118" s="285">
+        <v>3845.7470139995348</v>
+      </c>
+      <c r="F118" s="283">
+        <v>100924.76937294503</v>
+      </c>
+      <c r="G118" s="286">
+        <v>1263.1593869403541</v>
+      </c>
+      <c r="H118" s="291">
+        <v>0.5</v>
+      </c>
+      <c r="I118" s="283">
+        <v>8.0088495575221241E-3</v>
+      </c>
+      <c r="J118" s="283">
+        <v>8.5082898539812716E-3</v>
+      </c>
+      <c r="K118" s="292">
+        <v>1.2515851111560431E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="11.5">
+      <c r="A119" s="293">
+        <v>0.75</v>
+      </c>
+      <c r="B119" s="294">
+        <v>109.19318519557659</v>
+      </c>
+      <c r="C119" s="295">
+        <v>117633</v>
+      </c>
+      <c r="D119" s="296">
+        <v>3620</v>
+      </c>
+      <c r="E119" s="297">
+        <v>3808.8010680071311</v>
+      </c>
+      <c r="F119" s="295">
+        <v>39845.648743448277</v>
+      </c>
+      <c r="G119" s="298">
+        <v>1263.1593869403541</v>
+      </c>
+      <c r="H119" s="299">
+        <v>0.75</v>
+      </c>
+      <c r="I119" s="295">
+        <v>3.0773677454455809E-2</v>
+      </c>
+      <c r="J119" s="295">
+        <v>3.2378678330121063E-2</v>
+      </c>
+      <c r="K119" s="300">
+        <v>3.1701313111335713E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
+      <c r="A121" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="13.5">
+      <c r="A122" s="184"/>
+      <c r="B122" s="188" t="s">
+        <v>88</v>
+      </c>
+      <c r="C122" s="188" t="s">
+        <v>322</v>
+      </c>
+      <c r="D122" s="188" t="s">
+        <v>89</v>
+      </c>
+      <c r="E122" s="384" t="s">
+        <v>438</v>
+      </c>
+      <c r="F122" s="188" t="s">
+        <v>324</v>
+      </c>
+      <c r="G122" s="188" t="s">
+        <v>325</v>
+      </c>
+      <c r="H122" s="384" t="s">
+        <v>439</v>
+      </c>
+      <c r="I122" s="188" t="s">
+        <v>342</v>
+      </c>
+      <c r="J122" s="188" t="s">
+        <v>343</v>
+      </c>
+      <c r="K122" s="188" t="s">
+        <v>113</v>
+      </c>
+      <c r="L122" s="188" t="s">
+        <v>112</v>
+      </c>
+      <c r="M122" s="196" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="13.5">
+      <c r="A123" s="192" t="s">
+        <v>87</v>
+      </c>
+      <c r="B123" s="176" t="s">
+        <v>90</v>
+      </c>
+      <c r="C123" s="176" t="s">
+        <v>327</v>
+      </c>
+      <c r="D123" s="176" t="s">
+        <v>328</v>
+      </c>
+      <c r="E123" s="176" t="s">
+        <v>329</v>
+      </c>
+      <c r="F123" s="176" t="s">
+        <v>329</v>
+      </c>
+      <c r="G123" s="176" t="s">
+        <v>329</v>
+      </c>
+      <c r="H123" s="176" t="s">
+        <v>330</v>
+      </c>
+      <c r="I123" s="176" t="s">
+        <v>345</v>
+      </c>
+      <c r="J123" s="176" t="s">
+        <v>345</v>
+      </c>
+      <c r="K123" s="176" t="s">
+        <v>331</v>
+      </c>
+      <c r="L123" s="176" t="s">
+        <v>345</v>
+      </c>
+      <c r="M123" s="194" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="A124" s="301">
+        <v>0.05</v>
+      </c>
+      <c r="B124" s="302">
+        <v>1.349657099314199</v>
+      </c>
+      <c r="C124" s="303">
+        <v>1</v>
+      </c>
+      <c r="D124" s="303" t="s">
+        <v>377</v>
+      </c>
+      <c r="E124" s="349">
+        <v>0.25</v>
+      </c>
+      <c r="F124" s="302">
+        <v>0.5</v>
+      </c>
+      <c r="G124" s="302">
+        <v>0.5</v>
+      </c>
+      <c r="H124" s="305">
+        <v>1181.9474017501359</v>
+      </c>
+      <c r="I124" s="306">
+        <v>2362406058.2721553</v>
+      </c>
+      <c r="J124" s="306">
+        <v>2362406058.2721553</v>
+      </c>
+      <c r="K124" s="306">
+        <v>10326627046.93685</v>
+      </c>
+      <c r="L124" s="306">
+        <v>815590611.695804</v>
+      </c>
+      <c r="M124" s="307">
+        <v>538.24909552528584</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="A125" s="281">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B125" s="308">
+        <v>1.3496570993141985</v>
+      </c>
+      <c r="C125" s="309">
+        <v>1</v>
+      </c>
+      <c r="D125" s="309" t="s">
+        <v>377</v>
+      </c>
+      <c r="E125" s="349">
+        <v>0.25</v>
+      </c>
+      <c r="F125" s="308">
+        <v>0.5</v>
+      </c>
+      <c r="G125" s="308">
+        <v>0.5</v>
+      </c>
+      <c r="H125" s="310">
+        <v>89.215305458599687</v>
+      </c>
+      <c r="I125" s="311">
+        <v>292871613.66241747</v>
+      </c>
+      <c r="J125" s="311">
+        <v>292871613.66241747</v>
+      </c>
+      <c r="K125" s="311">
+        <v>1295783621.589889</v>
+      </c>
+      <c r="L125" s="311">
+        <v>102340392.98761402</v>
+      </c>
+      <c r="M125" s="312">
+        <v>40.627914067071856</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="A126" s="290">
+        <v>0.25</v>
+      </c>
+      <c r="B126" s="308">
+        <v>2</v>
+      </c>
+      <c r="C126" s="309">
+        <v>0.27</v>
+      </c>
+      <c r="D126" s="309">
+        <v>5.7408195699863462</v>
+      </c>
+      <c r="E126" s="304">
+        <v>0.34</v>
+      </c>
+      <c r="F126" s="308">
+        <v>0.38431406494974252</v>
+      </c>
+      <c r="G126" s="308">
+        <v>0.32303333404645607</v>
+      </c>
+      <c r="H126" s="310">
+        <v>117.20845675339662</v>
+      </c>
+      <c r="I126" s="311">
+        <v>71200412.886402056</v>
+      </c>
+      <c r="J126" s="311">
+        <v>192688198.09657151</v>
+      </c>
+      <c r="K126" s="313">
+        <v>1535809947.6467729</v>
+      </c>
+      <c r="L126" s="313">
+        <v>6059831.2604694702</v>
+      </c>
+      <c r="M126" s="314">
+        <v>24.149591455091301</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
+      <c r="A127" s="290">
+        <v>0.5</v>
+      </c>
+      <c r="B127" s="308">
+        <v>1.5334010668021336</v>
+      </c>
+      <c r="C127" s="309">
+        <v>0.24</v>
+      </c>
+      <c r="D127" s="309">
+        <v>7.8774986568807996</v>
+      </c>
+      <c r="E127" s="304">
+        <v>0.31</v>
+      </c>
+      <c r="F127" s="308">
+        <v>0.37966131849299201</v>
+      </c>
+      <c r="G127" s="308">
+        <v>0.32331172392666518</v>
+      </c>
+      <c r="H127" s="310">
+        <v>82.955569360022096</v>
+      </c>
+      <c r="I127" s="311">
+        <v>22286831.062062379</v>
+      </c>
+      <c r="J127" s="311">
+        <v>79116868.754064709</v>
+      </c>
+      <c r="K127" s="313">
+        <v>1094705409.6217237</v>
+      </c>
+      <c r="L127" s="313">
+        <v>2885752.229026631</v>
+      </c>
+      <c r="M127" s="314">
+        <v>9.0573611452431102</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
       <c r="A128" s="290">
+        <v>0.75</v>
+      </c>
+      <c r="B128" s="308">
+        <v>1.0670561341122682</v>
+      </c>
+      <c r="C128" s="309">
+        <v>0.21</v>
+      </c>
+      <c r="D128" s="309">
+        <v>7.6422364536705301</v>
+      </c>
+      <c r="E128" s="304">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F128" s="308">
+        <v>0.39262047257690491</v>
+      </c>
+      <c r="G128" s="308">
+        <v>0.32643878406891619</v>
+      </c>
+      <c r="H128" s="310">
+        <v>39.129612072462692</v>
+      </c>
+      <c r="I128" s="311">
+        <v>3549221.9475047868</v>
+      </c>
+      <c r="J128" s="311">
+        <v>21323059.849604025</v>
+      </c>
+      <c r="K128" s="313">
+        <v>499093273.18287331</v>
+      </c>
+      <c r="L128" s="313">
+        <v>574933.04560629011</v>
+      </c>
+      <c r="M128" s="314">
+        <v>2.2054187533799334</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
+      <c r="A129" s="315">
+        <v>1</v>
+      </c>
+      <c r="B129" s="316">
+        <v>0.64719329438658879</v>
+      </c>
+      <c r="C129" s="317">
+        <v>0.16</v>
+      </c>
+      <c r="D129" s="317">
+        <v>0</v>
+      </c>
+      <c r="E129" s="316">
         <v>0.25</v>
       </c>
-      <c r="B128" s="282">
-        <v>260.90607125811937</v>
-      </c>
-      <c r="C128" s="283">
-        <v>987620</v>
-      </c>
-      <c r="D128" s="284">
-        <v>3620</v>
-      </c>
-      <c r="E128" s="285">
-        <v>3872.3365369527278</v>
-      </c>
-      <c r="F128" s="283">
-        <v>189109.6258164102</v>
-      </c>
-      <c r="G128" s="286">
-        <v>1263.1593869403541</v>
-      </c>
-      <c r="H128" s="291">
-        <v>0.25</v>
-      </c>
-      <c r="I128" s="283">
-        <v>3.6653773718636723E-3</v>
-      </c>
-      <c r="J128" s="283">
-        <v>3.9208769941401836E-3</v>
-      </c>
-      <c r="K128" s="292">
-        <v>6.6795086790909508E-3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" ht="12">
-      <c r="A129" s="290">
-        <v>0.5</v>
-      </c>
-      <c r="B129" s="282">
-        <v>178.44378866600621</v>
-      </c>
-      <c r="C129" s="283">
-        <v>452000</v>
-      </c>
-      <c r="D129" s="284">
-        <v>3620</v>
-      </c>
-      <c r="E129" s="285">
-        <v>3845.7470139995348</v>
-      </c>
-      <c r="F129" s="283">
-        <v>100924.76937294503</v>
-      </c>
-      <c r="G129" s="286">
-        <v>1263.1593869403541</v>
-      </c>
-      <c r="H129" s="291">
-        <v>0.5</v>
-      </c>
-      <c r="I129" s="283">
-        <v>8.0088495575221241E-3</v>
-      </c>
-      <c r="J129" s="283">
-        <v>8.5082898539812716E-3</v>
-      </c>
-      <c r="K129" s="292">
-        <v>1.2515851111560431E-2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" ht="12">
-      <c r="A130" s="293">
-        <v>0.75</v>
-      </c>
-      <c r="B130" s="294">
-        <v>109.19318519557659</v>
-      </c>
-      <c r="C130" s="295">
-        <v>117633</v>
-      </c>
-      <c r="D130" s="296">
-        <v>3620</v>
-      </c>
-      <c r="E130" s="297">
-        <v>3808.8010680071311</v>
-      </c>
-      <c r="F130" s="295">
-        <v>39845.648743448277</v>
-      </c>
-      <c r="G130" s="298">
-        <v>1263.1593869403541</v>
-      </c>
-      <c r="H130" s="299">
-        <v>0.75</v>
-      </c>
-      <c r="I130" s="295">
-        <v>3.0773677454455809E-2</v>
-      </c>
-      <c r="J130" s="295">
-        <v>3.2378678330121063E-2</v>
-      </c>
-      <c r="K130" s="300">
-        <v>3.1701313111335713E-2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13">
-      <c r="A132" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" ht="13.5">
-      <c r="A133" s="184"/>
-      <c r="B133" s="188" t="s">
-        <v>88</v>
-      </c>
-      <c r="C133" s="188" t="s">
-        <v>322</v>
-      </c>
-      <c r="D133" s="188" t="s">
-        <v>89</v>
-      </c>
-      <c r="E133" s="405" t="s">
-        <v>456</v>
-      </c>
-      <c r="F133" s="188" t="s">
-        <v>324</v>
-      </c>
-      <c r="G133" s="188" t="s">
-        <v>325</v>
-      </c>
-      <c r="H133" s="405" t="s">
-        <v>457</v>
-      </c>
-      <c r="I133" s="188" t="s">
-        <v>342</v>
-      </c>
-      <c r="J133" s="188" t="s">
-        <v>343</v>
-      </c>
-      <c r="K133" s="188" t="s">
-        <v>113</v>
-      </c>
-      <c r="L133" s="188" t="s">
-        <v>112</v>
-      </c>
-      <c r="M133" s="196" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" ht="13.5">
-      <c r="A134" s="192" t="s">
+      <c r="F129" s="316">
+        <v>0.49249999999999999</v>
+      </c>
+      <c r="G129" s="316">
+        <v>0.35780000000000001</v>
+      </c>
+      <c r="H129" s="318">
+        <v>7.751396294306554</v>
+      </c>
+      <c r="I129" s="319">
+        <v>79811.599091411103</v>
+      </c>
+      <c r="J129" s="319">
+        <v>2702250.8204062055</v>
+      </c>
+      <c r="K129" s="320">
+        <v>80734393.082686871</v>
+      </c>
+      <c r="L129" s="320">
+        <v>61146.36439630347</v>
+      </c>
+      <c r="M129" s="321">
+        <v>0.25688857997871806</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="13">
+      <c r="B131" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="C131" s="199"/>
+      <c r="D131" t="s">
+        <v>350</v>
+      </c>
+      <c r="H131" s="358" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
+      <c r="A133" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="10.5">
+      <c r="A134" s="184"/>
+      <c r="B134" s="230" t="s">
+        <v>363</v>
+      </c>
+      <c r="C134" s="385" t="s">
+        <v>440</v>
+      </c>
+      <c r="D134" s="392"/>
+    </row>
+    <row r="135" spans="1:13" ht="11.5">
+      <c r="A135" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B134" s="176" t="s">
-        <v>90</v>
-      </c>
-      <c r="C134" s="176" t="s">
-        <v>327</v>
-      </c>
-      <c r="D134" s="176" t="s">
-        <v>328</v>
-      </c>
-      <c r="E134" s="176" t="s">
-        <v>329</v>
-      </c>
-      <c r="F134" s="176" t="s">
-        <v>329</v>
-      </c>
-      <c r="G134" s="176" t="s">
-        <v>329</v>
-      </c>
-      <c r="H134" s="176" t="s">
-        <v>330</v>
-      </c>
-      <c r="I134" s="176" t="s">
-        <v>345</v>
-      </c>
-      <c r="J134" s="176" t="s">
-        <v>345</v>
-      </c>
-      <c r="K134" s="176" t="s">
-        <v>331</v>
-      </c>
-      <c r="L134" s="176" t="s">
-        <v>345</v>
-      </c>
-      <c r="M134" s="194" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13">
-      <c r="A135" s="301">
+      <c r="B135" s="233" t="s">
+        <v>366</v>
+      </c>
+      <c r="C135" s="225"/>
+      <c r="D135" s="226"/>
+    </row>
+    <row r="136" spans="1:13">
+      <c r="A136" s="236">
+        <f t="shared" ref="A136:A141" si="0">A124</f>
         <v>0.05</v>
       </c>
-      <c r="B135" s="302">
-        <v>1.349657099314199</v>
-      </c>
-      <c r="C135" s="303">
+      <c r="B136" s="336">
+        <v>10.5</v>
+      </c>
+      <c r="C136" s="322"/>
+      <c r="D136" s="323">
         <v>1</v>
       </c>
-      <c r="D135" s="303" t="s">
-        <v>377</v>
-      </c>
-      <c r="E135" s="350">
-        <v>0.25</v>
-      </c>
-      <c r="F135" s="302">
-        <v>0.5</v>
-      </c>
-      <c r="G135" s="302">
-        <v>0.5</v>
-      </c>
-      <c r="H135" s="305">
-        <v>1181.9474017501359</v>
-      </c>
-      <c r="I135" s="306">
-        <v>2362406058.2721553</v>
-      </c>
-      <c r="J135" s="306">
-        <v>2362406058.2721553</v>
-      </c>
-      <c r="K135" s="306">
-        <v>10326627046.93685</v>
-      </c>
-      <c r="L135" s="306">
-        <v>815590611.695804</v>
-      </c>
-      <c r="M135" s="307">
-        <v>538.24909552528584</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13">
-      <c r="A136" s="281">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="B136" s="308">
-        <v>1.3496570993141985</v>
-      </c>
-      <c r="C136" s="309">
-        <v>1</v>
-      </c>
-      <c r="D136" s="309" t="s">
-        <v>377</v>
-      </c>
-      <c r="E136" s="350">
-        <v>0.25</v>
-      </c>
-      <c r="F136" s="308">
-        <v>0.5</v>
-      </c>
-      <c r="G136" s="308">
-        <v>0.5</v>
-      </c>
-      <c r="H136" s="310">
-        <v>89.215305458599687</v>
-      </c>
-      <c r="I136" s="311">
-        <v>292871613.66241747</v>
-      </c>
-      <c r="J136" s="311">
-        <v>292871613.66241747</v>
-      </c>
-      <c r="K136" s="311">
-        <v>1295783621.589889</v>
-      </c>
-      <c r="L136" s="311">
-        <v>102340392.98761402</v>
-      </c>
-      <c r="M136" s="312">
-        <v>40.627914067071856</v>
-      </c>
     </row>
     <row r="137" spans="1:13">
-      <c r="A137" s="290">
-        <v>0.25</v>
-      </c>
-      <c r="B137" s="308">
-        <v>2</v>
-      </c>
-      <c r="C137" s="309">
-        <v>0.27</v>
-      </c>
-      <c r="D137" s="309">
-        <v>5.7408195699863462</v>
-      </c>
-      <c r="E137" s="304">
-        <v>0.34</v>
-      </c>
-      <c r="F137" s="308">
-        <v>0.38431406494974252</v>
-      </c>
-      <c r="G137" s="308">
-        <v>0.32303333404645607</v>
-      </c>
-      <c r="H137" s="310">
-        <v>117.20845675339662</v>
-      </c>
-      <c r="I137" s="311">
-        <v>71200412.886402056</v>
-      </c>
-      <c r="J137" s="311">
-        <v>192688198.09657151</v>
-      </c>
-      <c r="K137" s="313">
-        <v>1535809947.6467729</v>
-      </c>
-      <c r="L137" s="313">
-        <v>6059831.2604694702</v>
-      </c>
-      <c r="M137" s="314">
-        <v>24.149591455091301</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13">
-      <c r="A138" s="290">
-        <v>0.5</v>
-      </c>
-      <c r="B138" s="308">
-        <v>1.5334010668021336</v>
-      </c>
-      <c r="C138" s="309">
-        <v>0.24</v>
-      </c>
-      <c r="D138" s="309">
-        <v>7.8774986568807996</v>
-      </c>
-      <c r="E138" s="304">
-        <v>0.31</v>
-      </c>
-      <c r="F138" s="308">
-        <v>0.37966131849299201</v>
-      </c>
-      <c r="G138" s="308">
-        <v>0.32331172392666518</v>
-      </c>
-      <c r="H138" s="310">
-        <v>82.955569360022096</v>
-      </c>
-      <c r="I138" s="311">
-        <v>22286831.062062379</v>
-      </c>
-      <c r="J138" s="311">
-        <v>79116868.754064709</v>
-      </c>
-      <c r="K138" s="313">
-        <v>1094705409.6217237</v>
-      </c>
-      <c r="L138" s="313">
-        <v>2885752.229026631</v>
-      </c>
-      <c r="M138" s="314">
-        <v>9.0573611452431102</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13">
-      <c r="A139" s="290">
-        <v>0.75</v>
-      </c>
-      <c r="B139" s="308">
-        <v>1.0670561341122682</v>
-      </c>
-      <c r="C139" s="309">
-        <v>0.21</v>
-      </c>
-      <c r="D139" s="309">
-        <v>7.6422364536705301</v>
-      </c>
-      <c r="E139" s="304">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F139" s="308">
-        <v>0.39262047257690491</v>
-      </c>
-      <c r="G139" s="308">
-        <v>0.32643878406891619</v>
-      </c>
-      <c r="H139" s="310">
-        <v>39.129612072462692</v>
-      </c>
-      <c r="I139" s="311">
-        <v>3549221.9475047868</v>
-      </c>
-      <c r="J139" s="311">
-        <v>21323059.849604025</v>
-      </c>
-      <c r="K139" s="313">
-        <v>499093273.18287331</v>
-      </c>
-      <c r="L139" s="313">
-        <v>574933.04560629011</v>
-      </c>
-      <c r="M139" s="314">
-        <v>2.2054187533799334</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13">
-      <c r="A140" s="315">
-        <v>1</v>
-      </c>
-      <c r="B140" s="316">
-        <v>0.64719329438658879</v>
-      </c>
-      <c r="C140" s="317">
-        <v>0.16</v>
-      </c>
-      <c r="D140" s="317">
-        <v>0</v>
-      </c>
-      <c r="E140" s="316">
-        <v>0.25</v>
-      </c>
-      <c r="F140" s="316">
-        <v>0.49249999999999999</v>
-      </c>
-      <c r="G140" s="316">
-        <v>0.35780000000000001</v>
-      </c>
-      <c r="H140" s="318">
-        <v>7.751396294306554</v>
-      </c>
-      <c r="I140" s="319">
-        <v>79811.599091411103</v>
-      </c>
-      <c r="J140" s="319">
-        <v>2702250.8204062055</v>
-      </c>
-      <c r="K140" s="320">
-        <v>80734393.082686871</v>
-      </c>
-      <c r="L140" s="320">
-        <v>61146.36439630347</v>
-      </c>
-      <c r="M140" s="321">
-        <v>0.25688857997871806</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13">
-      <c r="B142" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="C142" s="199"/>
-      <c r="D142" t="s">
-        <v>350</v>
-      </c>
-      <c r="H142" s="359" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13">
-      <c r="A144" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
-      <c r="A145" s="184"/>
-      <c r="B145" s="230" t="s">
-        <v>363</v>
-      </c>
-      <c r="C145" s="406" t="s">
-        <v>458</v>
-      </c>
-      <c r="D145" s="336"/>
-    </row>
-    <row r="146" spans="1:7" ht="12">
-      <c r="A146" s="192" t="s">
-        <v>87</v>
-      </c>
-      <c r="B146" s="233" t="s">
-        <v>366</v>
-      </c>
-      <c r="C146" s="225"/>
-      <c r="D146" s="226"/>
-    </row>
-    <row r="147" spans="1:7">
-      <c r="A147" s="236">
-        <f t="shared" ref="A147:A152" si="0">A135</f>
-        <v>0.05</v>
-      </c>
-      <c r="B147" s="337">
-        <v>10.5</v>
-      </c>
-      <c r="C147" s="322"/>
-      <c r="D147" s="323">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
-      <c r="A148" s="241">
+      <c r="A137" s="241">
         <f t="shared" si="0"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="B148" s="338">
+      <c r="B137" s="337">
         <v>10.5</v>
       </c>
-      <c r="C148" s="324"/>
-      <c r="D148" s="325">
+      <c r="C137" s="324"/>
+      <c r="D137" s="325">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
-      <c r="A149" s="241">
+    <row r="138" spans="1:13">
+      <c r="A138" s="241">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="B149" s="327">
+      <c r="B138" s="327">
         <v>10.5</v>
       </c>
-      <c r="C149" s="324"/>
-      <c r="D149" s="325">
+      <c r="C138" s="324"/>
+      <c r="D138" s="325">
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
-      <c r="A150" s="241">
+    <row r="139" spans="1:13">
+      <c r="A139" s="241">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="B150" s="327">
+      <c r="B139" s="327">
         <v>2.5</v>
       </c>
-      <c r="C150" s="324"/>
-      <c r="D150" s="325">
+      <c r="C139" s="324"/>
+      <c r="D139" s="325">
         <v>2.5</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
-      <c r="A151" s="241">
+    <row r="140" spans="1:13">
+      <c r="A140" s="241">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="B151" s="339">
-        <v>0</v>
-      </c>
-      <c r="C151" s="324"/>
-      <c r="D151" s="325">
+      <c r="B140" s="338">
+        <v>0</v>
+      </c>
+      <c r="C140" s="324"/>
+      <c r="D140" s="325">
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
-      <c r="A152" s="247">
+    <row r="141" spans="1:13">
+      <c r="A141" s="247">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B152" s="328">
+      <c r="B141" s="328">
         <v>-0.6</v>
       </c>
-      <c r="C152" s="340"/>
-      <c r="D152" s="326">
+      <c r="C141" s="339"/>
+      <c r="D141" s="326">
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="12">
-      <c r="A154" s="341" t="s">
+    <row r="143" spans="1:13" ht="11.5">
+      <c r="A143" s="340" t="s">
         <v>399</v>
       </c>
-      <c r="B154" s="348" t="s">
+      <c r="B143" s="347" t="s">
         <v>400</v>
       </c>
-      <c r="C154" s="349"/>
-    </row>
-    <row r="155" spans="1:7">
-      <c r="A155" s="342">
+      <c r="C143" s="348"/>
+    </row>
+    <row r="144" spans="1:13">
+      <c r="A144" s="341">
         <v>1</v>
       </c>
-      <c r="B155" s="343"/>
-      <c r="C155" s="344" t="s">
+      <c r="B144" s="342"/>
+      <c r="C144" s="343" t="s">
         <v>378</v>
       </c>
-      <c r="E155" s="360"/>
-    </row>
-    <row r="156" spans="1:7">
-      <c r="A156" s="342">
+      <c r="E144" s="359"/>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="341">
         <v>2</v>
       </c>
-      <c r="B156" s="345"/>
-      <c r="C156" s="346" t="s">
+      <c r="B145" s="344"/>
+      <c r="C145" s="345" t="s">
         <v>406</v>
       </c>
-      <c r="E156" s="353" t="s">
+      <c r="E145" s="352" t="s">
         <v>407</v>
       </c>
-      <c r="F156" s="354"/>
-      <c r="G156" s="354"/>
-    </row>
-    <row r="157" spans="1:7">
-      <c r="A157" s="342">
+      <c r="F145" s="353"/>
+      <c r="G145" s="353"/>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="341">
         <v>3</v>
       </c>
-      <c r="B157" s="345"/>
-      <c r="C157" s="346" t="s">
+      <c r="B146" s="344"/>
+      <c r="C146" s="345" t="s">
         <v>408</v>
       </c>
-      <c r="E157" s="353" t="s">
+      <c r="E146" s="352" t="s">
         <v>407</v>
       </c>
-      <c r="F157" s="354"/>
-      <c r="G157" s="354"/>
+      <c r="F146" s="353"/>
+      <c r="G146" s="353"/>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="346">
+        <v>4</v>
+      </c>
+      <c r="B147" s="360"/>
+      <c r="C147" s="361" t="s">
+        <v>409</v>
+      </c>
+      <c r="E147" s="352" t="s">
+        <v>407</v>
+      </c>
+      <c r="F147" s="353"/>
+      <c r="G147" s="353"/>
+    </row>
+    <row r="148" spans="1:7" ht="10.5" thickBot="1"/>
+    <row r="149" spans="1:7" ht="10.5" thickBot="1">
+      <c r="A149" s="395" t="s">
+        <v>401</v>
+      </c>
+      <c r="B149" s="397"/>
+      <c r="C149" s="398"/>
+      <c r="E149" s="352" t="s">
+        <v>402</v>
+      </c>
+      <c r="F149" s="353"/>
+    </row>
+    <row r="150" spans="1:7" ht="10.5" thickBot="1">
+      <c r="A150" s="362" t="s">
+        <v>35</v>
+      </c>
+      <c r="B150" s="363" t="s">
+        <v>36</v>
+      </c>
+      <c r="C150" s="363" t="s">
+        <v>37</v>
+      </c>
+      <c r="E150" s="352" t="s">
+        <v>402</v>
+      </c>
+      <c r="F150" s="353"/>
+    </row>
+    <row r="151" spans="1:7" ht="11" thickBot="1">
+      <c r="A151" s="364">
+        <v>3.882E-2</v>
+      </c>
+      <c r="B151" s="365">
+        <v>3.882E-2</v>
+      </c>
+      <c r="C151" s="375">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="E151" s="352" t="s">
+        <v>402</v>
+      </c>
+      <c r="F151" s="353"/>
+    </row>
+    <row r="152" spans="1:7" ht="10.5" thickBot="1"/>
+    <row r="153" spans="1:7" ht="10.5" thickBot="1">
+      <c r="A153" s="395" t="s">
+        <v>410</v>
+      </c>
+      <c r="B153" s="396"/>
+      <c r="C153" s="366"/>
+      <c r="E153" s="352" t="s">
+        <v>402</v>
+      </c>
+      <c r="F153" s="353"/>
+    </row>
+    <row r="154" spans="1:7" ht="10.5">
+      <c r="A154" s="367" t="s">
+        <v>50</v>
+      </c>
+      <c r="B154" s="368">
+        <v>3.4349999999999999E-2</v>
+      </c>
+      <c r="C154" s="351"/>
+      <c r="E154" s="352" t="s">
+        <v>402</v>
+      </c>
+      <c r="F154" s="353"/>
+    </row>
+    <row r="155" spans="1:7" ht="10.5">
+      <c r="A155" s="369" t="s">
+        <v>51</v>
+      </c>
+      <c r="B155" s="370">
+        <v>3.4349999999999999E-2</v>
+      </c>
+      <c r="C155" s="371"/>
+      <c r="E155" s="352" t="s">
+        <v>402</v>
+      </c>
+      <c r="F155" s="353"/>
+    </row>
+    <row r="156" spans="1:7" ht="10.5">
+      <c r="A156" s="372" t="s">
+        <v>52</v>
+      </c>
+      <c r="B156" s="370">
+        <v>3.4349999999999999E-2</v>
+      </c>
+      <c r="E156" s="352" t="s">
+        <v>402</v>
+      </c>
+      <c r="F156" s="353"/>
+    </row>
+    <row r="157" spans="1:7" ht="11" thickBot="1">
+      <c r="A157" s="373" t="s">
+        <v>53</v>
+      </c>
+      <c r="B157" s="374">
+        <v>3.4349999999999999E-2</v>
+      </c>
+      <c r="E157" s="352" t="s">
+        <v>402</v>
+      </c>
+      <c r="F157" s="353"/>
     </row>
     <row r="158" spans="1:7">
-      <c r="A158" s="347">
-        <v>4</v>
-      </c>
-      <c r="B158" s="361"/>
-      <c r="C158" s="362" t="s">
-        <v>409</v>
-      </c>
-      <c r="E158" s="353" t="s">
-        <v>407</v>
-      </c>
-      <c r="F158" s="354"/>
-      <c r="G158" s="354"/>
-    </row>
-    <row r="159" spans="1:7" ht="12" thickBot="1"/>
-    <row r="160" spans="1:7" ht="12" thickBot="1">
-      <c r="A160" s="386" t="s">
-        <v>401</v>
-      </c>
-      <c r="B160" s="388"/>
-      <c r="C160" s="389"/>
-      <c r="E160" s="353" t="s">
-        <v>402</v>
-      </c>
-      <c r="F160" s="354"/>
-    </row>
-    <row r="161" spans="1:6" ht="12" thickBot="1">
-      <c r="A161" s="363" t="s">
-        <v>35</v>
-      </c>
-      <c r="B161" s="364" t="s">
-        <v>36</v>
-      </c>
-      <c r="C161" s="364" t="s">
-        <v>37</v>
-      </c>
-      <c r="E161" s="353" t="s">
-        <v>402</v>
-      </c>
-      <c r="F161" s="354"/>
-    </row>
-    <row r="162" spans="1:6" ht="12" thickBot="1">
-      <c r="A162" s="365">
-        <v>3.882E-2</v>
-      </c>
-      <c r="B162" s="366">
-        <v>3.882E-2</v>
-      </c>
-      <c r="C162" s="376">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="E162" s="353" t="s">
-        <v>402</v>
-      </c>
-      <c r="F162" s="354"/>
-    </row>
-    <row r="163" spans="1:6" ht="12" thickBot="1"/>
-    <row r="164" spans="1:6" ht="12" thickBot="1">
-      <c r="A164" s="386" t="s">
-        <v>410</v>
-      </c>
-      <c r="B164" s="387"/>
-      <c r="C164" s="367"/>
-      <c r="E164" s="353" t="s">
-        <v>402</v>
-      </c>
-      <c r="F164" s="354"/>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165" s="368" t="s">
-        <v>50</v>
-      </c>
-      <c r="B165" s="369">
-        <v>3.4349999999999999E-2</v>
-      </c>
-      <c r="C165" s="352"/>
-      <c r="E165" s="353" t="s">
-        <v>402</v>
-      </c>
-      <c r="F165" s="354"/>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166" s="370" t="s">
-        <v>51</v>
-      </c>
-      <c r="B166" s="371">
-        <v>3.4349999999999999E-2</v>
-      </c>
-      <c r="C166" s="372"/>
-      <c r="E166" s="353" t="s">
-        <v>402</v>
-      </c>
-      <c r="F166" s="354"/>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167" s="373" t="s">
-        <v>52</v>
-      </c>
-      <c r="B167" s="371">
-        <v>3.4349999999999999E-2</v>
-      </c>
-      <c r="E167" s="353" t="s">
-        <v>402</v>
-      </c>
-      <c r="F167" s="354"/>
-    </row>
-    <row r="168" spans="1:6" ht="12" thickBot="1">
-      <c r="A168" s="374" t="s">
-        <v>53</v>
-      </c>
-      <c r="B168" s="375">
-        <v>3.4349999999999999E-2</v>
-      </c>
-      <c r="E168" s="353" t="s">
-        <v>402</v>
-      </c>
-      <c r="F168" s="354"/>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169" s="5"/>
-      <c r="B169" s="351"/>
-      <c r="C169" s="351"/>
-      <c r="D169" s="351"/>
+      <c r="A158" s="5"/>
+      <c r="B158" s="350"/>
+      <c r="C158" s="350"/>
+      <c r="D158" s="350"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="A149:C149"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="C1:H1"/>
@@ -8059,10 +7869,10 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="10"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -8111,7 +7921,7 @@
         <v>95</v>
       </c>
       <c r="C6" s="153">
-        <f>C5-'Main Page'!B57</f>
+        <f>C5-'Main Page'!B46</f>
         <v>58.67</v>
       </c>
       <c r="D6" t="s">
@@ -8132,7 +7942,7 @@
         <v>96</v>
       </c>
       <c r="C7" s="153">
-        <f>'Main Page'!B60</f>
+        <f>'Main Page'!B49</f>
         <v>3.75</v>
       </c>
       <c r="D7" t="s">
@@ -8154,7 +7964,7 @@
         <v>98</v>
       </c>
       <c r="C8" s="153">
-        <f>'Main Page'!B58</f>
+        <f>'Main Page'!B47</f>
         <v>2</v>
       </c>
       <c r="D8" t="s">
@@ -8166,7 +7976,7 @@
         <v>99</v>
       </c>
       <c r="C9" s="153">
-        <f>'Main Page'!B61</f>
+        <f>'Main Page'!B50</f>
         <v>15</v>
       </c>
       <c r="D9" t="s">
@@ -8178,7 +7988,7 @@
         <v>100</v>
       </c>
       <c r="C10" s="153">
-        <f>'Main Page'!B59</f>
+        <f>'Main Page'!B48</f>
         <v>9</v>
       </c>
       <c r="D10" t="s">
@@ -8190,7 +8000,7 @@
         <v>385</v>
       </c>
       <c r="C11" s="153">
-        <f>'Main Page'!B62</f>
+        <f>'Main Page'!B51</f>
         <v>5</v>
       </c>
       <c r="D11" t="s">
@@ -8928,23 +8738,23 @@
       <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="10"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="10" max="11" width="9.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.5" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" customWidth="1"/>
     <col min="13" max="14" width="11.33203125" customWidth="1"/>
-    <col min="15" max="15" width="11.5" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="12.75">
+    <row r="1" spans="1:25" ht="12.5">
       <c r="A1" s="112"/>
       <c r="B1" s="112" t="s">
         <v>170</v>
@@ -8976,13 +8786,13 @@
       <c r="X1" s="112"/>
       <c r="Y1" s="112"/>
     </row>
-    <row r="2" spans="1:25" ht="12.75">
+    <row r="2" spans="1:25" ht="12.5">
       <c r="A2" s="112"/>
       <c r="B2" s="113" t="s">
         <v>171</v>
       </c>
       <c r="C2" s="127">
-        <f>'Main Page'!B99*'Main Page'!B100</f>
+        <f>'Main Page'!B88*'Main Page'!B89</f>
         <v>1800</v>
       </c>
       <c r="D2" s="114"/>
@@ -9008,7 +8818,7 @@
       <c r="X2" s="112"/>
       <c r="Y2" s="112"/>
     </row>
-    <row r="3" spans="1:25" ht="12.75">
+    <row r="3" spans="1:25" ht="12.5">
       <c r="A3" s="112"/>
       <c r="B3" s="112"/>
       <c r="C3" s="112"/>
@@ -9035,7 +8845,7 @@
       <c r="X3" s="112"/>
       <c r="Y3" s="112"/>
     </row>
-    <row r="4" spans="1:25" ht="38.25">
+    <row r="4" spans="1:25" ht="37.5">
       <c r="A4" s="115"/>
       <c r="B4" s="163" t="s">
         <v>172</v>
@@ -9094,7 +8904,7 @@
       <c r="X4" s="115"/>
       <c r="Y4" s="116"/>
     </row>
-    <row r="5" spans="1:25" ht="12.75">
+    <row r="5" spans="1:25" ht="12.5">
       <c r="A5" s="112"/>
       <c r="B5" s="164" t="s">
         <v>12</v>
@@ -9102,16 +8912,16 @@
       <c r="C5" s="131"/>
       <c r="D5" s="131"/>
       <c r="E5" s="132">
-        <f>'Main Page'!B67</f>
+        <f>'Main Page'!B56</f>
         <v>2.5</v>
       </c>
       <c r="F5" s="132">
-        <f>'Main Page'!B70</f>
+        <f>'Main Page'!B59</f>
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G5" s="131"/>
       <c r="H5" s="135">
-        <f>'Main Page'!B71</f>
+        <f>'Main Page'!B60</f>
         <v>7850</v>
       </c>
       <c r="I5" s="136">
@@ -9119,15 +8929,15 @@
         <v>5086.4348557027251</v>
       </c>
       <c r="J5" s="132">
-        <f>'Main Page'!B72</f>
+        <f>'Main Page'!B61</f>
         <v>-2.33</v>
       </c>
       <c r="K5" s="132">
-        <f>'Main Page'!B73</f>
+        <f>'Main Page'!B62</f>
         <v>0</v>
       </c>
       <c r="L5" s="132">
-        <f>'Main Page'!B74</f>
+        <f>'Main Page'!B63</f>
         <v>0</v>
       </c>
       <c r="M5" s="160">
@@ -9164,7 +8974,7 @@
       <c r="X5" s="112"/>
       <c r="Y5" s="112"/>
     </row>
-    <row r="6" spans="1:25" ht="12.75">
+    <row r="6" spans="1:25" ht="12.5">
       <c r="A6" s="112"/>
       <c r="B6" s="164" t="s">
         <v>184</v>
@@ -9180,15 +8990,15 @@
         <v>1487.5</v>
       </c>
       <c r="J6" s="132">
-        <f>'Main Page'!B72</f>
+        <f>'Main Page'!B61</f>
         <v>-2.33</v>
       </c>
       <c r="K6" s="132">
-        <f>'Main Page'!B73</f>
+        <f>'Main Page'!B62</f>
         <v>0</v>
       </c>
       <c r="L6" s="132">
-        <f>'Main Page'!B74</f>
+        <f>'Main Page'!B63</f>
         <v>0</v>
       </c>
       <c r="M6" s="160">
@@ -9225,27 +9035,27 @@
       <c r="X6" s="112"/>
       <c r="Y6" s="112"/>
     </row>
-    <row r="7" spans="1:25" ht="12.75">
+    <row r="7" spans="1:25" ht="12.5">
       <c r="A7" s="112"/>
       <c r="B7" s="164" t="s">
         <v>137</v>
       </c>
       <c r="C7" s="132">
-        <f>'Main Page'!B77</f>
+        <f>'Main Page'!B66</f>
         <v>1.3979999999999999</v>
       </c>
       <c r="D7" s="132">
-        <f>'Main Page'!B79</f>
+        <f>'Main Page'!B68</f>
         <v>0.2</v>
       </c>
       <c r="E7" s="132">
-        <f>'Main Page'!B78</f>
+        <f>'Main Page'!B67</f>
         <v>0.4</v>
       </c>
       <c r="F7" s="131"/>
       <c r="G7" s="136"/>
       <c r="H7" s="135">
-        <f>'Main Page'!B80</f>
+        <f>'Main Page'!B69</f>
         <v>7850</v>
       </c>
       <c r="I7" s="136">
@@ -9253,15 +9063,15 @@
         <v>1034.3034077487141</v>
       </c>
       <c r="J7" s="132">
-        <f>0.5*('Main Page'!B85+'Main Page'!B88)</f>
+        <f>0.5*('Main Page'!B74+'Main Page'!B77)</f>
         <v>-1.0485</v>
       </c>
       <c r="K7" s="132">
-        <f>'Main Page'!B81</f>
+        <f>'Main Page'!B70</f>
         <v>0</v>
       </c>
       <c r="L7" s="132">
-        <f>'Main Page'!B82</f>
+        <f>'Main Page'!B71</f>
         <v>0</v>
       </c>
       <c r="M7" s="160">
@@ -9298,7 +9108,7 @@
       <c r="X7" s="112"/>
       <c r="Y7" s="112"/>
     </row>
-    <row r="8" spans="1:25" ht="12.75">
+    <row r="8" spans="1:25" ht="12.5">
       <c r="A8" s="112"/>
       <c r="B8" s="164" t="s">
         <v>185</v>
@@ -9316,15 +9126,15 @@
         <v>421.54659502316184</v>
       </c>
       <c r="J8" s="132">
-        <f>'Main Page'!B85</f>
+        <f>'Main Page'!B74</f>
         <v>-1.631</v>
       </c>
       <c r="K8" s="132">
-        <f>'Main Page'!B86</f>
+        <f>'Main Page'!B75</f>
         <v>0</v>
       </c>
       <c r="L8" s="132">
-        <f>'Main Page'!B87</f>
+        <f>'Main Page'!B76</f>
         <v>0</v>
       </c>
       <c r="M8" s="160">
@@ -9361,7 +9171,7 @@
       <c r="X8" s="112"/>
       <c r="Y8" s="118"/>
     </row>
-    <row r="9" spans="1:25" ht="12.75">
+    <row r="9" spans="1:25" ht="12.5">
       <c r="A9" s="112"/>
       <c r="B9" s="164" t="s">
         <v>186</v>
@@ -9379,15 +9189,15 @@
         <v>421.54659502316184</v>
       </c>
       <c r="J9" s="132">
-        <f>'Main Page'!B88</f>
+        <f>'Main Page'!B77</f>
         <v>-0.46600000000000003</v>
       </c>
       <c r="K9" s="132">
-        <f>'Main Page'!B89</f>
+        <f>'Main Page'!B78</f>
         <v>0</v>
       </c>
       <c r="L9" s="132">
-        <f>'Main Page'!B90</f>
+        <f>'Main Page'!B79</f>
         <v>0</v>
       </c>
       <c r="M9" s="160">
@@ -9424,7 +9234,7 @@
       <c r="X9" s="112"/>
       <c r="Y9" s="112"/>
     </row>
-    <row r="10" spans="1:25" ht="12.75">
+    <row r="10" spans="1:25" ht="12.5">
       <c r="A10" s="112"/>
       <c r="B10" s="164" t="s">
         <v>187</v>
@@ -9442,19 +9252,19 @@
       <c r="G10" s="128"/>
       <c r="H10" s="137"/>
       <c r="I10" s="136">
-        <f>'Main Page'!B93/2</f>
+        <f>'Main Page'!B82/2</f>
         <v>2361.5</v>
       </c>
       <c r="J10" s="132">
-        <f>'Main Page'!B94</f>
+        <f>'Main Page'!B83</f>
         <v>0</v>
       </c>
       <c r="K10" s="132">
-        <f>'Main Page'!B95</f>
+        <f>'Main Page'!B84</f>
         <v>0</v>
       </c>
       <c r="L10" s="132">
-        <f>'Main Page'!B96</f>
+        <f>'Main Page'!B85</f>
         <v>0</v>
       </c>
       <c r="M10" s="160">
@@ -9506,19 +9316,19 @@
       <c r="G11" s="128"/>
       <c r="H11" s="137"/>
       <c r="I11" s="139">
-        <f>(3.3*'Main Page'!B103+471)/3</f>
+        <f>(3.3*'Main Page'!B92+471)/3</f>
         <v>982</v>
       </c>
       <c r="J11" s="132">
-        <f>'Main Page'!B104</f>
+        <f>'Main Page'!B93</f>
         <v>0.58250000000000002</v>
       </c>
       <c r="K11" s="132">
-        <f>'Main Page'!B105</f>
+        <f>'Main Page'!B94</f>
         <v>0</v>
       </c>
       <c r="L11" s="132">
-        <f>'Main Page'!B106</f>
+        <f>'Main Page'!B95</f>
         <v>0</v>
       </c>
       <c r="M11" s="160">
@@ -9526,7 +9336,7 @@
         <v>55878.315104796013</v>
       </c>
       <c r="N11" s="160">
-        <f>M11/2/('Main Page'!B99^2)+I11*C11^2/12</f>
+        <f>M11/2/('Main Page'!B88^2)+I11*C11^2/12</f>
         <v>124.91707128294681</v>
       </c>
       <c r="O11" s="160">
@@ -9549,13 +9359,13 @@
         <v>210</v>
       </c>
       <c r="T11" s="113"/>
-      <c r="U11" s="377"/>
+      <c r="U11" s="376"/>
       <c r="V11" s="119"/>
       <c r="W11" s="115"/>
       <c r="X11" s="112"/>
       <c r="Y11" s="118"/>
     </row>
-    <row r="12" spans="1:25" ht="12.75">
+    <row r="12" spans="1:25" ht="12.5">
       <c r="A12" s="112"/>
       <c r="B12" s="164" t="s">
         <v>255</v>
@@ -9574,7 +9384,7 @@
         <v>7850</v>
       </c>
       <c r="I12" s="139">
-        <f>1.5*0.025*1000*'Main Page'!B103/0.10472/C2</f>
+        <f>1.5*0.025*1000*'Main Page'!B92/0.10472/C2</f>
         <v>149.20741023682203</v>
       </c>
       <c r="J12" s="132">
@@ -9590,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="160">
-        <f>0.25*C12*PI()*H12*E12^2*'Main Page'!B99^2*E12^2/8</f>
+        <f>0.25*C12*PI()*H12*E12^2*'Main Page'!B88^2*E12^2/8</f>
         <v>9857.6705135843258</v>
       </c>
       <c r="N12" s="160">
@@ -9622,7 +9432,7 @@
       <c r="X12" s="112"/>
       <c r="Y12" s="118"/>
     </row>
-    <row r="13" spans="1:25" ht="12.75">
+    <row r="13" spans="1:25" ht="12.5">
       <c r="A13" s="112"/>
       <c r="B13" s="164"/>
       <c r="C13" s="131"/>
@@ -9654,7 +9464,7 @@
       <c r="X13" s="112"/>
       <c r="Y13" s="118"/>
     </row>
-    <row r="14" spans="1:25" ht="12.75">
+    <row r="14" spans="1:25" ht="12.5">
       <c r="A14" s="112"/>
       <c r="B14" s="164"/>
       <c r="C14" s="131"/>
@@ -9703,7 +9513,7 @@
       <c r="X14" s="112"/>
       <c r="Y14" s="118"/>
     </row>
-    <row r="15" spans="1:25" ht="12.75">
+    <row r="15" spans="1:25" ht="12.5">
       <c r="A15" s="112"/>
       <c r="B15" s="164"/>
       <c r="C15" s="131"/>
@@ -9752,7 +9562,7 @@
       <c r="X15" s="112"/>
       <c r="Y15" s="118"/>
     </row>
-    <row r="16" spans="1:25" ht="12.75">
+    <row r="16" spans="1:25" ht="12.5">
       <c r="A16" s="112"/>
       <c r="B16" s="165"/>
       <c r="C16" s="112"/>
@@ -9802,7 +9612,7 @@
       <c r="X16" s="112"/>
       <c r="Y16" s="112"/>
     </row>
-    <row r="17" spans="1:25" ht="12.75">
+    <row r="17" spans="1:25" ht="12.5">
       <c r="A17" s="112"/>
       <c r="B17" s="165"/>
       <c r="C17" s="112"/>
@@ -9843,7 +9653,7 @@
       <c r="X17" s="112"/>
       <c r="Y17" s="112"/>
     </row>
-    <row r="18" spans="1:25" ht="12.75">
+    <row r="18" spans="1:25" ht="12.5">
       <c r="A18" s="112"/>
       <c r="B18" s="165"/>
       <c r="C18" s="112"/>
@@ -9870,16 +9680,16 @@
       <c r="X18" s="112"/>
       <c r="Y18" s="112"/>
     </row>
-    <row r="19" spans="1:25" ht="12.75">
+    <row r="19" spans="1:25" ht="12.5">
       <c r="A19" s="112"/>
       <c r="B19" s="165"/>
       <c r="C19" s="112"/>
-      <c r="D19" s="403" t="s">
+      <c r="D19" s="412" t="s">
         <v>239</v>
       </c>
-      <c r="E19" s="403"/>
-      <c r="F19" s="403"/>
-      <c r="G19" s="403"/>
+      <c r="E19" s="412"/>
+      <c r="F19" s="412"/>
+      <c r="G19" s="412"/>
       <c r="H19" s="112"/>
       <c r="I19" s="112"/>
       <c r="J19" s="121"/>
@@ -9899,7 +9709,7 @@
       <c r="X19" s="112"/>
       <c r="Y19" s="112"/>
     </row>
-    <row r="20" spans="1:25" ht="38.25">
+    <row r="20" spans="1:25" ht="37.5">
       <c r="A20" s="115"/>
       <c r="B20" s="163" t="s">
         <v>189</v>
@@ -9938,33 +9748,33 @@
       <c r="X20" s="115"/>
       <c r="Y20" s="115"/>
     </row>
-    <row r="21" spans="1:25" ht="12.75">
+    <row r="21" spans="1:25" ht="12.5">
       <c r="A21" s="112"/>
       <c r="B21" s="164" t="s">
         <v>162</v>
       </c>
       <c r="C21" s="132">
-        <f>'Main Page'!B109</f>
+        <f>'Main Page'!B98</f>
         <v>1.631</v>
       </c>
       <c r="D21" s="132">
-        <f>'Main Page'!B110</f>
+        <f>'Main Page'!B99</f>
         <v>1.7475000000000001</v>
       </c>
       <c r="E21" s="132">
-        <f>'Main Page'!B111</f>
+        <f>'Main Page'!B100</f>
         <v>0.74560000000000004</v>
       </c>
       <c r="F21" s="132">
-        <f>'Main Page'!B112</f>
+        <f>'Main Page'!B101</f>
         <v>0.13</v>
       </c>
       <c r="G21" s="132">
-        <f>'Main Page'!B113</f>
+        <f>'Main Page'!B102</f>
         <v>0.13</v>
       </c>
       <c r="H21" s="136">
-        <f>'Main Page'!B114</f>
+        <f>'Main Page'!B103</f>
         <v>7850</v>
       </c>
       <c r="I21" s="139">
@@ -9972,15 +9782,15 @@
         <v>4631.2392328125006</v>
       </c>
       <c r="J21" s="132">
-        <f>'Main Page'!B115</f>
+        <f>'Main Page'!B104</f>
         <v>0</v>
       </c>
       <c r="K21" s="132">
-        <f>'Main Page'!B116</f>
+        <f>'Main Page'!B105</f>
         <v>0</v>
       </c>
       <c r="L21" s="132">
-        <f>'Main Page'!B117</f>
+        <f>'Main Page'!B106</f>
         <v>-0.56850000000000001</v>
       </c>
       <c r="M21" s="160">
@@ -10014,7 +9824,7 @@
       <c r="X21" s="112"/>
       <c r="Y21" s="112"/>
     </row>
-    <row r="22" spans="1:25" ht="12.75">
+    <row r="22" spans="1:25" ht="12.5">
       <c r="A22" s="112"/>
       <c r="B22" s="164" t="s">
         <v>194</v>
@@ -10074,7 +9884,7 @@
       <c r="X22" s="112"/>
       <c r="Y22" s="118"/>
     </row>
-    <row r="23" spans="1:25" ht="12.75">
+    <row r="23" spans="1:25" ht="12.5">
       <c r="A23" s="112"/>
       <c r="B23" s="164" t="s">
         <v>195</v>
@@ -10135,7 +9945,7 @@
       <c r="X23" s="112"/>
       <c r="Y23" s="112"/>
     </row>
-    <row r="24" spans="1:25" ht="12.75">
+    <row r="24" spans="1:25" ht="12.5">
       <c r="A24" s="112"/>
       <c r="B24" s="164" t="s">
         <v>196</v>
@@ -10156,7 +9966,7 @@
       <c r="G24" s="130"/>
       <c r="H24" s="129"/>
       <c r="I24" s="140">
-        <f>'Main Page'!B93/2</f>
+        <f>'Main Page'!B82/2</f>
         <v>2361.5</v>
       </c>
       <c r="J24" s="132">
@@ -10203,7 +10013,7 @@
       <c r="X24" s="112"/>
       <c r="Y24" s="112"/>
     </row>
-    <row r="25" spans="1:25" ht="12.75">
+    <row r="25" spans="1:25" ht="12.5">
       <c r="A25" s="112"/>
       <c r="B25" s="164" t="s">
         <v>197</v>
@@ -10224,7 +10034,7 @@
       <c r="G25" s="130"/>
       <c r="H25" s="129"/>
       <c r="I25" s="139">
-        <f>2*(3.3*'Main Page'!B103+471)/3</f>
+        <f>2*(3.3*'Main Page'!B92+471)/3</f>
         <v>1964</v>
       </c>
       <c r="J25" s="132">
@@ -10271,7 +10081,7 @@
       <c r="X25" s="112"/>
       <c r="Y25" s="112"/>
     </row>
-    <row r="26" spans="1:25" ht="12.75">
+    <row r="26" spans="1:25" ht="12.5">
       <c r="A26" s="112"/>
       <c r="B26" s="164" t="s">
         <v>198</v>
@@ -10337,7 +10147,7 @@
       <c r="X26" s="112"/>
       <c r="Y26" s="112"/>
     </row>
-    <row r="27" spans="1:25" ht="12.75">
+    <row r="27" spans="1:25" ht="12.5">
       <c r="A27" s="112"/>
       <c r="B27" s="164" t="s">
         <v>199</v>
@@ -10349,7 +10159,7 @@
       <c r="G27" s="129"/>
       <c r="H27" s="129"/>
       <c r="I27" s="139">
-        <f>2.6*'Main Page'!B103+0.002168*C1^3.4</f>
+        <f>2.6*'Main Page'!B92+0.002168*C1^3.4</f>
         <v>3245.8576372154985</v>
       </c>
       <c r="J27" s="132">
@@ -10389,7 +10199,7 @@
       <c r="X27" s="112"/>
       <c r="Y27" s="112"/>
     </row>
-    <row r="28" spans="1:25" ht="12.75">
+    <row r="28" spans="1:25" ht="12.5">
       <c r="A28" s="112"/>
       <c r="B28" s="164" t="s">
         <v>200</v>
@@ -10441,7 +10251,7 @@
       <c r="X28" s="112"/>
       <c r="Y28" s="112"/>
     </row>
-    <row r="29" spans="1:25" ht="12.75">
+    <row r="29" spans="1:25" ht="12.5">
       <c r="A29" s="112"/>
       <c r="B29" s="165"/>
       <c r="C29" s="112"/>
@@ -10474,7 +10284,7 @@
       <c r="X29" s="112"/>
       <c r="Y29" s="112"/>
     </row>
-    <row r="30" spans="1:25" ht="12.75">
+    <row r="30" spans="1:25" ht="12.5">
       <c r="A30" s="112"/>
       <c r="B30" s="164"/>
       <c r="C30" s="112"/>
@@ -10524,7 +10334,7 @@
       <c r="X30" s="112"/>
       <c r="Y30" s="112"/>
     </row>
-    <row r="31" spans="1:25" ht="12.75">
+    <row r="31" spans="1:25" ht="12.5">
       <c r="A31" s="112"/>
       <c r="B31" s="164"/>
       <c r="C31" s="112"/>
@@ -10565,7 +10375,7 @@
       <c r="X31" s="112"/>
       <c r="Y31" s="112"/>
     </row>
-    <row r="32" spans="1:25" ht="12.75">
+    <row r="32" spans="1:25" ht="12.5">
       <c r="A32" s="112"/>
       <c r="B32" s="164"/>
       <c r="C32" s="112"/>
@@ -10592,7 +10402,7 @@
       <c r="X32" s="112"/>
       <c r="Y32" s="112"/>
     </row>
-    <row r="33" spans="1:25" ht="12.75">
+    <row r="33" spans="1:25" ht="12.5">
       <c r="A33" s="112"/>
       <c r="B33" s="164"/>
       <c r="C33" s="112"/>
@@ -10619,15 +10429,15 @@
       <c r="X33" s="112"/>
       <c r="Y33" s="112"/>
     </row>
-    <row r="34" spans="1:25" s="112" customFormat="1" ht="12.75">
+    <row r="34" spans="1:25" s="112" customFormat="1" ht="12.5">
       <c r="B34" s="165"/>
     </row>
-    <row r="35" spans="1:25" s="112" customFormat="1" ht="12.75">
+    <row r="35" spans="1:25" s="112" customFormat="1" ht="12.5">
       <c r="B35" s="164" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="36" spans="1:25" s="112" customFormat="1" ht="12.75">
+    <row r="36" spans="1:25" s="112" customFormat="1" ht="12.5">
       <c r="B36" s="164" t="s">
         <v>217</v>
       </c>
@@ -10635,7 +10445,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="37" spans="1:25" s="112" customFormat="1" ht="12.75">
+    <row r="37" spans="1:25" s="112" customFormat="1" ht="12.5">
       <c r="B37" s="164" t="s">
         <v>219</v>
       </c>
@@ -10643,10 +10453,10 @@
         <v>220</v>
       </c>
     </row>
-    <row r="38" spans="1:25" s="112" customFormat="1" ht="12.75">
+    <row r="38" spans="1:25" s="112" customFormat="1" ht="12.5">
       <c r="B38" s="165"/>
     </row>
-    <row r="39" spans="1:25" s="112" customFormat="1" ht="12.75">
+    <row r="39" spans="1:25" s="112" customFormat="1" ht="12.5">
       <c r="B39" s="164" t="s">
         <v>226</v>
       </c>
@@ -10654,7 +10464,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="40" spans="1:25" s="112" customFormat="1" ht="12.75">
+    <row r="40" spans="1:25" s="112" customFormat="1" ht="12.5">
       <c r="B40" s="164" t="s">
         <v>223</v>
       </c>
@@ -10662,7 +10472,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="41" spans="1:25" s="112" customFormat="1" ht="12.75">
+    <row r="41" spans="1:25" s="112" customFormat="1" ht="12.5">
       <c r="B41" s="164" t="s">
         <v>225</v>
       </c>
@@ -10670,10 +10480,10 @@
         <v>228</v>
       </c>
     </row>
-    <row r="42" spans="1:25" s="112" customFormat="1" ht="12.75">
+    <row r="42" spans="1:25" s="112" customFormat="1" ht="12.5">
       <c r="B42" s="166"/>
     </row>
-    <row r="43" spans="1:25" s="112" customFormat="1" ht="12.75">
+    <row r="43" spans="1:25" s="112" customFormat="1" ht="12.5">
       <c r="B43" s="164" t="s">
         <v>229</v>
       </c>
@@ -10681,7 +10491,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="44" spans="1:25" s="112" customFormat="1" ht="12.75">
+    <row r="44" spans="1:25" s="112" customFormat="1" ht="12.5">
       <c r="B44" s="164" t="s">
         <v>231</v>
       </c>
@@ -10689,7 +10499,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="45" spans="1:25" s="112" customFormat="1" ht="12.75">
+    <row r="45" spans="1:25" s="112" customFormat="1" ht="12.5">
       <c r="B45" s="164" t="s">
         <v>275</v>
       </c>
@@ -10697,10 +10507,10 @@
         <v>276</v>
       </c>
     </row>
-    <row r="46" spans="1:25" s="112" customFormat="1" ht="12.75">
+    <row r="46" spans="1:25" s="112" customFormat="1" ht="12.5">
       <c r="B46" s="166"/>
     </row>
-    <row r="47" spans="1:25" s="112" customFormat="1" ht="12.75">
+    <row r="47" spans="1:25" s="112" customFormat="1" ht="12.5">
       <c r="B47" s="164" t="s">
         <v>234</v>
       </c>
@@ -10708,7 +10518,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="48" spans="1:25" s="112" customFormat="1" ht="12.75">
+    <row r="48" spans="1:25" s="112" customFormat="1" ht="12.5">
       <c r="B48" s="164" t="s">
         <v>233</v>
       </c>
@@ -10716,7 +10526,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="49" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="49" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B49" s="164" t="s">
         <v>277</v>
       </c>
@@ -10724,13 +10534,13 @@
         <v>278</v>
       </c>
     </row>
-    <row r="50" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="50" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B50" s="164"/>
     </row>
-    <row r="51" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="51" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B51" s="164"/>
     </row>
-    <row r="52" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="52" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B52" s="164" t="s">
         <v>237</v>
       </c>
@@ -10738,7 +10548,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="53" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="53" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B53" s="164" t="s">
         <v>238</v>
       </c>
@@ -10746,7 +10556,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="54" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="54" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B54" s="164" t="s">
         <v>243</v>
       </c>
@@ -10754,7 +10564,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="55" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="55" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B55" s="164" t="s">
         <v>245</v>
       </c>
@@ -10762,10 +10572,10 @@
         <v>246</v>
       </c>
     </row>
-    <row r="56" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="56" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B56" s="164"/>
     </row>
-    <row r="57" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="57" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B57" s="164" t="s">
         <v>252</v>
       </c>
@@ -10773,7 +10583,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="58" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="58" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B58" s="164" t="s">
         <v>247</v>
       </c>
@@ -10781,7 +10591,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="59" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="59" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B59" s="164" t="s">
         <v>249</v>
       </c>
@@ -10789,7 +10599,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="60" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="60" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B60" s="164" t="s">
         <v>250</v>
       </c>
@@ -10797,10 +10607,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="61" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="61" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B61" s="164"/>
     </row>
-    <row r="62" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="62" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B62" s="164" t="s">
         <v>256</v>
       </c>
@@ -10808,7 +10618,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="63" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="63" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B63" s="164" t="s">
         <v>257</v>
       </c>
@@ -10816,7 +10626,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="64" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="64" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B64" s="164" t="s">
         <v>258</v>
       </c>
@@ -10824,7 +10634,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="65" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="65" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B65" s="164" t="s">
         <v>259</v>
       </c>
@@ -10832,7 +10642,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="66" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="66" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B66" s="164" t="s">
         <v>260</v>
       </c>
@@ -10840,10 +10650,10 @@
         <v>265</v>
       </c>
     </row>
-    <row r="67" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="67" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B67" s="164"/>
     </row>
-    <row r="68" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="68" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B68" s="164" t="s">
         <v>266</v>
       </c>
@@ -10851,7 +10661,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="69" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="69" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B69" s="164" t="s">
         <v>268</v>
       </c>
@@ -10859,10 +10669,10 @@
         <v>269</v>
       </c>
     </row>
-    <row r="70" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="70" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B70" s="164"/>
     </row>
-    <row r="71" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="71" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B71" s="164" t="s">
         <v>272</v>
       </c>
@@ -10870,7 +10680,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="72" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="72" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B72" s="164" t="s">
         <v>270</v>
       </c>
@@ -10878,7 +10688,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="73" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="73" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B73" s="164" t="s">
         <v>274</v>
       </c>
@@ -10886,10 +10696,10 @@
         <v>279</v>
       </c>
     </row>
-    <row r="74" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="74" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B74" s="164"/>
     </row>
-    <row r="75" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="75" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B75" s="164" t="s">
         <v>281</v>
       </c>
@@ -10897,7 +10707,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="76" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="76" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B76" s="164" t="s">
         <v>280</v>
       </c>
@@ -10905,7 +10715,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="77" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="77" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B77" s="164" t="s">
         <v>282</v>
       </c>
@@ -10913,7 +10723,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="78" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="78" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B78" s="164" t="s">
         <v>284</v>
       </c>
@@ -10921,7 +10731,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="79" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="79" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B79" s="164" t="s">
         <v>285</v>
       </c>
@@ -10929,10 +10739,10 @@
         <v>286</v>
       </c>
     </row>
-    <row r="80" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="80" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B80" s="164"/>
     </row>
-    <row r="81" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="81" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B81" s="164" t="s">
         <v>287</v>
       </c>
@@ -10940,7 +10750,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="82" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="82" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B82" s="164" t="s">
         <v>288</v>
       </c>
@@ -10948,7 +10758,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="83" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="83" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B83" s="164" t="s">
         <v>289</v>
       </c>
@@ -10956,7 +10766,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="84" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="84" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B84" s="164" t="s">
         <v>290</v>
       </c>
@@ -10964,7 +10774,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="85" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="85" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B85" s="164" t="s">
         <v>291</v>
       </c>
@@ -10972,10 +10782,10 @@
         <v>286</v>
       </c>
     </row>
-    <row r="86" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="86" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B86" s="164"/>
     </row>
-    <row r="87" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="87" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B87" s="164" t="s">
         <v>294</v>
       </c>
@@ -10983,7 +10793,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="88" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="88" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B88" s="164" t="s">
         <v>296</v>
       </c>
@@ -10991,7 +10801,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="89" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="89" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B89" s="164" t="s">
         <v>297</v>
       </c>
@@ -10999,7 +10809,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="90" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="90" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B90" s="164" t="s">
         <v>300</v>
       </c>
@@ -11007,7 +10817,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="91" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="91" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B91" s="164" t="s">
         <v>302</v>
       </c>
@@ -11015,8 +10825,8 @@
         <v>286</v>
       </c>
     </row>
-    <row r="92" spans="2:3" s="112" customFormat="1" ht="12.75"/>
-    <row r="93" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="92" spans="2:3" s="112" customFormat="1" ht="12.5"/>
+    <row r="93" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B93" s="164" t="s">
         <v>199</v>
       </c>
@@ -11024,7 +10834,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="94" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="94" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B94" s="164" t="s">
         <v>200</v>
       </c>
@@ -11032,10 +10842,10 @@
         <v>303</v>
       </c>
     </row>
-    <row r="95" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="95" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B95" s="165"/>
     </row>
-    <row r="96" spans="2:3" ht="12.75">
+    <row r="96" spans="2:3" ht="12.5">
       <c r="B96" s="164" t="s">
         <v>221</v>
       </c>
@@ -11161,36 +10971,721 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="10"/>
+  <cols>
+    <col min="2" max="7" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C3" s="18">
+        <f>'Main Page'!B17</f>
+        <v>1.2250000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>462</v>
+      </c>
+      <c r="B4" t="s">
+        <v>502</v>
+      </c>
+      <c r="C4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>431</v>
+      </c>
+      <c r="B5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C5" s="18" t="str">
+        <f>'Main Page'!C144</f>
+        <v>cylinder</v>
+      </c>
+      <c r="D5" s="18" t="str">
+        <f>'Main Page'!C145</f>
+        <v>s818_2703.dat</v>
+      </c>
+      <c r="E5" s="18" t="str">
+        <f>'Main Page'!C146</f>
+        <v>s825_2103.dat</v>
+      </c>
+      <c r="F5" s="18" t="str">
+        <f>'Main Page'!C147</f>
+        <v>s826_1603.dat</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>431</v>
+      </c>
+      <c r="B6" t="s">
+        <v>507</v>
+      </c>
+      <c r="C6" s="18">
+        <v>15</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" t="s">
+        <v>503</v>
+      </c>
+      <c r="C7" t="s">
+        <v>501</v>
+      </c>
+      <c r="D7" t="s">
+        <v>504</v>
+      </c>
+      <c r="E7" t="s">
+        <v>505</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="C8" s="382">
+        <f>C37*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
+        <v>2.0416666666666665</v>
+      </c>
+      <c r="D8" s="380">
+        <f>(F39-F38)/($D39-$D38)*($C8-$D39)+F38</f>
+        <v>11.1</v>
+      </c>
+      <c r="E8">
+        <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$56/2)</f>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="F8" s="380">
+        <f>(E$39-E$38)/(D$39-D$38)*(C8-D$38)+E$38</f>
+        <v>1.3918089539882783</v>
+      </c>
+      <c r="G8">
+        <f>ROUND((G$39-G$38)/(D$39-D$38)*(C8-D$38)+G$38,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="C9" s="382">
+        <f>C38*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
+        <v>3.625</v>
+      </c>
+      <c r="D9" s="380">
+        <f>(F39-F38)/($D39-$D38)*($C9-$D39)+F38</f>
+        <v>11.1</v>
+      </c>
+      <c r="E9">
+        <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$56/2)</f>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="F9" s="380">
+        <f t="shared" ref="F9" si="0">(E$39-E$38)/(D$39-D$38)*(C9-D$38)+E$38</f>
+        <v>1.6206333079332824</v>
+      </c>
+      <c r="G9">
+        <f>ROUNDUP((G$39-G$38)/(D$39-D$38)*(C9-D$38)+G$38,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="C10" s="382">
+        <f>C39*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
+        <v>5.208333333333333</v>
+      </c>
+      <c r="D10" s="380">
+        <f>(F39-F38)/($D39-$D38)*($C10-$D39)+F38</f>
+        <v>11.1</v>
+      </c>
+      <c r="E10">
+        <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$56/2)</f>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="F10" s="380">
+        <f>(E$39-E$38)/(D$39-D$38)*(C10-D$38)+E$38</f>
+        <v>1.8494576618782865</v>
+      </c>
+      <c r="G10">
+        <f>ROUND((G$39-G$38)/(D$39-D$38)*(C10-D$38)+G$38,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="C11" s="382">
+        <f>C40*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
+        <v>6.791666666666667</v>
+      </c>
+      <c r="D11" s="380">
+        <f>(F40-F39)/($D40-$D39)*($C11-$D39)+F39</f>
+        <v>10.406666666666666</v>
+      </c>
+      <c r="E11">
+        <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$56/2)</f>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="F11" s="380">
+        <f>(E$40-E$39)/(D$40-D$39)*(C11-D$39)+E$39</f>
+        <v>1.9595614257895182</v>
+      </c>
+      <c r="G11">
+        <f>ROUND((G$40-G$39)/(D$40-D$39)*(C11-D$39)+G$39,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="C12" s="382">
+        <f>C41*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
+        <v>8.375</v>
+      </c>
+      <c r="D12" s="380">
+        <f>(F40-F39)/($D40-$D39)*($C12-$D39)+F39</f>
+        <v>8.379999999999999</v>
+      </c>
+      <c r="E12">
+        <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$56/2)</f>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="F12" s="380">
+        <f t="shared" ref="F12:F13" si="1">(E$40-E$39)/(D$40-D$39)*(C12-D$39)+E$39</f>
+        <v>1.8413563627127254</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ref="G12:G14" si="2">ROUND((G$40-G$39)/(D$40-D$39)*(C12-D$39)+G$39,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="C13" s="382">
+        <f>C42*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
+        <v>9.9583333333333321</v>
+      </c>
+      <c r="D13" s="380">
+        <f>(F40-F39)/($D40-$D39)*($C13-$D39)+F39</f>
+        <v>6.3533333333333344</v>
+      </c>
+      <c r="E13">
+        <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$56/2)</f>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="F13" s="380">
+        <f t="shared" si="1"/>
+        <v>1.7231512996359326</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="C14" s="382">
+        <f>C43*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
+        <v>11.541666666666668</v>
+      </c>
+      <c r="D14" s="380">
+        <f>(F40-F39)/($D40-$D39)*($C14-$D39)+F39</f>
+        <v>4.3266666666666644</v>
+      </c>
+      <c r="E14">
+        <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$56/2)</f>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="F14" s="380">
+        <f>(E$40-E$39)/(D$40-D$39)*(C14-D$39)+E$39</f>
+        <v>1.6049462365591398</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="C15" s="382">
+        <f>C44*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
+        <v>13.125</v>
+      </c>
+      <c r="D15" s="380">
+        <f>(F41-F40)/($D41-$D40)*($C15-$D40)+F40</f>
+        <v>2.85</v>
+      </c>
+      <c r="E15">
+        <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$56/2)</f>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="F15" s="380">
+        <f>(E$41-E$40)/(D$41-D$40)*(C15-D$40)+E$40</f>
+        <v>1.486766573533147</v>
+      </c>
+      <c r="G15">
+        <f>ROUND((G$41-G$40)/(D$41-D$40)*(C15-D$40)+G$40,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="C16" s="382">
+        <f>C45*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
+        <v>14.708333333333332</v>
+      </c>
+      <c r="D16" s="380">
+        <f>(F41-F40)/($D41-$D40)*($C16-$D40)+F40</f>
+        <v>2.2166666666666672</v>
+      </c>
+      <c r="E16">
+        <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$56/2)</f>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="F16" s="380">
+        <f t="shared" ref="F16:F18" si="3">(E$41-E$40)/(D$41-D$40)*(C16-D$40)+E$40</f>
+        <v>1.3686258572517147</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16:G18" si="4">ROUND((G$41-G$40)/(D$41-D$40)*(C16-D$40)+G$40,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" s="382">
+        <f>C46*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
+        <v>16.291666666666664</v>
+      </c>
+      <c r="D17" s="380">
+        <f>(F41-F40)/($D41-$D40)*($C17-$D40)+F40</f>
+        <v>1.5833333333333344</v>
+      </c>
+      <c r="E17">
+        <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$56/2)</f>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="F17" s="380">
+        <f t="shared" si="3"/>
+        <v>1.2504851409702822</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" s="382">
+        <f>C47*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
+        <v>17.875</v>
+      </c>
+      <c r="D18" s="380">
+        <f>(F41-F40)/($D41-$D40)*($C18-$D40)+F40</f>
+        <v>0.95000000000000018</v>
+      </c>
+      <c r="E18">
+        <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$56/2)</f>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="F18" s="380">
+        <f t="shared" si="3"/>
+        <v>1.1323444246888494</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" s="382">
+        <f>C48*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
+        <v>19.458333333333336</v>
+      </c>
+      <c r="D19" s="380">
+        <f>(F42-F41)/($D42-$D41)*($C19-$D41)+F41</f>
+        <v>0.53199999999999981</v>
+      </c>
+      <c r="E19">
+        <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$56/2)</f>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="F19" s="380">
+        <f>(E$42-E$41)/(D$42-D$41)*(C19-D$41)+E$41</f>
+        <v>1.0194716789433578</v>
+      </c>
+      <c r="G19">
+        <f>ROUND((G$42-G$41)/(D$42-D$41)*(C19-D$41)+G$41,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" s="382">
+        <f>C49*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
+        <v>21.041666666666668</v>
+      </c>
+      <c r="D20" s="380">
+        <f>(F42-F41)/($D42-$D41)*($C20-$D41)+F41</f>
+        <v>0.37999999999999989</v>
+      </c>
+      <c r="E20">
+        <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$56/2)</f>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="F20" s="380">
+        <f t="shared" ref="F20:F22" si="5">(E$42-E$41)/(D$42-D$41)*(C20-D$41)+E$41</f>
+        <v>0.91310642621285232</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20:G22" si="6">ROUND((G$42-G$41)/(D$42-D$41)*(C20-D$41)+G$41,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21" s="382">
+        <f>C50*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
+        <v>22.625</v>
+      </c>
+      <c r="D21" s="380">
+        <f>(F42-F41)/($D42-$D41)*($C21-$D41)+F41</f>
+        <v>0.22799999999999998</v>
+      </c>
+      <c r="E21">
+        <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$56/2)</f>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="F21" s="380">
+        <f t="shared" si="5"/>
+        <v>0.80674117348234697</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" s="382">
+        <f>C51*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
+        <v>24.208333333333332</v>
+      </c>
+      <c r="D22" s="380">
+        <f>(F42-F41)/($D42-$D41)*($C22-$D41)+F41</f>
+        <v>7.6000000000000068E-2</v>
+      </c>
+      <c r="E22">
+        <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$56/2)</f>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="F22" s="380">
+        <f t="shared" si="5"/>
+        <v>0.70037592075184163</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" t="s">
+        <v>508</v>
+      </c>
+      <c r="E36" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" t="s">
+        <v>363</v>
+      </c>
+      <c r="G36" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37">
+        <v>0.5</v>
+      </c>
+      <c r="C37" s="381">
+        <f>B37/C$6</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="D37" s="102">
+        <f>GECbladedata!$B5*('Main Page'!B$13/2)</f>
+        <v>1.25</v>
+      </c>
+      <c r="E37">
+        <f>GECbladedata!$C5</f>
+        <v>1.349657099314199</v>
+      </c>
+      <c r="F37">
+        <f>'Main Page'!B136-'Main Page'!B$141</f>
+        <v>11.1</v>
+      </c>
+      <c r="G37">
+        <f>'Main Page'!$D136</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38">
+        <v>1.5</v>
+      </c>
+      <c r="C38" s="381">
+        <f t="shared" ref="C38:C51" si="7">B38/C$6</f>
+        <v>0.1</v>
+      </c>
+      <c r="D38" s="102">
+        <f>GECbladedata!$B6*('Main Page'!B$13/2)</f>
+        <v>1.7500000000000002</v>
+      </c>
+      <c r="E38">
+        <f>GECbladedata!$C6</f>
+        <v>1.3496570993141985</v>
+      </c>
+      <c r="F38">
+        <f>'Main Page'!B137-'Main Page'!B$141</f>
+        <v>11.1</v>
+      </c>
+      <c r="G38">
+        <f>'Main Page'!$D137</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39">
+        <v>2.5</v>
+      </c>
+      <c r="C39" s="381">
+        <f t="shared" si="7"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D39" s="102">
+        <f>GECbladedata!$B7*('Main Page'!B$13/2)</f>
+        <v>6.25</v>
+      </c>
+      <c r="E39">
+        <f>GECbladedata!$C7</f>
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <f>'Main Page'!B138-'Main Page'!B$141</f>
+        <v>11.1</v>
+      </c>
+      <c r="G39">
+        <f>'Main Page'!$D138</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40">
+        <v>3.5</v>
+      </c>
+      <c r="C40" s="381">
+        <f t="shared" si="7"/>
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="D40" s="102">
+        <f>GECbladedata!$B8*('Main Page'!B$13/2)</f>
+        <v>12.5</v>
+      </c>
+      <c r="E40">
+        <f>GECbladedata!$C8</f>
+        <v>1.5334010668021336</v>
+      </c>
+      <c r="F40">
+        <f>'Main Page'!B139-'Main Page'!B$141</f>
+        <v>3.1</v>
+      </c>
+      <c r="G40">
+        <f>'Main Page'!$D139</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41">
+        <v>4.5</v>
+      </c>
+      <c r="C41" s="381">
+        <f t="shared" si="7"/>
+        <v>0.3</v>
+      </c>
+      <c r="D41" s="102">
+        <f>GECbladedata!$B9*('Main Page'!B$13/2)</f>
+        <v>18.75</v>
+      </c>
+      <c r="E41">
+        <f>GECbladedata!$C9</f>
+        <v>1.0670561341122682</v>
+      </c>
+      <c r="F41">
+        <f>'Main Page'!B140-'Main Page'!B$141</f>
+        <v>0.6</v>
+      </c>
+      <c r="G41">
+        <f>'Main Page'!$D140</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42">
+        <v>5.5</v>
+      </c>
+      <c r="C42" s="381">
+        <f t="shared" si="7"/>
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="D42" s="102">
+        <f>GECbladedata!$B10*('Main Page'!B$13/2)</f>
+        <v>25</v>
+      </c>
+      <c r="E42">
+        <f>GECbladedata!$C10</f>
+        <v>0.64719329438658879</v>
+      </c>
+      <c r="F42">
+        <f>'Main Page'!B141-'Main Page'!B$141</f>
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f>'Main Page'!$D141</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43">
+        <v>6.5</v>
+      </c>
+      <c r="C43" s="381">
+        <f t="shared" si="7"/>
+        <v>0.43333333333333335</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44">
+        <v>7.5</v>
+      </c>
+      <c r="C44" s="381">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45">
+        <v>8.5</v>
+      </c>
+      <c r="C45" s="381">
+        <f t="shared" si="7"/>
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46">
+        <v>9.5</v>
+      </c>
+      <c r="C46" s="381">
+        <f t="shared" si="7"/>
+        <v>0.6333333333333333</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47">
+        <v>10.5</v>
+      </c>
+      <c r="C47" s="381">
+        <f t="shared" si="7"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48">
+        <v>11.5</v>
+      </c>
+      <c r="C48" s="381">
+        <f t="shared" si="7"/>
+        <v>0.76666666666666672</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49">
+        <v>12.5</v>
+      </c>
+      <c r="C49" s="381">
+        <f t="shared" si="7"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50">
+        <v>13.5</v>
+      </c>
+      <c r="C50" s="381">
+        <f t="shared" si="7"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51">
+        <v>14.5</v>
+      </c>
+      <c r="C51" s="381">
+        <f t="shared" si="7"/>
+        <v>0.96666666666666667</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J27"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="10"/>
   <cols>
-    <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="18" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="18" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="19" max="23" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="B1" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="C1" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -11198,7 +11693,7 @@
         <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="C3" s="18">
         <f>'Main Page'!B13/2</f>
@@ -11233,10 +11728,10 @@
         <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="C4" s="18">
-        <f>'Main Page'!B67/2</f>
+        <f>'Main Page'!B56/2</f>
         <v>1.25</v>
       </c>
       <c r="D4" s="18"/>
@@ -11268,18 +11763,18 @@
         <v>386</v>
       </c>
       <c r="B5" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="C5" s="18">
-        <f>'Main Page'!A162*100</f>
+        <f>'Main Page'!A151*100</f>
         <v>3.8820000000000001</v>
       </c>
       <c r="D5" s="18">
-        <f>'Main Page'!B162*100</f>
+        <f>'Main Page'!B151*100</f>
         <v>3.8820000000000001</v>
       </c>
-      <c r="E5" s="407">
-        <f>'Main Page'!C162*100</f>
+      <c r="E5" s="386">
+        <f>'Main Page'!C151*100</f>
         <v>5.8999999999999995</v>
       </c>
       <c r="F5" s="18"/>
@@ -11300,40 +11795,40 @@
       <c r="U5" s="18"/>
       <c r="V5" s="18"/>
       <c r="W5" s="18"/>
-      <c r="Y5" s="359" t="s">
+      <c r="Y5" s="358" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="B6" t="s">
-        <v>511</v>
-      </c>
-      <c r="C6" s="408" t="s">
-        <v>455</v>
-      </c>
-      <c r="D6" s="408" t="s">
-        <v>512</v>
-      </c>
-      <c r="E6" s="408" t="s">
-        <v>513</v>
-      </c>
-      <c r="F6" s="408" t="s">
-        <v>514</v>
-      </c>
-      <c r="G6" s="408" t="s">
-        <v>515</v>
-      </c>
-      <c r="H6" s="408" t="s">
-        <v>516</v>
-      </c>
-      <c r="I6" s="408" t="s">
-        <v>517</v>
-      </c>
-      <c r="J6" s="408" t="s">
-        <v>518</v>
-      </c>
-      <c r="K6" s="408"/>
-      <c r="L6" s="408"/>
+        <v>493</v>
+      </c>
+      <c r="C6" s="387" t="s">
+        <v>437</v>
+      </c>
+      <c r="D6" s="387" t="s">
+        <v>494</v>
+      </c>
+      <c r="E6" s="387" t="s">
+        <v>495</v>
+      </c>
+      <c r="F6" s="387" t="s">
+        <v>496</v>
+      </c>
+      <c r="G6" s="387" t="s">
+        <v>497</v>
+      </c>
+      <c r="H6" s="387" t="s">
+        <v>498</v>
+      </c>
+      <c r="I6" s="387" t="s">
+        <v>499</v>
+      </c>
+      <c r="J6" s="387" t="s">
+        <v>500</v>
+      </c>
+      <c r="K6" s="387"/>
+      <c r="L6" s="387"/>
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
       <c r="O6" s="18"/>
@@ -11345,45 +11840,45 @@
       <c r="U6" s="18"/>
       <c r="V6" s="18"/>
       <c r="W6" s="18"/>
-      <c r="Y6" s="359" t="s">
+      <c r="Y6" s="358" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="C7" s="408">
+      <c r="C7" s="394">
         <f>GECbladedata!$C28</f>
         <v>0</v>
       </c>
-      <c r="D7" s="410">
+      <c r="D7" s="389">
         <f>0.25+GECbladedata!$Q28/GECbladedata!$P28</f>
         <v>0.25</v>
       </c>
-      <c r="E7" s="410">
+      <c r="E7" s="389">
         <f>GECbladedata!$K28</f>
         <v>11.1</v>
       </c>
-      <c r="F7" s="410">
+      <c r="F7" s="389">
         <f>GECbladedata!$D28</f>
         <v>1181.9474017501359</v>
       </c>
-      <c r="G7" s="411">
+      <c r="G7" s="390">
         <f>GECbladedata!$O28</f>
         <v>2362406058.2721553</v>
       </c>
-      <c r="H7" s="412">
+      <c r="H7" s="391">
         <f>GECbladedata!$N28</f>
         <v>2362406058.2721553</v>
       </c>
-      <c r="I7" s="412">
+      <c r="I7" s="391">
         <f>GECbladedata!$L28</f>
         <v>815590611.695804</v>
       </c>
-      <c r="J7" s="412">
+      <c r="J7" s="391">
         <f>GECbladedata!$M28</f>
         <v>10326627046.93685</v>
       </c>
-      <c r="K7" s="408"/>
-      <c r="L7" s="408"/>
+      <c r="K7" s="387"/>
+      <c r="L7" s="387"/>
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
@@ -11397,40 +11892,40 @@
       <c r="W7" s="18"/>
     </row>
     <row r="8" spans="1:25">
-      <c r="C8" s="408">
+      <c r="C8" s="394">
         <f>GECbladedata!$C29</f>
         <v>2.1052631578947371E-2</v>
       </c>
-      <c r="D8" s="410">
+      <c r="D8" s="389">
         <f>0.25+GECbladedata!$Q29/GECbladedata!$P29</f>
         <v>0.25</v>
       </c>
-      <c r="E8" s="410">
+      <c r="E8" s="389">
         <f>GECbladedata!$K29</f>
         <v>11.1</v>
       </c>
-      <c r="F8" s="410">
+      <c r="F8" s="389">
         <f>GECbladedata!$D29</f>
         <v>89.215305458599687</v>
       </c>
-      <c r="G8" s="411">
+      <c r="G8" s="390">
         <f>GECbladedata!$O29</f>
         <v>292871613.66241747</v>
       </c>
-      <c r="H8" s="412">
+      <c r="H8" s="391">
         <f>GECbladedata!$N29</f>
         <v>292871613.66241747</v>
       </c>
-      <c r="I8" s="412">
+      <c r="I8" s="391">
         <f>GECbladedata!$L29</f>
         <v>102340392.98761402</v>
       </c>
-      <c r="J8" s="412">
+      <c r="J8" s="391">
         <f>GECbladedata!$M29</f>
         <v>1295783621.589889</v>
       </c>
-      <c r="K8" s="408"/>
-      <c r="L8" s="408"/>
+      <c r="K8" s="387"/>
+      <c r="L8" s="387"/>
       <c r="M8" s="18"/>
       <c r="N8" s="18"/>
       <c r="O8" s="18"/>
@@ -11444,40 +11939,40 @@
       <c r="W8" s="18"/>
     </row>
     <row r="9" spans="1:25">
-      <c r="C9" s="408">
+      <c r="C9" s="394">
         <f>GECbladedata!$C30</f>
         <v>5.2631578947368411E-2</v>
       </c>
-      <c r="D9" s="410">
+      <c r="D9" s="389">
         <f>0.25+GECbladedata!$Q30/GECbladedata!$P30</f>
         <v>0.22942453980605074</v>
       </c>
-      <c r="E9" s="410">
+      <c r="E9" s="389">
         <f>GECbladedata!$K30</f>
         <v>11.1</v>
       </c>
-      <c r="F9" s="410">
+      <c r="F9" s="389">
         <f>GECbladedata!$D30</f>
         <v>93.880830674399178</v>
       </c>
-      <c r="G9" s="411">
+      <c r="G9" s="390">
         <f>GECbladedata!$O30</f>
         <v>255926413.53308159</v>
       </c>
-      <c r="H9" s="412">
+      <c r="H9" s="391">
         <f>GECbladedata!$N30</f>
         <v>276174377.7347765</v>
       </c>
-      <c r="I9" s="412">
+      <c r="I9" s="391">
         <f>GECbladedata!$L30</f>
         <v>86293632.699756593</v>
       </c>
-      <c r="J9" s="412">
+      <c r="J9" s="391">
         <f>GECbladedata!$M30</f>
         <v>1335788009.2660363</v>
       </c>
-      <c r="K9" s="408"/>
-      <c r="L9" s="408"/>
+      <c r="K9" s="387"/>
+      <c r="L9" s="387"/>
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
       <c r="O9" s="18"/>
@@ -11491,40 +11986,40 @@
       <c r="W9" s="18"/>
     </row>
     <row r="10" spans="1:25">
-      <c r="C10" s="408">
+      <c r="C10" s="394">
         <f>GECbladedata!$C31</f>
         <v>0.10526315789473684</v>
       </c>
-      <c r="D10" s="410">
+      <c r="D10" s="389">
         <f>0.25+GECbladedata!$Q31/GECbladedata!$P31</f>
         <v>0.20118076605125379</v>
       </c>
-      <c r="E10" s="410">
+      <c r="E10" s="389">
         <f>GECbladedata!$K31</f>
         <v>11.1</v>
       </c>
-      <c r="F10" s="410">
+      <c r="F10" s="389">
         <f>GECbladedata!$D31</f>
         <v>101.65670603406498</v>
       </c>
-      <c r="G10" s="411">
+      <c r="G10" s="390">
         <f>GECbladedata!$O31</f>
         <v>194351079.98418844</v>
       </c>
-      <c r="H10" s="412">
+      <c r="H10" s="391">
         <f>GECbladedata!$N31</f>
         <v>248345651.18870816</v>
       </c>
-      <c r="I10" s="412">
+      <c r="I10" s="391">
         <f>GECbladedata!$L31</f>
         <v>59549032.219994225</v>
       </c>
-      <c r="J10" s="412">
+      <c r="J10" s="391">
         <f>GECbladedata!$M31</f>
         <v>1402461988.7262819</v>
       </c>
-      <c r="K10" s="408"/>
-      <c r="L10" s="408"/>
+      <c r="K10" s="387"/>
+      <c r="L10" s="387"/>
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
       <c r="O10" s="18"/>
@@ -11538,40 +12033,40 @@
       <c r="W10" s="18"/>
     </row>
     <row r="11" spans="1:25">
-      <c r="C11" s="408">
+      <c r="C11" s="394">
         <f>GECbladedata!$C32</f>
         <v>0.15789473684210525</v>
       </c>
-      <c r="D11" s="410">
+      <c r="D11" s="389">
         <f>0.25+GECbladedata!$Q32/GECbladedata!$P32</f>
         <v>0.17854587760800433</v>
       </c>
-      <c r="E11" s="410">
+      <c r="E11" s="389">
         <f>GECbladedata!$K32</f>
         <v>11.1</v>
       </c>
-      <c r="F11" s="410">
+      <c r="F11" s="389">
         <f>GECbladedata!$D32</f>
         <v>109.4325813937308</v>
       </c>
-      <c r="G11" s="411">
+      <c r="G11" s="390">
         <f>GECbladedata!$O32</f>
         <v>132775746.43529522</v>
       </c>
-      <c r="H11" s="412">
+      <c r="H11" s="391">
         <f>GECbladedata!$N32</f>
         <v>220516924.64263982</v>
       </c>
-      <c r="I11" s="412">
+      <c r="I11" s="391">
         <f>GECbladedata!$L32</f>
         <v>32804431.740231842</v>
       </c>
-      <c r="J11" s="412">
+      <c r="J11" s="391">
         <f>GECbladedata!$M32</f>
         <v>1469135968.1865273</v>
       </c>
-      <c r="K11" s="408"/>
-      <c r="L11" s="408"/>
+      <c r="K11" s="387"/>
+      <c r="L11" s="387"/>
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
       <c r="O11" s="18"/>
@@ -11585,40 +12080,40 @@
       <c r="W11" s="18"/>
     </row>
     <row r="12" spans="1:25">
-      <c r="C12" s="408">
+      <c r="C12" s="394">
         <f>GECbladedata!$C33</f>
         <v>0.21052631578947367</v>
       </c>
-      <c r="D12" s="410">
+      <c r="D12" s="389">
         <f>0.25+GECbladedata!$Q33/GECbladedata!$P33</f>
         <v>0.15999999999999998</v>
       </c>
-      <c r="E12" s="410">
+      <c r="E12" s="389">
         <f>GECbladedata!$K33</f>
         <v>11.1</v>
       </c>
-      <c r="F12" s="410">
+      <c r="F12" s="389">
         <f>GECbladedata!$D33</f>
         <v>117.20845675339662</v>
       </c>
-      <c r="G12" s="411">
+      <c r="G12" s="390">
         <f>GECbladedata!$O33</f>
         <v>71200412.886402056</v>
       </c>
-      <c r="H12" s="412">
+      <c r="H12" s="391">
         <f>GECbladedata!$N33</f>
         <v>192688198.09657151</v>
       </c>
-      <c r="I12" s="412">
+      <c r="I12" s="391">
         <f>GECbladedata!$L33</f>
         <v>6059831.2604694702</v>
       </c>
-      <c r="J12" s="412">
+      <c r="J12" s="391">
         <f>GECbladedata!$M33</f>
         <v>1535809947.6467729</v>
       </c>
-      <c r="K12" s="408"/>
-      <c r="L12" s="408"/>
+      <c r="K12" s="387"/>
+      <c r="L12" s="387"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
@@ -11632,343 +12127,343 @@
       <c r="W12" s="18"/>
     </row>
     <row r="13" spans="1:25">
-      <c r="C13" s="408">
+      <c r="C13" s="394">
         <f>GECbladedata!$C34</f>
         <v>0.26315789473684209</v>
       </c>
-      <c r="D13" s="410">
+      <c r="D13" s="389">
         <f>0.25+GECbladedata!$Q34/GECbladedata!$P34</f>
         <v>0.16482535368875387</v>
       </c>
-      <c r="E13" s="410">
+      <c r="E13" s="389">
         <f>GECbladedata!$K34</f>
         <v>9.5</v>
       </c>
-      <c r="F13" s="410">
+      <c r="F13" s="389">
         <f>GECbladedata!$D34</f>
         <v>110.35787927472171</v>
       </c>
-      <c r="G13" s="411">
+      <c r="G13" s="390">
         <f>GECbladedata!$O34</f>
         <v>61417696.521534123</v>
       </c>
-      <c r="H13" s="412">
+      <c r="H13" s="391">
         <f>GECbladedata!$N34</f>
         <v>169973932.22807014</v>
       </c>
-      <c r="I13" s="412">
+      <c r="I13" s="391">
         <f>GECbladedata!$L34</f>
         <v>5425015.4541809028</v>
       </c>
-      <c r="J13" s="412">
+      <c r="J13" s="391">
         <f>GECbladedata!$M34</f>
         <v>1447589040.0417631</v>
       </c>
     </row>
     <row r="14" spans="1:25">
-      <c r="C14" s="408">
+      <c r="C14" s="394">
         <f>GECbladedata!$C35</f>
         <v>0.31578947368421051</v>
       </c>
-      <c r="D14" s="410">
+      <c r="D14" s="389">
         <f>0.25+GECbladedata!$Q35/GECbladedata!$P35</f>
         <v>0.17014735544598833</v>
       </c>
-      <c r="E14" s="410">
+      <c r="E14" s="389">
         <f>GECbladedata!$K35</f>
         <v>7.9</v>
       </c>
-      <c r="F14" s="410">
+      <c r="F14" s="389">
         <f>GECbladedata!$D35</f>
         <v>103.50730179604682</v>
       </c>
-      <c r="G14" s="411">
+      <c r="G14" s="390">
         <f>GECbladedata!$O35</f>
         <v>51634980.156666189</v>
       </c>
-      <c r="H14" s="412">
+      <c r="H14" s="391">
         <f>GECbladedata!$N35</f>
         <v>147259666.3595688</v>
       </c>
-      <c r="I14" s="412">
+      <c r="I14" s="391">
         <f>GECbladedata!$L35</f>
         <v>4790199.6478923345</v>
       </c>
-      <c r="J14" s="412">
+      <c r="J14" s="391">
         <f>GECbladedata!$M35</f>
         <v>1359368132.4367533</v>
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="C15" s="408">
+      <c r="C15" s="394">
         <f>GECbladedata!$C36</f>
         <v>0.36842105263157893</v>
       </c>
-      <c r="D15" s="410">
+      <c r="D15" s="389">
         <f>0.25+GECbladedata!$Q36/GECbladedata!$P36</f>
         <v>0.17604684131250181</v>
       </c>
-      <c r="E15" s="410">
+      <c r="E15" s="389">
         <f>GECbladedata!$K36</f>
         <v>6.2999999999999989</v>
       </c>
-      <c r="F15" s="410">
+      <c r="F15" s="389">
         <f>GECbladedata!$D36</f>
         <v>96.656724317371896</v>
       </c>
-      <c r="G15" s="411">
+      <c r="G15" s="390">
         <f>GECbladedata!$O36</f>
         <v>41852263.791798249</v>
       </c>
-      <c r="H15" s="412">
+      <c r="H15" s="391">
         <f>GECbladedata!$N36</f>
         <v>124545400.49106742</v>
       </c>
-      <c r="I15" s="412">
+      <c r="I15" s="391">
         <f>GECbladedata!$L36</f>
         <v>4155383.8416037662</v>
       </c>
-      <c r="J15" s="412">
+      <c r="J15" s="391">
         <f>GECbladedata!$M36</f>
         <v>1271147224.8317432</v>
       </c>
     </row>
     <row r="16" spans="1:25">
-      <c r="C16" s="408">
+      <c r="C16" s="394">
         <f>GECbladedata!$C37</f>
         <v>0.42105263157894735</v>
       </c>
-      <c r="D16" s="410">
+      <c r="D16" s="389">
         <f>0.25+GECbladedata!$Q37/GECbladedata!$P37</f>
         <v>0.18262319655237025</v>
       </c>
-      <c r="E16" s="410">
+      <c r="E16" s="389">
         <f>GECbladedata!$K37</f>
         <v>4.6999999999999993</v>
       </c>
-      <c r="F16" s="410">
+      <c r="F16" s="389">
         <f>GECbladedata!$D37</f>
         <v>89.806146838697003</v>
       </c>
-      <c r="G16" s="411">
+      <c r="G16" s="390">
         <f>GECbladedata!$O37</f>
         <v>32069547.426930316</v>
       </c>
-      <c r="H16" s="412">
+      <c r="H16" s="391">
         <f>GECbladedata!$N37</f>
         <v>101831134.62256606</v>
       </c>
-      <c r="I16" s="412">
+      <c r="I16" s="391">
         <f>GECbladedata!$L37</f>
         <v>3520568.0353151988</v>
       </c>
-      <c r="J16" s="412">
+      <c r="J16" s="391">
         <f>GECbladedata!$M37</f>
         <v>1182926317.2267334</v>
       </c>
     </row>
     <row r="17" spans="2:23">
-      <c r="C17" s="408">
+      <c r="C17" s="394">
         <f>GECbladedata!$C38</f>
         <v>0.47368421052631576</v>
       </c>
-      <c r="D17" s="410">
+      <c r="D17" s="389">
         <f>0.25+GECbladedata!$Q38/GECbladedata!$P38</f>
         <v>0.19</v>
       </c>
-      <c r="E17" s="410">
+      <c r="E17" s="389">
         <f>GECbladedata!$K38</f>
         <v>3.1</v>
       </c>
-      <c r="F17" s="410">
+      <c r="F17" s="389">
         <f>GECbladedata!$D38</f>
         <v>82.955569360022096</v>
       </c>
-      <c r="G17" s="411">
+      <c r="G17" s="390">
         <f>GECbladedata!$O38</f>
         <v>22286831.062062379</v>
       </c>
-      <c r="H17" s="412">
+      <c r="H17" s="391">
         <f>GECbladedata!$N38</f>
         <v>79116868.754064709</v>
       </c>
-      <c r="I17" s="412">
+      <c r="I17" s="391">
         <f>GECbladedata!$L38</f>
         <v>2885752.229026631</v>
       </c>
-      <c r="J17" s="412">
+      <c r="J17" s="391">
         <f>GECbladedata!$M38</f>
         <v>1094705409.6217237</v>
       </c>
     </row>
     <row r="18" spans="2:23">
-      <c r="C18" s="408">
+      <c r="C18" s="394">
         <f>GECbladedata!$C39</f>
         <v>0.52631578947368418</v>
       </c>
-      <c r="D18" s="410">
+      <c r="D18" s="389">
         <f>0.25+GECbladedata!$Q39/GECbladedata!$P39</f>
         <v>0.19444565945888745</v>
       </c>
-      <c r="E18" s="410">
+      <c r="E18" s="389">
         <f>GECbladedata!$K39</f>
         <v>2.5999999999999996</v>
       </c>
-      <c r="F18" s="410">
+      <c r="F18" s="389">
         <f>GECbladedata!$D39</f>
         <v>74.190377902510207</v>
       </c>
-      <c r="G18" s="411">
+      <c r="G18" s="390">
         <f>GECbladedata!$O39</f>
         <v>18539309.239150856</v>
       </c>
-      <c r="H18" s="412">
+      <c r="H18" s="391">
         <f>GECbladedata!$N39</f>
         <v>67558106.97317256</v>
       </c>
-      <c r="I18" s="412">
+      <c r="I18" s="391">
         <f>GECbladedata!$L39</f>
         <v>2423588.3923425623</v>
       </c>
-      <c r="J18" s="412">
+      <c r="J18" s="391">
         <f>GECbladedata!$M39</f>
         <v>975582982.3339535</v>
       </c>
     </row>
     <row r="19" spans="2:23">
-      <c r="C19" s="408">
+      <c r="C19" s="394">
         <f>GECbladedata!$C40</f>
         <v>0.57894736842105254</v>
       </c>
-      <c r="D19" s="410">
+      <c r="D19" s="389">
         <f>0.25+GECbladedata!$Q40/GECbladedata!$P40</f>
         <v>0.19950703428506769</v>
       </c>
-      <c r="E19" s="410">
+      <c r="E19" s="389">
         <f>GECbladedata!$K40</f>
         <v>2.1000000000000005</v>
       </c>
-      <c r="F19" s="410">
+      <c r="F19" s="389">
         <f>GECbladedata!$D40</f>
         <v>65.425186444998332</v>
       </c>
-      <c r="G19" s="411">
+      <c r="G19" s="390">
         <f>GECbladedata!$O40</f>
         <v>14791787.416239344</v>
       </c>
-      <c r="H19" s="412">
+      <c r="H19" s="391">
         <f>GECbladedata!$N40</f>
         <v>55999345.192280442</v>
       </c>
-      <c r="I19" s="412">
+      <c r="I19" s="391">
         <f>GECbladedata!$L40</f>
         <v>1961424.5556584948</v>
       </c>
-      <c r="J19" s="412">
+      <c r="J19" s="391">
         <f>GECbladedata!$M40</f>
         <v>856460555.04618359</v>
       </c>
     </row>
     <row r="20" spans="2:23">
-      <c r="B20" s="359"/>
-      <c r="C20" s="408">
+      <c r="B20" s="358"/>
+      <c r="C20" s="394">
         <f>GECbladedata!$C41</f>
         <v>0.63157894736842102</v>
       </c>
-      <c r="D20" s="410">
+      <c r="D20" s="389">
         <f>0.25+GECbladedata!$Q41/GECbladedata!$P41</f>
         <v>0.20532155448393241</v>
       </c>
-      <c r="E20" s="410">
+      <c r="E20" s="389">
         <f>GECbladedata!$K41</f>
         <v>1.5999999999999999</v>
       </c>
-      <c r="F20" s="410">
+      <c r="F20" s="389">
         <f>GECbladedata!$D41</f>
         <v>56.659994987486449</v>
       </c>
-      <c r="G20" s="411">
+      <c r="G20" s="390">
         <f>GECbladedata!$O41</f>
         <v>11044265.59332782</v>
       </c>
-      <c r="H20" s="412">
+      <c r="H20" s="391">
         <f>GECbladedata!$N41</f>
         <v>44440583.411388293</v>
       </c>
-      <c r="I20" s="412">
+      <c r="I20" s="391">
         <f>GECbladedata!$L41</f>
         <v>1499260.7189744262</v>
       </c>
-      <c r="J20" s="412">
+      <c r="J20" s="391">
         <f>GECbladedata!$M41</f>
         <v>737338127.75841331</v>
       </c>
     </row>
     <row r="21" spans="2:23">
-      <c r="B21" s="359"/>
-      <c r="C21" s="408">
+      <c r="B21" s="358"/>
+      <c r="C21" s="394">
         <f>GECbladedata!$C42</f>
         <v>0.68421052631578938</v>
       </c>
-      <c r="D21" s="410">
+      <c r="D21" s="389">
         <f>0.25+GECbladedata!$Q42/GECbladedata!$P42</f>
         <v>0.21207083752900485</v>
       </c>
-      <c r="E21" s="410">
+      <c r="E21" s="389">
         <f>GECbladedata!$K42</f>
         <v>1.1000000000000005</v>
       </c>
-      <c r="F21" s="410">
+      <c r="F21" s="389">
         <f>GECbladedata!$D42</f>
         <v>47.894803529974581</v>
       </c>
-      <c r="G21" s="411">
+      <c r="G21" s="390">
         <f>GECbladedata!$O42</f>
         <v>7296743.7704163063</v>
       </c>
-      <c r="H21" s="412">
+      <c r="H21" s="391">
         <f>GECbladedata!$N42</f>
         <v>32881821.630496174</v>
       </c>
-      <c r="I21" s="412">
+      <c r="I21" s="391">
         <f>GECbladedata!$L42</f>
         <v>1037096.8822903587</v>
       </c>
-      <c r="J21" s="412">
+      <c r="J21" s="391">
         <f>GECbladedata!$M42</f>
         <v>618215700.47064352</v>
       </c>
     </row>
     <row r="22" spans="2:23">
-      <c r="C22" s="408">
+      <c r="C22" s="394">
         <f>GECbladedata!$C43</f>
         <v>0.73684210526315785</v>
       </c>
-      <c r="D22" s="410">
+      <c r="D22" s="389">
         <f>0.25+GECbladedata!$Q43/GECbladedata!$P43</f>
         <v>0.21999999999999997</v>
       </c>
-      <c r="E22" s="410">
+      <c r="E22" s="389">
         <f>GECbladedata!$K43</f>
         <v>0.6</v>
       </c>
-      <c r="F22" s="410">
+      <c r="F22" s="389">
         <f>GECbladedata!$D43</f>
         <v>39.129612072462692</v>
       </c>
-      <c r="G22" s="411">
+      <c r="G22" s="390">
         <f>GECbladedata!$O43</f>
         <v>3549221.9475047868</v>
       </c>
-      <c r="H22" s="412">
+      <c r="H22" s="391">
         <f>GECbladedata!$N43</f>
         <v>21323059.849604025</v>
       </c>
-      <c r="I22" s="412">
+      <c r="I22" s="391">
         <f>GECbladedata!$L43</f>
         <v>574933.04560629011</v>
       </c>
-      <c r="J22" s="412">
+      <c r="J22" s="391">
         <f>GECbladedata!$M43</f>
         <v>499093273.18287331</v>
       </c>
@@ -11987,862 +12482,177 @@
       <c r="W22" s="102"/>
     </row>
     <row r="23" spans="2:23">
-      <c r="C23" s="408">
+      <c r="C23" s="394">
         <f>GECbladedata!$C44</f>
         <v>0.78947368421052622</v>
       </c>
-      <c r="D23" s="410">
+      <c r="D23" s="389">
         <f>0.25+GECbladedata!$Q44/GECbladedata!$P44</f>
         <v>0.22394997933030175</v>
       </c>
-      <c r="E23" s="410">
+      <c r="E23" s="389">
         <f>GECbladedata!$K44</f>
         <v>0.47999999999999987</v>
       </c>
-      <c r="F23" s="410">
+      <c r="F23" s="389">
         <f>GECbladedata!$D44</f>
         <v>32.853968916831455</v>
       </c>
-      <c r="G23" s="411">
+      <c r="G23" s="390">
         <f>GECbladedata!$O44</f>
         <v>2855339.8778221109</v>
       </c>
-      <c r="H23" s="412">
+      <c r="H23" s="391">
         <f>GECbladedata!$N44</f>
         <v>17598898.043764457</v>
       </c>
-      <c r="I23" s="412">
+      <c r="I23" s="391">
         <f>GECbladedata!$L44</f>
         <v>472175.70936429268</v>
       </c>
-      <c r="J23" s="412">
+      <c r="J23" s="391">
         <f>GECbladedata!$M44</f>
         <v>415421497.16283596</v>
       </c>
     </row>
     <row r="24" spans="2:23">
-      <c r="C24" s="408">
+      <c r="C24" s="394">
         <f>GECbladedata!$C45</f>
         <v>0.84210526315789458</v>
       </c>
-      <c r="D24" s="410">
+      <c r="D24" s="389">
         <f>0.25+GECbladedata!$Q45/GECbladedata!$P45</f>
         <v>0.22863777614554492</v>
       </c>
-      <c r="E24" s="410">
+      <c r="E24" s="389">
         <f>GECbladedata!$K45</f>
         <v>0.36000000000000004</v>
       </c>
-      <c r="F24" s="410">
+      <c r="F24" s="389">
         <f>GECbladedata!$D45</f>
         <v>26.57832576120024</v>
       </c>
-      <c r="G24" s="411">
+      <c r="G24" s="390">
         <f>GECbladedata!$O45</f>
         <v>2161457.8081394369</v>
       </c>
-      <c r="H24" s="412">
+      <c r="H24" s="391">
         <f>GECbladedata!$N45</f>
         <v>13874736.2379249</v>
       </c>
-      <c r="I24" s="412">
+      <c r="I24" s="391">
         <f>GECbladedata!$L45</f>
         <v>369418.37312229548</v>
       </c>
-      <c r="J24" s="412">
+      <c r="J24" s="391">
         <f>GECbladedata!$M45</f>
         <v>331749721.14279878</v>
       </c>
     </row>
     <row r="25" spans="2:23">
-      <c r="C25" s="408">
+      <c r="C25" s="394">
         <f>GECbladedata!$C46</f>
         <v>0.89473684210526305</v>
       </c>
-      <c r="D25" s="410">
+      <c r="D25" s="389">
         <f>0.25+GECbladedata!$Q46/GECbladedata!$P46</f>
         <v>0.23429141218995386</v>
       </c>
-      <c r="E25" s="410">
+      <c r="E25" s="389">
         <f>GECbladedata!$K46</f>
         <v>0.23999999999999994</v>
       </c>
-      <c r="F25" s="410">
+      <c r="F25" s="389">
         <f>GECbladedata!$D46</f>
         <v>20.302682605569004</v>
       </c>
-      <c r="G25" s="411">
+      <c r="G25" s="390">
         <f>GECbladedata!$O46</f>
         <v>1467575.738456761</v>
       </c>
-      <c r="H25" s="412">
+      <c r="H25" s="391">
         <f>GECbladedata!$N46</f>
         <v>10150574.432085332</v>
       </c>
-      <c r="I25" s="412">
+      <c r="I25" s="391">
         <f>GECbladedata!$L46</f>
         <v>266661.03688029811</v>
       </c>
-      <c r="J25" s="412">
+      <c r="J25" s="391">
         <f>GECbladedata!$M46</f>
         <v>248077945.1227614</v>
       </c>
     </row>
     <row r="26" spans="2:23">
-      <c r="C26" s="408">
+      <c r="C26" s="394">
         <f>GECbladedata!$C47</f>
         <v>0.94736842105263142</v>
       </c>
-      <c r="D26" s="410">
+      <c r="D26" s="389">
         <f>0.25+GECbladedata!$Q47/GECbladedata!$P47</f>
         <v>0.24124366011255469</v>
       </c>
-      <c r="E26" s="410">
+      <c r="E26" s="389">
         <f>GECbladedata!$K47</f>
         <v>0.12000000000000011</v>
       </c>
-      <c r="F26" s="410">
+      <c r="F26" s="389">
         <f>GECbladedata!$D47</f>
         <v>14.027039449937785</v>
       </c>
-      <c r="G26" s="411">
+      <c r="G26" s="390">
         <f>GECbladedata!$O47</f>
         <v>773693.66877408698</v>
       </c>
-      <c r="H26" s="412">
+      <c r="H26" s="391">
         <f>GECbladedata!$N47</f>
         <v>6426412.6262457725</v>
       </c>
-      <c r="I26" s="412">
+      <c r="I26" s="391">
         <f>GECbladedata!$L47</f>
         <v>163903.70063830091</v>
       </c>
-      <c r="J26" s="412">
+      <c r="J26" s="391">
         <f>GECbladedata!$M47</f>
         <v>164406169.10272419</v>
       </c>
     </row>
     <row r="27" spans="2:23">
-      <c r="C27" s="408">
+      <c r="C27" s="394">
         <f>GECbladedata!$C48</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="D27" s="410">
+      <c r="D27" s="389">
         <f>0.25+GECbladedata!$Q48/GECbladedata!$P48</f>
         <v>0.25</v>
       </c>
-      <c r="E27" s="410">
+      <c r="E27" s="389">
         <f>GECbladedata!$K48</f>
         <v>0</v>
       </c>
-      <c r="F27" s="410">
+      <c r="F27" s="389">
         <f>GECbladedata!$D48</f>
         <v>7.751396294306554</v>
       </c>
-      <c r="G27" s="411">
+      <c r="G27" s="390">
         <f>GECbladedata!$O48</f>
         <v>79811.599091411103</v>
       </c>
-      <c r="H27" s="412">
+      <c r="H27" s="391">
         <f>GECbladedata!$N48</f>
         <v>2702250.8204062055</v>
       </c>
-      <c r="I27" s="412">
+      <c r="I27" s="391">
         <f>GECbladedata!$L48</f>
         <v>61146.36439630347</v>
       </c>
-      <c r="J27" s="412">
+      <c r="J27" s="391">
         <f>GECbladedata!$M48</f>
         <v>80734393.082686871</v>
       </c>
     </row>
     <row r="29" spans="2:23">
-      <c r="D29" s="404"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G51"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
-  <cols>
-    <col min="2" max="7" width="15.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>446</v>
-      </c>
-      <c r="B1" t="s">
-        <v>447</v>
-      </c>
-      <c r="C1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" t="s">
-        <v>445</v>
-      </c>
-      <c r="C3" s="18">
-        <f>'Main Page'!B17</f>
-        <v>1.2250000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>480</v>
-      </c>
-      <c r="B4" t="s">
-        <v>520</v>
-      </c>
-      <c r="C4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>449</v>
-      </c>
-      <c r="B5" t="s">
-        <v>453</v>
-      </c>
-      <c r="C5" s="18" t="str">
-        <f>'Main Page'!C155</f>
-        <v>cylinder</v>
-      </c>
-      <c r="D5" s="18" t="str">
-        <f>'Main Page'!C156</f>
-        <v>s818_2703.dat</v>
-      </c>
-      <c r="E5" s="18" t="str">
-        <f>'Main Page'!C157</f>
-        <v>s825_2103.dat</v>
-      </c>
-      <c r="F5" s="18" t="str">
-        <f>'Main Page'!C158</f>
-        <v>s826_1603.dat</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>449</v>
-      </c>
-      <c r="B6" t="s">
-        <v>525</v>
-      </c>
-      <c r="C6" s="18">
-        <v>15</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" t="s">
-        <v>521</v>
-      </c>
-      <c r="C7" t="s">
-        <v>519</v>
-      </c>
-      <c r="D7" t="s">
-        <v>522</v>
-      </c>
-      <c r="E7" t="s">
-        <v>523</v>
-      </c>
-      <c r="F7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="C8" s="385">
-        <f>C37*('Main Page'!B$13/2-'Main Page'!B$67/2) + 'Main Page'!B$67/2</f>
-        <v>2.0416666666666665</v>
-      </c>
-      <c r="D8" s="383">
-        <f>(F39-F38)/($D39-$D38)*($C8-$D39)+F38</f>
-        <v>11.1</v>
-      </c>
-      <c r="E8">
-        <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$67/2)</f>
-        <v>1.5833333333333333</v>
-      </c>
-      <c r="F8" s="383">
-        <f>(E$39-E$38)/(D$39-D$38)*(C8-D$38)+E$38</f>
-        <v>1.3918089539882783</v>
-      </c>
-      <c r="G8">
-        <f>ROUND((G$39-G$38)/(D$39-D$38)*(C8-D$38)+G$38,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="C9" s="385">
-        <f>C38*('Main Page'!B$13/2-'Main Page'!B$67/2) + 'Main Page'!B$67/2</f>
-        <v>3.625</v>
-      </c>
-      <c r="D9" s="383">
-        <f>(F39-F38)/($D39-$D38)*($C9-$D39)+F38</f>
-        <v>11.1</v>
-      </c>
-      <c r="E9">
-        <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$67/2)</f>
-        <v>1.5833333333333333</v>
-      </c>
-      <c r="F9" s="383">
-        <f t="shared" ref="F9:F10" si="0">(E$39-E$38)/(D$39-D$38)*(C9-D$38)+E$38</f>
-        <v>1.6206333079332824</v>
-      </c>
-      <c r="G9">
-        <f>ROUNDUP((G$39-G$38)/(D$39-D$38)*(C9-D$38)+G$38,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="C10" s="385">
-        <f>C39*('Main Page'!B$13/2-'Main Page'!B$67/2) + 'Main Page'!B$67/2</f>
-        <v>5.208333333333333</v>
-      </c>
-      <c r="D10" s="383">
-        <f>(F39-F38)/($D39-$D38)*($C10-$D39)+F38</f>
-        <v>11.1</v>
-      </c>
-      <c r="E10">
-        <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$67/2)</f>
-        <v>1.5833333333333333</v>
-      </c>
-      <c r="F10" s="383">
-        <f>(E$39-E$38)/(D$39-D$38)*(C10-D$38)+E$38</f>
-        <v>1.8494576618782865</v>
-      </c>
-      <c r="G10">
-        <f>ROUND((G$39-G$38)/(D$39-D$38)*(C10-D$38)+G$38,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="C11" s="385">
-        <f>C40*('Main Page'!B$13/2-'Main Page'!B$67/2) + 'Main Page'!B$67/2</f>
-        <v>6.791666666666667</v>
-      </c>
-      <c r="D11" s="383">
-        <f>(F40-F39)/($D40-$D39)*($C11-$D39)+F39</f>
-        <v>10.406666666666666</v>
-      </c>
-      <c r="E11">
-        <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$67/2)</f>
-        <v>1.5833333333333333</v>
-      </c>
-      <c r="F11" s="383">
-        <f>(E$40-E$39)/(D$40-D$39)*(C11-D$39)+E$39</f>
-        <v>1.9595614257895182</v>
-      </c>
-      <c r="G11">
-        <f>ROUND((G$40-G$39)/(D$40-D$39)*(C11-D$39)+G$39,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="C12" s="385">
-        <f>C41*('Main Page'!B$13/2-'Main Page'!B$67/2) + 'Main Page'!B$67/2</f>
-        <v>8.375</v>
-      </c>
-      <c r="D12" s="383">
-        <f>(F40-F39)/($D40-$D39)*($C12-$D39)+F39</f>
-        <v>8.379999999999999</v>
-      </c>
-      <c r="E12">
-        <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$67/2)</f>
-        <v>1.5833333333333333</v>
-      </c>
-      <c r="F12" s="383">
-        <f t="shared" ref="F12:F14" si="1">(E$40-E$39)/(D$40-D$39)*(C12-D$39)+E$39</f>
-        <v>1.8413563627127254</v>
-      </c>
-      <c r="G12">
-        <f t="shared" ref="G12:G15" si="2">ROUND((G$40-G$39)/(D$40-D$39)*(C12-D$39)+G$39,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="C13" s="385">
-        <f>C42*('Main Page'!B$13/2-'Main Page'!B$67/2) + 'Main Page'!B$67/2</f>
-        <v>9.9583333333333321</v>
-      </c>
-      <c r="D13" s="383">
-        <f>(F40-F39)/($D40-$D39)*($C13-$D39)+F39</f>
-        <v>6.3533333333333344</v>
-      </c>
-      <c r="E13">
-        <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$67/2)</f>
-        <v>1.5833333333333333</v>
-      </c>
-      <c r="F13" s="383">
-        <f t="shared" si="1"/>
-        <v>1.7231512996359326</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="C14" s="385">
-        <f>C43*('Main Page'!B$13/2-'Main Page'!B$67/2) + 'Main Page'!B$67/2</f>
-        <v>11.541666666666668</v>
-      </c>
-      <c r="D14" s="383">
-        <f>(F40-F39)/($D40-$D39)*($C14-$D39)+F39</f>
-        <v>4.3266666666666644</v>
-      </c>
-      <c r="E14">
-        <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$67/2)</f>
-        <v>1.5833333333333333</v>
-      </c>
-      <c r="F14" s="383">
-        <f>(E$40-E$39)/(D$40-D$39)*(C14-D$39)+E$39</f>
-        <v>1.6049462365591398</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="C15" s="385">
-        <f>C44*('Main Page'!B$13/2-'Main Page'!B$67/2) + 'Main Page'!B$67/2</f>
-        <v>13.125</v>
-      </c>
-      <c r="D15" s="383">
-        <f>(F41-F40)/($D41-$D40)*($C15-$D40)+F40</f>
-        <v>2.85</v>
-      </c>
-      <c r="E15">
-        <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$67/2)</f>
-        <v>1.5833333333333333</v>
-      </c>
-      <c r="F15" s="383">
-        <f>(E$41-E$40)/(D$41-D$40)*(C15-D$40)+E$40</f>
-        <v>1.486766573533147</v>
-      </c>
-      <c r="G15">
-        <f>ROUND((G$41-G$40)/(D$41-D$40)*(C15-D$40)+G$40,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="C16" s="385">
-        <f>C45*('Main Page'!B$13/2-'Main Page'!B$67/2) + 'Main Page'!B$67/2</f>
-        <v>14.708333333333332</v>
-      </c>
-      <c r="D16" s="383">
-        <f>(F41-F40)/($D41-$D40)*($C16-$D40)+F40</f>
-        <v>2.2166666666666672</v>
-      </c>
-      <c r="E16">
-        <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$67/2)</f>
-        <v>1.5833333333333333</v>
-      </c>
-      <c r="F16" s="383">
-        <f t="shared" ref="F16:F18" si="3">(E$41-E$40)/(D$41-D$40)*(C16-D$40)+E$40</f>
-        <v>1.3686258572517147</v>
-      </c>
-      <c r="G16">
-        <f t="shared" ref="G16:G19" si="4">ROUND((G$41-G$40)/(D$41-D$40)*(C16-D$40)+G$40,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7">
-      <c r="C17" s="385">
-        <f>C46*('Main Page'!B$13/2-'Main Page'!B$67/2) + 'Main Page'!B$67/2</f>
-        <v>16.291666666666664</v>
-      </c>
-      <c r="D17" s="383">
-        <f>(F41-F40)/($D41-$D40)*($C17-$D40)+F40</f>
-        <v>1.5833333333333344</v>
-      </c>
-      <c r="E17">
-        <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$67/2)</f>
-        <v>1.5833333333333333</v>
-      </c>
-      <c r="F17" s="383">
-        <f t="shared" si="3"/>
-        <v>1.2504851409702822</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7">
-      <c r="C18" s="385">
-        <f>C47*('Main Page'!B$13/2-'Main Page'!B$67/2) + 'Main Page'!B$67/2</f>
-        <v>17.875</v>
-      </c>
-      <c r="D18" s="383">
-        <f>(F41-F40)/($D41-$D40)*($C18-$D40)+F40</f>
-        <v>0.95000000000000018</v>
-      </c>
-      <c r="E18">
-        <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$67/2)</f>
-        <v>1.5833333333333333</v>
-      </c>
-      <c r="F18" s="383">
-        <f t="shared" si="3"/>
-        <v>1.1323444246888494</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7">
-      <c r="C19" s="385">
-        <f>C48*('Main Page'!B$13/2-'Main Page'!B$67/2) + 'Main Page'!B$67/2</f>
-        <v>19.458333333333336</v>
-      </c>
-      <c r="D19" s="383">
-        <f>(F42-F41)/($D42-$D41)*($C19-$D41)+F41</f>
-        <v>0.53199999999999981</v>
-      </c>
-      <c r="E19">
-        <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$67/2)</f>
-        <v>1.5833333333333333</v>
-      </c>
-      <c r="F19" s="383">
-        <f>(E$42-E$41)/(D$42-D$41)*(C19-D$41)+E$41</f>
-        <v>1.0194716789433578</v>
-      </c>
-      <c r="G19">
-        <f>ROUND((G$42-G$41)/(D$42-D$41)*(C19-D$41)+G$41,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7">
-      <c r="C20" s="385">
-        <f>C49*('Main Page'!B$13/2-'Main Page'!B$67/2) + 'Main Page'!B$67/2</f>
-        <v>21.041666666666668</v>
-      </c>
-      <c r="D20" s="383">
-        <f>(F42-F41)/($D42-$D41)*($C20-$D41)+F41</f>
-        <v>0.37999999999999989</v>
-      </c>
-      <c r="E20">
-        <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$67/2)</f>
-        <v>1.5833333333333333</v>
-      </c>
-      <c r="F20" s="383">
-        <f t="shared" ref="F20:F22" si="5">(E$42-E$41)/(D$42-D$41)*(C20-D$41)+E$41</f>
-        <v>0.91310642621285232</v>
-      </c>
-      <c r="G20">
-        <f t="shared" ref="G20:G22" si="6">ROUND((G$42-G$41)/(D$42-D$41)*(C20-D$41)+G$41,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7">
-      <c r="C21" s="385">
-        <f>C50*('Main Page'!B$13/2-'Main Page'!B$67/2) + 'Main Page'!B$67/2</f>
-        <v>22.625</v>
-      </c>
-      <c r="D21" s="383">
-        <f>(F42-F41)/($D42-$D41)*($C21-$D41)+F41</f>
-        <v>0.22799999999999998</v>
-      </c>
-      <c r="E21">
-        <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$67/2)</f>
-        <v>1.5833333333333333</v>
-      </c>
-      <c r="F21" s="383">
-        <f t="shared" si="5"/>
-        <v>0.80674117348234697</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7">
-      <c r="C22" s="385">
-        <f>C51*('Main Page'!B$13/2-'Main Page'!B$67/2) + 'Main Page'!B$67/2</f>
-        <v>24.208333333333332</v>
-      </c>
-      <c r="D22" s="383">
-        <f>(F42-F41)/($D42-$D41)*($C22-$D41)+F41</f>
-        <v>7.6000000000000068E-2</v>
-      </c>
-      <c r="E22">
-        <f>(1/$C$6)*('Main Page'!B$13/2-'Main Page'!B$67/2)</f>
-        <v>1.5833333333333333</v>
-      </c>
-      <c r="F22" s="383">
-        <f t="shared" si="5"/>
-        <v>0.70037592075184163</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36" t="s">
-        <v>526</v>
-      </c>
-      <c r="E36" t="s">
-        <v>88</v>
-      </c>
-      <c r="F36" t="s">
-        <v>363</v>
-      </c>
-      <c r="G36" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="B37">
-        <v>0.5</v>
-      </c>
-      <c r="C37" s="384">
-        <f>B37/C$6</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="D37" s="102">
-        <f>GECbladedata!$B5*('Main Page'!B$13/2)</f>
-        <v>1.25</v>
-      </c>
-      <c r="E37">
-        <f>GECbladedata!$C5</f>
-        <v>1.349657099314199</v>
-      </c>
-      <c r="F37">
-        <f>'Main Page'!B147-'Main Page'!B$152</f>
-        <v>11.1</v>
-      </c>
-      <c r="G37">
-        <f>'Main Page'!$D147</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38">
-        <v>1.5</v>
-      </c>
-      <c r="C38" s="384">
-        <f t="shared" ref="C38:C51" si="7">B38/C$6</f>
-        <v>0.1</v>
-      </c>
-      <c r="D38" s="102">
-        <f>GECbladedata!$B6*('Main Page'!B$13/2)</f>
-        <v>1.7500000000000002</v>
-      </c>
-      <c r="E38">
-        <f>GECbladedata!$C6</f>
-        <v>1.3496570993141985</v>
-      </c>
-      <c r="F38">
-        <f>'Main Page'!B148-'Main Page'!B$152</f>
-        <v>11.1</v>
-      </c>
-      <c r="G38">
-        <f>'Main Page'!$D148</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="B39">
-        <v>2.5</v>
-      </c>
-      <c r="C39" s="384">
-        <f t="shared" si="7"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D39" s="102">
-        <f>GECbladedata!$B7*('Main Page'!B$13/2)</f>
-        <v>6.25</v>
-      </c>
-      <c r="E39">
-        <f>GECbladedata!$C7</f>
-        <v>2</v>
-      </c>
-      <c r="F39">
-        <f>'Main Page'!B149-'Main Page'!B$152</f>
-        <v>11.1</v>
-      </c>
-      <c r="G39">
-        <f>'Main Page'!$D149</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="B40">
-        <v>3.5</v>
-      </c>
-      <c r="C40" s="384">
-        <f t="shared" si="7"/>
-        <v>0.23333333333333334</v>
-      </c>
-      <c r="D40" s="102">
-        <f>GECbladedata!$B8*('Main Page'!B$13/2)</f>
-        <v>12.5</v>
-      </c>
-      <c r="E40">
-        <f>GECbladedata!$C8</f>
-        <v>1.5334010668021336</v>
-      </c>
-      <c r="F40">
-        <f>'Main Page'!B150-'Main Page'!B$152</f>
-        <v>3.1</v>
-      </c>
-      <c r="G40">
-        <f>'Main Page'!$D150</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7">
-      <c r="B41">
-        <v>4.5</v>
-      </c>
-      <c r="C41" s="384">
-        <f t="shared" si="7"/>
-        <v>0.3</v>
-      </c>
-      <c r="D41" s="102">
-        <f>GECbladedata!$B9*('Main Page'!B$13/2)</f>
-        <v>18.75</v>
-      </c>
-      <c r="E41">
-        <f>GECbladedata!$C9</f>
-        <v>1.0670561341122682</v>
-      </c>
-      <c r="F41">
-        <f>'Main Page'!B151-'Main Page'!B$152</f>
-        <v>0.6</v>
-      </c>
-      <c r="G41">
-        <f>'Main Page'!$D151</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="B42">
-        <v>5.5</v>
-      </c>
-      <c r="C42" s="384">
-        <f t="shared" si="7"/>
-        <v>0.36666666666666664</v>
-      </c>
-      <c r="D42" s="102">
-        <f>GECbladedata!$B10*('Main Page'!B$13/2)</f>
-        <v>25</v>
-      </c>
-      <c r="E42">
-        <f>GECbladedata!$C10</f>
-        <v>0.64719329438658879</v>
-      </c>
-      <c r="F42">
-        <f>'Main Page'!B152-'Main Page'!B$152</f>
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <f>'Main Page'!$D152</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7">
-      <c r="B43">
-        <v>6.5</v>
-      </c>
-      <c r="C43" s="384">
-        <f t="shared" si="7"/>
-        <v>0.43333333333333335</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7">
-      <c r="B44">
-        <v>7.5</v>
-      </c>
-      <c r="C44" s="384">
-        <f t="shared" si="7"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7">
-      <c r="B45">
-        <v>8.5</v>
-      </c>
-      <c r="C45" s="384">
-        <f t="shared" si="7"/>
-        <v>0.56666666666666665</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7">
-      <c r="B46">
-        <v>9.5</v>
-      </c>
-      <c r="C46" s="384">
-        <f t="shared" si="7"/>
-        <v>0.6333333333333333</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7">
-      <c r="B47">
-        <v>10.5</v>
-      </c>
-      <c r="C47" s="384">
-        <f t="shared" si="7"/>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7">
-      <c r="B48">
-        <v>11.5</v>
-      </c>
-      <c r="C48" s="384">
-        <f t="shared" si="7"/>
-        <v>0.76666666666666672</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3">
-      <c r="B49">
-        <v>12.5</v>
-      </c>
-      <c r="C49" s="384">
-        <f t="shared" si="7"/>
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3">
-      <c r="B50">
-        <v>13.5</v>
-      </c>
-      <c r="C50" s="384">
-        <f t="shared" si="7"/>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3">
-      <c r="B51">
-        <v>14.5</v>
-      </c>
-      <c r="C51" s="384">
-        <f t="shared" si="7"/>
-        <v>0.96666666666666667</v>
-      </c>
+      <c r="D29" s="383"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12851,276 +12661,235 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A2:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="10"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
-        <v>446</v>
-      </c>
-      <c r="B1" t="s">
-        <v>447</v>
-      </c>
-      <c r="C1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="K3" s="380"/>
+      <c r="L3" s="377"/>
+      <c r="M3" s="377"/>
+      <c r="N3" s="358"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C4" s="101">
+        <f>'Main Page'!B87</f>
+        <v>1800</v>
+      </c>
+      <c r="K4" s="380"/>
+      <c r="L4" s="377"/>
+      <c r="M4" s="377"/>
+      <c r="N4" s="358"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>510</v>
+      </c>
+      <c r="B5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C5" s="381">
+        <f>'Main Page'!$B$31</f>
+        <v>4188.2879761025097</v>
+      </c>
+      <c r="K5" s="380"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>453</v>
+      </c>
+      <c r="B6" t="s">
+        <v>452</v>
+      </c>
+      <c r="C6" s="382">
+        <f>'Main Page'!B43</f>
+        <v>1.2926814741057128E-3</v>
+      </c>
+      <c r="K6" s="380"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>444</v>
+      </c>
+      <c r="B7" t="s">
+        <v>509</v>
+      </c>
+      <c r="C7" s="382">
+        <v>2.6</v>
+      </c>
+      <c r="K7" s="380"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B8" t="s">
+        <v>454</v>
+      </c>
+      <c r="C8">
+        <f>'Main Page'!$B$29</f>
+        <v>28.647889756541161</v>
+      </c>
+      <c r="E8" t="s">
+        <v>464</v>
+      </c>
+      <c r="K8" s="380"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>444</v>
+      </c>
+      <c r="B9" t="s">
+        <v>455</v>
+      </c>
+      <c r="C9" s="102">
+        <f>'Main Page'!$B$34</f>
+        <v>2.6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>465</v>
+      </c>
+      <c r="K9" s="380"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>444</v>
+      </c>
+      <c r="B10" t="s">
+        <v>456</v>
+      </c>
+      <c r="C10" s="102">
+        <f>'Main Page'!$B$35</f>
+        <v>90</v>
+      </c>
+      <c r="E10" t="s">
+        <v>466</v>
+      </c>
+      <c r="K10" s="380"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>462</v>
+      </c>
+      <c r="B11" t="s">
+        <v>457</v>
+      </c>
+      <c r="C11">
+        <f>'Main Page'!$B$40</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>467</v>
+      </c>
+      <c r="K11" s="380"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>463</v>
+      </c>
+      <c r="B12" t="s">
+        <v>458</v>
+      </c>
+      <c r="C12">
+        <f>'Main Page'!$B$37*PI()/180</f>
+        <v>4.5378560551852569E-2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>468</v>
+      </c>
+      <c r="K12" s="380"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>463</v>
+      </c>
+      <c r="B13" t="s">
+        <v>459</v>
+      </c>
+      <c r="C13">
+        <f>'Main Page'!$B$38*PI()/180</f>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="E13" t="s">
+        <v>469</v>
+      </c>
+      <c r="K13" s="380"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>431</v>
+      </c>
+      <c r="B14" t="s">
+        <v>460</v>
+      </c>
+      <c r="C14">
+        <f>1/C12^C15</f>
+        <v>0.21302244142778143</v>
+      </c>
+      <c r="E14" t="s">
+        <v>470</v>
+      </c>
+      <c r="K14" s="380"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>431</v>
+      </c>
+      <c r="B15" t="s">
         <v>461</v>
       </c>
-      <c r="C3" s="384">
-        <f>'Main Page'!B72</f>
-        <v>-2.33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" t="s">
-        <v>490</v>
-      </c>
-      <c r="C4" s="384">
-        <f>('Main Page'!B5*'Main Page'!E5+'Main Page'!B6*'Main Page'!E6+'Main Page'!B7*'Main Page'!E7)/C11</f>
-        <v>-5.9950003076370724E-2</v>
-      </c>
-      <c r="I4" s="102"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" t="s">
-        <v>492</v>
-      </c>
-      <c r="C5" s="384">
-        <f>('Main Page'!C5*'Main Page'!E5+'Main Page'!C6*'Main Page'!E6+'Main Page'!C7*'Main Page'!E7)/C11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" t="s">
-        <v>491</v>
-      </c>
-      <c r="C6" s="384">
-        <f>('Main Page'!D5*'Main Page'!E5+'Main Page'!D6*'Main Page'!E6+'Main Page'!D7*'Main Page'!E7)/C11+'Main Page'!B57</f>
-        <v>1.2043279805609703</v>
-      </c>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" t="s">
-        <v>459</v>
-      </c>
-      <c r="C7" s="384">
-        <f>'Main Page'!B9-'Main Page'!B57</f>
-        <v>58.67</v>
-      </c>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" t="s">
-        <v>460</v>
-      </c>
-      <c r="C8" s="384">
-        <f>'Main Page'!B57</f>
-        <v>1.33</v>
-      </c>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>462</v>
-      </c>
-      <c r="B9" t="s">
-        <v>464</v>
-      </c>
-      <c r="C9" s="384">
-        <f>-'Main Page'!B11</f>
-        <v>-5</v>
-      </c>
-      <c r="I9" s="103"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>462</v>
-      </c>
-      <c r="B10" t="s">
-        <v>463</v>
-      </c>
-      <c r="C10" s="384">
-        <f>-'Main Page'!B18</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="103"/>
-      <c r="M10" s="359"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B11" t="s">
-        <v>493</v>
-      </c>
-      <c r="C11" s="384">
-        <f>SUM('Main Page'!E5+'Main Page'!E6+'Main Page'!E7)</f>
-        <v>20950.244259671897</v>
-      </c>
-      <c r="I11" s="103"/>
-      <c r="M11" s="359"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" t="s">
-        <v>465</v>
-      </c>
-      <c r="C12" s="384">
-        <f>'Main Page'!E8</f>
-        <v>6573.9348557027251</v>
-      </c>
-      <c r="I12" s="103"/>
-      <c r="M12" s="359"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>450</v>
-      </c>
-      <c r="B13" t="s">
-        <v>466</v>
-      </c>
-      <c r="C13" s="384">
-        <f>SUM('Main Page'!H5:H7)</f>
-        <v>8623.1244137844569</v>
-      </c>
-      <c r="I13" s="103"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>450</v>
-      </c>
-      <c r="B14" t="s">
-        <v>494</v>
-      </c>
-      <c r="C14" s="384">
-        <f>SUM(GECdrivetrain!M11:'GECdrivetrain'!M12)/('Main Page'!$B$99)^2</f>
-        <v>16.651119676874973</v>
-      </c>
-      <c r="I14" s="103"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>450</v>
-      </c>
-      <c r="B15" t="s">
-        <v>467</v>
-      </c>
-      <c r="C15" s="384">
-        <f>GECdrivetrain!M5</f>
-        <v>5160.9544585651756</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>449</v>
-      </c>
-      <c r="B16" t="s">
-        <v>495</v>
-      </c>
-      <c r="C16">
-        <f>'Main Page'!B19</f>
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" t="s">
-        <v>449</v>
-      </c>
-      <c r="B17" t="s">
-        <v>496</v>
-      </c>
-      <c r="C17">
-        <f>'Main Page'!$B$99</f>
-        <v>62.831853071795862</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" t="s">
-        <v>498</v>
-      </c>
-      <c r="B18" t="s">
-        <v>497</v>
-      </c>
-      <c r="C18">
-        <f>'Main Page'!B14</f>
-        <v>129646444.93189973</v>
-      </c>
-      <c r="I18" s="103"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" t="s">
-        <v>499</v>
-      </c>
-      <c r="B19" t="s">
-        <v>500</v>
-      </c>
-      <c r="C19">
-        <f>2*'Main Page'!B15/100*SQRT(C18*'Main Page'!B16*C14*C17^2/('Main Page'!B16+C14*C17^2))</f>
-        <v>278494.4553663737</v>
-      </c>
-      <c r="I19" s="103"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" t="s">
-        <v>501</v>
-      </c>
-      <c r="B20" t="s">
-        <v>502</v>
-      </c>
-      <c r="C20" s="333">
-        <f>'Main Page'!B103*1000</f>
-        <v>750000</v>
-      </c>
-      <c r="M20" s="359"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="I21" s="103"/>
-      <c r="M21" s="359"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="I22" s="103"/>
-      <c r="M22" s="359"/>
+      <c r="C15">
+        <f>'Main Page'!$B$39</f>
+        <v>-0.5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>471</v>
+      </c>
+      <c r="K15" s="380"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="K16" s="380"/>
+    </row>
+    <row r="17" spans="11:11">
+      <c r="K17" s="102"/>
+    </row>
+    <row r="19" spans="11:11">
+      <c r="K19" s="381"/>
+    </row>
+    <row r="20" spans="11:11">
+      <c r="K20" s="102"/>
+    </row>
+    <row r="21" spans="11:11">
+      <c r="K21" s="102"/>
+    </row>
+    <row r="22" spans="11:11">
+      <c r="K22" s="102"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13129,352 +12898,276 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="10"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C3" s="381">
+        <f>'Main Page'!B61</f>
+        <v>-2.33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>472</v>
+      </c>
+      <c r="C4" s="381">
+        <f>('Main Page'!B5*'Main Page'!E5+'Main Page'!B6*'Main Page'!E6+'Main Page'!B7*'Main Page'!E7)/C11</f>
+        <v>-5.9950003076370724E-2</v>
+      </c>
+      <c r="I4" s="102"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>474</v>
+      </c>
+      <c r="C5" s="381">
+        <f>('Main Page'!C5*'Main Page'!E5+'Main Page'!C6*'Main Page'!E6+'Main Page'!C7*'Main Page'!E7)/C11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
+        <v>473</v>
+      </c>
+      <c r="C6" s="381">
+        <f>('Main Page'!D5*'Main Page'!E5+'Main Page'!D6*'Main Page'!E6+'Main Page'!D7*'Main Page'!E7)/C11+'Main Page'!B46</f>
+        <v>1.2043279805609703</v>
+      </c>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" t="s">
+        <v>441</v>
+      </c>
+      <c r="C7" s="381">
+        <f>'Main Page'!B9-'Main Page'!B46</f>
+        <v>58.67</v>
+      </c>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C8" s="381">
+        <f>'Main Page'!B46</f>
+        <v>1.33</v>
+      </c>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>444</v>
+      </c>
+      <c r="B9" t="s">
         <v>446</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C9" s="381">
+        <f>-'Main Page'!B11</f>
+        <v>-5</v>
+      </c>
+      <c r="I9" s="103"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>444</v>
+      </c>
+      <c r="B10" t="s">
+        <v>445</v>
+      </c>
+      <c r="C10" s="381">
+        <f>-'Main Page'!B18</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="103"/>
+      <c r="M10" s="358"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" t="s">
+        <v>475</v>
+      </c>
+      <c r="C11" s="381">
+        <f>SUM('Main Page'!E5+'Main Page'!E6+'Main Page'!E7)</f>
+        <v>20950.244259671897</v>
+      </c>
+      <c r="I11" s="103"/>
+      <c r="M11" s="358"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" t="s">
         <v>447</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C12" s="381">
+        <f>'Main Page'!E8</f>
+        <v>6573.9348557027251</v>
+      </c>
+      <c r="I12" s="103"/>
+      <c r="M12" s="358"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>432</v>
+      </c>
+      <c r="B13" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" t="s">
-        <v>386</v>
-      </c>
-      <c r="B3" t="s">
-        <v>503</v>
-      </c>
-      <c r="C3" s="103">
-        <f>'Main Page'!B165*100</f>
-        <v>3.4350000000000001</v>
-      </c>
-      <c r="D3" s="103">
-        <f>'Main Page'!B166*100</f>
-        <v>3.4350000000000001</v>
-      </c>
-      <c r="E3" s="103">
-        <f>'Main Page'!B167*100</f>
-        <v>3.4350000000000001</v>
-      </c>
-      <c r="F3" s="103">
-        <f>'Main Page'!B168*100</f>
-        <v>3.4350000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="B4" t="s">
-        <v>504</v>
-      </c>
-      <c r="C4" t="s">
-        <v>510</v>
-      </c>
-      <c r="D4" t="s">
-        <v>505</v>
-      </c>
-      <c r="E4" t="s">
-        <v>506</v>
-      </c>
-      <c r="F4" t="s">
-        <v>507</v>
-      </c>
-      <c r="G4" t="s">
-        <v>508</v>
-      </c>
-      <c r="H4" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="C5" s="379">
-        <f>GECtwrdata!$A15</f>
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <f>GECtwrdata!$G15</f>
-        <v>1456.5699814057803</v>
-      </c>
-      <c r="E5" s="409">
-        <f>GECtwrdata!$N15</f>
-        <v>62126221909.368462</v>
-      </c>
-      <c r="F5" s="409">
-        <f>GECtwrdata!$N15</f>
-        <v>62126221909.368462</v>
-      </c>
-      <c r="G5" s="409">
-        <f>GECtwrdata!$K15</f>
-        <v>47789401468.744972</v>
-      </c>
-      <c r="H5" s="409">
-        <f>GECtwrdata!$H15</f>
-        <v>35342917352.88517</v>
-      </c>
-      <c r="N5" s="359"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="C6" s="379">
-        <f>GECtwrdata!$A16</f>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="D6">
-        <f>GECtwrdata!$G16</f>
-        <v>1319.6643913839366</v>
-      </c>
-      <c r="E6" s="409">
-        <f>GECtwrdata!$N16</f>
-        <v>50601045349.013542</v>
-      </c>
-      <c r="F6" s="409">
-        <f>GECtwrdata!$N16</f>
-        <v>50601045349.013542</v>
-      </c>
-      <c r="G6" s="409">
-        <f>GECtwrdata!$K16</f>
-        <v>38923881037.702721</v>
-      </c>
-      <c r="H6" s="409">
-        <f>GECtwrdata!$H16</f>
-        <v>32020974009.92263</v>
-      </c>
-      <c r="N6" s="359"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="C7" s="379">
-        <f>GECtwrdata!$A17</f>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="D7">
-        <f>GECtwrdata!$G17</f>
-        <v>1189.4722103298889</v>
-      </c>
-      <c r="E7" s="409">
-        <f>GECtwrdata!$N17</f>
-        <v>40756895137.180222</v>
-      </c>
-      <c r="F7" s="409">
-        <f>GECtwrdata!$N17</f>
-        <v>40756895137.180222</v>
-      </c>
-      <c r="G7" s="409">
-        <f>GECtwrdata!$K17</f>
-        <v>31351457797.830936</v>
-      </c>
-      <c r="H7" s="409">
-        <f>GECtwrdata!$H17</f>
-        <v>28861928063.812893</v>
-      </c>
-      <c r="N7" s="359"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="C8" s="379">
-        <f>GECtwrdata!$A18</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D8">
-        <f>GECtwrdata!$G18</f>
-        <v>1065.9934382436375</v>
-      </c>
-      <c r="E8" s="409">
-        <f>GECtwrdata!$N18</f>
-        <v>32422036127.620483</v>
-      </c>
-      <c r="F8" s="409">
-        <f>GECtwrdata!$N18</f>
-        <v>32422036127.620483</v>
-      </c>
-      <c r="G8" s="409">
-        <f>GECtwrdata!$K18</f>
-        <v>24940027790.477295</v>
-      </c>
-      <c r="H8" s="409">
-        <f>GECtwrdata!$H18</f>
-        <v>25865779514.555958</v>
-      </c>
-      <c r="N8" s="359"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="C9" s="379">
-        <f>GECtwrdata!$A19</f>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="D9">
-        <f>GECtwrdata!$G19</f>
-        <v>949.2280751251825</v>
-      </c>
-      <c r="E9" s="409">
-        <f>GECtwrdata!$N19</f>
-        <v>25433971568.120796</v>
-      </c>
-      <c r="F9" s="409">
-        <f>GECtwrdata!$N19</f>
-        <v>25433971568.120796</v>
-      </c>
-      <c r="G9" s="409">
-        <f>GECtwrdata!$K19</f>
-        <v>19564593513.939072</v>
-      </c>
-      <c r="H9" s="409">
-        <f>GECtwrdata!$H19</f>
-        <v>23032528362.151833</v>
-      </c>
-      <c r="N9" s="359"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="C10" s="379">
-        <f>GECtwrdata!$A20</f>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="D10">
-        <f>GECtwrdata!$G20</f>
-        <v>839.17612097452354</v>
-      </c>
-      <c r="E10" s="409">
-        <f>GECtwrdata!$N20</f>
-        <v>19639443100.502033</v>
-      </c>
-      <c r="F10" s="409">
-        <f>GECtwrdata!$N20</f>
-        <v>19639443100.502033</v>
-      </c>
-      <c r="G10" s="409">
-        <f>GECtwrdata!$K20</f>
-        <v>15107263923.4631</v>
-      </c>
-      <c r="H10" s="409">
-        <f>GECtwrdata!$H20</f>
-        <v>20362174606.60051</v>
-      </c>
-      <c r="N10" s="359"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="C11" s="379">
-        <f>GECtwrdata!$A21</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D11">
-        <f>GECtwrdata!$G21</f>
-        <v>735.83757579166081</v>
-      </c>
-      <c r="E11" s="409">
-        <f>GECtwrdata!$N21</f>
-        <v>14894430760.619625</v>
-      </c>
-      <c r="F11" s="409">
-        <f>GECtwrdata!$N21</f>
-        <v>14894430760.619625</v>
-      </c>
-      <c r="G11" s="409">
-        <f>GECtwrdata!$K21</f>
-        <v>11457254431.245865</v>
-      </c>
-      <c r="H11" s="409">
-        <f>GECtwrdata!$H21</f>
-        <v>17854718247.901989</v>
-      </c>
-      <c r="N11" s="359"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="C12" s="379">
-        <f>GECtwrdata!$A22</f>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="D12">
-        <f>GECtwrdata!$G22</f>
-        <v>639.21243957659442</v>
-      </c>
-      <c r="E12" s="409">
-        <f>GECtwrdata!$N22</f>
-        <v>11064152978.363453</v>
-      </c>
-      <c r="F12" s="409">
-        <f>GECtwrdata!$N22</f>
-        <v>11064152978.363453</v>
-      </c>
-      <c r="G12" s="409">
-        <f>GECtwrdata!$K22</f>
-        <v>8510886906.433424</v>
-      </c>
-      <c r="H12" s="409">
-        <f>GECtwrdata!$H22</f>
-        <v>15510159286.056276</v>
-      </c>
-      <c r="N12" s="359"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="C13" s="379">
-        <f>GECtwrdata!$A23</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="D13">
-        <f>GECtwrdata!$G23</f>
-        <v>549.3007123293238</v>
-      </c>
-      <c r="E13" s="409">
-        <f>GECtwrdata!$N23</f>
-        <v>8023066577.657836</v>
-      </c>
-      <c r="F13" s="409">
-        <f>GECtwrdata!$N23</f>
-        <v>8023066577.657836</v>
-      </c>
-      <c r="G13" s="409">
-        <f>GECtwrdata!$K23</f>
-        <v>6171589675.1214123</v>
-      </c>
-      <c r="H13" s="409">
-        <f>GECtwrdata!$H23</f>
-        <v>13328497721.063362</v>
-      </c>
-      <c r="N13" s="359"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="C14" s="379">
-        <f>GECtwrdata!$A24</f>
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <f>GECtwrdata!$G24</f>
-        <v>466.10239404984969</v>
-      </c>
-      <c r="E14" s="409">
-        <f>GECtwrdata!$N24</f>
-        <v>5654866776.461628</v>
-      </c>
-      <c r="F14" s="409">
-        <f>GECtwrdata!$N24</f>
-        <v>5654866776.461628</v>
-      </c>
-      <c r="G14" s="409">
-        <f>GECtwrdata!$K24</f>
-        <v>4349897520.3550978</v>
-      </c>
-      <c r="H14" s="409">
-        <f>GECtwrdata!$H24</f>
-        <v>11309733552.923256</v>
-      </c>
-      <c r="I14" s="378"/>
-      <c r="J14" s="378"/>
-      <c r="K14" s="378"/>
-      <c r="L14" s="378"/>
-      <c r="N14" s="359"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="N15" s="359"/>
+      <c r="C13" s="381">
+        <f>SUM('Main Page'!H5:H7)</f>
+        <v>8623.1244137844569</v>
+      </c>
+      <c r="I13" s="103"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>432</v>
+      </c>
+      <c r="B14" t="s">
+        <v>476</v>
+      </c>
+      <c r="C14" s="381">
+        <f>SUM(GECdrivetrain!M11:'GECdrivetrain'!M12)/('Main Page'!$B$88)^2</f>
+        <v>16.651119676874973</v>
+      </c>
+      <c r="I14" s="103"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>432</v>
+      </c>
+      <c r="B15" t="s">
+        <v>449</v>
+      </c>
+      <c r="C15" s="381">
+        <f>GECdrivetrain!M5</f>
+        <v>5160.9544585651756</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>431</v>
+      </c>
+      <c r="B16" t="s">
+        <v>477</v>
+      </c>
+      <c r="C16" s="393">
+        <f>'Main Page'!B19*100</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>431</v>
+      </c>
+      <c r="B17" t="s">
+        <v>478</v>
+      </c>
+      <c r="C17">
+        <f>'Main Page'!$B$88</f>
+        <v>62.831853071795862</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>480</v>
+      </c>
+      <c r="B18" t="s">
+        <v>479</v>
+      </c>
+      <c r="C18">
+        <f>'Main Page'!B14</f>
+        <v>129646444.93189973</v>
+      </c>
+      <c r="I18" s="103"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>481</v>
+      </c>
+      <c r="B19" t="s">
+        <v>482</v>
+      </c>
+      <c r="C19">
+        <f>2*'Main Page'!B15/100*SQRT(C18*'Main Page'!B16*C14*C17^2/('Main Page'!B16+C14*C17^2))</f>
+        <v>278494.4553663737</v>
+      </c>
+      <c r="I19" s="103"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>483</v>
+      </c>
+      <c r="B20" t="s">
+        <v>484</v>
+      </c>
+      <c r="C20" s="333">
+        <f>'Main Page'!B92*1000</f>
+        <v>750000</v>
+      </c>
+      <c r="M20" s="358"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="I21" s="103"/>
+      <c r="M21" s="358"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="I22" s="103"/>
+      <c r="M22" s="358"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13483,232 +13176,352 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N22"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="10"/>
   <cols>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
-        <v>446</v>
-      </c>
-      <c r="B2" t="s">
-        <v>447</v>
-      </c>
-      <c r="C2" t="s">
-        <v>448</v>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C1" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="K3" s="383"/>
-      <c r="L3" s="378"/>
-      <c r="M3" s="378"/>
-      <c r="N3" s="359"/>
+      <c r="A3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C3" s="103">
+        <f>'Main Page'!B154*100</f>
+        <v>3.4350000000000001</v>
+      </c>
+      <c r="D3" s="103">
+        <f>'Main Page'!B155*100</f>
+        <v>3.4350000000000001</v>
+      </c>
+      <c r="E3" s="103">
+        <f>'Main Page'!B156*100</f>
+        <v>3.4350000000000001</v>
+      </c>
+      <c r="F3" s="103">
+        <f>'Main Page'!B157*100</f>
+        <v>3.4350000000000001</v>
+      </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" t="s">
-        <v>395</v>
-      </c>
       <c r="B4" t="s">
-        <v>468</v>
-      </c>
-      <c r="C4" s="101">
-        <f>'Main Page'!B98</f>
-        <v>1800</v>
-      </c>
-      <c r="K4" s="383"/>
-      <c r="L4" s="378"/>
-      <c r="M4" s="378"/>
-      <c r="N4" s="359"/>
+        <v>486</v>
+      </c>
+      <c r="C4" t="s">
+        <v>492</v>
+      </c>
+      <c r="D4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E4" t="s">
+        <v>488</v>
+      </c>
+      <c r="F4" t="s">
+        <v>489</v>
+      </c>
+      <c r="G4" t="s">
+        <v>490</v>
+      </c>
+      <c r="H4" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="B5" t="s">
-        <v>469</v>
-      </c>
-      <c r="C5" s="384">
-        <f>'Main Page'!$B$31</f>
-        <v>4188.2879761025097</v>
-      </c>
-      <c r="K5" s="383"/>
+      <c r="C5" s="380">
+        <f>GECtwrdata!$B15/9</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>GECtwrdata!$G15</f>
+        <v>1456.5699814057803</v>
+      </c>
+      <c r="E5" s="388">
+        <f>GECtwrdata!$N15</f>
+        <v>62126221909.368462</v>
+      </c>
+      <c r="F5" s="388">
+        <f>GECtwrdata!$N15</f>
+        <v>62126221909.368462</v>
+      </c>
+      <c r="G5" s="388">
+        <f>GECtwrdata!$K15</f>
+        <v>47789401468.744972</v>
+      </c>
+      <c r="H5" s="388">
+        <f>GECtwrdata!$H15</f>
+        <v>35342917352.88517</v>
+      </c>
+      <c r="N5" s="358"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" t="s">
-        <v>471</v>
-      </c>
-      <c r="B6" t="s">
-        <v>470</v>
-      </c>
-      <c r="C6" s="385">
-        <f>'Main Page'!B50</f>
-        <v>1.2926814741057128E-3</v>
-      </c>
-      <c r="K6" s="383"/>
+      <c r="C6" s="380">
+        <f>GECtwrdata!$B16/9</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D6">
+        <f>GECtwrdata!$G16</f>
+        <v>1319.6643913839366</v>
+      </c>
+      <c r="E6" s="388">
+        <f>GECtwrdata!$N16</f>
+        <v>50601045349.013542</v>
+      </c>
+      <c r="F6" s="388">
+        <f>GECtwrdata!$N16</f>
+        <v>50601045349.013542</v>
+      </c>
+      <c r="G6" s="388">
+        <f>GECtwrdata!$K16</f>
+        <v>38923881037.702721</v>
+      </c>
+      <c r="H6" s="388">
+        <f>GECtwrdata!$H16</f>
+        <v>32020974009.92263</v>
+      </c>
+      <c r="N6" s="358"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" t="s">
-        <v>462</v>
-      </c>
-      <c r="B7" t="s">
-        <v>527</v>
-      </c>
-      <c r="C7" s="385">
-        <v>2.6</v>
-      </c>
-      <c r="K7" s="383"/>
+      <c r="C7" s="380">
+        <f>GECtwrdata!$B17/9</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D7">
+        <f>GECtwrdata!$G17</f>
+        <v>1189.4722103298889</v>
+      </c>
+      <c r="E7" s="388">
+        <f>GECtwrdata!$N17</f>
+        <v>40756895137.180222</v>
+      </c>
+      <c r="F7" s="388">
+        <f>GECtwrdata!$N17</f>
+        <v>40756895137.180222</v>
+      </c>
+      <c r="G7" s="388">
+        <f>GECtwrdata!$K17</f>
+        <v>31351457797.830936</v>
+      </c>
+      <c r="H7" s="388">
+        <f>GECtwrdata!$H17</f>
+        <v>28861928063.812893</v>
+      </c>
+      <c r="N7" s="358"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" t="s">
-        <v>395</v>
-      </c>
-      <c r="B8" t="s">
-        <v>472</v>
-      </c>
-      <c r="C8">
-        <f>'Main Page'!$B$29</f>
-        <v>28.647889756541161</v>
-      </c>
-      <c r="E8" t="s">
-        <v>482</v>
-      </c>
-      <c r="K8" s="383"/>
+      <c r="C8" s="380">
+        <f>GECtwrdata!$B18/9</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D8">
+        <f>GECtwrdata!$G18</f>
+        <v>1065.9934382436375</v>
+      </c>
+      <c r="E8" s="388">
+        <f>GECtwrdata!$N18</f>
+        <v>32422036127.620483</v>
+      </c>
+      <c r="F8" s="388">
+        <f>GECtwrdata!$N18</f>
+        <v>32422036127.620483</v>
+      </c>
+      <c r="G8" s="388">
+        <f>GECtwrdata!$K18</f>
+        <v>24940027790.477295</v>
+      </c>
+      <c r="H8" s="388">
+        <f>GECtwrdata!$H18</f>
+        <v>25865779514.555958</v>
+      </c>
+      <c r="N8" s="358"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" t="s">
-        <v>462</v>
-      </c>
-      <c r="B9" t="s">
-        <v>473</v>
-      </c>
-      <c r="C9" s="102">
-        <f>'Main Page'!$B$34</f>
-        <v>2.6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>483</v>
-      </c>
-      <c r="K9" s="383"/>
+      <c r="C9" s="380">
+        <f>GECtwrdata!$B19/9</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D9">
+        <f>GECtwrdata!$G19</f>
+        <v>949.2280751251825</v>
+      </c>
+      <c r="E9" s="388">
+        <f>GECtwrdata!$N19</f>
+        <v>25433971568.120796</v>
+      </c>
+      <c r="F9" s="388">
+        <f>GECtwrdata!$N19</f>
+        <v>25433971568.120796</v>
+      </c>
+      <c r="G9" s="388">
+        <f>GECtwrdata!$K19</f>
+        <v>19564593513.939072</v>
+      </c>
+      <c r="H9" s="388">
+        <f>GECtwrdata!$H19</f>
+        <v>23032528362.151833</v>
+      </c>
+      <c r="N9" s="358"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" t="s">
-        <v>462</v>
-      </c>
-      <c r="B10" t="s">
-        <v>474</v>
-      </c>
-      <c r="C10" s="102">
-        <f>'Main Page'!$B$35</f>
-        <v>90</v>
-      </c>
-      <c r="E10" t="s">
-        <v>484</v>
-      </c>
-      <c r="K10" s="383"/>
+      <c r="C10" s="380">
+        <f>GECtwrdata!$B20/9</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="D10">
+        <f>GECtwrdata!$G20</f>
+        <v>839.17612097452354</v>
+      </c>
+      <c r="E10" s="388">
+        <f>GECtwrdata!$N20</f>
+        <v>19639443100.502033</v>
+      </c>
+      <c r="F10" s="388">
+        <f>GECtwrdata!$N20</f>
+        <v>19639443100.502033</v>
+      </c>
+      <c r="G10" s="388">
+        <f>GECtwrdata!$K20</f>
+        <v>15107263923.4631</v>
+      </c>
+      <c r="H10" s="388">
+        <f>GECtwrdata!$H20</f>
+        <v>20362174606.60051</v>
+      </c>
+      <c r="N10" s="358"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" t="s">
-        <v>480</v>
-      </c>
-      <c r="B11" t="s">
-        <v>475</v>
-      </c>
-      <c r="C11">
-        <f>'Main Page'!$B$44</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>485</v>
-      </c>
-      <c r="K11" s="383"/>
+      <c r="C11" s="380">
+        <f>GECtwrdata!$B21/9</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D11">
+        <f>GECtwrdata!$G21</f>
+        <v>735.83757579166081</v>
+      </c>
+      <c r="E11" s="388">
+        <f>GECtwrdata!$N21</f>
+        <v>14894430760.619625</v>
+      </c>
+      <c r="F11" s="388">
+        <f>GECtwrdata!$N21</f>
+        <v>14894430760.619625</v>
+      </c>
+      <c r="G11" s="388">
+        <f>GECtwrdata!$K21</f>
+        <v>11457254431.245865</v>
+      </c>
+      <c r="H11" s="388">
+        <f>GECtwrdata!$H21</f>
+        <v>17854718247.901989</v>
+      </c>
+      <c r="N11" s="358"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" t="s">
-        <v>481</v>
-      </c>
-      <c r="B12" t="s">
-        <v>476</v>
-      </c>
-      <c r="C12">
-        <f>'Main Page'!$B$41*PI()/180</f>
-        <v>4.5378560551852569E-2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>486</v>
-      </c>
-      <c r="K12" s="383"/>
+      <c r="C12" s="380">
+        <f>GECtwrdata!$B22/9</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="D12">
+        <f>GECtwrdata!$G22</f>
+        <v>639.21243957659442</v>
+      </c>
+      <c r="E12" s="388">
+        <f>GECtwrdata!$N22</f>
+        <v>11064152978.363453</v>
+      </c>
+      <c r="F12" s="388">
+        <f>GECtwrdata!$N22</f>
+        <v>11064152978.363453</v>
+      </c>
+      <c r="G12" s="388">
+        <f>GECtwrdata!$K22</f>
+        <v>8510886906.433424</v>
+      </c>
+      <c r="H12" s="388">
+        <f>GECtwrdata!$H22</f>
+        <v>15510159286.056276</v>
+      </c>
+      <c r="N12" s="358"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" t="s">
-        <v>481</v>
-      </c>
-      <c r="B13" t="s">
-        <v>477</v>
-      </c>
-      <c r="C13">
-        <f>'Main Page'!$B$42*PI()/180</f>
-        <v>0.52359877559829882</v>
-      </c>
-      <c r="E13" t="s">
-        <v>487</v>
-      </c>
-      <c r="K13" s="383"/>
+      <c r="C13" s="380">
+        <f>GECtwrdata!$B23/9</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="D13">
+        <f>GECtwrdata!$G23</f>
+        <v>549.3007123293238</v>
+      </c>
+      <c r="E13" s="388">
+        <f>GECtwrdata!$N23</f>
+        <v>8023066577.657836</v>
+      </c>
+      <c r="F13" s="388">
+        <f>GECtwrdata!$N23</f>
+        <v>8023066577.657836</v>
+      </c>
+      <c r="G13" s="388">
+        <f>GECtwrdata!$K23</f>
+        <v>6171589675.1214123</v>
+      </c>
+      <c r="H13" s="388">
+        <f>GECtwrdata!$H23</f>
+        <v>13328497721.063362</v>
+      </c>
+      <c r="N13" s="358"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" t="s">
-        <v>449</v>
-      </c>
-      <c r="B14" t="s">
-        <v>478</v>
-      </c>
-      <c r="C14">
-        <f>1/C12^C15</f>
-        <v>0.21302244142778143</v>
-      </c>
-      <c r="E14" t="s">
-        <v>488</v>
-      </c>
-      <c r="K14" s="383"/>
+      <c r="C14" s="380">
+        <f>GECtwrdata!$B24/9</f>
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <f>GECtwrdata!$G24</f>
+        <v>466.10239404984969</v>
+      </c>
+      <c r="E14" s="388">
+        <f>GECtwrdata!$N24</f>
+        <v>5654866776.461628</v>
+      </c>
+      <c r="F14" s="388">
+        <f>GECtwrdata!$N24</f>
+        <v>5654866776.461628</v>
+      </c>
+      <c r="G14" s="388">
+        <f>GECtwrdata!$K24</f>
+        <v>4349897520.3550978</v>
+      </c>
+      <c r="H14" s="388">
+        <f>GECtwrdata!$H24</f>
+        <v>11309733552.923256</v>
+      </c>
+      <c r="I14" s="377"/>
+      <c r="J14" s="377"/>
+      <c r="K14" s="377"/>
+      <c r="L14" s="377"/>
+      <c r="N14" s="358"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" t="s">
-        <v>449</v>
-      </c>
-      <c r="B15" t="s">
-        <v>479</v>
-      </c>
-      <c r="C15">
-        <f>'Main Page'!$B$43</f>
-        <v>-0.5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>489</v>
-      </c>
-      <c r="K15" s="383"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="K16" s="383"/>
-    </row>
-    <row r="17" spans="11:11">
-      <c r="K17" s="102"/>
-    </row>
-    <row r="19" spans="11:11">
-      <c r="K19" s="384"/>
-    </row>
-    <row r="20" spans="11:11">
-      <c r="K20" s="102"/>
-    </row>
-    <row r="21" spans="11:11">
-      <c r="K21" s="102"/>
-    </row>
-    <row r="22" spans="11:11">
-      <c r="K22" s="102"/>
+      <c r="N15" s="358"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13726,18 +13539,18 @@
       <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="10"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="16" style="18" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="11" width="12.5" customWidth="1"/>
+    <col min="10" max="11" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1">
@@ -13745,13 +13558,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="12" thickBot="1">
-      <c r="A2" s="400" t="s">
+    <row r="2" spans="1:11" ht="11" thickBot="1">
+      <c r="A2" s="409" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="401"/>
-      <c r="C2" s="401"/>
-      <c r="D2" s="402"/>
+      <c r="B2" s="410"/>
+      <c r="C2" s="410"/>
+      <c r="D2" s="411"/>
       <c r="F2" s="79" t="s">
         <v>54</v>
       </c>
@@ -13777,7 +13590,7 @@
       <c r="G3" s="77"/>
       <c r="H3" s="78"/>
     </row>
-    <row r="4" spans="1:11" ht="12" thickBot="1">
+    <row r="4" spans="1:11" ht="11" thickBot="1">
       <c r="A4" s="263">
         <v>0.01</v>
       </c>
@@ -13805,7 +13618,7 @@
       <c r="D6" s="59"/>
       <c r="E6" s="57"/>
     </row>
-    <row r="7" spans="1:11" s="19" customFormat="1" ht="32.450000000000003" customHeight="1" thickBot="1">
+    <row r="7" spans="1:11" s="19" customFormat="1" ht="32.5" customHeight="1" thickBot="1">
       <c r="A7" s="45" t="s">
         <v>1</v>
       </c>
@@ -13840,7 +13653,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="12" thickBot="1">
+    <row r="8" spans="1:11" ht="10.5" thickBot="1">
       <c r="A8" s="47">
         <v>1</v>
       </c>
@@ -13883,7 +13696,7 @@
         <v>62126221909.368462</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="12" thickBot="1">
+    <row r="9" spans="1:11" ht="10.5" thickBot="1">
       <c r="A9" s="48">
         <v>2</v>
       </c>
@@ -13926,7 +13739,7 @@
         <v>50601045349.013542</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="12" thickBot="1">
+    <row r="10" spans="1:11" ht="10.5" thickBot="1">
       <c r="A10" s="48">
         <v>3</v>
       </c>
@@ -13969,7 +13782,7 @@
         <v>40756895137.180222</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="12" thickBot="1">
+    <row r="11" spans="1:11" ht="10.5" thickBot="1">
       <c r="A11" s="48">
         <v>4</v>
       </c>
@@ -14012,7 +13825,7 @@
         <v>32422036127.620483</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="12" thickBot="1">
+    <row r="12" spans="1:11" ht="10.5" thickBot="1">
       <c r="A12" s="48">
         <v>5</v>
       </c>
@@ -14055,7 +13868,7 @@
         <v>25433971568.120796</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="12" thickBot="1">
+    <row r="13" spans="1:11" ht="10.5" thickBot="1">
       <c r="A13" s="48">
         <v>6</v>
       </c>
@@ -14098,7 +13911,7 @@
         <v>19639443100.502033</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="12" thickBot="1">
+    <row r="14" spans="1:11" ht="10.5" thickBot="1">
       <c r="A14" s="48">
         <v>7</v>
       </c>
@@ -14141,7 +13954,7 @@
         <v>14894430760.619625</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="12" thickBot="1">
+    <row r="15" spans="1:11" ht="10.5" thickBot="1">
       <c r="A15" s="48">
         <v>8</v>
       </c>
@@ -14184,7 +13997,7 @@
         <v>11064152978.363453</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="12" thickBot="1">
+    <row r="16" spans="1:11" ht="10.5" thickBot="1">
       <c r="A16" s="48">
         <v>9</v>
       </c>
@@ -14480,7 +14293,7 @@
       <c r="J31" s="29"/>
       <c r="K31" s="30"/>
     </row>
-    <row r="32" spans="1:11" ht="12" thickBot="1">
+    <row r="32" spans="1:11" ht="10.5" thickBot="1">
       <c r="A32" s="49">
         <v>25</v>
       </c>
@@ -14517,33 +14330,33 @@
       <selection activeCell="D2" sqref="D2:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="10"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" customWidth="1"/>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="7.5" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="11.5" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" customWidth="1"/>
     <col min="13" max="13" width="12.33203125" customWidth="1"/>
     <col min="14" max="14" width="11.6640625" customWidth="1"/>
     <col min="15" max="15" width="7.33203125" customWidth="1"/>
-    <col min="16" max="16" width="10.5" customWidth="1"/>
-    <col min="17" max="17" width="15.5" customWidth="1"/>
+    <col min="16" max="16" width="10.44140625" customWidth="1"/>
+    <col min="17" max="17" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.6" customHeight="1" thickBot="1">
+    <row r="1" spans="1:20" ht="15.65" customHeight="1" thickBot="1">
       <c r="A1" s="55" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="57"/>
     </row>
-    <row r="2" spans="1:20" ht="23.25" thickBot="1">
+    <row r="2" spans="1:20" ht="20.5" thickBot="1">
       <c r="A2" s="96" t="s">
         <v>56</v>
       </c>
@@ -14551,13 +14364,13 @@
         <f>GECbladedata!D12-B3</f>
         <v>23.75</v>
       </c>
-      <c r="D2" s="386" t="s">
+      <c r="D2" s="395" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="388"/>
-      <c r="F2" s="389"/>
-    </row>
-    <row r="3" spans="1:20" ht="23.25" thickBot="1">
+      <c r="E2" s="397"/>
+      <c r="F2" s="398"/>
+    </row>
+    <row r="3" spans="1:20" ht="20.5" thickBot="1">
       <c r="A3" s="98" t="s">
         <v>57</v>
       </c>
@@ -14580,7 +14393,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="12" thickBot="1">
+    <row r="4" spans="1:20" ht="11" thickBot="1">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="D4" s="263">
@@ -14598,7 +14411,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" ht="10.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="F5" s="4"/>
@@ -14608,7 +14421,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:20" ht="12.75">
+    <row r="6" spans="1:20" ht="13">
       <c r="A6" s="55" t="s">
         <v>32</v>
       </c>
@@ -14622,7 +14435,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" ht="10.5">
       <c r="A7" s="52" t="s">
         <v>34</v>
       </c>
@@ -14634,7 +14447,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:20" s="5" customFormat="1">
+    <row r="8" spans="1:20" s="5" customFormat="1" ht="10.5">
       <c r="A8" s="13" t="s">
         <v>27</v>
       </c>
@@ -14655,7 +14468,7 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="1:20" s="19" customFormat="1" ht="33.75">
+    <row r="9" spans="1:20" s="19" customFormat="1" ht="30">
       <c r="A9" s="87" t="s">
         <v>0</v>
       </c>
@@ -16312,7 +16125,7 @@
       <c r="S31" s="9"/>
       <c r="T31" s="9"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" ht="10.5">
       <c r="A32" s="7">
         <v>23</v>
       </c>
@@ -16731,27 +16544,27 @@
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="10"/>
   <cols>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="12.6640625" customWidth="1"/>
-    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1"/>
     <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" customWidth="1"/>
+    <col min="12" max="12" width="10.77734375" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" customWidth="1"/>
     <col min="14" max="14" width="12.33203125" customWidth="1"/>
-    <col min="15" max="16" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5" customWidth="1"/>
+    <col min="15" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.44140625" customWidth="1"/>
     <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="27" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="27" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:21">
@@ -16841,330 +16654,330 @@
     </row>
     <row r="5" spans="2:21">
       <c r="B5" s="200">
-        <f>'Main Page'!A135</f>
+        <f>'Main Page'!A124</f>
         <v>0.05</v>
       </c>
       <c r="C5" s="201">
-        <f>'Main Page'!B135</f>
+        <f>'Main Page'!B124</f>
         <v>1.349657099314199</v>
       </c>
       <c r="D5" s="202">
-        <f>'Main Page'!C135</f>
+        <f>'Main Page'!C124</f>
         <v>1</v>
       </c>
       <c r="E5" s="202" t="str">
-        <f>'Main Page'!D135</f>
+        <f>'Main Page'!D124</f>
         <v>NA</v>
       </c>
       <c r="F5" s="203">
-        <f>'Main Page'!E135</f>
+        <f>'Main Page'!E124</f>
         <v>0.25</v>
       </c>
       <c r="G5" s="201">
-        <f>'Main Page'!F135</f>
+        <f>'Main Page'!F124</f>
         <v>0.5</v>
       </c>
       <c r="H5" s="201">
-        <f>'Main Page'!G135</f>
+        <f>'Main Page'!G124</f>
         <v>0.5</v>
       </c>
       <c r="I5" s="204">
-        <f>'Main Page'!H135</f>
+        <f>'Main Page'!H124</f>
         <v>1181.9474017501359</v>
       </c>
       <c r="J5" s="205">
-        <f>'Main Page'!I135</f>
+        <f>'Main Page'!I124</f>
         <v>2362406058.2721553</v>
       </c>
       <c r="K5" s="205">
-        <f>'Main Page'!J135</f>
+        <f>'Main Page'!J124</f>
         <v>2362406058.2721553</v>
       </c>
       <c r="L5" s="205">
-        <f>'Main Page'!K135</f>
+        <f>'Main Page'!K124</f>
         <v>10326627046.93685</v>
       </c>
       <c r="M5" s="205">
-        <f>'Main Page'!L135</f>
+        <f>'Main Page'!L124</f>
         <v>815590611.695804</v>
       </c>
       <c r="N5" s="206">
-        <f>'Main Page'!M135</f>
+        <f>'Main Page'!M124</f>
         <v>538.24909552528584</v>
       </c>
       <c r="P5" s="103"/>
     </row>
     <row r="6" spans="2:21">
       <c r="B6" s="207">
-        <f>'Main Page'!A136</f>
+        <f>'Main Page'!A125</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C6" s="208">
-        <f>'Main Page'!B136</f>
+        <f>'Main Page'!B125</f>
         <v>1.3496570993141985</v>
       </c>
       <c r="D6" s="209">
-        <f>'Main Page'!C136</f>
+        <f>'Main Page'!C125</f>
         <v>1</v>
       </c>
       <c r="E6" s="209" t="str">
-        <f>'Main Page'!D136</f>
+        <f>'Main Page'!D125</f>
         <v>NA</v>
       </c>
       <c r="F6" s="203">
-        <f>'Main Page'!E136</f>
+        <f>'Main Page'!E125</f>
         <v>0.25</v>
       </c>
       <c r="G6" s="208">
-        <f>'Main Page'!F136</f>
+        <f>'Main Page'!F125</f>
         <v>0.5</v>
       </c>
       <c r="H6" s="208">
-        <f>'Main Page'!G136</f>
+        <f>'Main Page'!G125</f>
         <v>0.5</v>
       </c>
       <c r="I6" s="210">
-        <f>'Main Page'!H136</f>
+        <f>'Main Page'!H125</f>
         <v>89.215305458599687</v>
       </c>
       <c r="J6" s="211">
-        <f>'Main Page'!I136</f>
+        <f>'Main Page'!I125</f>
         <v>292871613.66241747</v>
       </c>
       <c r="K6" s="211">
-        <f>'Main Page'!J136</f>
+        <f>'Main Page'!J125</f>
         <v>292871613.66241747</v>
       </c>
       <c r="L6" s="211">
-        <f>'Main Page'!K136</f>
+        <f>'Main Page'!K125</f>
         <v>1295783621.589889</v>
       </c>
       <c r="M6" s="211">
-        <f>'Main Page'!L136</f>
+        <f>'Main Page'!L125</f>
         <v>102340392.98761402</v>
       </c>
       <c r="N6" s="212">
-        <f>'Main Page'!M136</f>
+        <f>'Main Page'!M125</f>
         <v>40.627914067071856</v>
       </c>
       <c r="P6" s="103"/>
     </row>
     <row r="7" spans="2:21">
       <c r="B7" s="197">
-        <f>'Main Page'!A137</f>
+        <f>'Main Page'!A126</f>
         <v>0.25</v>
       </c>
       <c r="C7" s="208">
-        <f>'Main Page'!B137</f>
+        <f>'Main Page'!B126</f>
         <v>2</v>
       </c>
       <c r="D7" s="209">
-        <f>'Main Page'!C137</f>
+        <f>'Main Page'!C126</f>
         <v>0.27</v>
       </c>
       <c r="E7" s="209">
-        <f>'Main Page'!D137</f>
+        <f>'Main Page'!D126</f>
         <v>5.7408195699863462</v>
       </c>
       <c r="F7" s="203">
-        <f>'Main Page'!E137</f>
+        <f>'Main Page'!E126</f>
         <v>0.34</v>
       </c>
       <c r="G7" s="208">
-        <f>'Main Page'!F137</f>
+        <f>'Main Page'!F126</f>
         <v>0.38431406494974252</v>
       </c>
       <c r="H7" s="208">
-        <f>'Main Page'!G137</f>
+        <f>'Main Page'!G126</f>
         <v>0.32303333404645607</v>
       </c>
       <c r="I7" s="210">
-        <f>'Main Page'!H137</f>
+        <f>'Main Page'!H126</f>
         <v>117.20845675339662</v>
       </c>
       <c r="J7" s="211">
-        <f>'Main Page'!I137</f>
+        <f>'Main Page'!I126</f>
         <v>71200412.886402056</v>
       </c>
       <c r="K7" s="211">
-        <f>'Main Page'!J137</f>
+        <f>'Main Page'!J126</f>
         <v>192688198.09657151</v>
       </c>
       <c r="L7" s="198">
-        <f>'Main Page'!K137</f>
+        <f>'Main Page'!K126</f>
         <v>1535809947.6467729</v>
       </c>
       <c r="M7" s="198">
-        <f>'Main Page'!L137</f>
+        <f>'Main Page'!L126</f>
         <v>6059831.2604694702</v>
       </c>
       <c r="N7" s="213">
-        <f>'Main Page'!M137</f>
+        <f>'Main Page'!M126</f>
         <v>24.149591455091301</v>
       </c>
       <c r="P7" s="103"/>
     </row>
     <row r="8" spans="2:21">
       <c r="B8" s="197">
-        <f>'Main Page'!A138</f>
+        <f>'Main Page'!A127</f>
         <v>0.5</v>
       </c>
       <c r="C8" s="208">
-        <f>'Main Page'!B138</f>
+        <f>'Main Page'!B127</f>
         <v>1.5334010668021336</v>
       </c>
       <c r="D8" s="214">
-        <f>'Main Page'!C138</f>
+        <f>'Main Page'!C127</f>
         <v>0.24</v>
       </c>
       <c r="E8" s="209">
-        <f>'Main Page'!D138</f>
+        <f>'Main Page'!D127</f>
         <v>7.8774986568807996</v>
       </c>
       <c r="F8" s="203">
-        <f>'Main Page'!E138</f>
+        <f>'Main Page'!E127</f>
         <v>0.31</v>
       </c>
       <c r="G8" s="208">
-        <f>'Main Page'!F138</f>
+        <f>'Main Page'!F127</f>
         <v>0.37966131849299201</v>
       </c>
       <c r="H8" s="208">
-        <f>'Main Page'!G138</f>
+        <f>'Main Page'!G127</f>
         <v>0.32331172392666518</v>
       </c>
       <c r="I8" s="210">
-        <f>'Main Page'!H138</f>
+        <f>'Main Page'!H127</f>
         <v>82.955569360022096</v>
       </c>
       <c r="J8" s="211">
-        <f>'Main Page'!I138</f>
+        <f>'Main Page'!I127</f>
         <v>22286831.062062379</v>
       </c>
       <c r="K8" s="211">
-        <f>'Main Page'!J138</f>
+        <f>'Main Page'!J127</f>
         <v>79116868.754064709</v>
       </c>
       <c r="L8" s="198">
-        <f>'Main Page'!K138</f>
+        <f>'Main Page'!K127</f>
         <v>1094705409.6217237</v>
       </c>
       <c r="M8" s="198">
-        <f>'Main Page'!L138</f>
+        <f>'Main Page'!L127</f>
         <v>2885752.229026631</v>
       </c>
       <c r="N8" s="213">
-        <f>'Main Page'!M138</f>
+        <f>'Main Page'!M127</f>
         <v>9.0573611452431102</v>
       </c>
       <c r="P8" s="103"/>
     </row>
     <row r="9" spans="2:21">
       <c r="B9" s="197">
-        <f>'Main Page'!A139</f>
+        <f>'Main Page'!A128</f>
         <v>0.75</v>
       </c>
       <c r="C9" s="208">
-        <f>'Main Page'!B139</f>
+        <f>'Main Page'!B128</f>
         <v>1.0670561341122682</v>
       </c>
       <c r="D9" s="214">
-        <f>'Main Page'!C139</f>
+        <f>'Main Page'!C128</f>
         <v>0.21</v>
       </c>
       <c r="E9" s="209">
-        <f>'Main Page'!D139</f>
+        <f>'Main Page'!D128</f>
         <v>7.6422364536705301</v>
       </c>
       <c r="F9" s="203">
-        <f>'Main Page'!E139</f>
+        <f>'Main Page'!E128</f>
         <v>0.28000000000000003</v>
       </c>
       <c r="G9" s="208">
-        <f>'Main Page'!F139</f>
+        <f>'Main Page'!F128</f>
         <v>0.39262047257690491</v>
       </c>
       <c r="H9" s="208">
-        <f>'Main Page'!G139</f>
+        <f>'Main Page'!G128</f>
         <v>0.32643878406891619</v>
       </c>
       <c r="I9" s="210">
-        <f>'Main Page'!H139</f>
+        <f>'Main Page'!H128</f>
         <v>39.129612072462692</v>
       </c>
       <c r="J9" s="211">
-        <f>'Main Page'!I139</f>
+        <f>'Main Page'!I128</f>
         <v>3549221.9475047868</v>
       </c>
       <c r="K9" s="211">
-        <f>'Main Page'!J139</f>
+        <f>'Main Page'!J128</f>
         <v>21323059.849604025</v>
       </c>
       <c r="L9" s="198">
-        <f>'Main Page'!K139</f>
+        <f>'Main Page'!K128</f>
         <v>499093273.18287331</v>
       </c>
       <c r="M9" s="198">
-        <f>'Main Page'!L139</f>
+        <f>'Main Page'!L128</f>
         <v>574933.04560629011</v>
       </c>
       <c r="N9" s="213">
-        <f>'Main Page'!M139</f>
+        <f>'Main Page'!M128</f>
         <v>2.2054187533799334</v>
       </c>
       <c r="P9" s="103"/>
     </row>
     <row r="10" spans="2:21">
       <c r="B10" s="215">
-        <f>'Main Page'!A140</f>
+        <f>'Main Page'!A129</f>
         <v>1</v>
       </c>
       <c r="C10" s="216">
-        <f>'Main Page'!B140</f>
+        <f>'Main Page'!B129</f>
         <v>0.64719329438658879</v>
       </c>
       <c r="D10" s="217">
-        <f>'Main Page'!C140</f>
+        <f>'Main Page'!C129</f>
         <v>0.16</v>
       </c>
       <c r="E10" s="217">
-        <f>'Main Page'!D140</f>
+        <f>'Main Page'!D129</f>
         <v>0</v>
       </c>
       <c r="F10" s="216">
-        <f>'Main Page'!E140</f>
+        <f>'Main Page'!E129</f>
         <v>0.25</v>
       </c>
       <c r="G10" s="216">
-        <f>'Main Page'!F140</f>
+        <f>'Main Page'!F129</f>
         <v>0.49249999999999999</v>
       </c>
       <c r="H10" s="216">
-        <f>'Main Page'!G140</f>
+        <f>'Main Page'!G129</f>
         <v>0.35780000000000001</v>
       </c>
       <c r="I10" s="218">
-        <f>'Main Page'!H140</f>
+        <f>'Main Page'!H129</f>
         <v>7.751396294306554</v>
       </c>
       <c r="J10" s="219">
-        <f>'Main Page'!I140</f>
+        <f>'Main Page'!I129</f>
         <v>79811.599091411103</v>
       </c>
       <c r="K10" s="219">
-        <f>'Main Page'!J140</f>
+        <f>'Main Page'!J129</f>
         <v>2702250.8204062055</v>
       </c>
       <c r="L10" s="220">
-        <f>'Main Page'!K140</f>
+        <f>'Main Page'!K129</f>
         <v>80734393.082686871</v>
       </c>
       <c r="M10" s="220">
-        <f>'Main Page'!L140</f>
+        <f>'Main Page'!L129</f>
         <v>61146.36439630347</v>
       </c>
       <c r="N10" s="221">
-        <f>'Main Page'!M140</f>
+        <f>'Main Page'!M129</f>
         <v>0.25688857997871806</v>
       </c>
       <c r="P10" s="103"/>
@@ -17208,7 +17021,7 @@
         <v>353</v>
       </c>
       <c r="D13" s="228">
-        <f>'Main Page'!B67/2</f>
+        <f>'Main Page'!B56/2</f>
         <v>1.25</v>
       </c>
       <c r="E13" s="226" t="s">
@@ -17375,7 +17188,7 @@
         <v>1181.9474017501359</v>
       </c>
       <c r="E18" s="238">
-        <f>N5*'Main Page'!C$142/('Main Page'!C$142+1)</f>
+        <f>N5*'Main Page'!C$131/('Main Page'!C$131+1)</f>
         <v>0</v>
       </c>
       <c r="F18" s="238">
@@ -17397,7 +17210,7 @@
         <v>0.33741427482854974</v>
       </c>
       <c r="K18" s="238">
-        <f>'Main Page'!B147-'Main Page'!B$152</f>
+        <f>'Main Page'!B136-'Main Page'!B$141</f>
         <v>11.1</v>
       </c>
       <c r="L18" s="240">
@@ -17424,7 +17237,7 @@
         <v>0</v>
       </c>
       <c r="R18" s="262">
-        <f>'Main Page'!D147</f>
+        <f>'Main Page'!D136</f>
         <v>1</v>
       </c>
       <c r="S18" s="108"/>
@@ -17445,7 +17258,7 @@
         <v>89.215305458599687</v>
       </c>
       <c r="E19" s="243">
-        <f>N6*'Main Page'!C$142/('Main Page'!C$142+1)</f>
+        <f>N6*'Main Page'!C$131/('Main Page'!C$131+1)</f>
         <v>0</v>
       </c>
       <c r="F19" s="243">
@@ -17467,7 +17280,7 @@
         <v>0.33741427482854963</v>
       </c>
       <c r="K19" s="243">
-        <f>'Main Page'!B148-'Main Page'!B$152</f>
+        <f>'Main Page'!B137-'Main Page'!B$141</f>
         <v>11.1</v>
       </c>
       <c r="L19" s="246">
@@ -17494,7 +17307,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="260">
-        <f>'Main Page'!D148</f>
+        <f>'Main Page'!D137</f>
         <v>1</v>
       </c>
       <c r="S19" s="108"/>
@@ -17515,7 +17328,7 @@
         <v>117.20845675339662</v>
       </c>
       <c r="E20" s="243">
-        <f>N7*'Main Page'!C$142/('Main Page'!C$142+1)</f>
+        <f>N7*'Main Page'!C$131/('Main Page'!C$131+1)</f>
         <v>0</v>
       </c>
       <c r="F20" s="243">
@@ -17537,7 +17350,7 @@
         <v>-3.3933331907087916E-2</v>
       </c>
       <c r="K20" s="243">
-        <f>'Main Page'!B149-'Main Page'!B$152</f>
+        <f>'Main Page'!B138-'Main Page'!B$141</f>
         <v>11.1</v>
       </c>
       <c r="L20" s="246">
@@ -17565,7 +17378,7 @@
         <v>-0.18000000000000005</v>
       </c>
       <c r="R20" s="260">
-        <f>'Main Page'!D149</f>
+        <f>'Main Page'!D138</f>
         <v>2</v>
       </c>
       <c r="S20" s="108"/>
@@ -17586,7 +17399,7 @@
         <v>82.955569360022096</v>
       </c>
       <c r="E21" s="243">
-        <f>N8*'Main Page'!C$142/('Main Page'!C$142+1)</f>
+        <f>N8*'Main Page'!C$131/('Main Page'!C$131+1)</f>
         <v>0</v>
       </c>
       <c r="F21" s="243">
@@ -17608,7 +17421,7 @@
         <v>2.0412211670123883E-2</v>
       </c>
       <c r="K21" s="243">
-        <f>'Main Page'!B150-'Main Page'!B$152</f>
+        <f>'Main Page'!B139-'Main Page'!B$141</f>
         <v>3.1</v>
       </c>
       <c r="L21" s="246">
@@ -17654,7 +17467,7 @@
         <v>39.129612072462692</v>
       </c>
       <c r="E22" s="243">
-        <f>N9*'Main Page'!C$142/('Main Page'!C$142+1)</f>
+        <f>N9*'Main Page'!C$131/('Main Page'!C$131+1)</f>
         <v>0</v>
       </c>
       <c r="F22" s="243">
@@ -17676,7 +17489,7 @@
         <v>4.9552789401452066E-2</v>
       </c>
       <c r="K22" s="243">
-        <f>'Main Page'!B151-'Main Page'!B$152</f>
+        <f>'Main Page'!B140-'Main Page'!B$141</f>
         <v>0.6</v>
       </c>
       <c r="L22" s="246">
@@ -17704,7 +17517,7 @@
         <v>-3.2011684023368077E-2</v>
       </c>
       <c r="R22" s="260">
-        <f>'Main Page'!D151</f>
+        <f>'Main Page'!D140</f>
         <v>3</v>
       </c>
       <c r="S22" s="108"/>
@@ -17725,7 +17538,7 @@
         <v>7.751396294306554</v>
       </c>
       <c r="E23" s="249">
-        <f>N10*'Main Page'!C$142/('Main Page'!C$142+1)</f>
+        <f>N10*'Main Page'!C$131/('Main Page'!C$131+1)</f>
         <v>0</v>
       </c>
       <c r="F23" s="249">
@@ -17747,7 +17560,7 @@
         <v>6.976743713487428E-2</v>
       </c>
       <c r="K23" s="249">
-        <f>'Main Page'!B152-'Main Page'!B$152</f>
+        <f>'Main Page'!B141-'Main Page'!B$141</f>
         <v>0</v>
       </c>
       <c r="L23" s="251">
@@ -17775,7 +17588,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="261">
-        <f>'Main Page'!D152</f>
+        <f>'Main Page'!D141</f>
         <v>4</v>
       </c>
       <c r="S23" s="108"/>
@@ -17909,7 +17722,7 @@
         <v>1181.9474017501359</v>
       </c>
       <c r="E28" s="238">
-        <f t="shared" ref="E28:Q28" si="11">E18</f>
+        <f t="shared" ref="E28:P28" si="11">E18</f>
         <v>0</v>
       </c>
       <c r="F28" s="238">

--- a/FAST_models/WindPACT/excel_proc/turbines/0.75A08V00_proc.xlsx
+++ b/FAST_models/WindPACT/excel_proc/turbines/0.75A08V00_proc.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrinker\Documents\GitHub\dissertation\FAST_models\WindPACT\excel_proc\turbines\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="710" windowWidth="17570" windowHeight="12990" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="1560" yWindow="705" windowWidth="17565" windowHeight="12990" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Main Page" sheetId="5" r:id="rId1"/>
@@ -27,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Blade Data'!$A$6:$Q$32</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -37,7 +32,7 @@
     <author>Jeff Minnema</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="515">
   <si>
     <t>number</t>
   </si>
@@ -2035,6 +2030,18 @@
   </si>
   <si>
     <t>N-m</t>
+  </si>
+  <si>
+    <t>P2P_Num</t>
+  </si>
+  <si>
+    <t>P2P_Den</t>
+  </si>
+  <si>
+    <t>numerator blade pitch actuator TF</t>
+  </si>
+  <si>
+    <t>denominator blade pitch actuator TF</t>
   </si>
 </sst>
 </file>
@@ -4472,11 +4479,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="319611736"/>
-        <c:axId val="319616048"/>
+        <c:axId val="95175808"/>
+        <c:axId val="95177728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="319611736"/>
+        <c:axId val="95175808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4561,12 +4568,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319616048"/>
+        <c:crossAx val="95177728"/>
         <c:crossesAt val="-10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="319616048"/>
+        <c:axId val="95177728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4650,7 +4657,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319611736"/>
+        <c:crossAx val="95175808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5730,19 +5737,19 @@
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="34.77734375" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="8" width="12.109375" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" customWidth="1"/>
+    <col min="7" max="8" width="12.1640625" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" customWidth="1"/>
-    <col min="13" max="13" width="12.44140625" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" customWidth="1"/>
+    <col min="13" max="13" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41.25" customHeight="1" thickBot="1">
@@ -5787,7 +5794,7 @@
       <c r="G3" s="403"/>
       <c r="H3" s="404"/>
     </row>
-    <row r="4" spans="1:8" ht="11" thickBot="1">
+    <row r="4" spans="1:8" ht="12" thickBot="1">
       <c r="A4" s="20" t="s">
         <v>5</v>
       </c>
@@ -5912,7 +5919,7 @@
         <v>1751.6710645266089</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="10.5" thickBot="1">
+    <row r="8" spans="1:8" ht="12" thickBot="1">
       <c r="A8" s="23" t="s">
         <v>12</v>
       </c>
@@ -5945,7 +5952,7 @@
         <v>7485.1732085651756</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="10.5" thickBot="1">
+    <row r="9" spans="1:8" ht="12" thickBot="1">
       <c r="A9" s="106" t="s">
         <v>120</v>
       </c>
@@ -5988,7 +5995,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="20">
+    <row r="14" spans="1:8" ht="22.5">
       <c r="A14" s="61" t="s">
         <v>43</v>
       </c>
@@ -6025,7 +6032,7 @@
       </c>
       <c r="E16" s="353"/>
     </row>
-    <row r="17" spans="1:21" ht="23.5" customHeight="1">
+    <row r="17" spans="1:21" ht="23.45" customHeight="1">
       <c r="A17" s="61" t="s">
         <v>42</v>
       </c>
@@ -6102,7 +6109,7 @@
       <c r="O20" s="170"/>
       <c r="P20" s="171"/>
     </row>
-    <row r="21" spans="1:21" ht="11.5" customHeight="1">
+    <row r="21" spans="1:21" ht="11.45" customHeight="1">
       <c r="A21" s="61" t="s">
         <v>31</v>
       </c>
@@ -6148,7 +6155,7 @@
       <c r="O23" s="8"/>
       <c r="P23" s="173"/>
     </row>
-    <row r="24" spans="1:21" ht="12.65" customHeight="1">
+    <row r="24" spans="1:21" ht="12.6" customHeight="1">
       <c r="A24" s="100" t="s">
         <v>74</v>
       </c>
@@ -6169,7 +6176,7 @@
       <c r="O24" s="8"/>
       <c r="P24" s="173"/>
     </row>
-    <row r="25" spans="1:21" ht="10.5" thickBot="1">
+    <row r="25" spans="1:21" ht="12" thickBot="1">
       <c r="A25" s="100" t="s">
         <v>75</v>
       </c>
@@ -6200,7 +6207,7 @@
       <c r="G26" s="89"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="28" spans="1:21" ht="12.65" customHeight="1">
+    <row r="28" spans="1:21" ht="12.6" customHeight="1">
       <c r="A28" s="109" t="s">
         <v>78</v>
       </c>
@@ -6240,7 +6247,7 @@
     <row r="32" spans="1:21">
       <c r="B32" s="53"/>
     </row>
-    <row r="33" spans="1:5" ht="10.5">
+    <row r="33" spans="1:5">
       <c r="A33" s="109" t="s">
         <v>80</v>
       </c>
@@ -6413,7 +6420,7 @@
         <v>3.1469175392670157</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="10.5">
+    <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
         <v>12</v>
       </c>
@@ -6526,7 +6533,7 @@
       <c r="A64" s="18"/>
       <c r="B64" s="124"/>
     </row>
-    <row r="65" spans="1:4" ht="10.5">
+    <row r="65" spans="1:4">
       <c r="A65" s="111" t="s">
         <v>137</v>
       </c>
@@ -6611,7 +6618,7 @@
       <c r="A72" s="18"/>
       <c r="B72" s="124"/>
     </row>
-    <row r="73" spans="1:4" ht="10.5">
+    <row r="73" spans="1:4">
       <c r="A73" s="111" t="s">
         <v>143</v>
       </c>
@@ -6693,7 +6700,7 @@
       <c r="A80" s="18"/>
       <c r="B80" s="125"/>
     </row>
-    <row r="81" spans="1:4" ht="10.5">
+    <row r="81" spans="1:4">
       <c r="A81" s="111" t="s">
         <v>152</v>
       </c>
@@ -6793,7 +6800,7 @@
       <c r="A90" s="18"/>
       <c r="B90" s="123"/>
     </row>
-    <row r="91" spans="1:4" ht="10.5">
+    <row r="91" spans="1:4">
       <c r="A91" s="111" t="s">
         <v>158</v>
       </c>
@@ -6850,7 +6857,7 @@
       <c r="A96" s="18"/>
       <c r="B96" s="126"/>
     </row>
-    <row r="97" spans="1:4" ht="10.5">
+    <row r="97" spans="1:4">
       <c r="A97" s="111" t="s">
         <v>162</v>
       </c>
@@ -6964,7 +6971,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="10.5">
+    <row r="108" spans="1:4">
       <c r="A108" s="111" t="s">
         <v>387</v>
       </c>
@@ -7027,7 +7034,7 @@
       <c r="I113" s="183"/>
       <c r="J113" s="183"/>
     </row>
-    <row r="114" spans="1:13" ht="15">
+    <row r="114" spans="1:13" ht="14.25">
       <c r="A114" s="184"/>
       <c r="B114" s="185"/>
       <c r="C114" s="186" t="s">
@@ -7085,7 +7092,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="11.5">
+    <row r="116" spans="1:13" ht="12">
       <c r="A116" s="281">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -7120,7 +7127,7 @@
         <v>2.3240623855198695E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="11.5">
+    <row r="117" spans="1:13" ht="12">
       <c r="A117" s="290">
         <v>0.25</v>
       </c>
@@ -7155,7 +7162,7 @@
         <v>6.6795086790909508E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="11.5">
+    <row r="118" spans="1:13" ht="12">
       <c r="A118" s="290">
         <v>0.5</v>
       </c>
@@ -7190,7 +7197,7 @@
         <v>1.2515851111560431E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="11.5">
+    <row r="119" spans="1:13" ht="12">
       <c r="A119" s="293">
         <v>0.75</v>
       </c>
@@ -7556,7 +7563,7 @@
         <v>0.25688857997871806</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="13">
+    <row r="131" spans="1:13">
       <c r="B131" s="18" t="s">
         <v>349</v>
       </c>
@@ -7573,7 +7580,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="10.5">
+    <row r="134" spans="1:13">
       <c r="A134" s="184"/>
       <c r="B134" s="230" t="s">
         <v>363</v>
@@ -7583,7 +7590,7 @@
       </c>
       <c r="D134" s="392"/>
     </row>
-    <row r="135" spans="1:13" ht="11.5">
+    <row r="135" spans="1:13" ht="12">
       <c r="A135" s="192" t="s">
         <v>87</v>
       </c>
@@ -7671,7 +7678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="11.5">
+    <row r="143" spans="1:13" ht="12">
       <c r="A143" s="340" t="s">
         <v>399</v>
       </c>
@@ -7732,8 +7739,8 @@
       <c r="F147" s="353"/>
       <c r="G147" s="353"/>
     </row>
-    <row r="148" spans="1:7" ht="10.5" thickBot="1"/>
-    <row r="149" spans="1:7" ht="10.5" thickBot="1">
+    <row r="148" spans="1:7" ht="12" thickBot="1"/>
+    <row r="149" spans="1:7" ht="12" thickBot="1">
       <c r="A149" s="395" t="s">
         <v>401</v>
       </c>
@@ -7744,7 +7751,7 @@
       </c>
       <c r="F149" s="353"/>
     </row>
-    <row r="150" spans="1:7" ht="10.5" thickBot="1">
+    <row r="150" spans="1:7" ht="12" thickBot="1">
       <c r="A150" s="362" t="s">
         <v>35</v>
       </c>
@@ -7759,7 +7766,7 @@
       </c>
       <c r="F150" s="353"/>
     </row>
-    <row r="151" spans="1:7" ht="11" thickBot="1">
+    <row r="151" spans="1:7" ht="12" thickBot="1">
       <c r="A151" s="364">
         <v>3.882E-2</v>
       </c>
@@ -7774,8 +7781,8 @@
       </c>
       <c r="F151" s="353"/>
     </row>
-    <row r="152" spans="1:7" ht="10.5" thickBot="1"/>
-    <row r="153" spans="1:7" ht="10.5" thickBot="1">
+    <row r="152" spans="1:7" ht="12" thickBot="1"/>
+    <row r="153" spans="1:7" ht="12" thickBot="1">
       <c r="A153" s="395" t="s">
         <v>410</v>
       </c>
@@ -7786,7 +7793,7 @@
       </c>
       <c r="F153" s="353"/>
     </row>
-    <row r="154" spans="1:7" ht="10.5">
+    <row r="154" spans="1:7">
       <c r="A154" s="367" t="s">
         <v>50</v>
       </c>
@@ -7799,7 +7806,7 @@
       </c>
       <c r="F154" s="353"/>
     </row>
-    <row r="155" spans="1:7" ht="10.5">
+    <row r="155" spans="1:7">
       <c r="A155" s="369" t="s">
         <v>51</v>
       </c>
@@ -7812,7 +7819,7 @@
       </c>
       <c r="F155" s="353"/>
     </row>
-    <row r="156" spans="1:7" ht="10.5">
+    <row r="156" spans="1:7">
       <c r="A156" s="372" t="s">
         <v>52</v>
       </c>
@@ -7824,7 +7831,7 @@
       </c>
       <c r="F156" s="353"/>
     </row>
-    <row r="157" spans="1:7" ht="11" thickBot="1">
+    <row r="157" spans="1:7" ht="12" thickBot="1">
       <c r="A157" s="373" t="s">
         <v>53</v>
       </c>
@@ -7869,10 +7876,10 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -8738,23 +8745,23 @@
       <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="10" max="11" width="9.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" customWidth="1"/>
+    <col min="12" max="12" width="9.5" customWidth="1"/>
     <col min="13" max="14" width="11.33203125" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" customWidth="1"/>
+    <col min="15" max="15" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="12.5">
+    <row r="1" spans="1:25" ht="12.75">
       <c r="A1" s="112"/>
       <c r="B1" s="112" t="s">
         <v>170</v>
@@ -8786,7 +8793,7 @@
       <c r="X1" s="112"/>
       <c r="Y1" s="112"/>
     </row>
-    <row r="2" spans="1:25" ht="12.5">
+    <row r="2" spans="1:25" ht="12.75">
       <c r="A2" s="112"/>
       <c r="B2" s="113" t="s">
         <v>171</v>
@@ -8818,7 +8825,7 @@
       <c r="X2" s="112"/>
       <c r="Y2" s="112"/>
     </row>
-    <row r="3" spans="1:25" ht="12.5">
+    <row r="3" spans="1:25" ht="12.75">
       <c r="A3" s="112"/>
       <c r="B3" s="112"/>
       <c r="C3" s="112"/>
@@ -8845,7 +8852,7 @@
       <c r="X3" s="112"/>
       <c r="Y3" s="112"/>
     </row>
-    <row r="4" spans="1:25" ht="37.5">
+    <row r="4" spans="1:25" ht="38.25">
       <c r="A4" s="115"/>
       <c r="B4" s="163" t="s">
         <v>172</v>
@@ -8904,7 +8911,7 @@
       <c r="X4" s="115"/>
       <c r="Y4" s="116"/>
     </row>
-    <row r="5" spans="1:25" ht="12.5">
+    <row r="5" spans="1:25" ht="12.75">
       <c r="A5" s="112"/>
       <c r="B5" s="164" t="s">
         <v>12</v>
@@ -8974,7 +8981,7 @@
       <c r="X5" s="112"/>
       <c r="Y5" s="112"/>
     </row>
-    <row r="6" spans="1:25" ht="12.5">
+    <row r="6" spans="1:25" ht="12.75">
       <c r="A6" s="112"/>
       <c r="B6" s="164" t="s">
         <v>184</v>
@@ -9035,7 +9042,7 @@
       <c r="X6" s="112"/>
       <c r="Y6" s="112"/>
     </row>
-    <row r="7" spans="1:25" ht="12.5">
+    <row r="7" spans="1:25" ht="12.75">
       <c r="A7" s="112"/>
       <c r="B7" s="164" t="s">
         <v>137</v>
@@ -9108,7 +9115,7 @@
       <c r="X7" s="112"/>
       <c r="Y7" s="112"/>
     </row>
-    <row r="8" spans="1:25" ht="12.5">
+    <row r="8" spans="1:25" ht="12.75">
       <c r="A8" s="112"/>
       <c r="B8" s="164" t="s">
         <v>185</v>
@@ -9171,7 +9178,7 @@
       <c r="X8" s="112"/>
       <c r="Y8" s="118"/>
     </row>
-    <row r="9" spans="1:25" ht="12.5">
+    <row r="9" spans="1:25" ht="12.75">
       <c r="A9" s="112"/>
       <c r="B9" s="164" t="s">
         <v>186</v>
@@ -9234,7 +9241,7 @@
       <c r="X9" s="112"/>
       <c r="Y9" s="112"/>
     </row>
-    <row r="10" spans="1:25" ht="12.5">
+    <row r="10" spans="1:25" ht="12.75">
       <c r="A10" s="112"/>
       <c r="B10" s="164" t="s">
         <v>187</v>
@@ -9365,7 +9372,7 @@
       <c r="X11" s="112"/>
       <c r="Y11" s="118"/>
     </row>
-    <row r="12" spans="1:25" ht="12.5">
+    <row r="12" spans="1:25" ht="12.75">
       <c r="A12" s="112"/>
       <c r="B12" s="164" t="s">
         <v>255</v>
@@ -9432,7 +9439,7 @@
       <c r="X12" s="112"/>
       <c r="Y12" s="118"/>
     </row>
-    <row r="13" spans="1:25" ht="12.5">
+    <row r="13" spans="1:25" ht="12.75">
       <c r="A13" s="112"/>
       <c r="B13" s="164"/>
       <c r="C13" s="131"/>
@@ -9464,7 +9471,7 @@
       <c r="X13" s="112"/>
       <c r="Y13" s="118"/>
     </row>
-    <row r="14" spans="1:25" ht="12.5">
+    <row r="14" spans="1:25" ht="12.75">
       <c r="A14" s="112"/>
       <c r="B14" s="164"/>
       <c r="C14" s="131"/>
@@ -9513,7 +9520,7 @@
       <c r="X14" s="112"/>
       <c r="Y14" s="118"/>
     </row>
-    <row r="15" spans="1:25" ht="12.5">
+    <row r="15" spans="1:25" ht="12.75">
       <c r="A15" s="112"/>
       <c r="B15" s="164"/>
       <c r="C15" s="131"/>
@@ -9562,7 +9569,7 @@
       <c r="X15" s="112"/>
       <c r="Y15" s="118"/>
     </row>
-    <row r="16" spans="1:25" ht="12.5">
+    <row r="16" spans="1:25" ht="12.75">
       <c r="A16" s="112"/>
       <c r="B16" s="165"/>
       <c r="C16" s="112"/>
@@ -9612,7 +9619,7 @@
       <c r="X16" s="112"/>
       <c r="Y16" s="112"/>
     </row>
-    <row r="17" spans="1:25" ht="12.5">
+    <row r="17" spans="1:25" ht="12.75">
       <c r="A17" s="112"/>
       <c r="B17" s="165"/>
       <c r="C17" s="112"/>
@@ -9653,7 +9660,7 @@
       <c r="X17" s="112"/>
       <c r="Y17" s="112"/>
     </row>
-    <row r="18" spans="1:25" ht="12.5">
+    <row r="18" spans="1:25" ht="12.75">
       <c r="A18" s="112"/>
       <c r="B18" s="165"/>
       <c r="C18" s="112"/>
@@ -9680,7 +9687,7 @@
       <c r="X18" s="112"/>
       <c r="Y18" s="112"/>
     </row>
-    <row r="19" spans="1:25" ht="12.5">
+    <row r="19" spans="1:25" ht="12.75">
       <c r="A19" s="112"/>
       <c r="B19" s="165"/>
       <c r="C19" s="112"/>
@@ -9709,7 +9716,7 @@
       <c r="X19" s="112"/>
       <c r="Y19" s="112"/>
     </row>
-    <row r="20" spans="1:25" ht="37.5">
+    <row r="20" spans="1:25" ht="38.25">
       <c r="A20" s="115"/>
       <c r="B20" s="163" t="s">
         <v>189</v>
@@ -9748,7 +9755,7 @@
       <c r="X20" s="115"/>
       <c r="Y20" s="115"/>
     </row>
-    <row r="21" spans="1:25" ht="12.5">
+    <row r="21" spans="1:25" ht="12.75">
       <c r="A21" s="112"/>
       <c r="B21" s="164" t="s">
         <v>162</v>
@@ -9824,7 +9831,7 @@
       <c r="X21" s="112"/>
       <c r="Y21" s="112"/>
     </row>
-    <row r="22" spans="1:25" ht="12.5">
+    <row r="22" spans="1:25" ht="12.75">
       <c r="A22" s="112"/>
       <c r="B22" s="164" t="s">
         <v>194</v>
@@ -9884,7 +9891,7 @@
       <c r="X22" s="112"/>
       <c r="Y22" s="118"/>
     </row>
-    <row r="23" spans="1:25" ht="12.5">
+    <row r="23" spans="1:25" ht="12.75">
       <c r="A23" s="112"/>
       <c r="B23" s="164" t="s">
         <v>195</v>
@@ -9945,7 +9952,7 @@
       <c r="X23" s="112"/>
       <c r="Y23" s="112"/>
     </row>
-    <row r="24" spans="1:25" ht="12.5">
+    <row r="24" spans="1:25" ht="12.75">
       <c r="A24" s="112"/>
       <c r="B24" s="164" t="s">
         <v>196</v>
@@ -10013,7 +10020,7 @@
       <c r="X24" s="112"/>
       <c r="Y24" s="112"/>
     </row>
-    <row r="25" spans="1:25" ht="12.5">
+    <row r="25" spans="1:25" ht="12.75">
       <c r="A25" s="112"/>
       <c r="B25" s="164" t="s">
         <v>197</v>
@@ -10081,7 +10088,7 @@
       <c r="X25" s="112"/>
       <c r="Y25" s="112"/>
     </row>
-    <row r="26" spans="1:25" ht="12.5">
+    <row r="26" spans="1:25" ht="12.75">
       <c r="A26" s="112"/>
       <c r="B26" s="164" t="s">
         <v>198</v>
@@ -10147,7 +10154,7 @@
       <c r="X26" s="112"/>
       <c r="Y26" s="112"/>
     </row>
-    <row r="27" spans="1:25" ht="12.5">
+    <row r="27" spans="1:25" ht="12.75">
       <c r="A27" s="112"/>
       <c r="B27" s="164" t="s">
         <v>199</v>
@@ -10199,7 +10206,7 @@
       <c r="X27" s="112"/>
       <c r="Y27" s="112"/>
     </row>
-    <row r="28" spans="1:25" ht="12.5">
+    <row r="28" spans="1:25" ht="12.75">
       <c r="A28" s="112"/>
       <c r="B28" s="164" t="s">
         <v>200</v>
@@ -10251,7 +10258,7 @@
       <c r="X28" s="112"/>
       <c r="Y28" s="112"/>
     </row>
-    <row r="29" spans="1:25" ht="12.5">
+    <row r="29" spans="1:25" ht="12.75">
       <c r="A29" s="112"/>
       <c r="B29" s="165"/>
       <c r="C29" s="112"/>
@@ -10284,7 +10291,7 @@
       <c r="X29" s="112"/>
       <c r="Y29" s="112"/>
     </row>
-    <row r="30" spans="1:25" ht="12.5">
+    <row r="30" spans="1:25" ht="12.75">
       <c r="A30" s="112"/>
       <c r="B30" s="164"/>
       <c r="C30" s="112"/>
@@ -10334,7 +10341,7 @@
       <c r="X30" s="112"/>
       <c r="Y30" s="112"/>
     </row>
-    <row r="31" spans="1:25" ht="12.5">
+    <row r="31" spans="1:25" ht="12.75">
       <c r="A31" s="112"/>
       <c r="B31" s="164"/>
       <c r="C31" s="112"/>
@@ -10375,7 +10382,7 @@
       <c r="X31" s="112"/>
       <c r="Y31" s="112"/>
     </row>
-    <row r="32" spans="1:25" ht="12.5">
+    <row r="32" spans="1:25" ht="12.75">
       <c r="A32" s="112"/>
       <c r="B32" s="164"/>
       <c r="C32" s="112"/>
@@ -10402,7 +10409,7 @@
       <c r="X32" s="112"/>
       <c r="Y32" s="112"/>
     </row>
-    <row r="33" spans="1:25" ht="12.5">
+    <row r="33" spans="1:25" ht="12.75">
       <c r="A33" s="112"/>
       <c r="B33" s="164"/>
       <c r="C33" s="112"/>
@@ -10429,15 +10436,15 @@
       <c r="X33" s="112"/>
       <c r="Y33" s="112"/>
     </row>
-    <row r="34" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="34" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B34" s="165"/>
     </row>
-    <row r="35" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="35" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B35" s="164" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="36" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="36" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B36" s="164" t="s">
         <v>217</v>
       </c>
@@ -10445,7 +10452,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="37" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="37" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B37" s="164" t="s">
         <v>219</v>
       </c>
@@ -10453,10 +10460,10 @@
         <v>220</v>
       </c>
     </row>
-    <row r="38" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="38" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B38" s="165"/>
     </row>
-    <row r="39" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="39" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B39" s="164" t="s">
         <v>226</v>
       </c>
@@ -10464,7 +10471,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="40" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="40" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B40" s="164" t="s">
         <v>223</v>
       </c>
@@ -10472,7 +10479,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="41" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="41" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B41" s="164" t="s">
         <v>225</v>
       </c>
@@ -10480,10 +10487,10 @@
         <v>228</v>
       </c>
     </row>
-    <row r="42" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="42" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B42" s="166"/>
     </row>
-    <row r="43" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="43" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B43" s="164" t="s">
         <v>229</v>
       </c>
@@ -10491,7 +10498,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="44" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="44" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B44" s="164" t="s">
         <v>231</v>
       </c>
@@ -10499,7 +10506,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="45" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="45" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B45" s="164" t="s">
         <v>275</v>
       </c>
@@ -10507,10 +10514,10 @@
         <v>276</v>
       </c>
     </row>
-    <row r="46" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="46" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B46" s="166"/>
     </row>
-    <row r="47" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="47" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B47" s="164" t="s">
         <v>234</v>
       </c>
@@ -10518,7 +10525,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="48" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="48" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B48" s="164" t="s">
         <v>233</v>
       </c>
@@ -10526,7 +10533,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="49" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="49" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B49" s="164" t="s">
         <v>277</v>
       </c>
@@ -10534,13 +10541,13 @@
         <v>278</v>
       </c>
     </row>
-    <row r="50" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="50" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B50" s="164"/>
     </row>
-    <row r="51" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="51" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B51" s="164"/>
     </row>
-    <row r="52" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="52" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B52" s="164" t="s">
         <v>237</v>
       </c>
@@ -10548,7 +10555,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="53" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="53" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B53" s="164" t="s">
         <v>238</v>
       </c>
@@ -10556,7 +10563,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="54" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="54" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B54" s="164" t="s">
         <v>243</v>
       </c>
@@ -10564,7 +10571,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="55" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="55" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B55" s="164" t="s">
         <v>245</v>
       </c>
@@ -10572,10 +10579,10 @@
         <v>246</v>
       </c>
     </row>
-    <row r="56" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="56" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B56" s="164"/>
     </row>
-    <row r="57" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="57" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B57" s="164" t="s">
         <v>252</v>
       </c>
@@ -10583,7 +10590,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="58" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="58" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B58" s="164" t="s">
         <v>247</v>
       </c>
@@ -10591,7 +10598,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="59" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="59" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B59" s="164" t="s">
         <v>249</v>
       </c>
@@ -10599,7 +10606,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="60" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="60" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B60" s="164" t="s">
         <v>250</v>
       </c>
@@ -10607,10 +10614,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="61" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="61" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B61" s="164"/>
     </row>
-    <row r="62" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="62" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B62" s="164" t="s">
         <v>256</v>
       </c>
@@ -10618,7 +10625,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="63" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="63" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B63" s="164" t="s">
         <v>257</v>
       </c>
@@ -10626,7 +10633,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="64" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="64" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B64" s="164" t="s">
         <v>258</v>
       </c>
@@ -10634,7 +10641,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="65" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="65" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B65" s="164" t="s">
         <v>259</v>
       </c>
@@ -10642,7 +10649,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="66" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="66" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B66" s="164" t="s">
         <v>260</v>
       </c>
@@ -10650,10 +10657,10 @@
         <v>265</v>
       </c>
     </row>
-    <row r="67" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="67" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B67" s="164"/>
     </row>
-    <row r="68" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="68" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B68" s="164" t="s">
         <v>266</v>
       </c>
@@ -10661,7 +10668,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="69" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="69" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B69" s="164" t="s">
         <v>268</v>
       </c>
@@ -10669,10 +10676,10 @@
         <v>269</v>
       </c>
     </row>
-    <row r="70" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="70" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B70" s="164"/>
     </row>
-    <row r="71" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="71" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B71" s="164" t="s">
         <v>272</v>
       </c>
@@ -10680,7 +10687,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="72" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="72" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B72" s="164" t="s">
         <v>270</v>
       </c>
@@ -10688,7 +10695,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="73" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="73" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B73" s="164" t="s">
         <v>274</v>
       </c>
@@ -10696,10 +10703,10 @@
         <v>279</v>
       </c>
     </row>
-    <row r="74" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="74" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B74" s="164"/>
     </row>
-    <row r="75" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="75" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B75" s="164" t="s">
         <v>281</v>
       </c>
@@ -10707,7 +10714,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="76" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="76" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B76" s="164" t="s">
         <v>280</v>
       </c>
@@ -10715,7 +10722,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="77" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="77" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B77" s="164" t="s">
         <v>282</v>
       </c>
@@ -10723,7 +10730,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="78" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="78" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B78" s="164" t="s">
         <v>284</v>
       </c>
@@ -10731,7 +10738,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="79" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="79" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B79" s="164" t="s">
         <v>285</v>
       </c>
@@ -10739,10 +10746,10 @@
         <v>286</v>
       </c>
     </row>
-    <row r="80" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="80" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B80" s="164"/>
     </row>
-    <row r="81" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="81" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B81" s="164" t="s">
         <v>287</v>
       </c>
@@ -10750,7 +10757,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="82" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="82" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B82" s="164" t="s">
         <v>288</v>
       </c>
@@ -10758,7 +10765,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="83" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="83" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B83" s="164" t="s">
         <v>289</v>
       </c>
@@ -10766,7 +10773,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="84" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="84" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B84" s="164" t="s">
         <v>290</v>
       </c>
@@ -10774,7 +10781,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="85" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="85" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B85" s="164" t="s">
         <v>291</v>
       </c>
@@ -10782,10 +10789,10 @@
         <v>286</v>
       </c>
     </row>
-    <row r="86" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="86" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B86" s="164"/>
     </row>
-    <row r="87" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="87" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B87" s="164" t="s">
         <v>294</v>
       </c>
@@ -10793,7 +10800,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="88" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="88" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B88" s="164" t="s">
         <v>296</v>
       </c>
@@ -10801,7 +10808,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="89" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="89" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B89" s="164" t="s">
         <v>297</v>
       </c>
@@ -10809,7 +10816,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="90" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="90" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B90" s="164" t="s">
         <v>300</v>
       </c>
@@ -10817,7 +10824,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="91" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="91" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B91" s="164" t="s">
         <v>302</v>
       </c>
@@ -10825,8 +10832,8 @@
         <v>286</v>
       </c>
     </row>
-    <row r="92" spans="2:3" s="112" customFormat="1" ht="12.5"/>
-    <row r="93" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="92" spans="2:3" s="112" customFormat="1" ht="12.75"/>
+    <row r="93" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B93" s="164" t="s">
         <v>199</v>
       </c>
@@ -10834,7 +10841,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="94" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="94" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B94" s="164" t="s">
         <v>200</v>
       </c>
@@ -10842,10 +10849,10 @@
         <v>303</v>
       </c>
     </row>
-    <row r="95" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="95" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B95" s="165"/>
     </row>
-    <row r="96" spans="2:3" ht="12.5">
+    <row r="96" spans="2:3" ht="12.75">
       <c r="B96" s="164" t="s">
         <v>221</v>
       </c>
@@ -10977,9 +10984,9 @@
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="2" max="7" width="15.77734375" customWidth="1"/>
+    <col min="2" max="7" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -11662,18 +11669,18 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="18" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="18" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="19" max="23" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12663,13 +12670,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -12756,7 +12763,7 @@
         <f>'Main Page'!$B$29</f>
         <v>28.647889756541161</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>464</v>
       </c>
       <c r="K8" s="380"/>
@@ -12772,7 +12779,7 @@
         <f>'Main Page'!$B$34</f>
         <v>2.6</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>465</v>
       </c>
       <c r="K9" s="380"/>
@@ -12788,7 +12795,7 @@
         <f>'Main Page'!$B$35</f>
         <v>90</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>466</v>
       </c>
       <c r="K10" s="380"/>
@@ -12804,7 +12811,7 @@
         <f>'Main Page'!$B$40</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>467</v>
       </c>
       <c r="K11" s="380"/>
@@ -12820,7 +12827,7 @@
         <f>'Main Page'!$B$37*PI()/180</f>
         <v>4.5378560551852569E-2</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>468</v>
       </c>
       <c r="K12" s="380"/>
@@ -12836,7 +12843,7 @@
         <f>'Main Page'!$B$38*PI()/180</f>
         <v>0.52359877559829882</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>469</v>
       </c>
       <c r="K13" s="380"/>
@@ -12852,7 +12859,7 @@
         <f>1/C12^C15</f>
         <v>0.21302244142778143</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>470</v>
       </c>
       <c r="K14" s="380"/>
@@ -12868,27 +12875,60 @@
         <f>'Main Page'!$B$39</f>
         <v>-0.5</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
         <v>471</v>
       </c>
       <c r="K15" s="380"/>
     </row>
     <row r="16" spans="1:14">
+      <c r="B16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C16" s="101">
+        <f>(4*'Main Page'!$B$29/30*PI())^2</f>
+        <v>144</v>
+      </c>
+      <c r="D16" s="101">
+        <v>0</v>
+      </c>
+      <c r="E16" s="101">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>513</v>
+      </c>
       <c r="K16" s="380"/>
     </row>
-    <row r="17" spans="11:11">
+    <row r="17" spans="2:11">
+      <c r="B17" t="s">
+        <v>512</v>
+      </c>
+      <c r="C17" s="101">
+        <f>(4*'Main Page'!$B$29/30*PI())^2</f>
+        <v>144</v>
+      </c>
+      <c r="D17" s="101">
+        <f>2*0.8*(4*'Main Page'!$B$29/30*PI())</f>
+        <v>19.200000000000003</v>
+      </c>
+      <c r="E17" s="101">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>514</v>
+      </c>
       <c r="K17" s="102"/>
     </row>
-    <row r="19" spans="11:11">
+    <row r="19" spans="2:11">
       <c r="K19" s="381"/>
     </row>
-    <row r="20" spans="11:11">
+    <row r="20" spans="2:11">
       <c r="K20" s="102"/>
     </row>
-    <row r="21" spans="11:11">
+    <row r="21" spans="2:11">
       <c r="K21" s="102"/>
     </row>
-    <row r="22" spans="11:11">
+    <row r="22" spans="2:11">
       <c r="K22" s="102"/>
     </row>
   </sheetData>
@@ -12904,12 +12944,12 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -13178,14 +13218,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="15.77734375" customWidth="1"/>
+    <col min="3" max="8" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -13539,18 +13579,18 @@
       <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="16" style="18" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="11" width="12.44140625" customWidth="1"/>
+    <col min="10" max="11" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1">
@@ -13558,7 +13598,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="11" thickBot="1">
+    <row r="2" spans="1:11" ht="12" thickBot="1">
       <c r="A2" s="409" t="s">
         <v>84</v>
       </c>
@@ -13590,7 +13630,7 @@
       <c r="G3" s="77"/>
       <c r="H3" s="78"/>
     </row>
-    <row r="4" spans="1:11" ht="11" thickBot="1">
+    <row r="4" spans="1:11" ht="12" thickBot="1">
       <c r="A4" s="263">
         <v>0.01</v>
       </c>
@@ -13618,7 +13658,7 @@
       <c r="D6" s="59"/>
       <c r="E6" s="57"/>
     </row>
-    <row r="7" spans="1:11" s="19" customFormat="1" ht="32.5" customHeight="1" thickBot="1">
+    <row r="7" spans="1:11" s="19" customFormat="1" ht="32.450000000000003" customHeight="1" thickBot="1">
       <c r="A7" s="45" t="s">
         <v>1</v>
       </c>
@@ -13653,7 +13693,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="10.5" thickBot="1">
+    <row r="8" spans="1:11" ht="12" thickBot="1">
       <c r="A8" s="47">
         <v>1</v>
       </c>
@@ -13696,7 +13736,7 @@
         <v>62126221909.368462</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="10.5" thickBot="1">
+    <row r="9" spans="1:11" ht="12" thickBot="1">
       <c r="A9" s="48">
         <v>2</v>
       </c>
@@ -13739,7 +13779,7 @@
         <v>50601045349.013542</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="10.5" thickBot="1">
+    <row r="10" spans="1:11" ht="12" thickBot="1">
       <c r="A10" s="48">
         <v>3</v>
       </c>
@@ -13782,7 +13822,7 @@
         <v>40756895137.180222</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="10.5" thickBot="1">
+    <row r="11" spans="1:11" ht="12" thickBot="1">
       <c r="A11" s="48">
         <v>4</v>
       </c>
@@ -13825,7 +13865,7 @@
         <v>32422036127.620483</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="10.5" thickBot="1">
+    <row r="12" spans="1:11" ht="12" thickBot="1">
       <c r="A12" s="48">
         <v>5</v>
       </c>
@@ -13868,7 +13908,7 @@
         <v>25433971568.120796</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="10.5" thickBot="1">
+    <row r="13" spans="1:11" ht="12" thickBot="1">
       <c r="A13" s="48">
         <v>6</v>
       </c>
@@ -13911,7 +13951,7 @@
         <v>19639443100.502033</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="10.5" thickBot="1">
+    <row r="14" spans="1:11" ht="12" thickBot="1">
       <c r="A14" s="48">
         <v>7</v>
       </c>
@@ -13954,7 +13994,7 @@
         <v>14894430760.619625</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="10.5" thickBot="1">
+    <row r="15" spans="1:11" ht="12" thickBot="1">
       <c r="A15" s="48">
         <v>8</v>
       </c>
@@ -13997,7 +14037,7 @@
         <v>11064152978.363453</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="10.5" thickBot="1">
+    <row r="16" spans="1:11" ht="12" thickBot="1">
       <c r="A16" s="48">
         <v>9</v>
       </c>
@@ -14293,7 +14333,7 @@
       <c r="J31" s="29"/>
       <c r="K31" s="30"/>
     </row>
-    <row r="32" spans="1:11" ht="10.5" thickBot="1">
+    <row r="32" spans="1:11" ht="12" thickBot="1">
       <c r="A32" s="49">
         <v>25</v>
       </c>
@@ -14330,33 +14370,33 @@
       <selection activeCell="D2" sqref="D2:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5" customWidth="1"/>
     <col min="13" max="13" width="12.33203125" customWidth="1"/>
     <col min="14" max="14" width="11.6640625" customWidth="1"/>
     <col min="15" max="15" width="7.33203125" customWidth="1"/>
-    <col min="16" max="16" width="10.44140625" customWidth="1"/>
-    <col min="17" max="17" width="15.44140625" customWidth="1"/>
+    <col min="16" max="16" width="10.5" customWidth="1"/>
+    <col min="17" max="17" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.65" customHeight="1" thickBot="1">
+    <row r="1" spans="1:20" ht="15.6" customHeight="1" thickBot="1">
       <c r="A1" s="55" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="57"/>
     </row>
-    <row r="2" spans="1:20" ht="20.5" thickBot="1">
+    <row r="2" spans="1:20" ht="23.25" thickBot="1">
       <c r="A2" s="96" t="s">
         <v>56</v>
       </c>
@@ -14370,7 +14410,7 @@
       <c r="E2" s="397"/>
       <c r="F2" s="398"/>
     </row>
-    <row r="3" spans="1:20" ht="20.5" thickBot="1">
+    <row r="3" spans="1:20" ht="23.25" thickBot="1">
       <c r="A3" s="98" t="s">
         <v>57</v>
       </c>
@@ -14393,7 +14433,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="11" thickBot="1">
+    <row r="4" spans="1:20" ht="12" thickBot="1">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="D4" s="263">
@@ -14411,7 +14451,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:20" ht="10.5">
+    <row r="5" spans="1:20">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="F5" s="4"/>
@@ -14421,7 +14461,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:20" ht="13">
+    <row r="6" spans="1:20" ht="12.75">
       <c r="A6" s="55" t="s">
         <v>32</v>
       </c>
@@ -14435,7 +14475,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:20" ht="10.5">
+    <row r="7" spans="1:20">
       <c r="A7" s="52" t="s">
         <v>34</v>
       </c>
@@ -14447,7 +14487,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:20" s="5" customFormat="1" ht="10.5">
+    <row r="8" spans="1:20" s="5" customFormat="1">
       <c r="A8" s="13" t="s">
         <v>27</v>
       </c>
@@ -14468,7 +14508,7 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="1:20" s="19" customFormat="1" ht="30">
+    <row r="9" spans="1:20" s="19" customFormat="1" ht="33.75">
       <c r="A9" s="87" t="s">
         <v>0</v>
       </c>
@@ -16125,7 +16165,7 @@
       <c r="S31" s="9"/>
       <c r="T31" s="9"/>
     </row>
-    <row r="32" spans="1:20" ht="10.5">
+    <row r="32" spans="1:20">
       <c r="A32" s="7">
         <v>23</v>
       </c>
@@ -16544,27 +16584,27 @@
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="12.6640625" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
     <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="10.77734375" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" customWidth="1"/>
     <col min="14" max="14" width="12.33203125" customWidth="1"/>
-    <col min="15" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.44140625" customWidth="1"/>
+    <col min="15" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5" customWidth="1"/>
     <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="27" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="27" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:21">

--- a/FAST_models/WindPACT/excel_proc/turbines/0.75A08V00_proc.xlsx
+++ b/FAST_models/WindPACT/excel_proc/turbines/0.75A08V00_proc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="705" windowWidth="17565" windowHeight="12990" activeTab="3"/>
+    <workbookView xWindow="1560" yWindow="705" windowWidth="17565" windowHeight="12990"/>
   </bookViews>
   <sheets>
     <sheet name="Main Page" sheetId="5" r:id="rId1"/>
@@ -4479,11 +4479,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="95175808"/>
-        <c:axId val="95177728"/>
+        <c:axId val="96953472"/>
+        <c:axId val="96955392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95175808"/>
+        <c:axId val="96953472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4568,12 +4568,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95177728"/>
+        <c:crossAx val="96955392"/>
         <c:crossesAt val="-10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95177728"/>
+        <c:axId val="96955392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4657,7 +4657,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95175808"/>
+        <c:crossAx val="96953472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5733,8 +5733,8 @@
   </sheetPr>
   <dimension ref="A1:U158"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -10980,7 +10980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
@@ -11665,8 +11665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -12670,7 +12670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -12941,7 +12941,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -13219,7 +13219,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>

--- a/FAST_models/WindPACT/excel_proc/turbines/0.75A08V00_proc.xlsx
+++ b/FAST_models/WindPACT/excel_proc/turbines/0.75A08V00_proc.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="518">
   <si>
     <t>number</t>
   </si>
@@ -1603,9 +1603,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>cylinder</t>
-  </si>
-  <si>
     <t>Initial value = 0.03*D (shorter than for 750 kW?)</t>
   </si>
   <si>
@@ -2042,6 +2039,18 @@
   </si>
   <si>
     <t>denominator blade pitch actuator TF</t>
+  </si>
+  <si>
+    <t>PrnElm</t>
+  </si>
+  <si>
+    <t>NOPRINT</t>
+  </si>
+  <si>
+    <t>cylinder.dat</t>
+  </si>
+  <si>
+    <t>&lt;-- added ".dat" (JR)</t>
   </si>
 </sst>
 </file>
@@ -4479,11 +4488,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="96953472"/>
-        <c:axId val="96955392"/>
+        <c:axId val="104359040"/>
+        <c:axId val="104360960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96953472"/>
+        <c:axId val="104359040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4568,12 +4577,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96955392"/>
+        <c:crossAx val="104360960"/>
         <c:crossesAt val="-10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96955392"/>
+        <c:axId val="104360960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4657,7 +4666,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96953472"/>
+        <c:crossAx val="104359040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5733,8 +5742,8 @@
   </sheetPr>
   <dimension ref="A1:U158"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I141" sqref="I141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -5757,10 +5766,10 @@
         <v>40</v>
       </c>
       <c r="B1" s="356" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C1" s="405" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D1" s="406"/>
       <c r="E1" s="406"/>
@@ -6004,31 +6013,31 @@
         <v>129646444.93189973</v>
       </c>
       <c r="D14" s="352" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E14" s="353"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="61" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B15" s="378">
         <v>5</v>
       </c>
       <c r="D15" s="352" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E15" s="353"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="61" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B16" s="378">
         <v>665139</v>
       </c>
       <c r="D16" s="352" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E16" s="353"/>
     </row>
@@ -6233,14 +6242,14 @@
     </row>
     <row r="31" spans="1:21" ht="9.75" customHeight="1">
       <c r="A31" s="355" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B31" s="267">
         <f>B92*1000/(B87*PI()/30)/(B19)</f>
         <v>4188.2879761025097</v>
       </c>
       <c r="D31" s="352" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E31" s="353"/>
     </row>
@@ -6279,49 +6288,49 @@
     </row>
     <row r="37" spans="1:5" ht="12" customHeight="1">
       <c r="A37" s="379" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B37" s="273">
         <v>2.6</v>
       </c>
       <c r="D37" s="352" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E37" s="353"/>
     </row>
     <row r="38" spans="1:5" ht="12" customHeight="1">
       <c r="A38" s="379" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B38" s="273">
         <v>30</v>
       </c>
       <c r="D38" s="352" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E38" s="353"/>
     </row>
     <row r="39" spans="1:5" ht="12" customHeight="1">
       <c r="A39" s="379" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B39" s="273">
         <v>-0.5</v>
       </c>
       <c r="D39" s="352" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E39" s="353"/>
     </row>
     <row r="40" spans="1:5" ht="12" customHeight="1">
       <c r="A40" s="379" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B40" s="273">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D40" s="352" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E40" s="353"/>
     </row>
@@ -6331,7 +6340,7 @@
     </row>
     <row r="42" spans="1:5" ht="12" customHeight="1">
       <c r="A42" s="109" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B42" s="29"/>
       <c r="D42" s="359"/>
@@ -6339,14 +6348,14 @@
     </row>
     <row r="43" spans="1:5" ht="12" customHeight="1">
       <c r="A43" s="379" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B43" s="273">
         <f>B31/B87^2</f>
         <v>1.2926814741057128E-3</v>
       </c>
       <c r="D43" s="352" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E43" s="353"/>
     </row>
@@ -6399,7 +6408,7 @@
     </row>
     <row r="51" spans="1:4" ht="13.5" customHeight="1">
       <c r="A51" s="379" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B51" s="330">
         <v>5</v>
@@ -6407,13 +6416,13 @@
     </row>
     <row r="52" spans="1:4" ht="18" customHeight="1">
       <c r="A52" s="109" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B52" s="63"/>
     </row>
     <row r="53" spans="1:4" ht="13.5" customHeight="1">
       <c r="A53" s="100" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B53" s="105">
         <f>ABS(B8)+B13/2*(B11+B18)/57.3-0.5*(B47+B13/2/B9*(B49-B47))</f>
@@ -6451,7 +6460,7 @@
         <v>85</v>
       </c>
       <c r="D57" s="270" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="10.9" customHeight="1">
@@ -6465,7 +6474,7 @@
         <v>85</v>
       </c>
       <c r="D58" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -6550,7 +6559,7 @@
         <v>85</v>
       </c>
       <c r="D66" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -6758,24 +6767,24 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B86" s="276">
         <v>75</v>
       </c>
       <c r="C86" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B87" s="276">
         <v>1800</v>
       </c>
       <c r="C87" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -6973,12 +6982,12 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="111" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="331" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B109" s="332">
         <f>'Blade Data'!R32*B10+E8</f>
@@ -6990,7 +6999,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="331" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B110" s="332">
         <f>E5+E6+E7</f>
@@ -7002,7 +7011,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="331" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B111" s="332">
         <f>B109+B110</f>
@@ -7014,7 +7023,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B112" s="332">
         <f>GECtwrdata!O26</f>
@@ -7249,7 +7258,7 @@
         <v>89</v>
       </c>
       <c r="E122" s="384" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F122" s="188" t="s">
         <v>324</v>
@@ -7258,7 +7267,7 @@
         <v>325</v>
       </c>
       <c r="H122" s="384" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I122" s="188" t="s">
         <v>342</v>
@@ -7572,7 +7581,7 @@
         <v>350</v>
       </c>
       <c r="H131" s="358" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -7586,7 +7595,7 @@
         <v>363</v>
       </c>
       <c r="C134" s="385" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D134" s="392"/>
     </row>
@@ -7680,10 +7689,10 @@
     </row>
     <row r="143" spans="1:13" ht="12">
       <c r="A143" s="340" t="s">
+        <v>398</v>
+      </c>
+      <c r="B143" s="347" t="s">
         <v>399</v>
-      </c>
-      <c r="B143" s="347" t="s">
-        <v>400</v>
       </c>
       <c r="C143" s="348"/>
     </row>
@@ -7693,9 +7702,12 @@
       </c>
       <c r="B144" s="342"/>
       <c r="C144" s="343" t="s">
-        <v>378</v>
-      </c>
-      <c r="E144" s="359"/>
+        <v>516</v>
+      </c>
+      <c r="E144" s="352" t="s">
+        <v>517</v>
+      </c>
+      <c r="F144" s="353"/>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="341">
@@ -7703,10 +7715,10 @@
       </c>
       <c r="B145" s="344"/>
       <c r="C145" s="345" t="s">
+        <v>405</v>
+      </c>
+      <c r="E145" s="352" t="s">
         <v>406</v>
-      </c>
-      <c r="E145" s="352" t="s">
-        <v>407</v>
       </c>
       <c r="F145" s="353"/>
       <c r="G145" s="353"/>
@@ -7717,10 +7729,10 @@
       </c>
       <c r="B146" s="344"/>
       <c r="C146" s="345" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E146" s="352" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F146" s="353"/>
       <c r="G146" s="353"/>
@@ -7731,10 +7743,10 @@
       </c>
       <c r="B147" s="360"/>
       <c r="C147" s="361" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E147" s="352" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F147" s="353"/>
       <c r="G147" s="353"/>
@@ -7742,12 +7754,12 @@
     <row r="148" spans="1:7" ht="12" thickBot="1"/>
     <row r="149" spans="1:7" ht="12" thickBot="1">
       <c r="A149" s="395" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B149" s="397"/>
       <c r="C149" s="398"/>
       <c r="E149" s="352" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F149" s="353"/>
     </row>
@@ -7762,7 +7774,7 @@
         <v>37</v>
       </c>
       <c r="E150" s="352" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F150" s="353"/>
     </row>
@@ -7777,19 +7789,19 @@
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="E151" s="352" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F151" s="353"/>
     </row>
     <row r="152" spans="1:7" ht="12" thickBot="1"/>
     <row r="153" spans="1:7" ht="12" thickBot="1">
       <c r="A153" s="395" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B153" s="396"/>
       <c r="C153" s="366"/>
       <c r="E153" s="352" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F153" s="353"/>
     </row>
@@ -7802,7 +7814,7 @@
       </c>
       <c r="C154" s="351"/>
       <c r="E154" s="352" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F154" s="353"/>
     </row>
@@ -7815,7 +7827,7 @@
       </c>
       <c r="C155" s="371"/>
       <c r="E155" s="352" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F155" s="353"/>
     </row>
@@ -7827,7 +7839,7 @@
         <v>3.4349999999999999E-2</v>
       </c>
       <c r="E156" s="352" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F156" s="353"/>
     </row>
@@ -7839,7 +7851,7 @@
         <v>3.4349999999999999E-2</v>
       </c>
       <c r="E157" s="352" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F157" s="353"/>
     </row>
@@ -8004,14 +8016,14 @@
     </row>
     <row r="11" spans="1:15">
       <c r="B11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C11" s="153">
         <f>'Main Page'!B51</f>
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -8055,7 +8067,7 @@
         <v>309</v>
       </c>
       <c r="O13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -10978,10 +10990,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -10989,50 +11001,50 @@
     <col min="2" max="7" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B1" t="s">
         <v>428</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>429</v>
       </c>
-      <c r="C1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C3" s="18">
         <f>'Main Page'!B17</f>
         <v>1.2250000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C4">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C5" s="18" t="str">
         <f>'Main Page'!C144</f>
-        <v>cylinder</v>
+        <v>cylinder.dat</v>
       </c>
       <c r="D5" s="18" t="str">
         <f>'Main Page'!C145</f>
@@ -11047,12 +11059,12 @@
         <v>s826_1603.dat</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C6" s="18">
         <v>15</v>
@@ -11061,27 +11073,30 @@
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="B7" t="s">
+        <v>502</v>
+      </c>
+      <c r="C7" t="s">
+        <v>500</v>
+      </c>
+      <c r="D7" t="s">
         <v>503</v>
       </c>
-      <c r="C7" t="s">
-        <v>501</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>504</v>
-      </c>
-      <c r="E7" t="s">
-        <v>505</v>
       </c>
       <c r="F7" t="s">
         <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>505</v>
+      </c>
+      <c r="H7" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="C8" s="382">
         <f>C37*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>2.0416666666666665</v>
@@ -11102,8 +11117,11 @@
         <f>ROUND((G$39-G$38)/(D$39-D$38)*(C8-D$38)+G$38,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="C9" s="382">
         <f>C38*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>3.625</v>
@@ -11124,8 +11142,11 @@
         <f>ROUNDUP((G$39-G$38)/(D$39-D$38)*(C9-D$38)+G$38,0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="C10" s="382">
         <f>C39*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>5.208333333333333</v>
@@ -11146,8 +11167,11 @@
         <f>ROUND((G$39-G$38)/(D$39-D$38)*(C10-D$38)+G$38,0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="C11" s="382">
         <f>C40*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>6.791666666666667</v>
@@ -11168,8 +11192,11 @@
         <f>ROUND((G$40-G$39)/(D$40-D$39)*(C11-D$39)+G$39,0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="C12" s="382">
         <f>C41*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>8.375</v>
@@ -11190,8 +11217,11 @@
         <f t="shared" ref="G12:G14" si="2">ROUND((G$40-G$39)/(D$40-D$39)*(C12-D$39)+G$39,0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="C13" s="382">
         <f>C42*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>9.9583333333333321</v>
@@ -11212,8 +11242,11 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="C14" s="382">
         <f>C43*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>11.541666666666668</v>
@@ -11234,8 +11267,11 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="C15" s="382">
         <f>C44*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>13.125</v>
@@ -11256,8 +11292,11 @@
         <f>ROUND((G$41-G$40)/(D$41-D$40)*(C15-D$40)+G$40,0)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="C16" s="382">
         <f>C45*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>14.708333333333332</v>
@@ -11278,8 +11317,11 @@
         <f t="shared" ref="G16:G18" si="4">ROUND((G$41-G$40)/(D$41-D$40)*(C16-D$40)+G$40,0)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="3:7">
+      <c r="H16" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8">
       <c r="C17" s="382">
         <f>C46*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>16.291666666666664</v>
@@ -11300,8 +11342,11 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:7">
+      <c r="H17" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8">
       <c r="C18" s="382">
         <f>C47*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>17.875</v>
@@ -11322,8 +11367,11 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:7">
+      <c r="H18" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8">
       <c r="C19" s="382">
         <f>C48*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>19.458333333333336</v>
@@ -11344,8 +11392,11 @@
         <f>ROUND((G$42-G$41)/(D$42-D$41)*(C19-D$41)+G$41,0)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="3:7">
+      <c r="H19" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8">
       <c r="C20" s="382">
         <f>C49*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>21.041666666666668</v>
@@ -11366,8 +11417,11 @@
         <f t="shared" ref="G20:G22" si="6">ROUND((G$42-G$41)/(D$42-D$41)*(C20-D$41)+G$41,0)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:7">
+      <c r="H20" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8">
       <c r="C21" s="382">
         <f>C50*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>22.625</v>
@@ -11388,8 +11442,11 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:7">
+      <c r="H21" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8">
       <c r="C22" s="382">
         <f>C51*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>24.208333333333332</v>
@@ -11410,10 +11467,13 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
+      <c r="H22" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E36" t="s">
         <v>88</v>
@@ -11686,13 +11746,13 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B1" t="s">
         <v>428</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>429</v>
-      </c>
-      <c r="C1" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -11700,7 +11760,7 @@
         <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C3" s="18">
         <f>'Main Page'!B13/2</f>
@@ -11727,7 +11787,7 @@
       <c r="V3" s="18"/>
       <c r="W3" s="18"/>
       <c r="Y3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -11735,7 +11795,7 @@
         <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C4" s="18">
         <f>'Main Page'!B56/2</f>
@@ -11762,15 +11822,15 @@
       <c r="V4" s="18"/>
       <c r="W4" s="18"/>
       <c r="Y4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C5" s="18">
         <f>'Main Page'!A151*100</f>
@@ -11803,36 +11863,36 @@
       <c r="V5" s="18"/>
       <c r="W5" s="18"/>
       <c r="Y5" s="358" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="B6" t="s">
+        <v>492</v>
+      </c>
+      <c r="C6" s="387" t="s">
+        <v>436</v>
+      </c>
+      <c r="D6" s="387" t="s">
         <v>493</v>
       </c>
-      <c r="C6" s="387" t="s">
-        <v>437</v>
-      </c>
-      <c r="D6" s="387" t="s">
+      <c r="E6" s="387" t="s">
         <v>494</v>
       </c>
-      <c r="E6" s="387" t="s">
+      <c r="F6" s="387" t="s">
         <v>495</v>
       </c>
-      <c r="F6" s="387" t="s">
+      <c r="G6" s="387" t="s">
         <v>496</v>
       </c>
-      <c r="G6" s="387" t="s">
+      <c r="H6" s="387" t="s">
         <v>497</v>
       </c>
-      <c r="H6" s="387" t="s">
+      <c r="I6" s="387" t="s">
         <v>498</v>
       </c>
-      <c r="I6" s="387" t="s">
+      <c r="J6" s="387" t="s">
         <v>499</v>
-      </c>
-      <c r="J6" s="387" t="s">
-        <v>500</v>
       </c>
       <c r="K6" s="387"/>
       <c r="L6" s="387"/>
@@ -11848,7 +11908,7 @@
       <c r="V6" s="18"/>
       <c r="W6" s="18"/>
       <c r="Y6" s="358" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -12683,13 +12743,13 @@
   <sheetData>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B2" t="s">
         <v>428</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>429</v>
-      </c>
-      <c r="C2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -12700,10 +12760,10 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C4" s="101">
         <f>'Main Page'!B87</f>
@@ -12716,10 +12776,10 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C5" s="381">
         <f>'Main Page'!$B$31</f>
@@ -12729,10 +12789,10 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C6" s="382">
         <f>'Main Page'!B43</f>
@@ -12742,10 +12802,10 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C7" s="382">
         <v>2.6</v>
@@ -12754,135 +12814,135 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C8">
         <f>'Main Page'!$B$29</f>
         <v>28.647889756541161</v>
       </c>
       <c r="G8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K8" s="380"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C9" s="102">
         <f>'Main Page'!$B$34</f>
         <v>2.6</v>
       </c>
       <c r="G9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K9" s="380"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C10" s="102">
         <f>'Main Page'!$B$35</f>
         <v>90</v>
       </c>
       <c r="G10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K10" s="380"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C11">
         <f>'Main Page'!$B$40</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="G11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K11" s="380"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C12">
         <f>'Main Page'!$B$37*PI()/180</f>
         <v>4.5378560551852569E-2</v>
       </c>
       <c r="G12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K12" s="380"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C13">
         <f>'Main Page'!$B$38*PI()/180</f>
         <v>0.52359877559829882</v>
       </c>
       <c r="G13" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K13" s="380"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C14">
         <f>1/C12^C15</f>
         <v>0.21302244142778143</v>
       </c>
       <c r="G14" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K14" s="380"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C15">
         <f>'Main Page'!$B$39</f>
         <v>-0.5</v>
       </c>
       <c r="G15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K15" s="380"/>
     </row>
     <row r="16" spans="1:14">
       <c r="B16" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C16" s="101">
         <f>(4*'Main Page'!$B$29/30*PI())^2</f>
@@ -12895,13 +12955,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K16" s="380"/>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C17" s="101">
         <f>(4*'Main Page'!$B$29/30*PI())^2</f>
@@ -12915,7 +12975,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K17" s="102"/>
     </row>
@@ -12954,13 +13014,13 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B1" t="s">
         <v>428</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>429</v>
-      </c>
-      <c r="C1" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -12968,7 +13028,7 @@
         <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C3" s="381">
         <f>'Main Page'!B61</f>
@@ -12980,7 +13040,7 @@
         <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C4" s="381">
         <f>('Main Page'!B5*'Main Page'!E5+'Main Page'!B6*'Main Page'!E6+'Main Page'!B7*'Main Page'!E7)/C11</f>
@@ -12993,7 +13053,7 @@
         <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C5" s="381">
         <f>('Main Page'!C5*'Main Page'!E5+'Main Page'!C6*'Main Page'!E6+'Main Page'!C7*'Main Page'!E7)/C11</f>
@@ -13005,7 +13065,7 @@
         <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C6" s="381">
         <f>('Main Page'!D5*'Main Page'!E5+'Main Page'!D6*'Main Page'!E6+'Main Page'!D7*'Main Page'!E7)/C11+'Main Page'!B46</f>
@@ -13020,7 +13080,7 @@
         <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C7" s="381">
         <f>'Main Page'!B9-'Main Page'!B46</f>
@@ -13035,7 +13095,7 @@
         <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C8" s="381">
         <f>'Main Page'!B46</f>
@@ -13047,10 +13107,10 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C9" s="381">
         <f>-'Main Page'!B11</f>
@@ -13060,10 +13120,10 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
+        <v>443</v>
+      </c>
+      <c r="B10" t="s">
         <v>444</v>
-      </c>
-      <c r="B10" t="s">
-        <v>445</v>
       </c>
       <c r="C10" s="381">
         <f>-'Main Page'!B18</f>
@@ -13077,7 +13137,7 @@
         <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C11" s="381">
         <f>SUM('Main Page'!E5+'Main Page'!E6+'Main Page'!E7)</f>
@@ -13091,7 +13151,7 @@
         <v>117</v>
       </c>
       <c r="B12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C12" s="381">
         <f>'Main Page'!E8</f>
@@ -13102,10 +13162,10 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C13" s="381">
         <f>SUM('Main Page'!H5:H7)</f>
@@ -13115,10 +13175,10 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C14" s="381">
         <f>SUM(GECdrivetrain!M11:'GECdrivetrain'!M12)/('Main Page'!$B$88)^2</f>
@@ -13128,10 +13188,10 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B15" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C15" s="381">
         <f>GECdrivetrain!M5</f>
@@ -13140,10 +13200,10 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B16" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C16" s="393">
         <f>'Main Page'!B19*100</f>
@@ -13152,10 +13212,10 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B17" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C17">
         <f>'Main Page'!$B$88</f>
@@ -13164,10 +13224,10 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C18">
         <f>'Main Page'!B14</f>
@@ -13177,10 +13237,10 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
+        <v>480</v>
+      </c>
+      <c r="B19" t="s">
         <v>481</v>
-      </c>
-      <c r="B19" t="s">
-        <v>482</v>
       </c>
       <c r="C19">
         <f>2*'Main Page'!B15/100*SQRT(C18*'Main Page'!B16*C14*C17^2/('Main Page'!B16+C14*C17^2))</f>
@@ -13190,10 +13250,10 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
+        <v>482</v>
+      </c>
+      <c r="B20" t="s">
         <v>483</v>
-      </c>
-      <c r="B20" t="s">
-        <v>484</v>
       </c>
       <c r="C20" s="333">
         <f>'Main Page'!B92*1000</f>
@@ -13230,21 +13290,21 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B1" t="s">
         <v>428</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>429</v>
-      </c>
-      <c r="C1" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C3" s="103">
         <f>'Main Page'!B154*100</f>
@@ -13265,25 +13325,25 @@
     </row>
     <row r="4" spans="1:14">
       <c r="B4" t="s">
+        <v>485</v>
+      </c>
+      <c r="C4" t="s">
+        <v>491</v>
+      </c>
+      <c r="D4" t="s">
         <v>486</v>
       </c>
-      <c r="C4" t="s">
-        <v>492</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>487</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>488</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>489</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>490</v>
-      </c>
-      <c r="H4" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -14561,7 +14621,7 @@
         <v>41</v>
       </c>
       <c r="R9" s="19" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="S9" s="89"/>
       <c r="T9" s="89"/>
@@ -17693,7 +17753,7 @@
         <v>369</v>
       </c>
       <c r="T26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="2:22" ht="13.5">

--- a/FAST_models/WindPACT/excel_proc/turbines/0.75A08V00_proc.xlsx
+++ b/FAST_models/WindPACT/excel_proc/turbines/0.75A08V00_proc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="705" windowWidth="17565" windowHeight="12990"/>
+    <workbookView xWindow="1560" yWindow="705" windowWidth="17565" windowHeight="12990" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Main Page" sheetId="5" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="525">
   <si>
     <t>number</t>
   </si>
@@ -1732,12 +1732,6 @@
     <t>Cylinder changed to produce correct AeroCent (JR)</t>
   </si>
   <si>
-    <t>RotorDiameter</t>
-  </si>
-  <si>
-    <t>HubDiameter</t>
-  </si>
-  <si>
     <t>BladeDamping (%)</t>
   </si>
   <si>
@@ -1804,9 +1798,6 @@
     <t>FoilNm</t>
   </si>
   <si>
-    <t>BldDmp</t>
-  </si>
-  <si>
     <t>BlFract</t>
   </si>
   <si>
@@ -1831,9 +1822,6 @@
     <t>deg</t>
   </si>
   <si>
-    <t>PreCone</t>
-  </si>
-  <si>
     <t>ShftTilt</t>
   </si>
   <si>
@@ -1951,9 +1939,6 @@
     <t>RatedPwr</t>
   </si>
   <si>
-    <t>TwrDmp</t>
-  </si>
-  <si>
     <t>TwrSchedFields</t>
   </si>
   <si>
@@ -2023,9 +2008,6 @@
     <t>ADSched Calculations</t>
   </si>
   <si>
-    <t>BlPitchF</t>
-  </si>
-  <si>
     <t>N-m</t>
   </si>
   <si>
@@ -2051,6 +2033,45 @@
   </si>
   <si>
     <t>&lt;-- added ".dat" (JR)</t>
+  </si>
+  <si>
+    <t>BldFlDmp(1)</t>
+  </si>
+  <si>
+    <t>BldFlDmp(2)</t>
+  </si>
+  <si>
+    <t>BldEdDmp(1)</t>
+  </si>
+  <si>
+    <t>BlPitchF(1)</t>
+  </si>
+  <si>
+    <t>BlPitchF(2)</t>
+  </si>
+  <si>
+    <t>BlPitchF(3)</t>
+  </si>
+  <si>
+    <t>TwrFADmp(1)</t>
+  </si>
+  <si>
+    <t>TwrFADmp(2)</t>
+  </si>
+  <si>
+    <t>TwrSSDmp(1)</t>
+  </si>
+  <si>
+    <t>TwrSSDmp(2)</t>
+  </si>
+  <si>
+    <t>PreCone(1)</t>
+  </si>
+  <si>
+    <t>PreCone(2)</t>
+  </si>
+  <si>
+    <t>PreCone(3)</t>
   </si>
 </sst>
 </file>
@@ -4488,11 +4509,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="104359040"/>
-        <c:axId val="104360960"/>
+        <c:axId val="112813184"/>
+        <c:axId val="112815104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="104359040"/>
+        <c:axId val="112813184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4577,12 +4598,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104360960"/>
+        <c:crossAx val="112815104"/>
         <c:crossesAt val="-10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="104360960"/>
+        <c:axId val="112815104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4666,7 +4687,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104359040"/>
+        <c:crossAx val="112813184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5742,8 +5763,8 @@
   </sheetPr>
   <dimension ref="A1:U158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I141" sqref="I141"/>
+    <sheetView topLeftCell="A115" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H139" sqref="H139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -6013,13 +6034,13 @@
         <v>129646444.93189973</v>
       </c>
       <c r="D14" s="352" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E14" s="353"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="61" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B15" s="378">
         <v>5</v>
@@ -6031,7 +6052,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="61" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B16" s="378">
         <v>665139</v>
@@ -6249,7 +6270,7 @@
         <v>4188.2879761025097</v>
       </c>
       <c r="D31" s="352" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E31" s="353"/>
     </row>
@@ -6288,49 +6309,49 @@
     </row>
     <row r="37" spans="1:5" ht="12" customHeight="1">
       <c r="A37" s="379" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B37" s="273">
         <v>2.6</v>
       </c>
       <c r="D37" s="352" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E37" s="353"/>
     </row>
     <row r="38" spans="1:5" ht="12" customHeight="1">
       <c r="A38" s="379" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B38" s="273">
         <v>30</v>
       </c>
       <c r="D38" s="352" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E38" s="353"/>
     </row>
     <row r="39" spans="1:5" ht="12" customHeight="1">
       <c r="A39" s="379" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B39" s="273">
         <v>-0.5</v>
       </c>
       <c r="D39" s="352" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E39" s="353"/>
     </row>
     <row r="40" spans="1:5" ht="12" customHeight="1">
       <c r="A40" s="379" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B40" s="273">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D40" s="352" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E40" s="353"/>
     </row>
@@ -6348,14 +6369,14 @@
     </row>
     <row r="43" spans="1:5" ht="12" customHeight="1">
       <c r="A43" s="379" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B43" s="273">
         <f>B31/B87^2</f>
         <v>1.2926814741057128E-3</v>
       </c>
       <c r="D43" s="352" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E43" s="353"/>
     </row>
@@ -7258,7 +7279,7 @@
         <v>89</v>
       </c>
       <c r="E122" s="384" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F122" s="188" t="s">
         <v>324</v>
@@ -7267,7 +7288,7 @@
         <v>325</v>
       </c>
       <c r="H122" s="384" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="I122" s="188" t="s">
         <v>342</v>
@@ -7595,7 +7616,7 @@
         <v>363</v>
       </c>
       <c r="C134" s="385" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D134" s="392"/>
     </row>
@@ -7702,10 +7723,10 @@
       </c>
       <c r="B144" s="342"/>
       <c r="C144" s="343" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="E144" s="352" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="F144" s="353"/>
     </row>
@@ -11003,13 +11024,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C1" t="s">
         <v>427</v>
-      </c>
-      <c r="B1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C1" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -11017,7 +11038,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C3" s="18">
         <f>'Main Page'!B17</f>
@@ -11026,10 +11047,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B4" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C4">
         <v>5.0000000000000001E-3</v>
@@ -11037,10 +11058,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C5" s="18" t="str">
         <f>'Main Page'!C144</f>
@@ -11061,10 +11082,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B6" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C6" s="18">
         <v>15</v>
@@ -11075,25 +11096,25 @@
     </row>
     <row r="7" spans="1:8">
       <c r="B7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="D7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="E7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="F7" t="s">
         <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -11118,7 +11139,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -11143,7 +11164,7 @@
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -11168,7 +11189,7 @@
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -11193,7 +11214,7 @@
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -11218,7 +11239,7 @@
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -11243,7 +11264,7 @@
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -11268,7 +11289,7 @@
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -11293,7 +11314,7 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -11318,7 +11339,7 @@
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="17" spans="3:8">
@@ -11343,7 +11364,7 @@
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="18" spans="3:8">
@@ -11368,7 +11389,7 @@
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="19" spans="3:8">
@@ -11393,7 +11414,7 @@
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="20" spans="3:8">
@@ -11418,7 +11439,7 @@
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="21" spans="3:8">
@@ -11443,7 +11464,7 @@
         <v>4</v>
       </c>
       <c r="H21" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="22" spans="3:8">
@@ -11468,12 +11489,12 @@
         <v>4</v>
       </c>
       <c r="H22" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E36" t="s">
         <v>88</v>
@@ -11726,7 +11747,7 @@
   <dimension ref="A1:Y29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="B3" sqref="B3:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -11746,28 +11767,26 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C1" t="s">
         <v>427</v>
-      </c>
-      <c r="B1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C1" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>385</v>
       </c>
       <c r="B3" t="s">
-        <v>432</v>
+        <v>512</v>
       </c>
       <c r="C3" s="18">
-        <f>'Main Page'!B13/2</f>
-        <v>25</v>
-      </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+        <f>'Main Page'!A151*100</f>
+        <v>3.8820000000000001</v>
+      </c>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
@@ -11786,23 +11805,20 @@
       <c r="U3" s="18"/>
       <c r="V3" s="18"/>
       <c r="W3" s="18"/>
-      <c r="Y3" t="s">
+      <c r="Y3" s="358" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" t="s">
-        <v>85</v>
-      </c>
       <c r="B4" t="s">
-        <v>433</v>
+        <v>513</v>
       </c>
       <c r="C4" s="18">
-        <f>'Main Page'!B56/2</f>
-        <v>1.25</v>
+        <f>'Main Page'!B151*100</f>
+        <v>3.8820000000000001</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
+      <c r="E4" s="386"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
@@ -11821,29 +11837,18 @@
       <c r="U4" s="18"/>
       <c r="V4" s="18"/>
       <c r="W4" s="18"/>
-      <c r="Y4" t="s">
-        <v>412</v>
-      </c>
+      <c r="Y4" s="358"/>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" t="s">
-        <v>385</v>
-      </c>
       <c r="B5" t="s">
-        <v>435</v>
-      </c>
-      <c r="C5" s="18">
-        <f>'Main Page'!A151*100</f>
-        <v>3.8820000000000001</v>
-      </c>
-      <c r="D5" s="18">
-        <f>'Main Page'!B151*100</f>
-        <v>3.8820000000000001</v>
-      </c>
-      <c r="E5" s="386">
+        <v>514</v>
+      </c>
+      <c r="C5" s="386">
         <f>'Main Page'!C151*100</f>
         <v>5.8999999999999995</v>
       </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="386"/>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
@@ -11862,37 +11867,35 @@
       <c r="U5" s="18"/>
       <c r="V5" s="18"/>
       <c r="W5" s="18"/>
-      <c r="Y5" s="358" t="s">
-        <v>413</v>
-      </c>
+      <c r="Y5" s="358"/>
     </row>
     <row r="6" spans="1:25">
       <c r="B6" t="s">
+        <v>487</v>
+      </c>
+      <c r="C6" s="387" t="s">
+        <v>433</v>
+      </c>
+      <c r="D6" s="387" t="s">
+        <v>488</v>
+      </c>
+      <c r="E6" s="387" t="s">
+        <v>489</v>
+      </c>
+      <c r="F6" s="387" t="s">
+        <v>490</v>
+      </c>
+      <c r="G6" s="387" t="s">
+        <v>491</v>
+      </c>
+      <c r="H6" s="387" t="s">
         <v>492</v>
       </c>
-      <c r="C6" s="387" t="s">
-        <v>436</v>
-      </c>
-      <c r="D6" s="387" t="s">
+      <c r="I6" s="387" t="s">
         <v>493</v>
       </c>
-      <c r="E6" s="387" t="s">
+      <c r="J6" s="387" t="s">
         <v>494</v>
-      </c>
-      <c r="F6" s="387" t="s">
-        <v>495</v>
-      </c>
-      <c r="G6" s="387" t="s">
-        <v>496</v>
-      </c>
-      <c r="H6" s="387" t="s">
-        <v>497</v>
-      </c>
-      <c r="I6" s="387" t="s">
-        <v>498</v>
-      </c>
-      <c r="J6" s="387" t="s">
-        <v>499</v>
       </c>
       <c r="K6" s="387"/>
       <c r="L6" s="387"/>
@@ -11908,7 +11911,7 @@
       <c r="V6" s="18"/>
       <c r="W6" s="18"/>
       <c r="Y6" s="358" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -12728,10 +12731,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N22"/>
+  <dimension ref="A2:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -12743,13 +12746,13 @@
   <sheetData>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C2" t="s">
         <v>427</v>
-      </c>
-      <c r="B2" t="s">
-        <v>428</v>
-      </c>
-      <c r="C2" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -12763,7 +12766,7 @@
         <v>394</v>
       </c>
       <c r="B4" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C4" s="101">
         <f>'Main Page'!B87</f>
@@ -12776,10 +12779,10 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B5" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C5" s="381">
         <f>'Main Page'!$B$31</f>
@@ -12789,10 +12792,10 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B6" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C6" s="382">
         <f>'Main Page'!B43</f>
@@ -12802,10 +12805,10 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B7" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="C7" s="382">
         <v>2.6</v>
@@ -12814,182 +12817,206 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
+        <v>440</v>
+      </c>
+      <c r="B8" t="s">
+        <v>516</v>
+      </c>
+      <c r="C8" s="382">
+        <v>2.6</v>
+      </c>
+      <c r="K8" s="380"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>440</v>
+      </c>
+      <c r="B9" t="s">
+        <v>517</v>
+      </c>
+      <c r="C9" s="382">
+        <v>2.6</v>
+      </c>
+      <c r="K9" s="380"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
         <v>394</v>
       </c>
-      <c r="B8" t="s">
-        <v>453</v>
-      </c>
-      <c r="C8">
+      <c r="B10" t="s">
+        <v>449</v>
+      </c>
+      <c r="C10">
         <f>'Main Page'!$B$29</f>
         <v>28.647889756541161</v>
       </c>
-      <c r="G8" t="s">
-        <v>463</v>
-      </c>
-      <c r="K8" s="380"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" t="s">
-        <v>443</v>
-      </c>
-      <c r="B9" t="s">
-        <v>454</v>
-      </c>
-      <c r="C9" s="102">
+      <c r="G10" t="s">
+        <v>459</v>
+      </c>
+      <c r="K10" s="380"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>440</v>
+      </c>
+      <c r="B11" t="s">
+        <v>450</v>
+      </c>
+      <c r="C11" s="102">
         <f>'Main Page'!$B$34</f>
         <v>2.6</v>
       </c>
-      <c r="G9" t="s">
-        <v>464</v>
-      </c>
-      <c r="K9" s="380"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" t="s">
-        <v>443</v>
-      </c>
-      <c r="B10" t="s">
-        <v>455</v>
-      </c>
-      <c r="C10" s="102">
+      <c r="G11" t="s">
+        <v>460</v>
+      </c>
+      <c r="K11" s="380"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>440</v>
+      </c>
+      <c r="B12" t="s">
+        <v>451</v>
+      </c>
+      <c r="C12" s="102">
         <f>'Main Page'!$B$35</f>
         <v>90</v>
       </c>
-      <c r="G10" t="s">
-        <v>465</v>
-      </c>
-      <c r="K10" s="380"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" t="s">
+      <c r="G12" t="s">
         <v>461</v>
       </c>
-      <c r="B11" t="s">
-        <v>456</v>
-      </c>
-      <c r="C11">
+      <c r="K12" s="380"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>457</v>
+      </c>
+      <c r="B13" t="s">
+        <v>452</v>
+      </c>
+      <c r="C13">
         <f>'Main Page'!$B$40</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G11" t="s">
-        <v>466</v>
-      </c>
-      <c r="K11" s="380"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" t="s">
+      <c r="G13" t="s">
         <v>462</v>
       </c>
-      <c r="B12" t="s">
-        <v>457</v>
-      </c>
-      <c r="C12">
+      <c r="K13" s="380"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>458</v>
+      </c>
+      <c r="B14" t="s">
+        <v>453</v>
+      </c>
+      <c r="C14">
         <f>'Main Page'!$B$37*PI()/180</f>
         <v>4.5378560551852569E-2</v>
       </c>
-      <c r="G12" t="s">
-        <v>467</v>
-      </c>
-      <c r="K12" s="380"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" t="s">
-        <v>462</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="G14" t="s">
+        <v>463</v>
+      </c>
+      <c r="K14" s="380"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
         <v>458</v>
       </c>
-      <c r="C13">
+      <c r="B15" t="s">
+        <v>454</v>
+      </c>
+      <c r="C15">
         <f>'Main Page'!$B$38*PI()/180</f>
         <v>0.52359877559829882</v>
       </c>
-      <c r="G13" t="s">
-        <v>468</v>
-      </c>
-      <c r="K13" s="380"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" t="s">
-        <v>430</v>
-      </c>
-      <c r="B14" t="s">
-        <v>459</v>
-      </c>
-      <c r="C14">
-        <f>1/C12^C15</f>
+      <c r="G15" t="s">
+        <v>464</v>
+      </c>
+      <c r="K15" s="380"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>428</v>
+      </c>
+      <c r="B16" t="s">
+        <v>455</v>
+      </c>
+      <c r="C16">
+        <f>1/C14^C17</f>
         <v>0.21302244142778143</v>
       </c>
-      <c r="G14" t="s">
-        <v>469</v>
-      </c>
-      <c r="K14" s="380"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" t="s">
-        <v>430</v>
-      </c>
-      <c r="B15" t="s">
-        <v>460</v>
-      </c>
-      <c r="C15">
+      <c r="G16" t="s">
+        <v>465</v>
+      </c>
+      <c r="K16" s="380"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>428</v>
+      </c>
+      <c r="B17" t="s">
+        <v>456</v>
+      </c>
+      <c r="C17">
         <f>'Main Page'!$B$39</f>
         <v>-0.5</v>
       </c>
-      <c r="G15" t="s">
-        <v>470</v>
-      </c>
-      <c r="K15" s="380"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="B16" t="s">
-        <v>510</v>
-      </c>
-      <c r="C16" s="101">
+      <c r="G17" t="s">
+        <v>466</v>
+      </c>
+      <c r="K17" s="380"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="B18" t="s">
+        <v>504</v>
+      </c>
+      <c r="C18" s="101">
         <f>(4*'Main Page'!$B$29/30*PI())^2</f>
         <v>144</v>
       </c>
-      <c r="D16" s="101">
-        <v>0</v>
-      </c>
-      <c r="E16" s="101">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>512</v>
-      </c>
-      <c r="K16" s="380"/>
-    </row>
-    <row r="17" spans="2:11">
-      <c r="B17" t="s">
-        <v>511</v>
-      </c>
-      <c r="C17" s="101">
+      <c r="D18" s="101">
+        <v>0</v>
+      </c>
+      <c r="E18" s="101">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>506</v>
+      </c>
+      <c r="K18" s="380"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="B19" t="s">
+        <v>505</v>
+      </c>
+      <c r="C19" s="101">
         <f>(4*'Main Page'!$B$29/30*PI())^2</f>
         <v>144</v>
       </c>
-      <c r="D17" s="101">
+      <c r="D19" s="101">
         <f>2*0.8*(4*'Main Page'!$B$29/30*PI())</f>
         <v>19.200000000000003</v>
       </c>
-      <c r="E17" s="101">
+      <c r="E19" s="101">
         <v>1</v>
       </c>
-      <c r="G17" t="s">
-        <v>513</v>
-      </c>
-      <c r="K17" s="102"/>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="K19" s="381"/>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="K20" s="102"/>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="K21" s="102"/>
-    </row>
-    <row r="22" spans="2:11">
+      <c r="G19" t="s">
+        <v>507</v>
+      </c>
+      <c r="K19" s="102"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="K21" s="381"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="K22" s="102"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="K23" s="102"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="K24" s="102"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12998,10 +13025,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -13014,13 +13041,13 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C1" t="s">
         <v>427</v>
-      </c>
-      <c r="B1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C1" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -13028,7 +13055,7 @@
         <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C3" s="381">
         <f>'Main Page'!B61</f>
@@ -13040,10 +13067,10 @@
         <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C4" s="381">
-        <f>('Main Page'!B5*'Main Page'!E5+'Main Page'!B6*'Main Page'!E6+'Main Page'!B7*'Main Page'!E7)/C11</f>
+        <f>('Main Page'!B5*'Main Page'!E5+'Main Page'!B6*'Main Page'!E6+'Main Page'!B7*'Main Page'!E7)/C13</f>
         <v>-5.9950003076370724E-2</v>
       </c>
       <c r="I4" s="102"/>
@@ -13053,10 +13080,10 @@
         <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C5" s="381">
-        <f>('Main Page'!C5*'Main Page'!E5+'Main Page'!C6*'Main Page'!E6+'Main Page'!C7*'Main Page'!E7)/C11</f>
+        <f>('Main Page'!C5*'Main Page'!E5+'Main Page'!C6*'Main Page'!E6+'Main Page'!C7*'Main Page'!E7)/C13</f>
         <v>0</v>
       </c>
     </row>
@@ -13065,10 +13092,10 @@
         <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C6" s="381">
-        <f>('Main Page'!D5*'Main Page'!E5+'Main Page'!D6*'Main Page'!E6+'Main Page'!D7*'Main Page'!E7)/C11+'Main Page'!B46</f>
+        <f>('Main Page'!D5*'Main Page'!E5+'Main Page'!D6*'Main Page'!E6+'Main Page'!D7*'Main Page'!E7)/C13+'Main Page'!B46</f>
         <v>1.2043279805609703</v>
       </c>
       <c r="I6" s="103"/>
@@ -13080,7 +13107,7 @@
         <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C7" s="381">
         <f>'Main Page'!B9-'Main Page'!B46</f>
@@ -13095,7 +13122,7 @@
         <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C8" s="381">
         <f>'Main Page'!B46</f>
@@ -13107,10 +13134,10 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B9" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C9" s="381">
         <f>-'Main Page'!B11</f>
@@ -13120,154 +13147,200 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B10" t="s">
-        <v>444</v>
+        <v>522</v>
       </c>
       <c r="C10" s="381">
         <f>-'Main Page'!B18</f>
         <v>0</v>
       </c>
       <c r="I10" s="103"/>
-      <c r="M10" s="358"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
+        <v>440</v>
+      </c>
+      <c r="B11" t="s">
+        <v>523</v>
+      </c>
+      <c r="C11" s="381">
+        <f>-'Main Page'!B18</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="103"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>440</v>
+      </c>
+      <c r="B12" t="s">
+        <v>524</v>
+      </c>
+      <c r="C12" s="381">
+        <f>-'Main Page'!B18</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="103"/>
+      <c r="M12" s="358"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
         <v>117</v>
       </c>
-      <c r="B11" t="s">
-        <v>474</v>
-      </c>
-      <c r="C11" s="381">
+      <c r="B13" t="s">
+        <v>470</v>
+      </c>
+      <c r="C13" s="381">
         <f>SUM('Main Page'!E5+'Main Page'!E6+'Main Page'!E7)</f>
         <v>20950.244259671897</v>
       </c>
-      <c r="I11" s="103"/>
-      <c r="M11" s="358"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
+      <c r="I13" s="103"/>
+      <c r="M13" s="358"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
         <v>117</v>
       </c>
-      <c r="B12" t="s">
-        <v>446</v>
-      </c>
-      <c r="C12" s="381">
+      <c r="B14" t="s">
+        <v>442</v>
+      </c>
+      <c r="C14" s="381">
         <f>'Main Page'!E8</f>
         <v>6573.9348557027251</v>
       </c>
-      <c r="I12" s="103"/>
-      <c r="M12" s="358"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>431</v>
-      </c>
-      <c r="B13" t="s">
-        <v>447</v>
-      </c>
-      <c r="C13" s="381">
+      <c r="I14" s="103"/>
+      <c r="M14" s="358"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>429</v>
+      </c>
+      <c r="B15" t="s">
+        <v>443</v>
+      </c>
+      <c r="C15" s="381">
         <f>SUM('Main Page'!H5:H7)</f>
         <v>8623.1244137844569</v>
       </c>
-      <c r="I13" s="103"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>431</v>
-      </c>
-      <c r="B14" t="s">
-        <v>475</v>
-      </c>
-      <c r="C14" s="381">
+      <c r="I15" s="103"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>429</v>
+      </c>
+      <c r="B16" t="s">
+        <v>471</v>
+      </c>
+      <c r="C16" s="381">
         <f>SUM(GECdrivetrain!M11:'GECdrivetrain'!M12)/('Main Page'!$B$88)^2</f>
         <v>16.651119676874973</v>
       </c>
-      <c r="I14" s="103"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>431</v>
-      </c>
-      <c r="B15" t="s">
-        <v>448</v>
-      </c>
-      <c r="C15" s="381">
+      <c r="I16" s="103"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>429</v>
+      </c>
+      <c r="B17" t="s">
+        <v>444</v>
+      </c>
+      <c r="C17" s="381">
         <f>GECdrivetrain!M5</f>
         <v>5160.9544585651756</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>430</v>
-      </c>
-      <c r="B16" t="s">
-        <v>476</v>
-      </c>
-      <c r="C16" s="393">
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>428</v>
+      </c>
+      <c r="B18" t="s">
+        <v>472</v>
+      </c>
+      <c r="C18" s="393">
         <f>'Main Page'!B19*100</f>
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
-      <c r="A17" t="s">
-        <v>430</v>
-      </c>
-      <c r="B17" t="s">
-        <v>477</v>
-      </c>
-      <c r="C17">
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>428</v>
+      </c>
+      <c r="B19" t="s">
+        <v>473</v>
+      </c>
+      <c r="C19">
         <f>'Main Page'!$B$88</f>
         <v>62.831853071795862</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" t="s">
-        <v>479</v>
-      </c>
-      <c r="B18" t="s">
-        <v>478</v>
-      </c>
-      <c r="C18">
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>475</v>
+      </c>
+      <c r="B20" t="s">
+        <v>474</v>
+      </c>
+      <c r="C20">
         <f>'Main Page'!B14</f>
         <v>129646444.93189973</v>
       </c>
-      <c r="I18" s="103"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" t="s">
-        <v>480</v>
-      </c>
-      <c r="B19" t="s">
-        <v>481</v>
-      </c>
-      <c r="C19">
-        <f>2*'Main Page'!B15/100*SQRT(C18*'Main Page'!B16*C14*C17^2/('Main Page'!B16+C14*C17^2))</f>
+      <c r="I20" s="103"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>476</v>
+      </c>
+      <c r="B21" t="s">
+        <v>477</v>
+      </c>
+      <c r="C21">
+        <f>2*'Main Page'!B15/100*SQRT(C20*'Main Page'!B16*C16*C19^2/('Main Page'!B16+C16*C19^2))</f>
         <v>278494.4553663737</v>
       </c>
-      <c r="I19" s="103"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" t="s">
-        <v>482</v>
-      </c>
-      <c r="B20" t="s">
-        <v>483</v>
-      </c>
-      <c r="C20" s="333">
+      <c r="I21" s="103"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>478</v>
+      </c>
+      <c r="B22" t="s">
+        <v>479</v>
+      </c>
+      <c r="C22" s="333">
         <f>'Main Page'!B92*1000</f>
         <v>750000</v>
       </c>
-      <c r="M20" s="358"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="I21" s="103"/>
-      <c r="M21" s="358"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="I22" s="103"/>
       <c r="M22" s="358"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" t="s">
+        <v>430</v>
+      </c>
+      <c r="C23" s="18">
+        <f>'Main Page'!B13/2</f>
+        <v>25</v>
+      </c>
+      <c r="I23" s="103"/>
+      <c r="M23" s="358"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>431</v>
+      </c>
+      <c r="C24" s="18">
+        <f>'Main Page'!B56/2</f>
+        <v>1.25</v>
+      </c>
+      <c r="I24" s="103"/>
+      <c r="M24" s="358"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13276,10 +13349,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -13290,13 +13363,13 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C1" t="s">
         <v>427</v>
-      </c>
-      <c r="B1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C1" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -13304,315 +13377,261 @@
         <v>385</v>
       </c>
       <c r="B3" t="s">
-        <v>484</v>
+        <v>518</v>
       </c>
       <c r="C3" s="103">
         <f>'Main Page'!B154*100</f>
         <v>3.4350000000000001</v>
       </c>
-      <c r="D3" s="103">
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4" t="s">
+        <v>519</v>
+      </c>
+      <c r="C4" s="103">
         <f>'Main Page'!B155*100</f>
         <v>3.4350000000000001</v>
       </c>
-      <c r="E3" s="103">
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5" t="s">
+        <v>520</v>
+      </c>
+      <c r="C5" s="103">
         <f>'Main Page'!B156*100</f>
         <v>3.4350000000000001</v>
       </c>
-      <c r="F3" s="103">
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="N5" s="358"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="B6" t="s">
+        <v>521</v>
+      </c>
+      <c r="C6" s="103">
         <f>'Main Page'!B157*100</f>
         <v>3.4350000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="B4" t="s">
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="N6" s="358"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7" t="s">
+        <v>480</v>
+      </c>
+      <c r="C7" t="s">
+        <v>486</v>
+      </c>
+      <c r="D7" t="s">
+        <v>481</v>
+      </c>
+      <c r="E7" t="s">
+        <v>482</v>
+      </c>
+      <c r="F7" t="s">
+        <v>483</v>
+      </c>
+      <c r="G7" t="s">
+        <v>484</v>
+      </c>
+      <c r="H7" t="s">
         <v>485</v>
       </c>
-      <c r="C4" t="s">
-        <v>491</v>
-      </c>
-      <c r="D4" t="s">
-        <v>486</v>
-      </c>
-      <c r="E4" t="s">
-        <v>487</v>
-      </c>
-      <c r="F4" t="s">
-        <v>488</v>
-      </c>
-      <c r="G4" t="s">
-        <v>489</v>
-      </c>
-      <c r="H4" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="C5" s="380">
+      <c r="N7" s="358"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="C8" s="380">
         <f>GECtwrdata!$B15/9</f>
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="D8">
         <f>GECtwrdata!$G15</f>
         <v>1456.5699814057803</v>
       </c>
-      <c r="E5" s="388">
+      <c r="E8" s="388">
         <f>GECtwrdata!$N15</f>
         <v>62126221909.368462</v>
       </c>
-      <c r="F5" s="388">
+      <c r="F8" s="388">
         <f>GECtwrdata!$N15</f>
         <v>62126221909.368462</v>
       </c>
-      <c r="G5" s="388">
+      <c r="G8" s="388">
         <f>GECtwrdata!$K15</f>
         <v>47789401468.744972</v>
       </c>
-      <c r="H5" s="388">
+      <c r="H8" s="388">
         <f>GECtwrdata!$H15</f>
         <v>35342917352.88517</v>
       </c>
-      <c r="N5" s="358"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="C6" s="380">
+      <c r="N8" s="358"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="C9" s="380">
         <f>GECtwrdata!$B16/9</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="D6">
+      <c r="D9">
         <f>GECtwrdata!$G16</f>
         <v>1319.6643913839366</v>
       </c>
-      <c r="E6" s="388">
+      <c r="E9" s="388">
         <f>GECtwrdata!$N16</f>
         <v>50601045349.013542</v>
       </c>
-      <c r="F6" s="388">
+      <c r="F9" s="388">
         <f>GECtwrdata!$N16</f>
         <v>50601045349.013542</v>
       </c>
-      <c r="G6" s="388">
+      <c r="G9" s="388">
         <f>GECtwrdata!$K16</f>
         <v>38923881037.702721</v>
       </c>
-      <c r="H6" s="388">
+      <c r="H9" s="388">
         <f>GECtwrdata!$H16</f>
         <v>32020974009.92263</v>
       </c>
-      <c r="N6" s="358"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="C7" s="380">
+      <c r="N9" s="358"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="C10" s="380">
         <f>GECtwrdata!$B17/9</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="D7">
+      <c r="D10">
         <f>GECtwrdata!$G17</f>
         <v>1189.4722103298889</v>
       </c>
-      <c r="E7" s="388">
+      <c r="E10" s="388">
         <f>GECtwrdata!$N17</f>
         <v>40756895137.180222</v>
       </c>
-      <c r="F7" s="388">
+      <c r="F10" s="388">
         <f>GECtwrdata!$N17</f>
         <v>40756895137.180222</v>
       </c>
-      <c r="G7" s="388">
+      <c r="G10" s="388">
         <f>GECtwrdata!$K17</f>
         <v>31351457797.830936</v>
       </c>
-      <c r="H7" s="388">
+      <c r="H10" s="388">
         <f>GECtwrdata!$H17</f>
         <v>28861928063.812893</v>
       </c>
-      <c r="N7" s="358"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="C8" s="380">
+      <c r="N10" s="358"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="C11" s="380">
         <f>GECtwrdata!$B18/9</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D8">
+      <c r="D11">
         <f>GECtwrdata!$G18</f>
         <v>1065.9934382436375</v>
       </c>
-      <c r="E8" s="388">
+      <c r="E11" s="388">
         <f>GECtwrdata!$N18</f>
         <v>32422036127.620483</v>
       </c>
-      <c r="F8" s="388">
+      <c r="F11" s="388">
         <f>GECtwrdata!$N18</f>
         <v>32422036127.620483</v>
       </c>
-      <c r="G8" s="388">
+      <c r="G11" s="388">
         <f>GECtwrdata!$K18</f>
         <v>24940027790.477295</v>
       </c>
-      <c r="H8" s="388">
+      <c r="H11" s="388">
         <f>GECtwrdata!$H18</f>
         <v>25865779514.555958</v>
       </c>
-      <c r="N8" s="358"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="C9" s="380">
+      <c r="N11" s="358"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="C12" s="380">
         <f>GECtwrdata!$B19/9</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="D9">
+      <c r="D12">
         <f>GECtwrdata!$G19</f>
         <v>949.2280751251825</v>
       </c>
-      <c r="E9" s="388">
+      <c r="E12" s="388">
         <f>GECtwrdata!$N19</f>
         <v>25433971568.120796</v>
       </c>
-      <c r="F9" s="388">
+      <c r="F12" s="388">
         <f>GECtwrdata!$N19</f>
         <v>25433971568.120796</v>
       </c>
-      <c r="G9" s="388">
+      <c r="G12" s="388">
         <f>GECtwrdata!$K19</f>
         <v>19564593513.939072</v>
       </c>
-      <c r="H9" s="388">
+      <c r="H12" s="388">
         <f>GECtwrdata!$H19</f>
         <v>23032528362.151833</v>
       </c>
-      <c r="N9" s="358"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="C10" s="380">
+      <c r="N12" s="358"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="C13" s="380">
         <f>GECtwrdata!$B20/9</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="D10">
+      <c r="D13">
         <f>GECtwrdata!$G20</f>
         <v>839.17612097452354</v>
       </c>
-      <c r="E10" s="388">
+      <c r="E13" s="388">
         <f>GECtwrdata!$N20</f>
         <v>19639443100.502033</v>
       </c>
-      <c r="F10" s="388">
+      <c r="F13" s="388">
         <f>GECtwrdata!$N20</f>
         <v>19639443100.502033</v>
       </c>
-      <c r="G10" s="388">
+      <c r="G13" s="388">
         <f>GECtwrdata!$K20</f>
         <v>15107263923.4631</v>
       </c>
-      <c r="H10" s="388">
+      <c r="H13" s="388">
         <f>GECtwrdata!$H20</f>
         <v>20362174606.60051</v>
       </c>
-      <c r="N10" s="358"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="C11" s="380">
+      <c r="N13" s="358"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="C14" s="380">
         <f>GECtwrdata!$B21/9</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="D11">
+      <c r="D14">
         <f>GECtwrdata!$G21</f>
         <v>735.83757579166081</v>
       </c>
-      <c r="E11" s="388">
+      <c r="E14" s="388">
         <f>GECtwrdata!$N21</f>
         <v>14894430760.619625</v>
       </c>
-      <c r="F11" s="388">
+      <c r="F14" s="388">
         <f>GECtwrdata!$N21</f>
         <v>14894430760.619625</v>
       </c>
-      <c r="G11" s="388">
+      <c r="G14" s="388">
         <f>GECtwrdata!$K21</f>
         <v>11457254431.245865</v>
       </c>
-      <c r="H11" s="388">
+      <c r="H14" s="388">
         <f>GECtwrdata!$H21</f>
         <v>17854718247.901989</v>
-      </c>
-      <c r="N11" s="358"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="C12" s="380">
-        <f>GECtwrdata!$B22/9</f>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="D12">
-        <f>GECtwrdata!$G22</f>
-        <v>639.21243957659442</v>
-      </c>
-      <c r="E12" s="388">
-        <f>GECtwrdata!$N22</f>
-        <v>11064152978.363453</v>
-      </c>
-      <c r="F12" s="388">
-        <f>GECtwrdata!$N22</f>
-        <v>11064152978.363453</v>
-      </c>
-      <c r="G12" s="388">
-        <f>GECtwrdata!$K22</f>
-        <v>8510886906.433424</v>
-      </c>
-      <c r="H12" s="388">
-        <f>GECtwrdata!$H22</f>
-        <v>15510159286.056276</v>
-      </c>
-      <c r="N12" s="358"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="C13" s="380">
-        <f>GECtwrdata!$B23/9</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="D13">
-        <f>GECtwrdata!$G23</f>
-        <v>549.3007123293238</v>
-      </c>
-      <c r="E13" s="388">
-        <f>GECtwrdata!$N23</f>
-        <v>8023066577.657836</v>
-      </c>
-      <c r="F13" s="388">
-        <f>GECtwrdata!$N23</f>
-        <v>8023066577.657836</v>
-      </c>
-      <c r="G13" s="388">
-        <f>GECtwrdata!$K23</f>
-        <v>6171589675.1214123</v>
-      </c>
-      <c r="H13" s="388">
-        <f>GECtwrdata!$H23</f>
-        <v>13328497721.063362</v>
-      </c>
-      <c r="N13" s="358"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="C14" s="380">
-        <f>GECtwrdata!$B24/9</f>
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <f>GECtwrdata!$G24</f>
-        <v>466.10239404984969</v>
-      </c>
-      <c r="E14" s="388">
-        <f>GECtwrdata!$N24</f>
-        <v>5654866776.461628</v>
-      </c>
-      <c r="F14" s="388">
-        <f>GECtwrdata!$N24</f>
-        <v>5654866776.461628</v>
-      </c>
-      <c r="G14" s="388">
-        <f>GECtwrdata!$K24</f>
-        <v>4349897520.3550978</v>
-      </c>
-      <c r="H14" s="388">
-        <f>GECtwrdata!$H24</f>
-        <v>11309733552.923256</v>
       </c>
       <c r="I14" s="377"/>
       <c r="J14" s="377"/>
@@ -13621,7 +13640,83 @@
       <c r="N14" s="358"/>
     </row>
     <row r="15" spans="1:14">
+      <c r="C15" s="380">
+        <f>GECtwrdata!$B22/9</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="D15">
+        <f>GECtwrdata!$G22</f>
+        <v>639.21243957659442</v>
+      </c>
+      <c r="E15" s="388">
+        <f>GECtwrdata!$N22</f>
+        <v>11064152978.363453</v>
+      </c>
+      <c r="F15" s="388">
+        <f>GECtwrdata!$N22</f>
+        <v>11064152978.363453</v>
+      </c>
+      <c r="G15" s="388">
+        <f>GECtwrdata!$K22</f>
+        <v>8510886906.433424</v>
+      </c>
+      <c r="H15" s="388">
+        <f>GECtwrdata!$H22</f>
+        <v>15510159286.056276</v>
+      </c>
       <c r="N15" s="358"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="C16" s="380">
+        <f>GECtwrdata!$B23/9</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="D16">
+        <f>GECtwrdata!$G23</f>
+        <v>549.3007123293238</v>
+      </c>
+      <c r="E16" s="388">
+        <f>GECtwrdata!$N23</f>
+        <v>8023066577.657836</v>
+      </c>
+      <c r="F16" s="388">
+        <f>GECtwrdata!$N23</f>
+        <v>8023066577.657836</v>
+      </c>
+      <c r="G16" s="388">
+        <f>GECtwrdata!$K23</f>
+        <v>6171589675.1214123</v>
+      </c>
+      <c r="H16" s="388">
+        <f>GECtwrdata!$H23</f>
+        <v>13328497721.063362</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17" s="380">
+        <f>GECtwrdata!$B24/9</f>
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <f>GECtwrdata!$G24</f>
+        <v>466.10239404984969</v>
+      </c>
+      <c r="E17" s="388">
+        <f>GECtwrdata!$N24</f>
+        <v>5654866776.461628</v>
+      </c>
+      <c r="F17" s="388">
+        <f>GECtwrdata!$N24</f>
+        <v>5654866776.461628</v>
+      </c>
+      <c r="G17" s="388">
+        <f>GECtwrdata!$K24</f>
+        <v>4349897520.3550978</v>
+      </c>
+      <c r="H17" s="388">
+        <f>GECtwrdata!$H24</f>
+        <v>11309733552.923256</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
